--- a/data/長期系列_CI指数_DI指数_DI景気指標.xlsx
+++ b/data/長期系列_CI指数_DI指数_DI景気指標.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\CI\０１／CI\０１／速報\★R7(2025)★\令和7年3月分\g研究所ホームページ掲載宛送付ファイル\jp\stat\di\di\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\CI\０１／CI\０２／速報からの改訂\★R7(2025)★\令和7年3月改訂\g研究所ホームページ掲載宛送付ファイル\jp\stat\di\di\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA041337-1482-41FD-951D-A887228D01D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D26D85A-6E17-4F22-95E3-5A64C4E82DD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300"/>
+    <workbookView xWindow="1350" yWindow="1950" windowWidth="25740" windowHeight="11880"/>
   </bookViews>
   <sheets>
     <sheet name="指数 Indexes" sheetId="1" r:id="rId1"/>
@@ -2801,14 +2801,14 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="8.08984375" customWidth="1"/>
-    <col min="4" max="15" width="10.6328125" customWidth="1"/>
+    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8.125" customWidth="1"/>
+    <col min="4" max="15" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="36" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="36" x14ac:dyDescent="0.15">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -2850,7 +2850,7 @@
       </c>
       <c r="P1" s="5"/>
     </row>
-    <row r="2" spans="1:16" s="1" customFormat="1" ht="72" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" s="1" customFormat="1" ht="72" x14ac:dyDescent="0.15">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -2892,7 +2892,7 @@
       </c>
       <c r="P2" s="5"/>
     </row>
-    <row r="3" spans="1:16" ht="24" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="24" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
         <v>18</v>
       </c>
@@ -2940,7 +2940,7 @@
       </c>
       <c r="P3" s="5"/>
     </row>
-    <row r="4" spans="1:16" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" s="1" customFormat="1" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A4" s="9" t="s">
         <v>20</v>
       </c>
@@ -2988,7 +2988,7 @@
       </c>
       <c r="P4" s="5"/>
     </row>
-    <row r="5" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -3018,7 +3018,7 @@
       <c r="O5" s="11"/>
       <c r="P5" s="12"/>
     </row>
-    <row r="6" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -3048,7 +3048,7 @@
       <c r="O6" s="6"/>
       <c r="P6" s="12"/>
     </row>
-    <row r="7" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="13" t="s">
         <v>24</v>
       </c>
@@ -3083,7 +3083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" s="13" t="s">
         <v>25</v>
       </c>
@@ -3118,7 +3118,7 @@
         <v>44.4</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9" s="13" t="s">
         <v>26</v>
       </c>
@@ -3153,7 +3153,7 @@
         <v>83.3</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10" s="13" t="s">
         <v>27</v>
       </c>
@@ -3188,7 +3188,7 @@
         <v>111.1</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" s="13" t="s">
         <v>28</v>
       </c>
@@ -3223,7 +3223,7 @@
         <v>116.7</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="13" t="s">
         <v>29</v>
       </c>
@@ -3258,7 +3258,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="13" t="s">
         <v>30</v>
       </c>
@@ -3293,7 +3293,7 @@
         <v>177.8</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14" s="13" t="s">
         <v>31</v>
       </c>
@@ -3328,7 +3328,7 @@
         <v>194.5</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" s="13" t="s">
         <v>32</v>
       </c>
@@ -3363,7 +3363,7 @@
         <v>211.2</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16" s="13" t="s">
         <v>33</v>
       </c>
@@ -3398,7 +3398,7 @@
         <v>227.9</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A17" s="13" t="s">
         <v>34</v>
       </c>
@@ -3433,7 +3433,7 @@
         <v>255.7</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A18" s="13" t="s">
         <v>35</v>
       </c>
@@ -3468,7 +3468,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A19" s="13" t="s">
         <v>36</v>
       </c>
@@ -3503,7 +3503,7 @@
         <v>244.6</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A20" s="13" t="s">
         <v>37</v>
       </c>
@@ -3538,7 +3538,7 @@
         <v>244.6</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A21" s="13" t="s">
         <v>38</v>
       </c>
@@ -3573,7 +3573,7 @@
         <v>272.39999999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A22" s="13" t="s">
         <v>39</v>
       </c>
@@ -3608,7 +3608,7 @@
         <v>266.8</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A23" s="13" t="s">
         <v>40</v>
       </c>
@@ -3643,7 +3643,7 @@
         <v>272.39999999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A24" s="13" t="s">
         <v>41</v>
       </c>
@@ -3678,7 +3678,7 @@
         <v>261.3</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A25" s="13" t="s">
         <v>42</v>
       </c>
@@ -3713,7 +3713,7 @@
         <v>250.2</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A26" s="13" t="s">
         <v>43</v>
       </c>
@@ -3748,7 +3748,7 @@
         <v>233.5</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A27" s="13" t="s">
         <v>44</v>
       </c>
@@ -3783,7 +3783,7 @@
         <v>239.1</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A28" s="13" t="s">
         <v>45</v>
       </c>
@@ -3818,7 +3818,7 @@
         <v>244.7</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A29" s="13" t="s">
         <v>46</v>
       </c>
@@ -3853,7 +3853,7 @@
         <v>239.1</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A30" s="13" t="s">
         <v>47</v>
       </c>
@@ -3888,7 +3888,7 @@
         <v>222.4</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A31" s="13" t="s">
         <v>48</v>
       </c>
@@ -3923,7 +3923,7 @@
         <v>239.1</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A32" s="13" t="s">
         <v>49</v>
       </c>
@@ -3958,7 +3958,7 @@
         <v>244.7</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A33" s="13" t="s">
         <v>50</v>
       </c>
@@ -3993,7 +3993,7 @@
         <v>250.3</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A34" s="13" t="s">
         <v>51</v>
       </c>
@@ -4028,7 +4028,7 @@
         <v>244.7</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A35" s="13" t="s">
         <v>52</v>
       </c>
@@ -4063,7 +4063,7 @@
         <v>250.3</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A36" s="13" t="s">
         <v>53</v>
       </c>
@@ -4098,7 +4098,7 @@
         <v>278.10000000000002</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A37" s="13" t="s">
         <v>54</v>
       </c>
@@ -4133,7 +4133,7 @@
         <v>278.10000000000002</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A38" s="13" t="s">
         <v>55</v>
       </c>
@@ -4168,7 +4168,7 @@
         <v>272.5</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A39" s="13" t="s">
         <v>56</v>
       </c>
@@ -4203,7 +4203,7 @@
         <v>255.8</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A40" s="13" t="s">
         <v>57</v>
       </c>
@@ -4238,7 +4238,7 @@
         <v>239.1</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A41" s="13" t="s">
         <v>58</v>
       </c>
@@ -4273,7 +4273,7 @@
         <v>222.4</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A42" s="13" t="s">
         <v>59</v>
       </c>
@@ -4308,7 +4308,7 @@
         <v>194.6</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A43" s="13" t="s">
         <v>60</v>
       </c>
@@ -4343,7 +4343,7 @@
         <v>166.8</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A44" s="13" t="s">
         <v>61</v>
       </c>
@@ -4378,7 +4378,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A45" s="13" t="s">
         <v>62</v>
       </c>
@@ -4413,7 +4413,7 @@
         <v>122.3</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A46" s="13" t="s">
         <v>63</v>
       </c>
@@ -4448,7 +4448,7 @@
         <v>116.7</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A47" s="13" t="s">
         <v>64</v>
       </c>
@@ -4483,7 +4483,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A48" s="13" t="s">
         <v>65</v>
       </c>
@@ -4518,7 +4518,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A49" s="13" t="s">
         <v>66</v>
       </c>
@@ -4553,7 +4553,7 @@
         <v>105.6</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A50" s="13" t="s">
         <v>67</v>
       </c>
@@ -4588,7 +4588,7 @@
         <v>122.3</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A51" s="13" t="s">
         <v>68</v>
       </c>
@@ -4623,7 +4623,7 @@
         <v>127.9</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A52" s="13" t="s">
         <v>69</v>
       </c>
@@ -4658,7 +4658,7 @@
         <v>122.3</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A53" s="13" t="s">
         <v>70</v>
       </c>
@@ -4693,7 +4693,7 @@
         <v>127.9</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A54" s="13" t="s">
         <v>71</v>
       </c>
@@ -4728,7 +4728,7 @@
         <v>127.9</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A55" s="13" t="s">
         <v>72</v>
       </c>
@@ -4763,7 +4763,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A56" s="13" t="s">
         <v>73</v>
       </c>
@@ -4798,7 +4798,7 @@
         <v>177.9</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A57" s="13" t="s">
         <v>74</v>
       </c>
@@ -4833,7 +4833,7 @@
         <v>216.8</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A58" s="13" t="s">
         <v>75</v>
       </c>
@@ -4868,7 +4868,7 @@
         <v>255.7</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A59" s="13" t="s">
         <v>76</v>
       </c>
@@ -4903,7 +4903,7 @@
         <v>272.39999999999998</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A60" s="13" t="s">
         <v>77</v>
       </c>
@@ -4938,7 +4938,7 @@
         <v>283.5</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A61" s="13" t="s">
         <v>78</v>
       </c>
@@ -4973,7 +4973,7 @@
         <v>311.3</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A62" s="13" t="s">
         <v>79</v>
       </c>
@@ -5008,7 +5008,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A63" s="13" t="s">
         <v>80</v>
       </c>
@@ -5043,7 +5043,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A64" s="13" t="s">
         <v>81</v>
       </c>
@@ -5078,7 +5078,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A65" s="13" t="s">
         <v>82</v>
       </c>
@@ -5113,7 +5113,7 @@
         <v>455.8</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A66" s="13" t="s">
         <v>83</v>
       </c>
@@ -5148,7 +5148,7 @@
         <v>494.7</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A67" s="13" t="s">
         <v>84</v>
       </c>
@@ -5195,7 +5195,7 @@
         <v>539.1</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A68" s="13" t="s">
         <v>85</v>
       </c>
@@ -5242,7 +5242,7 @@
         <v>566.9</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A69" s="13" t="s">
         <v>86</v>
       </c>
@@ -5289,7 +5289,7 @@
         <v>594.70000000000005</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A70" s="13" t="s">
         <v>87</v>
       </c>
@@ -5336,7 +5336,7 @@
         <v>611.4</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A71" s="13" t="s">
         <v>88</v>
       </c>
@@ -5383,7 +5383,7 @@
         <v>644.70000000000005</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A72" s="13" t="s">
         <v>89</v>
       </c>
@@ -5430,7 +5430,7 @@
         <v>655.8</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A73" s="13" t="s">
         <v>90</v>
       </c>
@@ -5477,7 +5477,7 @@
         <v>666.9</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A74" s="13" t="s">
         <v>91</v>
       </c>
@@ -5524,7 +5524,7 @@
         <v>694.7</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A75" s="13" t="s">
         <v>92</v>
       </c>
@@ -5571,7 +5571,7 @@
         <v>700.3</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A76" s="13" t="s">
         <v>93</v>
       </c>
@@ -5618,7 +5618,7 @@
         <v>683.6</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A77" s="13" t="s">
         <v>94</v>
       </c>
@@ -5665,7 +5665,7 @@
         <v>666.9</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A78" s="13" t="s">
         <v>95</v>
       </c>
@@ -5712,7 +5712,7 @@
         <v>672.5</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A79" s="13" t="s">
         <v>96</v>
       </c>
@@ -5759,7 +5759,7 @@
         <v>689.2</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A80" s="13" t="s">
         <v>97</v>
       </c>
@@ -5806,7 +5806,7 @@
         <v>705.9</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A81" s="13" t="s">
         <v>98</v>
       </c>
@@ -5853,7 +5853,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A82" s="13" t="s">
         <v>99</v>
       </c>
@@ -5900,7 +5900,7 @@
         <v>711.4</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A83" s="13" t="s">
         <v>100</v>
       </c>
@@ -5947,7 +5947,7 @@
         <v>700.3</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A84" s="13" t="s">
         <v>101</v>
       </c>
@@ -5994,7 +5994,7 @@
         <v>683.6</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A85" s="13" t="s">
         <v>102</v>
       </c>
@@ -6041,7 +6041,7 @@
         <v>683.6</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A86" s="13" t="s">
         <v>103</v>
       </c>
@@ -6088,7 +6088,7 @@
         <v>672.5</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A87" s="13" t="s">
         <v>104</v>
       </c>
@@ -6135,7 +6135,7 @@
         <v>672.5</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A88" s="13" t="s">
         <v>105</v>
       </c>
@@ -6182,7 +6182,7 @@
         <v>689.2</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A89" s="13" t="s">
         <v>106</v>
       </c>
@@ -6229,7 +6229,7 @@
         <v>705.9</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A90" s="13" t="s">
         <v>107</v>
       </c>
@@ -6276,7 +6276,7 @@
         <v>689.2</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A91" s="13" t="s">
         <v>108</v>
       </c>
@@ -6323,7 +6323,7 @@
         <v>694.8</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A92" s="13" t="s">
         <v>109</v>
       </c>
@@ -6370,7 +6370,7 @@
         <v>705.9</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A93" s="13" t="s">
         <v>110</v>
       </c>
@@ -6417,7 +6417,7 @@
         <v>722.6</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A94" s="13" t="s">
         <v>111</v>
       </c>
@@ -6464,7 +6464,7 @@
         <v>750.4</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A95" s="13" t="s">
         <v>112</v>
       </c>
@@ -6511,7 +6511,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A96" s="13" t="s">
         <v>113</v>
       </c>
@@ -6558,7 +6558,7 @@
         <v>767.1</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A97" s="13" t="s">
         <v>114</v>
       </c>
@@ -6605,7 +6605,7 @@
         <v>772.7</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A98" s="13" t="s">
         <v>115</v>
       </c>
@@ -6652,7 +6652,7 @@
         <v>783.8</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A99" s="13" t="s">
         <v>116</v>
       </c>
@@ -6699,7 +6699,7 @@
         <v>811.6</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A100" s="13" t="s">
         <v>117</v>
       </c>
@@ -6746,7 +6746,7 @@
         <v>833.8</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A101" s="13" t="s">
         <v>118</v>
       </c>
@@ -6793,7 +6793,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A102" s="13" t="s">
         <v>119</v>
       </c>
@@ -6840,7 +6840,7 @@
         <v>900.4</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A103" s="13" t="s">
         <v>120</v>
       </c>
@@ -6887,7 +6887,7 @@
         <v>928.2</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A104" s="13" t="s">
         <v>121</v>
       </c>
@@ -6934,7 +6934,7 @@
         <v>944.9</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A105" s="13" t="s">
         <v>122</v>
       </c>
@@ -6981,7 +6981,7 @@
         <v>972.7</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A106" s="13" t="s">
         <v>123</v>
       </c>
@@ -7028,7 +7028,7 @@
         <v>1011.6</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A107" s="13" t="s">
         <v>124</v>
       </c>
@@ -7075,7 +7075,7 @@
         <v>1039.4000000000001</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A108" s="13" t="s">
         <v>125</v>
       </c>
@@ -7122,7 +7122,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A109" s="13" t="s">
         <v>126</v>
       </c>
@@ -7169,7 +7169,7 @@
         <v>1067.2</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A110" s="13" t="s">
         <v>127</v>
       </c>
@@ -7216,7 +7216,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A111" s="13" t="s">
         <v>128</v>
       </c>
@@ -7263,7 +7263,7 @@
         <v>1133.9000000000001</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A112" s="13" t="s">
         <v>129</v>
       </c>
@@ -7310,7 +7310,7 @@
         <v>1183.9000000000001</v>
       </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A113" s="13" t="s">
         <v>130</v>
       </c>
@@ -7357,7 +7357,7 @@
         <v>1233.9000000000001</v>
       </c>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A114" s="13" t="s">
         <v>131</v>
       </c>
@@ -7404,7 +7404,7 @@
         <v>1261.7</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A115" s="13" t="s">
         <v>132</v>
       </c>
@@ -7451,7 +7451,7 @@
         <v>1289.5</v>
       </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A116" s="13" t="s">
         <v>133</v>
       </c>
@@ -7498,7 +7498,7 @@
         <v>1317.3</v>
       </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A117" s="13" t="s">
         <v>134</v>
       </c>
@@ -7545,7 +7545,7 @@
         <v>1361.7</v>
       </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A118" s="13" t="s">
         <v>135</v>
       </c>
@@ -7592,7 +7592,7 @@
         <v>1367.3</v>
       </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A119" s="13" t="s">
         <v>136</v>
       </c>
@@ -7639,7 +7639,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A120" s="13" t="s">
         <v>137</v>
       </c>
@@ -7686,7 +7686,7 @@
         <v>1400.7</v>
       </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A121" s="13" t="s">
         <v>138</v>
       </c>
@@ -7733,7 +7733,7 @@
         <v>1445.1</v>
       </c>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A122" s="13" t="s">
         <v>139</v>
       </c>
@@ -7780,7 +7780,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A123" s="13" t="s">
         <v>140</v>
       </c>
@@ -7827,7 +7827,7 @@
         <v>1495.1</v>
       </c>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A124" s="13" t="s">
         <v>141</v>
       </c>
@@ -7874,7 +7874,7 @@
         <v>1511.8</v>
       </c>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A125" s="13" t="s">
         <v>142</v>
       </c>
@@ -7921,7 +7921,7 @@
         <v>1539.6</v>
       </c>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A126" s="13" t="s">
         <v>143</v>
       </c>
@@ -7968,7 +7968,7 @@
         <v>1572.9</v>
       </c>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A127" s="13" t="s">
         <v>144</v>
       </c>
@@ -8015,7 +8015,7 @@
         <v>1622.9</v>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A128" s="13" t="s">
         <v>145</v>
       </c>
@@ -8062,7 +8062,7 @@
         <v>1661.8</v>
       </c>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A129" s="13" t="s">
         <v>146</v>
       </c>
@@ -8109,7 +8109,7 @@
         <v>1695.1</v>
       </c>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A130" s="13" t="s">
         <v>147</v>
       </c>
@@ -8156,7 +8156,7 @@
         <v>1717.3</v>
       </c>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A131" s="13" t="s">
         <v>148</v>
       </c>
@@ -8203,7 +8203,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A132" s="13" t="s">
         <v>149</v>
       </c>
@@ -8250,7 +8250,7 @@
         <v>1750.7</v>
       </c>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A133" s="13" t="s">
         <v>150</v>
       </c>
@@ -8297,7 +8297,7 @@
         <v>1745.1</v>
       </c>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A134" s="13" t="s">
         <v>151</v>
       </c>
@@ -8344,7 +8344,7 @@
         <v>1761.8</v>
       </c>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A135" s="13" t="s">
         <v>152</v>
       </c>
@@ -8391,7 +8391,7 @@
         <v>1778.5</v>
       </c>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A136" s="13" t="s">
         <v>153</v>
       </c>
@@ -8438,7 +8438,7 @@
         <v>1789.6</v>
       </c>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A137" s="13" t="s">
         <v>154</v>
       </c>
@@ -8485,7 +8485,7 @@
         <v>1789.6</v>
       </c>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A138" s="13" t="s">
         <v>155</v>
       </c>
@@ -8532,7 +8532,7 @@
         <v>1817.4</v>
       </c>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A139" s="13" t="s">
         <v>156</v>
       </c>
@@ -8579,7 +8579,7 @@
         <v>1845.2</v>
       </c>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A140" s="13" t="s">
         <v>157</v>
       </c>
@@ -8626,7 +8626,7 @@
         <v>1856.3</v>
       </c>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A141" s="13" t="s">
         <v>158</v>
       </c>
@@ -8673,7 +8673,7 @@
         <v>1850.7</v>
       </c>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A142" s="13" t="s">
         <v>159</v>
       </c>
@@ -8720,7 +8720,7 @@
         <v>1856.3</v>
       </c>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A143" s="13" t="s">
         <v>160</v>
       </c>
@@ -8767,7 +8767,7 @@
         <v>1867.4</v>
       </c>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A144" s="13" t="s">
         <v>161</v>
       </c>
@@ -8814,7 +8814,7 @@
         <v>1900.7</v>
       </c>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A145" s="13" t="s">
         <v>162</v>
       </c>
@@ -8861,7 +8861,7 @@
         <v>1911.8</v>
       </c>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A146" s="13" t="s">
         <v>163</v>
       </c>
@@ -8908,7 +8908,7 @@
         <v>1906.2</v>
       </c>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A147" s="13" t="s">
         <v>164</v>
       </c>
@@ -8955,7 +8955,7 @@
         <v>1889.5</v>
       </c>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A148" s="13" t="s">
         <v>165</v>
       </c>
@@ -9002,7 +9002,7 @@
         <v>1906.2</v>
       </c>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A149" s="13" t="s">
         <v>166</v>
       </c>
@@ -9049,7 +9049,7 @@
         <v>1934</v>
       </c>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A150" s="13" t="s">
         <v>167</v>
       </c>
@@ -9096,7 +9096,7 @@
         <v>1939.6</v>
       </c>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A151" s="13" t="s">
         <v>168</v>
       </c>
@@ -9143,7 +9143,7 @@
         <v>1922.9</v>
       </c>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A152" s="13" t="s">
         <v>169</v>
       </c>
@@ -9190,7 +9190,7 @@
         <v>1922.9</v>
       </c>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A153" s="13" t="s">
         <v>170</v>
       </c>
@@ -9237,7 +9237,7 @@
         <v>1906.2</v>
       </c>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A154" s="13" t="s">
         <v>171</v>
       </c>
@@ -9284,7 +9284,7 @@
         <v>1889.5</v>
       </c>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A155" s="13" t="s">
         <v>172</v>
       </c>
@@ -9331,7 +9331,7 @@
         <v>1861.7</v>
       </c>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A156" s="13" t="s">
         <v>173</v>
       </c>
@@ -9378,7 +9378,7 @@
         <v>1845</v>
       </c>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A157" s="13" t="s">
         <v>174</v>
       </c>
@@ -9425,7 +9425,7 @@
         <v>1817.2</v>
       </c>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A158" s="13" t="s">
         <v>175</v>
       </c>
@@ -9472,7 +9472,7 @@
         <v>1789.4</v>
       </c>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A159" s="13" t="s">
         <v>176</v>
       </c>
@@ -9519,7 +9519,7 @@
         <v>1761.6</v>
       </c>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A160" s="13" t="s">
         <v>177</v>
       </c>
@@ -9566,7 +9566,7 @@
         <v>1722.7</v>
       </c>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A161" s="13" t="s">
         <v>178</v>
       </c>
@@ -9613,7 +9613,7 @@
         <v>1683.8</v>
       </c>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A162" s="13" t="s">
         <v>179</v>
       </c>
@@ -9660,7 +9660,7 @@
         <v>1644.9</v>
       </c>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A163" s="13" t="s">
         <v>180</v>
       </c>
@@ -9707,7 +9707,7 @@
         <v>1639.3</v>
       </c>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A164" s="13" t="s">
         <v>181</v>
       </c>
@@ -9754,7 +9754,7 @@
         <v>1622.6</v>
       </c>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A165" s="13" t="s">
         <v>182</v>
       </c>
@@ -9801,7 +9801,7 @@
         <v>1600.4</v>
       </c>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A166" s="13" t="s">
         <v>183</v>
       </c>
@@ -9848,7 +9848,7 @@
         <v>1572.6</v>
       </c>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A167" s="13" t="s">
         <v>184</v>
       </c>
@@ -9895,7 +9895,7 @@
         <v>1544.8</v>
       </c>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A168" s="13" t="s">
         <v>185</v>
       </c>
@@ -9942,7 +9942,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A169" s="13" t="s">
         <v>186</v>
       </c>
@@ -9989,7 +9989,7 @@
         <v>1483.7</v>
       </c>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A170" s="13" t="s">
         <v>187</v>
       </c>
@@ -10036,7 +10036,7 @@
         <v>1489.3</v>
       </c>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A171" s="13" t="s">
         <v>188</v>
       </c>
@@ -10083,7 +10083,7 @@
         <v>1483.7</v>
       </c>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A172" s="13" t="s">
         <v>189</v>
       </c>
@@ -10130,7 +10130,7 @@
         <v>1478.1</v>
       </c>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A173" s="13" t="s">
         <v>190</v>
       </c>
@@ -10177,7 +10177,7 @@
         <v>1461.4</v>
       </c>
     </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A174" s="13" t="s">
         <v>191</v>
       </c>
@@ -10224,7 +10224,7 @@
         <v>1450.3</v>
       </c>
     </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A175" s="13" t="s">
         <v>192</v>
       </c>
@@ -10271,7 +10271,7 @@
         <v>1455.9</v>
       </c>
     </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A176" s="13" t="s">
         <v>193</v>
       </c>
@@ -10318,7 +10318,7 @@
         <v>1433.7</v>
       </c>
     </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A177" s="13" t="s">
         <v>194</v>
       </c>
@@ -10365,7 +10365,7 @@
         <v>1422.6</v>
       </c>
     </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A178" s="13" t="s">
         <v>195</v>
       </c>
@@ -10412,7 +10412,7 @@
         <v>1400.4</v>
       </c>
     </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A179" s="13" t="s">
         <v>196</v>
       </c>
@@ -10459,7 +10459,7 @@
         <v>1394.8</v>
       </c>
     </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A180" s="13" t="s">
         <v>197</v>
       </c>
@@ -10506,7 +10506,7 @@
         <v>1378.1</v>
       </c>
     </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A181" s="13" t="s">
         <v>198</v>
       </c>
@@ -10553,7 +10553,7 @@
         <v>1378.1</v>
       </c>
     </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A182" s="13" t="s">
         <v>199</v>
       </c>
@@ -10600,7 +10600,7 @@
         <v>1394.8</v>
       </c>
     </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A183" s="13" t="s">
         <v>200</v>
       </c>
@@ -10647,7 +10647,7 @@
         <v>1405.9</v>
       </c>
     </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A184" s="13" t="s">
         <v>201</v>
       </c>
@@ -10694,7 +10694,7 @@
         <v>1417</v>
       </c>
     </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A185" s="13" t="s">
         <v>202</v>
       </c>
@@ -10741,7 +10741,7 @@
         <v>1428.1</v>
       </c>
     </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A186" s="13" t="s">
         <v>203</v>
       </c>
@@ -10788,7 +10788,7 @@
         <v>1433.7</v>
       </c>
     </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A187" s="13" t="s">
         <v>204</v>
       </c>
@@ -10835,7 +10835,7 @@
         <v>1444.8</v>
       </c>
     </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A188" s="13" t="s">
         <v>205</v>
       </c>
@@ -10882,7 +10882,7 @@
         <v>1455.9</v>
       </c>
     </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A189" s="13" t="s">
         <v>206</v>
       </c>
@@ -10929,7 +10929,7 @@
         <v>1461.5</v>
       </c>
     </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A190" s="13" t="s">
         <v>207</v>
       </c>
@@ -10976,7 +10976,7 @@
         <v>1467.1</v>
       </c>
     </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A191" s="13" t="s">
         <v>208</v>
       </c>
@@ -11023,7 +11023,7 @@
         <v>1472.7</v>
       </c>
     </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A192" s="13" t="s">
         <v>209</v>
       </c>
@@ -11070,7 +11070,7 @@
         <v>1467.1</v>
       </c>
     </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A193" s="13" t="s">
         <v>210</v>
       </c>
@@ -11117,7 +11117,7 @@
         <v>1467.1</v>
       </c>
     </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A194" s="13" t="s">
         <v>211</v>
       </c>
@@ -11164,7 +11164,7 @@
         <v>1461.5</v>
       </c>
     </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A195" s="13" t="s">
         <v>212</v>
       </c>
@@ -11211,7 +11211,7 @@
         <v>1483.7</v>
       </c>
     </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A196" s="13" t="s">
         <v>213</v>
       </c>
@@ -11258,7 +11258,7 @@
         <v>1494.8</v>
       </c>
     </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A197" s="13" t="s">
         <v>214</v>
       </c>
@@ -11305,7 +11305,7 @@
         <v>1511.5</v>
       </c>
     </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A198" s="13" t="s">
         <v>215</v>
       </c>
@@ -11352,7 +11352,7 @@
         <v>1522.6</v>
       </c>
     </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A199" s="13" t="s">
         <v>216</v>
       </c>
@@ -11399,7 +11399,7 @@
         <v>1550.4</v>
       </c>
     </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A200" s="13" t="s">
         <v>217</v>
       </c>
@@ -11446,7 +11446,7 @@
         <v>1589.3</v>
       </c>
     </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A201" s="13" t="s">
         <v>218</v>
       </c>
@@ -11493,7 +11493,7 @@
         <v>1617.1</v>
       </c>
     </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A202" s="13" t="s">
         <v>219</v>
       </c>
@@ -11540,7 +11540,7 @@
         <v>1644.9</v>
       </c>
     </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A203" s="13" t="s">
         <v>220</v>
       </c>
@@ -11587,7 +11587,7 @@
         <v>1656</v>
       </c>
     </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A204" s="13" t="s">
         <v>221</v>
       </c>
@@ -11634,7 +11634,7 @@
         <v>1661.6</v>
       </c>
     </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A205" s="13" t="s">
         <v>222</v>
       </c>
@@ -11681,7 +11681,7 @@
         <v>1672.7</v>
       </c>
     </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A206" s="13" t="s">
         <v>223</v>
       </c>
@@ -11728,7 +11728,7 @@
         <v>1700.5</v>
       </c>
     </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A207" s="13" t="s">
         <v>224</v>
       </c>
@@ -11775,7 +11775,7 @@
         <v>1711.6</v>
       </c>
     </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A208" s="13" t="s">
         <v>225</v>
       </c>
@@ -11822,7 +11822,7 @@
         <v>1733.8</v>
       </c>
     </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A209" s="13" t="s">
         <v>226</v>
       </c>
@@ -11869,7 +11869,7 @@
         <v>1772.7</v>
       </c>
     </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A210" s="13" t="s">
         <v>227</v>
       </c>
@@ -11916,7 +11916,7 @@
         <v>1800.5</v>
       </c>
     </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A211" s="13" t="s">
         <v>228</v>
       </c>
@@ -11963,7 +11963,7 @@
         <v>1828.3</v>
       </c>
     </row>
-    <row r="212" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A212" s="13" t="s">
         <v>229</v>
       </c>
@@ -12010,7 +12010,7 @@
         <v>1828.3</v>
       </c>
     </row>
-    <row r="213" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A213" s="13" t="s">
         <v>230</v>
       </c>
@@ -12057,7 +12057,7 @@
         <v>1867.2</v>
       </c>
     </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A214" s="13" t="s">
         <v>231</v>
       </c>
@@ -12104,7 +12104,7 @@
         <v>1883.9</v>
       </c>
     </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A215" s="13" t="s">
         <v>232</v>
       </c>
@@ -12151,7 +12151,7 @@
         <v>1889.5</v>
       </c>
     </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A216" s="13" t="s">
         <v>233</v>
       </c>
@@ -12198,7 +12198,7 @@
         <v>1906.2</v>
       </c>
     </row>
-    <row r="217" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A217" s="13" t="s">
         <v>234</v>
       </c>
@@ -12245,7 +12245,7 @@
         <v>1934</v>
       </c>
     </row>
-    <row r="218" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A218" s="13" t="s">
         <v>235</v>
       </c>
@@ -12292,7 +12292,7 @@
         <v>1950.7</v>
       </c>
     </row>
-    <row r="219" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A219" s="13" t="s">
         <v>236</v>
       </c>
@@ -12339,7 +12339,7 @@
         <v>1967.4</v>
       </c>
     </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A220" s="13" t="s">
         <v>237</v>
       </c>
@@ -12386,7 +12386,7 @@
         <v>1961.8</v>
       </c>
     </row>
-    <row r="221" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A221" s="13" t="s">
         <v>238</v>
       </c>
@@ -12433,7 +12433,7 @@
         <v>1967.4</v>
       </c>
     </row>
-    <row r="222" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A222" s="13" t="s">
         <v>239</v>
       </c>
@@ -12480,7 +12480,7 @@
         <v>1961.8</v>
       </c>
     </row>
-    <row r="223" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A223" s="13" t="s">
         <v>240</v>
       </c>
@@ -12527,7 +12527,7 @@
         <v>1934</v>
       </c>
     </row>
-    <row r="224" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A224" s="13" t="s">
         <v>241</v>
       </c>
@@ -12574,7 +12574,7 @@
         <v>1906.2</v>
       </c>
     </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A225" s="13" t="s">
         <v>242</v>
       </c>
@@ -12621,7 +12621,7 @@
         <v>1856.2</v>
       </c>
     </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A226" s="13" t="s">
         <v>243</v>
       </c>
@@ -12668,7 +12668,7 @@
         <v>1828.4</v>
       </c>
     </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A227" s="13" t="s">
         <v>244</v>
       </c>
@@ -12715,7 +12715,7 @@
         <v>1800.6</v>
       </c>
     </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A228" s="13" t="s">
         <v>245</v>
       </c>
@@ -12762,7 +12762,7 @@
         <v>1783.9</v>
       </c>
     </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A229" s="13" t="s">
         <v>246</v>
       </c>
@@ -12809,7 +12809,7 @@
         <v>1761.7</v>
       </c>
     </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A230" s="13" t="s">
         <v>247</v>
       </c>
@@ -12856,7 +12856,7 @@
         <v>1728.4</v>
       </c>
     </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A231" s="13" t="s">
         <v>248</v>
       </c>
@@ -12903,7 +12903,7 @@
         <v>1700.6</v>
       </c>
     </row>
-    <row r="232" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A232" s="13" t="s">
         <v>249</v>
       </c>
@@ -12950,7 +12950,7 @@
         <v>1683.9</v>
       </c>
     </row>
-    <row r="233" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A233" s="13" t="s">
         <v>250</v>
       </c>
@@ -12997,7 +12997,7 @@
         <v>1656.1</v>
       </c>
     </row>
-    <row r="234" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A234" s="13" t="s">
         <v>251</v>
       </c>
@@ -13044,7 +13044,7 @@
         <v>1639.4</v>
       </c>
     </row>
-    <row r="235" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A235" s="13" t="s">
         <v>252</v>
       </c>
@@ -13091,7 +13091,7 @@
         <v>1645</v>
       </c>
     </row>
-    <row r="236" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A236" s="13" t="s">
         <v>253</v>
       </c>
@@ -13138,7 +13138,7 @@
         <v>1628.3</v>
       </c>
     </row>
-    <row r="237" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A237" s="13" t="s">
         <v>254</v>
       </c>
@@ -13185,7 +13185,7 @@
         <v>1611.6</v>
       </c>
     </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A238" s="13" t="s">
         <v>255</v>
       </c>
@@ -13232,7 +13232,7 @@
         <v>1578.3</v>
       </c>
     </row>
-    <row r="239" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A239" s="13" t="s">
         <v>256</v>
       </c>
@@ -13279,7 +13279,7 @@
         <v>1561.6</v>
       </c>
     </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A240" s="13" t="s">
         <v>257</v>
       </c>
@@ -13326,7 +13326,7 @@
         <v>1550.5</v>
       </c>
     </row>
-    <row r="241" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A241" s="13" t="s">
         <v>258</v>
       </c>
@@ -13373,7 +13373,7 @@
         <v>1550.5</v>
       </c>
     </row>
-    <row r="242" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A242" s="13" t="s">
         <v>259</v>
       </c>
@@ -13420,7 +13420,7 @@
         <v>1550.5</v>
       </c>
     </row>
-    <row r="243" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A243" s="13" t="s">
         <v>260</v>
       </c>
@@ -13467,7 +13467,7 @@
         <v>1561.6</v>
       </c>
     </row>
-    <row r="244" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A244" s="13" t="s">
         <v>261</v>
       </c>
@@ -13514,7 +13514,7 @@
         <v>1556</v>
       </c>
     </row>
-    <row r="245" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A245" s="13" t="s">
         <v>262</v>
       </c>
@@ -13561,7 +13561,7 @@
         <v>1550.4</v>
       </c>
     </row>
-    <row r="246" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A246" s="13" t="s">
         <v>263</v>
       </c>
@@ -13608,7 +13608,7 @@
         <v>1544.8</v>
       </c>
     </row>
-    <row r="247" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A247" s="13" t="s">
         <v>264</v>
       </c>
@@ -13655,7 +13655,7 @@
         <v>1539.2</v>
       </c>
     </row>
-    <row r="248" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A248" s="13" t="s">
         <v>265</v>
       </c>
@@ -13702,7 +13702,7 @@
         <v>1550.3</v>
       </c>
     </row>
-    <row r="249" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A249" s="13" t="s">
         <v>266</v>
       </c>
@@ -13749,7 +13749,7 @@
         <v>1578.1</v>
       </c>
     </row>
-    <row r="250" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A250" s="13" t="s">
         <v>267</v>
       </c>
@@ -13796,7 +13796,7 @@
         <v>1594.8</v>
       </c>
     </row>
-    <row r="251" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A251" s="13" t="s">
         <v>268</v>
       </c>
@@ -13843,7 +13843,7 @@
         <v>1600.4</v>
       </c>
     </row>
-    <row r="252" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A252" s="13" t="s">
         <v>269</v>
       </c>
@@ -13890,7 +13890,7 @@
         <v>1578.2</v>
       </c>
     </row>
-    <row r="253" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A253" s="13" t="s">
         <v>270</v>
       </c>
@@ -13937,7 +13937,7 @@
         <v>1578.2</v>
       </c>
     </row>
-    <row r="254" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A254" s="13" t="s">
         <v>271</v>
       </c>
@@ -13984,7 +13984,7 @@
         <v>1556</v>
       </c>
     </row>
-    <row r="255" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A255" s="13" t="s">
         <v>272</v>
       </c>
@@ -14031,7 +14031,7 @@
         <v>1539.3</v>
       </c>
     </row>
-    <row r="256" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A256" s="13" t="s">
         <v>273</v>
       </c>
@@ -14078,7 +14078,7 @@
         <v>1550.4</v>
       </c>
     </row>
-    <row r="257" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A257" s="13" t="s">
         <v>274</v>
       </c>
@@ -14125,7 +14125,7 @@
         <v>1556</v>
       </c>
     </row>
-    <row r="258" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A258" s="13" t="s">
         <v>275</v>
       </c>
@@ -14172,7 +14172,7 @@
         <v>1572.7</v>
       </c>
     </row>
-    <row r="259" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A259" s="13" t="s">
         <v>276</v>
       </c>
@@ -14219,7 +14219,7 @@
         <v>1544.9</v>
       </c>
     </row>
-    <row r="260" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A260" s="13" t="s">
         <v>277</v>
       </c>
@@ -14266,7 +14266,7 @@
         <v>1550.5</v>
       </c>
     </row>
-    <row r="261" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A261" s="13" t="s">
         <v>278</v>
       </c>
@@ -14313,7 +14313,7 @@
         <v>1539.4</v>
       </c>
     </row>
-    <row r="262" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A262" s="13" t="s">
         <v>279</v>
       </c>
@@ -14360,7 +14360,7 @@
         <v>1517.2</v>
       </c>
     </row>
-    <row r="263" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A263" s="13" t="s">
         <v>280</v>
       </c>
@@ -14407,7 +14407,7 @@
         <v>1506.1</v>
       </c>
     </row>
-    <row r="264" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A264" s="13" t="s">
         <v>281</v>
       </c>
@@ -14454,7 +14454,7 @@
         <v>1489.4</v>
       </c>
     </row>
-    <row r="265" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A265" s="13" t="s">
         <v>282</v>
       </c>
@@ -14501,7 +14501,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="266" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A266" s="13" t="s">
         <v>283</v>
       </c>
@@ -14548,7 +14548,7 @@
         <v>1483.9</v>
       </c>
     </row>
-    <row r="267" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A267" s="13" t="s">
         <v>284</v>
       </c>
@@ -14595,7 +14595,7 @@
         <v>1483.9</v>
       </c>
     </row>
-    <row r="268" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A268" s="13" t="s">
         <v>285</v>
       </c>
@@ -14642,7 +14642,7 @@
         <v>1478.3</v>
       </c>
     </row>
-    <row r="269" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A269" s="13" t="s">
         <v>286</v>
       </c>
@@ -14689,7 +14689,7 @@
         <v>1467.2</v>
       </c>
     </row>
-    <row r="270" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A270" s="13" t="s">
         <v>287</v>
       </c>
@@ -14736,7 +14736,7 @@
         <v>1433.9</v>
       </c>
     </row>
-    <row r="271" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A271" s="13" t="s">
         <v>288</v>
       </c>
@@ -14783,7 +14783,7 @@
         <v>1417.2</v>
       </c>
     </row>
-    <row r="272" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A272" s="13" t="s">
         <v>289</v>
       </c>
@@ -14830,7 +14830,7 @@
         <v>1395</v>
       </c>
     </row>
-    <row r="273" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A273" s="13" t="s">
         <v>290</v>
       </c>
@@ -14877,7 +14877,7 @@
         <v>1400.6</v>
       </c>
     </row>
-    <row r="274" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A274" s="13" t="s">
         <v>291</v>
       </c>
@@ -14924,7 +14924,7 @@
         <v>1378.4</v>
       </c>
     </row>
-    <row r="275" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A275" s="13" t="s">
         <v>292</v>
       </c>
@@ -14971,7 +14971,7 @@
         <v>1367.3</v>
       </c>
     </row>
-    <row r="276" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A276" s="13" t="s">
         <v>293</v>
       </c>
@@ -15018,7 +15018,7 @@
         <v>1350.6</v>
       </c>
     </row>
-    <row r="277" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A277" s="13" t="s">
         <v>294</v>
       </c>
@@ -15065,7 +15065,7 @@
         <v>1356.2</v>
       </c>
     </row>
-    <row r="278" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A278" s="13" t="s">
         <v>295</v>
       </c>
@@ -15112,7 +15112,7 @@
         <v>1350.6</v>
       </c>
     </row>
-    <row r="279" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A279" s="13" t="s">
         <v>296</v>
       </c>
@@ -15159,7 +15159,7 @@
         <v>1350.6</v>
       </c>
     </row>
-    <row r="280" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A280" s="13" t="s">
         <v>297</v>
       </c>
@@ -15206,7 +15206,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="281" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A281" s="13" t="s">
         <v>298</v>
       </c>
@@ -15253,7 +15253,7 @@
         <v>1350.6</v>
       </c>
     </row>
-    <row r="282" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A282" s="13" t="s">
         <v>299</v>
       </c>
@@ -15300,7 +15300,7 @@
         <v>1378.4</v>
       </c>
     </row>
-    <row r="283" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A283" s="13" t="s">
         <v>300</v>
       </c>
@@ -15347,7 +15347,7 @@
         <v>1372.8</v>
       </c>
     </row>
-    <row r="284" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A284" s="13" t="s">
         <v>301</v>
       </c>
@@ -15394,7 +15394,7 @@
         <v>1383.9</v>
       </c>
     </row>
-    <row r="285" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A285" s="13" t="s">
         <v>302</v>
       </c>
@@ -15441,7 +15441,7 @@
         <v>1395</v>
       </c>
     </row>
-    <row r="286" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A286" s="13" t="s">
         <v>303</v>
       </c>
@@ -15488,7 +15488,7 @@
         <v>1411.7</v>
       </c>
     </row>
-    <row r="287" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A287" s="13" t="s">
         <v>304</v>
       </c>
@@ -15535,7 +15535,7 @@
         <v>1422.8</v>
       </c>
     </row>
-    <row r="288" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A288" s="13" t="s">
         <v>305</v>
       </c>
@@ -15582,7 +15582,7 @@
         <v>1439.5</v>
       </c>
     </row>
-    <row r="289" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A289" s="13" t="s">
         <v>306</v>
       </c>
@@ -15629,7 +15629,7 @@
         <v>1467.3</v>
       </c>
     </row>
-    <row r="290" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A290" s="13" t="s">
         <v>307</v>
       </c>
@@ -15676,7 +15676,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="291" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A291" s="13" t="s">
         <v>308</v>
       </c>
@@ -15723,7 +15723,7 @@
         <v>1511.8</v>
       </c>
     </row>
-    <row r="292" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A292" s="13" t="s">
         <v>309</v>
       </c>
@@ -15770,7 +15770,7 @@
         <v>1550.7</v>
       </c>
     </row>
-    <row r="293" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A293" s="13" t="s">
         <v>310</v>
       </c>
@@ -15817,7 +15817,7 @@
         <v>1567.4</v>
       </c>
     </row>
-    <row r="294" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A294" s="13" t="s">
         <v>311</v>
       </c>
@@ -15864,7 +15864,7 @@
         <v>1584.1</v>
       </c>
     </row>
-    <row r="295" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A295" s="13" t="s">
         <v>312</v>
       </c>
@@ -15911,7 +15911,7 @@
         <v>1606.3</v>
       </c>
     </row>
-    <row r="296" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A296" s="13" t="s">
         <v>313</v>
       </c>
@@ -15958,7 +15958,7 @@
         <v>1634.1</v>
       </c>
     </row>
-    <row r="297" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A297" s="13" t="s">
         <v>314</v>
       </c>
@@ -16005,7 +16005,7 @@
         <v>1650.8</v>
       </c>
     </row>
-    <row r="298" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A298" s="13" t="s">
         <v>315</v>
       </c>
@@ -16052,7 +16052,7 @@
         <v>1656.4</v>
       </c>
     </row>
-    <row r="299" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A299" s="13" t="s">
         <v>316</v>
       </c>
@@ -16099,7 +16099,7 @@
         <v>1684.2</v>
       </c>
     </row>
-    <row r="300" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A300" s="13" t="s">
         <v>317</v>
       </c>
@@ -16146,7 +16146,7 @@
         <v>1717.5</v>
       </c>
     </row>
-    <row r="301" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A301" s="13" t="s">
         <v>318</v>
       </c>
@@ -16193,7 +16193,7 @@
         <v>1728.6</v>
       </c>
     </row>
-    <row r="302" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A302" s="13" t="s">
         <v>319</v>
       </c>
@@ -16240,7 +16240,7 @@
         <v>1750.8</v>
       </c>
     </row>
-    <row r="303" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A303" s="13" t="s">
         <v>320</v>
       </c>
@@ -16287,7 +16287,7 @@
         <v>1795.2</v>
       </c>
     </row>
-    <row r="304" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A304" s="13" t="s">
         <v>321</v>
       </c>
@@ -16334,7 +16334,7 @@
         <v>1806.3</v>
       </c>
     </row>
-    <row r="305" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A305" s="13" t="s">
         <v>322</v>
       </c>
@@ -16381,7 +16381,7 @@
         <v>1811.9</v>
       </c>
     </row>
-    <row r="306" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A306" s="13" t="s">
         <v>323</v>
       </c>
@@ -16428,7 +16428,7 @@
         <v>1806.3</v>
       </c>
     </row>
-    <row r="307" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A307" s="13" t="s">
         <v>324</v>
       </c>
@@ -16475,7 +16475,7 @@
         <v>1817.4</v>
       </c>
     </row>
-    <row r="308" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A308" s="13" t="s">
         <v>325</v>
       </c>
@@ -16522,7 +16522,7 @@
         <v>1817.4</v>
       </c>
     </row>
-    <row r="309" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A309" s="13" t="s">
         <v>326</v>
       </c>
@@ -16569,7 +16569,7 @@
         <v>1823</v>
       </c>
     </row>
-    <row r="310" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A310" s="13" t="s">
         <v>327</v>
       </c>
@@ -16616,7 +16616,7 @@
         <v>1850.8</v>
       </c>
     </row>
-    <row r="311" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A311" s="13" t="s">
         <v>328</v>
       </c>
@@ -16663,7 +16663,7 @@
         <v>1867.5</v>
       </c>
     </row>
-    <row r="312" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A312" s="13" t="s">
         <v>329</v>
       </c>
@@ -16710,7 +16710,7 @@
         <v>1884.2</v>
       </c>
     </row>
-    <row r="313" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A313" s="13" t="s">
         <v>330</v>
       </c>
@@ -16757,7 +16757,7 @@
         <v>1873.1</v>
       </c>
     </row>
-    <row r="314" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A314" s="13" t="s">
         <v>331</v>
       </c>
@@ -16804,7 +16804,7 @@
         <v>1889.8</v>
       </c>
     </row>
-    <row r="315" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A315" s="13" t="s">
         <v>332</v>
       </c>
@@ -16851,7 +16851,7 @@
         <v>1917.6</v>
       </c>
     </row>
-    <row r="316" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A316" s="13" t="s">
         <v>333</v>
       </c>
@@ -16898,7 +16898,7 @@
         <v>1939.8</v>
       </c>
     </row>
-    <row r="317" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A317" s="13" t="s">
         <v>334</v>
       </c>
@@ -16945,7 +16945,7 @@
         <v>1945.4</v>
       </c>
     </row>
-    <row r="318" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A318" s="13" t="s">
         <v>335</v>
       </c>
@@ -16992,7 +16992,7 @@
         <v>1951</v>
       </c>
     </row>
-    <row r="319" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A319" s="13" t="s">
         <v>336</v>
       </c>
@@ -17039,7 +17039,7 @@
         <v>1962.1</v>
       </c>
     </row>
-    <row r="320" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A320" s="13" t="s">
         <v>337</v>
       </c>
@@ -17086,7 +17086,7 @@
         <v>1984.3</v>
       </c>
     </row>
-    <row r="321" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A321" s="13" t="s">
         <v>338</v>
       </c>
@@ -17133,7 +17133,7 @@
         <v>2012.1</v>
       </c>
     </row>
-    <row r="322" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A322" s="13" t="s">
         <v>339</v>
       </c>
@@ -17180,7 +17180,7 @@
         <v>2045.4</v>
       </c>
     </row>
-    <row r="323" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A323" s="13" t="s">
         <v>340</v>
       </c>
@@ -17227,7 +17227,7 @@
         <v>2067.6</v>
       </c>
     </row>
-    <row r="324" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A324" s="13" t="s">
         <v>341</v>
       </c>
@@ -17274,7 +17274,7 @@
         <v>2106.5</v>
       </c>
     </row>
-    <row r="325" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A325" s="13" t="s">
         <v>342</v>
       </c>
@@ -17321,7 +17321,7 @@
         <v>2134.3000000000002</v>
       </c>
     </row>
-    <row r="326" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A326" s="13" t="s">
         <v>343</v>
       </c>
@@ -17368,7 +17368,7 @@
         <v>2151</v>
       </c>
     </row>
-    <row r="327" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A327" s="13" t="s">
         <v>344</v>
       </c>
@@ -17415,7 +17415,7 @@
         <v>2162.1</v>
       </c>
     </row>
-    <row r="328" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A328" s="13" t="s">
         <v>345</v>
       </c>
@@ -17462,7 +17462,7 @@
         <v>2173.1999999999998</v>
       </c>
     </row>
-    <row r="329" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A329" s="13" t="s">
         <v>346</v>
       </c>
@@ -17509,7 +17509,7 @@
         <v>2189.9</v>
       </c>
     </row>
-    <row r="330" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A330" s="13" t="s">
         <v>347</v>
       </c>
@@ -17556,7 +17556,7 @@
         <v>2217.6999999999998</v>
       </c>
     </row>
-    <row r="331" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A331" s="13" t="s">
         <v>348</v>
       </c>
@@ -17603,7 +17603,7 @@
         <v>2228.8000000000002</v>
       </c>
     </row>
-    <row r="332" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A332" s="13" t="s">
         <v>349</v>
       </c>
@@ -17650,7 +17650,7 @@
         <v>2201</v>
       </c>
     </row>
-    <row r="333" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A333" s="13" t="s">
         <v>350</v>
       </c>
@@ -17697,7 +17697,7 @@
         <v>2195.4</v>
       </c>
     </row>
-    <row r="334" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A334" s="13" t="s">
         <v>351</v>
       </c>
@@ -17744,7 +17744,7 @@
         <v>2189.8000000000002</v>
       </c>
     </row>
-    <row r="335" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A335" s="13" t="s">
         <v>352</v>
       </c>
@@ -17791,7 +17791,7 @@
         <v>2217.6</v>
       </c>
     </row>
-    <row r="336" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A336" s="13" t="s">
         <v>353</v>
       </c>
@@ -17838,7 +17838,7 @@
         <v>2245.4</v>
       </c>
     </row>
-    <row r="337" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A337" s="13" t="s">
         <v>354</v>
       </c>
@@ -17885,7 +17885,7 @@
         <v>2284.3000000000002</v>
       </c>
     </row>
-    <row r="338" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A338" s="13" t="s">
         <v>355</v>
       </c>
@@ -17932,7 +17932,7 @@
         <v>2306.5</v>
       </c>
     </row>
-    <row r="339" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A339" s="13" t="s">
         <v>356</v>
       </c>
@@ -17979,7 +17979,7 @@
         <v>2317.6</v>
       </c>
     </row>
-    <row r="340" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A340" s="13" t="s">
         <v>357</v>
       </c>
@@ -18026,7 +18026,7 @@
         <v>2334.3000000000002</v>
       </c>
     </row>
-    <row r="341" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A341" s="13" t="s">
         <v>358</v>
       </c>
@@ -18073,7 +18073,7 @@
         <v>2351</v>
       </c>
     </row>
-    <row r="342" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A342" s="13" t="s">
         <v>359</v>
       </c>
@@ -18120,7 +18120,7 @@
         <v>2378.8000000000002</v>
       </c>
     </row>
-    <row r="343" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A343" s="13" t="s">
         <v>360</v>
       </c>
@@ -18167,7 +18167,7 @@
         <v>2406.6</v>
       </c>
     </row>
-    <row r="344" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A344" s="13" t="s">
         <v>361</v>
       </c>
@@ -18214,7 +18214,7 @@
         <v>2401</v>
       </c>
     </row>
-    <row r="345" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A345" s="13" t="s">
         <v>362</v>
       </c>
@@ -18261,7 +18261,7 @@
         <v>2389.9</v>
       </c>
     </row>
-    <row r="346" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A346" s="13" t="s">
         <v>363</v>
       </c>
@@ -18308,7 +18308,7 @@
         <v>2351</v>
       </c>
     </row>
-    <row r="347" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A347" s="13" t="s">
         <v>364</v>
       </c>
@@ -18355,7 +18355,7 @@
         <v>2323.1999999999998</v>
       </c>
     </row>
-    <row r="348" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A348" s="13" t="s">
         <v>365</v>
       </c>
@@ -18402,7 +18402,7 @@
         <v>2295.4</v>
       </c>
     </row>
-    <row r="349" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A349" s="13" t="s">
         <v>366</v>
       </c>
@@ -18449,7 +18449,7 @@
         <v>2278.6999999999998</v>
       </c>
     </row>
-    <row r="350" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A350" s="13" t="s">
         <v>367</v>
       </c>
@@ -18496,7 +18496,7 @@
         <v>2239.8000000000002</v>
       </c>
     </row>
-    <row r="351" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A351" s="13" t="s">
         <v>368</v>
       </c>
@@ -18543,7 +18543,7 @@
         <v>2223.1</v>
       </c>
     </row>
-    <row r="352" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A352" s="13" t="s">
         <v>369</v>
       </c>
@@ -18590,7 +18590,7 @@
         <v>2184.1999999999998</v>
       </c>
     </row>
-    <row r="353" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A353" s="13" t="s">
         <v>370</v>
       </c>
@@ -18637,7 +18637,7 @@
         <v>2178.6</v>
       </c>
     </row>
-    <row r="354" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A354" s="13" t="s">
         <v>371</v>
       </c>
@@ -18684,7 +18684,7 @@
         <v>2128.6</v>
       </c>
     </row>
-    <row r="355" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A355" s="13" t="s">
         <v>372</v>
       </c>
@@ -18731,7 +18731,7 @@
         <v>2078.6</v>
       </c>
     </row>
-    <row r="356" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A356" s="13" t="s">
         <v>373</v>
       </c>
@@ -18778,7 +18778,7 @@
         <v>2028.6</v>
       </c>
     </row>
-    <row r="357" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A357" s="13" t="s">
         <v>374</v>
       </c>
@@ -18825,7 +18825,7 @@
         <v>1989.7</v>
       </c>
     </row>
-    <row r="358" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A358" s="13" t="s">
         <v>375</v>
       </c>
@@ -18872,7 +18872,7 @@
         <v>1950.8</v>
       </c>
     </row>
-    <row r="359" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A359" s="13" t="s">
         <v>376</v>
       </c>
@@ -18919,7 +18919,7 @@
         <v>1923</v>
       </c>
     </row>
-    <row r="360" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A360" s="13" t="s">
         <v>377</v>
       </c>
@@ -18966,7 +18966,7 @@
         <v>1884.1</v>
       </c>
     </row>
-    <row r="361" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A361" s="13" t="s">
         <v>378</v>
       </c>
@@ -19013,7 +19013,7 @@
         <v>1845.2</v>
       </c>
     </row>
-    <row r="362" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A362" s="13" t="s">
         <v>379</v>
       </c>
@@ -19060,7 +19060,7 @@
         <v>1828.5</v>
       </c>
     </row>
-    <row r="363" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A363" s="13" t="s">
         <v>380</v>
       </c>
@@ -19107,7 +19107,7 @@
         <v>1811.8</v>
       </c>
     </row>
-    <row r="364" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A364" s="13" t="s">
         <v>381</v>
       </c>
@@ -19154,7 +19154,7 @@
         <v>1800.7</v>
       </c>
     </row>
-    <row r="365" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A365" s="13" t="s">
         <v>382</v>
       </c>
@@ -19201,7 +19201,7 @@
         <v>1784</v>
       </c>
     </row>
-    <row r="366" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A366" s="13" t="s">
         <v>383</v>
       </c>
@@ -19248,7 +19248,7 @@
         <v>1789.6</v>
       </c>
     </row>
-    <row r="367" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A367" s="13" t="s">
         <v>384</v>
       </c>
@@ -19295,7 +19295,7 @@
         <v>1806.3</v>
       </c>
     </row>
-    <row r="368" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A368" s="13" t="s">
         <v>385</v>
       </c>
@@ -19342,7 +19342,7 @@
         <v>1811.9</v>
       </c>
     </row>
-    <row r="369" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A369" s="13" t="s">
         <v>386</v>
       </c>
@@ -19389,7 +19389,7 @@
         <v>1828.6</v>
       </c>
     </row>
-    <row r="370" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A370" s="13" t="s">
         <v>387</v>
       </c>
@@ -19436,7 +19436,7 @@
         <v>1811.9</v>
       </c>
     </row>
-    <row r="371" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A371" s="13" t="s">
         <v>388</v>
       </c>
@@ -19483,7 +19483,7 @@
         <v>1811.9</v>
       </c>
     </row>
-    <row r="372" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A372" s="13" t="s">
         <v>389</v>
       </c>
@@ -19530,7 +19530,7 @@
         <v>1806.3</v>
       </c>
     </row>
-    <row r="373" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A373" s="13" t="s">
         <v>390</v>
       </c>
@@ -19577,7 +19577,7 @@
         <v>1845.2</v>
       </c>
     </row>
-    <row r="374" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A374" s="13" t="s">
         <v>391</v>
       </c>
@@ -19624,7 +19624,7 @@
         <v>1867.4</v>
       </c>
     </row>
-    <row r="375" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A375" s="13" t="s">
         <v>392</v>
       </c>
@@ -19671,7 +19671,7 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="376" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A376" s="13" t="s">
         <v>393</v>
       </c>
@@ -19718,7 +19718,7 @@
         <v>1878.6</v>
       </c>
     </row>
-    <row r="377" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A377" s="13" t="s">
         <v>394</v>
       </c>
@@ -19765,7 +19765,7 @@
         <v>1906.4</v>
       </c>
     </row>
-    <row r="378" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A378" s="13" t="s">
         <v>395</v>
       </c>
@@ -19812,7 +19812,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="379" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A379" s="13" t="s">
         <v>396</v>
       </c>
@@ -19859,7 +19859,7 @@
         <v>1906.4</v>
       </c>
     </row>
-    <row r="380" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A380" s="13" t="s">
         <v>397</v>
       </c>
@@ -19906,7 +19906,7 @@
         <v>1923.1</v>
       </c>
     </row>
-    <row r="381" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A381" s="13" t="s">
         <v>398</v>
       </c>
@@ -19953,7 +19953,7 @@
         <v>1900.9</v>
       </c>
     </row>
-    <row r="382" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A382" s="13" t="s">
         <v>399</v>
       </c>
@@ -20000,7 +20000,7 @@
         <v>1884.2</v>
       </c>
     </row>
-    <row r="383" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A383" s="13" t="s">
         <v>400</v>
       </c>
@@ -20047,7 +20047,7 @@
         <v>1856.4</v>
       </c>
     </row>
-    <row r="384" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A384" s="13" t="s">
         <v>401</v>
       </c>
@@ -20094,7 +20094,7 @@
         <v>1873.1</v>
       </c>
     </row>
-    <row r="385" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A385" s="13" t="s">
         <v>402</v>
       </c>
@@ -20141,7 +20141,7 @@
         <v>1873.1</v>
       </c>
     </row>
-    <row r="386" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A386" s="13" t="s">
         <v>403</v>
       </c>
@@ -20188,7 +20188,7 @@
         <v>1900.9</v>
       </c>
     </row>
-    <row r="387" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A387" s="13" t="s">
         <v>404</v>
       </c>
@@ -20235,7 +20235,7 @@
         <v>1928.7</v>
       </c>
     </row>
-    <row r="388" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A388" s="13" t="s">
         <v>405</v>
       </c>
@@ -20282,7 +20282,7 @@
         <v>1945.4</v>
       </c>
     </row>
-    <row r="389" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A389" s="13" t="s">
         <v>406</v>
       </c>
@@ -20329,7 +20329,7 @@
         <v>1951</v>
       </c>
     </row>
-    <row r="390" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A390" s="13" t="s">
         <v>407</v>
       </c>
@@ -20376,7 +20376,7 @@
         <v>1939.9</v>
       </c>
     </row>
-    <row r="391" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A391" s="13" t="s">
         <v>408</v>
       </c>
@@ -20423,7 +20423,7 @@
         <v>1912.1</v>
       </c>
     </row>
-    <row r="392" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A392" s="13" t="s">
         <v>409</v>
       </c>
@@ -20470,7 +20470,7 @@
         <v>1917.7</v>
       </c>
     </row>
-    <row r="393" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A393" s="13" t="s">
         <v>410</v>
       </c>
@@ -20517,7 +20517,7 @@
         <v>1939.9</v>
       </c>
     </row>
-    <row r="394" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A394" s="13" t="s">
         <v>411</v>
       </c>
@@ -20564,7 +20564,7 @@
         <v>1967.7</v>
       </c>
     </row>
-    <row r="395" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A395" s="13" t="s">
         <v>412</v>
       </c>
@@ -20611,7 +20611,7 @@
         <v>1973.3</v>
       </c>
     </row>
-    <row r="396" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A396" s="13" t="s">
         <v>413</v>
       </c>
@@ -20658,7 +20658,7 @@
         <v>1967.7</v>
       </c>
     </row>
-    <row r="397" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A397" s="13" t="s">
         <v>414</v>
       </c>
@@ -20705,7 +20705,7 @@
         <v>1939.9</v>
       </c>
     </row>
-    <row r="398" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A398" s="13" t="s">
         <v>415</v>
       </c>
@@ -20752,7 +20752,7 @@
         <v>1923.2</v>
       </c>
     </row>
-    <row r="399" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A399" s="13" t="s">
         <v>416</v>
       </c>
@@ -20799,7 +20799,7 @@
         <v>1917.6</v>
       </c>
     </row>
-    <row r="400" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A400" s="13" t="s">
         <v>417</v>
       </c>
@@ -20846,7 +20846,7 @@
         <v>1939.8</v>
       </c>
     </row>
-    <row r="401" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A401" s="13" t="s">
         <v>418</v>
       </c>
@@ -20893,7 +20893,7 @@
         <v>1956.5</v>
       </c>
     </row>
-    <row r="402" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A402" s="13" t="s">
         <v>419</v>
       </c>
@@ -20940,7 +20940,7 @@
         <v>1950.9</v>
       </c>
     </row>
-    <row r="403" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A403" s="13" t="s">
         <v>420</v>
       </c>
@@ -20987,7 +20987,7 @@
         <v>1934.2</v>
       </c>
     </row>
-    <row r="404" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A404" s="13" t="s">
         <v>421</v>
       </c>
@@ -21034,7 +21034,7 @@
         <v>1928.6</v>
       </c>
     </row>
-    <row r="405" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A405" s="13" t="s">
         <v>422</v>
       </c>
@@ -21081,7 +21081,7 @@
         <v>1923</v>
       </c>
     </row>
-    <row r="406" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A406" s="13" t="s">
         <v>423</v>
       </c>
@@ -21128,7 +21128,7 @@
         <v>1917.4</v>
       </c>
     </row>
-    <row r="407" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A407" s="13" t="s">
         <v>424</v>
       </c>
@@ -21175,7 +21175,7 @@
         <v>1923</v>
       </c>
     </row>
-    <row r="408" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A408" s="13" t="s">
         <v>425</v>
       </c>
@@ -21222,7 +21222,7 @@
         <v>1928.6</v>
       </c>
     </row>
-    <row r="409" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A409" s="13" t="s">
         <v>426</v>
       </c>
@@ -21269,7 +21269,7 @@
         <v>1934.2</v>
       </c>
     </row>
-    <row r="410" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A410" s="13" t="s">
         <v>427</v>
       </c>
@@ -21316,7 +21316,7 @@
         <v>1945.3</v>
       </c>
     </row>
-    <row r="411" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A411" s="13" t="s">
         <v>428</v>
       </c>
@@ -21363,7 +21363,7 @@
         <v>1973.1</v>
       </c>
     </row>
-    <row r="412" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A412" s="13" t="s">
         <v>429</v>
       </c>
@@ -21410,7 +21410,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="413" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A413" s="13" t="s">
         <v>430</v>
       </c>
@@ -21457,7 +21457,7 @@
         <v>2039.8</v>
       </c>
     </row>
-    <row r="414" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A414" s="13" t="s">
         <v>431</v>
       </c>
@@ -21504,7 +21504,7 @@
         <v>2067.6</v>
       </c>
     </row>
-    <row r="415" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A415" s="13" t="s">
         <v>432</v>
       </c>
@@ -21551,7 +21551,7 @@
         <v>2117.6</v>
       </c>
     </row>
-    <row r="416" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A416" s="13" t="s">
         <v>433</v>
       </c>
@@ -21598,7 +21598,7 @@
         <v>2134.3000000000002</v>
       </c>
     </row>
-    <row r="417" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A417" s="13" t="s">
         <v>434</v>
       </c>
@@ -21645,7 +21645,7 @@
         <v>2145.4</v>
       </c>
     </row>
-    <row r="418" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A418" s="13" t="s">
         <v>435</v>
       </c>
@@ -21692,7 +21692,7 @@
         <v>2123.1999999999998</v>
       </c>
     </row>
-    <row r="419" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A419" s="13" t="s">
         <v>436</v>
       </c>
@@ -21739,7 +21739,7 @@
         <v>2139.9</v>
       </c>
     </row>
-    <row r="420" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A420" s="13" t="s">
         <v>437</v>
       </c>
@@ -21786,7 +21786,7 @@
         <v>2139.9</v>
       </c>
     </row>
-    <row r="421" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A421" s="13" t="s">
         <v>438</v>
       </c>
@@ -21833,7 +21833,7 @@
         <v>2173.1999999999998</v>
       </c>
     </row>
-    <row r="422" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A422" s="13" t="s">
         <v>439</v>
       </c>
@@ -21880,7 +21880,7 @@
         <v>2167.6</v>
       </c>
     </row>
-    <row r="423" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A423" s="13" t="s">
         <v>440</v>
       </c>
@@ -21927,7 +21927,7 @@
         <v>2162</v>
       </c>
     </row>
-    <row r="424" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A424" s="13" t="s">
         <v>441</v>
       </c>
@@ -21974,7 +21974,7 @@
         <v>2145.3000000000002</v>
       </c>
     </row>
-    <row r="425" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A425" s="13" t="s">
         <v>442</v>
       </c>
@@ -22021,7 +22021,7 @@
         <v>2139.6999999999998</v>
       </c>
     </row>
-    <row r="426" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A426" s="13" t="s">
         <v>443</v>
       </c>
@@ -22068,7 +22068,7 @@
         <v>2128.6</v>
       </c>
     </row>
-    <row r="427" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A427" s="13" t="s">
         <v>444</v>
       </c>
@@ -22115,7 +22115,7 @@
         <v>2145.3000000000002</v>
       </c>
     </row>
-    <row r="428" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A428" s="13" t="s">
         <v>445</v>
       </c>
@@ -22162,7 +22162,7 @@
         <v>2134.1999999999998</v>
       </c>
     </row>
-    <row r="429" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A429" s="13" t="s">
         <v>446</v>
       </c>
@@ -22209,7 +22209,7 @@
         <v>2139.8000000000002</v>
       </c>
     </row>
-    <row r="430" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A430" s="13" t="s">
         <v>447</v>
       </c>
@@ -22256,7 +22256,7 @@
         <v>2156.5</v>
       </c>
     </row>
-    <row r="431" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A431" s="13" t="s">
         <v>448</v>
       </c>
@@ -22303,7 +22303,7 @@
         <v>2173.1999999999998</v>
       </c>
     </row>
-    <row r="432" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A432" s="13" t="s">
         <v>449</v>
       </c>
@@ -22350,7 +22350,7 @@
         <v>2184.3000000000002</v>
       </c>
     </row>
-    <row r="433" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A433" s="13" t="s">
         <v>450</v>
       </c>
@@ -22397,7 +22397,7 @@
         <v>2178.6999999999998</v>
       </c>
     </row>
-    <row r="434" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A434" s="13" t="s">
         <v>451</v>
       </c>
@@ -22444,7 +22444,7 @@
         <v>2162</v>
       </c>
     </row>
-    <row r="435" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A435" s="13" t="s">
         <v>452</v>
       </c>
@@ -22491,7 +22491,7 @@
         <v>2167.6</v>
       </c>
     </row>
-    <row r="436" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A436" s="13" t="s">
         <v>453</v>
       </c>
@@ -22538,7 +22538,7 @@
         <v>2150.9</v>
       </c>
     </row>
-    <row r="437" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A437" s="13" t="s">
         <v>454</v>
       </c>
@@ -22585,7 +22585,7 @@
         <v>2167.6</v>
       </c>
     </row>
-    <row r="438" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A438" s="13" t="s">
         <v>455</v>
       </c>
@@ -22632,7 +22632,7 @@
         <v>2173.1999999999998</v>
       </c>
     </row>
-    <row r="439" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A439" s="13" t="s">
         <v>456</v>
       </c>
@@ -22679,7 +22679,7 @@
         <v>2184.3000000000002</v>
       </c>
     </row>
-    <row r="440" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A440" s="13" t="s">
         <v>457</v>
       </c>
@@ -22726,7 +22726,7 @@
         <v>2184.3000000000002</v>
       </c>
     </row>
-    <row r="441" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A441" s="13" t="s">
         <v>458</v>
       </c>
@@ -22773,7 +22773,7 @@
         <v>2189.9</v>
       </c>
     </row>
-    <row r="442" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A442" s="13" t="s">
         <v>459</v>
       </c>
@@ -22820,7 +22820,7 @@
         <v>2206.6</v>
       </c>
     </row>
-    <row r="443" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A443" s="13" t="s">
         <v>460</v>
       </c>
@@ -22867,7 +22867,7 @@
         <v>2189.9</v>
       </c>
     </row>
-    <row r="444" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A444" s="13" t="s">
         <v>461</v>
       </c>
@@ -22914,7 +22914,7 @@
         <v>2195.5</v>
       </c>
     </row>
-    <row r="445" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A445" s="13" t="s">
         <v>462</v>
       </c>
@@ -22961,7 +22961,7 @@
         <v>2212.1999999999998</v>
       </c>
     </row>
-    <row r="446" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A446" s="13" t="s">
         <v>463</v>
       </c>
@@ -23008,7 +23008,7 @@
         <v>2240</v>
       </c>
     </row>
-    <row r="447" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A447" s="13" t="s">
         <v>464</v>
       </c>
@@ -23055,7 +23055,7 @@
         <v>2262.1999999999998</v>
       </c>
     </row>
-    <row r="448" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A448" s="13" t="s">
         <v>465</v>
       </c>
@@ -23102,7 +23102,7 @@
         <v>2301.1</v>
       </c>
     </row>
-    <row r="449" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A449" s="13" t="s">
         <v>466</v>
       </c>
@@ -23149,7 +23149,7 @@
         <v>2328.9</v>
       </c>
     </row>
-    <row r="450" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A450" s="13" t="s">
         <v>467</v>
       </c>
@@ -23196,7 +23196,7 @@
         <v>2356.6999999999998</v>
       </c>
     </row>
-    <row r="451" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A451" s="13" t="s">
         <v>468</v>
       </c>
@@ -23243,7 +23243,7 @@
         <v>2384.5</v>
       </c>
     </row>
-    <row r="452" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A452" s="13" t="s">
         <v>469</v>
       </c>
@@ -23290,7 +23290,7 @@
         <v>2423.4</v>
       </c>
     </row>
-    <row r="453" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A453" s="13" t="s">
         <v>470</v>
       </c>
@@ -23337,7 +23337,7 @@
         <v>2462.3000000000002</v>
       </c>
     </row>
-    <row r="454" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A454" s="13" t="s">
         <v>471</v>
       </c>
@@ -23384,7 +23384,7 @@
         <v>2479</v>
       </c>
     </row>
-    <row r="455" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A455" s="13" t="s">
         <v>472</v>
       </c>
@@ -23431,7 +23431,7 @@
         <v>2495.6999999999998</v>
       </c>
     </row>
-    <row r="456" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A456" s="13" t="s">
         <v>473</v>
       </c>
@@ -23478,7 +23478,7 @@
         <v>2501.3000000000002</v>
       </c>
     </row>
-    <row r="457" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A457" s="13" t="s">
         <v>474</v>
       </c>
@@ -23525,7 +23525,7 @@
         <v>2506.9</v>
       </c>
     </row>
-    <row r="458" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A458" s="13" t="s">
         <v>475</v>
       </c>
@@ -23572,7 +23572,7 @@
         <v>2512.5</v>
       </c>
     </row>
-    <row r="459" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A459" s="13" t="s">
         <v>476</v>
       </c>
@@ -23619,7 +23619,7 @@
         <v>2540.3000000000002</v>
       </c>
     </row>
-    <row r="460" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A460" s="13" t="s">
         <v>477</v>
       </c>
@@ -23666,7 +23666,7 @@
         <v>2584.6999999999998</v>
       </c>
     </row>
-    <row r="461" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A461" s="13" t="s">
         <v>478</v>
       </c>
@@ -23713,7 +23713,7 @@
         <v>2634.7</v>
       </c>
     </row>
-    <row r="462" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A462" s="13" t="s">
         <v>479</v>
       </c>
@@ -23760,7 +23760,7 @@
         <v>2673.6</v>
       </c>
     </row>
-    <row r="463" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A463" s="13" t="s">
         <v>480</v>
       </c>
@@ -23807,7 +23807,7 @@
         <v>2673.6</v>
       </c>
     </row>
-    <row r="464" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A464" s="13" t="s">
         <v>481</v>
       </c>
@@ -23854,7 +23854,7 @@
         <v>2695.8</v>
       </c>
     </row>
-    <row r="465" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A465" s="13" t="s">
         <v>482</v>
       </c>
@@ -23901,7 +23901,7 @@
         <v>2706.9</v>
       </c>
     </row>
-    <row r="466" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A466" s="13" t="s">
         <v>483</v>
       </c>
@@ -23948,7 +23948,7 @@
         <v>2712.5</v>
       </c>
     </row>
-    <row r="467" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A467" s="13" t="s">
         <v>484</v>
       </c>
@@ -23995,7 +23995,7 @@
         <v>2718.1</v>
       </c>
     </row>
-    <row r="468" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A468" s="13" t="s">
         <v>485</v>
       </c>
@@ -24042,7 +24042,7 @@
         <v>2723.7</v>
       </c>
     </row>
-    <row r="469" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A469" s="13" t="s">
         <v>486</v>
       </c>
@@ -24089,7 +24089,7 @@
         <v>2707</v>
       </c>
     </row>
-    <row r="470" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A470" s="13" t="s">
         <v>487</v>
       </c>
@@ -24136,7 +24136,7 @@
         <v>2695.9</v>
       </c>
     </row>
-    <row r="471" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A471" s="13" t="s">
         <v>488</v>
       </c>
@@ -24183,7 +24183,7 @@
         <v>2701.5</v>
       </c>
     </row>
-    <row r="472" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A472" s="13" t="s">
         <v>489</v>
       </c>
@@ -24230,7 +24230,7 @@
         <v>2707.1</v>
       </c>
     </row>
-    <row r="473" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A473" s="13" t="s">
         <v>490</v>
       </c>
@@ -24277,7 +24277,7 @@
         <v>2707.1</v>
       </c>
     </row>
-    <row r="474" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A474" s="13" t="s">
         <v>491</v>
       </c>
@@ -24324,7 +24324,7 @@
         <v>2707.1</v>
       </c>
     </row>
-    <row r="475" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A475" s="13" t="s">
         <v>492</v>
       </c>
@@ -24371,7 +24371,7 @@
         <v>2718.2</v>
       </c>
     </row>
-    <row r="476" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A476" s="13" t="s">
         <v>493</v>
       </c>
@@ -24418,7 +24418,7 @@
         <v>2734.9</v>
       </c>
     </row>
-    <row r="477" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A477" s="13" t="s">
         <v>494</v>
       </c>
@@ -24465,7 +24465,7 @@
         <v>2751.6</v>
       </c>
     </row>
-    <row r="478" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A478" s="13" t="s">
         <v>495</v>
       </c>
@@ -24512,7 +24512,7 @@
         <v>2757.2</v>
       </c>
     </row>
-    <row r="479" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A479" s="13" t="s">
         <v>496</v>
       </c>
@@ -24559,7 +24559,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="480" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A480" s="13" t="s">
         <v>497</v>
       </c>
@@ -24606,7 +24606,7 @@
         <v>2801.7</v>
       </c>
     </row>
-    <row r="481" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A481" s="13" t="s">
         <v>498</v>
       </c>
@@ -24653,7 +24653,7 @@
         <v>2807.3</v>
       </c>
     </row>
-    <row r="482" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A482" s="13" t="s">
         <v>499</v>
       </c>
@@ -24700,7 +24700,7 @@
         <v>2790.6</v>
       </c>
     </row>
-    <row r="483" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A483" s="13" t="s">
         <v>500</v>
       </c>
@@ -24747,7 +24747,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="484" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A484" s="13" t="s">
         <v>501</v>
       </c>
@@ -24794,7 +24794,7 @@
         <v>2757.2</v>
       </c>
     </row>
-    <row r="485" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A485" s="13" t="s">
         <v>502</v>
       </c>
@@ -24841,7 +24841,7 @@
         <v>2723.9</v>
       </c>
     </row>
-    <row r="486" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A486" s="13" t="s">
         <v>503</v>
       </c>
@@ -24888,7 +24888,7 @@
         <v>2707.2</v>
       </c>
     </row>
-    <row r="487" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A487" s="13" t="s">
         <v>504</v>
       </c>
@@ -24935,7 +24935,7 @@
         <v>2712.8</v>
       </c>
     </row>
-    <row r="488" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A488" s="13" t="s">
         <v>505</v>
       </c>
@@ -24982,7 +24982,7 @@
         <v>2696.1</v>
       </c>
     </row>
-    <row r="489" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A489" s="13" t="s">
         <v>506</v>
       </c>
@@ -25029,7 +25029,7 @@
         <v>2657.2</v>
       </c>
     </row>
-    <row r="490" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A490" s="13" t="s">
         <v>507</v>
       </c>
@@ -25076,7 +25076,7 @@
         <v>2618.3000000000002</v>
       </c>
     </row>
-    <row r="491" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A491" s="13" t="s">
         <v>508</v>
       </c>
@@ -25123,7 +25123,7 @@
         <v>2573.9</v>
       </c>
     </row>
-    <row r="492" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A492" s="13" t="s">
         <v>509</v>
       </c>
@@ -25170,7 +25170,7 @@
         <v>2546.1</v>
       </c>
     </row>
-    <row r="493" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A493" s="13" t="s">
         <v>510</v>
       </c>
@@ -25217,7 +25217,7 @@
         <v>2540.5</v>
       </c>
     </row>
-    <row r="494" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A494" s="13" t="s">
         <v>511</v>
       </c>
@@ -25264,7 +25264,7 @@
         <v>2546.1</v>
       </c>
     </row>
-    <row r="495" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A495" s="13" t="s">
         <v>512</v>
       </c>
@@ -25311,7 +25311,7 @@
         <v>2540.5</v>
       </c>
     </row>
-    <row r="496" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A496" s="13" t="s">
         <v>513</v>
       </c>
@@ -25358,7 +25358,7 @@
         <v>2523.8000000000002</v>
       </c>
     </row>
-    <row r="497" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A497" s="13" t="s">
         <v>514</v>
       </c>
@@ -25405,7 +25405,7 @@
         <v>2518.1999999999998</v>
       </c>
     </row>
-    <row r="498" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A498" s="13" t="s">
         <v>515</v>
       </c>
@@ -25452,7 +25452,7 @@
         <v>2501.5</v>
       </c>
     </row>
-    <row r="499" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A499" s="13" t="s">
         <v>516</v>
       </c>
@@ -25499,7 +25499,7 @@
         <v>2501.5</v>
       </c>
     </row>
-    <row r="500" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A500" s="13" t="s">
         <v>517</v>
       </c>
@@ -25546,7 +25546,7 @@
         <v>2523.6999999999998</v>
       </c>
     </row>
-    <row r="501" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A501" s="13" t="s">
         <v>518</v>
       </c>
@@ -25593,7 +25593,7 @@
         <v>2573.6999999999998</v>
       </c>
     </row>
-    <row r="502" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A502" s="13" t="s">
         <v>519</v>
       </c>
@@ -25640,7 +25640,7 @@
         <v>2612.6</v>
       </c>
     </row>
-    <row r="503" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A503" s="13" t="s">
         <v>520</v>
       </c>
@@ -25687,7 +25687,7 @@
         <v>2651.5</v>
       </c>
     </row>
-    <row r="504" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A504" s="13" t="s">
         <v>521</v>
       </c>
@@ -25734,7 +25734,7 @@
         <v>2657.1</v>
       </c>
     </row>
-    <row r="505" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A505" s="13" t="s">
         <v>522</v>
       </c>
@@ -25781,7 +25781,7 @@
         <v>2668.2</v>
       </c>
     </row>
-    <row r="506" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A506" s="13" t="s">
         <v>523</v>
       </c>
@@ -25828,7 +25828,7 @@
         <v>2673.8</v>
       </c>
     </row>
-    <row r="507" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A507" s="13" t="s">
         <v>524</v>
       </c>
@@ -25875,7 +25875,7 @@
         <v>2657.1</v>
       </c>
     </row>
-    <row r="508" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A508" s="13" t="s">
         <v>525</v>
       </c>
@@ -25922,7 +25922,7 @@
         <v>2640.4</v>
       </c>
     </row>
-    <row r="509" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A509" s="13" t="s">
         <v>526</v>
       </c>
@@ -25969,7 +25969,7 @@
         <v>2634.8</v>
       </c>
     </row>
-    <row r="510" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A510" s="13" t="s">
         <v>527</v>
       </c>
@@ -26016,7 +26016,7 @@
         <v>2657</v>
       </c>
     </row>
-    <row r="511" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A511" s="13" t="s">
         <v>528</v>
       </c>
@@ -26063,7 +26063,7 @@
         <v>2673.7</v>
       </c>
     </row>
-    <row r="512" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A512" s="13" t="s">
         <v>529</v>
       </c>
@@ -26110,7 +26110,7 @@
         <v>2701.5</v>
       </c>
     </row>
-    <row r="513" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A513" s="13" t="s">
         <v>530</v>
       </c>
@@ -26157,7 +26157,7 @@
         <v>2707.1</v>
       </c>
     </row>
-    <row r="514" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A514" s="13" t="s">
         <v>531</v>
       </c>
@@ -26204,7 +26204,7 @@
         <v>2718.2</v>
       </c>
     </row>
-    <row r="515" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A515" s="13" t="s">
         <v>532</v>
       </c>
@@ -26251,7 +26251,7 @@
         <v>2723.8</v>
       </c>
     </row>
-    <row r="516" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A516" s="13" t="s">
         <v>533</v>
       </c>
@@ -26298,7 +26298,7 @@
         <v>2729.4</v>
       </c>
     </row>
-    <row r="517" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A517" s="13" t="s">
         <v>534</v>
       </c>
@@ -26345,7 +26345,7 @@
         <v>2746.1</v>
       </c>
     </row>
-    <row r="518" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A518" s="13" t="s">
         <v>535</v>
       </c>
@@ -26392,7 +26392,7 @@
         <v>2790.5</v>
       </c>
     </row>
-    <row r="519" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A519" s="13" t="s">
         <v>536</v>
       </c>
@@ -26439,7 +26439,7 @@
         <v>2796.1</v>
       </c>
     </row>
-    <row r="520" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A520" s="13" t="s">
         <v>537</v>
       </c>
@@ -26486,7 +26486,7 @@
         <v>2823.9</v>
       </c>
     </row>
-    <row r="521" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A521" s="13" t="s">
         <v>538</v>
       </c>
@@ -26533,7 +26533,7 @@
         <v>2835</v>
       </c>
     </row>
-    <row r="522" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A522" s="13" t="s">
         <v>539</v>
       </c>
@@ -26580,7 +26580,7 @@
         <v>2851.7</v>
       </c>
     </row>
-    <row r="523" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A523" s="13" t="s">
         <v>540</v>
       </c>
@@ -26627,7 +26627,7 @@
         <v>2879.5</v>
       </c>
     </row>
-    <row r="524" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A524" s="13" t="s">
         <v>541</v>
       </c>
@@ -26674,7 +26674,7 @@
         <v>2896.2</v>
       </c>
     </row>
-    <row r="525" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A525" s="13" t="s">
         <v>542</v>
       </c>
@@ -26721,7 +26721,7 @@
         <v>2912.9</v>
       </c>
     </row>
-    <row r="526" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A526" s="13" t="s">
         <v>543</v>
       </c>
@@ -26768,7 +26768,7 @@
         <v>2907.3</v>
       </c>
     </row>
-    <row r="527" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A527" s="13" t="s">
         <v>544</v>
       </c>
@@ -26815,7 +26815,7 @@
         <v>2924</v>
       </c>
     </row>
-    <row r="528" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A528" s="13" t="s">
         <v>545</v>
       </c>
@@ -26862,7 +26862,7 @@
         <v>2935.1</v>
       </c>
     </row>
-    <row r="529" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A529" s="13" t="s">
         <v>546</v>
       </c>
@@ -26909,7 +26909,7 @@
         <v>2946.2</v>
       </c>
     </row>
-    <row r="530" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A530" s="13" t="s">
         <v>547</v>
       </c>
@@ -26956,7 +26956,7 @@
         <v>2940.6</v>
       </c>
     </row>
-    <row r="531" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A531" s="13" t="s">
         <v>548</v>
       </c>
@@ -27003,7 +27003,7 @@
         <v>2962.8</v>
       </c>
     </row>
-    <row r="532" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A532" s="13" t="s">
         <v>549</v>
       </c>
@@ -27050,7 +27050,7 @@
         <v>2990.6</v>
       </c>
     </row>
-    <row r="533" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A533" s="13" t="s">
         <v>550</v>
       </c>
@@ -27097,7 +27097,7 @@
         <v>3018.4</v>
       </c>
     </row>
-    <row r="534" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A534" s="13" t="s">
         <v>551</v>
       </c>
@@ -27144,7 +27144,7 @@
         <v>3035.1</v>
       </c>
     </row>
-    <row r="535" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A535" s="13" t="s">
         <v>552</v>
       </c>
@@ -27191,7 +27191,7 @@
         <v>3018.4</v>
       </c>
     </row>
-    <row r="536" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A536" s="13" t="s">
         <v>553</v>
       </c>
@@ -27238,7 +27238,7 @@
         <v>3018.4</v>
       </c>
     </row>
-    <row r="537" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A537" s="13" t="s">
         <v>554</v>
       </c>
@@ -27285,7 +27285,7 @@
         <v>3018.4</v>
       </c>
     </row>
-    <row r="538" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A538" s="13" t="s">
         <v>555</v>
       </c>
@@ -27332,7 +27332,7 @@
         <v>3046.2</v>
       </c>
     </row>
-    <row r="539" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A539" s="13" t="s">
         <v>556</v>
       </c>
@@ -27379,7 +27379,7 @@
         <v>3046.2</v>
       </c>
     </row>
-    <row r="540" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A540" s="13" t="s">
         <v>557</v>
       </c>
@@ -27426,7 +27426,7 @@
         <v>3057.3</v>
       </c>
     </row>
-    <row r="541" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A541" s="13" t="s">
         <v>558</v>
       </c>
@@ -27473,7 +27473,7 @@
         <v>3085.1</v>
       </c>
     </row>
-    <row r="542" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A542" s="13" t="s">
         <v>559</v>
       </c>
@@ -27520,7 +27520,7 @@
         <v>3101.8</v>
       </c>
     </row>
-    <row r="543" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A543" s="13" t="s">
         <v>560</v>
       </c>
@@ -27567,7 +27567,7 @@
         <v>3096.2</v>
       </c>
     </row>
-    <row r="544" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A544" s="13" t="s">
         <v>561</v>
       </c>
@@ -27614,7 +27614,7 @@
         <v>3101.8</v>
       </c>
     </row>
-    <row r="545" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A545" s="13" t="s">
         <v>562</v>
       </c>
@@ -27661,7 +27661,7 @@
         <v>3101.8</v>
       </c>
     </row>
-    <row r="546" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A546" s="13" t="s">
         <v>563</v>
       </c>
@@ -27708,7 +27708,7 @@
         <v>3107.4</v>
       </c>
     </row>
-    <row r="547" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A547" s="13" t="s">
         <v>564</v>
       </c>
@@ -27755,7 +27755,7 @@
         <v>3132.4</v>
       </c>
     </row>
-    <row r="548" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A548" s="13" t="s">
         <v>565</v>
       </c>
@@ -27772,7 +27772,7 @@
         <v>117.3</v>
       </c>
       <c r="F548" s="4">
-        <v>110.7</v>
+        <v>110.9</v>
       </c>
       <c r="G548" s="4">
         <v>109.1</v>
@@ -27781,7 +27781,7 @@
         <v>115.5</v>
       </c>
       <c r="I548" s="4">
-        <v>108.8</v>
+        <v>109</v>
       </c>
       <c r="J548" s="4">
         <v>55</v>
@@ -27802,7 +27802,7 @@
         <v>3157.4</v>
       </c>
     </row>
-    <row r="549" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A549" s="13" t="s">
         <v>566</v>
       </c>
@@ -27813,43 +27813,43 @@
         <v>3</v>
       </c>
       <c r="D549" s="4">
-        <v>107.7</v>
+        <v>108.1</v>
       </c>
       <c r="E549" s="4">
-        <v>116</v>
+        <v>115.9</v>
       </c>
       <c r="F549" s="4">
-        <v>110.8</v>
+        <v>111.1</v>
       </c>
       <c r="G549" s="4">
-        <v>110.2</v>
+        <v>110.4</v>
       </c>
       <c r="H549" s="4">
-        <v>114.2</v>
+        <v>114.1</v>
       </c>
       <c r="I549" s="4">
-        <v>108.8</v>
+        <v>109.1</v>
       </c>
       <c r="J549" s="4">
-        <v>55.6</v>
+        <v>60</v>
       </c>
       <c r="K549" s="4">
-        <v>37.5</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="L549" s="4">
-        <v>66.7</v>
+        <v>62.5</v>
       </c>
       <c r="M549" s="4">
-        <v>1265.3</v>
+        <v>1269.7</v>
       </c>
       <c r="N549" s="4">
-        <v>3244.2</v>
+        <v>3240</v>
       </c>
       <c r="O549" s="4">
-        <v>3174.1</v>
-      </c>
-    </row>
-    <row r="558" spans="1:15" x14ac:dyDescent="0.2">
+        <v>3169.9</v>
+      </c>
+    </row>
+    <row r="558" spans="1:15" x14ac:dyDescent="0.15">
       <c r="D558" s="3"/>
       <c r="E558" s="3"/>
       <c r="F558" s="3"/>

--- a/data/長期系列_CI指数_DI指数_DI景気指標.xlsx
+++ b/data/長期系列_CI指数_DI指数_DI景気指標.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\CI\０１／CI\０２／速報からの改訂\★R7(2025)★\令和7年3月改訂\g研究所ホームページ掲載宛送付ファイル\jp\stat\di\di\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\CI\０１／CI\０１／速報\★R7(2025)★\令和7年4月分\g研究所ホームページ掲載宛送付ファイル\jp\stat\di\di\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D26D85A-6E17-4F22-95E3-5A64C4E82DD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B655297-534E-4348-B742-81684AA2DEB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1350" yWindow="1950" windowWidth="25740" windowHeight="11880"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
   </bookViews>
   <sheets>
     <sheet name="指数 Indexes" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="568">
   <si>
     <t>ＤＩ指数</t>
   </si>
@@ -2291,6 +2291,10 @@
   </si>
   <si>
     <t>2025000303</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2025000404</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2792,7 +2796,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P558"/>
+  <dimension ref="A1:P559"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="6" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
@@ -2801,14 +2805,14 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="8.125" customWidth="1"/>
-    <col min="4" max="15" width="10.625" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8.109375" customWidth="1"/>
+    <col min="4" max="15" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="36" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" ht="36" x14ac:dyDescent="0.2">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -2850,7 +2854,7 @@
       </c>
       <c r="P1" s="5"/>
     </row>
-    <row r="2" spans="1:16" s="1" customFormat="1" ht="72" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" s="1" customFormat="1" ht="72" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -2892,7 +2896,7 @@
       </c>
       <c r="P2" s="5"/>
     </row>
-    <row r="3" spans="1:16" ht="24" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:16" ht="24" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>18</v>
       </c>
@@ -2940,7 +2944,7 @@
       </c>
       <c r="P3" s="5"/>
     </row>
-    <row r="4" spans="1:16" s="1" customFormat="1" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" s="1" customFormat="1" ht="32.4" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>20</v>
       </c>
@@ -2988,7 +2992,7 @@
       </c>
       <c r="P4" s="5"/>
     </row>
-    <row r="5" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" s="1" customFormat="1" ht="22.2" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -3018,7 +3022,7 @@
       <c r="O5" s="11"/>
       <c r="P5" s="12"/>
     </row>
-    <row r="6" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -3048,7 +3052,7 @@
       <c r="O6" s="6"/>
       <c r="P6" s="12"/>
     </row>
-    <row r="7" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
         <v>24</v>
       </c>
@@ -3083,7 +3087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
         <v>25</v>
       </c>
@@ -3118,7 +3122,7 @@
         <v>44.4</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
         <v>26</v>
       </c>
@@ -3153,7 +3157,7 @@
         <v>83.3</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
         <v>27</v>
       </c>
@@ -3188,7 +3192,7 @@
         <v>111.1</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
         <v>28</v>
       </c>
@@ -3223,7 +3227,7 @@
         <v>116.7</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
         <v>29</v>
       </c>
@@ -3258,7 +3262,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
         <v>30</v>
       </c>
@@ -3293,7 +3297,7 @@
         <v>177.8</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
         <v>31</v>
       </c>
@@ -3328,7 +3332,7 @@
         <v>194.5</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
         <v>32</v>
       </c>
@@ -3363,7 +3367,7 @@
         <v>211.2</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
         <v>33</v>
       </c>
@@ -3398,7 +3402,7 @@
         <v>227.9</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
         <v>34</v>
       </c>
@@ -3433,7 +3437,7 @@
         <v>255.7</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
         <v>35</v>
       </c>
@@ -3468,7 +3472,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="13" t="s">
         <v>36</v>
       </c>
@@ -3503,7 +3507,7 @@
         <v>244.6</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="13" t="s">
         <v>37</v>
       </c>
@@ -3538,7 +3542,7 @@
         <v>244.6</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="13" t="s">
         <v>38</v>
       </c>
@@ -3573,7 +3577,7 @@
         <v>272.39999999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="13" t="s">
         <v>39</v>
       </c>
@@ -3608,7 +3612,7 @@
         <v>266.8</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="13" t="s">
         <v>40</v>
       </c>
@@ -3643,7 +3647,7 @@
         <v>272.39999999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="13" t="s">
         <v>41</v>
       </c>
@@ -3678,7 +3682,7 @@
         <v>261.3</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="13" t="s">
         <v>42</v>
       </c>
@@ -3713,7 +3717,7 @@
         <v>250.2</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="13" t="s">
         <v>43</v>
       </c>
@@ -3748,7 +3752,7 @@
         <v>233.5</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="13" t="s">
         <v>44</v>
       </c>
@@ -3783,7 +3787,7 @@
         <v>239.1</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="13" t="s">
         <v>45</v>
       </c>
@@ -3818,7 +3822,7 @@
         <v>244.7</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="13" t="s">
         <v>46</v>
       </c>
@@ -3853,7 +3857,7 @@
         <v>239.1</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="13" t="s">
         <v>47</v>
       </c>
@@ -3888,7 +3892,7 @@
         <v>222.4</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="13" t="s">
         <v>48</v>
       </c>
@@ -3923,7 +3927,7 @@
         <v>239.1</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="13" t="s">
         <v>49</v>
       </c>
@@ -3958,7 +3962,7 @@
         <v>244.7</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="13" t="s">
         <v>50</v>
       </c>
@@ -3993,7 +3997,7 @@
         <v>250.3</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="13" t="s">
         <v>51</v>
       </c>
@@ -4028,7 +4032,7 @@
         <v>244.7</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="13" t="s">
         <v>52</v>
       </c>
@@ -4063,7 +4067,7 @@
         <v>250.3</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="13" t="s">
         <v>53</v>
       </c>
@@ -4098,7 +4102,7 @@
         <v>278.10000000000002</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="13" t="s">
         <v>54</v>
       </c>
@@ -4133,7 +4137,7 @@
         <v>278.10000000000002</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="13" t="s">
         <v>55</v>
       </c>
@@ -4168,7 +4172,7 @@
         <v>272.5</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="13" t="s">
         <v>56</v>
       </c>
@@ -4203,7 +4207,7 @@
         <v>255.8</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="13" t="s">
         <v>57</v>
       </c>
@@ -4238,7 +4242,7 @@
         <v>239.1</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="13" t="s">
         <v>58</v>
       </c>
@@ -4273,7 +4277,7 @@
         <v>222.4</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="13" t="s">
         <v>59</v>
       </c>
@@ -4308,7 +4312,7 @@
         <v>194.6</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="13" t="s">
         <v>60</v>
       </c>
@@ -4343,7 +4347,7 @@
         <v>166.8</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" s="13" t="s">
         <v>61</v>
       </c>
@@ -4378,7 +4382,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="13" t="s">
         <v>62</v>
       </c>
@@ -4413,7 +4417,7 @@
         <v>122.3</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="13" t="s">
         <v>63</v>
       </c>
@@ -4448,7 +4452,7 @@
         <v>116.7</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="13" t="s">
         <v>64</v>
       </c>
@@ -4483,7 +4487,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="13" t="s">
         <v>65</v>
       </c>
@@ -4518,7 +4522,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" s="13" t="s">
         <v>66</v>
       </c>
@@ -4553,7 +4557,7 @@
         <v>105.6</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" s="13" t="s">
         <v>67</v>
       </c>
@@ -4588,7 +4592,7 @@
         <v>122.3</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" s="13" t="s">
         <v>68</v>
       </c>
@@ -4623,7 +4627,7 @@
         <v>127.9</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" s="13" t="s">
         <v>69</v>
       </c>
@@ -4658,7 +4662,7 @@
         <v>122.3</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" s="13" t="s">
         <v>70</v>
       </c>
@@ -4693,7 +4697,7 @@
         <v>127.9</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" s="13" t="s">
         <v>71</v>
       </c>
@@ -4728,7 +4732,7 @@
         <v>127.9</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" s="13" t="s">
         <v>72</v>
       </c>
@@ -4763,7 +4767,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" s="13" t="s">
         <v>73</v>
       </c>
@@ -4798,7 +4802,7 @@
         <v>177.9</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57" s="13" t="s">
         <v>74</v>
       </c>
@@ -4833,7 +4837,7 @@
         <v>216.8</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58" s="13" t="s">
         <v>75</v>
       </c>
@@ -4868,7 +4872,7 @@
         <v>255.7</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59" s="13" t="s">
         <v>76</v>
       </c>
@@ -4903,7 +4907,7 @@
         <v>272.39999999999998</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60" s="13" t="s">
         <v>77</v>
       </c>
@@ -4938,7 +4942,7 @@
         <v>283.5</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61" s="13" t="s">
         <v>78</v>
       </c>
@@ -4973,7 +4977,7 @@
         <v>311.3</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62" s="13" t="s">
         <v>79</v>
       </c>
@@ -5008,7 +5012,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63" s="13" t="s">
         <v>80</v>
       </c>
@@ -5043,7 +5047,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64" s="13" t="s">
         <v>81</v>
       </c>
@@ -5078,7 +5082,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65" s="13" t="s">
         <v>82</v>
       </c>
@@ -5113,7 +5117,7 @@
         <v>455.8</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66" s="13" t="s">
         <v>83</v>
       </c>
@@ -5148,7 +5152,7 @@
         <v>494.7</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A67" s="13" t="s">
         <v>84</v>
       </c>
@@ -5195,7 +5199,7 @@
         <v>539.1</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A68" s="13" t="s">
         <v>85</v>
       </c>
@@ -5242,7 +5246,7 @@
         <v>566.9</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A69" s="13" t="s">
         <v>86</v>
       </c>
@@ -5289,7 +5293,7 @@
         <v>594.70000000000005</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A70" s="13" t="s">
         <v>87</v>
       </c>
@@ -5336,7 +5340,7 @@
         <v>611.4</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A71" s="13" t="s">
         <v>88</v>
       </c>
@@ -5359,7 +5363,7 @@
         <v>89.3</v>
       </c>
       <c r="H71" s="4">
-        <v>94.1</v>
+        <v>94</v>
       </c>
       <c r="I71" s="4">
         <v>86</v>
@@ -5383,7 +5387,7 @@
         <v>644.70000000000005</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A72" s="13" t="s">
         <v>89</v>
       </c>
@@ -5430,7 +5434,7 @@
         <v>655.8</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A73" s="13" t="s">
         <v>90</v>
       </c>
@@ -5477,7 +5481,7 @@
         <v>666.9</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A74" s="13" t="s">
         <v>91</v>
       </c>
@@ -5488,7 +5492,7 @@
         <v>8</v>
       </c>
       <c r="D74" s="4">
-        <v>83.3</v>
+        <v>83.4</v>
       </c>
       <c r="E74" s="4">
         <v>90.7</v>
@@ -5524,7 +5528,7 @@
         <v>694.7</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75" s="13" t="s">
         <v>92</v>
       </c>
@@ -5571,7 +5575,7 @@
         <v>700.3</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A76" s="13" t="s">
         <v>93</v>
       </c>
@@ -5582,7 +5586,7 @@
         <v>10</v>
       </c>
       <c r="D76" s="4">
-        <v>83.2</v>
+        <v>83.3</v>
       </c>
       <c r="E76" s="4">
         <v>91</v>
@@ -5618,7 +5622,7 @@
         <v>683.6</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A77" s="13" t="s">
         <v>94</v>
       </c>
@@ -5665,7 +5669,7 @@
         <v>666.9</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A78" s="13" t="s">
         <v>95</v>
       </c>
@@ -5712,7 +5716,7 @@
         <v>672.5</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79" s="13" t="s">
         <v>96</v>
       </c>
@@ -5759,7 +5763,7 @@
         <v>689.2</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A80" s="13" t="s">
         <v>97</v>
       </c>
@@ -5770,7 +5774,7 @@
         <v>2</v>
       </c>
       <c r="D80" s="4">
-        <v>82.5</v>
+        <v>82.6</v>
       </c>
       <c r="E80" s="4">
         <v>90</v>
@@ -5806,7 +5810,7 @@
         <v>705.9</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A81" s="13" t="s">
         <v>98</v>
       </c>
@@ -5817,10 +5821,10 @@
         <v>3</v>
       </c>
       <c r="D81" s="4">
-        <v>82.3</v>
+        <v>82.4</v>
       </c>
       <c r="E81" s="4">
-        <v>89.4</v>
+        <v>89.5</v>
       </c>
       <c r="F81" s="4">
         <v>86.6</v>
@@ -5853,7 +5857,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A82" s="13" t="s">
         <v>99</v>
       </c>
@@ -5900,7 +5904,7 @@
         <v>711.4</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A83" s="13" t="s">
         <v>100</v>
       </c>
@@ -5947,7 +5951,7 @@
         <v>700.3</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A84" s="13" t="s">
         <v>101</v>
       </c>
@@ -5961,7 +5965,7 @@
         <v>80.7</v>
       </c>
       <c r="E84" s="4">
-        <v>89.1</v>
+        <v>89.2</v>
       </c>
       <c r="F84" s="4">
         <v>85.6</v>
@@ -5994,7 +5998,7 @@
         <v>683.6</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A85" s="13" t="s">
         <v>102</v>
       </c>
@@ -6005,7 +6009,7 @@
         <v>7</v>
       </c>
       <c r="D85" s="4">
-        <v>80.2</v>
+        <v>80.3</v>
       </c>
       <c r="E85" s="4">
         <v>88.7</v>
@@ -6041,7 +6045,7 @@
         <v>683.6</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A86" s="13" t="s">
         <v>103</v>
       </c>
@@ -6052,7 +6056,7 @@
         <v>8</v>
       </c>
       <c r="D86" s="4">
-        <v>81.099999999999994</v>
+        <v>81.2</v>
       </c>
       <c r="E86" s="4">
         <v>88.2</v>
@@ -6088,7 +6092,7 @@
         <v>672.5</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A87" s="13" t="s">
         <v>104</v>
       </c>
@@ -6135,7 +6139,7 @@
         <v>672.5</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A88" s="13" t="s">
         <v>105</v>
       </c>
@@ -6146,7 +6150,7 @@
         <v>10</v>
       </c>
       <c r="D88" s="4">
-        <v>80.5</v>
+        <v>80.599999999999994</v>
       </c>
       <c r="E88" s="4">
         <v>89.2</v>
@@ -6182,7 +6186,7 @@
         <v>689.2</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A89" s="13" t="s">
         <v>106</v>
       </c>
@@ -6229,7 +6233,7 @@
         <v>705.9</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A90" s="13" t="s">
         <v>107</v>
       </c>
@@ -6246,7 +6250,7 @@
         <v>89.4</v>
       </c>
       <c r="F90" s="4">
-        <v>84.7</v>
+        <v>84.8</v>
       </c>
       <c r="G90" s="4">
         <v>85.3</v>
@@ -6276,7 +6280,7 @@
         <v>689.2</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A91" s="13" t="s">
         <v>108</v>
       </c>
@@ -6299,7 +6303,7 @@
         <v>86.4</v>
       </c>
       <c r="H91" s="4">
-        <v>92.9</v>
+        <v>92.8</v>
       </c>
       <c r="I91" s="4">
         <v>86</v>
@@ -6323,7 +6327,7 @@
         <v>694.8</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A92" s="13" t="s">
         <v>109</v>
       </c>
@@ -6334,13 +6338,13 @@
         <v>2</v>
       </c>
       <c r="D92" s="4">
-        <v>83.8</v>
+        <v>83.9</v>
       </c>
       <c r="E92" s="4">
         <v>90.1</v>
       </c>
       <c r="F92" s="4">
-        <v>84.7</v>
+        <v>84.8</v>
       </c>
       <c r="G92" s="4">
         <v>87.5</v>
@@ -6370,7 +6374,7 @@
         <v>705.9</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A93" s="13" t="s">
         <v>110</v>
       </c>
@@ -6417,7 +6421,7 @@
         <v>722.6</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A94" s="13" t="s">
         <v>111</v>
       </c>
@@ -6440,7 +6444,7 @@
         <v>90.4</v>
       </c>
       <c r="H94" s="4">
-        <v>94.1</v>
+        <v>94</v>
       </c>
       <c r="I94" s="4">
         <v>87.1</v>
@@ -6464,7 +6468,7 @@
         <v>750.4</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A95" s="13" t="s">
         <v>112</v>
       </c>
@@ -6511,7 +6515,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A96" s="13" t="s">
         <v>113</v>
       </c>
@@ -6558,7 +6562,7 @@
         <v>767.1</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A97" s="13" t="s">
         <v>114</v>
       </c>
@@ -6605,7 +6609,7 @@
         <v>772.7</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A98" s="13" t="s">
         <v>115</v>
       </c>
@@ -6652,7 +6656,7 @@
         <v>783.8</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A99" s="13" t="s">
         <v>116</v>
       </c>
@@ -6699,7 +6703,7 @@
         <v>811.6</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A100" s="13" t="s">
         <v>117</v>
       </c>
@@ -6716,7 +6720,7 @@
         <v>97.5</v>
       </c>
       <c r="F100" s="4">
-        <v>88.3</v>
+        <v>88.4</v>
       </c>
       <c r="G100" s="4">
         <v>100.4</v>
@@ -6746,7 +6750,7 @@
         <v>833.8</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A101" s="13" t="s">
         <v>118</v>
       </c>
@@ -6793,7 +6797,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A102" s="13" t="s">
         <v>119</v>
       </c>
@@ -6810,7 +6814,7 @@
         <v>99.1</v>
       </c>
       <c r="F102" s="4">
-        <v>89.8</v>
+        <v>89.9</v>
       </c>
       <c r="G102" s="4">
         <v>100.6</v>
@@ -6840,7 +6844,7 @@
         <v>900.4</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A103" s="13" t="s">
         <v>120</v>
       </c>
@@ -6863,7 +6867,7 @@
         <v>102.6</v>
       </c>
       <c r="H103" s="4">
-        <v>103.4</v>
+        <v>103.3</v>
       </c>
       <c r="I103" s="4">
         <v>92</v>
@@ -6887,7 +6891,7 @@
         <v>928.2</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A104" s="13" t="s">
         <v>121</v>
       </c>
@@ -6898,7 +6902,7 @@
         <v>2</v>
       </c>
       <c r="D104" s="4">
-        <v>98.8</v>
+        <v>98.9</v>
       </c>
       <c r="E104" s="4">
         <v>102.3</v>
@@ -6934,7 +6938,7 @@
         <v>944.9</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A105" s="13" t="s">
         <v>122</v>
       </c>
@@ -6957,7 +6961,7 @@
         <v>102.8</v>
       </c>
       <c r="H105" s="4">
-        <v>104.5</v>
+        <v>104.4</v>
       </c>
       <c r="I105" s="4">
         <v>93.9</v>
@@ -6981,7 +6985,7 @@
         <v>972.7</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A106" s="13" t="s">
         <v>123</v>
       </c>
@@ -7004,7 +7008,7 @@
         <v>103.1</v>
       </c>
       <c r="H106" s="4">
-        <v>106.6</v>
+        <v>106.5</v>
       </c>
       <c r="I106" s="4">
         <v>94.7</v>
@@ -7028,7 +7032,7 @@
         <v>1011.6</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A107" s="13" t="s">
         <v>124</v>
       </c>
@@ -7075,7 +7079,7 @@
         <v>1039.4000000000001</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A108" s="13" t="s">
         <v>125</v>
       </c>
@@ -7122,7 +7126,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A109" s="13" t="s">
         <v>126</v>
       </c>
@@ -7145,7 +7149,7 @@
         <v>103.4</v>
       </c>
       <c r="H109" s="4">
-        <v>107.9</v>
+        <v>107.8</v>
       </c>
       <c r="I109" s="4">
         <v>96.5</v>
@@ -7169,7 +7173,7 @@
         <v>1067.2</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A110" s="13" t="s">
         <v>127</v>
       </c>
@@ -7216,7 +7220,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A111" s="13" t="s">
         <v>128</v>
       </c>
@@ -7233,13 +7237,13 @@
         <v>105.4</v>
       </c>
       <c r="F111" s="4">
-        <v>96.3</v>
+        <v>96.4</v>
       </c>
       <c r="G111" s="4">
         <v>103.3</v>
       </c>
       <c r="H111" s="4">
-        <v>109</v>
+        <v>108.9</v>
       </c>
       <c r="I111" s="4">
         <v>98.6</v>
@@ -7263,7 +7267,7 @@
         <v>1133.9000000000001</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A112" s="13" t="s">
         <v>129</v>
       </c>
@@ -7280,7 +7284,7 @@
         <v>105.6</v>
       </c>
       <c r="F112" s="4">
-        <v>97.3</v>
+        <v>97.4</v>
       </c>
       <c r="G112" s="4">
         <v>104.5</v>
@@ -7310,7 +7314,7 @@
         <v>1183.9000000000001</v>
       </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A113" s="13" t="s">
         <v>130</v>
       </c>
@@ -7357,7 +7361,7 @@
         <v>1233.9000000000001</v>
       </c>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A114" s="13" t="s">
         <v>131</v>
       </c>
@@ -7404,7 +7408,7 @@
         <v>1261.7</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A115" s="13" t="s">
         <v>132</v>
       </c>
@@ -7451,7 +7455,7 @@
         <v>1289.5</v>
       </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A116" s="13" t="s">
         <v>133</v>
       </c>
@@ -7462,19 +7466,19 @@
         <v>2</v>
       </c>
       <c r="D116" s="4">
-        <v>99.3</v>
+        <v>99.4</v>
       </c>
       <c r="E116" s="4">
         <v>108.1</v>
       </c>
       <c r="F116" s="4">
-        <v>99.1</v>
+        <v>99.2</v>
       </c>
       <c r="G116" s="4">
         <v>104.8</v>
       </c>
       <c r="H116" s="4">
-        <v>111.8</v>
+        <v>111.7</v>
       </c>
       <c r="I116" s="4">
         <v>101.9</v>
@@ -7498,7 +7502,7 @@
         <v>1317.3</v>
       </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A117" s="13" t="s">
         <v>134</v>
       </c>
@@ -7509,7 +7513,7 @@
         <v>3</v>
       </c>
       <c r="D117" s="4">
-        <v>100.4</v>
+        <v>100.5</v>
       </c>
       <c r="E117" s="4">
         <v>112</v>
@@ -7521,7 +7525,7 @@
         <v>106</v>
       </c>
       <c r="H117" s="4">
-        <v>115.9</v>
+        <v>115.8</v>
       </c>
       <c r="I117" s="4">
         <v>104.5</v>
@@ -7545,7 +7549,7 @@
         <v>1361.7</v>
       </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A118" s="13" t="s">
         <v>135</v>
       </c>
@@ -7556,7 +7560,7 @@
         <v>4</v>
       </c>
       <c r="D118" s="4">
-        <v>100.4</v>
+        <v>100.5</v>
       </c>
       <c r="E118" s="4">
         <v>109.2</v>
@@ -7568,7 +7572,7 @@
         <v>106</v>
       </c>
       <c r="H118" s="4">
-        <v>113.1</v>
+        <v>113</v>
       </c>
       <c r="I118" s="4">
         <v>103.9</v>
@@ -7592,7 +7596,7 @@
         <v>1367.3</v>
       </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A119" s="13" t="s">
         <v>136</v>
       </c>
@@ -7603,7 +7607,7 @@
         <v>5</v>
       </c>
       <c r="D119" s="4">
-        <v>99.8</v>
+        <v>99.9</v>
       </c>
       <c r="E119" s="4">
         <v>109.3</v>
@@ -7639,7 +7643,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A120" s="13" t="s">
         <v>137</v>
       </c>
@@ -7650,7 +7654,7 @@
         <v>6</v>
       </c>
       <c r="D120" s="4">
-        <v>100.1</v>
+        <v>100.2</v>
       </c>
       <c r="E120" s="4">
         <v>109.9</v>
@@ -7686,7 +7690,7 @@
         <v>1400.7</v>
       </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A121" s="13" t="s">
         <v>138</v>
       </c>
@@ -7733,7 +7737,7 @@
         <v>1445.1</v>
       </c>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A122" s="13" t="s">
         <v>139</v>
       </c>
@@ -7744,7 +7748,7 @@
         <v>8</v>
       </c>
       <c r="D122" s="4">
-        <v>100.5</v>
+        <v>100.6</v>
       </c>
       <c r="E122" s="4">
         <v>110.9</v>
@@ -7780,7 +7784,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A123" s="13" t="s">
         <v>140</v>
       </c>
@@ -7791,7 +7795,7 @@
         <v>9</v>
       </c>
       <c r="D123" s="4">
-        <v>100.5</v>
+        <v>100.6</v>
       </c>
       <c r="E123" s="4">
         <v>111.4</v>
@@ -7827,7 +7831,7 @@
         <v>1495.1</v>
       </c>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A124" s="13" t="s">
         <v>141</v>
       </c>
@@ -7850,7 +7854,7 @@
         <v>105.6</v>
       </c>
       <c r="H124" s="4">
-        <v>114.7</v>
+        <v>114.6</v>
       </c>
       <c r="I124" s="4">
         <v>106.9</v>
@@ -7874,7 +7878,7 @@
         <v>1511.8</v>
       </c>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A125" s="13" t="s">
         <v>142</v>
       </c>
@@ -7921,7 +7925,7 @@
         <v>1539.6</v>
       </c>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A126" s="13" t="s">
         <v>143</v>
       </c>
@@ -7944,7 +7948,7 @@
         <v>107.2</v>
       </c>
       <c r="H126" s="4">
-        <v>116</v>
+        <v>115.9</v>
       </c>
       <c r="I126" s="4">
         <v>108.6</v>
@@ -7968,7 +7972,7 @@
         <v>1572.9</v>
       </c>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A127" s="13" t="s">
         <v>144</v>
       </c>
@@ -8015,7 +8019,7 @@
         <v>1622.9</v>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A128" s="13" t="s">
         <v>145</v>
       </c>
@@ -8062,7 +8066,7 @@
         <v>1661.8</v>
       </c>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A129" s="13" t="s">
         <v>146</v>
       </c>
@@ -8109,7 +8113,7 @@
         <v>1695.1</v>
       </c>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A130" s="13" t="s">
         <v>147</v>
       </c>
@@ -8156,7 +8160,7 @@
         <v>1717.3</v>
       </c>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A131" s="13" t="s">
         <v>148</v>
       </c>
@@ -8167,7 +8171,7 @@
         <v>5</v>
       </c>
       <c r="D131" s="4">
-        <v>102.6</v>
+        <v>102.7</v>
       </c>
       <c r="E131" s="4">
         <v>114.7</v>
@@ -8179,7 +8183,7 @@
         <v>109</v>
       </c>
       <c r="H131" s="4">
-        <v>119.2</v>
+        <v>119.1</v>
       </c>
       <c r="I131" s="4">
         <v>109.3</v>
@@ -8203,7 +8207,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A132" s="13" t="s">
         <v>149</v>
       </c>
@@ -8226,7 +8230,7 @@
         <v>108</v>
       </c>
       <c r="H132" s="4">
-        <v>120</v>
+        <v>119.9</v>
       </c>
       <c r="I132" s="4">
         <v>110.4</v>
@@ -8250,7 +8254,7 @@
         <v>1750.7</v>
       </c>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A133" s="13" t="s">
         <v>150</v>
       </c>
@@ -8297,7 +8301,7 @@
         <v>1745.1</v>
       </c>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A134" s="13" t="s">
         <v>151</v>
       </c>
@@ -8344,7 +8348,7 @@
         <v>1761.8</v>
       </c>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A135" s="13" t="s">
         <v>152</v>
       </c>
@@ -8355,7 +8359,7 @@
         <v>9</v>
       </c>
       <c r="D135" s="4">
-        <v>98.3</v>
+        <v>98.4</v>
       </c>
       <c r="E135" s="4">
         <v>115.3</v>
@@ -8391,7 +8395,7 @@
         <v>1778.5</v>
       </c>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A136" s="13" t="s">
         <v>153</v>
       </c>
@@ -8438,7 +8442,7 @@
         <v>1789.6</v>
       </c>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A137" s="13" t="s">
         <v>154</v>
       </c>
@@ -8461,7 +8465,7 @@
         <v>103.3</v>
       </c>
       <c r="H137" s="4">
-        <v>120.7</v>
+        <v>120.6</v>
       </c>
       <c r="I137" s="4">
         <v>110.7</v>
@@ -8485,7 +8489,7 @@
         <v>1789.6</v>
       </c>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A138" s="13" t="s">
         <v>155</v>
       </c>
@@ -8508,7 +8512,7 @@
         <v>102.7</v>
       </c>
       <c r="H138" s="4">
-        <v>120.4</v>
+        <v>120.3</v>
       </c>
       <c r="I138" s="4">
         <v>111.8</v>
@@ -8532,7 +8536,7 @@
         <v>1817.4</v>
       </c>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A139" s="13" t="s">
         <v>156</v>
       </c>
@@ -8579,7 +8583,7 @@
         <v>1845.2</v>
       </c>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A140" s="13" t="s">
         <v>157</v>
       </c>
@@ -8602,7 +8606,7 @@
         <v>100</v>
       </c>
       <c r="H140" s="4">
-        <v>119.9</v>
+        <v>119.8</v>
       </c>
       <c r="I140" s="4">
         <v>111.7</v>
@@ -8626,7 +8630,7 @@
         <v>1856.3</v>
       </c>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A141" s="13" t="s">
         <v>158</v>
       </c>
@@ -8673,7 +8677,7 @@
         <v>1850.7</v>
       </c>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A142" s="13" t="s">
         <v>159</v>
       </c>
@@ -8720,7 +8724,7 @@
         <v>1856.3</v>
       </c>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A143" s="13" t="s">
         <v>160</v>
       </c>
@@ -8731,7 +8735,7 @@
         <v>5</v>
       </c>
       <c r="D143" s="4">
-        <v>94.1</v>
+        <v>94.2</v>
       </c>
       <c r="E143" s="4">
         <v>114.8</v>
@@ -8743,7 +8747,7 @@
         <v>97.4</v>
       </c>
       <c r="H143" s="4">
-        <v>119.3</v>
+        <v>119.2</v>
       </c>
       <c r="I143" s="4">
         <v>112.6</v>
@@ -8767,7 +8771,7 @@
         <v>1867.4</v>
       </c>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A144" s="13" t="s">
         <v>161</v>
       </c>
@@ -8778,7 +8782,7 @@
         <v>6</v>
       </c>
       <c r="D144" s="4">
-        <v>92.7</v>
+        <v>92.8</v>
       </c>
       <c r="E144" s="4">
         <v>112.7</v>
@@ -8814,7 +8818,7 @@
         <v>1900.7</v>
       </c>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A145" s="13" t="s">
         <v>162</v>
       </c>
@@ -8825,7 +8829,7 @@
         <v>7</v>
       </c>
       <c r="D145" s="4">
-        <v>92.3</v>
+        <v>92.4</v>
       </c>
       <c r="E145" s="4">
         <v>114</v>
@@ -8837,7 +8841,7 @@
         <v>95.6</v>
       </c>
       <c r="H145" s="4">
-        <v>118.5</v>
+        <v>118.4</v>
       </c>
       <c r="I145" s="4">
         <v>112.2</v>
@@ -8861,7 +8865,7 @@
         <v>1911.8</v>
       </c>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A146" s="13" t="s">
         <v>163</v>
       </c>
@@ -8872,7 +8876,7 @@
         <v>8</v>
       </c>
       <c r="D146" s="4">
-        <v>91.4</v>
+        <v>91.5</v>
       </c>
       <c r="E146" s="4">
         <v>112.6</v>
@@ -8908,7 +8912,7 @@
         <v>1906.2</v>
       </c>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A147" s="13" t="s">
         <v>164</v>
       </c>
@@ -8919,7 +8923,7 @@
         <v>9</v>
       </c>
       <c r="D147" s="4">
-        <v>90.5</v>
+        <v>90.6</v>
       </c>
       <c r="E147" s="4">
         <v>111.5</v>
@@ -8955,7 +8959,7 @@
         <v>1889.5</v>
       </c>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A148" s="13" t="s">
         <v>165</v>
       </c>
@@ -8966,7 +8970,7 @@
         <v>10</v>
       </c>
       <c r="D148" s="4">
-        <v>90.5</v>
+        <v>90.6</v>
       </c>
       <c r="E148" s="4">
         <v>110.8</v>
@@ -9002,7 +9006,7 @@
         <v>1906.2</v>
       </c>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A149" s="13" t="s">
         <v>166</v>
       </c>
@@ -9049,7 +9053,7 @@
         <v>1934</v>
       </c>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A150" s="13" t="s">
         <v>167</v>
       </c>
@@ -9096,7 +9100,7 @@
         <v>1939.6</v>
       </c>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A151" s="13" t="s">
         <v>168</v>
       </c>
@@ -9110,10 +9114,10 @@
         <v>87.9</v>
       </c>
       <c r="E151" s="4">
-        <v>107.8</v>
+        <v>107.9</v>
       </c>
       <c r="F151" s="4">
-        <v>106.8</v>
+        <v>106.9</v>
       </c>
       <c r="G151" s="4">
         <v>91.2</v>
@@ -9143,7 +9147,7 @@
         <v>1922.9</v>
       </c>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A152" s="13" t="s">
         <v>169</v>
       </c>
@@ -9190,7 +9194,7 @@
         <v>1922.9</v>
       </c>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A153" s="13" t="s">
         <v>170</v>
       </c>
@@ -9237,7 +9241,7 @@
         <v>1906.2</v>
       </c>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A154" s="13" t="s">
         <v>171</v>
       </c>
@@ -9257,10 +9261,10 @@
         <v>104.9</v>
       </c>
       <c r="G154" s="4">
-        <v>88.3</v>
+        <v>88.4</v>
       </c>
       <c r="H154" s="4">
-        <v>108</v>
+        <v>107.9</v>
       </c>
       <c r="I154" s="4">
         <v>107.9</v>
@@ -9284,7 +9288,7 @@
         <v>1889.5</v>
       </c>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A155" s="13" t="s">
         <v>172</v>
       </c>
@@ -9301,7 +9305,7 @@
         <v>102.1</v>
       </c>
       <c r="F155" s="4">
-        <v>104.4</v>
+        <v>104.5</v>
       </c>
       <c r="G155" s="4">
         <v>87.9</v>
@@ -9331,7 +9335,7 @@
         <v>1861.7</v>
       </c>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A156" s="13" t="s">
         <v>173</v>
       </c>
@@ -9378,7 +9382,7 @@
         <v>1845</v>
       </c>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A157" s="13" t="s">
         <v>174</v>
       </c>
@@ -9425,7 +9429,7 @@
         <v>1817.2</v>
       </c>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A158" s="13" t="s">
         <v>175</v>
       </c>
@@ -9472,7 +9476,7 @@
         <v>1789.4</v>
       </c>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A159" s="13" t="s">
         <v>176</v>
       </c>
@@ -9519,7 +9523,7 @@
         <v>1761.6</v>
       </c>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A160" s="13" t="s">
         <v>177</v>
       </c>
@@ -9566,7 +9570,7 @@
         <v>1722.7</v>
       </c>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A161" s="13" t="s">
         <v>178</v>
       </c>
@@ -9577,7 +9581,7 @@
         <v>11</v>
       </c>
       <c r="D161" s="4">
-        <v>82.2</v>
+        <v>82.3</v>
       </c>
       <c r="E161" s="4">
         <v>96.2</v>
@@ -9613,7 +9617,7 @@
         <v>1683.8</v>
       </c>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A162" s="13" t="s">
         <v>179</v>
       </c>
@@ -9627,7 +9631,7 @@
         <v>83</v>
       </c>
       <c r="E162" s="4">
-        <v>95.4</v>
+        <v>95.5</v>
       </c>
       <c r="F162" s="4">
         <v>99.2</v>
@@ -9660,7 +9664,7 @@
         <v>1644.9</v>
       </c>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A163" s="13" t="s">
         <v>180</v>
       </c>
@@ -9671,7 +9675,7 @@
         <v>1</v>
       </c>
       <c r="D163" s="4">
-        <v>83</v>
+        <v>83.1</v>
       </c>
       <c r="E163" s="4">
         <v>96.4</v>
@@ -9707,7 +9711,7 @@
         <v>1639.3</v>
       </c>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A164" s="13" t="s">
         <v>181</v>
       </c>
@@ -9754,7 +9758,7 @@
         <v>1622.6</v>
       </c>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A165" s="13" t="s">
         <v>182</v>
       </c>
@@ -9768,7 +9772,7 @@
         <v>83.8</v>
       </c>
       <c r="E165" s="4">
-        <v>95.9</v>
+        <v>96</v>
       </c>
       <c r="F165" s="4">
         <v>97.2</v>
@@ -9777,7 +9781,7 @@
         <v>87.6</v>
       </c>
       <c r="H165" s="4">
-        <v>100.2</v>
+        <v>100.1</v>
       </c>
       <c r="I165" s="4">
         <v>99.7</v>
@@ -9801,7 +9805,7 @@
         <v>1600.4</v>
       </c>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A166" s="13" t="s">
         <v>183</v>
       </c>
@@ -9812,7 +9816,7 @@
         <v>4</v>
       </c>
       <c r="D166" s="4">
-        <v>84.8</v>
+        <v>84.9</v>
       </c>
       <c r="E166" s="4">
         <v>95.7</v>
@@ -9848,7 +9852,7 @@
         <v>1572.6</v>
       </c>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A167" s="13" t="s">
         <v>184</v>
       </c>
@@ -9862,7 +9866,7 @@
         <v>85.9</v>
       </c>
       <c r="E167" s="4">
-        <v>94.5</v>
+        <v>94.6</v>
       </c>
       <c r="F167" s="4">
         <v>95.6</v>
@@ -9895,7 +9899,7 @@
         <v>1544.8</v>
       </c>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A168" s="13" t="s">
         <v>185</v>
       </c>
@@ -9906,10 +9910,10 @@
         <v>6</v>
       </c>
       <c r="D168" s="4">
-        <v>86</v>
+        <v>86.1</v>
       </c>
       <c r="E168" s="4">
-        <v>93.2</v>
+        <v>93.3</v>
       </c>
       <c r="F168" s="4">
         <v>94.8</v>
@@ -9942,7 +9946,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A169" s="13" t="s">
         <v>186</v>
       </c>
@@ -9989,7 +9993,7 @@
         <v>1483.7</v>
       </c>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A170" s="13" t="s">
         <v>187</v>
       </c>
@@ -10036,7 +10040,7 @@
         <v>1489.3</v>
       </c>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A171" s="13" t="s">
         <v>188</v>
       </c>
@@ -10083,7 +10087,7 @@
         <v>1483.7</v>
       </c>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A172" s="13" t="s">
         <v>189</v>
       </c>
@@ -10094,7 +10098,7 @@
         <v>10</v>
       </c>
       <c r="D172" s="4">
-        <v>85.2</v>
+        <v>85.3</v>
       </c>
       <c r="E172" s="4">
         <v>91.5</v>
@@ -10130,7 +10134,7 @@
         <v>1478.1</v>
       </c>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A173" s="13" t="s">
         <v>190</v>
       </c>
@@ -10177,7 +10181,7 @@
         <v>1461.4</v>
       </c>
     </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A174" s="13" t="s">
         <v>191</v>
       </c>
@@ -10224,7 +10228,7 @@
         <v>1450.3</v>
       </c>
     </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A175" s="13" t="s">
         <v>192</v>
       </c>
@@ -10235,7 +10239,7 @@
         <v>1</v>
       </c>
       <c r="D175" s="4">
-        <v>85.8</v>
+        <v>85.9</v>
       </c>
       <c r="E175" s="4">
         <v>91.6</v>
@@ -10271,7 +10275,7 @@
         <v>1455.9</v>
       </c>
     </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A176" s="13" t="s">
         <v>193</v>
       </c>
@@ -10318,7 +10322,7 @@
         <v>1433.7</v>
       </c>
     </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A177" s="13" t="s">
         <v>194</v>
       </c>
@@ -10365,7 +10369,7 @@
         <v>1422.6</v>
       </c>
     </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A178" s="13" t="s">
         <v>195</v>
       </c>
@@ -10382,7 +10386,7 @@
         <v>92.9</v>
       </c>
       <c r="F178" s="4">
-        <v>90.5</v>
+        <v>90.6</v>
       </c>
       <c r="G178" s="4">
         <v>94.1</v>
@@ -10412,7 +10416,7 @@
         <v>1400.4</v>
       </c>
     </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A179" s="13" t="s">
         <v>196</v>
       </c>
@@ -10423,10 +10427,10 @@
         <v>5</v>
       </c>
       <c r="D179" s="4">
-        <v>90.6</v>
+        <v>90.7</v>
       </c>
       <c r="E179" s="4">
-        <v>92.7</v>
+        <v>92.8</v>
       </c>
       <c r="F179" s="4">
         <v>89.6</v>
@@ -10459,7 +10463,7 @@
         <v>1394.8</v>
       </c>
     </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A180" s="13" t="s">
         <v>197</v>
       </c>
@@ -10470,10 +10474,10 @@
         <v>6</v>
       </c>
       <c r="D180" s="4">
-        <v>91.9</v>
+        <v>92</v>
       </c>
       <c r="E180" s="4">
-        <v>94.1</v>
+        <v>94.2</v>
       </c>
       <c r="F180" s="4">
         <v>89.6</v>
@@ -10506,7 +10510,7 @@
         <v>1378.1</v>
       </c>
     </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A181" s="13" t="s">
         <v>198</v>
       </c>
@@ -10529,7 +10533,7 @@
         <v>97</v>
       </c>
       <c r="H181" s="4">
-        <v>99.1</v>
+        <v>99</v>
       </c>
       <c r="I181" s="4">
         <v>91.7</v>
@@ -10553,7 +10557,7 @@
         <v>1378.1</v>
       </c>
     </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A182" s="13" t="s">
         <v>199</v>
       </c>
@@ -10564,10 +10568,10 @@
         <v>8</v>
       </c>
       <c r="D182" s="4">
-        <v>93.4</v>
+        <v>93.5</v>
       </c>
       <c r="E182" s="4">
-        <v>95.6</v>
+        <v>95.7</v>
       </c>
       <c r="F182" s="4">
         <v>90</v>
@@ -10600,7 +10604,7 @@
         <v>1394.8</v>
       </c>
     </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A183" s="13" t="s">
         <v>200</v>
       </c>
@@ -10647,7 +10651,7 @@
         <v>1405.9</v>
       </c>
     </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A184" s="13" t="s">
         <v>201</v>
       </c>
@@ -10670,7 +10674,7 @@
         <v>98.7</v>
       </c>
       <c r="H184" s="4">
-        <v>100.3</v>
+        <v>100.2</v>
       </c>
       <c r="I184" s="4">
         <v>92.2</v>
@@ -10694,7 +10698,7 @@
         <v>1417</v>
       </c>
     </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A185" s="13" t="s">
         <v>202</v>
       </c>
@@ -10741,7 +10745,7 @@
         <v>1428.1</v>
       </c>
     </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A186" s="13" t="s">
         <v>203</v>
       </c>
@@ -10788,7 +10792,7 @@
         <v>1433.7</v>
       </c>
     </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A187" s="13" t="s">
         <v>204</v>
       </c>
@@ -10799,7 +10803,7 @@
         <v>1</v>
       </c>
       <c r="D187" s="4">
-        <v>95.2</v>
+        <v>95.3</v>
       </c>
       <c r="E187" s="4">
         <v>95.4</v>
@@ -10835,7 +10839,7 @@
         <v>1444.8</v>
       </c>
     </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A188" s="13" t="s">
         <v>205</v>
       </c>
@@ -10852,7 +10856,7 @@
         <v>97.2</v>
       </c>
       <c r="F188" s="4">
-        <v>90.5</v>
+        <v>90.6</v>
       </c>
       <c r="G188" s="4">
         <v>102.1</v>
@@ -10882,7 +10886,7 @@
         <v>1455.9</v>
       </c>
     </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A189" s="13" t="s">
         <v>206</v>
       </c>
@@ -10905,7 +10909,7 @@
         <v>100.8</v>
       </c>
       <c r="H189" s="4">
-        <v>102.1</v>
+        <v>102</v>
       </c>
       <c r="I189" s="4">
         <v>93.1</v>
@@ -10929,7 +10933,7 @@
         <v>1461.5</v>
       </c>
     </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A190" s="13" t="s">
         <v>207</v>
       </c>
@@ -10946,13 +10950,13 @@
         <v>98</v>
       </c>
       <c r="F190" s="4">
-        <v>90.4</v>
+        <v>90.5</v>
       </c>
       <c r="G190" s="4">
         <v>100.3</v>
       </c>
       <c r="H190" s="4">
-        <v>102.6</v>
+        <v>102.5</v>
       </c>
       <c r="I190" s="4">
         <v>92.5</v>
@@ -10976,7 +10980,7 @@
         <v>1467.1</v>
       </c>
     </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A191" s="13" t="s">
         <v>208</v>
       </c>
@@ -10987,7 +10991,7 @@
         <v>5</v>
       </c>
       <c r="D191" s="4">
-        <v>94</v>
+        <v>94.1</v>
       </c>
       <c r="E191" s="4">
         <v>97.4</v>
@@ -10999,7 +11003,7 @@
         <v>99.8</v>
       </c>
       <c r="H191" s="4">
-        <v>102</v>
+        <v>101.9</v>
       </c>
       <c r="I191" s="4">
         <v>92.6</v>
@@ -11023,7 +11027,7 @@
         <v>1472.7</v>
       </c>
     </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A192" s="13" t="s">
         <v>209</v>
       </c>
@@ -11037,7 +11041,7 @@
         <v>93.4</v>
       </c>
       <c r="E192" s="4">
-        <v>97.6</v>
+        <v>97.7</v>
       </c>
       <c r="F192" s="4">
         <v>90.6</v>
@@ -11070,7 +11074,7 @@
         <v>1467.1</v>
       </c>
     </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A193" s="13" t="s">
         <v>210</v>
       </c>
@@ -11117,7 +11121,7 @@
         <v>1467.1</v>
       </c>
     </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A194" s="13" t="s">
         <v>211</v>
       </c>
@@ -11164,7 +11168,7 @@
         <v>1461.5</v>
       </c>
     </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A195" s="13" t="s">
         <v>212</v>
       </c>
@@ -11175,7 +11179,7 @@
         <v>9</v>
       </c>
       <c r="D195" s="4">
-        <v>94.4</v>
+        <v>94.5</v>
       </c>
       <c r="E195" s="4">
         <v>97.4</v>
@@ -11211,7 +11215,7 @@
         <v>1483.7</v>
       </c>
     </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A196" s="13" t="s">
         <v>213</v>
       </c>
@@ -11234,7 +11238,7 @@
         <v>101.4</v>
       </c>
       <c r="H196" s="4">
-        <v>102.2</v>
+        <v>102.1</v>
       </c>
       <c r="I196" s="4">
         <v>93.3</v>
@@ -11258,7 +11262,7 @@
         <v>1494.8</v>
       </c>
     </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A197" s="13" t="s">
         <v>214</v>
       </c>
@@ -11269,7 +11273,7 @@
         <v>11</v>
       </c>
       <c r="D197" s="4">
-        <v>97.7</v>
+        <v>97.8</v>
       </c>
       <c r="E197" s="4">
         <v>98.5</v>
@@ -11305,7 +11309,7 @@
         <v>1511.5</v>
       </c>
     </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A198" s="13" t="s">
         <v>215</v>
       </c>
@@ -11352,7 +11356,7 @@
         <v>1522.6</v>
       </c>
     </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A199" s="13" t="s">
         <v>216</v>
       </c>
@@ -11363,7 +11367,7 @@
         <v>1</v>
       </c>
       <c r="D199" s="4">
-        <v>98.5</v>
+        <v>98.6</v>
       </c>
       <c r="E199" s="4">
         <v>98.8</v>
@@ -11399,7 +11403,7 @@
         <v>1550.4</v>
       </c>
     </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A200" s="13" t="s">
         <v>217</v>
       </c>
@@ -11446,7 +11450,7 @@
         <v>1589.3</v>
       </c>
     </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A201" s="13" t="s">
         <v>218</v>
       </c>
@@ -11469,7 +11473,7 @@
         <v>106</v>
       </c>
       <c r="H201" s="4">
-        <v>104.5</v>
+        <v>104.4</v>
       </c>
       <c r="I201" s="4">
         <v>95.6</v>
@@ -11493,7 +11497,7 @@
         <v>1617.1</v>
       </c>
     </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A202" s="13" t="s">
         <v>219</v>
       </c>
@@ -11540,7 +11544,7 @@
         <v>1644.9</v>
       </c>
     </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A203" s="13" t="s">
         <v>220</v>
       </c>
@@ -11587,7 +11591,7 @@
         <v>1656</v>
       </c>
     </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A204" s="13" t="s">
         <v>221</v>
       </c>
@@ -11634,7 +11638,7 @@
         <v>1661.6</v>
       </c>
     </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A205" s="13" t="s">
         <v>222</v>
       </c>
@@ -11681,7 +11685,7 @@
         <v>1672.7</v>
       </c>
     </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A206" s="13" t="s">
         <v>223</v>
       </c>
@@ -11728,7 +11732,7 @@
         <v>1700.5</v>
       </c>
     </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A207" s="13" t="s">
         <v>224</v>
       </c>
@@ -11739,13 +11743,13 @@
         <v>9</v>
       </c>
       <c r="D207" s="4">
-        <v>102.8</v>
+        <v>102.9</v>
       </c>
       <c r="E207" s="4">
         <v>102.9</v>
       </c>
       <c r="F207" s="4">
-        <v>95.1</v>
+        <v>95.2</v>
       </c>
       <c r="G207" s="4">
         <v>109.6</v>
@@ -11775,7 +11779,7 @@
         <v>1711.6</v>
       </c>
     </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A208" s="13" t="s">
         <v>225</v>
       </c>
@@ -11792,7 +11796,7 @@
         <v>104.1</v>
       </c>
       <c r="F208" s="4">
-        <v>96.3</v>
+        <v>96.4</v>
       </c>
       <c r="G208" s="4">
         <v>111.9</v>
@@ -11822,7 +11826,7 @@
         <v>1733.8</v>
       </c>
     </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A209" s="13" t="s">
         <v>226</v>
       </c>
@@ -11833,7 +11837,7 @@
         <v>11</v>
       </c>
       <c r="D209" s="4">
-        <v>104.5</v>
+        <v>104.6</v>
       </c>
       <c r="E209" s="4">
         <v>105.4</v>
@@ -11869,7 +11873,7 @@
         <v>1772.7</v>
       </c>
     </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A210" s="13" t="s">
         <v>227</v>
       </c>
@@ -11892,7 +11896,7 @@
         <v>110.3</v>
       </c>
       <c r="H210" s="4">
-        <v>110.4</v>
+        <v>110.3</v>
       </c>
       <c r="I210" s="4">
         <v>98.4</v>
@@ -11916,7 +11920,7 @@
         <v>1800.5</v>
       </c>
     </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A211" s="13" t="s">
         <v>228</v>
       </c>
@@ -11927,7 +11931,7 @@
         <v>1</v>
       </c>
       <c r="D211" s="4">
-        <v>103.8</v>
+        <v>103.9</v>
       </c>
       <c r="E211" s="4">
         <v>107</v>
@@ -11963,7 +11967,7 @@
         <v>1828.3</v>
       </c>
     </row>
-    <row r="212" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A212" s="13" t="s">
         <v>229</v>
       </c>
@@ -12010,7 +12014,7 @@
         <v>1828.3</v>
       </c>
     </row>
-    <row r="213" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A213" s="13" t="s">
         <v>230</v>
       </c>
@@ -12057,7 +12061,7 @@
         <v>1867.2</v>
       </c>
     </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A214" s="13" t="s">
         <v>231</v>
       </c>
@@ -12104,7 +12108,7 @@
         <v>1883.9</v>
       </c>
     </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A215" s="13" t="s">
         <v>232</v>
       </c>
@@ -12151,7 +12155,7 @@
         <v>1889.5</v>
       </c>
     </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A216" s="13" t="s">
         <v>233</v>
       </c>
@@ -12198,7 +12202,7 @@
         <v>1906.2</v>
       </c>
     </row>
-    <row r="217" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A217" s="13" t="s">
         <v>234</v>
       </c>
@@ -12245,7 +12249,7 @@
         <v>1934</v>
       </c>
     </row>
-    <row r="218" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A218" s="13" t="s">
         <v>235</v>
       </c>
@@ -12292,7 +12296,7 @@
         <v>1950.7</v>
       </c>
     </row>
-    <row r="219" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A219" s="13" t="s">
         <v>236</v>
       </c>
@@ -12339,7 +12343,7 @@
         <v>1967.4</v>
       </c>
     </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A220" s="13" t="s">
         <v>237</v>
       </c>
@@ -12350,19 +12354,19 @@
         <v>10</v>
       </c>
       <c r="D220" s="4">
-        <v>98.6</v>
+        <v>98.7</v>
       </c>
       <c r="E220" s="4">
         <v>106</v>
       </c>
       <c r="F220" s="4">
-        <v>101.4</v>
+        <v>101.5</v>
       </c>
       <c r="G220" s="4">
         <v>104.8</v>
       </c>
       <c r="H220" s="4">
-        <v>110.8</v>
+        <v>110.7</v>
       </c>
       <c r="I220" s="4">
         <v>103.8</v>
@@ -12386,7 +12390,7 @@
         <v>1961.8</v>
       </c>
     </row>
-    <row r="221" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A221" s="13" t="s">
         <v>238</v>
       </c>
@@ -12412,7 +12416,7 @@
         <v>108.8</v>
       </c>
       <c r="I221" s="4">
-        <v>103.5</v>
+        <v>103.6</v>
       </c>
       <c r="J221" s="4">
         <v>4.5</v>
@@ -12433,7 +12437,7 @@
         <v>1967.4</v>
       </c>
     </row>
-    <row r="222" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A222" s="13" t="s">
         <v>239</v>
       </c>
@@ -12480,7 +12484,7 @@
         <v>1961.8</v>
       </c>
     </row>
-    <row r="223" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A223" s="13" t="s">
         <v>240</v>
       </c>
@@ -12527,7 +12531,7 @@
         <v>1934</v>
       </c>
     </row>
-    <row r="224" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A224" s="13" t="s">
         <v>241</v>
       </c>
@@ -12574,7 +12578,7 @@
         <v>1906.2</v>
       </c>
     </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A225" s="13" t="s">
         <v>242</v>
       </c>
@@ -12621,7 +12625,7 @@
         <v>1856.2</v>
       </c>
     </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A226" s="13" t="s">
         <v>243</v>
       </c>
@@ -12644,7 +12648,7 @@
         <v>96.6</v>
       </c>
       <c r="H226" s="4">
-        <v>104.4</v>
+        <v>104.3</v>
       </c>
       <c r="I226" s="4">
         <v>98.1</v>
@@ -12668,7 +12672,7 @@
         <v>1828.4</v>
       </c>
     </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A227" s="13" t="s">
         <v>244</v>
       </c>
@@ -12682,7 +12686,7 @@
         <v>91.6</v>
       </c>
       <c r="E227" s="4">
-        <v>98.2</v>
+        <v>98.3</v>
       </c>
       <c r="F227" s="4">
         <v>96.3</v>
@@ -12715,7 +12719,7 @@
         <v>1800.6</v>
       </c>
     </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A228" s="13" t="s">
         <v>245</v>
       </c>
@@ -12762,7 +12766,7 @@
         <v>1783.9</v>
       </c>
     </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A229" s="13" t="s">
         <v>246</v>
       </c>
@@ -12809,7 +12813,7 @@
         <v>1761.7</v>
       </c>
     </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A230" s="13" t="s">
         <v>247</v>
       </c>
@@ -12823,7 +12827,7 @@
         <v>90</v>
       </c>
       <c r="E230" s="4">
-        <v>96.5</v>
+        <v>96.6</v>
       </c>
       <c r="F230" s="4">
         <v>94.9</v>
@@ -12856,7 +12860,7 @@
         <v>1728.4</v>
       </c>
     </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A231" s="13" t="s">
         <v>248</v>
       </c>
@@ -12903,7 +12907,7 @@
         <v>1700.6</v>
       </c>
     </row>
-    <row r="232" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A232" s="13" t="s">
         <v>249</v>
       </c>
@@ -12950,7 +12954,7 @@
         <v>1683.9</v>
       </c>
     </row>
-    <row r="233" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A233" s="13" t="s">
         <v>250</v>
       </c>
@@ -12997,7 +13001,7 @@
         <v>1656.1</v>
       </c>
     </row>
-    <row r="234" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A234" s="13" t="s">
         <v>251</v>
       </c>
@@ -13044,7 +13048,7 @@
         <v>1639.4</v>
       </c>
     </row>
-    <row r="235" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A235" s="13" t="s">
         <v>252</v>
       </c>
@@ -13091,7 +13095,7 @@
         <v>1645</v>
       </c>
     </row>
-    <row r="236" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A236" s="13" t="s">
         <v>253</v>
       </c>
@@ -13138,7 +13142,7 @@
         <v>1628.3</v>
       </c>
     </row>
-    <row r="237" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A237" s="13" t="s">
         <v>254</v>
       </c>
@@ -13149,7 +13153,7 @@
         <v>3</v>
       </c>
       <c r="D237" s="4">
-        <v>92.8</v>
+        <v>92.9</v>
       </c>
       <c r="E237" s="4">
         <v>98.3</v>
@@ -13185,7 +13189,7 @@
         <v>1611.6</v>
       </c>
     </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A238" s="13" t="s">
         <v>255</v>
       </c>
@@ -13232,7 +13236,7 @@
         <v>1578.3</v>
       </c>
     </row>
-    <row r="239" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A239" s="13" t="s">
         <v>256</v>
       </c>
@@ -13279,7 +13283,7 @@
         <v>1561.6</v>
       </c>
     </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A240" s="13" t="s">
         <v>257</v>
       </c>
@@ -13326,7 +13330,7 @@
         <v>1550.5</v>
       </c>
     </row>
-    <row r="241" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A241" s="13" t="s">
         <v>258</v>
       </c>
@@ -13337,10 +13341,10 @@
         <v>7</v>
       </c>
       <c r="D241" s="4">
-        <v>96.9</v>
+        <v>97</v>
       </c>
       <c r="E241" s="4">
-        <v>99.1</v>
+        <v>99.2</v>
       </c>
       <c r="F241" s="4">
         <v>90.8</v>
@@ -13373,7 +13377,7 @@
         <v>1550.5</v>
       </c>
     </row>
-    <row r="242" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A242" s="13" t="s">
         <v>259</v>
       </c>
@@ -13420,7 +13424,7 @@
         <v>1550.5</v>
       </c>
     </row>
-    <row r="243" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A243" s="13" t="s">
         <v>260</v>
       </c>
@@ -13467,7 +13471,7 @@
         <v>1561.6</v>
       </c>
     </row>
-    <row r="244" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A244" s="13" t="s">
         <v>261</v>
       </c>
@@ -13481,7 +13485,7 @@
         <v>98.7</v>
       </c>
       <c r="E244" s="4">
-        <v>101.6</v>
+        <v>101.7</v>
       </c>
       <c r="F244" s="4">
         <v>91</v>
@@ -13514,7 +13518,7 @@
         <v>1556</v>
       </c>
     </row>
-    <row r="245" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A245" s="13" t="s">
         <v>262</v>
       </c>
@@ -13525,7 +13529,7 @@
         <v>11</v>
       </c>
       <c r="D245" s="4">
-        <v>98.9</v>
+        <v>99</v>
       </c>
       <c r="E245" s="4">
         <v>102.5</v>
@@ -13561,7 +13565,7 @@
         <v>1550.4</v>
       </c>
     </row>
-    <row r="246" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A246" s="13" t="s">
         <v>263</v>
       </c>
@@ -13608,7 +13612,7 @@
         <v>1544.8</v>
       </c>
     </row>
-    <row r="247" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A247" s="13" t="s">
         <v>264</v>
       </c>
@@ -13655,7 +13659,7 @@
         <v>1539.2</v>
       </c>
     </row>
-    <row r="248" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A248" s="13" t="s">
         <v>265</v>
       </c>
@@ -13702,7 +13706,7 @@
         <v>1550.3</v>
       </c>
     </row>
-    <row r="249" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A249" s="13" t="s">
         <v>266</v>
       </c>
@@ -13749,7 +13753,7 @@
         <v>1578.1</v>
       </c>
     </row>
-    <row r="250" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A250" s="13" t="s">
         <v>267</v>
       </c>
@@ -13772,7 +13776,7 @@
         <v>107.7</v>
       </c>
       <c r="H250" s="4">
-        <v>111.4</v>
+        <v>111.3</v>
       </c>
       <c r="I250" s="4">
         <v>94.4</v>
@@ -13796,7 +13800,7 @@
         <v>1594.8</v>
       </c>
     </row>
-    <row r="251" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A251" s="13" t="s">
         <v>268</v>
       </c>
@@ -13807,7 +13811,7 @@
         <v>5</v>
       </c>
       <c r="D251" s="4">
-        <v>102.1</v>
+        <v>102.2</v>
       </c>
       <c r="E251" s="4">
         <v>106.1</v>
@@ -13843,7 +13847,7 @@
         <v>1600.4</v>
       </c>
     </row>
-    <row r="252" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A252" s="13" t="s">
         <v>269</v>
       </c>
@@ -13890,7 +13894,7 @@
         <v>1578.2</v>
       </c>
     </row>
-    <row r="253" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A253" s="13" t="s">
         <v>270</v>
       </c>
@@ -13937,7 +13941,7 @@
         <v>1578.2</v>
       </c>
     </row>
-    <row r="254" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A254" s="13" t="s">
         <v>271</v>
       </c>
@@ -13954,13 +13958,13 @@
         <v>108.5</v>
       </c>
       <c r="F254" s="4">
-        <v>92.7</v>
+        <v>92.8</v>
       </c>
       <c r="G254" s="4">
         <v>109.4</v>
       </c>
       <c r="H254" s="4">
-        <v>114</v>
+        <v>113.9</v>
       </c>
       <c r="I254" s="4">
         <v>94.6</v>
@@ -13984,7 +13988,7 @@
         <v>1556</v>
       </c>
     </row>
-    <row r="255" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A255" s="13" t="s">
         <v>272</v>
       </c>
@@ -14031,7 +14035,7 @@
         <v>1539.3</v>
       </c>
     </row>
-    <row r="256" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A256" s="13" t="s">
         <v>273</v>
       </c>
@@ -14078,7 +14082,7 @@
         <v>1550.4</v>
       </c>
     </row>
-    <row r="257" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A257" s="13" t="s">
         <v>274</v>
       </c>
@@ -14125,7 +14129,7 @@
         <v>1556</v>
       </c>
     </row>
-    <row r="258" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A258" s="13" t="s">
         <v>275</v>
       </c>
@@ -14172,7 +14176,7 @@
         <v>1572.7</v>
       </c>
     </row>
-    <row r="259" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="259" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A259" s="13" t="s">
         <v>276</v>
       </c>
@@ -14195,7 +14199,7 @@
         <v>107</v>
       </c>
       <c r="H259" s="4">
-        <v>113.2</v>
+        <v>113.1</v>
       </c>
       <c r="I259" s="4">
         <v>95.7</v>
@@ -14219,7 +14223,7 @@
         <v>1544.9</v>
       </c>
     </row>
-    <row r="260" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A260" s="13" t="s">
         <v>277</v>
       </c>
@@ -14242,7 +14246,7 @@
         <v>106.6</v>
       </c>
       <c r="H260" s="4">
-        <v>113</v>
+        <v>112.9</v>
       </c>
       <c r="I260" s="4">
         <v>96.4</v>
@@ -14266,7 +14270,7 @@
         <v>1550.5</v>
       </c>
     </row>
-    <row r="261" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A261" s="13" t="s">
         <v>278</v>
       </c>
@@ -14313,7 +14317,7 @@
         <v>1539.4</v>
       </c>
     </row>
-    <row r="262" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="262" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A262" s="13" t="s">
         <v>279</v>
       </c>
@@ -14360,7 +14364,7 @@
         <v>1517.2</v>
       </c>
     </row>
-    <row r="263" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="263" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A263" s="13" t="s">
         <v>280</v>
       </c>
@@ -14371,10 +14375,10 @@
         <v>5</v>
       </c>
       <c r="D263" s="4">
-        <v>98.5</v>
+        <v>98.6</v>
       </c>
       <c r="E263" s="4">
-        <v>103.6</v>
+        <v>103.7</v>
       </c>
       <c r="F263" s="4">
         <v>93.6</v>
@@ -14407,7 +14411,7 @@
         <v>1506.1</v>
       </c>
     </row>
-    <row r="264" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="264" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A264" s="13" t="s">
         <v>281</v>
       </c>
@@ -14454,7 +14458,7 @@
         <v>1489.4</v>
       </c>
     </row>
-    <row r="265" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A265" s="13" t="s">
         <v>282</v>
       </c>
@@ -14468,7 +14472,7 @@
         <v>95.8</v>
       </c>
       <c r="E265" s="4">
-        <v>101.8</v>
+        <v>101.9</v>
       </c>
       <c r="F265" s="4">
         <v>93</v>
@@ -14501,7 +14505,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="266" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="266" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A266" s="13" t="s">
         <v>283</v>
       </c>
@@ -14548,7 +14552,7 @@
         <v>1483.9</v>
       </c>
     </row>
-    <row r="267" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="267" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A267" s="13" t="s">
         <v>284</v>
       </c>
@@ -14595,7 +14599,7 @@
         <v>1483.9</v>
       </c>
     </row>
-    <row r="268" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="268" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A268" s="13" t="s">
         <v>285</v>
       </c>
@@ -14642,7 +14646,7 @@
         <v>1478.3</v>
       </c>
     </row>
-    <row r="269" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="269" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A269" s="13" t="s">
         <v>286</v>
       </c>
@@ -14689,7 +14693,7 @@
         <v>1467.2</v>
       </c>
     </row>
-    <row r="270" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="270" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A270" s="13" t="s">
         <v>287</v>
       </c>
@@ -14706,7 +14710,7 @@
         <v>96.8</v>
       </c>
       <c r="F270" s="4">
-        <v>90.7</v>
+        <v>90.8</v>
       </c>
       <c r="G270" s="4">
         <v>97.3</v>
@@ -14736,7 +14740,7 @@
         <v>1433.9</v>
       </c>
     </row>
-    <row r="271" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A271" s="13" t="s">
         <v>288</v>
       </c>
@@ -14753,7 +14757,7 @@
         <v>96.9</v>
       </c>
       <c r="F271" s="4">
-        <v>91.3</v>
+        <v>91.4</v>
       </c>
       <c r="G271" s="4">
         <v>99.1</v>
@@ -14783,7 +14787,7 @@
         <v>1417.2</v>
       </c>
     </row>
-    <row r="272" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="272" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A272" s="13" t="s">
         <v>289</v>
       </c>
@@ -14830,7 +14834,7 @@
         <v>1395</v>
       </c>
     </row>
-    <row r="273" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="273" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A273" s="13" t="s">
         <v>290</v>
       </c>
@@ -14877,7 +14881,7 @@
         <v>1400.6</v>
       </c>
     </row>
-    <row r="274" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="274" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A274" s="13" t="s">
         <v>291</v>
       </c>
@@ -14888,7 +14892,7 @@
         <v>4</v>
       </c>
       <c r="D274" s="4">
-        <v>97.8</v>
+        <v>97.9</v>
       </c>
       <c r="E274" s="4">
         <v>99.2</v>
@@ -14924,7 +14928,7 @@
         <v>1378.4</v>
       </c>
     </row>
-    <row r="275" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="275" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A275" s="13" t="s">
         <v>292</v>
       </c>
@@ -14971,7 +14975,7 @@
         <v>1367.3</v>
       </c>
     </row>
-    <row r="276" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A276" s="13" t="s">
         <v>293</v>
       </c>
@@ -15018,7 +15022,7 @@
         <v>1350.6</v>
       </c>
     </row>
-    <row r="277" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="277" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A277" s="13" t="s">
         <v>294</v>
       </c>
@@ -15065,7 +15069,7 @@
         <v>1356.2</v>
       </c>
     </row>
-    <row r="278" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="278" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A278" s="13" t="s">
         <v>295</v>
       </c>
@@ -15082,7 +15086,7 @@
         <v>102.9</v>
       </c>
       <c r="F278" s="4">
-        <v>89.9</v>
+        <v>90</v>
       </c>
       <c r="G278" s="4">
         <v>106.6</v>
@@ -15112,7 +15116,7 @@
         <v>1350.6</v>
       </c>
     </row>
-    <row r="279" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="279" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A279" s="13" t="s">
         <v>296</v>
       </c>
@@ -15159,7 +15163,7 @@
         <v>1350.6</v>
       </c>
     </row>
-    <row r="280" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="280" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A280" s="13" t="s">
         <v>297</v>
       </c>
@@ -15206,7 +15210,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="281" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="281" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A281" s="13" t="s">
         <v>298</v>
       </c>
@@ -15253,7 +15257,7 @@
         <v>1350.6</v>
       </c>
     </row>
-    <row r="282" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="282" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A282" s="13" t="s">
         <v>299</v>
       </c>
@@ -15300,7 +15304,7 @@
         <v>1378.4</v>
       </c>
     </row>
-    <row r="283" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="283" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A283" s="13" t="s">
         <v>300</v>
       </c>
@@ -15317,7 +15321,7 @@
         <v>103.8</v>
       </c>
       <c r="F283" s="4">
-        <v>92</v>
+        <v>92.1</v>
       </c>
       <c r="G283" s="4">
         <v>105.9</v>
@@ -15347,7 +15351,7 @@
         <v>1372.8</v>
       </c>
     </row>
-    <row r="284" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="284" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A284" s="13" t="s">
         <v>301</v>
       </c>
@@ -15361,7 +15365,7 @@
         <v>99.9</v>
       </c>
       <c r="E284" s="4">
-        <v>104.7</v>
+        <v>104.8</v>
       </c>
       <c r="F284" s="4">
         <v>92.5</v>
@@ -15370,7 +15374,7 @@
         <v>106.4</v>
       </c>
       <c r="H284" s="4">
-        <v>109.9</v>
+        <v>109.8</v>
       </c>
       <c r="I284" s="4">
         <v>95.1</v>
@@ -15394,7 +15398,7 @@
         <v>1383.9</v>
       </c>
     </row>
-    <row r="285" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="285" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A285" s="13" t="s">
         <v>302</v>
       </c>
@@ -15441,7 +15445,7 @@
         <v>1395</v>
       </c>
     </row>
-    <row r="286" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="286" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A286" s="13" t="s">
         <v>303</v>
       </c>
@@ -15464,7 +15468,7 @@
         <v>106.1</v>
       </c>
       <c r="H286" s="4">
-        <v>109</v>
+        <v>108.9</v>
       </c>
       <c r="I286" s="4">
         <v>95.5</v>
@@ -15488,7 +15492,7 @@
         <v>1411.7</v>
       </c>
     </row>
-    <row r="287" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="287" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A287" s="13" t="s">
         <v>304</v>
       </c>
@@ -15511,7 +15515,7 @@
         <v>107.3</v>
       </c>
       <c r="H287" s="4">
-        <v>109.7</v>
+        <v>109.6</v>
       </c>
       <c r="I287" s="4">
         <v>96.3</v>
@@ -15535,7 +15539,7 @@
         <v>1422.8</v>
       </c>
     </row>
-    <row r="288" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="288" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A288" s="13" t="s">
         <v>305</v>
       </c>
@@ -15549,7 +15553,7 @@
         <v>101.2</v>
       </c>
       <c r="E288" s="4">
-        <v>104.8</v>
+        <v>104.9</v>
       </c>
       <c r="F288" s="4">
         <v>94.4</v>
@@ -15582,7 +15586,7 @@
         <v>1439.5</v>
       </c>
     </row>
-    <row r="289" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="289" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A289" s="13" t="s">
         <v>306</v>
       </c>
@@ -15593,7 +15597,7 @@
         <v>7</v>
       </c>
       <c r="D289" s="4">
-        <v>102.3</v>
+        <v>102.4</v>
       </c>
       <c r="E289" s="4">
         <v>105.3</v>
@@ -15629,7 +15633,7 @@
         <v>1467.3</v>
       </c>
     </row>
-    <row r="290" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="290" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A290" s="13" t="s">
         <v>307</v>
       </c>
@@ -15640,7 +15644,7 @@
         <v>8</v>
       </c>
       <c r="D290" s="4">
-        <v>102.2</v>
+        <v>102.3</v>
       </c>
       <c r="E290" s="4">
         <v>105.6</v>
@@ -15676,7 +15680,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="291" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="291" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A291" s="13" t="s">
         <v>308</v>
       </c>
@@ -15687,7 +15691,7 @@
         <v>9</v>
       </c>
       <c r="D291" s="4">
-        <v>104.4</v>
+        <v>104.5</v>
       </c>
       <c r="E291" s="4">
         <v>107.5</v>
@@ -15723,7 +15727,7 @@
         <v>1511.8</v>
       </c>
     </row>
-    <row r="292" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="292" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A292" s="13" t="s">
         <v>309</v>
       </c>
@@ -15770,7 +15774,7 @@
         <v>1550.7</v>
       </c>
     </row>
-    <row r="293" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="293" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A293" s="13" t="s">
         <v>310</v>
       </c>
@@ -15781,7 +15785,7 @@
         <v>11</v>
       </c>
       <c r="D293" s="4">
-        <v>104.6</v>
+        <v>104.7</v>
       </c>
       <c r="E293" s="4">
         <v>109.1</v>
@@ -15817,7 +15821,7 @@
         <v>1567.4</v>
       </c>
     </row>
-    <row r="294" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="294" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A294" s="13" t="s">
         <v>311</v>
       </c>
@@ -15864,7 +15868,7 @@
         <v>1584.1</v>
       </c>
     </row>
-    <row r="295" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="295" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A295" s="13" t="s">
         <v>312</v>
       </c>
@@ -15875,7 +15879,7 @@
         <v>1</v>
       </c>
       <c r="D295" s="4">
-        <v>107.5</v>
+        <v>107.6</v>
       </c>
       <c r="E295" s="4">
         <v>112.6</v>
@@ -15911,7 +15915,7 @@
         <v>1606.3</v>
       </c>
     </row>
-    <row r="296" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="296" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A296" s="13" t="s">
         <v>313</v>
       </c>
@@ -15934,7 +15938,7 @@
         <v>115</v>
       </c>
       <c r="H296" s="4">
-        <v>117.8</v>
+        <v>117.7</v>
       </c>
       <c r="I296" s="4">
         <v>102.1</v>
@@ -15958,7 +15962,7 @@
         <v>1634.1</v>
       </c>
     </row>
-    <row r="297" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="297" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A297" s="13" t="s">
         <v>314</v>
       </c>
@@ -15969,7 +15973,7 @@
         <v>3</v>
       </c>
       <c r="D297" s="4">
-        <v>109.5</v>
+        <v>109.6</v>
       </c>
       <c r="E297" s="4">
         <v>112.5</v>
@@ -16005,7 +16009,7 @@
         <v>1650.8</v>
       </c>
     </row>
-    <row r="298" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="298" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A298" s="13" t="s">
         <v>315</v>
       </c>
@@ -16022,13 +16026,13 @@
         <v>113.6</v>
       </c>
       <c r="F298" s="4">
-        <v>101.1</v>
+        <v>101.2</v>
       </c>
       <c r="G298" s="4">
         <v>117.7</v>
       </c>
       <c r="H298" s="4">
-        <v>119.2</v>
+        <v>119.1</v>
       </c>
       <c r="I298" s="4">
         <v>103.8</v>
@@ -16052,7 +16056,7 @@
         <v>1656.4</v>
       </c>
     </row>
-    <row r="299" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="299" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A299" s="13" t="s">
         <v>316</v>
       </c>
@@ -16099,7 +16103,7 @@
         <v>1684.2</v>
       </c>
     </row>
-    <row r="300" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="300" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A300" s="13" t="s">
         <v>317</v>
       </c>
@@ -16146,7 +16150,7 @@
         <v>1717.5</v>
       </c>
     </row>
-    <row r="301" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="301" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A301" s="13" t="s">
         <v>318</v>
       </c>
@@ -16193,7 +16197,7 @@
         <v>1728.6</v>
       </c>
     </row>
-    <row r="302" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="302" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A302" s="13" t="s">
         <v>319</v>
       </c>
@@ -16240,7 +16244,7 @@
         <v>1750.8</v>
       </c>
     </row>
-    <row r="303" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="303" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A303" s="13" t="s">
         <v>320</v>
       </c>
@@ -16251,13 +16255,13 @@
         <v>9</v>
       </c>
       <c r="D303" s="4">
-        <v>111.9</v>
+        <v>112</v>
       </c>
       <c r="E303" s="4">
         <v>114.7</v>
       </c>
       <c r="F303" s="4">
-        <v>103.1</v>
+        <v>103.2</v>
       </c>
       <c r="G303" s="4">
         <v>119.7</v>
@@ -16287,7 +16291,7 @@
         <v>1795.2</v>
       </c>
     </row>
-    <row r="304" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="304" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A304" s="13" t="s">
         <v>321</v>
       </c>
@@ -16334,7 +16338,7 @@
         <v>1806.3</v>
       </c>
     </row>
-    <row r="305" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="305" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A305" s="13" t="s">
         <v>322</v>
       </c>
@@ -16345,7 +16349,7 @@
         <v>11</v>
       </c>
       <c r="D305" s="4">
-        <v>112.3</v>
+        <v>112.4</v>
       </c>
       <c r="E305" s="4">
         <v>115.5</v>
@@ -16381,7 +16385,7 @@
         <v>1811.9</v>
       </c>
     </row>
-    <row r="306" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="306" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A306" s="13" t="s">
         <v>323</v>
       </c>
@@ -16392,7 +16396,7 @@
         <v>12</v>
       </c>
       <c r="D306" s="4">
-        <v>112.8</v>
+        <v>112.9</v>
       </c>
       <c r="E306" s="4">
         <v>114.3</v>
@@ -16428,7 +16432,7 @@
         <v>1806.3</v>
       </c>
     </row>
-    <row r="307" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="307" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A307" s="13" t="s">
         <v>324</v>
       </c>
@@ -16445,7 +16449,7 @@
         <v>115.2</v>
       </c>
       <c r="F307" s="4">
-        <v>103.1</v>
+        <v>103.2</v>
       </c>
       <c r="G307" s="4">
         <v>120</v>
@@ -16475,7 +16479,7 @@
         <v>1817.4</v>
       </c>
     </row>
-    <row r="308" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="308" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A308" s="13" t="s">
         <v>325</v>
       </c>
@@ -16486,7 +16490,7 @@
         <v>2</v>
       </c>
       <c r="D308" s="4">
-        <v>111.7</v>
+        <v>111.8</v>
       </c>
       <c r="E308" s="4">
         <v>114.2</v>
@@ -16522,7 +16526,7 @@
         <v>1817.4</v>
       </c>
     </row>
-    <row r="309" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="309" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A309" s="13" t="s">
         <v>326</v>
       </c>
@@ -16569,7 +16573,7 @@
         <v>1823</v>
       </c>
     </row>
-    <row r="310" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="310" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A310" s="13" t="s">
         <v>327</v>
       </c>
@@ -16616,7 +16620,7 @@
         <v>1850.8</v>
       </c>
     </row>
-    <row r="311" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="311" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A311" s="13" t="s">
         <v>328</v>
       </c>
@@ -16663,7 +16667,7 @@
         <v>1867.5</v>
       </c>
     </row>
-    <row r="312" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="312" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A312" s="13" t="s">
         <v>329</v>
       </c>
@@ -16686,7 +16690,7 @@
         <v>120.1</v>
       </c>
       <c r="H312" s="4">
-        <v>121.8</v>
+        <v>121.7</v>
       </c>
       <c r="I312" s="4">
         <v>107.5</v>
@@ -16710,7 +16714,7 @@
         <v>1884.2</v>
       </c>
     </row>
-    <row r="313" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="313" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A313" s="13" t="s">
         <v>330</v>
       </c>
@@ -16757,7 +16761,7 @@
         <v>1873.1</v>
       </c>
     </row>
-    <row r="314" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="314" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A314" s="13" t="s">
         <v>331</v>
       </c>
@@ -16804,7 +16808,7 @@
         <v>1889.8</v>
       </c>
     </row>
-    <row r="315" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="315" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A315" s="13" t="s">
         <v>332</v>
       </c>
@@ -16851,7 +16855,7 @@
         <v>1917.6</v>
       </c>
     </row>
-    <row r="316" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="316" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A316" s="13" t="s">
         <v>333</v>
       </c>
@@ -16898,7 +16902,7 @@
         <v>1939.8</v>
       </c>
     </row>
-    <row r="317" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="317" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A317" s="13" t="s">
         <v>334</v>
       </c>
@@ -16909,7 +16913,7 @@
         <v>11</v>
       </c>
       <c r="D317" s="4">
-        <v>117</v>
+        <v>117.1</v>
       </c>
       <c r="E317" s="4">
         <v>117.9</v>
@@ -16945,7 +16949,7 @@
         <v>1945.4</v>
       </c>
     </row>
-    <row r="318" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="318" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A318" s="13" t="s">
         <v>335</v>
       </c>
@@ -16992,7 +16996,7 @@
         <v>1951</v>
       </c>
     </row>
-    <row r="319" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="319" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A319" s="13" t="s">
         <v>336</v>
       </c>
@@ -17003,7 +17007,7 @@
         <v>1</v>
       </c>
       <c r="D319" s="4">
-        <v>117.7</v>
+        <v>117.8</v>
       </c>
       <c r="E319" s="4">
         <v>119.1</v>
@@ -17039,7 +17043,7 @@
         <v>1962.1</v>
       </c>
     </row>
-    <row r="320" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="320" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A320" s="13" t="s">
         <v>337</v>
       </c>
@@ -17086,7 +17090,7 @@
         <v>1984.3</v>
       </c>
     </row>
-    <row r="321" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="321" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A321" s="13" t="s">
         <v>338</v>
       </c>
@@ -17133,7 +17137,7 @@
         <v>2012.1</v>
       </c>
     </row>
-    <row r="322" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="322" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A322" s="13" t="s">
         <v>339</v>
       </c>
@@ -17144,7 +17148,7 @@
         <v>4</v>
       </c>
       <c r="D322" s="4">
-        <v>118.7</v>
+        <v>118.8</v>
       </c>
       <c r="E322" s="4">
         <v>120.5</v>
@@ -17180,7 +17184,7 @@
         <v>2045.4</v>
       </c>
     </row>
-    <row r="323" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="323" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A323" s="13" t="s">
         <v>340</v>
       </c>
@@ -17203,7 +17207,7 @@
         <v>126</v>
       </c>
       <c r="H323" s="4">
-        <v>126.7</v>
+        <v>126.6</v>
       </c>
       <c r="I323" s="4">
         <v>110.8</v>
@@ -17227,7 +17231,7 @@
         <v>2067.6</v>
       </c>
     </row>
-    <row r="324" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="324" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A324" s="13" t="s">
         <v>341</v>
       </c>
@@ -17274,7 +17278,7 @@
         <v>2106.5</v>
       </c>
     </row>
-    <row r="325" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="325" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A325" s="13" t="s">
         <v>342</v>
       </c>
@@ -17321,7 +17325,7 @@
         <v>2134.3000000000002</v>
       </c>
     </row>
-    <row r="326" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="326" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A326" s="13" t="s">
         <v>343</v>
       </c>
@@ -17368,7 +17372,7 @@
         <v>2151</v>
       </c>
     </row>
-    <row r="327" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="327" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A327" s="13" t="s">
         <v>344</v>
       </c>
@@ -17415,7 +17419,7 @@
         <v>2162.1</v>
       </c>
     </row>
-    <row r="328" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="328" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A328" s="13" t="s">
         <v>345</v>
       </c>
@@ -17438,7 +17442,7 @@
         <v>124.5</v>
       </c>
       <c r="H328" s="4">
-        <v>127.9</v>
+        <v>127.8</v>
       </c>
       <c r="I328" s="4">
         <v>112.9</v>
@@ -17462,7 +17466,7 @@
         <v>2173.1999999999998</v>
       </c>
     </row>
-    <row r="329" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="329" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A329" s="13" t="s">
         <v>346</v>
       </c>
@@ -17473,7 +17477,7 @@
         <v>11</v>
       </c>
       <c r="D329" s="4">
-        <v>117.5</v>
+        <v>117.6</v>
       </c>
       <c r="E329" s="4">
         <v>121.9</v>
@@ -17509,7 +17513,7 @@
         <v>2189.9</v>
       </c>
     </row>
-    <row r="330" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="330" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A330" s="13" t="s">
         <v>347</v>
       </c>
@@ -17556,7 +17560,7 @@
         <v>2217.6999999999998</v>
       </c>
     </row>
-    <row r="331" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="331" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A331" s="13" t="s">
         <v>348</v>
       </c>
@@ -17603,7 +17607,7 @@
         <v>2228.8000000000002</v>
       </c>
     </row>
-    <row r="332" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="332" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A332" s="13" t="s">
         <v>349</v>
       </c>
@@ -17620,13 +17624,13 @@
         <v>122</v>
       </c>
       <c r="F332" s="4">
-        <v>110.6</v>
+        <v>110.7</v>
       </c>
       <c r="G332" s="4">
         <v>125.9</v>
       </c>
       <c r="H332" s="4">
-        <v>127.8</v>
+        <v>127.7</v>
       </c>
       <c r="I332" s="4">
         <v>113.7</v>
@@ -17650,7 +17654,7 @@
         <v>2201</v>
       </c>
     </row>
-    <row r="333" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="333" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A333" s="13" t="s">
         <v>350</v>
       </c>
@@ -17661,7 +17665,7 @@
         <v>3</v>
       </c>
       <c r="D333" s="4">
-        <v>117.2</v>
+        <v>117.3</v>
       </c>
       <c r="E333" s="4">
         <v>121.4</v>
@@ -17697,7 +17701,7 @@
         <v>2195.4</v>
       </c>
     </row>
-    <row r="334" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="334" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A334" s="13" t="s">
         <v>351</v>
       </c>
@@ -17744,7 +17748,7 @@
         <v>2189.8000000000002</v>
       </c>
     </row>
-    <row r="335" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="335" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A335" s="13" t="s">
         <v>352</v>
       </c>
@@ -17791,7 +17795,7 @@
         <v>2217.6</v>
       </c>
     </row>
-    <row r="336" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="336" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A336" s="13" t="s">
         <v>353</v>
       </c>
@@ -17808,7 +17812,7 @@
         <v>122.7</v>
       </c>
       <c r="F336" s="4">
-        <v>112</v>
+        <v>112.1</v>
       </c>
       <c r="G336" s="4">
         <v>124.7</v>
@@ -17838,7 +17842,7 @@
         <v>2245.4</v>
       </c>
     </row>
-    <row r="337" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="337" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A337" s="13" t="s">
         <v>354</v>
       </c>
@@ -17885,7 +17889,7 @@
         <v>2284.3000000000002</v>
       </c>
     </row>
-    <row r="338" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="338" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A338" s="13" t="s">
         <v>355</v>
       </c>
@@ -17896,7 +17900,7 @@
         <v>8</v>
       </c>
       <c r="D338" s="4">
-        <v>114.3</v>
+        <v>114.4</v>
       </c>
       <c r="E338" s="4">
         <v>122.9</v>
@@ -17932,7 +17936,7 @@
         <v>2306.5</v>
       </c>
     </row>
-    <row r="339" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="339" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A339" s="13" t="s">
         <v>356</v>
       </c>
@@ -17979,7 +17983,7 @@
         <v>2317.6</v>
       </c>
     </row>
-    <row r="340" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="340" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A340" s="13" t="s">
         <v>357</v>
       </c>
@@ -18026,7 +18030,7 @@
         <v>2334.3000000000002</v>
       </c>
     </row>
-    <row r="341" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="341" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A341" s="13" t="s">
         <v>358</v>
       </c>
@@ -18073,7 +18077,7 @@
         <v>2351</v>
       </c>
     </row>
-    <row r="342" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="342" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A342" s="13" t="s">
         <v>359</v>
       </c>
@@ -18120,7 +18124,7 @@
         <v>2378.8000000000002</v>
       </c>
     </row>
-    <row r="343" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="343" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A343" s="13" t="s">
         <v>360</v>
       </c>
@@ -18131,7 +18135,7 @@
         <v>1</v>
       </c>
       <c r="D343" s="4">
-        <v>113</v>
+        <v>113.1</v>
       </c>
       <c r="E343" s="4">
         <v>120.9</v>
@@ -18167,7 +18171,7 @@
         <v>2406.6</v>
       </c>
     </row>
-    <row r="344" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="344" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A344" s="13" t="s">
         <v>361</v>
       </c>
@@ -18190,7 +18194,7 @@
         <v>119.5</v>
       </c>
       <c r="H344" s="4">
-        <v>127.2</v>
+        <v>127.1</v>
       </c>
       <c r="I344" s="4">
         <v>117.1</v>
@@ -18214,7 +18218,7 @@
         <v>2401</v>
       </c>
     </row>
-    <row r="345" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="345" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A345" s="13" t="s">
         <v>362</v>
       </c>
@@ -18261,7 +18265,7 @@
         <v>2389.9</v>
       </c>
     </row>
-    <row r="346" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="346" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A346" s="13" t="s">
         <v>363</v>
       </c>
@@ -18275,7 +18279,7 @@
         <v>111.2</v>
       </c>
       <c r="E346" s="4">
-        <v>119.4</v>
+        <v>119.5</v>
       </c>
       <c r="F346" s="4">
         <v>112.2</v>
@@ -18308,7 +18312,7 @@
         <v>2351</v>
       </c>
     </row>
-    <row r="347" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="347" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A347" s="13" t="s">
         <v>364</v>
       </c>
@@ -18322,7 +18326,7 @@
         <v>110.8</v>
       </c>
       <c r="E347" s="4">
-        <v>119.6</v>
+        <v>119.7</v>
       </c>
       <c r="F347" s="4">
         <v>111.9</v>
@@ -18355,7 +18359,7 @@
         <v>2323.1999999999998</v>
       </c>
     </row>
-    <row r="348" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="348" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A348" s="13" t="s">
         <v>365</v>
       </c>
@@ -18366,7 +18370,7 @@
         <v>6</v>
       </c>
       <c r="D348" s="4">
-        <v>109.4</v>
+        <v>109.5</v>
       </c>
       <c r="E348" s="4">
         <v>117.1</v>
@@ -18402,7 +18406,7 @@
         <v>2295.4</v>
       </c>
     </row>
-    <row r="349" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="349" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A349" s="13" t="s">
         <v>366</v>
       </c>
@@ -18419,7 +18423,7 @@
         <v>116.6</v>
       </c>
       <c r="F349" s="4">
-        <v>111.3</v>
+        <v>111.4</v>
       </c>
       <c r="G349" s="4">
         <v>114.5</v>
@@ -18449,7 +18453,7 @@
         <v>2278.6999999999998</v>
       </c>
     </row>
-    <row r="350" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="350" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A350" s="13" t="s">
         <v>367</v>
       </c>
@@ -18496,7 +18500,7 @@
         <v>2239.8000000000002</v>
       </c>
     </row>
-    <row r="351" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="351" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A351" s="13" t="s">
         <v>368</v>
       </c>
@@ -18543,7 +18547,7 @@
         <v>2223.1</v>
       </c>
     </row>
-    <row r="352" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="352" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A352" s="13" t="s">
         <v>369</v>
       </c>
@@ -18590,7 +18594,7 @@
         <v>2184.1999999999998</v>
       </c>
     </row>
-    <row r="353" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="353" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A353" s="13" t="s">
         <v>370</v>
       </c>
@@ -18637,7 +18641,7 @@
         <v>2178.6</v>
       </c>
     </row>
-    <row r="354" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="354" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A354" s="13" t="s">
         <v>371</v>
       </c>
@@ -18684,7 +18688,7 @@
         <v>2128.6</v>
       </c>
     </row>
-    <row r="355" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="355" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A355" s="13" t="s">
         <v>372</v>
       </c>
@@ -18731,7 +18735,7 @@
         <v>2078.6</v>
       </c>
     </row>
-    <row r="356" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="356" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A356" s="13" t="s">
         <v>373</v>
       </c>
@@ -18754,7 +18758,7 @@
         <v>79.599999999999994</v>
       </c>
       <c r="H356" s="4">
-        <v>82</v>
+        <v>82.1</v>
       </c>
       <c r="I356" s="4">
         <v>99.3</v>
@@ -18778,7 +18782,7 @@
         <v>2028.6</v>
       </c>
     </row>
-    <row r="357" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="357" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A357" s="13" t="s">
         <v>374</v>
       </c>
@@ -18801,7 +18805,7 @@
         <v>81.599999999999994</v>
       </c>
       <c r="H357" s="4">
-        <v>78.8</v>
+        <v>78.900000000000006</v>
       </c>
       <c r="I357" s="4">
         <v>97.4</v>
@@ -18825,7 +18829,7 @@
         <v>1989.7</v>
       </c>
     </row>
-    <row r="358" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="358" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A358" s="13" t="s">
         <v>375</v>
       </c>
@@ -18836,7 +18840,7 @@
         <v>4</v>
       </c>
       <c r="D358" s="4">
-        <v>87</v>
+        <v>86.9</v>
       </c>
       <c r="E358" s="4">
         <v>84.5</v>
@@ -18848,7 +18852,7 @@
         <v>85.5</v>
       </c>
       <c r="H358" s="4">
-        <v>82.7</v>
+        <v>82.8</v>
       </c>
       <c r="I358" s="4">
         <v>95.6</v>
@@ -18872,7 +18876,7 @@
         <v>1950.8</v>
       </c>
     </row>
-    <row r="359" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="359" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A359" s="13" t="s">
         <v>376</v>
       </c>
@@ -18883,7 +18887,7 @@
         <v>5</v>
       </c>
       <c r="D359" s="4">
-        <v>89.5</v>
+        <v>89.4</v>
       </c>
       <c r="E359" s="4">
         <v>86.1</v>
@@ -18895,7 +18899,7 @@
         <v>88</v>
       </c>
       <c r="H359" s="4">
-        <v>86.2</v>
+        <v>86.3</v>
       </c>
       <c r="I359" s="4">
         <v>92.4</v>
@@ -18919,7 +18923,7 @@
         <v>1923</v>
       </c>
     </row>
-    <row r="360" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="360" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A360" s="13" t="s">
         <v>377</v>
       </c>
@@ -18966,7 +18970,7 @@
         <v>1884.1</v>
       </c>
     </row>
-    <row r="361" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="361" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A361" s="13" t="s">
         <v>378</v>
       </c>
@@ -19013,7 +19017,7 @@
         <v>1845.2</v>
       </c>
     </row>
-    <row r="362" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="362" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A362" s="13" t="s">
         <v>379</v>
       </c>
@@ -19060,7 +19064,7 @@
         <v>1828.5</v>
       </c>
     </row>
-    <row r="363" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="363" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A363" s="13" t="s">
         <v>380</v>
       </c>
@@ -19077,13 +19081,13 @@
         <v>92.9</v>
       </c>
       <c r="F363" s="4">
-        <v>89</v>
+        <v>89.1</v>
       </c>
       <c r="G363" s="4">
         <v>98.3</v>
       </c>
       <c r="H363" s="4">
-        <v>96.3</v>
+        <v>96.2</v>
       </c>
       <c r="I363" s="4">
         <v>90.6</v>
@@ -19107,7 +19111,7 @@
         <v>1811.8</v>
       </c>
     </row>
-    <row r="364" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="364" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A364" s="13" t="s">
         <v>381</v>
       </c>
@@ -19154,7 +19158,7 @@
         <v>1800.7</v>
       </c>
     </row>
-    <row r="365" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="365" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A365" s="13" t="s">
         <v>382</v>
       </c>
@@ -19201,7 +19205,7 @@
         <v>1784</v>
       </c>
     </row>
-    <row r="366" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="366" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A366" s="13" t="s">
         <v>383</v>
       </c>
@@ -19248,7 +19252,7 @@
         <v>1789.6</v>
       </c>
     </row>
-    <row r="367" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="367" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A367" s="13" t="s">
         <v>384</v>
       </c>
@@ -19295,7 +19299,7 @@
         <v>1806.3</v>
       </c>
     </row>
-    <row r="368" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="368" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A368" s="13" t="s">
         <v>385</v>
       </c>
@@ -19342,7 +19346,7 @@
         <v>1811.9</v>
       </c>
     </row>
-    <row r="369" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="369" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A369" s="13" t="s">
         <v>386</v>
       </c>
@@ -19359,13 +19363,13 @@
         <v>103.8</v>
       </c>
       <c r="F369" s="4">
-        <v>90.4</v>
+        <v>90.5</v>
       </c>
       <c r="G369" s="4">
         <v>107.2</v>
       </c>
       <c r="H369" s="4">
-        <v>107.4</v>
+        <v>107.3</v>
       </c>
       <c r="I369" s="4">
         <v>91.8</v>
@@ -19389,7 +19393,7 @@
         <v>1828.6</v>
       </c>
     </row>
-    <row r="370" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="370" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A370" s="13" t="s">
         <v>387</v>
       </c>
@@ -19400,7 +19404,7 @@
         <v>4</v>
       </c>
       <c r="D370" s="4">
-        <v>108.9</v>
+        <v>108.8</v>
       </c>
       <c r="E370" s="4">
         <v>104.9</v>
@@ -19436,7 +19440,7 @@
         <v>1811.9</v>
       </c>
     </row>
-    <row r="371" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="371" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A371" s="13" t="s">
         <v>388</v>
       </c>
@@ -19453,13 +19457,13 @@
         <v>104.5</v>
       </c>
       <c r="F371" s="4">
-        <v>91.1</v>
+        <v>91.2</v>
       </c>
       <c r="G371" s="4">
         <v>107.8</v>
       </c>
       <c r="H371" s="4">
-        <v>108.3</v>
+        <v>108.2</v>
       </c>
       <c r="I371" s="4">
         <v>92.5</v>
@@ -19483,7 +19487,7 @@
         <v>1811.9</v>
       </c>
     </row>
-    <row r="372" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="372" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A372" s="13" t="s">
         <v>389</v>
       </c>
@@ -19530,7 +19534,7 @@
         <v>1806.3</v>
       </c>
     </row>
-    <row r="373" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="373" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A373" s="13" t="s">
         <v>390</v>
       </c>
@@ -19577,7 +19581,7 @@
         <v>1845.2</v>
       </c>
     </row>
-    <row r="374" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="374" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A374" s="13" t="s">
         <v>391</v>
       </c>
@@ -19624,7 +19628,7 @@
         <v>1867.4</v>
       </c>
     </row>
-    <row r="375" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="375" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A375" s="13" t="s">
         <v>392</v>
       </c>
@@ -19647,7 +19651,7 @@
         <v>108.3</v>
       </c>
       <c r="H375" s="4">
-        <v>110.9</v>
+        <v>110.8</v>
       </c>
       <c r="I375" s="4">
         <v>93.8</v>
@@ -19671,7 +19675,7 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="376" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="376" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A376" s="13" t="s">
         <v>393</v>
       </c>
@@ -19694,7 +19698,7 @@
         <v>108.1</v>
       </c>
       <c r="H376" s="4">
-        <v>110.3</v>
+        <v>110.2</v>
       </c>
       <c r="I376" s="4">
         <v>94.7</v>
@@ -19718,7 +19722,7 @@
         <v>1878.6</v>
       </c>
     </row>
-    <row r="377" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="377" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A377" s="13" t="s">
         <v>394</v>
       </c>
@@ -19732,7 +19736,7 @@
         <v>108.5</v>
       </c>
       <c r="E377" s="4">
-        <v>108.5</v>
+        <v>108.4</v>
       </c>
       <c r="F377" s="4">
         <v>93.2</v>
@@ -19765,7 +19769,7 @@
         <v>1906.4</v>
       </c>
     </row>
-    <row r="378" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="378" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A378" s="13" t="s">
         <v>395</v>
       </c>
@@ -19788,7 +19792,7 @@
         <v>110</v>
       </c>
       <c r="H378" s="4">
-        <v>112.6</v>
+        <v>112.5</v>
       </c>
       <c r="I378" s="4">
         <v>94.8</v>
@@ -19812,7 +19816,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="379" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="379" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A379" s="13" t="s">
         <v>396</v>
       </c>
@@ -19835,7 +19839,7 @@
         <v>110.8</v>
       </c>
       <c r="H379" s="4">
-        <v>112.5</v>
+        <v>112.4</v>
       </c>
       <c r="I379" s="4">
         <v>95</v>
@@ -19859,7 +19863,7 @@
         <v>1906.4</v>
       </c>
     </row>
-    <row r="380" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="380" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A380" s="13" t="s">
         <v>397</v>
       </c>
@@ -19870,7 +19874,7 @@
         <v>2</v>
       </c>
       <c r="D380" s="4">
-        <v>110.6</v>
+        <v>110.7</v>
       </c>
       <c r="E380" s="4">
         <v>110.1</v>
@@ -19906,7 +19910,7 @@
         <v>1923.1</v>
       </c>
     </row>
-    <row r="381" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="381" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A381" s="13" t="s">
         <v>398</v>
       </c>
@@ -19917,7 +19921,7 @@
         <v>3</v>
       </c>
       <c r="D381" s="4">
-        <v>108.2</v>
+        <v>108.1</v>
       </c>
       <c r="E381" s="4">
         <v>102.3</v>
@@ -19953,7 +19957,7 @@
         <v>1900.9</v>
       </c>
     </row>
-    <row r="382" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="382" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A382" s="13" t="s">
         <v>399</v>
       </c>
@@ -20000,7 +20004,7 @@
         <v>1884.2</v>
       </c>
     </row>
-    <row r="383" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="383" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A383" s="13" t="s">
         <v>400</v>
       </c>
@@ -20011,7 +20015,7 @@
         <v>5</v>
       </c>
       <c r="D383" s="4">
-        <v>105.9</v>
+        <v>105.8</v>
       </c>
       <c r="E383" s="4">
         <v>103.5</v>
@@ -20047,7 +20051,7 @@
         <v>1856.4</v>
       </c>
     </row>
-    <row r="384" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="384" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A384" s="13" t="s">
         <v>401</v>
       </c>
@@ -20094,7 +20098,7 @@
         <v>1873.1</v>
       </c>
     </row>
-    <row r="385" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="385" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A385" s="13" t="s">
         <v>402</v>
       </c>
@@ -20141,7 +20145,7 @@
         <v>1873.1</v>
       </c>
     </row>
-    <row r="386" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="386" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A386" s="13" t="s">
         <v>403</v>
       </c>
@@ -20188,7 +20192,7 @@
         <v>1900.9</v>
       </c>
     </row>
-    <row r="387" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="387" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A387" s="13" t="s">
         <v>404</v>
       </c>
@@ -20211,7 +20215,7 @@
         <v>107.6</v>
       </c>
       <c r="H387" s="4">
-        <v>110.8</v>
+        <v>110.7</v>
       </c>
       <c r="I387" s="4">
         <v>96.9</v>
@@ -20235,7 +20239,7 @@
         <v>1928.7</v>
       </c>
     </row>
-    <row r="388" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="388" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A388" s="13" t="s">
         <v>405</v>
       </c>
@@ -20282,7 +20286,7 @@
         <v>1945.4</v>
       </c>
     </row>
-    <row r="389" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="389" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A389" s="13" t="s">
         <v>406</v>
       </c>
@@ -20305,7 +20309,7 @@
         <v>107.8</v>
       </c>
       <c r="H389" s="4">
-        <v>110.7</v>
+        <v>110.6</v>
       </c>
       <c r="I389" s="4">
         <v>97.1</v>
@@ -20329,7 +20333,7 @@
         <v>1951</v>
       </c>
     </row>
-    <row r="390" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="390" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A390" s="13" t="s">
         <v>407</v>
       </c>
@@ -20349,7 +20353,7 @@
         <v>96.8</v>
       </c>
       <c r="G390" s="4">
-        <v>108.5</v>
+        <v>108.4</v>
       </c>
       <c r="H390" s="4">
         <v>113</v>
@@ -20376,7 +20380,7 @@
         <v>1939.9</v>
       </c>
     </row>
-    <row r="391" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="391" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A391" s="13" t="s">
         <v>408</v>
       </c>
@@ -20387,7 +20391,7 @@
         <v>1</v>
       </c>
       <c r="D391" s="4">
-        <v>109.9</v>
+        <v>109.8</v>
       </c>
       <c r="E391" s="4">
         <v>111.4</v>
@@ -20423,7 +20427,7 @@
         <v>1912.1</v>
       </c>
     </row>
-    <row r="392" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="392" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A392" s="13" t="s">
         <v>409</v>
       </c>
@@ -20443,10 +20447,10 @@
         <v>97.4</v>
       </c>
       <c r="G392" s="4">
-        <v>110.8</v>
+        <v>110.9</v>
       </c>
       <c r="H392" s="4">
-        <v>114.2</v>
+        <v>114.1</v>
       </c>
       <c r="I392" s="4">
         <v>98.3</v>
@@ -20470,7 +20474,7 @@
         <v>1917.7</v>
       </c>
     </row>
-    <row r="393" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="393" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A393" s="13" t="s">
         <v>410</v>
       </c>
@@ -20481,7 +20485,7 @@
         <v>3</v>
       </c>
       <c r="D393" s="4">
-        <v>111.5</v>
+        <v>111.4</v>
       </c>
       <c r="E393" s="4">
         <v>113.7</v>
@@ -20517,7 +20521,7 @@
         <v>1939.9</v>
       </c>
     </row>
-    <row r="394" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="394" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A394" s="13" t="s">
         <v>411</v>
       </c>
@@ -20531,7 +20535,7 @@
         <v>110.7</v>
       </c>
       <c r="E394" s="4">
-        <v>112.2</v>
+        <v>112.1</v>
       </c>
       <c r="F394" s="4">
         <v>98.3</v>
@@ -20564,7 +20568,7 @@
         <v>1967.7</v>
       </c>
     </row>
-    <row r="395" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="395" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A395" s="13" t="s">
         <v>412</v>
       </c>
@@ -20587,7 +20591,7 @@
         <v>109.4</v>
       </c>
       <c r="H395" s="4">
-        <v>113.6</v>
+        <v>113.5</v>
       </c>
       <c r="I395" s="4">
         <v>98.7</v>
@@ -20611,7 +20615,7 @@
         <v>1973.3</v>
       </c>
     </row>
-    <row r="396" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="396" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A396" s="13" t="s">
         <v>413</v>
       </c>
@@ -20622,7 +20626,7 @@
         <v>6</v>
       </c>
       <c r="D396" s="4">
-        <v>108.3</v>
+        <v>108.2</v>
       </c>
       <c r="E396" s="4">
         <v>109.6</v>
@@ -20658,7 +20662,7 @@
         <v>1967.7</v>
       </c>
     </row>
-    <row r="397" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="397" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A397" s="13" t="s">
         <v>414</v>
       </c>
@@ -20669,7 +20673,7 @@
         <v>7</v>
       </c>
       <c r="D397" s="4">
-        <v>107.6</v>
+        <v>107.5</v>
       </c>
       <c r="E397" s="4">
         <v>109</v>
@@ -20705,7 +20709,7 @@
         <v>1939.9</v>
       </c>
     </row>
-    <row r="398" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="398" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A398" s="13" t="s">
         <v>415</v>
       </c>
@@ -20752,7 +20756,7 @@
         <v>1923.2</v>
       </c>
     </row>
-    <row r="399" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="399" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A399" s="13" t="s">
         <v>416</v>
       </c>
@@ -20775,7 +20779,7 @@
         <v>106.5</v>
       </c>
       <c r="H399" s="4">
-        <v>109</v>
+        <v>108.9</v>
       </c>
       <c r="I399" s="4">
         <v>97.6</v>
@@ -20799,7 +20803,7 @@
         <v>1917.6</v>
       </c>
     </row>
-    <row r="400" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="400" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A400" s="13" t="s">
         <v>417</v>
       </c>
@@ -20822,7 +20826,7 @@
         <v>106.4</v>
       </c>
       <c r="H400" s="4">
-        <v>108.9</v>
+        <v>108.8</v>
       </c>
       <c r="I400" s="4">
         <v>97.8</v>
@@ -20846,7 +20850,7 @@
         <v>1939.8</v>
       </c>
     </row>
-    <row r="401" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="401" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A401" s="13" t="s">
         <v>418</v>
       </c>
@@ -20869,7 +20873,7 @@
         <v>106.2</v>
       </c>
       <c r="H401" s="4">
-        <v>108.4</v>
+        <v>108.3</v>
       </c>
       <c r="I401" s="4">
         <v>97.4</v>
@@ -20893,7 +20897,7 @@
         <v>1956.5</v>
       </c>
     </row>
-    <row r="402" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="402" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A402" s="13" t="s">
         <v>419</v>
       </c>
@@ -20940,7 +20944,7 @@
         <v>1950.9</v>
       </c>
     </row>
-    <row r="403" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="403" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A403" s="13" t="s">
         <v>420</v>
       </c>
@@ -20954,7 +20958,7 @@
         <v>109.3</v>
       </c>
       <c r="E403" s="4">
-        <v>108.4</v>
+        <v>108.3</v>
       </c>
       <c r="F403" s="4">
         <v>96.4</v>
@@ -20963,7 +20967,7 @@
         <v>110.1</v>
       </c>
       <c r="H403" s="4">
-        <v>109.9</v>
+        <v>109.8</v>
       </c>
       <c r="I403" s="4">
         <v>96.7</v>
@@ -20987,7 +20991,7 @@
         <v>1934.2</v>
       </c>
     </row>
-    <row r="404" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="404" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A404" s="13" t="s">
         <v>421</v>
       </c>
@@ -21004,7 +21008,7 @@
         <v>109.4</v>
       </c>
       <c r="F404" s="4">
-        <v>96.1</v>
+        <v>96</v>
       </c>
       <c r="G404" s="4">
         <v>113.6</v>
@@ -21034,7 +21038,7 @@
         <v>1928.6</v>
       </c>
     </row>
-    <row r="405" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="405" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A405" s="13" t="s">
         <v>422</v>
       </c>
@@ -21057,7 +21061,7 @@
         <v>115.5</v>
       </c>
       <c r="H405" s="4">
-        <v>112.7</v>
+        <v>112.6</v>
       </c>
       <c r="I405" s="4">
         <v>96.4</v>
@@ -21081,7 +21085,7 @@
         <v>1923</v>
       </c>
     </row>
-    <row r="406" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="406" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A406" s="13" t="s">
         <v>423</v>
       </c>
@@ -21104,7 +21108,7 @@
         <v>117.1</v>
       </c>
       <c r="H406" s="4">
-        <v>113.3</v>
+        <v>113.2</v>
       </c>
       <c r="I406" s="4">
         <v>96.2</v>
@@ -21128,7 +21132,7 @@
         <v>1917.4</v>
       </c>
     </row>
-    <row r="407" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="407" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A407" s="13" t="s">
         <v>424</v>
       </c>
@@ -21175,7 +21179,7 @@
         <v>1923</v>
       </c>
     </row>
-    <row r="408" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="408" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A408" s="13" t="s">
         <v>425</v>
       </c>
@@ -21192,13 +21196,13 @@
         <v>112.8</v>
       </c>
       <c r="F408" s="4">
-        <v>97.4</v>
+        <v>97.3</v>
       </c>
       <c r="G408" s="4">
         <v>117.8</v>
       </c>
       <c r="H408" s="4">
-        <v>114.4</v>
+        <v>114.3</v>
       </c>
       <c r="I408" s="4">
         <v>97.4</v>
@@ -21222,7 +21226,7 @@
         <v>1928.6</v>
       </c>
     </row>
-    <row r="409" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="409" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A409" s="13" t="s">
         <v>426</v>
       </c>
@@ -21245,7 +21249,7 @@
         <v>118.8</v>
       </c>
       <c r="H409" s="4">
-        <v>115.5</v>
+        <v>115.4</v>
       </c>
       <c r="I409" s="4">
         <v>98.2</v>
@@ -21269,7 +21273,7 @@
         <v>1934.2</v>
       </c>
     </row>
-    <row r="410" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="410" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A410" s="13" t="s">
         <v>427</v>
       </c>
@@ -21316,7 +21320,7 @@
         <v>1945.3</v>
       </c>
     </row>
-    <row r="411" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="411" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A411" s="13" t="s">
         <v>428</v>
       </c>
@@ -21330,7 +21334,7 @@
         <v>118.7</v>
       </c>
       <c r="E411" s="4">
-        <v>115.8</v>
+        <v>115.7</v>
       </c>
       <c r="F411" s="4">
         <v>99.1</v>
@@ -21363,7 +21367,7 @@
         <v>1973.1</v>
       </c>
     </row>
-    <row r="412" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="412" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A412" s="13" t="s">
         <v>429</v>
       </c>
@@ -21410,7 +21414,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="413" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="413" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A413" s="13" t="s">
         <v>430</v>
       </c>
@@ -21457,7 +21461,7 @@
         <v>2039.8</v>
       </c>
     </row>
-    <row r="414" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="414" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A414" s="13" t="s">
         <v>431</v>
       </c>
@@ -21504,7 +21508,7 @@
         <v>2067.6</v>
       </c>
     </row>
-    <row r="415" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="415" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A415" s="13" t="s">
         <v>432</v>
       </c>
@@ -21551,7 +21555,7 @@
         <v>2117.6</v>
       </c>
     </row>
-    <row r="416" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="416" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A416" s="13" t="s">
         <v>433</v>
       </c>
@@ -21571,7 +21575,7 @@
         <v>102.7</v>
       </c>
       <c r="G416" s="4">
-        <v>118.5</v>
+        <v>118.6</v>
       </c>
       <c r="H416" s="4">
         <v>120.6</v>
@@ -21598,7 +21602,7 @@
         <v>2134.3000000000002</v>
       </c>
     </row>
-    <row r="417" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="417" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A417" s="13" t="s">
         <v>434</v>
       </c>
@@ -21612,13 +21616,13 @@
         <v>115.2</v>
       </c>
       <c r="E417" s="4">
-        <v>120.9</v>
+        <v>120.8</v>
       </c>
       <c r="F417" s="4">
         <v>103.3</v>
       </c>
       <c r="G417" s="4">
-        <v>118.1</v>
+        <v>118.2</v>
       </c>
       <c r="H417" s="4">
         <v>122.8</v>
@@ -21645,7 +21649,7 @@
         <v>2145.4</v>
       </c>
     </row>
-    <row r="418" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="418" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A418" s="13" t="s">
         <v>435</v>
       </c>
@@ -21659,7 +21663,7 @@
         <v>112.7</v>
       </c>
       <c r="E418" s="4">
-        <v>116.7</v>
+        <v>116.6</v>
       </c>
       <c r="F418" s="4">
         <v>103.4</v>
@@ -21692,7 +21696,7 @@
         <v>2123.1999999999998</v>
       </c>
     </row>
-    <row r="419" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="419" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A419" s="13" t="s">
         <v>436</v>
       </c>
@@ -21715,7 +21719,7 @@
         <v>114.3</v>
       </c>
       <c r="H419" s="4">
-        <v>118.8</v>
+        <v>118.7</v>
       </c>
       <c r="I419" s="4">
         <v>106.7</v>
@@ -21739,7 +21743,7 @@
         <v>2139.9</v>
       </c>
     </row>
-    <row r="420" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="420" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A420" s="13" t="s">
         <v>437</v>
       </c>
@@ -21786,7 +21790,7 @@
         <v>2139.9</v>
       </c>
     </row>
-    <row r="421" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="421" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A421" s="13" t="s">
         <v>438</v>
       </c>
@@ -21800,7 +21804,7 @@
         <v>113.1</v>
       </c>
       <c r="E421" s="4">
-        <v>116.6</v>
+        <v>116.5</v>
       </c>
       <c r="F421" s="4">
         <v>105.7</v>
@@ -21833,7 +21837,7 @@
         <v>2173.1999999999998</v>
       </c>
     </row>
-    <row r="422" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="422" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A422" s="13" t="s">
         <v>439</v>
       </c>
@@ -21847,7 +21851,7 @@
         <v>112.8</v>
       </c>
       <c r="E422" s="4">
-        <v>115.8</v>
+        <v>115.7</v>
       </c>
       <c r="F422" s="4">
         <v>105.1</v>
@@ -21880,7 +21884,7 @@
         <v>2167.6</v>
       </c>
     </row>
-    <row r="423" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="423" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A423" s="13" t="s">
         <v>440</v>
       </c>
@@ -21927,7 +21931,7 @@
         <v>2162</v>
       </c>
     </row>
-    <row r="424" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="424" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A424" s="13" t="s">
         <v>441</v>
       </c>
@@ -21974,7 +21978,7 @@
         <v>2145.3000000000002</v>
       </c>
     </row>
-    <row r="425" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="425" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A425" s="13" t="s">
         <v>442</v>
       </c>
@@ -21985,7 +21989,7 @@
         <v>11</v>
       </c>
       <c r="D425" s="4">
-        <v>112.6</v>
+        <v>112.7</v>
       </c>
       <c r="E425" s="4">
         <v>116.4</v>
@@ -21997,7 +22001,7 @@
         <v>115.5</v>
       </c>
       <c r="H425" s="4">
-        <v>118</v>
+        <v>117.9</v>
       </c>
       <c r="I425" s="4">
         <v>106.5</v>
@@ -22021,7 +22025,7 @@
         <v>2139.6999999999998</v>
       </c>
     </row>
-    <row r="426" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="426" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A426" s="13" t="s">
         <v>443</v>
       </c>
@@ -22068,7 +22072,7 @@
         <v>2128.6</v>
       </c>
     </row>
-    <row r="427" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="427" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A427" s="13" t="s">
         <v>444</v>
       </c>
@@ -22091,7 +22095,7 @@
         <v>114.9</v>
       </c>
       <c r="H427" s="4">
-        <v>120.3</v>
+        <v>120.2</v>
       </c>
       <c r="I427" s="4">
         <v>106.1</v>
@@ -22115,7 +22119,7 @@
         <v>2145.3000000000002</v>
       </c>
     </row>
-    <row r="428" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="428" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A428" s="13" t="s">
         <v>445</v>
       </c>
@@ -22129,7 +22133,7 @@
         <v>112.3</v>
       </c>
       <c r="E428" s="4">
-        <v>117.1</v>
+        <v>117</v>
       </c>
       <c r="F428" s="4">
         <v>105.2</v>
@@ -22162,7 +22166,7 @@
         <v>2134.1999999999998</v>
       </c>
     </row>
-    <row r="429" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="429" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A429" s="13" t="s">
         <v>446</v>
       </c>
@@ -22176,16 +22180,16 @@
         <v>112.5</v>
       </c>
       <c r="E429" s="4">
-        <v>116.4</v>
+        <v>116.3</v>
       </c>
       <c r="F429" s="4">
-        <v>104.8</v>
+        <v>104.7</v>
       </c>
       <c r="G429" s="4">
         <v>115.3</v>
       </c>
       <c r="H429" s="4">
-        <v>116.9</v>
+        <v>116.8</v>
       </c>
       <c r="I429" s="4">
         <v>105.6</v>
@@ -22209,7 +22213,7 @@
         <v>2139.8000000000002</v>
       </c>
     </row>
-    <row r="430" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="430" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A430" s="13" t="s">
         <v>447</v>
       </c>
@@ -22223,7 +22227,7 @@
         <v>113.7</v>
       </c>
       <c r="E430" s="4">
-        <v>117.6</v>
+        <v>117.5</v>
       </c>
       <c r="F430" s="4">
         <v>105.2</v>
@@ -22256,7 +22260,7 @@
         <v>2156.5</v>
       </c>
     </row>
-    <row r="431" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="431" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A431" s="13" t="s">
         <v>448</v>
       </c>
@@ -22279,7 +22283,7 @@
         <v>117.7</v>
       </c>
       <c r="H431" s="4">
-        <v>118.4</v>
+        <v>118.3</v>
       </c>
       <c r="I431" s="4">
         <v>104.2</v>
@@ -22303,7 +22307,7 @@
         <v>2173.1999999999998</v>
       </c>
     </row>
-    <row r="432" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="432" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A432" s="13" t="s">
         <v>449</v>
       </c>
@@ -22326,7 +22330,7 @@
         <v>117.3</v>
       </c>
       <c r="H432" s="4">
-        <v>119.2</v>
+        <v>119.1</v>
       </c>
       <c r="I432" s="4">
         <v>103.7</v>
@@ -22350,7 +22354,7 @@
         <v>2184.3000000000002</v>
       </c>
     </row>
-    <row r="433" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="433" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A433" s="13" t="s">
         <v>450</v>
       </c>
@@ -22397,7 +22401,7 @@
         <v>2178.6999999999998</v>
       </c>
     </row>
-    <row r="434" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="434" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A434" s="13" t="s">
         <v>451</v>
       </c>
@@ -22420,7 +22424,7 @@
         <v>114.9</v>
       </c>
       <c r="H434" s="4">
-        <v>118.1</v>
+        <v>118</v>
       </c>
       <c r="I434" s="4">
         <v>103.7</v>
@@ -22444,7 +22448,7 @@
         <v>2162</v>
       </c>
     </row>
-    <row r="435" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="435" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A435" s="13" t="s">
         <v>452</v>
       </c>
@@ -22461,7 +22465,7 @@
         <v>117.4</v>
       </c>
       <c r="F435" s="4">
-        <v>105.2</v>
+        <v>105.1</v>
       </c>
       <c r="G435" s="4">
         <v>113.5</v>
@@ -22491,7 +22495,7 @@
         <v>2167.6</v>
       </c>
     </row>
-    <row r="436" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="436" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A436" s="13" t="s">
         <v>453</v>
       </c>
@@ -22538,7 +22542,7 @@
         <v>2150.9</v>
       </c>
     </row>
-    <row r="437" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="437" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A437" s="13" t="s">
         <v>454</v>
       </c>
@@ -22585,7 +22589,7 @@
         <v>2167.6</v>
       </c>
     </row>
-    <row r="438" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="438" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A438" s="13" t="s">
         <v>455</v>
       </c>
@@ -22599,7 +22603,7 @@
         <v>108.6</v>
       </c>
       <c r="E438" s="4">
-        <v>115.5</v>
+        <v>115.4</v>
       </c>
       <c r="F438" s="4">
         <v>105.2</v>
@@ -22632,7 +22636,7 @@
         <v>2173.1999999999998</v>
       </c>
     </row>
-    <row r="439" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="439" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A439" s="13" t="s">
         <v>456</v>
       </c>
@@ -22646,7 +22650,7 @@
         <v>108.5</v>
       </c>
       <c r="E439" s="4">
-        <v>116.9</v>
+        <v>116.8</v>
       </c>
       <c r="F439" s="4">
         <v>104.8</v>
@@ -22679,7 +22683,7 @@
         <v>2184.3000000000002</v>
       </c>
     </row>
-    <row r="440" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="440" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A440" s="13" t="s">
         <v>457</v>
       </c>
@@ -22726,7 +22730,7 @@
         <v>2184.3000000000002</v>
       </c>
     </row>
-    <row r="441" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="441" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A441" s="13" t="s">
         <v>458</v>
       </c>
@@ -22740,10 +22744,10 @@
         <v>107.1</v>
       </c>
       <c r="E441" s="4">
-        <v>116.1</v>
+        <v>116</v>
       </c>
       <c r="F441" s="4">
-        <v>104.6</v>
+        <v>104.5</v>
       </c>
       <c r="G441" s="4">
         <v>109.9</v>
@@ -22773,7 +22777,7 @@
         <v>2189.9</v>
       </c>
     </row>
-    <row r="442" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="442" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A442" s="13" t="s">
         <v>459</v>
       </c>
@@ -22820,7 +22824,7 @@
         <v>2206.6</v>
       </c>
     </row>
-    <row r="443" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="443" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A443" s="13" t="s">
         <v>460</v>
       </c>
@@ -22867,7 +22871,7 @@
         <v>2189.9</v>
       </c>
     </row>
-    <row r="444" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="444" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A444" s="13" t="s">
         <v>461</v>
       </c>
@@ -22878,7 +22882,7 @@
         <v>6</v>
       </c>
       <c r="D444" s="4">
-        <v>107.3</v>
+        <v>107.4</v>
       </c>
       <c r="E444" s="4">
         <v>115.8</v>
@@ -22914,7 +22918,7 @@
         <v>2195.5</v>
       </c>
     </row>
-    <row r="445" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="445" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A445" s="13" t="s">
         <v>462</v>
       </c>
@@ -22931,7 +22935,7 @@
         <v>116.3</v>
       </c>
       <c r="F445" s="4">
-        <v>104.6</v>
+        <v>104.5</v>
       </c>
       <c r="G445" s="4">
         <v>110.5</v>
@@ -22961,7 +22965,7 @@
         <v>2212.1999999999998</v>
       </c>
     </row>
-    <row r="446" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="446" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A446" s="13" t="s">
         <v>463</v>
       </c>
@@ -23008,7 +23012,7 @@
         <v>2240</v>
       </c>
     </row>
-    <row r="447" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="447" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A447" s="13" t="s">
         <v>464</v>
       </c>
@@ -23055,7 +23059,7 @@
         <v>2262.1999999999998</v>
       </c>
     </row>
-    <row r="448" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="448" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A448" s="13" t="s">
         <v>465</v>
       </c>
@@ -23102,7 +23106,7 @@
         <v>2301.1</v>
       </c>
     </row>
-    <row r="449" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="449" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A449" s="13" t="s">
         <v>466</v>
       </c>
@@ -23149,7 +23153,7 @@
         <v>2328.9</v>
       </c>
     </row>
-    <row r="450" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="450" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A450" s="13" t="s">
         <v>467</v>
       </c>
@@ -23196,7 +23200,7 @@
         <v>2356.6999999999998</v>
       </c>
     </row>
-    <row r="451" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="451" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A451" s="13" t="s">
         <v>468</v>
       </c>
@@ -23210,7 +23214,7 @@
         <v>112.6</v>
       </c>
       <c r="E451" s="4">
-        <v>119.1</v>
+        <v>119</v>
       </c>
       <c r="F451" s="4">
         <v>106.4</v>
@@ -23219,7 +23223,7 @@
         <v>115.8</v>
       </c>
       <c r="H451" s="4">
-        <v>120.7</v>
+        <v>120.6</v>
       </c>
       <c r="I451" s="4">
         <v>105.3</v>
@@ -23243,7 +23247,7 @@
         <v>2384.5</v>
       </c>
     </row>
-    <row r="452" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="452" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A452" s="13" t="s">
         <v>469</v>
       </c>
@@ -23290,7 +23294,7 @@
         <v>2423.4</v>
       </c>
     </row>
-    <row r="453" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="453" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A453" s="13" t="s">
         <v>470</v>
       </c>
@@ -23337,7 +23341,7 @@
         <v>2462.3000000000002</v>
       </c>
     </row>
-    <row r="454" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="454" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A454" s="13" t="s">
         <v>471</v>
       </c>
@@ -23360,7 +23364,7 @@
         <v>115.7</v>
       </c>
       <c r="H454" s="4">
-        <v>122.7</v>
+        <v>122.6</v>
       </c>
       <c r="I454" s="4">
         <v>107.1</v>
@@ -23384,7 +23388,7 @@
         <v>2479</v>
       </c>
     </row>
-    <row r="455" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="455" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A455" s="13" t="s">
         <v>472</v>
       </c>
@@ -23407,7 +23411,7 @@
         <v>115.4</v>
       </c>
       <c r="H455" s="4">
-        <v>122.6</v>
+        <v>122.5</v>
       </c>
       <c r="I455" s="4">
         <v>107.2</v>
@@ -23431,7 +23435,7 @@
         <v>2495.6999999999998</v>
       </c>
     </row>
-    <row r="456" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="456" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A456" s="13" t="s">
         <v>473</v>
       </c>
@@ -23478,7 +23482,7 @@
         <v>2501.3000000000002</v>
       </c>
     </row>
-    <row r="457" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="457" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A457" s="13" t="s">
         <v>474</v>
       </c>
@@ -23525,7 +23529,7 @@
         <v>2506.9</v>
       </c>
     </row>
-    <row r="458" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="458" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A458" s="13" t="s">
         <v>475</v>
       </c>
@@ -23542,13 +23546,13 @@
         <v>122.5</v>
       </c>
       <c r="F458" s="4">
-        <v>108.6</v>
+        <v>108.5</v>
       </c>
       <c r="G458" s="4">
         <v>117.3</v>
       </c>
       <c r="H458" s="4">
-        <v>124.1</v>
+        <v>124</v>
       </c>
       <c r="I458" s="4">
         <v>107.6</v>
@@ -23572,7 +23576,7 @@
         <v>2512.5</v>
       </c>
     </row>
-    <row r="459" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="459" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A459" s="13" t="s">
         <v>476</v>
       </c>
@@ -23583,10 +23587,10 @@
         <v>9</v>
       </c>
       <c r="D459" s="4">
-        <v>113.7</v>
+        <v>113.8</v>
       </c>
       <c r="E459" s="4">
-        <v>121.5</v>
+        <v>121.4</v>
       </c>
       <c r="F459" s="4">
         <v>109</v>
@@ -23619,7 +23623,7 @@
         <v>2540.3000000000002</v>
       </c>
     </row>
-    <row r="460" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="460" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A460" s="13" t="s">
         <v>477</v>
       </c>
@@ -23633,7 +23637,7 @@
         <v>113.5</v>
       </c>
       <c r="E460" s="4">
-        <v>121.7</v>
+        <v>121.6</v>
       </c>
       <c r="F460" s="4">
         <v>110</v>
@@ -23666,7 +23670,7 @@
         <v>2584.6999999999998</v>
       </c>
     </row>
-    <row r="461" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="461" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A461" s="13" t="s">
         <v>478</v>
       </c>
@@ -23680,7 +23684,7 @@
         <v>114.9</v>
       </c>
       <c r="E461" s="4">
-        <v>123.2</v>
+        <v>123.1</v>
       </c>
       <c r="F461" s="4">
         <v>110.2</v>
@@ -23713,7 +23717,7 @@
         <v>2634.7</v>
       </c>
     </row>
-    <row r="462" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="462" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A462" s="13" t="s">
         <v>479</v>
       </c>
@@ -23760,7 +23764,7 @@
         <v>2673.6</v>
       </c>
     </row>
-    <row r="463" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="463" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A463" s="13" t="s">
         <v>480</v>
       </c>
@@ -23807,7 +23811,7 @@
         <v>2673.6</v>
       </c>
     </row>
-    <row r="464" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="464" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A464" s="13" t="s">
         <v>481</v>
       </c>
@@ -23830,7 +23834,7 @@
         <v>116.7</v>
       </c>
       <c r="H464" s="4">
-        <v>124.1</v>
+        <v>124</v>
       </c>
       <c r="I464" s="4">
         <v>109.4</v>
@@ -23854,7 +23858,7 @@
         <v>2695.8</v>
       </c>
     </row>
-    <row r="465" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="465" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A465" s="13" t="s">
         <v>482</v>
       </c>
@@ -23901,7 +23905,7 @@
         <v>2706.9</v>
       </c>
     </row>
-    <row r="466" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="466" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A466" s="13" t="s">
         <v>483</v>
       </c>
@@ -23915,7 +23919,7 @@
         <v>113.5</v>
       </c>
       <c r="E466" s="4">
-        <v>123.3</v>
+        <v>123.2</v>
       </c>
       <c r="F466" s="4">
         <v>110.3</v>
@@ -23948,7 +23952,7 @@
         <v>2712.5</v>
       </c>
     </row>
-    <row r="467" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="467" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A467" s="13" t="s">
         <v>484</v>
       </c>
@@ -23995,7 +23999,7 @@
         <v>2718.1</v>
       </c>
     </row>
-    <row r="468" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="468" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A468" s="13" t="s">
         <v>485</v>
       </c>
@@ -24042,7 +24046,7 @@
         <v>2723.7</v>
       </c>
     </row>
-    <row r="469" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="469" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A469" s="13" t="s">
         <v>486</v>
       </c>
@@ -24065,7 +24069,7 @@
         <v>114.9</v>
       </c>
       <c r="H469" s="4">
-        <v>123.8</v>
+        <v>123.7</v>
       </c>
       <c r="I469" s="4">
         <v>108.8</v>
@@ -24089,7 +24093,7 @@
         <v>2707</v>
       </c>
     </row>
-    <row r="470" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="470" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A470" s="13" t="s">
         <v>487</v>
       </c>
@@ -24106,13 +24110,13 @@
         <v>122.3</v>
       </c>
       <c r="F470" s="4">
-        <v>110.6</v>
+        <v>110.5</v>
       </c>
       <c r="G470" s="4">
         <v>115.3</v>
       </c>
       <c r="H470" s="4">
-        <v>124.1</v>
+        <v>124</v>
       </c>
       <c r="I470" s="4">
         <v>109.2</v>
@@ -24136,7 +24140,7 @@
         <v>2695.9</v>
       </c>
     </row>
-    <row r="471" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="471" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A471" s="13" t="s">
         <v>488</v>
       </c>
@@ -24183,7 +24187,7 @@
         <v>2701.5</v>
       </c>
     </row>
-    <row r="472" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="472" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A472" s="13" t="s">
         <v>489</v>
       </c>
@@ -24230,7 +24234,7 @@
         <v>2707.1</v>
       </c>
     </row>
-    <row r="473" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="473" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A473" s="13" t="s">
         <v>490</v>
       </c>
@@ -24277,7 +24281,7 @@
         <v>2707.1</v>
       </c>
     </row>
-    <row r="474" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="474" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A474" s="13" t="s">
         <v>491</v>
       </c>
@@ -24291,7 +24295,7 @@
         <v>109.1</v>
       </c>
       <c r="E474" s="4">
-        <v>119.4</v>
+        <v>119.3</v>
       </c>
       <c r="F474" s="4">
         <v>109.3</v>
@@ -24324,7 +24328,7 @@
         <v>2707.1</v>
       </c>
     </row>
-    <row r="475" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="475" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A475" s="13" t="s">
         <v>492</v>
       </c>
@@ -24347,7 +24351,7 @@
         <v>111.8</v>
       </c>
       <c r="H475" s="4">
-        <v>120</v>
+        <v>119.9</v>
       </c>
       <c r="I475" s="4">
         <v>109.4</v>
@@ -24371,7 +24375,7 @@
         <v>2718.2</v>
       </c>
     </row>
-    <row r="476" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="476" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A476" s="13" t="s">
         <v>493</v>
       </c>
@@ -24394,7 +24398,7 @@
         <v>112.7</v>
       </c>
       <c r="H476" s="4">
-        <v>122.2</v>
+        <v>122.1</v>
       </c>
       <c r="I476" s="4">
         <v>109.7</v>
@@ -24418,7 +24422,7 @@
         <v>2734.9</v>
       </c>
     </row>
-    <row r="477" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="477" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A477" s="13" t="s">
         <v>494</v>
       </c>
@@ -24441,7 +24445,7 @@
         <v>111.8</v>
       </c>
       <c r="H477" s="4">
-        <v>122.1</v>
+        <v>122</v>
       </c>
       <c r="I477" s="4">
         <v>109.2</v>
@@ -24465,7 +24469,7 @@
         <v>2751.6</v>
       </c>
     </row>
-    <row r="478" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="478" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A478" s="13" t="s">
         <v>495</v>
       </c>
@@ -24488,7 +24492,7 @@
         <v>111.2</v>
       </c>
       <c r="H478" s="4">
-        <v>121.5</v>
+        <v>121.4</v>
       </c>
       <c r="I478" s="4">
         <v>109.5</v>
@@ -24512,7 +24516,7 @@
         <v>2757.2</v>
       </c>
     </row>
-    <row r="479" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="479" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A479" s="13" t="s">
         <v>496</v>
       </c>
@@ -24559,7 +24563,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="480" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="480" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A480" s="13" t="s">
         <v>497</v>
       </c>
@@ -24606,7 +24610,7 @@
         <v>2801.7</v>
       </c>
     </row>
-    <row r="481" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="481" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A481" s="13" t="s">
         <v>498</v>
       </c>
@@ -24653,7 +24657,7 @@
         <v>2807.3</v>
       </c>
     </row>
-    <row r="482" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="482" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A482" s="13" t="s">
         <v>499</v>
       </c>
@@ -24700,7 +24704,7 @@
         <v>2790.6</v>
       </c>
     </row>
-    <row r="483" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="483" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A483" s="13" t="s">
         <v>500</v>
       </c>
@@ -24723,7 +24727,7 @@
         <v>107.3</v>
       </c>
       <c r="H483" s="4">
-        <v>120.4</v>
+        <v>120.3</v>
       </c>
       <c r="I483" s="4">
         <v>109.7</v>
@@ -24747,7 +24751,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="484" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="484" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A484" s="13" t="s">
         <v>501</v>
       </c>
@@ -24794,7 +24798,7 @@
         <v>2757.2</v>
       </c>
     </row>
-    <row r="485" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="485" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A485" s="13" t="s">
         <v>502</v>
       </c>
@@ -24841,7 +24845,7 @@
         <v>2723.9</v>
       </c>
     </row>
-    <row r="486" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="486" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A486" s="13" t="s">
         <v>503</v>
       </c>
@@ -24888,7 +24892,7 @@
         <v>2707.2</v>
       </c>
     </row>
-    <row r="487" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="487" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A487" s="13" t="s">
         <v>504</v>
       </c>
@@ -24902,7 +24906,7 @@
         <v>102.4</v>
       </c>
       <c r="E487" s="4">
-        <v>110.4</v>
+        <v>110.5</v>
       </c>
       <c r="F487" s="4">
         <v>107.6</v>
@@ -24935,7 +24939,7 @@
         <v>2712.8</v>
       </c>
     </row>
-    <row r="488" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="488" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A488" s="13" t="s">
         <v>505</v>
       </c>
@@ -24982,7 +24986,7 @@
         <v>2696.1</v>
       </c>
     </row>
-    <row r="489" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="489" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A489" s="13" t="s">
         <v>506</v>
       </c>
@@ -25029,7 +25033,7 @@
         <v>2657.2</v>
       </c>
     </row>
-    <row r="490" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="490" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A490" s="13" t="s">
         <v>507</v>
       </c>
@@ -25076,7 +25080,7 @@
         <v>2618.3000000000002</v>
       </c>
     </row>
-    <row r="491" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="491" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A491" s="13" t="s">
         <v>508</v>
       </c>
@@ -25099,7 +25103,7 @@
         <v>86.6</v>
       </c>
       <c r="H491" s="4">
-        <v>87.2</v>
+        <v>87.3</v>
       </c>
       <c r="I491" s="4">
         <v>97.2</v>
@@ -25123,7 +25127,7 @@
         <v>2573.9</v>
       </c>
     </row>
-    <row r="492" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="492" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A492" s="13" t="s">
         <v>509</v>
       </c>
@@ -25170,7 +25174,7 @@
         <v>2546.1</v>
       </c>
     </row>
-    <row r="493" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="493" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A493" s="13" t="s">
         <v>510</v>
       </c>
@@ -25217,7 +25221,7 @@
         <v>2540.5</v>
       </c>
     </row>
-    <row r="494" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="494" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A494" s="13" t="s">
         <v>511</v>
       </c>
@@ -25264,7 +25268,7 @@
         <v>2546.1</v>
       </c>
     </row>
-    <row r="495" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="495" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A495" s="13" t="s">
         <v>512</v>
       </c>
@@ -25311,7 +25315,7 @@
         <v>2540.5</v>
       </c>
     </row>
-    <row r="496" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="496" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A496" s="13" t="s">
         <v>513</v>
       </c>
@@ -25358,7 +25362,7 @@
         <v>2523.8000000000002</v>
       </c>
     </row>
-    <row r="497" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="497" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A497" s="13" t="s">
         <v>514</v>
       </c>
@@ -25405,7 +25409,7 @@
         <v>2518.1999999999998</v>
       </c>
     </row>
-    <row r="498" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="498" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A498" s="13" t="s">
         <v>515</v>
       </c>
@@ -25452,7 +25456,7 @@
         <v>2501.5</v>
       </c>
     </row>
-    <row r="499" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="499" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A499" s="13" t="s">
         <v>516</v>
       </c>
@@ -25499,7 +25503,7 @@
         <v>2501.5</v>
       </c>
     </row>
-    <row r="500" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="500" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A500" s="13" t="s">
         <v>517</v>
       </c>
@@ -25546,7 +25550,7 @@
         <v>2523.6999999999998</v>
       </c>
     </row>
-    <row r="501" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="501" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A501" s="13" t="s">
         <v>518</v>
       </c>
@@ -25569,7 +25573,7 @@
         <v>115.4</v>
       </c>
       <c r="H501" s="4">
-        <v>109</v>
+        <v>108.9</v>
       </c>
       <c r="I501" s="4">
         <v>99.8</v>
@@ -25593,7 +25597,7 @@
         <v>2573.6999999999998</v>
       </c>
     </row>
-    <row r="502" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="502" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A502" s="13" t="s">
         <v>519</v>
       </c>
@@ -25640,7 +25644,7 @@
         <v>2612.6</v>
       </c>
     </row>
-    <row r="503" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="503" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A503" s="13" t="s">
         <v>520</v>
       </c>
@@ -25687,7 +25691,7 @@
         <v>2651.5</v>
       </c>
     </row>
-    <row r="504" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="504" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A504" s="13" t="s">
         <v>521</v>
       </c>
@@ -25734,7 +25738,7 @@
         <v>2657.1</v>
       </c>
     </row>
-    <row r="505" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="505" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A505" s="13" t="s">
         <v>522</v>
       </c>
@@ -25748,7 +25752,7 @@
         <v>116.9</v>
       </c>
       <c r="E505" s="4">
-        <v>109.7</v>
+        <v>109.6</v>
       </c>
       <c r="F505" s="4">
         <v>100.7</v>
@@ -25760,7 +25764,7 @@
         <v>110</v>
       </c>
       <c r="I505" s="4">
-        <v>100.8</v>
+        <v>100.7</v>
       </c>
       <c r="J505" s="4">
         <v>72.7</v>
@@ -25781,7 +25785,7 @@
         <v>2668.2</v>
       </c>
     </row>
-    <row r="506" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="506" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A506" s="13" t="s">
         <v>523</v>
       </c>
@@ -25828,7 +25832,7 @@
         <v>2673.8</v>
       </c>
     </row>
-    <row r="507" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="507" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A507" s="13" t="s">
         <v>524</v>
       </c>
@@ -25875,7 +25879,7 @@
         <v>2657.1</v>
       </c>
     </row>
-    <row r="508" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="508" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A508" s="13" t="s">
         <v>525</v>
       </c>
@@ -25922,7 +25926,7 @@
         <v>2640.4</v>
       </c>
     </row>
-    <row r="509" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="509" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A509" s="13" t="s">
         <v>526</v>
       </c>
@@ -25933,7 +25937,7 @@
         <v>11</v>
       </c>
       <c r="D509" s="4">
-        <v>115.9</v>
+        <v>115.8</v>
       </c>
       <c r="E509" s="4">
         <v>111.5</v>
@@ -25969,7 +25973,7 @@
         <v>2634.8</v>
       </c>
     </row>
-    <row r="510" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="510" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A510" s="13" t="s">
         <v>527</v>
       </c>
@@ -26016,7 +26020,7 @@
         <v>2657</v>
       </c>
     </row>
-    <row r="511" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="511" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A511" s="13" t="s">
         <v>528</v>
       </c>
@@ -26030,10 +26034,10 @@
         <v>114.8</v>
       </c>
       <c r="E511" s="4">
-        <v>111.1</v>
+        <v>111</v>
       </c>
       <c r="F511" s="4">
-        <v>99.6</v>
+        <v>99.7</v>
       </c>
       <c r="G511" s="4">
         <v>113.9</v>
@@ -26063,7 +26067,7 @@
         <v>2673.7</v>
       </c>
     </row>
-    <row r="512" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="512" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A512" s="13" t="s">
         <v>529</v>
       </c>
@@ -26086,7 +26090,7 @@
         <v>112.9</v>
       </c>
       <c r="H512" s="4">
-        <v>110.9</v>
+        <v>110.8</v>
       </c>
       <c r="I512" s="4">
         <v>99.8</v>
@@ -26110,7 +26114,7 @@
         <v>2701.5</v>
       </c>
     </row>
-    <row r="513" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="513" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A513" s="13" t="s">
         <v>530</v>
       </c>
@@ -26121,7 +26125,7 @@
         <v>3</v>
       </c>
       <c r="D513" s="4">
-        <v>114.1</v>
+        <v>114</v>
       </c>
       <c r="E513" s="4">
         <v>112</v>
@@ -26133,7 +26137,7 @@
         <v>112.9</v>
       </c>
       <c r="H513" s="4">
-        <v>111.2</v>
+        <v>111.1</v>
       </c>
       <c r="I513" s="4">
         <v>99.9</v>
@@ -26157,7 +26161,7 @@
         <v>2707.1</v>
       </c>
     </row>
-    <row r="514" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="514" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A514" s="13" t="s">
         <v>531</v>
       </c>
@@ -26171,7 +26175,7 @@
         <v>114.6</v>
       </c>
       <c r="E514" s="4">
-        <v>112.2</v>
+        <v>112.1</v>
       </c>
       <c r="F514" s="4">
         <v>101.6</v>
@@ -26180,7 +26184,7 @@
         <v>113.5</v>
       </c>
       <c r="H514" s="4">
-        <v>111.4</v>
+        <v>111.3</v>
       </c>
       <c r="I514" s="4">
         <v>101.6</v>
@@ -26204,7 +26208,7 @@
         <v>2718.2</v>
       </c>
     </row>
-    <row r="515" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="515" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A515" s="13" t="s">
         <v>532</v>
       </c>
@@ -26215,7 +26219,7 @@
         <v>5</v>
       </c>
       <c r="D515" s="4">
-        <v>113.4</v>
+        <v>113.3</v>
       </c>
       <c r="E515" s="4">
         <v>111.5</v>
@@ -26227,7 +26231,7 @@
         <v>112.4</v>
       </c>
       <c r="H515" s="4">
-        <v>109.8</v>
+        <v>109.7</v>
       </c>
       <c r="I515" s="4">
         <v>100.8</v>
@@ -26251,7 +26255,7 @@
         <v>2723.8</v>
       </c>
     </row>
-    <row r="516" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="516" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A516" s="13" t="s">
         <v>533</v>
       </c>
@@ -26274,7 +26278,7 @@
         <v>112.2</v>
       </c>
       <c r="H516" s="4">
-        <v>112.1</v>
+        <v>112</v>
       </c>
       <c r="I516" s="4">
         <v>102.1</v>
@@ -26298,7 +26302,7 @@
         <v>2729.4</v>
       </c>
     </row>
-    <row r="517" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="517" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A517" s="13" t="s">
         <v>534</v>
       </c>
@@ -26309,7 +26313,7 @@
         <v>7</v>
       </c>
       <c r="D517" s="4">
-        <v>112.4</v>
+        <v>112.3</v>
       </c>
       <c r="E517" s="4">
         <v>113.8</v>
@@ -26330,7 +26334,7 @@
         <v>31.8</v>
       </c>
       <c r="K517" s="4">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="L517" s="4">
         <v>66.7</v>
@@ -26339,13 +26343,13 @@
         <v>1339.9</v>
       </c>
       <c r="N517" s="4">
-        <v>3295</v>
+        <v>3305</v>
       </c>
       <c r="O517" s="4">
         <v>2746.1</v>
       </c>
     </row>
-    <row r="518" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="518" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A518" s="13" t="s">
         <v>535</v>
       </c>
@@ -26356,7 +26360,7 @@
         <v>8</v>
       </c>
       <c r="D518" s="4">
-        <v>114</v>
+        <v>113.9</v>
       </c>
       <c r="E518" s="4">
         <v>115</v>
@@ -26374,25 +26378,25 @@
         <v>103.2</v>
       </c>
       <c r="J518" s="4">
-        <v>68.2</v>
+        <v>72.7</v>
       </c>
       <c r="K518" s="4">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="L518" s="4">
         <v>94.4</v>
       </c>
       <c r="M518" s="4">
-        <v>1358.1</v>
+        <v>1362.6</v>
       </c>
       <c r="N518" s="4">
-        <v>3315</v>
+        <v>3335</v>
       </c>
       <c r="O518" s="4">
         <v>2790.5</v>
       </c>
     </row>
-    <row r="519" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="519" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A519" s="13" t="s">
         <v>536</v>
       </c>
@@ -26406,7 +26410,7 @@
         <v>111.6</v>
       </c>
       <c r="E519" s="4">
-        <v>114.5</v>
+        <v>114.6</v>
       </c>
       <c r="F519" s="4">
         <v>103.8</v>
@@ -26424,22 +26428,22 @@
         <v>40.9</v>
       </c>
       <c r="K519" s="4">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="L519" s="4">
         <v>55.6</v>
       </c>
       <c r="M519" s="4">
-        <v>1349</v>
+        <v>1353.5</v>
       </c>
       <c r="N519" s="4">
-        <v>3325</v>
+        <v>3355</v>
       </c>
       <c r="O519" s="4">
         <v>2796.1</v>
       </c>
     </row>
-    <row r="520" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="520" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A520" s="13" t="s">
         <v>537</v>
       </c>
@@ -26477,16 +26481,16 @@
         <v>77.8</v>
       </c>
       <c r="M520" s="4">
-        <v>1344.5</v>
+        <v>1349</v>
       </c>
       <c r="N520" s="4">
-        <v>3315</v>
+        <v>3345</v>
       </c>
       <c r="O520" s="4">
         <v>2823.9</v>
       </c>
     </row>
-    <row r="521" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="521" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A521" s="13" t="s">
         <v>538</v>
       </c>
@@ -26524,16 +26528,16 @@
         <v>61.1</v>
       </c>
       <c r="M521" s="4">
-        <v>1330.9</v>
+        <v>1335.4</v>
       </c>
       <c r="N521" s="4">
-        <v>3305</v>
+        <v>3335</v>
       </c>
       <c r="O521" s="4">
         <v>2835</v>
       </c>
     </row>
-    <row r="522" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="522" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A522" s="13" t="s">
         <v>539</v>
       </c>
@@ -26550,13 +26554,13 @@
         <v>113.2</v>
       </c>
       <c r="F522" s="4">
-        <v>104.1</v>
+        <v>104.2</v>
       </c>
       <c r="G522" s="4">
-        <v>109.5</v>
+        <v>109.4</v>
       </c>
       <c r="H522" s="4">
-        <v>112.3</v>
+        <v>112.2</v>
       </c>
       <c r="I522" s="4">
         <v>103.9</v>
@@ -26571,16 +26575,16 @@
         <v>66.7</v>
       </c>
       <c r="M522" s="4">
-        <v>1326.4</v>
+        <v>1330.9</v>
       </c>
       <c r="N522" s="4">
-        <v>3285</v>
+        <v>3315</v>
       </c>
       <c r="O522" s="4">
         <v>2851.7</v>
       </c>
     </row>
-    <row r="523" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="523" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A523" s="13" t="s">
         <v>540</v>
       </c>
@@ -26591,7 +26595,7 @@
         <v>1</v>
       </c>
       <c r="D523" s="4">
-        <v>109</v>
+        <v>108.9</v>
       </c>
       <c r="E523" s="4">
         <v>112.9</v>
@@ -26600,10 +26604,10 @@
         <v>105.6</v>
       </c>
       <c r="G523" s="4">
-        <v>108.7</v>
+        <v>108.6</v>
       </c>
       <c r="H523" s="4">
-        <v>111.4</v>
+        <v>111.3</v>
       </c>
       <c r="I523" s="4">
         <v>105.6</v>
@@ -26618,16 +26622,16 @@
         <v>77.8</v>
       </c>
       <c r="M523" s="4">
-        <v>1321.9</v>
+        <v>1326.4</v>
       </c>
       <c r="N523" s="4">
-        <v>3285</v>
+        <v>3315</v>
       </c>
       <c r="O523" s="4">
         <v>2879.5</v>
       </c>
     </row>
-    <row r="524" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="524" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A524" s="13" t="s">
         <v>541</v>
       </c>
@@ -26638,7 +26642,7 @@
         <v>2</v>
       </c>
       <c r="D524" s="4">
-        <v>109.4</v>
+        <v>109.3</v>
       </c>
       <c r="E524" s="4">
         <v>114.5</v>
@@ -26665,16 +26669,16 @@
         <v>66.7</v>
       </c>
       <c r="M524" s="4">
-        <v>1326.4</v>
+        <v>1330.9</v>
       </c>
       <c r="N524" s="4">
-        <v>3265</v>
+        <v>3295</v>
       </c>
       <c r="O524" s="4">
         <v>2896.2</v>
       </c>
     </row>
-    <row r="525" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="525" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A525" s="13" t="s">
         <v>542</v>
       </c>
@@ -26688,7 +26692,7 @@
         <v>109.2</v>
       </c>
       <c r="E525" s="4">
-        <v>114.7</v>
+        <v>114.6</v>
       </c>
       <c r="F525" s="4">
         <v>105.5</v>
@@ -26697,7 +26701,7 @@
         <v>109.3</v>
       </c>
       <c r="H525" s="4">
-        <v>113.2</v>
+        <v>113.1</v>
       </c>
       <c r="I525" s="4">
         <v>104.7</v>
@@ -26712,16 +26716,16 @@
         <v>66.7</v>
       </c>
       <c r="M525" s="4">
-        <v>1330.9</v>
+        <v>1335.4</v>
       </c>
       <c r="N525" s="4">
-        <v>3280</v>
+        <v>3310</v>
       </c>
       <c r="O525" s="4">
         <v>2912.9</v>
       </c>
     </row>
-    <row r="526" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="526" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A526" s="13" t="s">
         <v>543</v>
       </c>
@@ -26735,16 +26739,16 @@
         <v>108.9</v>
       </c>
       <c r="E526" s="4">
-        <v>114.7</v>
+        <v>114.6</v>
       </c>
       <c r="F526" s="4">
-        <v>105.9</v>
+        <v>105.8</v>
       </c>
       <c r="G526" s="4">
-        <v>109</v>
+        <v>108.9</v>
       </c>
       <c r="H526" s="4">
-        <v>113.2</v>
+        <v>113.1</v>
       </c>
       <c r="I526" s="4">
         <v>105</v>
@@ -26759,16 +26763,16 @@
         <v>44.4</v>
       </c>
       <c r="M526" s="4">
-        <v>1317.3</v>
+        <v>1321.8</v>
       </c>
       <c r="N526" s="4">
-        <v>3310</v>
+        <v>3340</v>
       </c>
       <c r="O526" s="4">
         <v>2907.3</v>
       </c>
     </row>
-    <row r="527" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="527" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A527" s="13" t="s">
         <v>544</v>
       </c>
@@ -26782,7 +26786,7 @@
         <v>109.8</v>
       </c>
       <c r="E527" s="4">
-        <v>115.3</v>
+        <v>115.2</v>
       </c>
       <c r="F527" s="4">
         <v>106.4</v>
@@ -26806,16 +26810,16 @@
         <v>66.7</v>
       </c>
       <c r="M527" s="4">
-        <v>1299.0999999999999</v>
+        <v>1303.5999999999999</v>
       </c>
       <c r="N527" s="4">
-        <v>3300</v>
+        <v>3330</v>
       </c>
       <c r="O527" s="4">
         <v>2924</v>
       </c>
     </row>
-    <row r="528" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="528" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A528" s="13" t="s">
         <v>545</v>
       </c>
@@ -26838,7 +26842,7 @@
         <v>110.3</v>
       </c>
       <c r="H528" s="4">
-        <v>113.7</v>
+        <v>113.6</v>
       </c>
       <c r="I528" s="4">
         <v>105.7</v>
@@ -26853,16 +26857,16 @@
         <v>61.1</v>
       </c>
       <c r="M528" s="4">
-        <v>1312.7</v>
+        <v>1317.2</v>
       </c>
       <c r="N528" s="4">
-        <v>3300</v>
+        <v>3330</v>
       </c>
       <c r="O528" s="4">
         <v>2935.1</v>
       </c>
     </row>
-    <row r="529" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="529" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A529" s="13" t="s">
         <v>546</v>
       </c>
@@ -26891,7 +26895,7 @@
         <v>105.2</v>
       </c>
       <c r="J529" s="4">
-        <v>45.5</v>
+        <v>54.5</v>
       </c>
       <c r="K529" s="4">
         <v>35</v>
@@ -26900,16 +26904,16 @@
         <v>61.1</v>
       </c>
       <c r="M529" s="4">
-        <v>1308.2</v>
+        <v>1321.7</v>
       </c>
       <c r="N529" s="4">
-        <v>3285</v>
+        <v>3315</v>
       </c>
       <c r="O529" s="4">
         <v>2946.2</v>
       </c>
     </row>
-    <row r="530" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="530" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A530" s="13" t="s">
         <v>547</v>
       </c>
@@ -26920,16 +26924,16 @@
         <v>8</v>
       </c>
       <c r="D530" s="4">
-        <v>110.6</v>
+        <v>110.7</v>
       </c>
       <c r="E530" s="4">
         <v>115.3</v>
       </c>
       <c r="F530" s="4">
-        <v>106.4</v>
+        <v>106.3</v>
       </c>
       <c r="G530" s="4">
-        <v>110.9</v>
+        <v>111</v>
       </c>
       <c r="H530" s="4">
         <v>113.8</v>
@@ -26947,16 +26951,16 @@
         <v>44.4</v>
       </c>
       <c r="M530" s="4">
-        <v>1312.7</v>
+        <v>1326.2</v>
       </c>
       <c r="N530" s="4">
-        <v>3265</v>
+        <v>3295</v>
       </c>
       <c r="O530" s="4">
         <v>2940.6</v>
       </c>
     </row>
-    <row r="531" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="531" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A531" s="13" t="s">
         <v>548</v>
       </c>
@@ -26970,7 +26974,7 @@
         <v>110.5</v>
       </c>
       <c r="E531" s="4">
-        <v>115.8</v>
+        <v>115.9</v>
       </c>
       <c r="F531" s="4">
         <v>106.7</v>
@@ -26994,16 +26998,16 @@
         <v>72.2</v>
       </c>
       <c r="M531" s="4">
-        <v>1308.2</v>
+        <v>1321.7</v>
       </c>
       <c r="N531" s="4">
-        <v>3265</v>
+        <v>3295</v>
       </c>
       <c r="O531" s="4">
         <v>2962.8</v>
       </c>
     </row>
-    <row r="532" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="532" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A532" s="13" t="s">
         <v>549</v>
       </c>
@@ -27014,7 +27018,7 @@
         <v>10</v>
       </c>
       <c r="D532" s="4">
-        <v>109.6</v>
+        <v>109.7</v>
       </c>
       <c r="E532" s="4">
         <v>115.7</v>
@@ -27023,10 +27027,10 @@
         <v>107.2</v>
       </c>
       <c r="G532" s="4">
-        <v>110.2</v>
+        <v>110.3</v>
       </c>
       <c r="H532" s="4">
-        <v>114.2</v>
+        <v>114.3</v>
       </c>
       <c r="I532" s="4">
         <v>106</v>
@@ -27041,16 +27045,16 @@
         <v>77.8</v>
       </c>
       <c r="M532" s="4">
-        <v>1294.5999999999999</v>
+        <v>1308.0999999999999</v>
       </c>
       <c r="N532" s="4">
-        <v>3275</v>
+        <v>3305</v>
       </c>
       <c r="O532" s="4">
         <v>2990.6</v>
       </c>
     </row>
-    <row r="533" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="533" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A533" s="13" t="s">
         <v>550</v>
       </c>
@@ -27064,10 +27068,10 @@
         <v>109.6</v>
       </c>
       <c r="E533" s="4">
-        <v>114.8</v>
+        <v>114.9</v>
       </c>
       <c r="F533" s="4">
-        <v>107.3</v>
+        <v>107.4</v>
       </c>
       <c r="G533" s="4">
         <v>110.2</v>
@@ -27088,16 +27092,16 @@
         <v>77.8</v>
       </c>
       <c r="M533" s="4">
-        <v>1290.0999999999999</v>
+        <v>1303.5999999999999</v>
       </c>
       <c r="N533" s="4">
-        <v>3250</v>
+        <v>3280</v>
       </c>
       <c r="O533" s="4">
         <v>3018.4</v>
       </c>
     </row>
-    <row r="534" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="534" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A534" s="13" t="s">
         <v>551</v>
       </c>
@@ -27117,7 +27121,7 @@
         <v>108</v>
       </c>
       <c r="G534" s="4">
-        <v>111.4</v>
+        <v>111.3</v>
       </c>
       <c r="H534" s="4">
         <v>114.5</v>
@@ -27135,16 +27139,16 @@
         <v>66.7</v>
       </c>
       <c r="M534" s="4">
-        <v>1285.5999999999999</v>
+        <v>1299.0999999999999</v>
       </c>
       <c r="N534" s="4">
-        <v>3255</v>
+        <v>3285</v>
       </c>
       <c r="O534" s="4">
         <v>3035.1</v>
       </c>
     </row>
-    <row r="535" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="535" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A535" s="13" t="s">
         <v>552</v>
       </c>
@@ -27167,7 +27171,7 @@
         <v>111</v>
       </c>
       <c r="H535" s="4">
-        <v>111.2</v>
+        <v>111.1</v>
       </c>
       <c r="I535" s="4">
         <v>104.9</v>
@@ -27182,16 +27186,16 @@
         <v>33.299999999999997</v>
       </c>
       <c r="M535" s="4">
-        <v>1290.0999999999999</v>
+        <v>1303.5999999999999</v>
       </c>
       <c r="N535" s="4">
-        <v>3225</v>
+        <v>3255</v>
       </c>
       <c r="O535" s="4">
         <v>3018.4</v>
       </c>
     </row>
-    <row r="536" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="536" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A536" s="13" t="s">
         <v>553</v>
       </c>
@@ -27202,10 +27206,10 @@
         <v>2</v>
       </c>
       <c r="D536" s="4">
-        <v>111.9</v>
+        <v>111.8</v>
       </c>
       <c r="E536" s="4">
-        <v>112.8</v>
+        <v>112.7</v>
       </c>
       <c r="F536" s="4">
         <v>107.4</v>
@@ -27214,7 +27218,7 @@
         <v>112.6</v>
       </c>
       <c r="H536" s="4">
-        <v>111.1</v>
+        <v>110.9</v>
       </c>
       <c r="I536" s="4">
         <v>106.2</v>
@@ -27229,16 +27233,16 @@
         <v>50</v>
       </c>
       <c r="M536" s="4">
-        <v>1312.8</v>
+        <v>1326.3</v>
       </c>
       <c r="N536" s="4">
-        <v>3195</v>
+        <v>3225</v>
       </c>
       <c r="O536" s="4">
         <v>3018.4</v>
       </c>
     </row>
-    <row r="537" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="537" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A537" s="13" t="s">
         <v>554</v>
       </c>
@@ -27252,7 +27256,7 @@
         <v>111.9</v>
       </c>
       <c r="E537" s="4">
-        <v>114</v>
+        <v>113.8</v>
       </c>
       <c r="F537" s="4">
         <v>107.5</v>
@@ -27261,7 +27265,7 @@
         <v>112.3</v>
       </c>
       <c r="H537" s="4">
-        <v>112.1</v>
+        <v>111.9</v>
       </c>
       <c r="I537" s="4">
         <v>106.2</v>
@@ -27276,16 +27280,16 @@
         <v>50</v>
       </c>
       <c r="M537" s="4">
-        <v>1317.3</v>
+        <v>1330.8</v>
       </c>
       <c r="N537" s="4">
-        <v>3160</v>
+        <v>3190</v>
       </c>
       <c r="O537" s="4">
         <v>3018.4</v>
       </c>
     </row>
-    <row r="538" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="538" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A538" s="13" t="s">
         <v>555</v>
       </c>
@@ -27299,16 +27303,16 @@
         <v>111</v>
       </c>
       <c r="E538" s="4">
-        <v>114.6</v>
+        <v>114.5</v>
       </c>
       <c r="F538" s="4">
-        <v>107.2</v>
+        <v>107.1</v>
       </c>
       <c r="G538" s="4">
         <v>111.4</v>
       </c>
       <c r="H538" s="4">
-        <v>112.7</v>
+        <v>112.6</v>
       </c>
       <c r="I538" s="4">
         <v>105.7</v>
@@ -27323,16 +27327,16 @@
         <v>77.8</v>
       </c>
       <c r="M538" s="4">
-        <v>1321.8</v>
+        <v>1335.3</v>
       </c>
       <c r="N538" s="4">
-        <v>3170</v>
+        <v>3200</v>
       </c>
       <c r="O538" s="4">
         <v>3046.2</v>
       </c>
     </row>
-    <row r="539" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="539" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A539" s="13" t="s">
         <v>556</v>
       </c>
@@ -27346,16 +27350,16 @@
         <v>110.9</v>
       </c>
       <c r="E539" s="4">
-        <v>115.6</v>
+        <v>115.5</v>
       </c>
       <c r="F539" s="4">
-        <v>108.7</v>
+        <v>108.6</v>
       </c>
       <c r="G539" s="4">
         <v>111.4</v>
       </c>
       <c r="H539" s="4">
-        <v>113.7</v>
+        <v>113.6</v>
       </c>
       <c r="I539" s="4">
         <v>107.7</v>
@@ -27370,16 +27374,16 @@
         <v>50</v>
       </c>
       <c r="M539" s="4">
-        <v>1317.3</v>
+        <v>1330.8</v>
       </c>
       <c r="N539" s="4">
-        <v>3200</v>
+        <v>3230</v>
       </c>
       <c r="O539" s="4">
         <v>3046.2</v>
       </c>
     </row>
-    <row r="540" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="540" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A540" s="13" t="s">
         <v>557</v>
       </c>
@@ -27417,16 +27421,16 @@
         <v>61.1</v>
       </c>
       <c r="M540" s="4">
-        <v>1299.0999999999999</v>
+        <v>1312.6</v>
       </c>
       <c r="N540" s="4">
-        <v>3200</v>
+        <v>3230</v>
       </c>
       <c r="O540" s="4">
         <v>3057.3</v>
       </c>
     </row>
-    <row r="541" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="541" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A541" s="13" t="s">
         <v>558</v>
       </c>
@@ -27464,16 +27468,16 @@
         <v>77.8</v>
       </c>
       <c r="M541" s="4">
-        <v>1276.4000000000001</v>
+        <v>1289.9000000000001</v>
       </c>
       <c r="N541" s="4">
-        <v>3210</v>
+        <v>3240</v>
       </c>
       <c r="O541" s="4">
         <v>3085.1</v>
       </c>
     </row>
-    <row r="542" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="542" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A542" s="13" t="s">
         <v>559</v>
       </c>
@@ -27511,16 +27515,16 @@
         <v>66.7</v>
       </c>
       <c r="M542" s="4">
-        <v>1244.5999999999999</v>
+        <v>1258.0999999999999</v>
       </c>
       <c r="N542" s="4">
-        <v>3180</v>
+        <v>3210</v>
       </c>
       <c r="O542" s="4">
         <v>3101.8</v>
       </c>
     </row>
-    <row r="543" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="543" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A543" s="13" t="s">
         <v>560</v>
       </c>
@@ -27531,19 +27535,19 @@
         <v>9</v>
       </c>
       <c r="D543" s="4">
-        <v>108.5</v>
+        <v>108.6</v>
       </c>
       <c r="E543" s="4">
         <v>114.4</v>
       </c>
       <c r="F543" s="4">
-        <v>108.2</v>
+        <v>108.1</v>
       </c>
       <c r="G543" s="4">
-        <v>109.1</v>
+        <v>109.2</v>
       </c>
       <c r="H543" s="4">
-        <v>112.5</v>
+        <v>112.6</v>
       </c>
       <c r="I543" s="4">
         <v>106.8</v>
@@ -27558,16 +27562,16 @@
         <v>44.4</v>
       </c>
       <c r="M543" s="4">
-        <v>1240.0999999999999</v>
+        <v>1253.5999999999999</v>
       </c>
       <c r="N543" s="4">
-        <v>3180</v>
+        <v>3210</v>
       </c>
       <c r="O543" s="4">
         <v>3096.2</v>
       </c>
     </row>
-    <row r="544" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="544" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A544" s="13" t="s">
         <v>561</v>
       </c>
@@ -27578,16 +27582,16 @@
         <v>10</v>
       </c>
       <c r="D544" s="4">
-        <v>108.6</v>
+        <v>108.7</v>
       </c>
       <c r="E544" s="4">
-        <v>115.8</v>
+        <v>115.9</v>
       </c>
       <c r="F544" s="4">
-        <v>108.7</v>
+        <v>108.8</v>
       </c>
       <c r="G544" s="4">
-        <v>109.3</v>
+        <v>109.4</v>
       </c>
       <c r="H544" s="4">
         <v>114</v>
@@ -27602,19 +27606,19 @@
         <v>65</v>
       </c>
       <c r="L544" s="4">
-        <v>55.6</v>
+        <v>66.7</v>
       </c>
       <c r="M544" s="4">
-        <v>1253.7</v>
+        <v>1267.2</v>
       </c>
       <c r="N544" s="4">
-        <v>3195</v>
+        <v>3225</v>
       </c>
       <c r="O544" s="4">
-        <v>3101.8</v>
-      </c>
-    </row>
-    <row r="545" spans="1:15" x14ac:dyDescent="0.15">
+        <v>3112.9</v>
+      </c>
+    </row>
+    <row r="545" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A545" s="13" t="s">
         <v>562</v>
       </c>
@@ -27640,7 +27644,7 @@
         <v>113.4</v>
       </c>
       <c r="I545" s="4">
-        <v>107.6</v>
+        <v>107.7</v>
       </c>
       <c r="J545" s="4">
         <v>45.5</v>
@@ -27649,19 +27653,19 @@
         <v>70</v>
       </c>
       <c r="L545" s="4">
-        <v>50</v>
+        <v>61.1</v>
       </c>
       <c r="M545" s="4">
-        <v>1249.2</v>
+        <v>1262.7</v>
       </c>
       <c r="N545" s="4">
-        <v>3215</v>
+        <v>3245</v>
       </c>
       <c r="O545" s="4">
-        <v>3101.8</v>
-      </c>
-    </row>
-    <row r="546" spans="1:15" x14ac:dyDescent="0.15">
+        <v>3124</v>
+      </c>
+    </row>
+    <row r="546" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A546" s="13" t="s">
         <v>563</v>
       </c>
@@ -27675,10 +27679,10 @@
         <v>107.9</v>
       </c>
       <c r="E546" s="4">
-        <v>116.3</v>
+        <v>116.4</v>
       </c>
       <c r="F546" s="4">
-        <v>109.6</v>
+        <v>109.7</v>
       </c>
       <c r="G546" s="4">
         <v>108.7</v>
@@ -27687,7 +27691,7 @@
         <v>114.6</v>
       </c>
       <c r="I546" s="4">
-        <v>107.9</v>
+        <v>108</v>
       </c>
       <c r="J546" s="4">
         <v>45.5</v>
@@ -27696,19 +27700,19 @@
         <v>75</v>
       </c>
       <c r="L546" s="4">
-        <v>55.6</v>
+        <v>66.7</v>
       </c>
       <c r="M546" s="4">
-        <v>1244.7</v>
+        <v>1258.2</v>
       </c>
       <c r="N546" s="4">
-        <v>3240</v>
+        <v>3270</v>
       </c>
       <c r="O546" s="4">
-        <v>3107.4</v>
-      </c>
-    </row>
-    <row r="547" spans="1:15" x14ac:dyDescent="0.15">
+        <v>3140.7</v>
+      </c>
+    </row>
+    <row r="547" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A547" s="13" t="s">
         <v>564</v>
       </c>
@@ -27719,16 +27723,16 @@
         <v>1</v>
       </c>
       <c r="D547" s="4">
-        <v>108.4</v>
+        <v>108.1</v>
       </c>
       <c r="E547" s="4">
-        <v>116.4</v>
+        <v>116.3</v>
       </c>
       <c r="F547" s="4">
         <v>111.2</v>
       </c>
       <c r="G547" s="4">
-        <v>109.4</v>
+        <v>109.1</v>
       </c>
       <c r="H547" s="4">
         <v>114.4</v>
@@ -27737,25 +27741,25 @@
         <v>109.4</v>
       </c>
       <c r="J547" s="4">
+        <v>54.5</v>
+      </c>
+      <c r="K547" s="4">
         <v>60</v>
       </c>
-      <c r="K547" s="4">
-        <v>55.6</v>
-      </c>
       <c r="L547" s="4">
-        <v>75</v>
+        <v>77.8</v>
       </c>
       <c r="M547" s="4">
-        <v>1254.7</v>
+        <v>1262.7</v>
       </c>
       <c r="N547" s="4">
-        <v>3245.6</v>
+        <v>3280</v>
       </c>
       <c r="O547" s="4">
-        <v>3132.4</v>
-      </c>
-    </row>
-    <row r="548" spans="1:15" x14ac:dyDescent="0.15">
+        <v>3168.5</v>
+      </c>
+    </row>
+    <row r="548" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A548" s="13" t="s">
         <v>565</v>
       </c>
@@ -27766,43 +27770,43 @@
         <v>2</v>
       </c>
       <c r="D548" s="4">
-        <v>108.2</v>
+        <v>107.8</v>
       </c>
       <c r="E548" s="4">
-        <v>117.3</v>
+        <v>117.1</v>
       </c>
       <c r="F548" s="4">
-        <v>110.9</v>
+        <v>111</v>
       </c>
       <c r="G548" s="4">
+        <v>108.8</v>
+      </c>
+      <c r="H548" s="4">
+        <v>115.4</v>
+      </c>
+      <c r="I548" s="4">
         <v>109.1</v>
       </c>
-      <c r="H548" s="4">
-        <v>115.5</v>
-      </c>
-      <c r="I548" s="4">
-        <v>109</v>
-      </c>
       <c r="J548" s="4">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="K548" s="4">
-        <v>61.1</v>
+        <v>65</v>
       </c>
       <c r="L548" s="4">
-        <v>75</v>
+        <v>77.8</v>
       </c>
       <c r="M548" s="4">
-        <v>1259.7</v>
+        <v>1262.7</v>
       </c>
       <c r="N548" s="4">
-        <v>3256.7</v>
+        <v>3295</v>
       </c>
       <c r="O548" s="4">
-        <v>3157.4</v>
-      </c>
-    </row>
-    <row r="549" spans="1:15" x14ac:dyDescent="0.15">
+        <v>3196.3</v>
+      </c>
+    </row>
+    <row r="549" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A549" s="13" t="s">
         <v>566</v>
       </c>
@@ -27813,49 +27817,96 @@
         <v>3</v>
       </c>
       <c r="D549" s="4">
-        <v>108.1</v>
+        <v>107.6</v>
       </c>
       <c r="E549" s="4">
-        <v>115.9</v>
+        <v>115.8</v>
       </c>
       <c r="F549" s="4">
-        <v>111.1</v>
+        <v>111.2</v>
       </c>
       <c r="G549" s="4">
+        <v>109.9</v>
+      </c>
+      <c r="H549" s="4">
+        <v>114.2</v>
+      </c>
+      <c r="I549" s="4">
+        <v>109.2</v>
+      </c>
+      <c r="J549" s="4">
+        <v>54.5</v>
+      </c>
+      <c r="K549" s="4">
+        <v>40</v>
+      </c>
+      <c r="L549" s="4">
+        <v>66.7</v>
+      </c>
+      <c r="M549" s="4">
+        <v>1267.2</v>
+      </c>
+      <c r="N549" s="4">
+        <v>3285</v>
+      </c>
+      <c r="O549" s="4">
+        <v>3213</v>
+      </c>
+    </row>
+    <row r="550" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A550" s="13" t="s">
+        <v>567</v>
+      </c>
+      <c r="B550" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C550" s="2">
+        <v>4</v>
+      </c>
+      <c r="D550" s="4">
+        <v>103.4</v>
+      </c>
+      <c r="E550" s="4">
+        <v>115.5</v>
+      </c>
+      <c r="F550" s="4">
+        <v>112.5</v>
+      </c>
+      <c r="G550" s="4">
+        <v>102.6</v>
+      </c>
+      <c r="H550" s="4">
+        <v>113.9</v>
+      </c>
+      <c r="I550" s="4">
         <v>110.4</v>
       </c>
-      <c r="H549" s="4">
-        <v>114.1</v>
-      </c>
-      <c r="I549" s="4">
-        <v>109.1</v>
-      </c>
-      <c r="J549" s="4">
-        <v>60</v>
-      </c>
-      <c r="K549" s="4">
-        <v>33.299999999999997</v>
-      </c>
-      <c r="L549" s="4">
-        <v>62.5</v>
-      </c>
-      <c r="M549" s="4">
-        <v>1269.7</v>
-      </c>
-      <c r="N549" s="4">
-        <v>3240</v>
-      </c>
-      <c r="O549" s="4">
-        <v>3169.9</v>
-      </c>
-    </row>
-    <row r="558" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="D558" s="3"/>
-      <c r="E558" s="3"/>
-      <c r="F558" s="3"/>
-      <c r="G558" s="3"/>
-      <c r="H558" s="3"/>
-      <c r="I558" s="3"/>
+      <c r="J550" s="4">
+        <v>0</v>
+      </c>
+      <c r="K550" s="4">
+        <v>43.8</v>
+      </c>
+      <c r="L550" s="4">
+        <v>50</v>
+      </c>
+      <c r="M550" s="4">
+        <v>1217.2</v>
+      </c>
+      <c r="N550" s="4">
+        <v>3278.8</v>
+      </c>
+      <c r="O550" s="4">
+        <v>3213</v>
+      </c>
+    </row>
+    <row r="559" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="D559" s="3"/>
+      <c r="E559" s="3"/>
+      <c r="F559" s="3"/>
+      <c r="G559" s="3"/>
+      <c r="H559" s="3"/>
+      <c r="I559" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>

--- a/data/長期系列_CI指数_DI指数_DI景気指標.xlsx
+++ b/data/長期系列_CI指数_DI指数_DI景気指標.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\CI\０１／CI\０１／速報\★R7(2025)★\令和7年4月分\g研究所ホームページ掲載宛送付ファイル\jp\stat\di\di\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\CI\０１／CI\０２／速報からの改訂\★R7(2025)★\令和7年4月改訂\g研究所ホームページ掲載宛送付ファイル\jp\stat\di\di\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B655297-534E-4348-B742-81684AA2DEB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3CB927DC-6816-4077-B794-3460D84D30C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300"/>
   </bookViews>
   <sheets>
     <sheet name="指数 Indexes" sheetId="1" r:id="rId1"/>
@@ -2805,11 +2805,11 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="8.109375" customWidth="1"/>
-    <col min="4" max="15" width="10.6640625" customWidth="1"/>
+    <col min="1" max="1" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8.08984375" customWidth="1"/>
+    <col min="4" max="15" width="10.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="36" x14ac:dyDescent="0.2">
@@ -2944,7 +2944,7 @@
       </c>
       <c r="P3" s="5"/>
     </row>
-    <row r="4" spans="1:16" s="1" customFormat="1" ht="32.4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>20</v>
       </c>
@@ -2992,7 +2992,7 @@
       </c>
       <c r="P4" s="5"/>
     </row>
-    <row r="5" spans="1:16" s="1" customFormat="1" ht="22.2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -27823,7 +27823,7 @@
         <v>115.8</v>
       </c>
       <c r="F549" s="4">
-        <v>111.2</v>
+        <v>111</v>
       </c>
       <c r="G549" s="4">
         <v>109.9</v>
@@ -27832,7 +27832,7 @@
         <v>114.2</v>
       </c>
       <c r="I549" s="4">
-        <v>109.2</v>
+        <v>109</v>
       </c>
       <c r="J549" s="4">
         <v>54.5</v>
@@ -27864,40 +27864,40 @@
         <v>4</v>
       </c>
       <c r="D550" s="4">
-        <v>103.4</v>
+        <v>104.2</v>
       </c>
       <c r="E550" s="4">
-        <v>115.5</v>
+        <v>116</v>
       </c>
       <c r="F550" s="4">
         <v>112.5</v>
       </c>
       <c r="G550" s="4">
-        <v>102.6</v>
+        <v>103.5</v>
       </c>
       <c r="H550" s="4">
-        <v>113.9</v>
+        <v>114.4</v>
       </c>
       <c r="I550" s="4">
-        <v>110.4</v>
+        <v>110.5</v>
       </c>
       <c r="J550" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K550" s="4">
+        <v>38.9</v>
+      </c>
+      <c r="L550" s="4">
         <v>43.8</v>
       </c>
-      <c r="L550" s="4">
-        <v>50</v>
-      </c>
       <c r="M550" s="4">
-        <v>1217.2</v>
+        <v>1227.2</v>
       </c>
       <c r="N550" s="4">
-        <v>3278.8</v>
+        <v>3273.9</v>
       </c>
       <c r="O550" s="4">
-        <v>3213</v>
+        <v>3206.8</v>
       </c>
     </row>
     <row r="559" spans="1:15" x14ac:dyDescent="0.2">

--- a/data/長期系列_CI指数_DI指数_DI景気指標.xlsx
+++ b/data/長期系列_CI指数_DI指数_DI景気指標.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\CI\０１／CI\０２／速報からの改訂\★R7(2025)★\令和7年4月改訂\g研究所ホームページ掲載宛送付ファイル\jp\stat\di\di\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\CI\０１／CI\０１／速報\★R7(2025)★\令和7年5月分\g研究所ホームページ掲載宛送付ファイル\jp\stat\di\di\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3CB927DC-6816-4077-B794-3460D84D30C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{387D498D-6D1C-4BA6-AC23-8E3A48B0345C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="25740" windowHeight="11880"/>
   </bookViews>
   <sheets>
     <sheet name="指数 Indexes" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="568">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="569">
   <si>
     <t>ＤＩ指数</t>
   </si>
@@ -2295,6 +2295,10 @@
   </si>
   <si>
     <t>2025000404</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2025000505</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2796,7 +2800,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P559"/>
+  <dimension ref="A1:P560"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="6" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
@@ -2805,14 +2809,14 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="8.08984375" customWidth="1"/>
-    <col min="4" max="15" width="10.6328125" customWidth="1"/>
+    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8.125" customWidth="1"/>
+    <col min="4" max="15" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="36" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="36" x14ac:dyDescent="0.15">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -2854,7 +2858,7 @@
       </c>
       <c r="P1" s="5"/>
     </row>
-    <row r="2" spans="1:16" s="1" customFormat="1" ht="72" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" s="1" customFormat="1" ht="72" x14ac:dyDescent="0.15">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -2896,7 +2900,7 @@
       </c>
       <c r="P2" s="5"/>
     </row>
-    <row r="3" spans="1:16" ht="24" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="24" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
         <v>18</v>
       </c>
@@ -2944,7 +2948,7 @@
       </c>
       <c r="P3" s="5"/>
     </row>
-    <row r="4" spans="1:16" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" s="1" customFormat="1" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A4" s="9" t="s">
         <v>20</v>
       </c>
@@ -2992,7 +2996,7 @@
       </c>
       <c r="P4" s="5"/>
     </row>
-    <row r="5" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -3022,7 +3026,7 @@
       <c r="O5" s="11"/>
       <c r="P5" s="12"/>
     </row>
-    <row r="6" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -3052,7 +3056,7 @@
       <c r="O6" s="6"/>
       <c r="P6" s="12"/>
     </row>
-    <row r="7" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="13" t="s">
         <v>24</v>
       </c>
@@ -3087,7 +3091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" s="13" t="s">
         <v>25</v>
       </c>
@@ -3122,7 +3126,7 @@
         <v>44.4</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9" s="13" t="s">
         <v>26</v>
       </c>
@@ -3157,7 +3161,7 @@
         <v>83.3</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10" s="13" t="s">
         <v>27</v>
       </c>
@@ -3192,7 +3196,7 @@
         <v>111.1</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" s="13" t="s">
         <v>28</v>
       </c>
@@ -3227,7 +3231,7 @@
         <v>116.7</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="13" t="s">
         <v>29</v>
       </c>
@@ -3262,7 +3266,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="13" t="s">
         <v>30</v>
       </c>
@@ -3297,7 +3301,7 @@
         <v>177.8</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14" s="13" t="s">
         <v>31</v>
       </c>
@@ -3332,7 +3336,7 @@
         <v>194.5</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" s="13" t="s">
         <v>32</v>
       </c>
@@ -3367,7 +3371,7 @@
         <v>211.2</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16" s="13" t="s">
         <v>33</v>
       </c>
@@ -3402,7 +3406,7 @@
         <v>227.9</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A17" s="13" t="s">
         <v>34</v>
       </c>
@@ -3437,7 +3441,7 @@
         <v>255.7</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A18" s="13" t="s">
         <v>35</v>
       </c>
@@ -3472,7 +3476,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A19" s="13" t="s">
         <v>36</v>
       </c>
@@ -3507,7 +3511,7 @@
         <v>244.6</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A20" s="13" t="s">
         <v>37</v>
       </c>
@@ -3542,7 +3546,7 @@
         <v>244.6</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A21" s="13" t="s">
         <v>38</v>
       </c>
@@ -3577,7 +3581,7 @@
         <v>272.39999999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A22" s="13" t="s">
         <v>39</v>
       </c>
@@ -3612,7 +3616,7 @@
         <v>266.8</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A23" s="13" t="s">
         <v>40</v>
       </c>
@@ -3647,7 +3651,7 @@
         <v>272.39999999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A24" s="13" t="s">
         <v>41</v>
       </c>
@@ -3682,7 +3686,7 @@
         <v>261.3</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A25" s="13" t="s">
         <v>42</v>
       </c>
@@ -3717,7 +3721,7 @@
         <v>250.2</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A26" s="13" t="s">
         <v>43</v>
       </c>
@@ -3752,7 +3756,7 @@
         <v>233.5</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A27" s="13" t="s">
         <v>44</v>
       </c>
@@ -3787,7 +3791,7 @@
         <v>239.1</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A28" s="13" t="s">
         <v>45</v>
       </c>
@@ -3822,7 +3826,7 @@
         <v>244.7</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A29" s="13" t="s">
         <v>46</v>
       </c>
@@ -3857,7 +3861,7 @@
         <v>239.1</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A30" s="13" t="s">
         <v>47</v>
       </c>
@@ -3892,7 +3896,7 @@
         <v>222.4</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A31" s="13" t="s">
         <v>48</v>
       </c>
@@ -3927,7 +3931,7 @@
         <v>239.1</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A32" s="13" t="s">
         <v>49</v>
       </c>
@@ -3962,7 +3966,7 @@
         <v>244.7</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A33" s="13" t="s">
         <v>50</v>
       </c>
@@ -3997,7 +4001,7 @@
         <v>250.3</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A34" s="13" t="s">
         <v>51</v>
       </c>
@@ -4032,7 +4036,7 @@
         <v>244.7</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A35" s="13" t="s">
         <v>52</v>
       </c>
@@ -4067,7 +4071,7 @@
         <v>250.3</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A36" s="13" t="s">
         <v>53</v>
       </c>
@@ -4102,7 +4106,7 @@
         <v>278.10000000000002</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A37" s="13" t="s">
         <v>54</v>
       </c>
@@ -4137,7 +4141,7 @@
         <v>278.10000000000002</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A38" s="13" t="s">
         <v>55</v>
       </c>
@@ -4172,7 +4176,7 @@
         <v>272.5</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A39" s="13" t="s">
         <v>56</v>
       </c>
@@ -4207,7 +4211,7 @@
         <v>255.8</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A40" s="13" t="s">
         <v>57</v>
       </c>
@@ -4242,7 +4246,7 @@
         <v>239.1</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A41" s="13" t="s">
         <v>58</v>
       </c>
@@ -4277,7 +4281,7 @@
         <v>222.4</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A42" s="13" t="s">
         <v>59</v>
       </c>
@@ -4312,7 +4316,7 @@
         <v>194.6</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A43" s="13" t="s">
         <v>60</v>
       </c>
@@ -4347,7 +4351,7 @@
         <v>166.8</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A44" s="13" t="s">
         <v>61</v>
       </c>
@@ -4382,7 +4386,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A45" s="13" t="s">
         <v>62</v>
       </c>
@@ -4417,7 +4421,7 @@
         <v>122.3</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A46" s="13" t="s">
         <v>63</v>
       </c>
@@ -4452,7 +4456,7 @@
         <v>116.7</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A47" s="13" t="s">
         <v>64</v>
       </c>
@@ -4487,7 +4491,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A48" s="13" t="s">
         <v>65</v>
       </c>
@@ -4522,7 +4526,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A49" s="13" t="s">
         <v>66</v>
       </c>
@@ -4557,7 +4561,7 @@
         <v>105.6</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A50" s="13" t="s">
         <v>67</v>
       </c>
@@ -4592,7 +4596,7 @@
         <v>122.3</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A51" s="13" t="s">
         <v>68</v>
       </c>
@@ -4627,7 +4631,7 @@
         <v>127.9</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A52" s="13" t="s">
         <v>69</v>
       </c>
@@ -4662,7 +4666,7 @@
         <v>122.3</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A53" s="13" t="s">
         <v>70</v>
       </c>
@@ -4697,7 +4701,7 @@
         <v>127.9</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A54" s="13" t="s">
         <v>71</v>
       </c>
@@ -4732,7 +4736,7 @@
         <v>127.9</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A55" s="13" t="s">
         <v>72</v>
       </c>
@@ -4767,7 +4771,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A56" s="13" t="s">
         <v>73</v>
       </c>
@@ -4802,7 +4806,7 @@
         <v>177.9</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A57" s="13" t="s">
         <v>74</v>
       </c>
@@ -4837,7 +4841,7 @@
         <v>216.8</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A58" s="13" t="s">
         <v>75</v>
       </c>
@@ -4872,7 +4876,7 @@
         <v>255.7</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A59" s="13" t="s">
         <v>76</v>
       </c>
@@ -4907,7 +4911,7 @@
         <v>272.39999999999998</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A60" s="13" t="s">
         <v>77</v>
       </c>
@@ -4942,7 +4946,7 @@
         <v>283.5</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A61" s="13" t="s">
         <v>78</v>
       </c>
@@ -4977,7 +4981,7 @@
         <v>311.3</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A62" s="13" t="s">
         <v>79</v>
       </c>
@@ -5012,7 +5016,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A63" s="13" t="s">
         <v>80</v>
       </c>
@@ -5047,7 +5051,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A64" s="13" t="s">
         <v>81</v>
       </c>
@@ -5082,7 +5086,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A65" s="13" t="s">
         <v>82</v>
       </c>
@@ -5117,7 +5121,7 @@
         <v>455.8</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A66" s="13" t="s">
         <v>83</v>
       </c>
@@ -5152,7 +5156,7 @@
         <v>494.7</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A67" s="13" t="s">
         <v>84</v>
       </c>
@@ -5199,7 +5203,7 @@
         <v>539.1</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A68" s="13" t="s">
         <v>85</v>
       </c>
@@ -5246,7 +5250,7 @@
         <v>566.9</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A69" s="13" t="s">
         <v>86</v>
       </c>
@@ -5293,7 +5297,7 @@
         <v>594.70000000000005</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A70" s="13" t="s">
         <v>87</v>
       </c>
@@ -5340,7 +5344,7 @@
         <v>611.4</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A71" s="13" t="s">
         <v>88</v>
       </c>
@@ -5387,7 +5391,7 @@
         <v>644.70000000000005</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A72" s="13" t="s">
         <v>89</v>
       </c>
@@ -5434,7 +5438,7 @@
         <v>655.8</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A73" s="13" t="s">
         <v>90</v>
       </c>
@@ -5481,7 +5485,7 @@
         <v>666.9</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A74" s="13" t="s">
         <v>91</v>
       </c>
@@ -5528,7 +5532,7 @@
         <v>694.7</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A75" s="13" t="s">
         <v>92</v>
       </c>
@@ -5575,7 +5579,7 @@
         <v>700.3</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A76" s="13" t="s">
         <v>93</v>
       </c>
@@ -5622,7 +5626,7 @@
         <v>683.6</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A77" s="13" t="s">
         <v>94</v>
       </c>
@@ -5669,7 +5673,7 @@
         <v>666.9</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A78" s="13" t="s">
         <v>95</v>
       </c>
@@ -5716,7 +5720,7 @@
         <v>672.5</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A79" s="13" t="s">
         <v>96</v>
       </c>
@@ -5763,7 +5767,7 @@
         <v>689.2</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A80" s="13" t="s">
         <v>97</v>
       </c>
@@ -5810,7 +5814,7 @@
         <v>705.9</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A81" s="13" t="s">
         <v>98</v>
       </c>
@@ -5857,7 +5861,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A82" s="13" t="s">
         <v>99</v>
       </c>
@@ -5904,7 +5908,7 @@
         <v>711.4</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A83" s="13" t="s">
         <v>100</v>
       </c>
@@ -5951,7 +5955,7 @@
         <v>700.3</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A84" s="13" t="s">
         <v>101</v>
       </c>
@@ -5998,7 +6002,7 @@
         <v>683.6</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A85" s="13" t="s">
         <v>102</v>
       </c>
@@ -6045,7 +6049,7 @@
         <v>683.6</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A86" s="13" t="s">
         <v>103</v>
       </c>
@@ -6092,7 +6096,7 @@
         <v>672.5</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A87" s="13" t="s">
         <v>104</v>
       </c>
@@ -6139,7 +6143,7 @@
         <v>672.5</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A88" s="13" t="s">
         <v>105</v>
       </c>
@@ -6186,7 +6190,7 @@
         <v>689.2</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A89" s="13" t="s">
         <v>106</v>
       </c>
@@ -6233,7 +6237,7 @@
         <v>705.9</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A90" s="13" t="s">
         <v>107</v>
       </c>
@@ -6280,7 +6284,7 @@
         <v>689.2</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A91" s="13" t="s">
         <v>108</v>
       </c>
@@ -6327,7 +6331,7 @@
         <v>694.8</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A92" s="13" t="s">
         <v>109</v>
       </c>
@@ -6374,7 +6378,7 @@
         <v>705.9</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A93" s="13" t="s">
         <v>110</v>
       </c>
@@ -6421,7 +6425,7 @@
         <v>722.6</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A94" s="13" t="s">
         <v>111</v>
       </c>
@@ -6468,7 +6472,7 @@
         <v>750.4</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A95" s="13" t="s">
         <v>112</v>
       </c>
@@ -6515,7 +6519,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A96" s="13" t="s">
         <v>113</v>
       </c>
@@ -6562,7 +6566,7 @@
         <v>767.1</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A97" s="13" t="s">
         <v>114</v>
       </c>
@@ -6609,7 +6613,7 @@
         <v>772.7</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A98" s="13" t="s">
         <v>115</v>
       </c>
@@ -6656,7 +6660,7 @@
         <v>783.8</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A99" s="13" t="s">
         <v>116</v>
       </c>
@@ -6703,7 +6707,7 @@
         <v>811.6</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A100" s="13" t="s">
         <v>117</v>
       </c>
@@ -6750,7 +6754,7 @@
         <v>833.8</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A101" s="13" t="s">
         <v>118</v>
       </c>
@@ -6797,7 +6801,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A102" s="13" t="s">
         <v>119</v>
       </c>
@@ -6844,7 +6848,7 @@
         <v>900.4</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A103" s="13" t="s">
         <v>120</v>
       </c>
@@ -6891,7 +6895,7 @@
         <v>928.2</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A104" s="13" t="s">
         <v>121</v>
       </c>
@@ -6938,7 +6942,7 @@
         <v>944.9</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A105" s="13" t="s">
         <v>122</v>
       </c>
@@ -6985,7 +6989,7 @@
         <v>972.7</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A106" s="13" t="s">
         <v>123</v>
       </c>
@@ -7032,7 +7036,7 @@
         <v>1011.6</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A107" s="13" t="s">
         <v>124</v>
       </c>
@@ -7079,7 +7083,7 @@
         <v>1039.4000000000001</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A108" s="13" t="s">
         <v>125</v>
       </c>
@@ -7126,7 +7130,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A109" s="13" t="s">
         <v>126</v>
       </c>
@@ -7173,7 +7177,7 @@
         <v>1067.2</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A110" s="13" t="s">
         <v>127</v>
       </c>
@@ -7220,7 +7224,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A111" s="13" t="s">
         <v>128</v>
       </c>
@@ -7267,7 +7271,7 @@
         <v>1133.9000000000001</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A112" s="13" t="s">
         <v>129</v>
       </c>
@@ -7314,7 +7318,7 @@
         <v>1183.9000000000001</v>
       </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A113" s="13" t="s">
         <v>130</v>
       </c>
@@ -7361,7 +7365,7 @@
         <v>1233.9000000000001</v>
       </c>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A114" s="13" t="s">
         <v>131</v>
       </c>
@@ -7408,7 +7412,7 @@
         <v>1261.7</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A115" s="13" t="s">
         <v>132</v>
       </c>
@@ -7455,7 +7459,7 @@
         <v>1289.5</v>
       </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A116" s="13" t="s">
         <v>133</v>
       </c>
@@ -7502,7 +7506,7 @@
         <v>1317.3</v>
       </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A117" s="13" t="s">
         <v>134</v>
       </c>
@@ -7549,7 +7553,7 @@
         <v>1361.7</v>
       </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A118" s="13" t="s">
         <v>135</v>
       </c>
@@ -7596,7 +7600,7 @@
         <v>1367.3</v>
       </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A119" s="13" t="s">
         <v>136</v>
       </c>
@@ -7643,7 +7647,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A120" s="13" t="s">
         <v>137</v>
       </c>
@@ -7690,7 +7694,7 @@
         <v>1400.7</v>
       </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A121" s="13" t="s">
         <v>138</v>
       </c>
@@ -7737,7 +7741,7 @@
         <v>1445.1</v>
       </c>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A122" s="13" t="s">
         <v>139</v>
       </c>
@@ -7784,7 +7788,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A123" s="13" t="s">
         <v>140</v>
       </c>
@@ -7831,7 +7835,7 @@
         <v>1495.1</v>
       </c>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A124" s="13" t="s">
         <v>141</v>
       </c>
@@ -7878,7 +7882,7 @@
         <v>1511.8</v>
       </c>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A125" s="13" t="s">
         <v>142</v>
       </c>
@@ -7925,7 +7929,7 @@
         <v>1539.6</v>
       </c>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A126" s="13" t="s">
         <v>143</v>
       </c>
@@ -7972,7 +7976,7 @@
         <v>1572.9</v>
       </c>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A127" s="13" t="s">
         <v>144</v>
       </c>
@@ -8019,7 +8023,7 @@
         <v>1622.9</v>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A128" s="13" t="s">
         <v>145</v>
       </c>
@@ -8066,7 +8070,7 @@
         <v>1661.8</v>
       </c>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A129" s="13" t="s">
         <v>146</v>
       </c>
@@ -8113,7 +8117,7 @@
         <v>1695.1</v>
       </c>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A130" s="13" t="s">
         <v>147</v>
       </c>
@@ -8160,7 +8164,7 @@
         <v>1717.3</v>
       </c>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A131" s="13" t="s">
         <v>148</v>
       </c>
@@ -8207,7 +8211,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A132" s="13" t="s">
         <v>149</v>
       </c>
@@ -8254,7 +8258,7 @@
         <v>1750.7</v>
       </c>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A133" s="13" t="s">
         <v>150</v>
       </c>
@@ -8301,7 +8305,7 @@
         <v>1745.1</v>
       </c>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A134" s="13" t="s">
         <v>151</v>
       </c>
@@ -8348,7 +8352,7 @@
         <v>1761.8</v>
       </c>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A135" s="13" t="s">
         <v>152</v>
       </c>
@@ -8395,7 +8399,7 @@
         <v>1778.5</v>
       </c>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A136" s="13" t="s">
         <v>153</v>
       </c>
@@ -8442,7 +8446,7 @@
         <v>1789.6</v>
       </c>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A137" s="13" t="s">
         <v>154</v>
       </c>
@@ -8489,7 +8493,7 @@
         <v>1789.6</v>
       </c>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A138" s="13" t="s">
         <v>155</v>
       </c>
@@ -8536,7 +8540,7 @@
         <v>1817.4</v>
       </c>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A139" s="13" t="s">
         <v>156</v>
       </c>
@@ -8583,7 +8587,7 @@
         <v>1845.2</v>
       </c>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A140" s="13" t="s">
         <v>157</v>
       </c>
@@ -8630,7 +8634,7 @@
         <v>1856.3</v>
       </c>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A141" s="13" t="s">
         <v>158</v>
       </c>
@@ -8677,7 +8681,7 @@
         <v>1850.7</v>
       </c>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A142" s="13" t="s">
         <v>159</v>
       </c>
@@ -8724,7 +8728,7 @@
         <v>1856.3</v>
       </c>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A143" s="13" t="s">
         <v>160</v>
       </c>
@@ -8771,7 +8775,7 @@
         <v>1867.4</v>
       </c>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A144" s="13" t="s">
         <v>161</v>
       </c>
@@ -8818,7 +8822,7 @@
         <v>1900.7</v>
       </c>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A145" s="13" t="s">
         <v>162</v>
       </c>
@@ -8865,7 +8869,7 @@
         <v>1911.8</v>
       </c>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A146" s="13" t="s">
         <v>163</v>
       </c>
@@ -8912,7 +8916,7 @@
         <v>1906.2</v>
       </c>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A147" s="13" t="s">
         <v>164</v>
       </c>
@@ -8959,7 +8963,7 @@
         <v>1889.5</v>
       </c>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A148" s="13" t="s">
         <v>165</v>
       </c>
@@ -9006,7 +9010,7 @@
         <v>1906.2</v>
       </c>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A149" s="13" t="s">
         <v>166</v>
       </c>
@@ -9053,7 +9057,7 @@
         <v>1934</v>
       </c>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A150" s="13" t="s">
         <v>167</v>
       </c>
@@ -9100,7 +9104,7 @@
         <v>1939.6</v>
       </c>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A151" s="13" t="s">
         <v>168</v>
       </c>
@@ -9147,7 +9151,7 @@
         <v>1922.9</v>
       </c>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A152" s="13" t="s">
         <v>169</v>
       </c>
@@ -9194,7 +9198,7 @@
         <v>1922.9</v>
       </c>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A153" s="13" t="s">
         <v>170</v>
       </c>
@@ -9241,7 +9245,7 @@
         <v>1906.2</v>
       </c>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A154" s="13" t="s">
         <v>171</v>
       </c>
@@ -9288,7 +9292,7 @@
         <v>1889.5</v>
       </c>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A155" s="13" t="s">
         <v>172</v>
       </c>
@@ -9335,7 +9339,7 @@
         <v>1861.7</v>
       </c>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A156" s="13" t="s">
         <v>173</v>
       </c>
@@ -9382,7 +9386,7 @@
         <v>1845</v>
       </c>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A157" s="13" t="s">
         <v>174</v>
       </c>
@@ -9429,7 +9433,7 @@
         <v>1817.2</v>
       </c>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A158" s="13" t="s">
         <v>175</v>
       </c>
@@ -9476,7 +9480,7 @@
         <v>1789.4</v>
       </c>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A159" s="13" t="s">
         <v>176</v>
       </c>
@@ -9523,7 +9527,7 @@
         <v>1761.6</v>
       </c>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A160" s="13" t="s">
         <v>177</v>
       </c>
@@ -9570,7 +9574,7 @@
         <v>1722.7</v>
       </c>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A161" s="13" t="s">
         <v>178</v>
       </c>
@@ -9617,7 +9621,7 @@
         <v>1683.8</v>
       </c>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A162" s="13" t="s">
         <v>179</v>
       </c>
@@ -9664,7 +9668,7 @@
         <v>1644.9</v>
       </c>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A163" s="13" t="s">
         <v>180</v>
       </c>
@@ -9711,7 +9715,7 @@
         <v>1639.3</v>
       </c>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A164" s="13" t="s">
         <v>181</v>
       </c>
@@ -9758,7 +9762,7 @@
         <v>1622.6</v>
       </c>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A165" s="13" t="s">
         <v>182</v>
       </c>
@@ -9805,7 +9809,7 @@
         <v>1600.4</v>
       </c>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A166" s="13" t="s">
         <v>183</v>
       </c>
@@ -9852,7 +9856,7 @@
         <v>1572.6</v>
       </c>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A167" s="13" t="s">
         <v>184</v>
       </c>
@@ -9899,7 +9903,7 @@
         <v>1544.8</v>
       </c>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A168" s="13" t="s">
         <v>185</v>
       </c>
@@ -9946,7 +9950,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A169" s="13" t="s">
         <v>186</v>
       </c>
@@ -9993,7 +9997,7 @@
         <v>1483.7</v>
       </c>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A170" s="13" t="s">
         <v>187</v>
       </c>
@@ -10040,7 +10044,7 @@
         <v>1489.3</v>
       </c>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A171" s="13" t="s">
         <v>188</v>
       </c>
@@ -10087,7 +10091,7 @@
         <v>1483.7</v>
       </c>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A172" s="13" t="s">
         <v>189</v>
       </c>
@@ -10134,7 +10138,7 @@
         <v>1478.1</v>
       </c>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A173" s="13" t="s">
         <v>190</v>
       </c>
@@ -10181,7 +10185,7 @@
         <v>1461.4</v>
       </c>
     </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A174" s="13" t="s">
         <v>191</v>
       </c>
@@ -10228,7 +10232,7 @@
         <v>1450.3</v>
       </c>
     </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A175" s="13" t="s">
         <v>192</v>
       </c>
@@ -10275,7 +10279,7 @@
         <v>1455.9</v>
       </c>
     </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A176" s="13" t="s">
         <v>193</v>
       </c>
@@ -10322,7 +10326,7 @@
         <v>1433.7</v>
       </c>
     </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A177" s="13" t="s">
         <v>194</v>
       </c>
@@ -10369,7 +10373,7 @@
         <v>1422.6</v>
       </c>
     </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A178" s="13" t="s">
         <v>195</v>
       </c>
@@ -10416,7 +10420,7 @@
         <v>1400.4</v>
       </c>
     </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A179" s="13" t="s">
         <v>196</v>
       </c>
@@ -10463,7 +10467,7 @@
         <v>1394.8</v>
       </c>
     </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A180" s="13" t="s">
         <v>197</v>
       </c>
@@ -10510,7 +10514,7 @@
         <v>1378.1</v>
       </c>
     </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A181" s="13" t="s">
         <v>198</v>
       </c>
@@ -10557,7 +10561,7 @@
         <v>1378.1</v>
       </c>
     </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A182" s="13" t="s">
         <v>199</v>
       </c>
@@ -10604,7 +10608,7 @@
         <v>1394.8</v>
       </c>
     </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A183" s="13" t="s">
         <v>200</v>
       </c>
@@ -10651,7 +10655,7 @@
         <v>1405.9</v>
       </c>
     </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A184" s="13" t="s">
         <v>201</v>
       </c>
@@ -10698,7 +10702,7 @@
         <v>1417</v>
       </c>
     </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A185" s="13" t="s">
         <v>202</v>
       </c>
@@ -10745,7 +10749,7 @@
         <v>1428.1</v>
       </c>
     </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A186" s="13" t="s">
         <v>203</v>
       </c>
@@ -10792,7 +10796,7 @@
         <v>1433.7</v>
       </c>
     </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A187" s="13" t="s">
         <v>204</v>
       </c>
@@ -10839,7 +10843,7 @@
         <v>1444.8</v>
       </c>
     </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A188" s="13" t="s">
         <v>205</v>
       </c>
@@ -10886,7 +10890,7 @@
         <v>1455.9</v>
       </c>
     </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A189" s="13" t="s">
         <v>206</v>
       </c>
@@ -10933,7 +10937,7 @@
         <v>1461.5</v>
       </c>
     </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A190" s="13" t="s">
         <v>207</v>
       </c>
@@ -10980,7 +10984,7 @@
         <v>1467.1</v>
       </c>
     </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A191" s="13" t="s">
         <v>208</v>
       </c>
@@ -11027,7 +11031,7 @@
         <v>1472.7</v>
       </c>
     </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A192" s="13" t="s">
         <v>209</v>
       </c>
@@ -11074,7 +11078,7 @@
         <v>1467.1</v>
       </c>
     </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A193" s="13" t="s">
         <v>210</v>
       </c>
@@ -11121,7 +11125,7 @@
         <v>1467.1</v>
       </c>
     </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A194" s="13" t="s">
         <v>211</v>
       </c>
@@ -11168,7 +11172,7 @@
         <v>1461.5</v>
       </c>
     </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A195" s="13" t="s">
         <v>212</v>
       </c>
@@ -11215,7 +11219,7 @@
         <v>1483.7</v>
       </c>
     </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A196" s="13" t="s">
         <v>213</v>
       </c>
@@ -11262,7 +11266,7 @@
         <v>1494.8</v>
       </c>
     </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A197" s="13" t="s">
         <v>214</v>
       </c>
@@ -11309,7 +11313,7 @@
         <v>1511.5</v>
       </c>
     </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A198" s="13" t="s">
         <v>215</v>
       </c>
@@ -11356,7 +11360,7 @@
         <v>1522.6</v>
       </c>
     </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A199" s="13" t="s">
         <v>216</v>
       </c>
@@ -11403,7 +11407,7 @@
         <v>1550.4</v>
       </c>
     </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A200" s="13" t="s">
         <v>217</v>
       </c>
@@ -11450,7 +11454,7 @@
         <v>1589.3</v>
       </c>
     </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A201" s="13" t="s">
         <v>218</v>
       </c>
@@ -11497,7 +11501,7 @@
         <v>1617.1</v>
       </c>
     </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A202" s="13" t="s">
         <v>219</v>
       </c>
@@ -11544,7 +11548,7 @@
         <v>1644.9</v>
       </c>
     </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A203" s="13" t="s">
         <v>220</v>
       </c>
@@ -11591,7 +11595,7 @@
         <v>1656</v>
       </c>
     </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A204" s="13" t="s">
         <v>221</v>
       </c>
@@ -11638,7 +11642,7 @@
         <v>1661.6</v>
       </c>
     </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A205" s="13" t="s">
         <v>222</v>
       </c>
@@ -11685,7 +11689,7 @@
         <v>1672.7</v>
       </c>
     </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A206" s="13" t="s">
         <v>223</v>
       </c>
@@ -11732,7 +11736,7 @@
         <v>1700.5</v>
       </c>
     </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A207" s="13" t="s">
         <v>224</v>
       </c>
@@ -11779,7 +11783,7 @@
         <v>1711.6</v>
       </c>
     </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A208" s="13" t="s">
         <v>225</v>
       </c>
@@ -11826,7 +11830,7 @@
         <v>1733.8</v>
       </c>
     </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A209" s="13" t="s">
         <v>226</v>
       </c>
@@ -11873,7 +11877,7 @@
         <v>1772.7</v>
       </c>
     </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A210" s="13" t="s">
         <v>227</v>
       </c>
@@ -11920,7 +11924,7 @@
         <v>1800.5</v>
       </c>
     </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A211" s="13" t="s">
         <v>228</v>
       </c>
@@ -11967,7 +11971,7 @@
         <v>1828.3</v>
       </c>
     </row>
-    <row r="212" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A212" s="13" t="s">
         <v>229</v>
       </c>
@@ -12014,7 +12018,7 @@
         <v>1828.3</v>
       </c>
     </row>
-    <row r="213" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A213" s="13" t="s">
         <v>230</v>
       </c>
@@ -12061,7 +12065,7 @@
         <v>1867.2</v>
       </c>
     </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A214" s="13" t="s">
         <v>231</v>
       </c>
@@ -12108,7 +12112,7 @@
         <v>1883.9</v>
       </c>
     </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A215" s="13" t="s">
         <v>232</v>
       </c>
@@ -12155,7 +12159,7 @@
         <v>1889.5</v>
       </c>
     </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A216" s="13" t="s">
         <v>233</v>
       </c>
@@ -12202,7 +12206,7 @@
         <v>1906.2</v>
       </c>
     </row>
-    <row r="217" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A217" s="13" t="s">
         <v>234</v>
       </c>
@@ -12249,7 +12253,7 @@
         <v>1934</v>
       </c>
     </row>
-    <row r="218" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A218" s="13" t="s">
         <v>235</v>
       </c>
@@ -12296,7 +12300,7 @@
         <v>1950.7</v>
       </c>
     </row>
-    <row r="219" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A219" s="13" t="s">
         <v>236</v>
       </c>
@@ -12343,7 +12347,7 @@
         <v>1967.4</v>
       </c>
     </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A220" s="13" t="s">
         <v>237</v>
       </c>
@@ -12390,7 +12394,7 @@
         <v>1961.8</v>
       </c>
     </row>
-    <row r="221" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A221" s="13" t="s">
         <v>238</v>
       </c>
@@ -12437,7 +12441,7 @@
         <v>1967.4</v>
       </c>
     </row>
-    <row r="222" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A222" s="13" t="s">
         <v>239</v>
       </c>
@@ -12484,7 +12488,7 @@
         <v>1961.8</v>
       </c>
     </row>
-    <row r="223" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A223" s="13" t="s">
         <v>240</v>
       </c>
@@ -12531,7 +12535,7 @@
         <v>1934</v>
       </c>
     </row>
-    <row r="224" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A224" s="13" t="s">
         <v>241</v>
       </c>
@@ -12578,7 +12582,7 @@
         <v>1906.2</v>
       </c>
     </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A225" s="13" t="s">
         <v>242</v>
       </c>
@@ -12625,7 +12629,7 @@
         <v>1856.2</v>
       </c>
     </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A226" s="13" t="s">
         <v>243</v>
       </c>
@@ -12672,7 +12676,7 @@
         <v>1828.4</v>
       </c>
     </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A227" s="13" t="s">
         <v>244</v>
       </c>
@@ -12719,7 +12723,7 @@
         <v>1800.6</v>
       </c>
     </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A228" s="13" t="s">
         <v>245</v>
       </c>
@@ -12766,7 +12770,7 @@
         <v>1783.9</v>
       </c>
     </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A229" s="13" t="s">
         <v>246</v>
       </c>
@@ -12813,7 +12817,7 @@
         <v>1761.7</v>
       </c>
     </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A230" s="13" t="s">
         <v>247</v>
       </c>
@@ -12860,7 +12864,7 @@
         <v>1728.4</v>
       </c>
     </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A231" s="13" t="s">
         <v>248</v>
       </c>
@@ -12907,7 +12911,7 @@
         <v>1700.6</v>
       </c>
     </row>
-    <row r="232" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A232" s="13" t="s">
         <v>249</v>
       </c>
@@ -12954,7 +12958,7 @@
         <v>1683.9</v>
       </c>
     </row>
-    <row r="233" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A233" s="13" t="s">
         <v>250</v>
       </c>
@@ -13001,7 +13005,7 @@
         <v>1656.1</v>
       </c>
     </row>
-    <row r="234" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A234" s="13" t="s">
         <v>251</v>
       </c>
@@ -13048,7 +13052,7 @@
         <v>1639.4</v>
       </c>
     </row>
-    <row r="235" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A235" s="13" t="s">
         <v>252</v>
       </c>
@@ -13095,7 +13099,7 @@
         <v>1645</v>
       </c>
     </row>
-    <row r="236" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A236" s="13" t="s">
         <v>253</v>
       </c>
@@ -13142,7 +13146,7 @@
         <v>1628.3</v>
       </c>
     </row>
-    <row r="237" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A237" s="13" t="s">
         <v>254</v>
       </c>
@@ -13189,7 +13193,7 @@
         <v>1611.6</v>
       </c>
     </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A238" s="13" t="s">
         <v>255</v>
       </c>
@@ -13236,7 +13240,7 @@
         <v>1578.3</v>
       </c>
     </row>
-    <row r="239" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A239" s="13" t="s">
         <v>256</v>
       </c>
@@ -13283,7 +13287,7 @@
         <v>1561.6</v>
       </c>
     </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A240" s="13" t="s">
         <v>257</v>
       </c>
@@ -13330,7 +13334,7 @@
         <v>1550.5</v>
       </c>
     </row>
-    <row r="241" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A241" s="13" t="s">
         <v>258</v>
       </c>
@@ -13377,7 +13381,7 @@
         <v>1550.5</v>
       </c>
     </row>
-    <row r="242" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A242" s="13" t="s">
         <v>259</v>
       </c>
@@ -13424,7 +13428,7 @@
         <v>1550.5</v>
       </c>
     </row>
-    <row r="243" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A243" s="13" t="s">
         <v>260</v>
       </c>
@@ -13471,7 +13475,7 @@
         <v>1561.6</v>
       </c>
     </row>
-    <row r="244" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A244" s="13" t="s">
         <v>261</v>
       </c>
@@ -13518,7 +13522,7 @@
         <v>1556</v>
       </c>
     </row>
-    <row r="245" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A245" s="13" t="s">
         <v>262</v>
       </c>
@@ -13565,7 +13569,7 @@
         <v>1550.4</v>
       </c>
     </row>
-    <row r="246" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A246" s="13" t="s">
         <v>263</v>
       </c>
@@ -13612,7 +13616,7 @@
         <v>1544.8</v>
       </c>
     </row>
-    <row r="247" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A247" s="13" t="s">
         <v>264</v>
       </c>
@@ -13659,7 +13663,7 @@
         <v>1539.2</v>
       </c>
     </row>
-    <row r="248" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A248" s="13" t="s">
         <v>265</v>
       </c>
@@ -13706,7 +13710,7 @@
         <v>1550.3</v>
       </c>
     </row>
-    <row r="249" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A249" s="13" t="s">
         <v>266</v>
       </c>
@@ -13753,7 +13757,7 @@
         <v>1578.1</v>
       </c>
     </row>
-    <row r="250" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A250" s="13" t="s">
         <v>267</v>
       </c>
@@ -13800,7 +13804,7 @@
         <v>1594.8</v>
       </c>
     </row>
-    <row r="251" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A251" s="13" t="s">
         <v>268</v>
       </c>
@@ -13847,7 +13851,7 @@
         <v>1600.4</v>
       </c>
     </row>
-    <row r="252" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A252" s="13" t="s">
         <v>269</v>
       </c>
@@ -13894,7 +13898,7 @@
         <v>1578.2</v>
       </c>
     </row>
-    <row r="253" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A253" s="13" t="s">
         <v>270</v>
       </c>
@@ -13941,7 +13945,7 @@
         <v>1578.2</v>
       </c>
     </row>
-    <row r="254" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A254" s="13" t="s">
         <v>271</v>
       </c>
@@ -13988,7 +13992,7 @@
         <v>1556</v>
       </c>
     </row>
-    <row r="255" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A255" s="13" t="s">
         <v>272</v>
       </c>
@@ -14035,7 +14039,7 @@
         <v>1539.3</v>
       </c>
     </row>
-    <row r="256" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A256" s="13" t="s">
         <v>273</v>
       </c>
@@ -14082,7 +14086,7 @@
         <v>1550.4</v>
       </c>
     </row>
-    <row r="257" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A257" s="13" t="s">
         <v>274</v>
       </c>
@@ -14129,7 +14133,7 @@
         <v>1556</v>
       </c>
     </row>
-    <row r="258" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A258" s="13" t="s">
         <v>275</v>
       </c>
@@ -14176,7 +14180,7 @@
         <v>1572.7</v>
       </c>
     </row>
-    <row r="259" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A259" s="13" t="s">
         <v>276</v>
       </c>
@@ -14223,7 +14227,7 @@
         <v>1544.9</v>
       </c>
     </row>
-    <row r="260" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A260" s="13" t="s">
         <v>277</v>
       </c>
@@ -14270,7 +14274,7 @@
         <v>1550.5</v>
       </c>
     </row>
-    <row r="261" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A261" s="13" t="s">
         <v>278</v>
       </c>
@@ -14317,7 +14321,7 @@
         <v>1539.4</v>
       </c>
     </row>
-    <row r="262" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A262" s="13" t="s">
         <v>279</v>
       </c>
@@ -14364,7 +14368,7 @@
         <v>1517.2</v>
       </c>
     </row>
-    <row r="263" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A263" s="13" t="s">
         <v>280</v>
       </c>
@@ -14411,7 +14415,7 @@
         <v>1506.1</v>
       </c>
     </row>
-    <row r="264" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A264" s="13" t="s">
         <v>281</v>
       </c>
@@ -14458,7 +14462,7 @@
         <v>1489.4</v>
       </c>
     </row>
-    <row r="265" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A265" s="13" t="s">
         <v>282</v>
       </c>
@@ -14505,7 +14509,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="266" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A266" s="13" t="s">
         <v>283</v>
       </c>
@@ -14552,7 +14556,7 @@
         <v>1483.9</v>
       </c>
     </row>
-    <row r="267" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A267" s="13" t="s">
         <v>284</v>
       </c>
@@ -14599,7 +14603,7 @@
         <v>1483.9</v>
       </c>
     </row>
-    <row r="268" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A268" s="13" t="s">
         <v>285</v>
       </c>
@@ -14646,7 +14650,7 @@
         <v>1478.3</v>
       </c>
     </row>
-    <row r="269" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A269" s="13" t="s">
         <v>286</v>
       </c>
@@ -14693,7 +14697,7 @@
         <v>1467.2</v>
       </c>
     </row>
-    <row r="270" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A270" s="13" t="s">
         <v>287</v>
       </c>
@@ -14740,7 +14744,7 @@
         <v>1433.9</v>
       </c>
     </row>
-    <row r="271" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A271" s="13" t="s">
         <v>288</v>
       </c>
@@ -14787,7 +14791,7 @@
         <v>1417.2</v>
       </c>
     </row>
-    <row r="272" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A272" s="13" t="s">
         <v>289</v>
       </c>
@@ -14834,7 +14838,7 @@
         <v>1395</v>
       </c>
     </row>
-    <row r="273" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A273" s="13" t="s">
         <v>290</v>
       </c>
@@ -14881,7 +14885,7 @@
         <v>1400.6</v>
       </c>
     </row>
-    <row r="274" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A274" s="13" t="s">
         <v>291</v>
       </c>
@@ -14928,7 +14932,7 @@
         <v>1378.4</v>
       </c>
     </row>
-    <row r="275" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A275" s="13" t="s">
         <v>292</v>
       </c>
@@ -14975,7 +14979,7 @@
         <v>1367.3</v>
       </c>
     </row>
-    <row r="276" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A276" s="13" t="s">
         <v>293</v>
       </c>
@@ -15022,7 +15026,7 @@
         <v>1350.6</v>
       </c>
     </row>
-    <row r="277" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A277" s="13" t="s">
         <v>294</v>
       </c>
@@ -15069,7 +15073,7 @@
         <v>1356.2</v>
       </c>
     </row>
-    <row r="278" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A278" s="13" t="s">
         <v>295</v>
       </c>
@@ -15116,7 +15120,7 @@
         <v>1350.6</v>
       </c>
     </row>
-    <row r="279" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A279" s="13" t="s">
         <v>296</v>
       </c>
@@ -15163,7 +15167,7 @@
         <v>1350.6</v>
       </c>
     </row>
-    <row r="280" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A280" s="13" t="s">
         <v>297</v>
       </c>
@@ -15210,7 +15214,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="281" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A281" s="13" t="s">
         <v>298</v>
       </c>
@@ -15257,7 +15261,7 @@
         <v>1350.6</v>
       </c>
     </row>
-    <row r="282" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A282" s="13" t="s">
         <v>299</v>
       </c>
@@ -15304,7 +15308,7 @@
         <v>1378.4</v>
       </c>
     </row>
-    <row r="283" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A283" s="13" t="s">
         <v>300</v>
       </c>
@@ -15351,7 +15355,7 @@
         <v>1372.8</v>
       </c>
     </row>
-    <row r="284" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A284" s="13" t="s">
         <v>301</v>
       </c>
@@ -15398,7 +15402,7 @@
         <v>1383.9</v>
       </c>
     </row>
-    <row r="285" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A285" s="13" t="s">
         <v>302</v>
       </c>
@@ -15445,7 +15449,7 @@
         <v>1395</v>
       </c>
     </row>
-    <row r="286" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A286" s="13" t="s">
         <v>303</v>
       </c>
@@ -15492,7 +15496,7 @@
         <v>1411.7</v>
       </c>
     </row>
-    <row r="287" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A287" s="13" t="s">
         <v>304</v>
       </c>
@@ -15539,7 +15543,7 @@
         <v>1422.8</v>
       </c>
     </row>
-    <row r="288" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A288" s="13" t="s">
         <v>305</v>
       </c>
@@ -15586,7 +15590,7 @@
         <v>1439.5</v>
       </c>
     </row>
-    <row r="289" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A289" s="13" t="s">
         <v>306</v>
       </c>
@@ -15633,7 +15637,7 @@
         <v>1467.3</v>
       </c>
     </row>
-    <row r="290" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A290" s="13" t="s">
         <v>307</v>
       </c>
@@ -15680,7 +15684,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="291" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A291" s="13" t="s">
         <v>308</v>
       </c>
@@ -15727,7 +15731,7 @@
         <v>1511.8</v>
       </c>
     </row>
-    <row r="292" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A292" s="13" t="s">
         <v>309</v>
       </c>
@@ -15774,7 +15778,7 @@
         <v>1550.7</v>
       </c>
     </row>
-    <row r="293" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A293" s="13" t="s">
         <v>310</v>
       </c>
@@ -15821,7 +15825,7 @@
         <v>1567.4</v>
       </c>
     </row>
-    <row r="294" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A294" s="13" t="s">
         <v>311</v>
       </c>
@@ -15868,7 +15872,7 @@
         <v>1584.1</v>
       </c>
     </row>
-    <row r="295" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A295" s="13" t="s">
         <v>312</v>
       </c>
@@ -15915,7 +15919,7 @@
         <v>1606.3</v>
       </c>
     </row>
-    <row r="296" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A296" s="13" t="s">
         <v>313</v>
       </c>
@@ -15962,7 +15966,7 @@
         <v>1634.1</v>
       </c>
     </row>
-    <row r="297" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A297" s="13" t="s">
         <v>314</v>
       </c>
@@ -16009,7 +16013,7 @@
         <v>1650.8</v>
       </c>
     </row>
-    <row r="298" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A298" s="13" t="s">
         <v>315</v>
       </c>
@@ -16056,7 +16060,7 @@
         <v>1656.4</v>
       </c>
     </row>
-    <row r="299" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A299" s="13" t="s">
         <v>316</v>
       </c>
@@ -16103,7 +16107,7 @@
         <v>1684.2</v>
       </c>
     </row>
-    <row r="300" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A300" s="13" t="s">
         <v>317</v>
       </c>
@@ -16150,7 +16154,7 @@
         <v>1717.5</v>
       </c>
     </row>
-    <row r="301" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A301" s="13" t="s">
         <v>318</v>
       </c>
@@ -16197,7 +16201,7 @@
         <v>1728.6</v>
       </c>
     </row>
-    <row r="302" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A302" s="13" t="s">
         <v>319</v>
       </c>
@@ -16244,7 +16248,7 @@
         <v>1750.8</v>
       </c>
     </row>
-    <row r="303" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A303" s="13" t="s">
         <v>320</v>
       </c>
@@ -16291,7 +16295,7 @@
         <v>1795.2</v>
       </c>
     </row>
-    <row r="304" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A304" s="13" t="s">
         <v>321</v>
       </c>
@@ -16338,7 +16342,7 @@
         <v>1806.3</v>
       </c>
     </row>
-    <row r="305" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A305" s="13" t="s">
         <v>322</v>
       </c>
@@ -16385,7 +16389,7 @@
         <v>1811.9</v>
       </c>
     </row>
-    <row r="306" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A306" s="13" t="s">
         <v>323</v>
       </c>
@@ -16432,7 +16436,7 @@
         <v>1806.3</v>
       </c>
     </row>
-    <row r="307" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A307" s="13" t="s">
         <v>324</v>
       </c>
@@ -16479,7 +16483,7 @@
         <v>1817.4</v>
       </c>
     </row>
-    <row r="308" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A308" s="13" t="s">
         <v>325</v>
       </c>
@@ -16526,7 +16530,7 @@
         <v>1817.4</v>
       </c>
     </row>
-    <row r="309" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A309" s="13" t="s">
         <v>326</v>
       </c>
@@ -16573,7 +16577,7 @@
         <v>1823</v>
       </c>
     </row>
-    <row r="310" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A310" s="13" t="s">
         <v>327</v>
       </c>
@@ -16620,7 +16624,7 @@
         <v>1850.8</v>
       </c>
     </row>
-    <row r="311" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A311" s="13" t="s">
         <v>328</v>
       </c>
@@ -16667,7 +16671,7 @@
         <v>1867.5</v>
       </c>
     </row>
-    <row r="312" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A312" s="13" t="s">
         <v>329</v>
       </c>
@@ -16714,7 +16718,7 @@
         <v>1884.2</v>
       </c>
     </row>
-    <row r="313" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A313" s="13" t="s">
         <v>330</v>
       </c>
@@ -16761,7 +16765,7 @@
         <v>1873.1</v>
       </c>
     </row>
-    <row r="314" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A314" s="13" t="s">
         <v>331</v>
       </c>
@@ -16808,7 +16812,7 @@
         <v>1889.8</v>
       </c>
     </row>
-    <row r="315" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A315" s="13" t="s">
         <v>332</v>
       </c>
@@ -16855,7 +16859,7 @@
         <v>1917.6</v>
       </c>
     </row>
-    <row r="316" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A316" s="13" t="s">
         <v>333</v>
       </c>
@@ -16902,7 +16906,7 @@
         <v>1939.8</v>
       </c>
     </row>
-    <row r="317" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A317" s="13" t="s">
         <v>334</v>
       </c>
@@ -16949,7 +16953,7 @@
         <v>1945.4</v>
       </c>
     </row>
-    <row r="318" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A318" s="13" t="s">
         <v>335</v>
       </c>
@@ -16996,7 +17000,7 @@
         <v>1951</v>
       </c>
     </row>
-    <row r="319" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A319" s="13" t="s">
         <v>336</v>
       </c>
@@ -17043,7 +17047,7 @@
         <v>1962.1</v>
       </c>
     </row>
-    <row r="320" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A320" s="13" t="s">
         <v>337</v>
       </c>
@@ -17090,7 +17094,7 @@
         <v>1984.3</v>
       </c>
     </row>
-    <row r="321" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A321" s="13" t="s">
         <v>338</v>
       </c>
@@ -17137,7 +17141,7 @@
         <v>2012.1</v>
       </c>
     </row>
-    <row r="322" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A322" s="13" t="s">
         <v>339</v>
       </c>
@@ -17184,7 +17188,7 @@
         <v>2045.4</v>
       </c>
     </row>
-    <row r="323" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A323" s="13" t="s">
         <v>340</v>
       </c>
@@ -17231,7 +17235,7 @@
         <v>2067.6</v>
       </c>
     </row>
-    <row r="324" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A324" s="13" t="s">
         <v>341</v>
       </c>
@@ -17278,7 +17282,7 @@
         <v>2106.5</v>
       </c>
     </row>
-    <row r="325" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A325" s="13" t="s">
         <v>342</v>
       </c>
@@ -17325,7 +17329,7 @@
         <v>2134.3000000000002</v>
       </c>
     </row>
-    <row r="326" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A326" s="13" t="s">
         <v>343</v>
       </c>
@@ -17372,7 +17376,7 @@
         <v>2151</v>
       </c>
     </row>
-    <row r="327" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A327" s="13" t="s">
         <v>344</v>
       </c>
@@ -17419,7 +17423,7 @@
         <v>2162.1</v>
       </c>
     </row>
-    <row r="328" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A328" s="13" t="s">
         <v>345</v>
       </c>
@@ -17466,7 +17470,7 @@
         <v>2173.1999999999998</v>
       </c>
     </row>
-    <row r="329" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A329" s="13" t="s">
         <v>346</v>
       </c>
@@ -17513,7 +17517,7 @@
         <v>2189.9</v>
       </c>
     </row>
-    <row r="330" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A330" s="13" t="s">
         <v>347</v>
       </c>
@@ -17560,7 +17564,7 @@
         <v>2217.6999999999998</v>
       </c>
     </row>
-    <row r="331" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A331" s="13" t="s">
         <v>348</v>
       </c>
@@ -17607,7 +17611,7 @@
         <v>2228.8000000000002</v>
       </c>
     </row>
-    <row r="332" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A332" s="13" t="s">
         <v>349</v>
       </c>
@@ -17654,7 +17658,7 @@
         <v>2201</v>
       </c>
     </row>
-    <row r="333" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A333" s="13" t="s">
         <v>350</v>
       </c>
@@ -17701,7 +17705,7 @@
         <v>2195.4</v>
       </c>
     </row>
-    <row r="334" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A334" s="13" t="s">
         <v>351</v>
       </c>
@@ -17748,7 +17752,7 @@
         <v>2189.8000000000002</v>
       </c>
     </row>
-    <row r="335" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A335" s="13" t="s">
         <v>352</v>
       </c>
@@ -17795,7 +17799,7 @@
         <v>2217.6</v>
       </c>
     </row>
-    <row r="336" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A336" s="13" t="s">
         <v>353</v>
       </c>
@@ -17842,7 +17846,7 @@
         <v>2245.4</v>
       </c>
     </row>
-    <row r="337" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A337" s="13" t="s">
         <v>354</v>
       </c>
@@ -17889,7 +17893,7 @@
         <v>2284.3000000000002</v>
       </c>
     </row>
-    <row r="338" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A338" s="13" t="s">
         <v>355</v>
       </c>
@@ -17936,7 +17940,7 @@
         <v>2306.5</v>
       </c>
     </row>
-    <row r="339" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A339" s="13" t="s">
         <v>356</v>
       </c>
@@ -17983,7 +17987,7 @@
         <v>2317.6</v>
       </c>
     </row>
-    <row r="340" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A340" s="13" t="s">
         <v>357</v>
       </c>
@@ -18030,7 +18034,7 @@
         <v>2334.3000000000002</v>
       </c>
     </row>
-    <row r="341" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A341" s="13" t="s">
         <v>358</v>
       </c>
@@ -18077,7 +18081,7 @@
         <v>2351</v>
       </c>
     </row>
-    <row r="342" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A342" s="13" t="s">
         <v>359</v>
       </c>
@@ -18124,7 +18128,7 @@
         <v>2378.8000000000002</v>
       </c>
     </row>
-    <row r="343" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A343" s="13" t="s">
         <v>360</v>
       </c>
@@ -18171,7 +18175,7 @@
         <v>2406.6</v>
       </c>
     </row>
-    <row r="344" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A344" s="13" t="s">
         <v>361</v>
       </c>
@@ -18218,7 +18222,7 @@
         <v>2401</v>
       </c>
     </row>
-    <row r="345" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A345" s="13" t="s">
         <v>362</v>
       </c>
@@ -18265,7 +18269,7 @@
         <v>2389.9</v>
       </c>
     </row>
-    <row r="346" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A346" s="13" t="s">
         <v>363</v>
       </c>
@@ -18312,7 +18316,7 @@
         <v>2351</v>
       </c>
     </row>
-    <row r="347" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A347" s="13" t="s">
         <v>364</v>
       </c>
@@ -18359,7 +18363,7 @@
         <v>2323.1999999999998</v>
       </c>
     </row>
-    <row r="348" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A348" s="13" t="s">
         <v>365</v>
       </c>
@@ -18406,7 +18410,7 @@
         <v>2295.4</v>
       </c>
     </row>
-    <row r="349" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A349" s="13" t="s">
         <v>366</v>
       </c>
@@ -18453,7 +18457,7 @@
         <v>2278.6999999999998</v>
       </c>
     </row>
-    <row r="350" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A350" s="13" t="s">
         <v>367</v>
       </c>
@@ -18500,7 +18504,7 @@
         <v>2239.8000000000002</v>
       </c>
     </row>
-    <row r="351" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A351" s="13" t="s">
         <v>368</v>
       </c>
@@ -18547,7 +18551,7 @@
         <v>2223.1</v>
       </c>
     </row>
-    <row r="352" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A352" s="13" t="s">
         <v>369</v>
       </c>
@@ -18594,7 +18598,7 @@
         <v>2184.1999999999998</v>
       </c>
     </row>
-    <row r="353" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A353" s="13" t="s">
         <v>370</v>
       </c>
@@ -18641,7 +18645,7 @@
         <v>2178.6</v>
       </c>
     </row>
-    <row r="354" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A354" s="13" t="s">
         <v>371</v>
       </c>
@@ -18688,7 +18692,7 @@
         <v>2128.6</v>
       </c>
     </row>
-    <row r="355" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A355" s="13" t="s">
         <v>372</v>
       </c>
@@ -18735,7 +18739,7 @@
         <v>2078.6</v>
       </c>
     </row>
-    <row r="356" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A356" s="13" t="s">
         <v>373</v>
       </c>
@@ -18782,7 +18786,7 @@
         <v>2028.6</v>
       </c>
     </row>
-    <row r="357" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A357" s="13" t="s">
         <v>374</v>
       </c>
@@ -18829,7 +18833,7 @@
         <v>1989.7</v>
       </c>
     </row>
-    <row r="358" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A358" s="13" t="s">
         <v>375</v>
       </c>
@@ -18876,7 +18880,7 @@
         <v>1950.8</v>
       </c>
     </row>
-    <row r="359" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A359" s="13" t="s">
         <v>376</v>
       </c>
@@ -18923,7 +18927,7 @@
         <v>1923</v>
       </c>
     </row>
-    <row r="360" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A360" s="13" t="s">
         <v>377</v>
       </c>
@@ -18970,7 +18974,7 @@
         <v>1884.1</v>
       </c>
     </row>
-    <row r="361" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A361" s="13" t="s">
         <v>378</v>
       </c>
@@ -19017,7 +19021,7 @@
         <v>1845.2</v>
       </c>
     </row>
-    <row r="362" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A362" s="13" t="s">
         <v>379</v>
       </c>
@@ -19064,7 +19068,7 @@
         <v>1828.5</v>
       </c>
     </row>
-    <row r="363" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A363" s="13" t="s">
         <v>380</v>
       </c>
@@ -19111,7 +19115,7 @@
         <v>1811.8</v>
       </c>
     </row>
-    <row r="364" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A364" s="13" t="s">
         <v>381</v>
       </c>
@@ -19158,7 +19162,7 @@
         <v>1800.7</v>
       </c>
     </row>
-    <row r="365" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A365" s="13" t="s">
         <v>382</v>
       </c>
@@ -19205,7 +19209,7 @@
         <v>1784</v>
       </c>
     </row>
-    <row r="366" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A366" s="13" t="s">
         <v>383</v>
       </c>
@@ -19252,7 +19256,7 @@
         <v>1789.6</v>
       </c>
     </row>
-    <row r="367" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A367" s="13" t="s">
         <v>384</v>
       </c>
@@ -19299,7 +19303,7 @@
         <v>1806.3</v>
       </c>
     </row>
-    <row r="368" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A368" s="13" t="s">
         <v>385</v>
       </c>
@@ -19346,7 +19350,7 @@
         <v>1811.9</v>
       </c>
     </row>
-    <row r="369" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A369" s="13" t="s">
         <v>386</v>
       </c>
@@ -19393,7 +19397,7 @@
         <v>1828.6</v>
       </c>
     </row>
-    <row r="370" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A370" s="13" t="s">
         <v>387</v>
       </c>
@@ -19440,7 +19444,7 @@
         <v>1811.9</v>
       </c>
     </row>
-    <row r="371" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A371" s="13" t="s">
         <v>388</v>
       </c>
@@ -19487,7 +19491,7 @@
         <v>1811.9</v>
       </c>
     </row>
-    <row r="372" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A372" s="13" t="s">
         <v>389</v>
       </c>
@@ -19534,7 +19538,7 @@
         <v>1806.3</v>
       </c>
     </row>
-    <row r="373" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A373" s="13" t="s">
         <v>390</v>
       </c>
@@ -19581,7 +19585,7 @@
         <v>1845.2</v>
       </c>
     </row>
-    <row r="374" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A374" s="13" t="s">
         <v>391</v>
       </c>
@@ -19628,7 +19632,7 @@
         <v>1867.4</v>
       </c>
     </row>
-    <row r="375" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A375" s="13" t="s">
         <v>392</v>
       </c>
@@ -19675,7 +19679,7 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="376" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A376" s="13" t="s">
         <v>393</v>
       </c>
@@ -19722,7 +19726,7 @@
         <v>1878.6</v>
       </c>
     </row>
-    <row r="377" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A377" s="13" t="s">
         <v>394</v>
       </c>
@@ -19769,7 +19773,7 @@
         <v>1906.4</v>
       </c>
     </row>
-    <row r="378" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A378" s="13" t="s">
         <v>395</v>
       </c>
@@ -19816,7 +19820,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="379" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A379" s="13" t="s">
         <v>396</v>
       </c>
@@ -19863,7 +19867,7 @@
         <v>1906.4</v>
       </c>
     </row>
-    <row r="380" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A380" s="13" t="s">
         <v>397</v>
       </c>
@@ -19910,7 +19914,7 @@
         <v>1923.1</v>
       </c>
     </row>
-    <row r="381" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A381" s="13" t="s">
         <v>398</v>
       </c>
@@ -19957,7 +19961,7 @@
         <v>1900.9</v>
       </c>
     </row>
-    <row r="382" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A382" s="13" t="s">
         <v>399</v>
       </c>
@@ -20004,7 +20008,7 @@
         <v>1884.2</v>
       </c>
     </row>
-    <row r="383" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A383" s="13" t="s">
         <v>400</v>
       </c>
@@ -20051,7 +20055,7 @@
         <v>1856.4</v>
       </c>
     </row>
-    <row r="384" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A384" s="13" t="s">
         <v>401</v>
       </c>
@@ -20098,7 +20102,7 @@
         <v>1873.1</v>
       </c>
     </row>
-    <row r="385" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A385" s="13" t="s">
         <v>402</v>
       </c>
@@ -20145,7 +20149,7 @@
         <v>1873.1</v>
       </c>
     </row>
-    <row r="386" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A386" s="13" t="s">
         <v>403</v>
       </c>
@@ -20192,7 +20196,7 @@
         <v>1900.9</v>
       </c>
     </row>
-    <row r="387" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A387" s="13" t="s">
         <v>404</v>
       </c>
@@ -20239,7 +20243,7 @@
         <v>1928.7</v>
       </c>
     </row>
-    <row r="388" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A388" s="13" t="s">
         <v>405</v>
       </c>
@@ -20286,7 +20290,7 @@
         <v>1945.4</v>
       </c>
     </row>
-    <row r="389" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A389" s="13" t="s">
         <v>406</v>
       </c>
@@ -20333,7 +20337,7 @@
         <v>1951</v>
       </c>
     </row>
-    <row r="390" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A390" s="13" t="s">
         <v>407</v>
       </c>
@@ -20380,7 +20384,7 @@
         <v>1939.9</v>
       </c>
     </row>
-    <row r="391" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A391" s="13" t="s">
         <v>408</v>
       </c>
@@ -20427,7 +20431,7 @@
         <v>1912.1</v>
       </c>
     </row>
-    <row r="392" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A392" s="13" t="s">
         <v>409</v>
       </c>
@@ -20474,7 +20478,7 @@
         <v>1917.7</v>
       </c>
     </row>
-    <row r="393" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A393" s="13" t="s">
         <v>410</v>
       </c>
@@ -20521,7 +20525,7 @@
         <v>1939.9</v>
       </c>
     </row>
-    <row r="394" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A394" s="13" t="s">
         <v>411</v>
       </c>
@@ -20568,7 +20572,7 @@
         <v>1967.7</v>
       </c>
     </row>
-    <row r="395" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A395" s="13" t="s">
         <v>412</v>
       </c>
@@ -20615,7 +20619,7 @@
         <v>1973.3</v>
       </c>
     </row>
-    <row r="396" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A396" s="13" t="s">
         <v>413</v>
       </c>
@@ -20662,7 +20666,7 @@
         <v>1967.7</v>
       </c>
     </row>
-    <row r="397" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A397" s="13" t="s">
         <v>414</v>
       </c>
@@ -20709,7 +20713,7 @@
         <v>1939.9</v>
       </c>
     </row>
-    <row r="398" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A398" s="13" t="s">
         <v>415</v>
       </c>
@@ -20756,7 +20760,7 @@
         <v>1923.2</v>
       </c>
     </row>
-    <row r="399" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A399" s="13" t="s">
         <v>416</v>
       </c>
@@ -20803,7 +20807,7 @@
         <v>1917.6</v>
       </c>
     </row>
-    <row r="400" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A400" s="13" t="s">
         <v>417</v>
       </c>
@@ -20850,7 +20854,7 @@
         <v>1939.8</v>
       </c>
     </row>
-    <row r="401" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A401" s="13" t="s">
         <v>418</v>
       </c>
@@ -20897,7 +20901,7 @@
         <v>1956.5</v>
       </c>
     </row>
-    <row r="402" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A402" s="13" t="s">
         <v>419</v>
       </c>
@@ -20944,7 +20948,7 @@
         <v>1950.9</v>
       </c>
     </row>
-    <row r="403" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A403" s="13" t="s">
         <v>420</v>
       </c>
@@ -20991,7 +20995,7 @@
         <v>1934.2</v>
       </c>
     </row>
-    <row r="404" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A404" s="13" t="s">
         <v>421</v>
       </c>
@@ -21038,7 +21042,7 @@
         <v>1928.6</v>
       </c>
     </row>
-    <row r="405" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A405" s="13" t="s">
         <v>422</v>
       </c>
@@ -21085,7 +21089,7 @@
         <v>1923</v>
       </c>
     </row>
-    <row r="406" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A406" s="13" t="s">
         <v>423</v>
       </c>
@@ -21132,7 +21136,7 @@
         <v>1917.4</v>
       </c>
     </row>
-    <row r="407" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A407" s="13" t="s">
         <v>424</v>
       </c>
@@ -21179,7 +21183,7 @@
         <v>1923</v>
       </c>
     </row>
-    <row r="408" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A408" s="13" t="s">
         <v>425</v>
       </c>
@@ -21226,7 +21230,7 @@
         <v>1928.6</v>
       </c>
     </row>
-    <row r="409" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A409" s="13" t="s">
         <v>426</v>
       </c>
@@ -21273,7 +21277,7 @@
         <v>1934.2</v>
       </c>
     </row>
-    <row r="410" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A410" s="13" t="s">
         <v>427</v>
       </c>
@@ -21320,7 +21324,7 @@
         <v>1945.3</v>
       </c>
     </row>
-    <row r="411" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A411" s="13" t="s">
         <v>428</v>
       </c>
@@ -21367,7 +21371,7 @@
         <v>1973.1</v>
       </c>
     </row>
-    <row r="412" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A412" s="13" t="s">
         <v>429</v>
       </c>
@@ -21414,7 +21418,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="413" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A413" s="13" t="s">
         <v>430</v>
       </c>
@@ -21461,7 +21465,7 @@
         <v>2039.8</v>
       </c>
     </row>
-    <row r="414" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A414" s="13" t="s">
         <v>431</v>
       </c>
@@ -21508,7 +21512,7 @@
         <v>2067.6</v>
       </c>
     </row>
-    <row r="415" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A415" s="13" t="s">
         <v>432</v>
       </c>
@@ -21555,7 +21559,7 @@
         <v>2117.6</v>
       </c>
     </row>
-    <row r="416" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A416" s="13" t="s">
         <v>433</v>
       </c>
@@ -21602,7 +21606,7 @@
         <v>2134.3000000000002</v>
       </c>
     </row>
-    <row r="417" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A417" s="13" t="s">
         <v>434</v>
       </c>
@@ -21649,7 +21653,7 @@
         <v>2145.4</v>
       </c>
     </row>
-    <row r="418" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A418" s="13" t="s">
         <v>435</v>
       </c>
@@ -21696,7 +21700,7 @@
         <v>2123.1999999999998</v>
       </c>
     </row>
-    <row r="419" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A419" s="13" t="s">
         <v>436</v>
       </c>
@@ -21743,7 +21747,7 @@
         <v>2139.9</v>
       </c>
     </row>
-    <row r="420" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A420" s="13" t="s">
         <v>437</v>
       </c>
@@ -21790,7 +21794,7 @@
         <v>2139.9</v>
       </c>
     </row>
-    <row r="421" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A421" s="13" t="s">
         <v>438</v>
       </c>
@@ -21837,7 +21841,7 @@
         <v>2173.1999999999998</v>
       </c>
     </row>
-    <row r="422" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A422" s="13" t="s">
         <v>439</v>
       </c>
@@ -21884,7 +21888,7 @@
         <v>2167.6</v>
       </c>
     </row>
-    <row r="423" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A423" s="13" t="s">
         <v>440</v>
       </c>
@@ -21931,7 +21935,7 @@
         <v>2162</v>
       </c>
     </row>
-    <row r="424" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A424" s="13" t="s">
         <v>441</v>
       </c>
@@ -21978,7 +21982,7 @@
         <v>2145.3000000000002</v>
       </c>
     </row>
-    <row r="425" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A425" s="13" t="s">
         <v>442</v>
       </c>
@@ -22025,7 +22029,7 @@
         <v>2139.6999999999998</v>
       </c>
     </row>
-    <row r="426" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A426" s="13" t="s">
         <v>443</v>
       </c>
@@ -22072,7 +22076,7 @@
         <v>2128.6</v>
       </c>
     </row>
-    <row r="427" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A427" s="13" t="s">
         <v>444</v>
       </c>
@@ -22119,7 +22123,7 @@
         <v>2145.3000000000002</v>
       </c>
     </row>
-    <row r="428" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A428" s="13" t="s">
         <v>445</v>
       </c>
@@ -22166,7 +22170,7 @@
         <v>2134.1999999999998</v>
       </c>
     </row>
-    <row r="429" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A429" s="13" t="s">
         <v>446</v>
       </c>
@@ -22213,7 +22217,7 @@
         <v>2139.8000000000002</v>
       </c>
     </row>
-    <row r="430" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A430" s="13" t="s">
         <v>447</v>
       </c>
@@ -22260,7 +22264,7 @@
         <v>2156.5</v>
       </c>
     </row>
-    <row r="431" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A431" s="13" t="s">
         <v>448</v>
       </c>
@@ -22307,7 +22311,7 @@
         <v>2173.1999999999998</v>
       </c>
     </row>
-    <row r="432" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A432" s="13" t="s">
         <v>449</v>
       </c>
@@ -22354,7 +22358,7 @@
         <v>2184.3000000000002</v>
       </c>
     </row>
-    <row r="433" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A433" s="13" t="s">
         <v>450</v>
       </c>
@@ -22401,7 +22405,7 @@
         <v>2178.6999999999998</v>
       </c>
     </row>
-    <row r="434" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A434" s="13" t="s">
         <v>451</v>
       </c>
@@ -22448,7 +22452,7 @@
         <v>2162</v>
       </c>
     </row>
-    <row r="435" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A435" s="13" t="s">
         <v>452</v>
       </c>
@@ -22495,7 +22499,7 @@
         <v>2167.6</v>
       </c>
     </row>
-    <row r="436" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A436" s="13" t="s">
         <v>453</v>
       </c>
@@ -22542,7 +22546,7 @@
         <v>2150.9</v>
       </c>
     </row>
-    <row r="437" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A437" s="13" t="s">
         <v>454</v>
       </c>
@@ -22589,7 +22593,7 @@
         <v>2167.6</v>
       </c>
     </row>
-    <row r="438" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A438" s="13" t="s">
         <v>455</v>
       </c>
@@ -22636,7 +22640,7 @@
         <v>2173.1999999999998</v>
       </c>
     </row>
-    <row r="439" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A439" s="13" t="s">
         <v>456</v>
       </c>
@@ -22683,7 +22687,7 @@
         <v>2184.3000000000002</v>
       </c>
     </row>
-    <row r="440" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A440" s="13" t="s">
         <v>457</v>
       </c>
@@ -22730,7 +22734,7 @@
         <v>2184.3000000000002</v>
       </c>
     </row>
-    <row r="441" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A441" s="13" t="s">
         <v>458</v>
       </c>
@@ -22777,7 +22781,7 @@
         <v>2189.9</v>
       </c>
     </row>
-    <row r="442" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A442" s="13" t="s">
         <v>459</v>
       </c>
@@ -22824,7 +22828,7 @@
         <v>2206.6</v>
       </c>
     </row>
-    <row r="443" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A443" s="13" t="s">
         <v>460</v>
       </c>
@@ -22871,7 +22875,7 @@
         <v>2189.9</v>
       </c>
     </row>
-    <row r="444" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A444" s="13" t="s">
         <v>461</v>
       </c>
@@ -22918,7 +22922,7 @@
         <v>2195.5</v>
       </c>
     </row>
-    <row r="445" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A445" s="13" t="s">
         <v>462</v>
       </c>
@@ -22965,7 +22969,7 @@
         <v>2212.1999999999998</v>
       </c>
     </row>
-    <row r="446" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A446" s="13" t="s">
         <v>463</v>
       </c>
@@ -23012,7 +23016,7 @@
         <v>2240</v>
       </c>
     </row>
-    <row r="447" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A447" s="13" t="s">
         <v>464</v>
       </c>
@@ -23059,7 +23063,7 @@
         <v>2262.1999999999998</v>
       </c>
     </row>
-    <row r="448" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A448" s="13" t="s">
         <v>465</v>
       </c>
@@ -23106,7 +23110,7 @@
         <v>2301.1</v>
       </c>
     </row>
-    <row r="449" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A449" s="13" t="s">
         <v>466</v>
       </c>
@@ -23153,7 +23157,7 @@
         <v>2328.9</v>
       </c>
     </row>
-    <row r="450" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A450" s="13" t="s">
         <v>467</v>
       </c>
@@ -23200,7 +23204,7 @@
         <v>2356.6999999999998</v>
       </c>
     </row>
-    <row r="451" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A451" s="13" t="s">
         <v>468</v>
       </c>
@@ -23247,7 +23251,7 @@
         <v>2384.5</v>
       </c>
     </row>
-    <row r="452" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A452" s="13" t="s">
         <v>469</v>
       </c>
@@ -23294,7 +23298,7 @@
         <v>2423.4</v>
       </c>
     </row>
-    <row r="453" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A453" s="13" t="s">
         <v>470</v>
       </c>
@@ -23341,7 +23345,7 @@
         <v>2462.3000000000002</v>
       </c>
     </row>
-    <row r="454" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A454" s="13" t="s">
         <v>471</v>
       </c>
@@ -23388,7 +23392,7 @@
         <v>2479</v>
       </c>
     </row>
-    <row r="455" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A455" s="13" t="s">
         <v>472</v>
       </c>
@@ -23435,7 +23439,7 @@
         <v>2495.6999999999998</v>
       </c>
     </row>
-    <row r="456" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A456" s="13" t="s">
         <v>473</v>
       </c>
@@ -23482,7 +23486,7 @@
         <v>2501.3000000000002</v>
       </c>
     </row>
-    <row r="457" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A457" s="13" t="s">
         <v>474</v>
       </c>
@@ -23529,7 +23533,7 @@
         <v>2506.9</v>
       </c>
     </row>
-    <row r="458" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A458" s="13" t="s">
         <v>475</v>
       </c>
@@ -23576,7 +23580,7 @@
         <v>2512.5</v>
       </c>
     </row>
-    <row r="459" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A459" s="13" t="s">
         <v>476</v>
       </c>
@@ -23623,7 +23627,7 @@
         <v>2540.3000000000002</v>
       </c>
     </row>
-    <row r="460" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A460" s="13" t="s">
         <v>477</v>
       </c>
@@ -23670,7 +23674,7 @@
         <v>2584.6999999999998</v>
       </c>
     </row>
-    <row r="461" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A461" s="13" t="s">
         <v>478</v>
       </c>
@@ -23717,7 +23721,7 @@
         <v>2634.7</v>
       </c>
     </row>
-    <row r="462" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A462" s="13" t="s">
         <v>479</v>
       </c>
@@ -23764,7 +23768,7 @@
         <v>2673.6</v>
       </c>
     </row>
-    <row r="463" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A463" s="13" t="s">
         <v>480</v>
       </c>
@@ -23811,7 +23815,7 @@
         <v>2673.6</v>
       </c>
     </row>
-    <row r="464" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A464" s="13" t="s">
         <v>481</v>
       </c>
@@ -23858,7 +23862,7 @@
         <v>2695.8</v>
       </c>
     </row>
-    <row r="465" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A465" s="13" t="s">
         <v>482</v>
       </c>
@@ -23905,7 +23909,7 @@
         <v>2706.9</v>
       </c>
     </row>
-    <row r="466" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A466" s="13" t="s">
         <v>483</v>
       </c>
@@ -23952,7 +23956,7 @@
         <v>2712.5</v>
       </c>
     </row>
-    <row r="467" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A467" s="13" t="s">
         <v>484</v>
       </c>
@@ -23999,7 +24003,7 @@
         <v>2718.1</v>
       </c>
     </row>
-    <row r="468" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A468" s="13" t="s">
         <v>485</v>
       </c>
@@ -24046,7 +24050,7 @@
         <v>2723.7</v>
       </c>
     </row>
-    <row r="469" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A469" s="13" t="s">
         <v>486</v>
       </c>
@@ -24093,7 +24097,7 @@
         <v>2707</v>
       </c>
     </row>
-    <row r="470" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A470" s="13" t="s">
         <v>487</v>
       </c>
@@ -24140,7 +24144,7 @@
         <v>2695.9</v>
       </c>
     </row>
-    <row r="471" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A471" s="13" t="s">
         <v>488</v>
       </c>
@@ -24187,7 +24191,7 @@
         <v>2701.5</v>
       </c>
     </row>
-    <row r="472" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A472" s="13" t="s">
         <v>489</v>
       </c>
@@ -24234,7 +24238,7 @@
         <v>2707.1</v>
       </c>
     </row>
-    <row r="473" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A473" s="13" t="s">
         <v>490</v>
       </c>
@@ -24281,7 +24285,7 @@
         <v>2707.1</v>
       </c>
     </row>
-    <row r="474" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A474" s="13" t="s">
         <v>491</v>
       </c>
@@ -24328,7 +24332,7 @@
         <v>2707.1</v>
       </c>
     </row>
-    <row r="475" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A475" s="13" t="s">
         <v>492</v>
       </c>
@@ -24375,7 +24379,7 @@
         <v>2718.2</v>
       </c>
     </row>
-    <row r="476" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A476" s="13" t="s">
         <v>493</v>
       </c>
@@ -24422,7 +24426,7 @@
         <v>2734.9</v>
       </c>
     </row>
-    <row r="477" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A477" s="13" t="s">
         <v>494</v>
       </c>
@@ -24469,7 +24473,7 @@
         <v>2751.6</v>
       </c>
     </row>
-    <row r="478" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A478" s="13" t="s">
         <v>495</v>
       </c>
@@ -24516,7 +24520,7 @@
         <v>2757.2</v>
       </c>
     </row>
-    <row r="479" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A479" s="13" t="s">
         <v>496</v>
       </c>
@@ -24563,7 +24567,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="480" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A480" s="13" t="s">
         <v>497</v>
       </c>
@@ -24610,7 +24614,7 @@
         <v>2801.7</v>
       </c>
     </row>
-    <row r="481" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A481" s="13" t="s">
         <v>498</v>
       </c>
@@ -24657,7 +24661,7 @@
         <v>2807.3</v>
       </c>
     </row>
-    <row r="482" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A482" s="13" t="s">
         <v>499</v>
       </c>
@@ -24704,7 +24708,7 @@
         <v>2790.6</v>
       </c>
     </row>
-    <row r="483" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A483" s="13" t="s">
         <v>500</v>
       </c>
@@ -24751,7 +24755,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="484" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A484" s="13" t="s">
         <v>501</v>
       </c>
@@ -24798,7 +24802,7 @@
         <v>2757.2</v>
       </c>
     </row>
-    <row r="485" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A485" s="13" t="s">
         <v>502</v>
       </c>
@@ -24845,7 +24849,7 @@
         <v>2723.9</v>
       </c>
     </row>
-    <row r="486" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A486" s="13" t="s">
         <v>503</v>
       </c>
@@ -24892,7 +24896,7 @@
         <v>2707.2</v>
       </c>
     </row>
-    <row r="487" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A487" s="13" t="s">
         <v>504</v>
       </c>
@@ -24939,7 +24943,7 @@
         <v>2712.8</v>
       </c>
     </row>
-    <row r="488" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A488" s="13" t="s">
         <v>505</v>
       </c>
@@ -24986,7 +24990,7 @@
         <v>2696.1</v>
       </c>
     </row>
-    <row r="489" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A489" s="13" t="s">
         <v>506</v>
       </c>
@@ -25033,7 +25037,7 @@
         <v>2657.2</v>
       </c>
     </row>
-    <row r="490" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A490" s="13" t="s">
         <v>507</v>
       </c>
@@ -25080,7 +25084,7 @@
         <v>2618.3000000000002</v>
       </c>
     </row>
-    <row r="491" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A491" s="13" t="s">
         <v>508</v>
       </c>
@@ -25127,7 +25131,7 @@
         <v>2573.9</v>
       </c>
     </row>
-    <row r="492" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A492" s="13" t="s">
         <v>509</v>
       </c>
@@ -25174,7 +25178,7 @@
         <v>2546.1</v>
       </c>
     </row>
-    <row r="493" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A493" s="13" t="s">
         <v>510</v>
       </c>
@@ -25221,7 +25225,7 @@
         <v>2540.5</v>
       </c>
     </row>
-    <row r="494" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A494" s="13" t="s">
         <v>511</v>
       </c>
@@ -25268,7 +25272,7 @@
         <v>2546.1</v>
       </c>
     </row>
-    <row r="495" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A495" s="13" t="s">
         <v>512</v>
       </c>
@@ -25315,7 +25319,7 @@
         <v>2540.5</v>
       </c>
     </row>
-    <row r="496" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A496" s="13" t="s">
         <v>513</v>
       </c>
@@ -25362,7 +25366,7 @@
         <v>2523.8000000000002</v>
       </c>
     </row>
-    <row r="497" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A497" s="13" t="s">
         <v>514</v>
       </c>
@@ -25409,7 +25413,7 @@
         <v>2518.1999999999998</v>
       </c>
     </row>
-    <row r="498" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A498" s="13" t="s">
         <v>515</v>
       </c>
@@ -25456,7 +25460,7 @@
         <v>2501.5</v>
       </c>
     </row>
-    <row r="499" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A499" s="13" t="s">
         <v>516</v>
       </c>
@@ -25503,7 +25507,7 @@
         <v>2501.5</v>
       </c>
     </row>
-    <row r="500" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A500" s="13" t="s">
         <v>517</v>
       </c>
@@ -25550,7 +25554,7 @@
         <v>2523.6999999999998</v>
       </c>
     </row>
-    <row r="501" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A501" s="13" t="s">
         <v>518</v>
       </c>
@@ -25597,7 +25601,7 @@
         <v>2573.6999999999998</v>
       </c>
     </row>
-    <row r="502" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A502" s="13" t="s">
         <v>519</v>
       </c>
@@ -25644,7 +25648,7 @@
         <v>2612.6</v>
       </c>
     </row>
-    <row r="503" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A503" s="13" t="s">
         <v>520</v>
       </c>
@@ -25691,7 +25695,7 @@
         <v>2651.5</v>
       </c>
     </row>
-    <row r="504" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A504" s="13" t="s">
         <v>521</v>
       </c>
@@ -25738,7 +25742,7 @@
         <v>2657.1</v>
       </c>
     </row>
-    <row r="505" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A505" s="13" t="s">
         <v>522</v>
       </c>
@@ -25785,7 +25789,7 @@
         <v>2668.2</v>
       </c>
     </row>
-    <row r="506" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A506" s="13" t="s">
         <v>523</v>
       </c>
@@ -25832,7 +25836,7 @@
         <v>2673.8</v>
       </c>
     </row>
-    <row r="507" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A507" s="13" t="s">
         <v>524</v>
       </c>
@@ -25879,7 +25883,7 @@
         <v>2657.1</v>
       </c>
     </row>
-    <row r="508" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A508" s="13" t="s">
         <v>525</v>
       </c>
@@ -25926,7 +25930,7 @@
         <v>2640.4</v>
       </c>
     </row>
-    <row r="509" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A509" s="13" t="s">
         <v>526</v>
       </c>
@@ -25973,7 +25977,7 @@
         <v>2634.8</v>
       </c>
     </row>
-    <row r="510" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A510" s="13" t="s">
         <v>527</v>
       </c>
@@ -26020,7 +26024,7 @@
         <v>2657</v>
       </c>
     </row>
-    <row r="511" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A511" s="13" t="s">
         <v>528</v>
       </c>
@@ -26067,7 +26071,7 @@
         <v>2673.7</v>
       </c>
     </row>
-    <row r="512" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A512" s="13" t="s">
         <v>529</v>
       </c>
@@ -26114,7 +26118,7 @@
         <v>2701.5</v>
       </c>
     </row>
-    <row r="513" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A513" s="13" t="s">
         <v>530</v>
       </c>
@@ -26161,7 +26165,7 @@
         <v>2707.1</v>
       </c>
     </row>
-    <row r="514" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A514" s="13" t="s">
         <v>531</v>
       </c>
@@ -26208,7 +26212,7 @@
         <v>2718.2</v>
       </c>
     </row>
-    <row r="515" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A515" s="13" t="s">
         <v>532</v>
       </c>
@@ -26255,7 +26259,7 @@
         <v>2723.8</v>
       </c>
     </row>
-    <row r="516" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A516" s="13" t="s">
         <v>533</v>
       </c>
@@ -26302,7 +26306,7 @@
         <v>2729.4</v>
       </c>
     </row>
-    <row r="517" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A517" s="13" t="s">
         <v>534</v>
       </c>
@@ -26349,7 +26353,7 @@
         <v>2746.1</v>
       </c>
     </row>
-    <row r="518" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A518" s="13" t="s">
         <v>535</v>
       </c>
@@ -26396,7 +26400,7 @@
         <v>2790.5</v>
       </c>
     </row>
-    <row r="519" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A519" s="13" t="s">
         <v>536</v>
       </c>
@@ -26443,7 +26447,7 @@
         <v>2796.1</v>
       </c>
     </row>
-    <row r="520" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A520" s="13" t="s">
         <v>537</v>
       </c>
@@ -26490,7 +26494,7 @@
         <v>2823.9</v>
       </c>
     </row>
-    <row r="521" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A521" s="13" t="s">
         <v>538</v>
       </c>
@@ -26537,7 +26541,7 @@
         <v>2835</v>
       </c>
     </row>
-    <row r="522" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A522" s="13" t="s">
         <v>539</v>
       </c>
@@ -26584,7 +26588,7 @@
         <v>2851.7</v>
       </c>
     </row>
-    <row r="523" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A523" s="13" t="s">
         <v>540</v>
       </c>
@@ -26631,7 +26635,7 @@
         <v>2879.5</v>
       </c>
     </row>
-    <row r="524" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A524" s="13" t="s">
         <v>541</v>
       </c>
@@ -26678,7 +26682,7 @@
         <v>2896.2</v>
       </c>
     </row>
-    <row r="525" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A525" s="13" t="s">
         <v>542</v>
       </c>
@@ -26725,7 +26729,7 @@
         <v>2912.9</v>
       </c>
     </row>
-    <row r="526" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A526" s="13" t="s">
         <v>543</v>
       </c>
@@ -26772,7 +26776,7 @@
         <v>2907.3</v>
       </c>
     </row>
-    <row r="527" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A527" s="13" t="s">
         <v>544</v>
       </c>
@@ -26819,7 +26823,7 @@
         <v>2924</v>
       </c>
     </row>
-    <row r="528" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A528" s="13" t="s">
         <v>545</v>
       </c>
@@ -26866,7 +26870,7 @@
         <v>2935.1</v>
       </c>
     </row>
-    <row r="529" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A529" s="13" t="s">
         <v>546</v>
       </c>
@@ -26913,7 +26917,7 @@
         <v>2946.2</v>
       </c>
     </row>
-    <row r="530" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A530" s="13" t="s">
         <v>547</v>
       </c>
@@ -26960,7 +26964,7 @@
         <v>2940.6</v>
       </c>
     </row>
-    <row r="531" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A531" s="13" t="s">
         <v>548</v>
       </c>
@@ -27007,7 +27011,7 @@
         <v>2962.8</v>
       </c>
     </row>
-    <row r="532" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A532" s="13" t="s">
         <v>549</v>
       </c>
@@ -27054,7 +27058,7 @@
         <v>2990.6</v>
       </c>
     </row>
-    <row r="533" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A533" s="13" t="s">
         <v>550</v>
       </c>
@@ -27101,7 +27105,7 @@
         <v>3018.4</v>
       </c>
     </row>
-    <row r="534" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A534" s="13" t="s">
         <v>551</v>
       </c>
@@ -27148,7 +27152,7 @@
         <v>3035.1</v>
       </c>
     </row>
-    <row r="535" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A535" s="13" t="s">
         <v>552</v>
       </c>
@@ -27195,7 +27199,7 @@
         <v>3018.4</v>
       </c>
     </row>
-    <row r="536" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A536" s="13" t="s">
         <v>553</v>
       </c>
@@ -27242,7 +27246,7 @@
         <v>3018.4</v>
       </c>
     </row>
-    <row r="537" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A537" s="13" t="s">
         <v>554</v>
       </c>
@@ -27289,7 +27293,7 @@
         <v>3018.4</v>
       </c>
     </row>
-    <row r="538" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A538" s="13" t="s">
         <v>555</v>
       </c>
@@ -27336,7 +27340,7 @@
         <v>3046.2</v>
       </c>
     </row>
-    <row r="539" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A539" s="13" t="s">
         <v>556</v>
       </c>
@@ -27383,7 +27387,7 @@
         <v>3046.2</v>
       </c>
     </row>
-    <row r="540" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A540" s="13" t="s">
         <v>557</v>
       </c>
@@ -27430,7 +27434,7 @@
         <v>3057.3</v>
       </c>
     </row>
-    <row r="541" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A541" s="13" t="s">
         <v>558</v>
       </c>
@@ -27477,7 +27481,7 @@
         <v>3085.1</v>
       </c>
     </row>
-    <row r="542" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A542" s="13" t="s">
         <v>559</v>
       </c>
@@ -27524,7 +27528,7 @@
         <v>3101.8</v>
       </c>
     </row>
-    <row r="543" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A543" s="13" t="s">
         <v>560</v>
       </c>
@@ -27571,7 +27575,7 @@
         <v>3096.2</v>
       </c>
     </row>
-    <row r="544" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A544" s="13" t="s">
         <v>561</v>
       </c>
@@ -27618,7 +27622,7 @@
         <v>3112.9</v>
       </c>
     </row>
-    <row r="545" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A545" s="13" t="s">
         <v>562</v>
       </c>
@@ -27665,7 +27669,7 @@
         <v>3124</v>
       </c>
     </row>
-    <row r="546" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A546" s="13" t="s">
         <v>563</v>
       </c>
@@ -27712,7 +27716,7 @@
         <v>3140.7</v>
       </c>
     </row>
-    <row r="547" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A547" s="13" t="s">
         <v>564</v>
       </c>
@@ -27759,7 +27763,7 @@
         <v>3168.5</v>
       </c>
     </row>
-    <row r="548" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A548" s="13" t="s">
         <v>565</v>
       </c>
@@ -27806,7 +27810,7 @@
         <v>3196.3</v>
       </c>
     </row>
-    <row r="549" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A549" s="13" t="s">
         <v>566</v>
       </c>
@@ -27853,7 +27857,7 @@
         <v>3213</v>
       </c>
     </row>
-    <row r="550" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A550" s="13" t="s">
         <v>567</v>
       </c>
@@ -27900,13 +27904,60 @@
         <v>3206.8</v>
       </c>
     </row>
-    <row r="559" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="D559" s="3"/>
-      <c r="E559" s="3"/>
-      <c r="F559" s="3"/>
-      <c r="G559" s="3"/>
-      <c r="H559" s="3"/>
-      <c r="I559" s="3"/>
+    <row r="551" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A551" s="13" t="s">
+        <v>568</v>
+      </c>
+      <c r="B551" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C551" s="2">
+        <v>5</v>
+      </c>
+      <c r="D551" s="4">
+        <v>105.3</v>
+      </c>
+      <c r="E551" s="4">
+        <v>115.9</v>
+      </c>
+      <c r="F551" s="4">
+        <v>112.7</v>
+      </c>
+      <c r="G551" s="4">
+        <v>104.2</v>
+      </c>
+      <c r="H551" s="4">
+        <v>114.6</v>
+      </c>
+      <c r="I551" s="4">
+        <v>110.6</v>
+      </c>
+      <c r="J551" s="4">
+        <v>22.2</v>
+      </c>
+      <c r="K551" s="4">
+        <v>18.8</v>
+      </c>
+      <c r="L551" s="4">
+        <v>25</v>
+      </c>
+      <c r="M551" s="4">
+        <v>1199.4000000000001</v>
+      </c>
+      <c r="N551" s="4">
+        <v>3242.7</v>
+      </c>
+      <c r="O551" s="4">
+        <v>3181.8</v>
+      </c>
+    </row>
+    <row r="560" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="D560" s="3"/>
+      <c r="E560" s="3"/>
+      <c r="F560" s="3"/>
+      <c r="G560" s="3"/>
+      <c r="H560" s="3"/>
+      <c r="I560" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>

--- a/data/長期系列_CI指数_DI指数_DI景気指標.xlsx
+++ b/data/長期系列_CI指数_DI指数_DI景気指標.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\CI\０１／CI\０１／速報\★R7(2025)★\令和7年5月分\g研究所ホームページ掲載宛送付ファイル\jp\stat\di\di\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\CI\０１／CI\０２／速報からの改訂\★R7(2025)★\令和7年5月改訂\g研究所ホームページ掲載宛送付ファイル\jp\stat\di\di\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{387D498D-6D1C-4BA6-AC23-8E3A48B0345C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A93CDBB-8524-4975-83E4-B7E49952A5DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="25740" windowHeight="11880"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
   </bookViews>
   <sheets>
     <sheet name="指数 Indexes" sheetId="1" r:id="rId1"/>
@@ -2809,14 +2809,14 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="8.125" customWidth="1"/>
-    <col min="4" max="15" width="10.625" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8.109375" customWidth="1"/>
+    <col min="4" max="15" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="36" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" ht="36" x14ac:dyDescent="0.2">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -2858,7 +2858,7 @@
       </c>
       <c r="P1" s="5"/>
     </row>
-    <row r="2" spans="1:16" s="1" customFormat="1" ht="72" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" s="1" customFormat="1" ht="72" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -2900,7 +2900,7 @@
       </c>
       <c r="P2" s="5"/>
     </row>
-    <row r="3" spans="1:16" ht="24" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:16" ht="24" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>18</v>
       </c>
@@ -2948,7 +2948,7 @@
       </c>
       <c r="P3" s="5"/>
     </row>
-    <row r="4" spans="1:16" s="1" customFormat="1" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" s="1" customFormat="1" ht="32.4" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>20</v>
       </c>
@@ -2996,7 +2996,7 @@
       </c>
       <c r="P4" s="5"/>
     </row>
-    <row r="5" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" s="1" customFormat="1" ht="22.2" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -3026,7 +3026,7 @@
       <c r="O5" s="11"/>
       <c r="P5" s="12"/>
     </row>
-    <row r="6" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -3056,7 +3056,7 @@
       <c r="O6" s="6"/>
       <c r="P6" s="12"/>
     </row>
-    <row r="7" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
         <v>24</v>
       </c>
@@ -3091,7 +3091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
         <v>25</v>
       </c>
@@ -3126,7 +3126,7 @@
         <v>44.4</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
         <v>26</v>
       </c>
@@ -3161,7 +3161,7 @@
         <v>83.3</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
         <v>27</v>
       </c>
@@ -3196,7 +3196,7 @@
         <v>111.1</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
         <v>28</v>
       </c>
@@ -3231,7 +3231,7 @@
         <v>116.7</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
         <v>29</v>
       </c>
@@ -3266,7 +3266,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
         <v>30</v>
       </c>
@@ -3301,7 +3301,7 @@
         <v>177.8</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
         <v>31</v>
       </c>
@@ -3336,7 +3336,7 @@
         <v>194.5</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
         <v>32</v>
       </c>
@@ -3371,7 +3371,7 @@
         <v>211.2</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
         <v>33</v>
       </c>
@@ -3406,7 +3406,7 @@
         <v>227.9</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
         <v>34</v>
       </c>
@@ -3441,7 +3441,7 @@
         <v>255.7</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
         <v>35</v>
       </c>
@@ -3476,7 +3476,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="13" t="s">
         <v>36</v>
       </c>
@@ -3511,7 +3511,7 @@
         <v>244.6</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="13" t="s">
         <v>37</v>
       </c>
@@ -3546,7 +3546,7 @@
         <v>244.6</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="13" t="s">
         <v>38</v>
       </c>
@@ -3581,7 +3581,7 @@
         <v>272.39999999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="13" t="s">
         <v>39</v>
       </c>
@@ -3616,7 +3616,7 @@
         <v>266.8</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="13" t="s">
         <v>40</v>
       </c>
@@ -3651,7 +3651,7 @@
         <v>272.39999999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="13" t="s">
         <v>41</v>
       </c>
@@ -3686,7 +3686,7 @@
         <v>261.3</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="13" t="s">
         <v>42</v>
       </c>
@@ -3721,7 +3721,7 @@
         <v>250.2</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="13" t="s">
         <v>43</v>
       </c>
@@ -3756,7 +3756,7 @@
         <v>233.5</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="13" t="s">
         <v>44</v>
       </c>
@@ -3791,7 +3791,7 @@
         <v>239.1</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="13" t="s">
         <v>45</v>
       </c>
@@ -3826,7 +3826,7 @@
         <v>244.7</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="13" t="s">
         <v>46</v>
       </c>
@@ -3861,7 +3861,7 @@
         <v>239.1</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="13" t="s">
         <v>47</v>
       </c>
@@ -3896,7 +3896,7 @@
         <v>222.4</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="13" t="s">
         <v>48</v>
       </c>
@@ -3931,7 +3931,7 @@
         <v>239.1</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="13" t="s">
         <v>49</v>
       </c>
@@ -3966,7 +3966,7 @@
         <v>244.7</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="13" t="s">
         <v>50</v>
       </c>
@@ -4001,7 +4001,7 @@
         <v>250.3</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="13" t="s">
         <v>51</v>
       </c>
@@ -4036,7 +4036,7 @@
         <v>244.7</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="13" t="s">
         <v>52</v>
       </c>
@@ -4071,7 +4071,7 @@
         <v>250.3</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="13" t="s">
         <v>53</v>
       </c>
@@ -4106,7 +4106,7 @@
         <v>278.10000000000002</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="13" t="s">
         <v>54</v>
       </c>
@@ -4141,7 +4141,7 @@
         <v>278.10000000000002</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="13" t="s">
         <v>55</v>
       </c>
@@ -4176,7 +4176,7 @@
         <v>272.5</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="13" t="s">
         <v>56</v>
       </c>
@@ -4211,7 +4211,7 @@
         <v>255.8</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="13" t="s">
         <v>57</v>
       </c>
@@ -4246,7 +4246,7 @@
         <v>239.1</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="13" t="s">
         <v>58</v>
       </c>
@@ -4281,7 +4281,7 @@
         <v>222.4</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="13" t="s">
         <v>59</v>
       </c>
@@ -4316,7 +4316,7 @@
         <v>194.6</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="13" t="s">
         <v>60</v>
       </c>
@@ -4351,7 +4351,7 @@
         <v>166.8</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" s="13" t="s">
         <v>61</v>
       </c>
@@ -4386,7 +4386,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="13" t="s">
         <v>62</v>
       </c>
@@ -4421,7 +4421,7 @@
         <v>122.3</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="13" t="s">
         <v>63</v>
       </c>
@@ -4456,7 +4456,7 @@
         <v>116.7</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="13" t="s">
         <v>64</v>
       </c>
@@ -4491,7 +4491,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="13" t="s">
         <v>65</v>
       </c>
@@ -4526,7 +4526,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" s="13" t="s">
         <v>66</v>
       </c>
@@ -4561,7 +4561,7 @@
         <v>105.6</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" s="13" t="s">
         <v>67</v>
       </c>
@@ -4596,7 +4596,7 @@
         <v>122.3</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" s="13" t="s">
         <v>68</v>
       </c>
@@ -4631,7 +4631,7 @@
         <v>127.9</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" s="13" t="s">
         <v>69</v>
       </c>
@@ -4666,7 +4666,7 @@
         <v>122.3</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" s="13" t="s">
         <v>70</v>
       </c>
@@ -4701,7 +4701,7 @@
         <v>127.9</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" s="13" t="s">
         <v>71</v>
       </c>
@@ -4736,7 +4736,7 @@
         <v>127.9</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" s="13" t="s">
         <v>72</v>
       </c>
@@ -4771,7 +4771,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" s="13" t="s">
         <v>73</v>
       </c>
@@ -4806,7 +4806,7 @@
         <v>177.9</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57" s="13" t="s">
         <v>74</v>
       </c>
@@ -4841,7 +4841,7 @@
         <v>216.8</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58" s="13" t="s">
         <v>75</v>
       </c>
@@ -4876,7 +4876,7 @@
         <v>255.7</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59" s="13" t="s">
         <v>76</v>
       </c>
@@ -4911,7 +4911,7 @@
         <v>272.39999999999998</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60" s="13" t="s">
         <v>77</v>
       </c>
@@ -4946,7 +4946,7 @@
         <v>283.5</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61" s="13" t="s">
         <v>78</v>
       </c>
@@ -4981,7 +4981,7 @@
         <v>311.3</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62" s="13" t="s">
         <v>79</v>
       </c>
@@ -5016,7 +5016,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63" s="13" t="s">
         <v>80</v>
       </c>
@@ -5051,7 +5051,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64" s="13" t="s">
         <v>81</v>
       </c>
@@ -5086,7 +5086,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65" s="13" t="s">
         <v>82</v>
       </c>
@@ -5121,7 +5121,7 @@
         <v>455.8</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66" s="13" t="s">
         <v>83</v>
       </c>
@@ -5156,7 +5156,7 @@
         <v>494.7</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A67" s="13" t="s">
         <v>84</v>
       </c>
@@ -5176,7 +5176,7 @@
         <v>84.5</v>
       </c>
       <c r="G67" s="4">
-        <v>88.4</v>
+        <v>88.3</v>
       </c>
       <c r="H67" s="4">
         <v>93.4</v>
@@ -5203,7 +5203,7 @@
         <v>539.1</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A68" s="13" t="s">
         <v>85</v>
       </c>
@@ -5250,7 +5250,7 @@
         <v>566.9</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A69" s="13" t="s">
         <v>86</v>
       </c>
@@ -5297,7 +5297,7 @@
         <v>594.70000000000005</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A70" s="13" t="s">
         <v>87</v>
       </c>
@@ -5344,7 +5344,7 @@
         <v>611.4</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A71" s="13" t="s">
         <v>88</v>
       </c>
@@ -5391,7 +5391,7 @@
         <v>644.70000000000005</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A72" s="13" t="s">
         <v>89</v>
       </c>
@@ -5438,7 +5438,7 @@
         <v>655.8</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A73" s="13" t="s">
         <v>90</v>
       </c>
@@ -5485,7 +5485,7 @@
         <v>666.9</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A74" s="13" t="s">
         <v>91</v>
       </c>
@@ -5496,7 +5496,7 @@
         <v>8</v>
       </c>
       <c r="D74" s="4">
-        <v>83.4</v>
+        <v>83.3</v>
       </c>
       <c r="E74" s="4">
         <v>90.7</v>
@@ -5505,7 +5505,7 @@
         <v>87.1</v>
       </c>
       <c r="G74" s="4">
-        <v>87.2</v>
+        <v>87.1</v>
       </c>
       <c r="H74" s="4">
         <v>93.7</v>
@@ -5532,7 +5532,7 @@
         <v>694.7</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75" s="13" t="s">
         <v>92</v>
       </c>
@@ -5579,7 +5579,7 @@
         <v>700.3</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A76" s="13" t="s">
         <v>93</v>
       </c>
@@ -5590,7 +5590,7 @@
         <v>10</v>
       </c>
       <c r="D76" s="4">
-        <v>83.3</v>
+        <v>83.2</v>
       </c>
       <c r="E76" s="4">
         <v>91</v>
@@ -5626,7 +5626,7 @@
         <v>683.6</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A77" s="13" t="s">
         <v>94</v>
       </c>
@@ -5673,7 +5673,7 @@
         <v>666.9</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A78" s="13" t="s">
         <v>95</v>
       </c>
@@ -5720,7 +5720,7 @@
         <v>672.5</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79" s="13" t="s">
         <v>96</v>
       </c>
@@ -5767,7 +5767,7 @@
         <v>689.2</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A80" s="13" t="s">
         <v>97</v>
       </c>
@@ -5778,7 +5778,7 @@
         <v>2</v>
       </c>
       <c r="D80" s="4">
-        <v>82.6</v>
+        <v>82.5</v>
       </c>
       <c r="E80" s="4">
         <v>90</v>
@@ -5814,7 +5814,7 @@
         <v>705.9</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A81" s="13" t="s">
         <v>98</v>
       </c>
@@ -5825,7 +5825,7 @@
         <v>3</v>
       </c>
       <c r="D81" s="4">
-        <v>82.4</v>
+        <v>82.3</v>
       </c>
       <c r="E81" s="4">
         <v>89.5</v>
@@ -5861,7 +5861,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A82" s="13" t="s">
         <v>99</v>
       </c>
@@ -5908,7 +5908,7 @@
         <v>711.4</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A83" s="13" t="s">
         <v>100</v>
       </c>
@@ -5955,7 +5955,7 @@
         <v>700.3</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A84" s="13" t="s">
         <v>101</v>
       </c>
@@ -6002,7 +6002,7 @@
         <v>683.6</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A85" s="13" t="s">
         <v>102</v>
       </c>
@@ -6049,7 +6049,7 @@
         <v>683.6</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A86" s="13" t="s">
         <v>103</v>
       </c>
@@ -6060,7 +6060,7 @@
         <v>8</v>
       </c>
       <c r="D86" s="4">
-        <v>81.2</v>
+        <v>81.099999999999994</v>
       </c>
       <c r="E86" s="4">
         <v>88.2</v>
@@ -6096,7 +6096,7 @@
         <v>672.5</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A87" s="13" t="s">
         <v>104</v>
       </c>
@@ -6143,7 +6143,7 @@
         <v>672.5</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A88" s="13" t="s">
         <v>105</v>
       </c>
@@ -6154,7 +6154,7 @@
         <v>10</v>
       </c>
       <c r="D88" s="4">
-        <v>80.599999999999994</v>
+        <v>80.5</v>
       </c>
       <c r="E88" s="4">
         <v>89.2</v>
@@ -6190,7 +6190,7 @@
         <v>689.2</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A89" s="13" t="s">
         <v>106</v>
       </c>
@@ -6237,7 +6237,7 @@
         <v>705.9</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A90" s="13" t="s">
         <v>107</v>
       </c>
@@ -6284,7 +6284,7 @@
         <v>689.2</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A91" s="13" t="s">
         <v>108</v>
       </c>
@@ -6331,7 +6331,7 @@
         <v>694.8</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A92" s="13" t="s">
         <v>109</v>
       </c>
@@ -6342,7 +6342,7 @@
         <v>2</v>
       </c>
       <c r="D92" s="4">
-        <v>83.9</v>
+        <v>83.8</v>
       </c>
       <c r="E92" s="4">
         <v>90.1</v>
@@ -6378,7 +6378,7 @@
         <v>705.9</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A93" s="13" t="s">
         <v>110</v>
       </c>
@@ -6425,7 +6425,7 @@
         <v>722.6</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A94" s="13" t="s">
         <v>111</v>
       </c>
@@ -6472,7 +6472,7 @@
         <v>750.4</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A95" s="13" t="s">
         <v>112</v>
       </c>
@@ -6519,7 +6519,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A96" s="13" t="s">
         <v>113</v>
       </c>
@@ -6566,7 +6566,7 @@
         <v>767.1</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A97" s="13" t="s">
         <v>114</v>
       </c>
@@ -6613,7 +6613,7 @@
         <v>772.7</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A98" s="13" t="s">
         <v>115</v>
       </c>
@@ -6660,7 +6660,7 @@
         <v>783.8</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A99" s="13" t="s">
         <v>116</v>
       </c>
@@ -6680,7 +6680,7 @@
         <v>87.9</v>
       </c>
       <c r="G99" s="4">
-        <v>98.3</v>
+        <v>98.2</v>
       </c>
       <c r="H99" s="4">
         <v>99.3</v>
@@ -6707,7 +6707,7 @@
         <v>811.6</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A100" s="13" t="s">
         <v>117</v>
       </c>
@@ -6754,7 +6754,7 @@
         <v>833.8</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A101" s="13" t="s">
         <v>118</v>
       </c>
@@ -6774,7 +6774,7 @@
         <v>88.8</v>
       </c>
       <c r="G101" s="4">
-        <v>101.3</v>
+        <v>101.2</v>
       </c>
       <c r="H101" s="4">
         <v>101.5</v>
@@ -6801,7 +6801,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A102" s="13" t="s">
         <v>119</v>
       </c>
@@ -6848,7 +6848,7 @@
         <v>900.4</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A103" s="13" t="s">
         <v>120</v>
       </c>
@@ -6868,7 +6868,7 @@
         <v>90.2</v>
       </c>
       <c r="G103" s="4">
-        <v>102.6</v>
+        <v>102.5</v>
       </c>
       <c r="H103" s="4">
         <v>103.3</v>
@@ -6895,7 +6895,7 @@
         <v>928.2</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A104" s="13" t="s">
         <v>121</v>
       </c>
@@ -6906,7 +6906,7 @@
         <v>2</v>
       </c>
       <c r="D104" s="4">
-        <v>98.9</v>
+        <v>98.8</v>
       </c>
       <c r="E104" s="4">
         <v>102.3</v>
@@ -6942,7 +6942,7 @@
         <v>944.9</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A105" s="13" t="s">
         <v>122</v>
       </c>
@@ -6953,7 +6953,7 @@
         <v>3</v>
       </c>
       <c r="D105" s="4">
-        <v>98.1</v>
+        <v>98</v>
       </c>
       <c r="E105" s="4">
         <v>101.1</v>
@@ -6989,7 +6989,7 @@
         <v>972.7</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A106" s="13" t="s">
         <v>123</v>
       </c>
@@ -7009,7 +7009,7 @@
         <v>92.5</v>
       </c>
       <c r="G106" s="4">
-        <v>103.1</v>
+        <v>103</v>
       </c>
       <c r="H106" s="4">
         <v>106.5</v>
@@ -7036,7 +7036,7 @@
         <v>1011.6</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A107" s="13" t="s">
         <v>124</v>
       </c>
@@ -7083,7 +7083,7 @@
         <v>1039.4000000000001</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A108" s="13" t="s">
         <v>125</v>
       </c>
@@ -7130,7 +7130,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A109" s="13" t="s">
         <v>126</v>
       </c>
@@ -7177,7 +7177,7 @@
         <v>1067.2</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A110" s="13" t="s">
         <v>127</v>
       </c>
@@ -7224,7 +7224,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A111" s="13" t="s">
         <v>128</v>
       </c>
@@ -7271,7 +7271,7 @@
         <v>1133.9000000000001</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A112" s="13" t="s">
         <v>129</v>
       </c>
@@ -7291,7 +7291,7 @@
         <v>97.4</v>
       </c>
       <c r="G112" s="4">
-        <v>104.5</v>
+        <v>104.4</v>
       </c>
       <c r="H112" s="4">
         <v>109.2</v>
@@ -7318,7 +7318,7 @@
         <v>1183.9000000000001</v>
       </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A113" s="13" t="s">
         <v>130</v>
       </c>
@@ -7365,7 +7365,7 @@
         <v>1233.9000000000001</v>
       </c>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A114" s="13" t="s">
         <v>131</v>
       </c>
@@ -7385,7 +7385,7 @@
         <v>98.3</v>
       </c>
       <c r="G114" s="4">
-        <v>106.7</v>
+        <v>106.6</v>
       </c>
       <c r="H114" s="4">
         <v>111.2</v>
@@ -7412,7 +7412,7 @@
         <v>1261.7</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A115" s="13" t="s">
         <v>132</v>
       </c>
@@ -7459,7 +7459,7 @@
         <v>1289.5</v>
       </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A116" s="13" t="s">
         <v>133</v>
       </c>
@@ -7470,7 +7470,7 @@
         <v>2</v>
       </c>
       <c r="D116" s="4">
-        <v>99.4</v>
+        <v>99.3</v>
       </c>
       <c r="E116" s="4">
         <v>108.1</v>
@@ -7506,7 +7506,7 @@
         <v>1317.3</v>
       </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A117" s="13" t="s">
         <v>134</v>
       </c>
@@ -7517,7 +7517,7 @@
         <v>3</v>
       </c>
       <c r="D117" s="4">
-        <v>100.5</v>
+        <v>100.4</v>
       </c>
       <c r="E117" s="4">
         <v>112</v>
@@ -7553,7 +7553,7 @@
         <v>1361.7</v>
       </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A118" s="13" t="s">
         <v>135</v>
       </c>
@@ -7564,7 +7564,7 @@
         <v>4</v>
       </c>
       <c r="D118" s="4">
-        <v>100.5</v>
+        <v>100.4</v>
       </c>
       <c r="E118" s="4">
         <v>109.2</v>
@@ -7600,7 +7600,7 @@
         <v>1367.3</v>
       </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A119" s="13" t="s">
         <v>136</v>
       </c>
@@ -7611,7 +7611,7 @@
         <v>5</v>
       </c>
       <c r="D119" s="4">
-        <v>99.9</v>
+        <v>99.8</v>
       </c>
       <c r="E119" s="4">
         <v>109.3</v>
@@ -7647,7 +7647,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A120" s="13" t="s">
         <v>137</v>
       </c>
@@ -7667,7 +7667,7 @@
         <v>103.2</v>
       </c>
       <c r="G120" s="4">
-        <v>105.7</v>
+        <v>105.6</v>
       </c>
       <c r="H120" s="4">
         <v>113.4</v>
@@ -7694,7 +7694,7 @@
         <v>1400.7</v>
       </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A121" s="13" t="s">
         <v>138</v>
       </c>
@@ -7741,7 +7741,7 @@
         <v>1445.1</v>
       </c>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A122" s="13" t="s">
         <v>139</v>
       </c>
@@ -7788,7 +7788,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A123" s="13" t="s">
         <v>140</v>
       </c>
@@ -7835,7 +7835,7 @@
         <v>1495.1</v>
       </c>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A124" s="13" t="s">
         <v>141</v>
       </c>
@@ -7882,7 +7882,7 @@
         <v>1511.8</v>
       </c>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A125" s="13" t="s">
         <v>142</v>
       </c>
@@ -7929,7 +7929,7 @@
         <v>1539.6</v>
       </c>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A126" s="13" t="s">
         <v>143</v>
       </c>
@@ -7949,7 +7949,7 @@
         <v>105.8</v>
       </c>
       <c r="G126" s="4">
-        <v>107.2</v>
+        <v>107.1</v>
       </c>
       <c r="H126" s="4">
         <v>115.9</v>
@@ -7976,7 +7976,7 @@
         <v>1572.9</v>
       </c>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A127" s="13" t="s">
         <v>144</v>
       </c>
@@ -8023,7 +8023,7 @@
         <v>1622.9</v>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A128" s="13" t="s">
         <v>145</v>
       </c>
@@ -8043,7 +8043,7 @@
         <v>106.5</v>
       </c>
       <c r="G128" s="4">
-        <v>106.8</v>
+        <v>106.7</v>
       </c>
       <c r="H128" s="4">
         <v>116.2</v>
@@ -8070,7 +8070,7 @@
         <v>1661.8</v>
       </c>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A129" s="13" t="s">
         <v>146</v>
       </c>
@@ -8117,7 +8117,7 @@
         <v>1695.1</v>
       </c>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A130" s="13" t="s">
         <v>147</v>
       </c>
@@ -8137,7 +8137,7 @@
         <v>106.6</v>
       </c>
       <c r="G130" s="4">
-        <v>107.4</v>
+        <v>107.3</v>
       </c>
       <c r="H130" s="4">
         <v>117.4</v>
@@ -8164,7 +8164,7 @@
         <v>1717.3</v>
       </c>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A131" s="13" t="s">
         <v>148</v>
       </c>
@@ -8211,7 +8211,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A132" s="13" t="s">
         <v>149</v>
       </c>
@@ -8231,7 +8231,7 @@
         <v>106.7</v>
       </c>
       <c r="G132" s="4">
-        <v>108</v>
+        <v>107.9</v>
       </c>
       <c r="H132" s="4">
         <v>119.9</v>
@@ -8258,7 +8258,7 @@
         <v>1750.7</v>
       </c>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A133" s="13" t="s">
         <v>150</v>
       </c>
@@ -8305,7 +8305,7 @@
         <v>1745.1</v>
       </c>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A134" s="13" t="s">
         <v>151</v>
       </c>
@@ -8352,7 +8352,7 @@
         <v>1761.8</v>
       </c>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A135" s="13" t="s">
         <v>152</v>
       </c>
@@ -8399,7 +8399,7 @@
         <v>1778.5</v>
       </c>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A136" s="13" t="s">
         <v>153</v>
       </c>
@@ -8446,7 +8446,7 @@
         <v>1789.6</v>
       </c>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A137" s="13" t="s">
         <v>154</v>
       </c>
@@ -8493,7 +8493,7 @@
         <v>1789.6</v>
       </c>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A138" s="13" t="s">
         <v>155</v>
       </c>
@@ -8540,7 +8540,7 @@
         <v>1817.4</v>
       </c>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A139" s="13" t="s">
         <v>156</v>
       </c>
@@ -8587,7 +8587,7 @@
         <v>1845.2</v>
       </c>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A140" s="13" t="s">
         <v>157</v>
       </c>
@@ -8607,7 +8607,7 @@
         <v>108.8</v>
       </c>
       <c r="G140" s="4">
-        <v>100</v>
+        <v>99.9</v>
       </c>
       <c r="H140" s="4">
         <v>119.8</v>
@@ -8634,7 +8634,7 @@
         <v>1856.3</v>
       </c>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A141" s="13" t="s">
         <v>158</v>
       </c>
@@ -8681,7 +8681,7 @@
         <v>1850.7</v>
       </c>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A142" s="13" t="s">
         <v>159</v>
       </c>
@@ -8728,7 +8728,7 @@
         <v>1856.3</v>
       </c>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A143" s="13" t="s">
         <v>160</v>
       </c>
@@ -8775,7 +8775,7 @@
         <v>1867.4</v>
       </c>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A144" s="13" t="s">
         <v>161</v>
       </c>
@@ -8822,7 +8822,7 @@
         <v>1900.7</v>
       </c>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A145" s="13" t="s">
         <v>162</v>
       </c>
@@ -8869,7 +8869,7 @@
         <v>1911.8</v>
       </c>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A146" s="13" t="s">
         <v>163</v>
       </c>
@@ -8916,7 +8916,7 @@
         <v>1906.2</v>
       </c>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A147" s="13" t="s">
         <v>164</v>
       </c>
@@ -8963,7 +8963,7 @@
         <v>1889.5</v>
       </c>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A148" s="13" t="s">
         <v>165</v>
       </c>
@@ -8983,7 +8983,7 @@
         <v>108.2</v>
       </c>
       <c r="G148" s="4">
-        <v>93.8</v>
+        <v>93.9</v>
       </c>
       <c r="H148" s="4">
         <v>115.1</v>
@@ -9010,7 +9010,7 @@
         <v>1906.2</v>
       </c>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A149" s="13" t="s">
         <v>166</v>
       </c>
@@ -9057,7 +9057,7 @@
         <v>1934</v>
       </c>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A150" s="13" t="s">
         <v>167</v>
       </c>
@@ -9104,7 +9104,7 @@
         <v>1939.6</v>
       </c>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A151" s="13" t="s">
         <v>168</v>
       </c>
@@ -9151,7 +9151,7 @@
         <v>1922.9</v>
       </c>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A152" s="13" t="s">
         <v>169</v>
       </c>
@@ -9198,7 +9198,7 @@
         <v>1922.9</v>
       </c>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A153" s="13" t="s">
         <v>170</v>
       </c>
@@ -9209,7 +9209,7 @@
         <v>3</v>
       </c>
       <c r="D153" s="4">
-        <v>86.7</v>
+        <v>86.8</v>
       </c>
       <c r="E153" s="4">
         <v>105.5</v>
@@ -9245,7 +9245,7 @@
         <v>1906.2</v>
       </c>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A154" s="13" t="s">
         <v>171</v>
       </c>
@@ -9292,7 +9292,7 @@
         <v>1889.5</v>
       </c>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A155" s="13" t="s">
         <v>172</v>
       </c>
@@ -9312,7 +9312,7 @@
         <v>104.5</v>
       </c>
       <c r="G155" s="4">
-        <v>87.9</v>
+        <v>88</v>
       </c>
       <c r="H155" s="4">
         <v>106</v>
@@ -9339,7 +9339,7 @@
         <v>1861.7</v>
       </c>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A156" s="13" t="s">
         <v>173</v>
       </c>
@@ -9386,7 +9386,7 @@
         <v>1845</v>
       </c>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A157" s="13" t="s">
         <v>174</v>
       </c>
@@ -9397,7 +9397,7 @@
         <v>7</v>
       </c>
       <c r="D157" s="4">
-        <v>83.9</v>
+        <v>84</v>
       </c>
       <c r="E157" s="4">
         <v>101.3</v>
@@ -9433,7 +9433,7 @@
         <v>1817.2</v>
       </c>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A158" s="13" t="s">
         <v>175</v>
       </c>
@@ -9453,7 +9453,7 @@
         <v>102.6</v>
       </c>
       <c r="G158" s="4">
-        <v>86.8</v>
+        <v>86.9</v>
       </c>
       <c r="H158" s="4">
         <v>102.9</v>
@@ -9480,7 +9480,7 @@
         <v>1789.4</v>
       </c>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A159" s="13" t="s">
         <v>176</v>
       </c>
@@ -9527,7 +9527,7 @@
         <v>1761.6</v>
       </c>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A160" s="13" t="s">
         <v>177</v>
       </c>
@@ -9574,7 +9574,7 @@
         <v>1722.7</v>
       </c>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A161" s="13" t="s">
         <v>178</v>
       </c>
@@ -9594,7 +9594,7 @@
         <v>100.2</v>
       </c>
       <c r="G161" s="4">
-        <v>85.7</v>
+        <v>85.8</v>
       </c>
       <c r="H161" s="4">
         <v>100.6</v>
@@ -9621,7 +9621,7 @@
         <v>1683.8</v>
       </c>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A162" s="13" t="s">
         <v>179</v>
       </c>
@@ -9668,7 +9668,7 @@
         <v>1644.9</v>
       </c>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A163" s="13" t="s">
         <v>180</v>
       </c>
@@ -9715,7 +9715,7 @@
         <v>1639.3</v>
       </c>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A164" s="13" t="s">
         <v>181</v>
       </c>
@@ -9735,7 +9735,7 @@
         <v>98.4</v>
       </c>
       <c r="G164" s="4">
-        <v>87.8</v>
+        <v>87.9</v>
       </c>
       <c r="H164" s="4">
         <v>100.8</v>
@@ -9762,7 +9762,7 @@
         <v>1622.6</v>
       </c>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A165" s="13" t="s">
         <v>182</v>
       </c>
@@ -9809,7 +9809,7 @@
         <v>1600.4</v>
       </c>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A166" s="13" t="s">
         <v>183</v>
       </c>
@@ -9856,7 +9856,7 @@
         <v>1572.6</v>
       </c>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A167" s="13" t="s">
         <v>184</v>
       </c>
@@ -9903,7 +9903,7 @@
         <v>1544.8</v>
       </c>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A168" s="13" t="s">
         <v>185</v>
       </c>
@@ -9950,7 +9950,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A169" s="13" t="s">
         <v>186</v>
       </c>
@@ -9997,7 +9997,7 @@
         <v>1483.7</v>
       </c>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A170" s="13" t="s">
         <v>187</v>
       </c>
@@ -10044,7 +10044,7 @@
         <v>1489.3</v>
       </c>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A171" s="13" t="s">
         <v>188</v>
       </c>
@@ -10091,7 +10091,7 @@
         <v>1483.7</v>
       </c>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A172" s="13" t="s">
         <v>189</v>
       </c>
@@ -10138,7 +10138,7 @@
         <v>1478.1</v>
       </c>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A173" s="13" t="s">
         <v>190</v>
       </c>
@@ -10185,7 +10185,7 @@
         <v>1461.4</v>
       </c>
     </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A174" s="13" t="s">
         <v>191</v>
       </c>
@@ -10232,7 +10232,7 @@
         <v>1450.3</v>
       </c>
     </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A175" s="13" t="s">
         <v>192</v>
       </c>
@@ -10279,7 +10279,7 @@
         <v>1455.9</v>
       </c>
     </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A176" s="13" t="s">
         <v>193</v>
       </c>
@@ -10326,7 +10326,7 @@
         <v>1433.7</v>
       </c>
     </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A177" s="13" t="s">
         <v>194</v>
       </c>
@@ -10373,7 +10373,7 @@
         <v>1422.6</v>
       </c>
     </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A178" s="13" t="s">
         <v>195</v>
       </c>
@@ -10420,7 +10420,7 @@
         <v>1400.4</v>
       </c>
     </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A179" s="13" t="s">
         <v>196</v>
       </c>
@@ -10431,7 +10431,7 @@
         <v>5</v>
       </c>
       <c r="D179" s="4">
-        <v>90.7</v>
+        <v>90.6</v>
       </c>
       <c r="E179" s="4">
         <v>92.8</v>
@@ -10467,7 +10467,7 @@
         <v>1394.8</v>
       </c>
     </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A180" s="13" t="s">
         <v>197</v>
       </c>
@@ -10514,7 +10514,7 @@
         <v>1378.1</v>
       </c>
     </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A181" s="13" t="s">
         <v>198</v>
       </c>
@@ -10561,7 +10561,7 @@
         <v>1378.1</v>
       </c>
     </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A182" s="13" t="s">
         <v>199</v>
       </c>
@@ -10608,7 +10608,7 @@
         <v>1394.8</v>
       </c>
     </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A183" s="13" t="s">
         <v>200</v>
       </c>
@@ -10655,7 +10655,7 @@
         <v>1405.9</v>
       </c>
     </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A184" s="13" t="s">
         <v>201</v>
       </c>
@@ -10702,7 +10702,7 @@
         <v>1417</v>
       </c>
     </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A185" s="13" t="s">
         <v>202</v>
       </c>
@@ -10722,7 +10722,7 @@
         <v>90.1</v>
       </c>
       <c r="G185" s="4">
-        <v>100.2</v>
+        <v>100.1</v>
       </c>
       <c r="H185" s="4">
         <v>101.2</v>
@@ -10749,7 +10749,7 @@
         <v>1428.1</v>
       </c>
     </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A186" s="13" t="s">
         <v>203</v>
       </c>
@@ -10796,7 +10796,7 @@
         <v>1433.7</v>
       </c>
     </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A187" s="13" t="s">
         <v>204</v>
       </c>
@@ -10807,7 +10807,7 @@
         <v>1</v>
       </c>
       <c r="D187" s="4">
-        <v>95.3</v>
+        <v>95.2</v>
       </c>
       <c r="E187" s="4">
         <v>95.4</v>
@@ -10843,7 +10843,7 @@
         <v>1444.8</v>
       </c>
     </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A188" s="13" t="s">
         <v>205</v>
       </c>
@@ -10890,7 +10890,7 @@
         <v>1455.9</v>
       </c>
     </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A189" s="13" t="s">
         <v>206</v>
       </c>
@@ -10937,7 +10937,7 @@
         <v>1461.5</v>
       </c>
     </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A190" s="13" t="s">
         <v>207</v>
       </c>
@@ -10984,7 +10984,7 @@
         <v>1467.1</v>
       </c>
     </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A191" s="13" t="s">
         <v>208</v>
       </c>
@@ -11031,7 +11031,7 @@
         <v>1472.7</v>
       </c>
     </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A192" s="13" t="s">
         <v>209</v>
       </c>
@@ -11078,7 +11078,7 @@
         <v>1467.1</v>
       </c>
     </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A193" s="13" t="s">
         <v>210</v>
       </c>
@@ -11125,7 +11125,7 @@
         <v>1467.1</v>
       </c>
     </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A194" s="13" t="s">
         <v>211</v>
       </c>
@@ -11172,7 +11172,7 @@
         <v>1461.5</v>
       </c>
     </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A195" s="13" t="s">
         <v>212</v>
       </c>
@@ -11219,7 +11219,7 @@
         <v>1483.7</v>
       </c>
     </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A196" s="13" t="s">
         <v>213</v>
       </c>
@@ -11266,7 +11266,7 @@
         <v>1494.8</v>
       </c>
     </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A197" s="13" t="s">
         <v>214</v>
       </c>
@@ -11313,7 +11313,7 @@
         <v>1511.5</v>
       </c>
     </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A198" s="13" t="s">
         <v>215</v>
       </c>
@@ -11333,7 +11333,7 @@
         <v>92.5</v>
       </c>
       <c r="G198" s="4">
-        <v>105</v>
+        <v>104.9</v>
       </c>
       <c r="H198" s="4">
         <v>104.1</v>
@@ -11360,7 +11360,7 @@
         <v>1522.6</v>
       </c>
     </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A199" s="13" t="s">
         <v>216</v>
       </c>
@@ -11371,7 +11371,7 @@
         <v>1</v>
       </c>
       <c r="D199" s="4">
-        <v>98.6</v>
+        <v>98.5</v>
       </c>
       <c r="E199" s="4">
         <v>98.8</v>
@@ -11407,7 +11407,7 @@
         <v>1550.4</v>
       </c>
     </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A200" s="13" t="s">
         <v>217</v>
       </c>
@@ -11454,7 +11454,7 @@
         <v>1589.3</v>
       </c>
     </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A201" s="13" t="s">
         <v>218</v>
       </c>
@@ -11474,7 +11474,7 @@
         <v>93.6</v>
       </c>
       <c r="G201" s="4">
-        <v>106</v>
+        <v>105.9</v>
       </c>
       <c r="H201" s="4">
         <v>104.4</v>
@@ -11501,7 +11501,7 @@
         <v>1617.1</v>
       </c>
     </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A202" s="13" t="s">
         <v>219</v>
       </c>
@@ -11548,7 +11548,7 @@
         <v>1644.9</v>
       </c>
     </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A203" s="13" t="s">
         <v>220</v>
       </c>
@@ -11595,7 +11595,7 @@
         <v>1656</v>
       </c>
     </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A204" s="13" t="s">
         <v>221</v>
       </c>
@@ -11615,7 +11615,7 @@
         <v>94.1</v>
       </c>
       <c r="G204" s="4">
-        <v>107.7</v>
+        <v>107.6</v>
       </c>
       <c r="H204" s="4">
         <v>105.8</v>
@@ -11642,7 +11642,7 @@
         <v>1661.6</v>
       </c>
     </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A205" s="13" t="s">
         <v>222</v>
       </c>
@@ -11662,7 +11662,7 @@
         <v>95</v>
       </c>
       <c r="G205" s="4">
-        <v>109.2</v>
+        <v>109.1</v>
       </c>
       <c r="H205" s="4">
         <v>107</v>
@@ -11689,7 +11689,7 @@
         <v>1672.7</v>
       </c>
     </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A206" s="13" t="s">
         <v>223</v>
       </c>
@@ -11736,7 +11736,7 @@
         <v>1700.5</v>
       </c>
     </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A207" s="13" t="s">
         <v>224</v>
       </c>
@@ -11747,7 +11747,7 @@
         <v>9</v>
       </c>
       <c r="D207" s="4">
-        <v>102.9</v>
+        <v>102.8</v>
       </c>
       <c r="E207" s="4">
         <v>102.9</v>
@@ -11783,7 +11783,7 @@
         <v>1711.6</v>
       </c>
     </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A208" s="13" t="s">
         <v>225</v>
       </c>
@@ -11830,7 +11830,7 @@
         <v>1733.8</v>
       </c>
     </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A209" s="13" t="s">
         <v>226</v>
       </c>
@@ -11841,7 +11841,7 @@
         <v>11</v>
       </c>
       <c r="D209" s="4">
-        <v>104.6</v>
+        <v>104.5</v>
       </c>
       <c r="E209" s="4">
         <v>105.4</v>
@@ -11877,7 +11877,7 @@
         <v>1772.7</v>
       </c>
     </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A210" s="13" t="s">
         <v>227</v>
       </c>
@@ -11924,7 +11924,7 @@
         <v>1800.5</v>
       </c>
     </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A211" s="13" t="s">
         <v>228</v>
       </c>
@@ -11935,7 +11935,7 @@
         <v>1</v>
       </c>
       <c r="D211" s="4">
-        <v>103.9</v>
+        <v>103.8</v>
       </c>
       <c r="E211" s="4">
         <v>107</v>
@@ -11944,7 +11944,7 @@
         <v>97.4</v>
       </c>
       <c r="G211" s="4">
-        <v>110.5</v>
+        <v>110.4</v>
       </c>
       <c r="H211" s="4">
         <v>112</v>
@@ -11971,7 +11971,7 @@
         <v>1828.3</v>
       </c>
     </row>
-    <row r="212" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A212" s="13" t="s">
         <v>229</v>
       </c>
@@ -12018,7 +12018,7 @@
         <v>1828.3</v>
       </c>
     </row>
-    <row r="213" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A213" s="13" t="s">
         <v>230</v>
       </c>
@@ -12065,7 +12065,7 @@
         <v>1867.2</v>
       </c>
     </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A214" s="13" t="s">
         <v>231</v>
       </c>
@@ -12112,7 +12112,7 @@
         <v>1883.9</v>
       </c>
     </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A215" s="13" t="s">
         <v>232</v>
       </c>
@@ -12159,7 +12159,7 @@
         <v>1889.5</v>
       </c>
     </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A216" s="13" t="s">
         <v>233</v>
       </c>
@@ -12206,7 +12206,7 @@
         <v>1906.2</v>
       </c>
     </row>
-    <row r="217" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A217" s="13" t="s">
         <v>234</v>
       </c>
@@ -12253,7 +12253,7 @@
         <v>1934</v>
       </c>
     </row>
-    <row r="218" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A218" s="13" t="s">
         <v>235</v>
       </c>
@@ -12300,7 +12300,7 @@
         <v>1950.7</v>
       </c>
     </row>
-    <row r="219" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A219" s="13" t="s">
         <v>236</v>
       </c>
@@ -12347,7 +12347,7 @@
         <v>1967.4</v>
       </c>
     </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A220" s="13" t="s">
         <v>237</v>
       </c>
@@ -12394,7 +12394,7 @@
         <v>1961.8</v>
       </c>
     </row>
-    <row r="221" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A221" s="13" t="s">
         <v>238</v>
       </c>
@@ -12441,7 +12441,7 @@
         <v>1967.4</v>
       </c>
     </row>
-    <row r="222" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A222" s="13" t="s">
         <v>239</v>
       </c>
@@ -12461,7 +12461,7 @@
         <v>101.1</v>
       </c>
       <c r="G222" s="4">
-        <v>100.7</v>
+        <v>100.6</v>
       </c>
       <c r="H222" s="4">
         <v>108.5</v>
@@ -12488,7 +12488,7 @@
         <v>1961.8</v>
       </c>
     </row>
-    <row r="223" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A223" s="13" t="s">
         <v>240</v>
       </c>
@@ -12535,7 +12535,7 @@
         <v>1934</v>
       </c>
     </row>
-    <row r="224" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A224" s="13" t="s">
         <v>241</v>
       </c>
@@ -12582,7 +12582,7 @@
         <v>1906.2</v>
       </c>
     </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A225" s="13" t="s">
         <v>242</v>
       </c>
@@ -12629,7 +12629,7 @@
         <v>1856.2</v>
       </c>
     </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A226" s="13" t="s">
         <v>243</v>
       </c>
@@ -12676,7 +12676,7 @@
         <v>1828.4</v>
       </c>
     </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A227" s="13" t="s">
         <v>244</v>
       </c>
@@ -12723,7 +12723,7 @@
         <v>1800.6</v>
       </c>
     </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A228" s="13" t="s">
         <v>245</v>
       </c>
@@ -12770,7 +12770,7 @@
         <v>1783.9</v>
       </c>
     </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A229" s="13" t="s">
         <v>246</v>
       </c>
@@ -12817,7 +12817,7 @@
         <v>1761.7</v>
       </c>
     </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A230" s="13" t="s">
         <v>247</v>
       </c>
@@ -12864,7 +12864,7 @@
         <v>1728.4</v>
       </c>
     </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A231" s="13" t="s">
         <v>248</v>
       </c>
@@ -12911,7 +12911,7 @@
         <v>1700.6</v>
       </c>
     </row>
-    <row r="232" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A232" s="13" t="s">
         <v>249</v>
       </c>
@@ -12958,7 +12958,7 @@
         <v>1683.9</v>
       </c>
     </row>
-    <row r="233" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A233" s="13" t="s">
         <v>250</v>
       </c>
@@ -13005,7 +13005,7 @@
         <v>1656.1</v>
       </c>
     </row>
-    <row r="234" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A234" s="13" t="s">
         <v>251</v>
       </c>
@@ -13052,7 +13052,7 @@
         <v>1639.4</v>
       </c>
     </row>
-    <row r="235" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A235" s="13" t="s">
         <v>252</v>
       </c>
@@ -13099,7 +13099,7 @@
         <v>1645</v>
       </c>
     </row>
-    <row r="236" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A236" s="13" t="s">
         <v>253</v>
       </c>
@@ -13146,7 +13146,7 @@
         <v>1628.3</v>
       </c>
     </row>
-    <row r="237" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A237" s="13" t="s">
         <v>254</v>
       </c>
@@ -13157,7 +13157,7 @@
         <v>3</v>
       </c>
       <c r="D237" s="4">
-        <v>92.9</v>
+        <v>92.8</v>
       </c>
       <c r="E237" s="4">
         <v>98.3</v>
@@ -13193,7 +13193,7 @@
         <v>1611.6</v>
       </c>
     </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A238" s="13" t="s">
         <v>255</v>
       </c>
@@ -13240,7 +13240,7 @@
         <v>1578.3</v>
       </c>
     </row>
-    <row r="239" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A239" s="13" t="s">
         <v>256</v>
       </c>
@@ -13260,7 +13260,7 @@
         <v>91.1</v>
       </c>
       <c r="G239" s="4">
-        <v>99</v>
+        <v>98.9</v>
       </c>
       <c r="H239" s="4">
         <v>103.2</v>
@@ -13287,7 +13287,7 @@
         <v>1561.6</v>
       </c>
     </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A240" s="13" t="s">
         <v>257</v>
       </c>
@@ -13307,7 +13307,7 @@
         <v>90.8</v>
       </c>
       <c r="G240" s="4">
-        <v>100.7</v>
+        <v>100.6</v>
       </c>
       <c r="H240" s="4">
         <v>103.2</v>
@@ -13334,7 +13334,7 @@
         <v>1550.5</v>
       </c>
     </row>
-    <row r="241" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A241" s="13" t="s">
         <v>258</v>
       </c>
@@ -13345,7 +13345,7 @@
         <v>7</v>
       </c>
       <c r="D241" s="4">
-        <v>97</v>
+        <v>96.9</v>
       </c>
       <c r="E241" s="4">
         <v>99.2</v>
@@ -13381,7 +13381,7 @@
         <v>1550.5</v>
       </c>
     </row>
-    <row r="242" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A242" s="13" t="s">
         <v>259</v>
       </c>
@@ -13428,7 +13428,7 @@
         <v>1550.5</v>
       </c>
     </row>
-    <row r="243" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A243" s="13" t="s">
         <v>260</v>
       </c>
@@ -13475,7 +13475,7 @@
         <v>1561.6</v>
       </c>
     </row>
-    <row r="244" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A244" s="13" t="s">
         <v>261</v>
       </c>
@@ -13486,7 +13486,7 @@
         <v>10</v>
       </c>
       <c r="D244" s="4">
-        <v>98.7</v>
+        <v>98.6</v>
       </c>
       <c r="E244" s="4">
         <v>101.7</v>
@@ -13522,7 +13522,7 @@
         <v>1556</v>
       </c>
     </row>
-    <row r="245" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A245" s="13" t="s">
         <v>262</v>
       </c>
@@ -13533,7 +13533,7 @@
         <v>11</v>
       </c>
       <c r="D245" s="4">
-        <v>99</v>
+        <v>98.9</v>
       </c>
       <c r="E245" s="4">
         <v>102.5</v>
@@ -13569,7 +13569,7 @@
         <v>1550.4</v>
       </c>
     </row>
-    <row r="246" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A246" s="13" t="s">
         <v>263</v>
       </c>
@@ -13616,7 +13616,7 @@
         <v>1544.8</v>
       </c>
     </row>
-    <row r="247" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A247" s="13" t="s">
         <v>264</v>
       </c>
@@ -13663,7 +13663,7 @@
         <v>1539.2</v>
       </c>
     </row>
-    <row r="248" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A248" s="13" t="s">
         <v>265</v>
       </c>
@@ -13710,7 +13710,7 @@
         <v>1550.3</v>
       </c>
     </row>
-    <row r="249" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A249" s="13" t="s">
         <v>266</v>
       </c>
@@ -13757,7 +13757,7 @@
         <v>1578.1</v>
       </c>
     </row>
-    <row r="250" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A250" s="13" t="s">
         <v>267</v>
       </c>
@@ -13804,7 +13804,7 @@
         <v>1594.8</v>
       </c>
     </row>
-    <row r="251" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A251" s="13" t="s">
         <v>268</v>
       </c>
@@ -13815,7 +13815,7 @@
         <v>5</v>
       </c>
       <c r="D251" s="4">
-        <v>102.2</v>
+        <v>102.1</v>
       </c>
       <c r="E251" s="4">
         <v>106.1</v>
@@ -13851,7 +13851,7 @@
         <v>1600.4</v>
       </c>
     </row>
-    <row r="252" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A252" s="13" t="s">
         <v>269</v>
       </c>
@@ -13871,7 +13871,7 @@
         <v>92.5</v>
       </c>
       <c r="G252" s="4">
-        <v>108.4</v>
+        <v>108.3</v>
       </c>
       <c r="H252" s="4">
         <v>112.7</v>
@@ -13898,7 +13898,7 @@
         <v>1578.2</v>
       </c>
     </row>
-    <row r="253" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A253" s="13" t="s">
         <v>270</v>
       </c>
@@ -13945,7 +13945,7 @@
         <v>1578.2</v>
       </c>
     </row>
-    <row r="254" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A254" s="13" t="s">
         <v>271</v>
       </c>
@@ -13992,7 +13992,7 @@
         <v>1556</v>
       </c>
     </row>
-    <row r="255" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A255" s="13" t="s">
         <v>272</v>
       </c>
@@ -14039,7 +14039,7 @@
         <v>1539.3</v>
       </c>
     </row>
-    <row r="256" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A256" s="13" t="s">
         <v>273</v>
       </c>
@@ -14086,7 +14086,7 @@
         <v>1550.4</v>
       </c>
     </row>
-    <row r="257" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A257" s="13" t="s">
         <v>274</v>
       </c>
@@ -14106,7 +14106,7 @@
         <v>93.6</v>
       </c>
       <c r="G257" s="4">
-        <v>109.9</v>
+        <v>109.8</v>
       </c>
       <c r="H257" s="4">
         <v>114.8</v>
@@ -14133,7 +14133,7 @@
         <v>1556</v>
       </c>
     </row>
-    <row r="258" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A258" s="13" t="s">
         <v>275</v>
       </c>
@@ -14153,7 +14153,7 @@
         <v>93.9</v>
       </c>
       <c r="G258" s="4">
-        <v>110.3</v>
+        <v>110.2</v>
       </c>
       <c r="H258" s="4">
         <v>115.9</v>
@@ -14180,7 +14180,7 @@
         <v>1572.7</v>
       </c>
     </row>
-    <row r="259" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="259" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A259" s="13" t="s">
         <v>276</v>
       </c>
@@ -14227,7 +14227,7 @@
         <v>1544.9</v>
       </c>
     </row>
-    <row r="260" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A260" s="13" t="s">
         <v>277</v>
       </c>
@@ -14247,7 +14247,7 @@
         <v>94.3</v>
       </c>
       <c r="G260" s="4">
-        <v>106.6</v>
+        <v>106.5</v>
       </c>
       <c r="H260" s="4">
         <v>112.9</v>
@@ -14274,7 +14274,7 @@
         <v>1550.5</v>
       </c>
     </row>
-    <row r="261" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A261" s="13" t="s">
         <v>278</v>
       </c>
@@ -14321,7 +14321,7 @@
         <v>1539.4</v>
       </c>
     </row>
-    <row r="262" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="262" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A262" s="13" t="s">
         <v>279</v>
       </c>
@@ -14368,7 +14368,7 @@
         <v>1517.2</v>
       </c>
     </row>
-    <row r="263" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="263" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A263" s="13" t="s">
         <v>280</v>
       </c>
@@ -14379,7 +14379,7 @@
         <v>5</v>
       </c>
       <c r="D263" s="4">
-        <v>98.6</v>
+        <v>98.5</v>
       </c>
       <c r="E263" s="4">
         <v>103.7</v>
@@ -14415,7 +14415,7 @@
         <v>1506.1</v>
       </c>
     </row>
-    <row r="264" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="264" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A264" s="13" t="s">
         <v>281</v>
       </c>
@@ -14462,7 +14462,7 @@
         <v>1489.4</v>
       </c>
     </row>
-    <row r="265" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A265" s="13" t="s">
         <v>282</v>
       </c>
@@ -14509,7 +14509,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="266" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="266" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A266" s="13" t="s">
         <v>283</v>
       </c>
@@ -14556,7 +14556,7 @@
         <v>1483.9</v>
       </c>
     </row>
-    <row r="267" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="267" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A267" s="13" t="s">
         <v>284</v>
       </c>
@@ -14603,7 +14603,7 @@
         <v>1483.9</v>
       </c>
     </row>
-    <row r="268" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="268" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A268" s="13" t="s">
         <v>285</v>
       </c>
@@ -14650,7 +14650,7 @@
         <v>1478.3</v>
       </c>
     </row>
-    <row r="269" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="269" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A269" s="13" t="s">
         <v>286</v>
       </c>
@@ -14670,7 +14670,7 @@
         <v>91.9</v>
       </c>
       <c r="G269" s="4">
-        <v>97.4</v>
+        <v>97.3</v>
       </c>
       <c r="H269" s="4">
         <v>102</v>
@@ -14697,7 +14697,7 @@
         <v>1467.2</v>
       </c>
     </row>
-    <row r="270" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="270" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A270" s="13" t="s">
         <v>287</v>
       </c>
@@ -14744,7 +14744,7 @@
         <v>1433.9</v>
       </c>
     </row>
-    <row r="271" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A271" s="13" t="s">
         <v>288</v>
       </c>
@@ -14791,7 +14791,7 @@
         <v>1417.2</v>
       </c>
     </row>
-    <row r="272" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="272" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A272" s="13" t="s">
         <v>289</v>
       </c>
@@ -14838,7 +14838,7 @@
         <v>1395</v>
       </c>
     </row>
-    <row r="273" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="273" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A273" s="13" t="s">
         <v>290</v>
       </c>
@@ -14885,7 +14885,7 @@
         <v>1400.6</v>
       </c>
     </row>
-    <row r="274" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="274" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A274" s="13" t="s">
         <v>291</v>
       </c>
@@ -14896,7 +14896,7 @@
         <v>4</v>
       </c>
       <c r="D274" s="4">
-        <v>97.9</v>
+        <v>97.8</v>
       </c>
       <c r="E274" s="4">
         <v>99.2</v>
@@ -14905,7 +14905,7 @@
         <v>90.5</v>
       </c>
       <c r="G274" s="4">
-        <v>104.2</v>
+        <v>104.1</v>
       </c>
       <c r="H274" s="4">
         <v>104</v>
@@ -14932,7 +14932,7 @@
         <v>1378.4</v>
       </c>
     </row>
-    <row r="275" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="275" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A275" s="13" t="s">
         <v>292</v>
       </c>
@@ -14979,7 +14979,7 @@
         <v>1367.3</v>
       </c>
     </row>
-    <row r="276" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A276" s="13" t="s">
         <v>293</v>
       </c>
@@ -14999,7 +14999,7 @@
         <v>89.9</v>
       </c>
       <c r="G276" s="4">
-        <v>106</v>
+        <v>105.9</v>
       </c>
       <c r="H276" s="4">
         <v>106.1</v>
@@ -15026,7 +15026,7 @@
         <v>1350.6</v>
       </c>
     </row>
-    <row r="277" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="277" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A277" s="13" t="s">
         <v>294</v>
       </c>
@@ -15073,7 +15073,7 @@
         <v>1356.2</v>
       </c>
     </row>
-    <row r="278" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="278" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A278" s="13" t="s">
         <v>295</v>
       </c>
@@ -15120,7 +15120,7 @@
         <v>1350.6</v>
       </c>
     </row>
-    <row r="279" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="279" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A279" s="13" t="s">
         <v>296</v>
       </c>
@@ -15167,7 +15167,7 @@
         <v>1350.6</v>
       </c>
     </row>
-    <row r="280" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="280" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A280" s="13" t="s">
         <v>297</v>
       </c>
@@ -15214,7 +15214,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="281" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="281" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A281" s="13" t="s">
         <v>298</v>
       </c>
@@ -15261,7 +15261,7 @@
         <v>1350.6</v>
       </c>
     </row>
-    <row r="282" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="282" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A282" s="13" t="s">
         <v>299</v>
       </c>
@@ -15308,7 +15308,7 @@
         <v>1378.4</v>
       </c>
     </row>
-    <row r="283" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="283" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A283" s="13" t="s">
         <v>300</v>
       </c>
@@ -15355,7 +15355,7 @@
         <v>1372.8</v>
       </c>
     </row>
-    <row r="284" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="284" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A284" s="13" t="s">
         <v>301</v>
       </c>
@@ -15402,7 +15402,7 @@
         <v>1383.9</v>
       </c>
     </row>
-    <row r="285" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="285" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A285" s="13" t="s">
         <v>302</v>
       </c>
@@ -15449,7 +15449,7 @@
         <v>1395</v>
       </c>
     </row>
-    <row r="286" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="286" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A286" s="13" t="s">
         <v>303</v>
       </c>
@@ -15496,7 +15496,7 @@
         <v>1411.7</v>
       </c>
     </row>
-    <row r="287" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="287" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A287" s="13" t="s">
         <v>304</v>
       </c>
@@ -15516,7 +15516,7 @@
         <v>93.7</v>
       </c>
       <c r="G287" s="4">
-        <v>107.3</v>
+        <v>107.2</v>
       </c>
       <c r="H287" s="4">
         <v>109.6</v>
@@ -15543,7 +15543,7 @@
         <v>1422.8</v>
       </c>
     </row>
-    <row r="288" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="288" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A288" s="13" t="s">
         <v>305</v>
       </c>
@@ -15590,7 +15590,7 @@
         <v>1439.5</v>
       </c>
     </row>
-    <row r="289" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="289" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A289" s="13" t="s">
         <v>306</v>
       </c>
@@ -15601,7 +15601,7 @@
         <v>7</v>
       </c>
       <c r="D289" s="4">
-        <v>102.4</v>
+        <v>102.3</v>
       </c>
       <c r="E289" s="4">
         <v>105.3</v>
@@ -15637,7 +15637,7 @@
         <v>1467.3</v>
       </c>
     </row>
-    <row r="290" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="290" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A290" s="13" t="s">
         <v>307</v>
       </c>
@@ -15648,7 +15648,7 @@
         <v>8</v>
       </c>
       <c r="D290" s="4">
-        <v>102.3</v>
+        <v>102.2</v>
       </c>
       <c r="E290" s="4">
         <v>105.6</v>
@@ -15684,7 +15684,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="291" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="291" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A291" s="13" t="s">
         <v>308</v>
       </c>
@@ -15695,7 +15695,7 @@
         <v>9</v>
       </c>
       <c r="D291" s="4">
-        <v>104.5</v>
+        <v>104.4</v>
       </c>
       <c r="E291" s="4">
         <v>107.5</v>
@@ -15731,7 +15731,7 @@
         <v>1511.8</v>
       </c>
     </row>
-    <row r="292" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="292" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A292" s="13" t="s">
         <v>309</v>
       </c>
@@ -15778,7 +15778,7 @@
         <v>1550.7</v>
       </c>
     </row>
-    <row r="293" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="293" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A293" s="13" t="s">
         <v>310</v>
       </c>
@@ -15789,7 +15789,7 @@
         <v>11</v>
       </c>
       <c r="D293" s="4">
-        <v>104.7</v>
+        <v>104.6</v>
       </c>
       <c r="E293" s="4">
         <v>109.1</v>
@@ -15825,7 +15825,7 @@
         <v>1567.4</v>
       </c>
     </row>
-    <row r="294" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="294" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A294" s="13" t="s">
         <v>311</v>
       </c>
@@ -15872,7 +15872,7 @@
         <v>1584.1</v>
       </c>
     </row>
-    <row r="295" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="295" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A295" s="13" t="s">
         <v>312</v>
       </c>
@@ -15883,7 +15883,7 @@
         <v>1</v>
       </c>
       <c r="D295" s="4">
-        <v>107.6</v>
+        <v>107.5</v>
       </c>
       <c r="E295" s="4">
         <v>112.6</v>
@@ -15919,7 +15919,7 @@
         <v>1606.3</v>
       </c>
     </row>
-    <row r="296" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="296" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A296" s="13" t="s">
         <v>313</v>
       </c>
@@ -15966,7 +15966,7 @@
         <v>1634.1</v>
       </c>
     </row>
-    <row r="297" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="297" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A297" s="13" t="s">
         <v>314</v>
       </c>
@@ -15977,7 +15977,7 @@
         <v>3</v>
       </c>
       <c r="D297" s="4">
-        <v>109.6</v>
+        <v>109.5</v>
       </c>
       <c r="E297" s="4">
         <v>112.5</v>
@@ -16013,7 +16013,7 @@
         <v>1650.8</v>
       </c>
     </row>
-    <row r="298" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="298" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A298" s="13" t="s">
         <v>315</v>
       </c>
@@ -16060,7 +16060,7 @@
         <v>1656.4</v>
       </c>
     </row>
-    <row r="299" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="299" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A299" s="13" t="s">
         <v>316</v>
       </c>
@@ -16080,7 +16080,7 @@
         <v>101.9</v>
       </c>
       <c r="G299" s="4">
-        <v>118.7</v>
+        <v>118.6</v>
       </c>
       <c r="H299" s="4">
         <v>119.1</v>
@@ -16107,7 +16107,7 @@
         <v>1684.2</v>
       </c>
     </row>
-    <row r="300" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="300" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A300" s="13" t="s">
         <v>317</v>
       </c>
@@ -16154,7 +16154,7 @@
         <v>1717.5</v>
       </c>
     </row>
-    <row r="301" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="301" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A301" s="13" t="s">
         <v>318</v>
       </c>
@@ -16201,7 +16201,7 @@
         <v>1728.6</v>
       </c>
     </row>
-    <row r="302" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="302" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A302" s="13" t="s">
         <v>319</v>
       </c>
@@ -16248,7 +16248,7 @@
         <v>1750.8</v>
       </c>
     </row>
-    <row r="303" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="303" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A303" s="13" t="s">
         <v>320</v>
       </c>
@@ -16259,7 +16259,7 @@
         <v>9</v>
       </c>
       <c r="D303" s="4">
-        <v>112</v>
+        <v>111.9</v>
       </c>
       <c r="E303" s="4">
         <v>114.7</v>
@@ -16268,7 +16268,7 @@
         <v>103.2</v>
       </c>
       <c r="G303" s="4">
-        <v>119.7</v>
+        <v>119.6</v>
       </c>
       <c r="H303" s="4">
         <v>120.3</v>
@@ -16295,7 +16295,7 @@
         <v>1795.2</v>
       </c>
     </row>
-    <row r="304" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="304" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A304" s="13" t="s">
         <v>321</v>
       </c>
@@ -16342,7 +16342,7 @@
         <v>1806.3</v>
       </c>
     </row>
-    <row r="305" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="305" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A305" s="13" t="s">
         <v>322</v>
       </c>
@@ -16353,7 +16353,7 @@
         <v>11</v>
       </c>
       <c r="D305" s="4">
-        <v>112.4</v>
+        <v>112.3</v>
       </c>
       <c r="E305" s="4">
         <v>115.5</v>
@@ -16389,7 +16389,7 @@
         <v>1811.9</v>
       </c>
     </row>
-    <row r="306" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="306" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A306" s="13" t="s">
         <v>323</v>
       </c>
@@ -16400,7 +16400,7 @@
         <v>12</v>
       </c>
       <c r="D306" s="4">
-        <v>112.9</v>
+        <v>112.8</v>
       </c>
       <c r="E306" s="4">
         <v>114.3</v>
@@ -16436,7 +16436,7 @@
         <v>1806.3</v>
       </c>
     </row>
-    <row r="307" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="307" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A307" s="13" t="s">
         <v>324</v>
       </c>
@@ -16483,7 +16483,7 @@
         <v>1817.4</v>
       </c>
     </row>
-    <row r="308" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="308" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A308" s="13" t="s">
         <v>325</v>
       </c>
@@ -16494,7 +16494,7 @@
         <v>2</v>
       </c>
       <c r="D308" s="4">
-        <v>111.8</v>
+        <v>111.7</v>
       </c>
       <c r="E308" s="4">
         <v>114.2</v>
@@ -16503,7 +16503,7 @@
         <v>102.8</v>
       </c>
       <c r="G308" s="4">
-        <v>119.4</v>
+        <v>119.3</v>
       </c>
       <c r="H308" s="4">
         <v>119.7</v>
@@ -16530,7 +16530,7 @@
         <v>1817.4</v>
       </c>
     </row>
-    <row r="309" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="309" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A309" s="13" t="s">
         <v>326</v>
       </c>
@@ -16550,7 +16550,7 @@
         <v>104</v>
       </c>
       <c r="G309" s="4">
-        <v>120.3</v>
+        <v>120.2</v>
       </c>
       <c r="H309" s="4">
         <v>120.9</v>
@@ -16577,7 +16577,7 @@
         <v>1823</v>
       </c>
     </row>
-    <row r="310" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="310" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A310" s="13" t="s">
         <v>327</v>
       </c>
@@ -16597,7 +16597,7 @@
         <v>103.8</v>
       </c>
       <c r="G310" s="4">
-        <v>121</v>
+        <v>120.9</v>
       </c>
       <c r="H310" s="4">
         <v>122.4</v>
@@ -16624,7 +16624,7 @@
         <v>1850.8</v>
       </c>
     </row>
-    <row r="311" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="311" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A311" s="13" t="s">
         <v>328</v>
       </c>
@@ -16671,7 +16671,7 @@
         <v>1867.5</v>
       </c>
     </row>
-    <row r="312" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="312" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A312" s="13" t="s">
         <v>329</v>
       </c>
@@ -16718,7 +16718,7 @@
         <v>1884.2</v>
       </c>
     </row>
-    <row r="313" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="313" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A313" s="13" t="s">
         <v>330</v>
       </c>
@@ -16765,7 +16765,7 @@
         <v>1873.1</v>
       </c>
     </row>
-    <row r="314" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="314" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A314" s="13" t="s">
         <v>331</v>
       </c>
@@ -16812,7 +16812,7 @@
         <v>1889.8</v>
       </c>
     </row>
-    <row r="315" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="315" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A315" s="13" t="s">
         <v>332</v>
       </c>
@@ -16859,7 +16859,7 @@
         <v>1917.6</v>
       </c>
     </row>
-    <row r="316" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="316" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A316" s="13" t="s">
         <v>333</v>
       </c>
@@ -16906,7 +16906,7 @@
         <v>1939.8</v>
       </c>
     </row>
-    <row r="317" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="317" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A317" s="13" t="s">
         <v>334</v>
       </c>
@@ -16917,7 +16917,7 @@
         <v>11</v>
       </c>
       <c r="D317" s="4">
-        <v>117.1</v>
+        <v>117</v>
       </c>
       <c r="E317" s="4">
         <v>117.9</v>
@@ -16953,7 +16953,7 @@
         <v>1945.4</v>
       </c>
     </row>
-    <row r="318" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="318" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A318" s="13" t="s">
         <v>335</v>
       </c>
@@ -16973,7 +16973,7 @@
         <v>105.5</v>
       </c>
       <c r="G318" s="4">
-        <v>124.5</v>
+        <v>124.4</v>
       </c>
       <c r="H318" s="4">
         <v>124.3</v>
@@ -17000,7 +17000,7 @@
         <v>1951</v>
       </c>
     </row>
-    <row r="319" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="319" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A319" s="13" t="s">
         <v>336</v>
       </c>
@@ -17011,7 +17011,7 @@
         <v>1</v>
       </c>
       <c r="D319" s="4">
-        <v>117.8</v>
+        <v>117.7</v>
       </c>
       <c r="E319" s="4">
         <v>119.1</v>
@@ -17047,7 +17047,7 @@
         <v>1962.1</v>
       </c>
     </row>
-    <row r="320" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="320" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A320" s="13" t="s">
         <v>337</v>
       </c>
@@ -17094,7 +17094,7 @@
         <v>1984.3</v>
       </c>
     </row>
-    <row r="321" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="321" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A321" s="13" t="s">
         <v>338</v>
       </c>
@@ -17141,7 +17141,7 @@
         <v>2012.1</v>
       </c>
     </row>
-    <row r="322" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="322" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A322" s="13" t="s">
         <v>339</v>
       </c>
@@ -17152,7 +17152,7 @@
         <v>4</v>
       </c>
       <c r="D322" s="4">
-        <v>118.8</v>
+        <v>118.7</v>
       </c>
       <c r="E322" s="4">
         <v>120.5</v>
@@ -17188,7 +17188,7 @@
         <v>2045.4</v>
       </c>
     </row>
-    <row r="323" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="323" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A323" s="13" t="s">
         <v>340</v>
       </c>
@@ -17235,7 +17235,7 @@
         <v>2067.6</v>
       </c>
     </row>
-    <row r="324" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="324" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A324" s="13" t="s">
         <v>341</v>
       </c>
@@ -17255,7 +17255,7 @@
         <v>108.4</v>
       </c>
       <c r="G324" s="4">
-        <v>124.4</v>
+        <v>124.3</v>
       </c>
       <c r="H324" s="4">
         <v>126.9</v>
@@ -17282,7 +17282,7 @@
         <v>2106.5</v>
       </c>
     </row>
-    <row r="325" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="325" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A325" s="13" t="s">
         <v>342</v>
       </c>
@@ -17329,7 +17329,7 @@
         <v>2134.3000000000002</v>
       </c>
     </row>
-    <row r="326" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="326" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A326" s="13" t="s">
         <v>343</v>
       </c>
@@ -17376,7 +17376,7 @@
         <v>2151</v>
       </c>
     </row>
-    <row r="327" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="327" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A327" s="13" t="s">
         <v>344</v>
       </c>
@@ -17396,7 +17396,7 @@
         <v>109.1</v>
       </c>
       <c r="G327" s="4">
-        <v>124.2</v>
+        <v>124.1</v>
       </c>
       <c r="H327" s="4">
         <v>127.3</v>
@@ -17423,7 +17423,7 @@
         <v>2162.1</v>
       </c>
     </row>
-    <row r="328" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="328" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A328" s="13" t="s">
         <v>345</v>
       </c>
@@ -17470,7 +17470,7 @@
         <v>2173.1999999999998</v>
       </c>
     </row>
-    <row r="329" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="329" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A329" s="13" t="s">
         <v>346</v>
       </c>
@@ -17517,7 +17517,7 @@
         <v>2189.9</v>
       </c>
     </row>
-    <row r="330" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="330" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A330" s="13" t="s">
         <v>347</v>
       </c>
@@ -17564,7 +17564,7 @@
         <v>2217.6999999999998</v>
       </c>
     </row>
-    <row r="331" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="331" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A331" s="13" t="s">
         <v>348</v>
       </c>
@@ -17584,7 +17584,7 @@
         <v>111.3</v>
       </c>
       <c r="G331" s="4">
-        <v>125.2</v>
+        <v>125.1</v>
       </c>
       <c r="H331" s="4">
         <v>127.9</v>
@@ -17611,7 +17611,7 @@
         <v>2228.8000000000002</v>
       </c>
     </row>
-    <row r="332" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="332" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A332" s="13" t="s">
         <v>349</v>
       </c>
@@ -17631,7 +17631,7 @@
         <v>110.7</v>
       </c>
       <c r="G332" s="4">
-        <v>125.9</v>
+        <v>125.8</v>
       </c>
       <c r="H332" s="4">
         <v>127.7</v>
@@ -17658,7 +17658,7 @@
         <v>2201</v>
       </c>
     </row>
-    <row r="333" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="333" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A333" s="13" t="s">
         <v>350</v>
       </c>
@@ -17669,7 +17669,7 @@
         <v>3</v>
       </c>
       <c r="D333" s="4">
-        <v>117.3</v>
+        <v>117.2</v>
       </c>
       <c r="E333" s="4">
         <v>121.4</v>
@@ -17678,7 +17678,7 @@
         <v>110.6</v>
       </c>
       <c r="G333" s="4">
-        <v>125.1</v>
+        <v>125</v>
       </c>
       <c r="H333" s="4">
         <v>127.1</v>
@@ -17705,7 +17705,7 @@
         <v>2195.4</v>
       </c>
     </row>
-    <row r="334" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="334" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A334" s="13" t="s">
         <v>351</v>
       </c>
@@ -17725,7 +17725,7 @@
         <v>111.7</v>
       </c>
       <c r="G334" s="4">
-        <v>125.5</v>
+        <v>125.4</v>
       </c>
       <c r="H334" s="4">
         <v>128.1</v>
@@ -17752,7 +17752,7 @@
         <v>2189.8000000000002</v>
       </c>
     </row>
-    <row r="335" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="335" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A335" s="13" t="s">
         <v>352</v>
       </c>
@@ -17799,7 +17799,7 @@
         <v>2217.6</v>
       </c>
     </row>
-    <row r="336" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="336" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A336" s="13" t="s">
         <v>353</v>
       </c>
@@ -17846,7 +17846,7 @@
         <v>2245.4</v>
       </c>
     </row>
-    <row r="337" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="337" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A337" s="13" t="s">
         <v>354</v>
       </c>
@@ -17893,7 +17893,7 @@
         <v>2284.3000000000002</v>
       </c>
     </row>
-    <row r="338" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="338" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A338" s="13" t="s">
         <v>355</v>
       </c>
@@ -17904,7 +17904,7 @@
         <v>8</v>
       </c>
       <c r="D338" s="4">
-        <v>114.4</v>
+        <v>114.3</v>
       </c>
       <c r="E338" s="4">
         <v>122.9</v>
@@ -17940,7 +17940,7 @@
         <v>2306.5</v>
       </c>
     </row>
-    <row r="339" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="339" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A339" s="13" t="s">
         <v>356</v>
       </c>
@@ -17987,7 +17987,7 @@
         <v>2317.6</v>
       </c>
     </row>
-    <row r="340" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="340" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A340" s="13" t="s">
         <v>357</v>
       </c>
@@ -18034,7 +18034,7 @@
         <v>2334.3000000000002</v>
       </c>
     </row>
-    <row r="341" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="341" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A341" s="13" t="s">
         <v>358</v>
       </c>
@@ -18081,7 +18081,7 @@
         <v>2351</v>
       </c>
     </row>
-    <row r="342" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="342" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A342" s="13" t="s">
         <v>359</v>
       </c>
@@ -18128,7 +18128,7 @@
         <v>2378.8000000000002</v>
       </c>
     </row>
-    <row r="343" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="343" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A343" s="13" t="s">
         <v>360</v>
       </c>
@@ -18175,7 +18175,7 @@
         <v>2406.6</v>
       </c>
     </row>
-    <row r="344" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="344" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A344" s="13" t="s">
         <v>361</v>
       </c>
@@ -18222,7 +18222,7 @@
         <v>2401</v>
       </c>
     </row>
-    <row r="345" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="345" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A345" s="13" t="s">
         <v>362</v>
       </c>
@@ -18269,7 +18269,7 @@
         <v>2389.9</v>
       </c>
     </row>
-    <row r="346" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="346" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A346" s="13" t="s">
         <v>363</v>
       </c>
@@ -18316,7 +18316,7 @@
         <v>2351</v>
       </c>
     </row>
-    <row r="347" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="347" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A347" s="13" t="s">
         <v>364</v>
       </c>
@@ -18363,7 +18363,7 @@
         <v>2323.1999999999998</v>
       </c>
     </row>
-    <row r="348" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="348" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A348" s="13" t="s">
         <v>365</v>
       </c>
@@ -18374,7 +18374,7 @@
         <v>6</v>
       </c>
       <c r="D348" s="4">
-        <v>109.5</v>
+        <v>109.4</v>
       </c>
       <c r="E348" s="4">
         <v>117.1</v>
@@ -18410,7 +18410,7 @@
         <v>2295.4</v>
       </c>
     </row>
-    <row r="349" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="349" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A349" s="13" t="s">
         <v>366</v>
       </c>
@@ -18457,7 +18457,7 @@
         <v>2278.6999999999998</v>
       </c>
     </row>
-    <row r="350" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="350" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A350" s="13" t="s">
         <v>367</v>
       </c>
@@ -18504,7 +18504,7 @@
         <v>2239.8000000000002</v>
       </c>
     </row>
-    <row r="351" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="351" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A351" s="13" t="s">
         <v>368</v>
       </c>
@@ -18551,7 +18551,7 @@
         <v>2223.1</v>
       </c>
     </row>
-    <row r="352" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="352" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A352" s="13" t="s">
         <v>369</v>
       </c>
@@ -18598,7 +18598,7 @@
         <v>2184.1999999999998</v>
       </c>
     </row>
-    <row r="353" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="353" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A353" s="13" t="s">
         <v>370</v>
       </c>
@@ -18645,7 +18645,7 @@
         <v>2178.6</v>
       </c>
     </row>
-    <row r="354" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="354" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A354" s="13" t="s">
         <v>371</v>
       </c>
@@ -18665,7 +18665,7 @@
         <v>102.2</v>
       </c>
       <c r="G354" s="4">
-        <v>89.9</v>
+        <v>90</v>
       </c>
       <c r="H354" s="4">
         <v>97</v>
@@ -18692,7 +18692,7 @@
         <v>2128.6</v>
       </c>
     </row>
-    <row r="355" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="355" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A355" s="13" t="s">
         <v>372</v>
       </c>
@@ -18739,7 +18739,7 @@
         <v>2078.6</v>
       </c>
     </row>
-    <row r="356" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="356" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A356" s="13" t="s">
         <v>373</v>
       </c>
@@ -18786,7 +18786,7 @@
         <v>2028.6</v>
       </c>
     </row>
-    <row r="357" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="357" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A357" s="13" t="s">
         <v>374</v>
       </c>
@@ -18833,7 +18833,7 @@
         <v>1989.7</v>
       </c>
     </row>
-    <row r="358" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="358" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A358" s="13" t="s">
         <v>375</v>
       </c>
@@ -18880,7 +18880,7 @@
         <v>1950.8</v>
       </c>
     </row>
-    <row r="359" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="359" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A359" s="13" t="s">
         <v>376</v>
       </c>
@@ -18927,7 +18927,7 @@
         <v>1923</v>
       </c>
     </row>
-    <row r="360" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="360" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A360" s="13" t="s">
         <v>377</v>
       </c>
@@ -18974,7 +18974,7 @@
         <v>1884.1</v>
       </c>
     </row>
-    <row r="361" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="361" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A361" s="13" t="s">
         <v>378</v>
       </c>
@@ -18985,7 +18985,7 @@
         <v>7</v>
       </c>
       <c r="D361" s="4">
-        <v>95</v>
+        <v>94.9</v>
       </c>
       <c r="E361" s="4">
         <v>88.6</v>
@@ -19021,7 +19021,7 @@
         <v>1845.2</v>
       </c>
     </row>
-    <row r="362" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="362" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A362" s="13" t="s">
         <v>379</v>
       </c>
@@ -19068,7 +19068,7 @@
         <v>1828.5</v>
       </c>
     </row>
-    <row r="363" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="363" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A363" s="13" t="s">
         <v>380</v>
       </c>
@@ -19115,7 +19115,7 @@
         <v>1811.8</v>
       </c>
     </row>
-    <row r="364" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="364" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A364" s="13" t="s">
         <v>381</v>
       </c>
@@ -19162,7 +19162,7 @@
         <v>1800.7</v>
       </c>
     </row>
-    <row r="365" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="365" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A365" s="13" t="s">
         <v>382</v>
       </c>
@@ -19209,7 +19209,7 @@
         <v>1784</v>
       </c>
     </row>
-    <row r="366" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="366" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A366" s="13" t="s">
         <v>383</v>
       </c>
@@ -19256,7 +19256,7 @@
         <v>1789.6</v>
       </c>
     </row>
-    <row r="367" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="367" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A367" s="13" t="s">
         <v>384</v>
       </c>
@@ -19303,7 +19303,7 @@
         <v>1806.3</v>
       </c>
     </row>
-    <row r="368" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="368" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A368" s="13" t="s">
         <v>385</v>
       </c>
@@ -19350,7 +19350,7 @@
         <v>1811.9</v>
       </c>
     </row>
-    <row r="369" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="369" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A369" s="13" t="s">
         <v>386</v>
       </c>
@@ -19397,7 +19397,7 @@
         <v>1828.6</v>
       </c>
     </row>
-    <row r="370" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="370" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A370" s="13" t="s">
         <v>387</v>
       </c>
@@ -19444,7 +19444,7 @@
         <v>1811.9</v>
       </c>
     </row>
-    <row r="371" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="371" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A371" s="13" t="s">
         <v>388</v>
       </c>
@@ -19491,7 +19491,7 @@
         <v>1811.9</v>
       </c>
     </row>
-    <row r="372" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="372" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A372" s="13" t="s">
         <v>389</v>
       </c>
@@ -19502,7 +19502,7 @@
         <v>6</v>
       </c>
       <c r="D372" s="4">
-        <v>108.1</v>
+        <v>108</v>
       </c>
       <c r="E372" s="4">
         <v>105.1</v>
@@ -19511,7 +19511,7 @@
         <v>91.5</v>
       </c>
       <c r="G372" s="4">
-        <v>108.3</v>
+        <v>108.2</v>
       </c>
       <c r="H372" s="4">
         <v>108.9</v>
@@ -19538,7 +19538,7 @@
         <v>1806.3</v>
       </c>
     </row>
-    <row r="373" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="373" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A373" s="13" t="s">
         <v>390</v>
       </c>
@@ -19585,7 +19585,7 @@
         <v>1845.2</v>
       </c>
     </row>
-    <row r="374" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="374" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A374" s="13" t="s">
         <v>391</v>
       </c>
@@ -19632,7 +19632,7 @@
         <v>1867.4</v>
       </c>
     </row>
-    <row r="375" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="375" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A375" s="13" t="s">
         <v>392</v>
       </c>
@@ -19679,7 +19679,7 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="376" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="376" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A376" s="13" t="s">
         <v>393</v>
       </c>
@@ -19726,7 +19726,7 @@
         <v>1878.6</v>
       </c>
     </row>
-    <row r="377" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="377" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A377" s="13" t="s">
         <v>394</v>
       </c>
@@ -19773,7 +19773,7 @@
         <v>1906.4</v>
       </c>
     </row>
-    <row r="378" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="378" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A378" s="13" t="s">
         <v>395</v>
       </c>
@@ -19793,7 +19793,7 @@
         <v>93.5</v>
       </c>
       <c r="G378" s="4">
-        <v>110</v>
+        <v>109.9</v>
       </c>
       <c r="H378" s="4">
         <v>112.5</v>
@@ -19820,7 +19820,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="379" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="379" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A379" s="13" t="s">
         <v>396</v>
       </c>
@@ -19867,7 +19867,7 @@
         <v>1906.4</v>
       </c>
     </row>
-    <row r="380" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="380" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A380" s="13" t="s">
         <v>397</v>
       </c>
@@ -19878,7 +19878,7 @@
         <v>2</v>
       </c>
       <c r="D380" s="4">
-        <v>110.7</v>
+        <v>110.6</v>
       </c>
       <c r="E380" s="4">
         <v>110.1</v>
@@ -19887,7 +19887,7 @@
         <v>94.4</v>
       </c>
       <c r="G380" s="4">
-        <v>111.8</v>
+        <v>111.7</v>
       </c>
       <c r="H380" s="4">
         <v>113.9</v>
@@ -19914,7 +19914,7 @@
         <v>1923.1</v>
       </c>
     </row>
-    <row r="381" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="381" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A381" s="13" t="s">
         <v>398</v>
       </c>
@@ -19961,7 +19961,7 @@
         <v>1900.9</v>
       </c>
     </row>
-    <row r="382" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="382" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A382" s="13" t="s">
         <v>399</v>
       </c>
@@ -19972,7 +19972,7 @@
         <v>4</v>
       </c>
       <c r="D382" s="4">
-        <v>105.1</v>
+        <v>105</v>
       </c>
       <c r="E382" s="4">
         <v>100.9</v>
@@ -20008,7 +20008,7 @@
         <v>1884.2</v>
       </c>
     </row>
-    <row r="383" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="383" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A383" s="13" t="s">
         <v>400</v>
       </c>
@@ -20055,7 +20055,7 @@
         <v>1856.4</v>
       </c>
     </row>
-    <row r="384" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="384" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A384" s="13" t="s">
         <v>401</v>
       </c>
@@ -20066,7 +20066,7 @@
         <v>6</v>
       </c>
       <c r="D384" s="4">
-        <v>108.4</v>
+        <v>108.3</v>
       </c>
       <c r="E384" s="4">
         <v>105.8</v>
@@ -20102,7 +20102,7 @@
         <v>1873.1</v>
       </c>
     </row>
-    <row r="385" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="385" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A385" s="13" t="s">
         <v>402</v>
       </c>
@@ -20149,7 +20149,7 @@
         <v>1873.1</v>
       </c>
     </row>
-    <row r="386" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="386" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A386" s="13" t="s">
         <v>403</v>
       </c>
@@ -20196,7 +20196,7 @@
         <v>1900.9</v>
       </c>
     </row>
-    <row r="387" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="387" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A387" s="13" t="s">
         <v>404</v>
       </c>
@@ -20243,7 +20243,7 @@
         <v>1928.7</v>
       </c>
     </row>
-    <row r="388" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="388" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A388" s="13" t="s">
         <v>405</v>
       </c>
@@ -20290,7 +20290,7 @@
         <v>1945.4</v>
       </c>
     </row>
-    <row r="389" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="389" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A389" s="13" t="s">
         <v>406</v>
       </c>
@@ -20301,7 +20301,7 @@
         <v>11</v>
       </c>
       <c r="D389" s="4">
-        <v>108.7</v>
+        <v>108.6</v>
       </c>
       <c r="E389" s="4">
         <v>109.2</v>
@@ -20337,7 +20337,7 @@
         <v>1951</v>
       </c>
     </row>
-    <row r="390" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="390" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A390" s="13" t="s">
         <v>407</v>
       </c>
@@ -20348,7 +20348,7 @@
         <v>12</v>
       </c>
       <c r="D390" s="4">
-        <v>109.2</v>
+        <v>109.1</v>
       </c>
       <c r="E390" s="4">
         <v>111.3</v>
@@ -20384,7 +20384,7 @@
         <v>1939.9</v>
       </c>
     </row>
-    <row r="391" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="391" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A391" s="13" t="s">
         <v>408</v>
       </c>
@@ -20431,7 +20431,7 @@
         <v>1912.1</v>
       </c>
     </row>
-    <row r="392" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="392" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A392" s="13" t="s">
         <v>409</v>
       </c>
@@ -20442,7 +20442,7 @@
         <v>2</v>
       </c>
       <c r="D392" s="4">
-        <v>111.3</v>
+        <v>111.2</v>
       </c>
       <c r="E392" s="4">
         <v>112.4</v>
@@ -20451,7 +20451,7 @@
         <v>97.4</v>
       </c>
       <c r="G392" s="4">
-        <v>110.9</v>
+        <v>110.8</v>
       </c>
       <c r="H392" s="4">
         <v>114.1</v>
@@ -20478,7 +20478,7 @@
         <v>1917.7</v>
       </c>
     </row>
-    <row r="393" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="393" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A393" s="13" t="s">
         <v>410</v>
       </c>
@@ -20498,7 +20498,7 @@
         <v>98.2</v>
       </c>
       <c r="G393" s="4">
-        <v>110.8</v>
+        <v>110.7</v>
       </c>
       <c r="H393" s="4">
         <v>115.4</v>
@@ -20525,7 +20525,7 @@
         <v>1939.9</v>
       </c>
     </row>
-    <row r="394" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="394" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A394" s="13" t="s">
         <v>411</v>
       </c>
@@ -20536,7 +20536,7 @@
         <v>4</v>
       </c>
       <c r="D394" s="4">
-        <v>110.7</v>
+        <v>110.6</v>
       </c>
       <c r="E394" s="4">
         <v>112.1</v>
@@ -20572,7 +20572,7 @@
         <v>1967.7</v>
       </c>
     </row>
-    <row r="395" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="395" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A395" s="13" t="s">
         <v>412</v>
       </c>
@@ -20619,7 +20619,7 @@
         <v>1973.3</v>
       </c>
     </row>
-    <row r="396" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="396" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A396" s="13" t="s">
         <v>413</v>
       </c>
@@ -20639,7 +20639,7 @@
         <v>97.8</v>
       </c>
       <c r="G396" s="4">
-        <v>108</v>
+        <v>107.9</v>
       </c>
       <c r="H396" s="4">
         <v>111.2</v>
@@ -20666,7 +20666,7 @@
         <v>1967.7</v>
       </c>
     </row>
-    <row r="397" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="397" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A397" s="13" t="s">
         <v>414</v>
       </c>
@@ -20713,7 +20713,7 @@
         <v>1939.9</v>
       </c>
     </row>
-    <row r="398" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="398" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A398" s="13" t="s">
         <v>415</v>
       </c>
@@ -20724,7 +20724,7 @@
         <v>8</v>
       </c>
       <c r="D398" s="4">
-        <v>107.4</v>
+        <v>107.3</v>
       </c>
       <c r="E398" s="4">
         <v>108.8</v>
@@ -20733,7 +20733,7 @@
         <v>97.1</v>
       </c>
       <c r="G398" s="4">
-        <v>107.4</v>
+        <v>107.3</v>
       </c>
       <c r="H398" s="4">
         <v>110.4</v>
@@ -20760,7 +20760,7 @@
         <v>1923.2</v>
       </c>
     </row>
-    <row r="399" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="399" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A399" s="13" t="s">
         <v>416</v>
       </c>
@@ -20771,7 +20771,7 @@
         <v>9</v>
       </c>
       <c r="D399" s="4">
-        <v>106.4</v>
+        <v>106.3</v>
       </c>
       <c r="E399" s="4">
         <v>107.4</v>
@@ -20807,7 +20807,7 @@
         <v>1917.6</v>
       </c>
     </row>
-    <row r="400" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="400" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A400" s="13" t="s">
         <v>417</v>
       </c>
@@ -20818,7 +20818,7 @@
         <v>10</v>
       </c>
       <c r="D400" s="4">
-        <v>106.2</v>
+        <v>106.1</v>
       </c>
       <c r="E400" s="4">
         <v>107.3</v>
@@ -20854,7 +20854,7 @@
         <v>1939.8</v>
       </c>
     </row>
-    <row r="401" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="401" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A401" s="13" t="s">
         <v>418</v>
       </c>
@@ -20865,7 +20865,7 @@
         <v>11</v>
       </c>
       <c r="D401" s="4">
-        <v>105.9</v>
+        <v>105.8</v>
       </c>
       <c r="E401" s="4">
         <v>106.8</v>
@@ -20901,7 +20901,7 @@
         <v>1956.5</v>
       </c>
     </row>
-    <row r="402" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="402" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A402" s="13" t="s">
         <v>419</v>
       </c>
@@ -20948,7 +20948,7 @@
         <v>1950.9</v>
       </c>
     </row>
-    <row r="403" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="403" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A403" s="13" t="s">
         <v>420</v>
       </c>
@@ -20959,7 +20959,7 @@
         <v>1</v>
       </c>
       <c r="D403" s="4">
-        <v>109.3</v>
+        <v>109.2</v>
       </c>
       <c r="E403" s="4">
         <v>108.3</v>
@@ -20995,7 +20995,7 @@
         <v>1934.2</v>
       </c>
     </row>
-    <row r="404" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="404" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A404" s="13" t="s">
         <v>421</v>
       </c>
@@ -21006,7 +21006,7 @@
         <v>2</v>
       </c>
       <c r="D404" s="4">
-        <v>112.6</v>
+        <v>112.5</v>
       </c>
       <c r="E404" s="4">
         <v>109.4</v>
@@ -21042,7 +21042,7 @@
         <v>1928.6</v>
       </c>
     </row>
-    <row r="405" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="405" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A405" s="13" t="s">
         <v>422</v>
       </c>
@@ -21053,7 +21053,7 @@
         <v>3</v>
       </c>
       <c r="D405" s="4">
-        <v>114.4</v>
+        <v>114.3</v>
       </c>
       <c r="E405" s="4">
         <v>111.1</v>
@@ -21089,7 +21089,7 @@
         <v>1923</v>
       </c>
     </row>
-    <row r="406" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="406" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A406" s="13" t="s">
         <v>423</v>
       </c>
@@ -21100,7 +21100,7 @@
         <v>4</v>
       </c>
       <c r="D406" s="4">
-        <v>115.6</v>
+        <v>115.5</v>
       </c>
       <c r="E406" s="4">
         <v>111.7</v>
@@ -21136,7 +21136,7 @@
         <v>1917.4</v>
       </c>
     </row>
-    <row r="407" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="407" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A407" s="13" t="s">
         <v>424</v>
       </c>
@@ -21147,7 +21147,7 @@
         <v>5</v>
       </c>
       <c r="D407" s="4">
-        <v>117.5</v>
+        <v>117.4</v>
       </c>
       <c r="E407" s="4">
         <v>113.1</v>
@@ -21183,7 +21183,7 @@
         <v>1923</v>
       </c>
     </row>
-    <row r="408" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="408" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A408" s="13" t="s">
         <v>425</v>
       </c>
@@ -21194,7 +21194,7 @@
         <v>6</v>
       </c>
       <c r="D408" s="4">
-        <v>116</v>
+        <v>115.9</v>
       </c>
       <c r="E408" s="4">
         <v>112.8</v>
@@ -21203,7 +21203,7 @@
         <v>97.3</v>
       </c>
       <c r="G408" s="4">
-        <v>117.8</v>
+        <v>117.7</v>
       </c>
       <c r="H408" s="4">
         <v>114.3</v>
@@ -21230,7 +21230,7 @@
         <v>1928.6</v>
       </c>
     </row>
-    <row r="409" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="409" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A409" s="13" t="s">
         <v>426</v>
       </c>
@@ -21241,7 +21241,7 @@
         <v>7</v>
       </c>
       <c r="D409" s="4">
-        <v>116.9</v>
+        <v>116.8</v>
       </c>
       <c r="E409" s="4">
         <v>113.9</v>
@@ -21277,7 +21277,7 @@
         <v>1934.2</v>
       </c>
     </row>
-    <row r="410" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="410" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A410" s="13" t="s">
         <v>427</v>
       </c>
@@ -21297,7 +21297,7 @@
         <v>98.6</v>
       </c>
       <c r="G410" s="4">
-        <v>119.2</v>
+        <v>119.1</v>
       </c>
       <c r="H410" s="4">
         <v>116.5</v>
@@ -21324,7 +21324,7 @@
         <v>1945.3</v>
       </c>
     </row>
-    <row r="411" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="411" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A411" s="13" t="s">
         <v>428</v>
       </c>
@@ -21344,7 +21344,7 @@
         <v>99.1</v>
       </c>
       <c r="G411" s="4">
-        <v>121.2</v>
+        <v>121.1</v>
       </c>
       <c r="H411" s="4">
         <v>117.3</v>
@@ -21371,7 +21371,7 @@
         <v>1973.1</v>
       </c>
     </row>
-    <row r="412" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="412" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A412" s="13" t="s">
         <v>429</v>
       </c>
@@ -21418,7 +21418,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="413" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="413" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A413" s="13" t="s">
         <v>430</v>
       </c>
@@ -21429,7 +21429,7 @@
         <v>11</v>
       </c>
       <c r="D413" s="4">
-        <v>120.5</v>
+        <v>120.4</v>
       </c>
       <c r="E413" s="4">
         <v>117.6</v>
@@ -21465,7 +21465,7 @@
         <v>2039.8</v>
       </c>
     </row>
-    <row r="414" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="414" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A414" s="13" t="s">
         <v>431</v>
       </c>
@@ -21485,7 +21485,7 @@
         <v>101.2</v>
       </c>
       <c r="G414" s="4">
-        <v>121.6</v>
+        <v>121.5</v>
       </c>
       <c r="H414" s="4">
         <v>119.2</v>
@@ -21512,7 +21512,7 @@
         <v>2067.6</v>
       </c>
     </row>
-    <row r="415" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="415" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A415" s="13" t="s">
         <v>432</v>
       </c>
@@ -21523,7 +21523,7 @@
         <v>1</v>
       </c>
       <c r="D415" s="4">
-        <v>119.9</v>
+        <v>119.8</v>
       </c>
       <c r="E415" s="4">
         <v>119.1</v>
@@ -21532,7 +21532,7 @@
         <v>102.5</v>
       </c>
       <c r="G415" s="4">
-        <v>122</v>
+        <v>121.9</v>
       </c>
       <c r="H415" s="4">
         <v>120.8</v>
@@ -21559,7 +21559,7 @@
         <v>2117.6</v>
       </c>
     </row>
-    <row r="416" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="416" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A416" s="13" t="s">
         <v>433</v>
       </c>
@@ -21579,7 +21579,7 @@
         <v>102.7</v>
       </c>
       <c r="G416" s="4">
-        <v>118.6</v>
+        <v>118.5</v>
       </c>
       <c r="H416" s="4">
         <v>120.6</v>
@@ -21606,7 +21606,7 @@
         <v>2134.3000000000002</v>
       </c>
     </row>
-    <row r="417" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="417" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A417" s="13" t="s">
         <v>434</v>
       </c>
@@ -21626,7 +21626,7 @@
         <v>103.3</v>
       </c>
       <c r="G417" s="4">
-        <v>118.2</v>
+        <v>118.1</v>
       </c>
       <c r="H417" s="4">
         <v>122.8</v>
@@ -21653,7 +21653,7 @@
         <v>2145.4</v>
       </c>
     </row>
-    <row r="418" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="418" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A418" s="13" t="s">
         <v>435</v>
       </c>
@@ -21700,7 +21700,7 @@
         <v>2123.1999999999998</v>
       </c>
     </row>
-    <row r="419" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="419" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A419" s="13" t="s">
         <v>436</v>
       </c>
@@ -21711,7 +21711,7 @@
         <v>5</v>
       </c>
       <c r="D419" s="4">
-        <v>111.6</v>
+        <v>111.5</v>
       </c>
       <c r="E419" s="4">
         <v>117.2</v>
@@ -21747,7 +21747,7 @@
         <v>2139.9</v>
       </c>
     </row>
-    <row r="420" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="420" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A420" s="13" t="s">
         <v>437</v>
       </c>
@@ -21794,7 +21794,7 @@
         <v>2139.9</v>
       </c>
     </row>
-    <row r="421" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="421" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A421" s="13" t="s">
         <v>438</v>
       </c>
@@ -21814,7 +21814,7 @@
         <v>105.7</v>
       </c>
       <c r="G421" s="4">
-        <v>115.9</v>
+        <v>115.8</v>
       </c>
       <c r="H421" s="4">
         <v>118.1</v>
@@ -21841,7 +21841,7 @@
         <v>2173.1999999999998</v>
       </c>
     </row>
-    <row r="422" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="422" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A422" s="13" t="s">
         <v>439</v>
       </c>
@@ -21861,7 +21861,7 @@
         <v>105.1</v>
       </c>
       <c r="G422" s="4">
-        <v>115.7</v>
+        <v>115.6</v>
       </c>
       <c r="H422" s="4">
         <v>117.3</v>
@@ -21888,7 +21888,7 @@
         <v>2167.6</v>
       </c>
     </row>
-    <row r="423" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="423" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A423" s="13" t="s">
         <v>440</v>
       </c>
@@ -21899,7 +21899,7 @@
         <v>9</v>
       </c>
       <c r="D423" s="4">
-        <v>113.3</v>
+        <v>113.2</v>
       </c>
       <c r="E423" s="4">
         <v>117.3</v>
@@ -21935,7 +21935,7 @@
         <v>2162</v>
       </c>
     </row>
-    <row r="424" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="424" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A424" s="13" t="s">
         <v>441</v>
       </c>
@@ -21982,7 +21982,7 @@
         <v>2145.3000000000002</v>
       </c>
     </row>
-    <row r="425" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="425" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A425" s="13" t="s">
         <v>442</v>
       </c>
@@ -21993,7 +21993,7 @@
         <v>11</v>
       </c>
       <c r="D425" s="4">
-        <v>112.7</v>
+        <v>112.6</v>
       </c>
       <c r="E425" s="4">
         <v>116.4</v>
@@ -22029,7 +22029,7 @@
         <v>2139.6999999999998</v>
       </c>
     </row>
-    <row r="426" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="426" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A426" s="13" t="s">
         <v>443</v>
       </c>
@@ -22040,7 +22040,7 @@
         <v>12</v>
       </c>
       <c r="D426" s="4">
-        <v>112.6</v>
+        <v>112.5</v>
       </c>
       <c r="E426" s="4">
         <v>116.7</v>
@@ -22076,7 +22076,7 @@
         <v>2128.6</v>
       </c>
     </row>
-    <row r="427" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="427" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A427" s="13" t="s">
         <v>444</v>
       </c>
@@ -22123,7 +22123,7 @@
         <v>2145.3000000000002</v>
       </c>
     </row>
-    <row r="428" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="428" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A428" s="13" t="s">
         <v>445</v>
       </c>
@@ -22170,7 +22170,7 @@
         <v>2134.1999999999998</v>
       </c>
     </row>
-    <row r="429" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="429" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A429" s="13" t="s">
         <v>446</v>
       </c>
@@ -22217,7 +22217,7 @@
         <v>2139.8000000000002</v>
       </c>
     </row>
-    <row r="430" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="430" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A430" s="13" t="s">
         <v>447</v>
       </c>
@@ -22264,7 +22264,7 @@
         <v>2156.5</v>
       </c>
     </row>
-    <row r="431" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="431" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A431" s="13" t="s">
         <v>448</v>
       </c>
@@ -22311,7 +22311,7 @@
         <v>2173.1999999999998</v>
       </c>
     </row>
-    <row r="432" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="432" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A432" s="13" t="s">
         <v>449</v>
       </c>
@@ -22322,7 +22322,7 @@
         <v>6</v>
       </c>
       <c r="D432" s="4">
-        <v>114.4</v>
+        <v>114.3</v>
       </c>
       <c r="E432" s="4">
         <v>117.6</v>
@@ -22331,7 +22331,7 @@
         <v>104.5</v>
       </c>
       <c r="G432" s="4">
-        <v>117.3</v>
+        <v>117.2</v>
       </c>
       <c r="H432" s="4">
         <v>119.1</v>
@@ -22358,7 +22358,7 @@
         <v>2184.3000000000002</v>
       </c>
     </row>
-    <row r="433" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="433" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A433" s="13" t="s">
         <v>450</v>
       </c>
@@ -22405,7 +22405,7 @@
         <v>2178.6999999999998</v>
       </c>
     </row>
-    <row r="434" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="434" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A434" s="13" t="s">
         <v>451</v>
       </c>
@@ -22416,7 +22416,7 @@
         <v>8</v>
       </c>
       <c r="D434" s="4">
-        <v>112.1</v>
+        <v>112</v>
       </c>
       <c r="E434" s="4">
         <v>116.5</v>
@@ -22452,7 +22452,7 @@
         <v>2162</v>
       </c>
     </row>
-    <row r="435" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="435" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A435" s="13" t="s">
         <v>452</v>
       </c>
@@ -22463,7 +22463,7 @@
         <v>9</v>
       </c>
       <c r="D435" s="4">
-        <v>110.7</v>
+        <v>110.6</v>
       </c>
       <c r="E435" s="4">
         <v>117.4</v>
@@ -22499,7 +22499,7 @@
         <v>2167.6</v>
       </c>
     </row>
-    <row r="436" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="436" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A436" s="13" t="s">
         <v>453</v>
       </c>
@@ -22546,7 +22546,7 @@
         <v>2150.9</v>
       </c>
     </row>
-    <row r="437" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="437" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A437" s="13" t="s">
         <v>454</v>
       </c>
@@ -22593,7 +22593,7 @@
         <v>2167.6</v>
       </c>
     </row>
-    <row r="438" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="438" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A438" s="13" t="s">
         <v>455</v>
       </c>
@@ -22640,7 +22640,7 @@
         <v>2173.1999999999998</v>
       </c>
     </row>
-    <row r="439" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="439" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A439" s="13" t="s">
         <v>456</v>
       </c>
@@ -22687,7 +22687,7 @@
         <v>2184.3000000000002</v>
       </c>
     </row>
-    <row r="440" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="440" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A440" s="13" t="s">
         <v>457</v>
       </c>
@@ -22734,7 +22734,7 @@
         <v>2184.3000000000002</v>
       </c>
     </row>
-    <row r="441" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="441" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A441" s="13" t="s">
         <v>458</v>
       </c>
@@ -22781,7 +22781,7 @@
         <v>2189.9</v>
       </c>
     </row>
-    <row r="442" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="442" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A442" s="13" t="s">
         <v>459</v>
       </c>
@@ -22828,7 +22828,7 @@
         <v>2206.6</v>
       </c>
     </row>
-    <row r="443" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="443" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A443" s="13" t="s">
         <v>460</v>
       </c>
@@ -22875,7 +22875,7 @@
         <v>2189.9</v>
       </c>
     </row>
-    <row r="444" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="444" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A444" s="13" t="s">
         <v>461</v>
       </c>
@@ -22886,7 +22886,7 @@
         <v>6</v>
       </c>
       <c r="D444" s="4">
-        <v>107.4</v>
+        <v>107.3</v>
       </c>
       <c r="E444" s="4">
         <v>115.8</v>
@@ -22922,7 +22922,7 @@
         <v>2195.5</v>
       </c>
     </row>
-    <row r="445" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="445" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A445" s="13" t="s">
         <v>462</v>
       </c>
@@ -22969,7 +22969,7 @@
         <v>2212.1999999999998</v>
       </c>
     </row>
-    <row r="446" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="446" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A446" s="13" t="s">
         <v>463</v>
       </c>
@@ -23016,7 +23016,7 @@
         <v>2240</v>
       </c>
     </row>
-    <row r="447" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="447" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A447" s="13" t="s">
         <v>464</v>
       </c>
@@ -23027,7 +23027,7 @@
         <v>9</v>
       </c>
       <c r="D447" s="4">
-        <v>107.7</v>
+        <v>107.6</v>
       </c>
       <c r="E447" s="4">
         <v>117.1</v>
@@ -23063,7 +23063,7 @@
         <v>2262.1999999999998</v>
       </c>
     </row>
-    <row r="448" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="448" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A448" s="13" t="s">
         <v>465</v>
       </c>
@@ -23110,7 +23110,7 @@
         <v>2301.1</v>
       </c>
     </row>
-    <row r="449" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="449" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A449" s="13" t="s">
         <v>466</v>
       </c>
@@ -23157,7 +23157,7 @@
         <v>2328.9</v>
       </c>
     </row>
-    <row r="450" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="450" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A450" s="13" t="s">
         <v>467</v>
       </c>
@@ -23177,7 +23177,7 @@
         <v>106.1</v>
       </c>
       <c r="G450" s="4">
-        <v>115.3</v>
+        <v>115.2</v>
       </c>
       <c r="H450" s="4">
         <v>121.1</v>
@@ -23204,7 +23204,7 @@
         <v>2356.6999999999998</v>
       </c>
     </row>
-    <row r="451" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="451" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A451" s="13" t="s">
         <v>468</v>
       </c>
@@ -23251,7 +23251,7 @@
         <v>2384.5</v>
       </c>
     </row>
-    <row r="452" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="452" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A452" s="13" t="s">
         <v>469</v>
       </c>
@@ -23262,7 +23262,7 @@
         <v>2</v>
       </c>
       <c r="D452" s="4">
-        <v>112.4</v>
+        <v>112.3</v>
       </c>
       <c r="E452" s="4">
         <v>119.7</v>
@@ -23298,7 +23298,7 @@
         <v>2423.4</v>
       </c>
     </row>
-    <row r="453" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="453" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A453" s="13" t="s">
         <v>470</v>
       </c>
@@ -23318,7 +23318,7 @@
         <v>107.7</v>
       </c>
       <c r="G453" s="4">
-        <v>116.1</v>
+        <v>116</v>
       </c>
       <c r="H453" s="4">
         <v>121.5</v>
@@ -23345,7 +23345,7 @@
         <v>2462.3000000000002</v>
       </c>
     </row>
-    <row r="454" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="454" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A454" s="13" t="s">
         <v>471</v>
       </c>
@@ -23392,7 +23392,7 @@
         <v>2479</v>
       </c>
     </row>
-    <row r="455" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="455" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A455" s="13" t="s">
         <v>472</v>
       </c>
@@ -23439,7 +23439,7 @@
         <v>2495.6999999999998</v>
       </c>
     </row>
-    <row r="456" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="456" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A456" s="13" t="s">
         <v>473</v>
       </c>
@@ -23486,7 +23486,7 @@
         <v>2501.3000000000002</v>
       </c>
     </row>
-    <row r="457" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="457" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A457" s="13" t="s">
         <v>474</v>
       </c>
@@ -23533,7 +23533,7 @@
         <v>2506.9</v>
       </c>
     </row>
-    <row r="458" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="458" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A458" s="13" t="s">
         <v>475</v>
       </c>
@@ -23580,7 +23580,7 @@
         <v>2512.5</v>
       </c>
     </row>
-    <row r="459" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="459" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A459" s="13" t="s">
         <v>476</v>
       </c>
@@ -23591,7 +23591,7 @@
         <v>9</v>
       </c>
       <c r="D459" s="4">
-        <v>113.8</v>
+        <v>113.7</v>
       </c>
       <c r="E459" s="4">
         <v>121.4</v>
@@ -23600,7 +23600,7 @@
         <v>109</v>
       </c>
       <c r="G459" s="4">
-        <v>117</v>
+        <v>116.9</v>
       </c>
       <c r="H459" s="4">
         <v>123</v>
@@ -23627,7 +23627,7 @@
         <v>2540.3000000000002</v>
       </c>
     </row>
-    <row r="460" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="460" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A460" s="13" t="s">
         <v>477</v>
       </c>
@@ -23674,7 +23674,7 @@
         <v>2584.6999999999998</v>
       </c>
     </row>
-    <row r="461" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="461" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A461" s="13" t="s">
         <v>478</v>
       </c>
@@ -23721,7 +23721,7 @@
         <v>2634.7</v>
       </c>
     </row>
-    <row r="462" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="462" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A462" s="13" t="s">
         <v>479</v>
       </c>
@@ -23768,7 +23768,7 @@
         <v>2673.6</v>
       </c>
     </row>
-    <row r="463" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="463" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A463" s="13" t="s">
         <v>480</v>
       </c>
@@ -23815,7 +23815,7 @@
         <v>2673.6</v>
       </c>
     </row>
-    <row r="464" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="464" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A464" s="13" t="s">
         <v>481</v>
       </c>
@@ -23862,7 +23862,7 @@
         <v>2695.8</v>
       </c>
     </row>
-    <row r="465" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="465" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A465" s="13" t="s">
         <v>482</v>
       </c>
@@ -23909,7 +23909,7 @@
         <v>2706.9</v>
       </c>
     </row>
-    <row r="466" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="466" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A466" s="13" t="s">
         <v>483</v>
       </c>
@@ -23956,7 +23956,7 @@
         <v>2712.5</v>
       </c>
     </row>
-    <row r="467" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="467" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A467" s="13" t="s">
         <v>484</v>
       </c>
@@ -23976,7 +23976,7 @@
         <v>110.9</v>
       </c>
       <c r="G467" s="4">
-        <v>117.4</v>
+        <v>117.3</v>
       </c>
       <c r="H467" s="4">
         <v>124.9</v>
@@ -24003,7 +24003,7 @@
         <v>2718.1</v>
       </c>
     </row>
-    <row r="468" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="468" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A468" s="13" t="s">
         <v>485</v>
       </c>
@@ -24050,7 +24050,7 @@
         <v>2723.7</v>
       </c>
     </row>
-    <row r="469" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="469" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A469" s="13" t="s">
         <v>486</v>
       </c>
@@ -24097,7 +24097,7 @@
         <v>2707</v>
       </c>
     </row>
-    <row r="470" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="470" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A470" s="13" t="s">
         <v>487</v>
       </c>
@@ -24144,7 +24144,7 @@
         <v>2695.9</v>
       </c>
     </row>
-    <row r="471" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="471" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A471" s="13" t="s">
         <v>488</v>
       </c>
@@ -24191,7 +24191,7 @@
         <v>2701.5</v>
       </c>
     </row>
-    <row r="472" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="472" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A472" s="13" t="s">
         <v>489</v>
       </c>
@@ -24202,7 +24202,7 @@
         <v>10</v>
       </c>
       <c r="D472" s="4">
-        <v>111.1</v>
+        <v>111</v>
       </c>
       <c r="E472" s="4">
         <v>122.1</v>
@@ -24238,7 +24238,7 @@
         <v>2707.1</v>
       </c>
     </row>
-    <row r="473" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="473" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A473" s="13" t="s">
         <v>490</v>
       </c>
@@ -24285,7 +24285,7 @@
         <v>2707.1</v>
       </c>
     </row>
-    <row r="474" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="474" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A474" s="13" t="s">
         <v>491</v>
       </c>
@@ -24332,7 +24332,7 @@
         <v>2707.1</v>
       </c>
     </row>
-    <row r="475" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="475" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A475" s="13" t="s">
         <v>492</v>
       </c>
@@ -24379,7 +24379,7 @@
         <v>2718.2</v>
       </c>
     </row>
-    <row r="476" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="476" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A476" s="13" t="s">
         <v>493</v>
       </c>
@@ -24399,7 +24399,7 @@
         <v>110.4</v>
       </c>
       <c r="G476" s="4">
-        <v>112.7</v>
+        <v>112.6</v>
       </c>
       <c r="H476" s="4">
         <v>122.1</v>
@@ -24426,7 +24426,7 @@
         <v>2734.9</v>
       </c>
     </row>
-    <row r="477" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="477" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A477" s="13" t="s">
         <v>494</v>
       </c>
@@ -24473,7 +24473,7 @@
         <v>2751.6</v>
       </c>
     </row>
-    <row r="478" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="478" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A478" s="13" t="s">
         <v>495</v>
       </c>
@@ -24520,7 +24520,7 @@
         <v>2757.2</v>
       </c>
     </row>
-    <row r="479" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="479" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A479" s="13" t="s">
         <v>496</v>
       </c>
@@ -24567,7 +24567,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="480" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="480" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A480" s="13" t="s">
         <v>497</v>
       </c>
@@ -24614,7 +24614,7 @@
         <v>2801.7</v>
       </c>
     </row>
-    <row r="481" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="481" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A481" s="13" t="s">
         <v>498</v>
       </c>
@@ -24661,7 +24661,7 @@
         <v>2807.3</v>
       </c>
     </row>
-    <row r="482" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="482" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A482" s="13" t="s">
         <v>499</v>
       </c>
@@ -24708,7 +24708,7 @@
         <v>2790.6</v>
       </c>
     </row>
-    <row r="483" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="483" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A483" s="13" t="s">
         <v>500</v>
       </c>
@@ -24755,7 +24755,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="484" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="484" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A484" s="13" t="s">
         <v>501</v>
       </c>
@@ -24802,7 +24802,7 @@
         <v>2757.2</v>
       </c>
     </row>
-    <row r="485" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="485" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A485" s="13" t="s">
         <v>502</v>
       </c>
@@ -24849,7 +24849,7 @@
         <v>2723.9</v>
       </c>
     </row>
-    <row r="486" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="486" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A486" s="13" t="s">
         <v>503</v>
       </c>
@@ -24896,7 +24896,7 @@
         <v>2707.2</v>
       </c>
     </row>
-    <row r="487" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="487" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A487" s="13" t="s">
         <v>504</v>
       </c>
@@ -24943,7 +24943,7 @@
         <v>2712.8</v>
       </c>
     </row>
-    <row r="488" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="488" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A488" s="13" t="s">
         <v>505</v>
       </c>
@@ -24990,7 +24990,7 @@
         <v>2696.1</v>
       </c>
     </row>
-    <row r="489" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="489" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A489" s="13" t="s">
         <v>506</v>
       </c>
@@ -25037,7 +25037,7 @@
         <v>2657.2</v>
       </c>
     </row>
-    <row r="490" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="490" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A490" s="13" t="s">
         <v>507</v>
       </c>
@@ -25057,7 +25057,7 @@
         <v>102.3</v>
       </c>
       <c r="G490" s="4">
-        <v>87.6</v>
+        <v>87.7</v>
       </c>
       <c r="H490" s="4">
         <v>95.4</v>
@@ -25084,7 +25084,7 @@
         <v>2618.3000000000002</v>
       </c>
     </row>
-    <row r="491" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="491" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A491" s="13" t="s">
         <v>508</v>
       </c>
@@ -25095,7 +25095,7 @@
         <v>5</v>
       </c>
       <c r="D491" s="4">
-        <v>88.6</v>
+        <v>88.7</v>
       </c>
       <c r="E491" s="4">
         <v>87.1</v>
@@ -25131,7 +25131,7 @@
         <v>2573.9</v>
       </c>
     </row>
-    <row r="492" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="492" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A492" s="13" t="s">
         <v>509</v>
       </c>
@@ -25178,7 +25178,7 @@
         <v>2546.1</v>
       </c>
     </row>
-    <row r="493" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="493" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A493" s="13" t="s">
         <v>510</v>
       </c>
@@ -25225,7 +25225,7 @@
         <v>2540.5</v>
       </c>
     </row>
-    <row r="494" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="494" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A494" s="13" t="s">
         <v>511</v>
       </c>
@@ -25272,7 +25272,7 @@
         <v>2546.1</v>
       </c>
     </row>
-    <row r="495" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="495" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A495" s="13" t="s">
         <v>512</v>
       </c>
@@ -25319,7 +25319,7 @@
         <v>2540.5</v>
       </c>
     </row>
-    <row r="496" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="496" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A496" s="13" t="s">
         <v>513</v>
       </c>
@@ -25366,7 +25366,7 @@
         <v>2523.8000000000002</v>
       </c>
     </row>
-    <row r="497" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="497" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A497" s="13" t="s">
         <v>514</v>
       </c>
@@ -25377,7 +25377,7 @@
         <v>11</v>
       </c>
       <c r="D497" s="4">
-        <v>109.2</v>
+        <v>109.1</v>
       </c>
       <c r="E497" s="4">
         <v>104</v>
@@ -25413,7 +25413,7 @@
         <v>2518.1999999999998</v>
       </c>
     </row>
-    <row r="498" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="498" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A498" s="13" t="s">
         <v>515</v>
       </c>
@@ -25424,7 +25424,7 @@
         <v>12</v>
       </c>
       <c r="D498" s="4">
-        <v>109.6</v>
+        <v>109.5</v>
       </c>
       <c r="E498" s="4">
         <v>104.1</v>
@@ -25433,7 +25433,7 @@
         <v>96.4</v>
       </c>
       <c r="G498" s="4">
-        <v>109.1</v>
+        <v>109</v>
       </c>
       <c r="H498" s="4">
         <v>104.6</v>
@@ -25460,7 +25460,7 @@
         <v>2501.5</v>
       </c>
     </row>
-    <row r="499" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="499" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A499" s="13" t="s">
         <v>516</v>
       </c>
@@ -25507,7 +25507,7 @@
         <v>2501.5</v>
       </c>
     </row>
-    <row r="500" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="500" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A500" s="13" t="s">
         <v>517</v>
       </c>
@@ -25554,7 +25554,7 @@
         <v>2523.6999999999998</v>
       </c>
     </row>
-    <row r="501" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="501" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A501" s="13" t="s">
         <v>518</v>
       </c>
@@ -25601,7 +25601,7 @@
         <v>2573.6999999999998</v>
       </c>
     </row>
-    <row r="502" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="502" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A502" s="13" t="s">
         <v>519</v>
       </c>
@@ -25648,7 +25648,7 @@
         <v>2612.6</v>
       </c>
     </row>
-    <row r="503" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="503" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A503" s="13" t="s">
         <v>520</v>
       </c>
@@ -25659,7 +25659,7 @@
         <v>5</v>
       </c>
       <c r="D503" s="4">
-        <v>115.6</v>
+        <v>115.5</v>
       </c>
       <c r="E503" s="4">
         <v>109.6</v>
@@ -25668,7 +25668,7 @@
         <v>99.6</v>
       </c>
       <c r="G503" s="4">
-        <v>115.3</v>
+        <v>115.2</v>
       </c>
       <c r="H503" s="4">
         <v>110</v>
@@ -25695,7 +25695,7 @@
         <v>2651.5</v>
       </c>
     </row>
-    <row r="504" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="504" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A504" s="13" t="s">
         <v>521</v>
       </c>
@@ -25706,7 +25706,7 @@
         <v>6</v>
       </c>
       <c r="D504" s="4">
-        <v>116.7</v>
+        <v>116.6</v>
       </c>
       <c r="E504" s="4">
         <v>110.2</v>
@@ -25715,7 +25715,7 @@
         <v>100.1</v>
       </c>
       <c r="G504" s="4">
-        <v>115.3</v>
+        <v>115.2</v>
       </c>
       <c r="H504" s="4">
         <v>110.5</v>
@@ -25742,7 +25742,7 @@
         <v>2657.1</v>
       </c>
     </row>
-    <row r="505" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="505" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A505" s="13" t="s">
         <v>522</v>
       </c>
@@ -25789,7 +25789,7 @@
         <v>2668.2</v>
       </c>
     </row>
-    <row r="506" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="506" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A506" s="13" t="s">
         <v>523</v>
       </c>
@@ -25836,7 +25836,7 @@
         <v>2673.8</v>
       </c>
     </row>
-    <row r="507" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="507" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A507" s="13" t="s">
         <v>524</v>
       </c>
@@ -25883,7 +25883,7 @@
         <v>2657.1</v>
       </c>
     </row>
-    <row r="508" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="508" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A508" s="13" t="s">
         <v>525</v>
       </c>
@@ -25930,7 +25930,7 @@
         <v>2640.4</v>
       </c>
     </row>
-    <row r="509" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="509" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A509" s="13" t="s">
         <v>526</v>
       </c>
@@ -25977,7 +25977,7 @@
         <v>2634.8</v>
       </c>
     </row>
-    <row r="510" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="510" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A510" s="13" t="s">
         <v>527</v>
       </c>
@@ -25988,7 +25988,7 @@
         <v>12</v>
       </c>
       <c r="D510" s="4">
-        <v>116.5</v>
+        <v>116.4</v>
       </c>
       <c r="E510" s="4">
         <v>111.5</v>
@@ -26024,7 +26024,7 @@
         <v>2657</v>
       </c>
     </row>
-    <row r="511" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="511" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A511" s="13" t="s">
         <v>528</v>
       </c>
@@ -26044,7 +26044,7 @@
         <v>99.7</v>
       </c>
       <c r="G511" s="4">
-        <v>113.9</v>
+        <v>113.8</v>
       </c>
       <c r="H511" s="4">
         <v>110.2</v>
@@ -26071,7 +26071,7 @@
         <v>2673.7</v>
       </c>
     </row>
-    <row r="512" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="512" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A512" s="13" t="s">
         <v>529</v>
       </c>
@@ -26118,7 +26118,7 @@
         <v>2701.5</v>
       </c>
     </row>
-    <row r="513" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="513" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A513" s="13" t="s">
         <v>530</v>
       </c>
@@ -26165,7 +26165,7 @@
         <v>2707.1</v>
       </c>
     </row>
-    <row r="514" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="514" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A514" s="13" t="s">
         <v>531</v>
       </c>
@@ -26176,7 +26176,7 @@
         <v>4</v>
       </c>
       <c r="D514" s="4">
-        <v>114.6</v>
+        <v>114.5</v>
       </c>
       <c r="E514" s="4">
         <v>112.1</v>
@@ -26212,7 +26212,7 @@
         <v>2718.2</v>
       </c>
     </row>
-    <row r="515" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="515" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A515" s="13" t="s">
         <v>532</v>
       </c>
@@ -26259,7 +26259,7 @@
         <v>2723.8</v>
       </c>
     </row>
-    <row r="516" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="516" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A516" s="13" t="s">
         <v>533</v>
       </c>
@@ -26306,7 +26306,7 @@
         <v>2729.4</v>
       </c>
     </row>
-    <row r="517" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="517" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A517" s="13" t="s">
         <v>534</v>
       </c>
@@ -26353,7 +26353,7 @@
         <v>2746.1</v>
       </c>
     </row>
-    <row r="518" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="518" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A518" s="13" t="s">
         <v>535</v>
       </c>
@@ -26400,7 +26400,7 @@
         <v>2790.5</v>
       </c>
     </row>
-    <row r="519" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="519" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A519" s="13" t="s">
         <v>536</v>
       </c>
@@ -26447,7 +26447,7 @@
         <v>2796.1</v>
       </c>
     </row>
-    <row r="520" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="520" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A520" s="13" t="s">
         <v>537</v>
       </c>
@@ -26494,7 +26494,7 @@
         <v>2823.9</v>
       </c>
     </row>
-    <row r="521" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="521" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A521" s="13" t="s">
         <v>538</v>
       </c>
@@ -26505,7 +26505,7 @@
         <v>11</v>
       </c>
       <c r="D521" s="4">
-        <v>110.9</v>
+        <v>110.8</v>
       </c>
       <c r="E521" s="4">
         <v>113.9</v>
@@ -26541,7 +26541,7 @@
         <v>2835</v>
       </c>
     </row>
-    <row r="522" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="522" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A522" s="13" t="s">
         <v>539</v>
       </c>
@@ -26588,7 +26588,7 @@
         <v>2851.7</v>
       </c>
     </row>
-    <row r="523" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="523" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A523" s="13" t="s">
         <v>540</v>
       </c>
@@ -26635,7 +26635,7 @@
         <v>2879.5</v>
       </c>
     </row>
-    <row r="524" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="524" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A524" s="13" t="s">
         <v>541</v>
       </c>
@@ -26682,7 +26682,7 @@
         <v>2896.2</v>
       </c>
     </row>
-    <row r="525" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="525" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A525" s="13" t="s">
         <v>542</v>
       </c>
@@ -26729,7 +26729,7 @@
         <v>2912.9</v>
       </c>
     </row>
-    <row r="526" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="526" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A526" s="13" t="s">
         <v>543</v>
       </c>
@@ -26776,7 +26776,7 @@
         <v>2907.3</v>
       </c>
     </row>
-    <row r="527" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="527" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A527" s="13" t="s">
         <v>544</v>
       </c>
@@ -26823,7 +26823,7 @@
         <v>2924</v>
       </c>
     </row>
-    <row r="528" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="528" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A528" s="13" t="s">
         <v>545</v>
       </c>
@@ -26870,7 +26870,7 @@
         <v>2935.1</v>
       </c>
     </row>
-    <row r="529" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="529" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A529" s="13" t="s">
         <v>546</v>
       </c>
@@ -26881,7 +26881,7 @@
         <v>7</v>
       </c>
       <c r="D529" s="4">
-        <v>109.9</v>
+        <v>109.8</v>
       </c>
       <c r="E529" s="4">
         <v>115</v>
@@ -26917,7 +26917,7 @@
         <v>2946.2</v>
       </c>
     </row>
-    <row r="530" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="530" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A530" s="13" t="s">
         <v>547</v>
       </c>
@@ -26928,7 +26928,7 @@
         <v>8</v>
       </c>
       <c r="D530" s="4">
-        <v>110.7</v>
+        <v>110.6</v>
       </c>
       <c r="E530" s="4">
         <v>115.3</v>
@@ -26964,7 +26964,7 @@
         <v>2940.6</v>
       </c>
     </row>
-    <row r="531" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="531" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A531" s="13" t="s">
         <v>548</v>
       </c>
@@ -27011,7 +27011,7 @@
         <v>2962.8</v>
       </c>
     </row>
-    <row r="532" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="532" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A532" s="13" t="s">
         <v>549</v>
       </c>
@@ -27031,7 +27031,7 @@
         <v>107.2</v>
       </c>
       <c r="G532" s="4">
-        <v>110.3</v>
+        <v>110.2</v>
       </c>
       <c r="H532" s="4">
         <v>114.3</v>
@@ -27058,7 +27058,7 @@
         <v>2990.6</v>
       </c>
     </row>
-    <row r="533" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="533" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A533" s="13" t="s">
         <v>550</v>
       </c>
@@ -27105,7 +27105,7 @@
         <v>3018.4</v>
       </c>
     </row>
-    <row r="534" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="534" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A534" s="13" t="s">
         <v>551</v>
       </c>
@@ -27152,7 +27152,7 @@
         <v>3035.1</v>
       </c>
     </row>
-    <row r="535" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="535" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A535" s="13" t="s">
         <v>552</v>
       </c>
@@ -27199,7 +27199,7 @@
         <v>3018.4</v>
       </c>
     </row>
-    <row r="536" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="536" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A536" s="13" t="s">
         <v>553</v>
       </c>
@@ -27246,7 +27246,7 @@
         <v>3018.4</v>
       </c>
     </row>
-    <row r="537" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="537" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A537" s="13" t="s">
         <v>554</v>
       </c>
@@ -27293,7 +27293,7 @@
         <v>3018.4</v>
       </c>
     </row>
-    <row r="538" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="538" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A538" s="13" t="s">
         <v>555</v>
       </c>
@@ -27304,7 +27304,7 @@
         <v>4</v>
       </c>
       <c r="D538" s="4">
-        <v>111</v>
+        <v>110.9</v>
       </c>
       <c r="E538" s="4">
         <v>114.5</v>
@@ -27340,7 +27340,7 @@
         <v>3046.2</v>
       </c>
     </row>
-    <row r="539" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="539" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A539" s="13" t="s">
         <v>556</v>
       </c>
@@ -27387,7 +27387,7 @@
         <v>3046.2</v>
       </c>
     </row>
-    <row r="540" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="540" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A540" s="13" t="s">
         <v>557</v>
       </c>
@@ -27434,7 +27434,7 @@
         <v>3057.3</v>
       </c>
     </row>
-    <row r="541" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="541" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A541" s="13" t="s">
         <v>558</v>
       </c>
@@ -27481,7 +27481,7 @@
         <v>3085.1</v>
       </c>
     </row>
-    <row r="542" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="542" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A542" s="13" t="s">
         <v>559</v>
       </c>
@@ -27528,7 +27528,7 @@
         <v>3101.8</v>
       </c>
     </row>
-    <row r="543" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="543" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A543" s="13" t="s">
         <v>560</v>
       </c>
@@ -27575,7 +27575,7 @@
         <v>3096.2</v>
       </c>
     </row>
-    <row r="544" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="544" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A544" s="13" t="s">
         <v>561</v>
       </c>
@@ -27595,7 +27595,7 @@
         <v>108.8</v>
       </c>
       <c r="G544" s="4">
-        <v>109.4</v>
+        <v>109.3</v>
       </c>
       <c r="H544" s="4">
         <v>114</v>
@@ -27622,7 +27622,7 @@
         <v>3112.9</v>
       </c>
     </row>
-    <row r="545" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="545" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A545" s="13" t="s">
         <v>562</v>
       </c>
@@ -27669,7 +27669,7 @@
         <v>3124</v>
       </c>
     </row>
-    <row r="546" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="546" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A546" s="13" t="s">
         <v>563</v>
       </c>
@@ -27716,7 +27716,7 @@
         <v>3140.7</v>
       </c>
     </row>
-    <row r="547" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="547" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A547" s="13" t="s">
         <v>564</v>
       </c>
@@ -27763,7 +27763,7 @@
         <v>3168.5</v>
       </c>
     </row>
-    <row r="548" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="548" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A548" s="13" t="s">
         <v>565</v>
       </c>
@@ -27810,7 +27810,7 @@
         <v>3196.3</v>
       </c>
     </row>
-    <row r="549" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="549" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A549" s="13" t="s">
         <v>566</v>
       </c>
@@ -27857,7 +27857,7 @@
         <v>3213</v>
       </c>
     </row>
-    <row r="550" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="550" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A550" s="13" t="s">
         <v>567</v>
       </c>
@@ -27874,7 +27874,7 @@
         <v>116</v>
       </c>
       <c r="F550" s="4">
-        <v>112.5</v>
+        <v>112.4</v>
       </c>
       <c r="G550" s="4">
         <v>103.5</v>
@@ -27883,7 +27883,7 @@
         <v>114.4</v>
       </c>
       <c r="I550" s="4">
-        <v>110.5</v>
+        <v>110.4</v>
       </c>
       <c r="J550" s="4">
         <v>10</v>
@@ -27904,7 +27904,7 @@
         <v>3206.8</v>
       </c>
     </row>
-    <row r="551" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="551" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A551" s="13" t="s">
         <v>568</v>
       </c>
@@ -27915,43 +27915,43 @@
         <v>5</v>
       </c>
       <c r="D551" s="4">
-        <v>105.3</v>
+        <v>104.8</v>
       </c>
       <c r="E551" s="4">
-        <v>115.9</v>
+        <v>116</v>
       </c>
       <c r="F551" s="4">
-        <v>112.7</v>
+        <v>113.5</v>
       </c>
       <c r="G551" s="4">
-        <v>104.2</v>
+        <v>103.8</v>
       </c>
       <c r="H551" s="4">
         <v>114.6</v>
       </c>
       <c r="I551" s="4">
-        <v>110.6</v>
+        <v>111.9</v>
       </c>
       <c r="J551" s="4">
-        <v>22.2</v>
+        <v>40</v>
       </c>
       <c r="K551" s="4">
-        <v>18.8</v>
+        <v>38.9</v>
       </c>
       <c r="L551" s="4">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="M551" s="4">
-        <v>1199.4000000000001</v>
+        <v>1217.2</v>
       </c>
       <c r="N551" s="4">
-        <v>3242.7</v>
+        <v>3262.8</v>
       </c>
       <c r="O551" s="4">
-        <v>3181.8</v>
-      </c>
-    </row>
-    <row r="560" spans="1:15" x14ac:dyDescent="0.15">
+        <v>3206.8</v>
+      </c>
+    </row>
+    <row r="560" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D560" s="3"/>
       <c r="E560" s="3"/>
       <c r="F560" s="3"/>

--- a/data/長期系列_CI指数_DI指数_DI景気指標.xlsx
+++ b/data/長期系列_CI指数_DI指数_DI景気指標.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\CI\０１／CI\０２／速報からの改訂\★R7(2025)★\令和7年5月改訂\g研究所ホームページ掲載宛送付ファイル\jp\stat\di\di\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\CI\０１／CI\０１／速報\★R7(2025)★\令和7年6月分\g研究所ホームページ掲載宛送付ファイル\jp\stat\di\di\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A93CDBB-8524-4975-83E4-B7E49952A5DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D2194F5-2FD2-46E2-B828-40FDE25D41A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300"/>
   </bookViews>
   <sheets>
     <sheet name="指数 Indexes" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="570">
   <si>
     <t>ＤＩ指数</t>
   </si>
@@ -2299,6 +2299,10 @@
   </si>
   <si>
     <t>2025000505</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2025000606</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2800,7 +2804,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P560"/>
+  <dimension ref="A1:P561"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="6" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
@@ -2809,11 +2813,11 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="8.109375" customWidth="1"/>
-    <col min="4" max="15" width="10.6640625" customWidth="1"/>
+    <col min="1" max="1" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8.08984375" customWidth="1"/>
+    <col min="4" max="15" width="10.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="36" x14ac:dyDescent="0.2">
@@ -2948,7 +2952,7 @@
       </c>
       <c r="P3" s="5"/>
     </row>
-    <row r="4" spans="1:16" s="1" customFormat="1" ht="32.4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>20</v>
       </c>
@@ -2996,7 +3000,7 @@
       </c>
       <c r="P4" s="5"/>
     </row>
-    <row r="5" spans="1:16" s="1" customFormat="1" ht="22.2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -27951,13 +27955,60 @@
         <v>3206.8</v>
       </c>
     </row>
-    <row r="560" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="D560" s="3"/>
-      <c r="E560" s="3"/>
-      <c r="F560" s="3"/>
-      <c r="G560" s="3"/>
-      <c r="H560" s="3"/>
-      <c r="I560" s="3"/>
+    <row r="552" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A552" s="13" t="s">
+        <v>569</v>
+      </c>
+      <c r="B552" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C552" s="2">
+        <v>6</v>
+      </c>
+      <c r="D552" s="4">
+        <v>106.1</v>
+      </c>
+      <c r="E552" s="4">
+        <v>116.8</v>
+      </c>
+      <c r="F552" s="4">
+        <v>112</v>
+      </c>
+      <c r="G552" s="4">
+        <v>105.8</v>
+      </c>
+      <c r="H552" s="4">
+        <v>115.5</v>
+      </c>
+      <c r="I552" s="4">
+        <v>110.5</v>
+      </c>
+      <c r="J552" s="4">
+        <v>44.4</v>
+      </c>
+      <c r="K552" s="4">
+        <v>50</v>
+      </c>
+      <c r="L552" s="4">
+        <v>50</v>
+      </c>
+      <c r="M552" s="4">
+        <v>1211.5999999999999</v>
+      </c>
+      <c r="N552" s="4">
+        <v>3262.8</v>
+      </c>
+      <c r="O552" s="4">
+        <v>3206.8</v>
+      </c>
+    </row>
+    <row r="561" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D561" s="3"/>
+      <c r="E561" s="3"/>
+      <c r="F561" s="3"/>
+      <c r="G561" s="3"/>
+      <c r="H561" s="3"/>
+      <c r="I561" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>

--- a/data/長期系列_CI指数_DI指数_DI景気指標.xlsx
+++ b/data/長期系列_CI指数_DI指数_DI景気指標.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\CI\０１／CI\０１／速報\★R7(2025)★\令和7年6月分\g研究所ホームページ掲載宛送付ファイル\jp\stat\di\di\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\CI\０１／CI\０２／速報からの改訂\★R7(2025)★\令和7年6月改訂\g研究所ホームページ掲載宛送付ファイル\jp\stat\di\di\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D2194F5-2FD2-46E2-B828-40FDE25D41A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8287DCC-45B5-4310-8B6C-C6CB4690E3A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300"/>
+    <workbookView xWindow="3000" yWindow="3690" windowWidth="21600" windowHeight="11235"/>
   </bookViews>
   <sheets>
     <sheet name="指数 Indexes" sheetId="1" r:id="rId1"/>
@@ -2813,14 +2813,14 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="8.08984375" customWidth="1"/>
-    <col min="4" max="15" width="10.6328125" customWidth="1"/>
+    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8.125" customWidth="1"/>
+    <col min="4" max="15" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="36" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="36" x14ac:dyDescent="0.15">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -2862,7 +2862,7 @@
       </c>
       <c r="P1" s="5"/>
     </row>
-    <row r="2" spans="1:16" s="1" customFormat="1" ht="72" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" s="1" customFormat="1" ht="72" x14ac:dyDescent="0.15">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -2904,7 +2904,7 @@
       </c>
       <c r="P2" s="5"/>
     </row>
-    <row r="3" spans="1:16" ht="24" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="24" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
         <v>18</v>
       </c>
@@ -2952,7 +2952,7 @@
       </c>
       <c r="P3" s="5"/>
     </row>
-    <row r="4" spans="1:16" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" s="1" customFormat="1" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A4" s="9" t="s">
         <v>20</v>
       </c>
@@ -3000,7 +3000,7 @@
       </c>
       <c r="P4" s="5"/>
     </row>
-    <row r="5" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -3030,7 +3030,7 @@
       <c r="O5" s="11"/>
       <c r="P5" s="12"/>
     </row>
-    <row r="6" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -3060,7 +3060,7 @@
       <c r="O6" s="6"/>
       <c r="P6" s="12"/>
     </row>
-    <row r="7" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="13" t="s">
         <v>24</v>
       </c>
@@ -3095,7 +3095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" s="13" t="s">
         <v>25</v>
       </c>
@@ -3130,7 +3130,7 @@
         <v>44.4</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9" s="13" t="s">
         <v>26</v>
       </c>
@@ -3165,7 +3165,7 @@
         <v>83.3</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10" s="13" t="s">
         <v>27</v>
       </c>
@@ -3200,7 +3200,7 @@
         <v>111.1</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" s="13" t="s">
         <v>28</v>
       </c>
@@ -3235,7 +3235,7 @@
         <v>116.7</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="13" t="s">
         <v>29</v>
       </c>
@@ -3270,7 +3270,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="13" t="s">
         <v>30</v>
       </c>
@@ -3305,7 +3305,7 @@
         <v>177.8</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14" s="13" t="s">
         <v>31</v>
       </c>
@@ -3340,7 +3340,7 @@
         <v>194.5</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" s="13" t="s">
         <v>32</v>
       </c>
@@ -3375,7 +3375,7 @@
         <v>211.2</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16" s="13" t="s">
         <v>33</v>
       </c>
@@ -3410,7 +3410,7 @@
         <v>227.9</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A17" s="13" t="s">
         <v>34</v>
       </c>
@@ -3445,7 +3445,7 @@
         <v>255.7</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A18" s="13" t="s">
         <v>35</v>
       </c>
@@ -3480,7 +3480,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A19" s="13" t="s">
         <v>36</v>
       </c>
@@ -3515,7 +3515,7 @@
         <v>244.6</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A20" s="13" t="s">
         <v>37</v>
       </c>
@@ -3550,7 +3550,7 @@
         <v>244.6</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A21" s="13" t="s">
         <v>38</v>
       </c>
@@ -3585,7 +3585,7 @@
         <v>272.39999999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A22" s="13" t="s">
         <v>39</v>
       </c>
@@ -3620,7 +3620,7 @@
         <v>266.8</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A23" s="13" t="s">
         <v>40</v>
       </c>
@@ -3655,7 +3655,7 @@
         <v>272.39999999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A24" s="13" t="s">
         <v>41</v>
       </c>
@@ -3690,7 +3690,7 @@
         <v>261.3</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A25" s="13" t="s">
         <v>42</v>
       </c>
@@ -3725,7 +3725,7 @@
         <v>250.2</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A26" s="13" t="s">
         <v>43</v>
       </c>
@@ -3760,7 +3760,7 @@
         <v>233.5</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A27" s="13" t="s">
         <v>44</v>
       </c>
@@ -3795,7 +3795,7 @@
         <v>239.1</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A28" s="13" t="s">
         <v>45</v>
       </c>
@@ -3830,7 +3830,7 @@
         <v>244.7</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A29" s="13" t="s">
         <v>46</v>
       </c>
@@ -3865,7 +3865,7 @@
         <v>239.1</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A30" s="13" t="s">
         <v>47</v>
       </c>
@@ -3900,7 +3900,7 @@
         <v>222.4</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A31" s="13" t="s">
         <v>48</v>
       </c>
@@ -3935,7 +3935,7 @@
         <v>239.1</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A32" s="13" t="s">
         <v>49</v>
       </c>
@@ -3970,7 +3970,7 @@
         <v>244.7</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A33" s="13" t="s">
         <v>50</v>
       </c>
@@ -4005,7 +4005,7 @@
         <v>250.3</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A34" s="13" t="s">
         <v>51</v>
       </c>
@@ -4040,7 +4040,7 @@
         <v>244.7</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A35" s="13" t="s">
         <v>52</v>
       </c>
@@ -4075,7 +4075,7 @@
         <v>250.3</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A36" s="13" t="s">
         <v>53</v>
       </c>
@@ -4110,7 +4110,7 @@
         <v>278.10000000000002</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A37" s="13" t="s">
         <v>54</v>
       </c>
@@ -4145,7 +4145,7 @@
         <v>278.10000000000002</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A38" s="13" t="s">
         <v>55</v>
       </c>
@@ -4180,7 +4180,7 @@
         <v>272.5</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A39" s="13" t="s">
         <v>56</v>
       </c>
@@ -4215,7 +4215,7 @@
         <v>255.8</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A40" s="13" t="s">
         <v>57</v>
       </c>
@@ -4250,7 +4250,7 @@
         <v>239.1</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A41" s="13" t="s">
         <v>58</v>
       </c>
@@ -4285,7 +4285,7 @@
         <v>222.4</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A42" s="13" t="s">
         <v>59</v>
       </c>
@@ -4320,7 +4320,7 @@
         <v>194.6</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A43" s="13" t="s">
         <v>60</v>
       </c>
@@ -4355,7 +4355,7 @@
         <v>166.8</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A44" s="13" t="s">
         <v>61</v>
       </c>
@@ -4390,7 +4390,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A45" s="13" t="s">
         <v>62</v>
       </c>
@@ -4425,7 +4425,7 @@
         <v>122.3</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A46" s="13" t="s">
         <v>63</v>
       </c>
@@ -4460,7 +4460,7 @@
         <v>116.7</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A47" s="13" t="s">
         <v>64</v>
       </c>
@@ -4495,7 +4495,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A48" s="13" t="s">
         <v>65</v>
       </c>
@@ -4530,7 +4530,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A49" s="13" t="s">
         <v>66</v>
       </c>
@@ -4565,7 +4565,7 @@
         <v>105.6</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A50" s="13" t="s">
         <v>67</v>
       </c>
@@ -4600,7 +4600,7 @@
         <v>122.3</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A51" s="13" t="s">
         <v>68</v>
       </c>
@@ -4635,7 +4635,7 @@
         <v>127.9</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A52" s="13" t="s">
         <v>69</v>
       </c>
@@ -4670,7 +4670,7 @@
         <v>122.3</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A53" s="13" t="s">
         <v>70</v>
       </c>
@@ -4705,7 +4705,7 @@
         <v>127.9</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A54" s="13" t="s">
         <v>71</v>
       </c>
@@ -4740,7 +4740,7 @@
         <v>127.9</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A55" s="13" t="s">
         <v>72</v>
       </c>
@@ -4775,7 +4775,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A56" s="13" t="s">
         <v>73</v>
       </c>
@@ -4810,7 +4810,7 @@
         <v>177.9</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A57" s="13" t="s">
         <v>74</v>
       </c>
@@ -4845,7 +4845,7 @@
         <v>216.8</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A58" s="13" t="s">
         <v>75</v>
       </c>
@@ -4880,7 +4880,7 @@
         <v>255.7</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A59" s="13" t="s">
         <v>76</v>
       </c>
@@ -4915,7 +4915,7 @@
         <v>272.39999999999998</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A60" s="13" t="s">
         <v>77</v>
       </c>
@@ -4950,7 +4950,7 @@
         <v>283.5</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A61" s="13" t="s">
         <v>78</v>
       </c>
@@ -4985,7 +4985,7 @@
         <v>311.3</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A62" s="13" t="s">
         <v>79</v>
       </c>
@@ -5020,7 +5020,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A63" s="13" t="s">
         <v>80</v>
       </c>
@@ -5055,7 +5055,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A64" s="13" t="s">
         <v>81</v>
       </c>
@@ -5090,7 +5090,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A65" s="13" t="s">
         <v>82</v>
       </c>
@@ -5125,7 +5125,7 @@
         <v>455.8</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A66" s="13" t="s">
         <v>83</v>
       </c>
@@ -5160,7 +5160,7 @@
         <v>494.7</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A67" s="13" t="s">
         <v>84</v>
       </c>
@@ -5207,7 +5207,7 @@
         <v>539.1</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A68" s="13" t="s">
         <v>85</v>
       </c>
@@ -5254,7 +5254,7 @@
         <v>566.9</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A69" s="13" t="s">
         <v>86</v>
       </c>
@@ -5301,7 +5301,7 @@
         <v>594.70000000000005</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A70" s="13" t="s">
         <v>87</v>
       </c>
@@ -5348,7 +5348,7 @@
         <v>611.4</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A71" s="13" t="s">
         <v>88</v>
       </c>
@@ -5395,7 +5395,7 @@
         <v>644.70000000000005</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A72" s="13" t="s">
         <v>89</v>
       </c>
@@ -5442,7 +5442,7 @@
         <v>655.8</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A73" s="13" t="s">
         <v>90</v>
       </c>
@@ -5489,7 +5489,7 @@
         <v>666.9</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A74" s="13" t="s">
         <v>91</v>
       </c>
@@ -5536,7 +5536,7 @@
         <v>694.7</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A75" s="13" t="s">
         <v>92</v>
       </c>
@@ -5583,7 +5583,7 @@
         <v>700.3</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A76" s="13" t="s">
         <v>93</v>
       </c>
@@ -5630,7 +5630,7 @@
         <v>683.6</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A77" s="13" t="s">
         <v>94</v>
       </c>
@@ -5677,7 +5677,7 @@
         <v>666.9</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A78" s="13" t="s">
         <v>95</v>
       </c>
@@ -5724,7 +5724,7 @@
         <v>672.5</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A79" s="13" t="s">
         <v>96</v>
       </c>
@@ -5771,7 +5771,7 @@
         <v>689.2</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A80" s="13" t="s">
         <v>97</v>
       </c>
@@ -5818,7 +5818,7 @@
         <v>705.9</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A81" s="13" t="s">
         <v>98</v>
       </c>
@@ -5865,7 +5865,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A82" s="13" t="s">
         <v>99</v>
       </c>
@@ -5912,7 +5912,7 @@
         <v>711.4</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A83" s="13" t="s">
         <v>100</v>
       </c>
@@ -5959,7 +5959,7 @@
         <v>700.3</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A84" s="13" t="s">
         <v>101</v>
       </c>
@@ -6006,7 +6006,7 @@
         <v>683.6</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A85" s="13" t="s">
         <v>102</v>
       </c>
@@ -6053,7 +6053,7 @@
         <v>683.6</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A86" s="13" t="s">
         <v>103</v>
       </c>
@@ -6100,7 +6100,7 @@
         <v>672.5</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A87" s="13" t="s">
         <v>104</v>
       </c>
@@ -6147,7 +6147,7 @@
         <v>672.5</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A88" s="13" t="s">
         <v>105</v>
       </c>
@@ -6194,7 +6194,7 @@
         <v>689.2</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A89" s="13" t="s">
         <v>106</v>
       </c>
@@ -6241,7 +6241,7 @@
         <v>705.9</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A90" s="13" t="s">
         <v>107</v>
       </c>
@@ -6288,7 +6288,7 @@
         <v>689.2</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A91" s="13" t="s">
         <v>108</v>
       </c>
@@ -6335,7 +6335,7 @@
         <v>694.8</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A92" s="13" t="s">
         <v>109</v>
       </c>
@@ -6382,7 +6382,7 @@
         <v>705.9</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A93" s="13" t="s">
         <v>110</v>
       </c>
@@ -6429,7 +6429,7 @@
         <v>722.6</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A94" s="13" t="s">
         <v>111</v>
       </c>
@@ -6476,7 +6476,7 @@
         <v>750.4</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A95" s="13" t="s">
         <v>112</v>
       </c>
@@ -6523,7 +6523,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A96" s="13" t="s">
         <v>113</v>
       </c>
@@ -6570,7 +6570,7 @@
         <v>767.1</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A97" s="13" t="s">
         <v>114</v>
       </c>
@@ -6617,7 +6617,7 @@
         <v>772.7</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A98" s="13" t="s">
         <v>115</v>
       </c>
@@ -6664,7 +6664,7 @@
         <v>783.8</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A99" s="13" t="s">
         <v>116</v>
       </c>
@@ -6711,7 +6711,7 @@
         <v>811.6</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A100" s="13" t="s">
         <v>117</v>
       </c>
@@ -6758,7 +6758,7 @@
         <v>833.8</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A101" s="13" t="s">
         <v>118</v>
       </c>
@@ -6805,7 +6805,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A102" s="13" t="s">
         <v>119</v>
       </c>
@@ -6852,7 +6852,7 @@
         <v>900.4</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A103" s="13" t="s">
         <v>120</v>
       </c>
@@ -6899,7 +6899,7 @@
         <v>928.2</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A104" s="13" t="s">
         <v>121</v>
       </c>
@@ -6946,7 +6946,7 @@
         <v>944.9</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A105" s="13" t="s">
         <v>122</v>
       </c>
@@ -6993,7 +6993,7 @@
         <v>972.7</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A106" s="13" t="s">
         <v>123</v>
       </c>
@@ -7040,7 +7040,7 @@
         <v>1011.6</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A107" s="13" t="s">
         <v>124</v>
       </c>
@@ -7087,7 +7087,7 @@
         <v>1039.4000000000001</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A108" s="13" t="s">
         <v>125</v>
       </c>
@@ -7134,7 +7134,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A109" s="13" t="s">
         <v>126</v>
       </c>
@@ -7181,7 +7181,7 @@
         <v>1067.2</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A110" s="13" t="s">
         <v>127</v>
       </c>
@@ -7228,7 +7228,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A111" s="13" t="s">
         <v>128</v>
       </c>
@@ -7275,7 +7275,7 @@
         <v>1133.9000000000001</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A112" s="13" t="s">
         <v>129</v>
       </c>
@@ -7322,7 +7322,7 @@
         <v>1183.9000000000001</v>
       </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A113" s="13" t="s">
         <v>130</v>
       </c>
@@ -7369,7 +7369,7 @@
         <v>1233.9000000000001</v>
       </c>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A114" s="13" t="s">
         <v>131</v>
       </c>
@@ -7416,7 +7416,7 @@
         <v>1261.7</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A115" s="13" t="s">
         <v>132</v>
       </c>
@@ -7463,7 +7463,7 @@
         <v>1289.5</v>
       </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A116" s="13" t="s">
         <v>133</v>
       </c>
@@ -7510,7 +7510,7 @@
         <v>1317.3</v>
       </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A117" s="13" t="s">
         <v>134</v>
       </c>
@@ -7557,7 +7557,7 @@
         <v>1361.7</v>
       </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A118" s="13" t="s">
         <v>135</v>
       </c>
@@ -7604,7 +7604,7 @@
         <v>1367.3</v>
       </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A119" s="13" t="s">
         <v>136</v>
       </c>
@@ -7651,7 +7651,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A120" s="13" t="s">
         <v>137</v>
       </c>
@@ -7698,7 +7698,7 @@
         <v>1400.7</v>
       </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A121" s="13" t="s">
         <v>138</v>
       </c>
@@ -7745,7 +7745,7 @@
         <v>1445.1</v>
       </c>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A122" s="13" t="s">
         <v>139</v>
       </c>
@@ -7792,7 +7792,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A123" s="13" t="s">
         <v>140</v>
       </c>
@@ -7839,7 +7839,7 @@
         <v>1495.1</v>
       </c>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A124" s="13" t="s">
         <v>141</v>
       </c>
@@ -7886,7 +7886,7 @@
         <v>1511.8</v>
       </c>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A125" s="13" t="s">
         <v>142</v>
       </c>
@@ -7933,7 +7933,7 @@
         <v>1539.6</v>
       </c>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A126" s="13" t="s">
         <v>143</v>
       </c>
@@ -7980,7 +7980,7 @@
         <v>1572.9</v>
       </c>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A127" s="13" t="s">
         <v>144</v>
       </c>
@@ -8027,7 +8027,7 @@
         <v>1622.9</v>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A128" s="13" t="s">
         <v>145</v>
       </c>
@@ -8074,7 +8074,7 @@
         <v>1661.8</v>
       </c>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A129" s="13" t="s">
         <v>146</v>
       </c>
@@ -8121,7 +8121,7 @@
         <v>1695.1</v>
       </c>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A130" s="13" t="s">
         <v>147</v>
       </c>
@@ -8168,7 +8168,7 @@
         <v>1717.3</v>
       </c>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A131" s="13" t="s">
         <v>148</v>
       </c>
@@ -8215,7 +8215,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A132" s="13" t="s">
         <v>149</v>
       </c>
@@ -8262,7 +8262,7 @@
         <v>1750.7</v>
       </c>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A133" s="13" t="s">
         <v>150</v>
       </c>
@@ -8309,7 +8309,7 @@
         <v>1745.1</v>
       </c>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A134" s="13" t="s">
         <v>151</v>
       </c>
@@ -8356,7 +8356,7 @@
         <v>1761.8</v>
       </c>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A135" s="13" t="s">
         <v>152</v>
       </c>
@@ -8403,7 +8403,7 @@
         <v>1778.5</v>
       </c>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A136" s="13" t="s">
         <v>153</v>
       </c>
@@ -8450,7 +8450,7 @@
         <v>1789.6</v>
       </c>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A137" s="13" t="s">
         <v>154</v>
       </c>
@@ -8497,7 +8497,7 @@
         <v>1789.6</v>
       </c>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A138" s="13" t="s">
         <v>155</v>
       </c>
@@ -8544,7 +8544,7 @@
         <v>1817.4</v>
       </c>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A139" s="13" t="s">
         <v>156</v>
       </c>
@@ -8591,7 +8591,7 @@
         <v>1845.2</v>
       </c>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A140" s="13" t="s">
         <v>157</v>
       </c>
@@ -8638,7 +8638,7 @@
         <v>1856.3</v>
       </c>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A141" s="13" t="s">
         <v>158</v>
       </c>
@@ -8685,7 +8685,7 @@
         <v>1850.7</v>
       </c>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A142" s="13" t="s">
         <v>159</v>
       </c>
@@ -8732,7 +8732,7 @@
         <v>1856.3</v>
       </c>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A143" s="13" t="s">
         <v>160</v>
       </c>
@@ -8779,7 +8779,7 @@
         <v>1867.4</v>
       </c>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A144" s="13" t="s">
         <v>161</v>
       </c>
@@ -8826,7 +8826,7 @@
         <v>1900.7</v>
       </c>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A145" s="13" t="s">
         <v>162</v>
       </c>
@@ -8873,7 +8873,7 @@
         <v>1911.8</v>
       </c>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A146" s="13" t="s">
         <v>163</v>
       </c>
@@ -8920,7 +8920,7 @@
         <v>1906.2</v>
       </c>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A147" s="13" t="s">
         <v>164</v>
       </c>
@@ -8967,7 +8967,7 @@
         <v>1889.5</v>
       </c>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A148" s="13" t="s">
         <v>165</v>
       </c>
@@ -9014,7 +9014,7 @@
         <v>1906.2</v>
       </c>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A149" s="13" t="s">
         <v>166</v>
       </c>
@@ -9061,7 +9061,7 @@
         <v>1934</v>
       </c>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A150" s="13" t="s">
         <v>167</v>
       </c>
@@ -9108,7 +9108,7 @@
         <v>1939.6</v>
       </c>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A151" s="13" t="s">
         <v>168</v>
       </c>
@@ -9155,7 +9155,7 @@
         <v>1922.9</v>
       </c>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A152" s="13" t="s">
         <v>169</v>
       </c>
@@ -9202,7 +9202,7 @@
         <v>1922.9</v>
       </c>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A153" s="13" t="s">
         <v>170</v>
       </c>
@@ -9249,7 +9249,7 @@
         <v>1906.2</v>
       </c>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A154" s="13" t="s">
         <v>171</v>
       </c>
@@ -9296,7 +9296,7 @@
         <v>1889.5</v>
       </c>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A155" s="13" t="s">
         <v>172</v>
       </c>
@@ -9343,7 +9343,7 @@
         <v>1861.7</v>
       </c>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A156" s="13" t="s">
         <v>173</v>
       </c>
@@ -9390,7 +9390,7 @@
         <v>1845</v>
       </c>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A157" s="13" t="s">
         <v>174</v>
       </c>
@@ -9437,7 +9437,7 @@
         <v>1817.2</v>
       </c>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A158" s="13" t="s">
         <v>175</v>
       </c>
@@ -9484,7 +9484,7 @@
         <v>1789.4</v>
       </c>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A159" s="13" t="s">
         <v>176</v>
       </c>
@@ -9531,7 +9531,7 @@
         <v>1761.6</v>
       </c>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A160" s="13" t="s">
         <v>177</v>
       </c>
@@ -9578,7 +9578,7 @@
         <v>1722.7</v>
       </c>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A161" s="13" t="s">
         <v>178</v>
       </c>
@@ -9625,7 +9625,7 @@
         <v>1683.8</v>
       </c>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A162" s="13" t="s">
         <v>179</v>
       </c>
@@ -9672,7 +9672,7 @@
         <v>1644.9</v>
       </c>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A163" s="13" t="s">
         <v>180</v>
       </c>
@@ -9719,7 +9719,7 @@
         <v>1639.3</v>
       </c>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A164" s="13" t="s">
         <v>181</v>
       </c>
@@ -9766,7 +9766,7 @@
         <v>1622.6</v>
       </c>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A165" s="13" t="s">
         <v>182</v>
       </c>
@@ -9813,7 +9813,7 @@
         <v>1600.4</v>
       </c>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A166" s="13" t="s">
         <v>183</v>
       </c>
@@ -9860,7 +9860,7 @@
         <v>1572.6</v>
       </c>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A167" s="13" t="s">
         <v>184</v>
       </c>
@@ -9907,7 +9907,7 @@
         <v>1544.8</v>
       </c>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A168" s="13" t="s">
         <v>185</v>
       </c>
@@ -9954,7 +9954,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A169" s="13" t="s">
         <v>186</v>
       </c>
@@ -10001,7 +10001,7 @@
         <v>1483.7</v>
       </c>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A170" s="13" t="s">
         <v>187</v>
       </c>
@@ -10048,7 +10048,7 @@
         <v>1489.3</v>
       </c>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A171" s="13" t="s">
         <v>188</v>
       </c>
@@ -10095,7 +10095,7 @@
         <v>1483.7</v>
       </c>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A172" s="13" t="s">
         <v>189</v>
       </c>
@@ -10142,7 +10142,7 @@
         <v>1478.1</v>
       </c>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A173" s="13" t="s">
         <v>190</v>
       </c>
@@ -10189,7 +10189,7 @@
         <v>1461.4</v>
       </c>
     </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A174" s="13" t="s">
         <v>191</v>
       </c>
@@ -10236,7 +10236,7 @@
         <v>1450.3</v>
       </c>
     </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A175" s="13" t="s">
         <v>192</v>
       </c>
@@ -10283,7 +10283,7 @@
         <v>1455.9</v>
       </c>
     </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A176" s="13" t="s">
         <v>193</v>
       </c>
@@ -10330,7 +10330,7 @@
         <v>1433.7</v>
       </c>
     </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A177" s="13" t="s">
         <v>194</v>
       </c>
@@ -10377,7 +10377,7 @@
         <v>1422.6</v>
       </c>
     </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A178" s="13" t="s">
         <v>195</v>
       </c>
@@ -10424,7 +10424,7 @@
         <v>1400.4</v>
       </c>
     </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A179" s="13" t="s">
         <v>196</v>
       </c>
@@ -10471,7 +10471,7 @@
         <v>1394.8</v>
       </c>
     </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A180" s="13" t="s">
         <v>197</v>
       </c>
@@ -10518,7 +10518,7 @@
         <v>1378.1</v>
       </c>
     </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A181" s="13" t="s">
         <v>198</v>
       </c>
@@ -10565,7 +10565,7 @@
         <v>1378.1</v>
       </c>
     </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A182" s="13" t="s">
         <v>199</v>
       </c>
@@ -10612,7 +10612,7 @@
         <v>1394.8</v>
       </c>
     </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A183" s="13" t="s">
         <v>200</v>
       </c>
@@ -10659,7 +10659,7 @@
         <v>1405.9</v>
       </c>
     </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A184" s="13" t="s">
         <v>201</v>
       </c>
@@ -10706,7 +10706,7 @@
         <v>1417</v>
       </c>
     </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A185" s="13" t="s">
         <v>202</v>
       </c>
@@ -10753,7 +10753,7 @@
         <v>1428.1</v>
       </c>
     </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A186" s="13" t="s">
         <v>203</v>
       </c>
@@ -10800,7 +10800,7 @@
         <v>1433.7</v>
       </c>
     </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A187" s="13" t="s">
         <v>204</v>
       </c>
@@ -10847,7 +10847,7 @@
         <v>1444.8</v>
       </c>
     </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A188" s="13" t="s">
         <v>205</v>
       </c>
@@ -10894,7 +10894,7 @@
         <v>1455.9</v>
       </c>
     </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A189" s="13" t="s">
         <v>206</v>
       </c>
@@ -10941,7 +10941,7 @@
         <v>1461.5</v>
       </c>
     </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A190" s="13" t="s">
         <v>207</v>
       </c>
@@ -10988,7 +10988,7 @@
         <v>1467.1</v>
       </c>
     </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A191" s="13" t="s">
         <v>208</v>
       </c>
@@ -11035,7 +11035,7 @@
         <v>1472.7</v>
       </c>
     </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A192" s="13" t="s">
         <v>209</v>
       </c>
@@ -11082,7 +11082,7 @@
         <v>1467.1</v>
       </c>
     </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A193" s="13" t="s">
         <v>210</v>
       </c>
@@ -11129,7 +11129,7 @@
         <v>1467.1</v>
       </c>
     </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A194" s="13" t="s">
         <v>211</v>
       </c>
@@ -11176,7 +11176,7 @@
         <v>1461.5</v>
       </c>
     </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A195" s="13" t="s">
         <v>212</v>
       </c>
@@ -11223,7 +11223,7 @@
         <v>1483.7</v>
       </c>
     </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A196" s="13" t="s">
         <v>213</v>
       </c>
@@ -11270,7 +11270,7 @@
         <v>1494.8</v>
       </c>
     </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A197" s="13" t="s">
         <v>214</v>
       </c>
@@ -11317,7 +11317,7 @@
         <v>1511.5</v>
       </c>
     </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A198" s="13" t="s">
         <v>215</v>
       </c>
@@ -11364,7 +11364,7 @@
         <v>1522.6</v>
       </c>
     </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A199" s="13" t="s">
         <v>216</v>
       </c>
@@ -11411,7 +11411,7 @@
         <v>1550.4</v>
       </c>
     </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A200" s="13" t="s">
         <v>217</v>
       </c>
@@ -11458,7 +11458,7 @@
         <v>1589.3</v>
       </c>
     </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A201" s="13" t="s">
         <v>218</v>
       </c>
@@ -11505,7 +11505,7 @@
         <v>1617.1</v>
       </c>
     </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A202" s="13" t="s">
         <v>219</v>
       </c>
@@ -11552,7 +11552,7 @@
         <v>1644.9</v>
       </c>
     </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A203" s="13" t="s">
         <v>220</v>
       </c>
@@ -11599,7 +11599,7 @@
         <v>1656</v>
       </c>
     </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A204" s="13" t="s">
         <v>221</v>
       </c>
@@ -11646,7 +11646,7 @@
         <v>1661.6</v>
       </c>
     </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A205" s="13" t="s">
         <v>222</v>
       </c>
@@ -11693,7 +11693,7 @@
         <v>1672.7</v>
       </c>
     </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A206" s="13" t="s">
         <v>223</v>
       </c>
@@ -11740,7 +11740,7 @@
         <v>1700.5</v>
       </c>
     </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A207" s="13" t="s">
         <v>224</v>
       </c>
@@ -11787,7 +11787,7 @@
         <v>1711.6</v>
       </c>
     </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A208" s="13" t="s">
         <v>225</v>
       </c>
@@ -11834,7 +11834,7 @@
         <v>1733.8</v>
       </c>
     </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A209" s="13" t="s">
         <v>226</v>
       </c>
@@ -11881,7 +11881,7 @@
         <v>1772.7</v>
       </c>
     </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A210" s="13" t="s">
         <v>227</v>
       </c>
@@ -11928,7 +11928,7 @@
         <v>1800.5</v>
       </c>
     </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A211" s="13" t="s">
         <v>228</v>
       </c>
@@ -11975,7 +11975,7 @@
         <v>1828.3</v>
       </c>
     </row>
-    <row r="212" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A212" s="13" t="s">
         <v>229</v>
       </c>
@@ -12022,7 +12022,7 @@
         <v>1828.3</v>
       </c>
     </row>
-    <row r="213" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A213" s="13" t="s">
         <v>230</v>
       </c>
@@ -12069,7 +12069,7 @@
         <v>1867.2</v>
       </c>
     </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A214" s="13" t="s">
         <v>231</v>
       </c>
@@ -12116,7 +12116,7 @@
         <v>1883.9</v>
       </c>
     </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A215" s="13" t="s">
         <v>232</v>
       </c>
@@ -12163,7 +12163,7 @@
         <v>1889.5</v>
       </c>
     </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A216" s="13" t="s">
         <v>233</v>
       </c>
@@ -12210,7 +12210,7 @@
         <v>1906.2</v>
       </c>
     </row>
-    <row r="217" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A217" s="13" t="s">
         <v>234</v>
       </c>
@@ -12257,7 +12257,7 @@
         <v>1934</v>
       </c>
     </row>
-    <row r="218" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A218" s="13" t="s">
         <v>235</v>
       </c>
@@ -12304,7 +12304,7 @@
         <v>1950.7</v>
       </c>
     </row>
-    <row r="219" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A219" s="13" t="s">
         <v>236</v>
       </c>
@@ -12351,7 +12351,7 @@
         <v>1967.4</v>
       </c>
     </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A220" s="13" t="s">
         <v>237</v>
       </c>
@@ -12398,7 +12398,7 @@
         <v>1961.8</v>
       </c>
     </row>
-    <row r="221" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A221" s="13" t="s">
         <v>238</v>
       </c>
@@ -12445,7 +12445,7 @@
         <v>1967.4</v>
       </c>
     </row>
-    <row r="222" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A222" s="13" t="s">
         <v>239</v>
       </c>
@@ -12492,7 +12492,7 @@
         <v>1961.8</v>
       </c>
     </row>
-    <row r="223" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A223" s="13" t="s">
         <v>240</v>
       </c>
@@ -12539,7 +12539,7 @@
         <v>1934</v>
       </c>
     </row>
-    <row r="224" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A224" s="13" t="s">
         <v>241</v>
       </c>
@@ -12586,7 +12586,7 @@
         <v>1906.2</v>
       </c>
     </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A225" s="13" t="s">
         <v>242</v>
       </c>
@@ -12633,7 +12633,7 @@
         <v>1856.2</v>
       </c>
     </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A226" s="13" t="s">
         <v>243</v>
       </c>
@@ -12680,7 +12680,7 @@
         <v>1828.4</v>
       </c>
     </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A227" s="13" t="s">
         <v>244</v>
       </c>
@@ -12727,7 +12727,7 @@
         <v>1800.6</v>
       </c>
     </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A228" s="13" t="s">
         <v>245</v>
       </c>
@@ -12774,7 +12774,7 @@
         <v>1783.9</v>
       </c>
     </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A229" s="13" t="s">
         <v>246</v>
       </c>
@@ -12821,7 +12821,7 @@
         <v>1761.7</v>
       </c>
     </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A230" s="13" t="s">
         <v>247</v>
       </c>
@@ -12868,7 +12868,7 @@
         <v>1728.4</v>
       </c>
     </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A231" s="13" t="s">
         <v>248</v>
       </c>
@@ -12915,7 +12915,7 @@
         <v>1700.6</v>
       </c>
     </row>
-    <row r="232" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A232" s="13" t="s">
         <v>249</v>
       </c>
@@ -12962,7 +12962,7 @@
         <v>1683.9</v>
       </c>
     </row>
-    <row r="233" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A233" s="13" t="s">
         <v>250</v>
       </c>
@@ -13009,7 +13009,7 @@
         <v>1656.1</v>
       </c>
     </row>
-    <row r="234" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A234" s="13" t="s">
         <v>251</v>
       </c>
@@ -13056,7 +13056,7 @@
         <v>1639.4</v>
       </c>
     </row>
-    <row r="235" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A235" s="13" t="s">
         <v>252</v>
       </c>
@@ -13103,7 +13103,7 @@
         <v>1645</v>
       </c>
     </row>
-    <row r="236" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A236" s="13" t="s">
         <v>253</v>
       </c>
@@ -13150,7 +13150,7 @@
         <v>1628.3</v>
       </c>
     </row>
-    <row r="237" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A237" s="13" t="s">
         <v>254</v>
       </c>
@@ -13197,7 +13197,7 @@
         <v>1611.6</v>
       </c>
     </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A238" s="13" t="s">
         <v>255</v>
       </c>
@@ -13244,7 +13244,7 @@
         <v>1578.3</v>
       </c>
     </row>
-    <row r="239" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A239" s="13" t="s">
         <v>256</v>
       </c>
@@ -13291,7 +13291,7 @@
         <v>1561.6</v>
       </c>
     </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A240" s="13" t="s">
         <v>257</v>
       </c>
@@ -13338,7 +13338,7 @@
         <v>1550.5</v>
       </c>
     </row>
-    <row r="241" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A241" s="13" t="s">
         <v>258</v>
       </c>
@@ -13385,7 +13385,7 @@
         <v>1550.5</v>
       </c>
     </row>
-    <row r="242" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A242" s="13" t="s">
         <v>259</v>
       </c>
@@ -13432,7 +13432,7 @@
         <v>1550.5</v>
       </c>
     </row>
-    <row r="243" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A243" s="13" t="s">
         <v>260</v>
       </c>
@@ -13479,7 +13479,7 @@
         <v>1561.6</v>
       </c>
     </row>
-    <row r="244" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A244" s="13" t="s">
         <v>261</v>
       </c>
@@ -13526,7 +13526,7 @@
         <v>1556</v>
       </c>
     </row>
-    <row r="245" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A245" s="13" t="s">
         <v>262</v>
       </c>
@@ -13573,7 +13573,7 @@
         <v>1550.4</v>
       </c>
     </row>
-    <row r="246" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A246" s="13" t="s">
         <v>263</v>
       </c>
@@ -13620,7 +13620,7 @@
         <v>1544.8</v>
       </c>
     </row>
-    <row r="247" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A247" s="13" t="s">
         <v>264</v>
       </c>
@@ -13667,7 +13667,7 @@
         <v>1539.2</v>
       </c>
     </row>
-    <row r="248" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A248" s="13" t="s">
         <v>265</v>
       </c>
@@ -13714,7 +13714,7 @@
         <v>1550.3</v>
       </c>
     </row>
-    <row r="249" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A249" s="13" t="s">
         <v>266</v>
       </c>
@@ -13761,7 +13761,7 @@
         <v>1578.1</v>
       </c>
     </row>
-    <row r="250" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A250" s="13" t="s">
         <v>267</v>
       </c>
@@ -13808,7 +13808,7 @@
         <v>1594.8</v>
       </c>
     </row>
-    <row r="251" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A251" s="13" t="s">
         <v>268</v>
       </c>
@@ -13855,7 +13855,7 @@
         <v>1600.4</v>
       </c>
     </row>
-    <row r="252" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A252" s="13" t="s">
         <v>269</v>
       </c>
@@ -13902,7 +13902,7 @@
         <v>1578.2</v>
       </c>
     </row>
-    <row r="253" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A253" s="13" t="s">
         <v>270</v>
       </c>
@@ -13949,7 +13949,7 @@
         <v>1578.2</v>
       </c>
     </row>
-    <row r="254" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A254" s="13" t="s">
         <v>271</v>
       </c>
@@ -13996,7 +13996,7 @@
         <v>1556</v>
       </c>
     </row>
-    <row r="255" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A255" s="13" t="s">
         <v>272</v>
       </c>
@@ -14043,7 +14043,7 @@
         <v>1539.3</v>
       </c>
     </row>
-    <row r="256" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A256" s="13" t="s">
         <v>273</v>
       </c>
@@ -14090,7 +14090,7 @@
         <v>1550.4</v>
       </c>
     </row>
-    <row r="257" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A257" s="13" t="s">
         <v>274</v>
       </c>
@@ -14137,7 +14137,7 @@
         <v>1556</v>
       </c>
     </row>
-    <row r="258" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A258" s="13" t="s">
         <v>275</v>
       </c>
@@ -14184,7 +14184,7 @@
         <v>1572.7</v>
       </c>
     </row>
-    <row r="259" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A259" s="13" t="s">
         <v>276</v>
       </c>
@@ -14231,7 +14231,7 @@
         <v>1544.9</v>
       </c>
     </row>
-    <row r="260" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A260" s="13" t="s">
         <v>277</v>
       </c>
@@ -14278,7 +14278,7 @@
         <v>1550.5</v>
       </c>
     </row>
-    <row r="261" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A261" s="13" t="s">
         <v>278</v>
       </c>
@@ -14325,7 +14325,7 @@
         <v>1539.4</v>
       </c>
     </row>
-    <row r="262" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A262" s="13" t="s">
         <v>279</v>
       </c>
@@ -14372,7 +14372,7 @@
         <v>1517.2</v>
       </c>
     </row>
-    <row r="263" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A263" s="13" t="s">
         <v>280</v>
       </c>
@@ -14419,7 +14419,7 @@
         <v>1506.1</v>
       </c>
     </row>
-    <row r="264" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A264" s="13" t="s">
         <v>281</v>
       </c>
@@ -14466,7 +14466,7 @@
         <v>1489.4</v>
       </c>
     </row>
-    <row r="265" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A265" s="13" t="s">
         <v>282</v>
       </c>
@@ -14513,7 +14513,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="266" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A266" s="13" t="s">
         <v>283</v>
       </c>
@@ -14560,7 +14560,7 @@
         <v>1483.9</v>
       </c>
     </row>
-    <row r="267" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A267" s="13" t="s">
         <v>284</v>
       </c>
@@ -14607,7 +14607,7 @@
         <v>1483.9</v>
       </c>
     </row>
-    <row r="268" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A268" s="13" t="s">
         <v>285</v>
       </c>
@@ -14654,7 +14654,7 @@
         <v>1478.3</v>
       </c>
     </row>
-    <row r="269" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A269" s="13" t="s">
         <v>286</v>
       </c>
@@ -14701,7 +14701,7 @@
         <v>1467.2</v>
       </c>
     </row>
-    <row r="270" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A270" s="13" t="s">
         <v>287</v>
       </c>
@@ -14748,7 +14748,7 @@
         <v>1433.9</v>
       </c>
     </row>
-    <row r="271" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A271" s="13" t="s">
         <v>288</v>
       </c>
@@ -14795,7 +14795,7 @@
         <v>1417.2</v>
       </c>
     </row>
-    <row r="272" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A272" s="13" t="s">
         <v>289</v>
       </c>
@@ -14842,7 +14842,7 @@
         <v>1395</v>
       </c>
     </row>
-    <row r="273" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A273" s="13" t="s">
         <v>290</v>
       </c>
@@ -14889,7 +14889,7 @@
         <v>1400.6</v>
       </c>
     </row>
-    <row r="274" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A274" s="13" t="s">
         <v>291</v>
       </c>
@@ -14936,7 +14936,7 @@
         <v>1378.4</v>
       </c>
     </row>
-    <row r="275" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A275" s="13" t="s">
         <v>292</v>
       </c>
@@ -14983,7 +14983,7 @@
         <v>1367.3</v>
       </c>
     </row>
-    <row r="276" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A276" s="13" t="s">
         <v>293</v>
       </c>
@@ -15030,7 +15030,7 @@
         <v>1350.6</v>
       </c>
     </row>
-    <row r="277" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A277" s="13" t="s">
         <v>294</v>
       </c>
@@ -15077,7 +15077,7 @@
         <v>1356.2</v>
       </c>
     </row>
-    <row r="278" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A278" s="13" t="s">
         <v>295</v>
       </c>
@@ -15124,7 +15124,7 @@
         <v>1350.6</v>
       </c>
     </row>
-    <row r="279" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A279" s="13" t="s">
         <v>296</v>
       </c>
@@ -15171,7 +15171,7 @@
         <v>1350.6</v>
       </c>
     </row>
-    <row r="280" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A280" s="13" t="s">
         <v>297</v>
       </c>
@@ -15218,7 +15218,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="281" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A281" s="13" t="s">
         <v>298</v>
       </c>
@@ -15265,7 +15265,7 @@
         <v>1350.6</v>
       </c>
     </row>
-    <row r="282" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A282" s="13" t="s">
         <v>299</v>
       </c>
@@ -15312,7 +15312,7 @@
         <v>1378.4</v>
       </c>
     </row>
-    <row r="283" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A283" s="13" t="s">
         <v>300</v>
       </c>
@@ -15359,7 +15359,7 @@
         <v>1372.8</v>
       </c>
     </row>
-    <row r="284" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A284" s="13" t="s">
         <v>301</v>
       </c>
@@ -15406,7 +15406,7 @@
         <v>1383.9</v>
       </c>
     </row>
-    <row r="285" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A285" s="13" t="s">
         <v>302</v>
       </c>
@@ -15453,7 +15453,7 @@
         <v>1395</v>
       </c>
     </row>
-    <row r="286" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A286" s="13" t="s">
         <v>303</v>
       </c>
@@ -15500,7 +15500,7 @@
         <v>1411.7</v>
       </c>
     </row>
-    <row r="287" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A287" s="13" t="s">
         <v>304</v>
       </c>
@@ -15547,7 +15547,7 @@
         <v>1422.8</v>
       </c>
     </row>
-    <row r="288" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A288" s="13" t="s">
         <v>305</v>
       </c>
@@ -15594,7 +15594,7 @@
         <v>1439.5</v>
       </c>
     </row>
-    <row r="289" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A289" s="13" t="s">
         <v>306</v>
       </c>
@@ -15641,7 +15641,7 @@
         <v>1467.3</v>
       </c>
     </row>
-    <row r="290" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A290" s="13" t="s">
         <v>307</v>
       </c>
@@ -15688,7 +15688,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="291" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A291" s="13" t="s">
         <v>308</v>
       </c>
@@ -15735,7 +15735,7 @@
         <v>1511.8</v>
       </c>
     </row>
-    <row r="292" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A292" s="13" t="s">
         <v>309</v>
       </c>
@@ -15782,7 +15782,7 @@
         <v>1550.7</v>
       </c>
     </row>
-    <row r="293" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A293" s="13" t="s">
         <v>310</v>
       </c>
@@ -15829,7 +15829,7 @@
         <v>1567.4</v>
       </c>
     </row>
-    <row r="294" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A294" s="13" t="s">
         <v>311</v>
       </c>
@@ -15876,7 +15876,7 @@
         <v>1584.1</v>
       </c>
     </row>
-    <row r="295" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A295" s="13" t="s">
         <v>312</v>
       </c>
@@ -15923,7 +15923,7 @@
         <v>1606.3</v>
       </c>
     </row>
-    <row r="296" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A296" s="13" t="s">
         <v>313</v>
       </c>
@@ -15970,7 +15970,7 @@
         <v>1634.1</v>
       </c>
     </row>
-    <row r="297" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A297" s="13" t="s">
         <v>314</v>
       </c>
@@ -16017,7 +16017,7 @@
         <v>1650.8</v>
       </c>
     </row>
-    <row r="298" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A298" s="13" t="s">
         <v>315</v>
       </c>
@@ -16064,7 +16064,7 @@
         <v>1656.4</v>
       </c>
     </row>
-    <row r="299" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A299" s="13" t="s">
         <v>316</v>
       </c>
@@ -16111,7 +16111,7 @@
         <v>1684.2</v>
       </c>
     </row>
-    <row r="300" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A300" s="13" t="s">
         <v>317</v>
       </c>
@@ -16158,7 +16158,7 @@
         <v>1717.5</v>
       </c>
     </row>
-    <row r="301" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A301" s="13" t="s">
         <v>318</v>
       </c>
@@ -16205,7 +16205,7 @@
         <v>1728.6</v>
       </c>
     </row>
-    <row r="302" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A302" s="13" t="s">
         <v>319</v>
       </c>
@@ -16252,7 +16252,7 @@
         <v>1750.8</v>
       </c>
     </row>
-    <row r="303" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A303" s="13" t="s">
         <v>320</v>
       </c>
@@ -16299,7 +16299,7 @@
         <v>1795.2</v>
       </c>
     </row>
-    <row r="304" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A304" s="13" t="s">
         <v>321</v>
       </c>
@@ -16346,7 +16346,7 @@
         <v>1806.3</v>
       </c>
     </row>
-    <row r="305" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A305" s="13" t="s">
         <v>322</v>
       </c>
@@ -16393,7 +16393,7 @@
         <v>1811.9</v>
       </c>
     </row>
-    <row r="306" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A306" s="13" t="s">
         <v>323</v>
       </c>
@@ -16440,7 +16440,7 @@
         <v>1806.3</v>
       </c>
     </row>
-    <row r="307" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A307" s="13" t="s">
         <v>324</v>
       </c>
@@ -16487,7 +16487,7 @@
         <v>1817.4</v>
       </c>
     </row>
-    <row r="308" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A308" s="13" t="s">
         <v>325</v>
       </c>
@@ -16534,7 +16534,7 @@
         <v>1817.4</v>
       </c>
     </row>
-    <row r="309" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A309" s="13" t="s">
         <v>326</v>
       </c>
@@ -16581,7 +16581,7 @@
         <v>1823</v>
       </c>
     </row>
-    <row r="310" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A310" s="13" t="s">
         <v>327</v>
       </c>
@@ -16628,7 +16628,7 @@
         <v>1850.8</v>
       </c>
     </row>
-    <row r="311" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A311" s="13" t="s">
         <v>328</v>
       </c>
@@ -16675,7 +16675,7 @@
         <v>1867.5</v>
       </c>
     </row>
-    <row r="312" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A312" s="13" t="s">
         <v>329</v>
       </c>
@@ -16722,7 +16722,7 @@
         <v>1884.2</v>
       </c>
     </row>
-    <row r="313" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A313" s="13" t="s">
         <v>330</v>
       </c>
@@ -16769,7 +16769,7 @@
         <v>1873.1</v>
       </c>
     </row>
-    <row r="314" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A314" s="13" t="s">
         <v>331</v>
       </c>
@@ -16816,7 +16816,7 @@
         <v>1889.8</v>
       </c>
     </row>
-    <row r="315" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A315" s="13" t="s">
         <v>332</v>
       </c>
@@ -16863,7 +16863,7 @@
         <v>1917.6</v>
       </c>
     </row>
-    <row r="316" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A316" s="13" t="s">
         <v>333</v>
       </c>
@@ -16910,7 +16910,7 @@
         <v>1939.8</v>
       </c>
     </row>
-    <row r="317" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A317" s="13" t="s">
         <v>334</v>
       </c>
@@ -16957,7 +16957,7 @@
         <v>1945.4</v>
       </c>
     </row>
-    <row r="318" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A318" s="13" t="s">
         <v>335</v>
       </c>
@@ -17004,7 +17004,7 @@
         <v>1951</v>
       </c>
     </row>
-    <row r="319" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A319" s="13" t="s">
         <v>336</v>
       </c>
@@ -17051,7 +17051,7 @@
         <v>1962.1</v>
       </c>
     </row>
-    <row r="320" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A320" s="13" t="s">
         <v>337</v>
       </c>
@@ -17098,7 +17098,7 @@
         <v>1984.3</v>
       </c>
     </row>
-    <row r="321" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A321" s="13" t="s">
         <v>338</v>
       </c>
@@ -17145,7 +17145,7 @@
         <v>2012.1</v>
       </c>
     </row>
-    <row r="322" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A322" s="13" t="s">
         <v>339</v>
       </c>
@@ -17192,7 +17192,7 @@
         <v>2045.4</v>
       </c>
     </row>
-    <row r="323" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A323" s="13" t="s">
         <v>340</v>
       </c>
@@ -17239,7 +17239,7 @@
         <v>2067.6</v>
       </c>
     </row>
-    <row r="324" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A324" s="13" t="s">
         <v>341</v>
       </c>
@@ -17286,7 +17286,7 @@
         <v>2106.5</v>
       </c>
     </row>
-    <row r="325" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A325" s="13" t="s">
         <v>342</v>
       </c>
@@ -17333,7 +17333,7 @@
         <v>2134.3000000000002</v>
       </c>
     </row>
-    <row r="326" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A326" s="13" t="s">
         <v>343</v>
       </c>
@@ -17380,7 +17380,7 @@
         <v>2151</v>
       </c>
     </row>
-    <row r="327" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A327" s="13" t="s">
         <v>344</v>
       </c>
@@ -17427,7 +17427,7 @@
         <v>2162.1</v>
       </c>
     </row>
-    <row r="328" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A328" s="13" t="s">
         <v>345</v>
       </c>
@@ -17474,7 +17474,7 @@
         <v>2173.1999999999998</v>
       </c>
     </row>
-    <row r="329" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A329" s="13" t="s">
         <v>346</v>
       </c>
@@ -17521,7 +17521,7 @@
         <v>2189.9</v>
       </c>
     </row>
-    <row r="330" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A330" s="13" t="s">
         <v>347</v>
       </c>
@@ -17568,7 +17568,7 @@
         <v>2217.6999999999998</v>
       </c>
     </row>
-    <row r="331" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A331" s="13" t="s">
         <v>348</v>
       </c>
@@ -17615,7 +17615,7 @@
         <v>2228.8000000000002</v>
       </c>
     </row>
-    <row r="332" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A332" s="13" t="s">
         <v>349</v>
       </c>
@@ -17662,7 +17662,7 @@
         <v>2201</v>
       </c>
     </row>
-    <row r="333" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A333" s="13" t="s">
         <v>350</v>
       </c>
@@ -17709,7 +17709,7 @@
         <v>2195.4</v>
       </c>
     </row>
-    <row r="334" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A334" s="13" t="s">
         <v>351</v>
       </c>
@@ -17756,7 +17756,7 @@
         <v>2189.8000000000002</v>
       </c>
     </row>
-    <row r="335" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A335" s="13" t="s">
         <v>352</v>
       </c>
@@ -17803,7 +17803,7 @@
         <v>2217.6</v>
       </c>
     </row>
-    <row r="336" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A336" s="13" t="s">
         <v>353</v>
       </c>
@@ -17850,7 +17850,7 @@
         <v>2245.4</v>
       </c>
     </row>
-    <row r="337" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A337" s="13" t="s">
         <v>354</v>
       </c>
@@ -17897,7 +17897,7 @@
         <v>2284.3000000000002</v>
       </c>
     </row>
-    <row r="338" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A338" s="13" t="s">
         <v>355</v>
       </c>
@@ -17944,7 +17944,7 @@
         <v>2306.5</v>
       </c>
     </row>
-    <row r="339" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A339" s="13" t="s">
         <v>356</v>
       </c>
@@ -17991,7 +17991,7 @@
         <v>2317.6</v>
       </c>
     </row>
-    <row r="340" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A340" s="13" t="s">
         <v>357</v>
       </c>
@@ -18038,7 +18038,7 @@
         <v>2334.3000000000002</v>
       </c>
     </row>
-    <row r="341" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A341" s="13" t="s">
         <v>358</v>
       </c>
@@ -18085,7 +18085,7 @@
         <v>2351</v>
       </c>
     </row>
-    <row r="342" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A342" s="13" t="s">
         <v>359</v>
       </c>
@@ -18132,7 +18132,7 @@
         <v>2378.8000000000002</v>
       </c>
     </row>
-    <row r="343" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A343" s="13" t="s">
         <v>360</v>
       </c>
@@ -18179,7 +18179,7 @@
         <v>2406.6</v>
       </c>
     </row>
-    <row r="344" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A344" s="13" t="s">
         <v>361</v>
       </c>
@@ -18226,7 +18226,7 @@
         <v>2401</v>
       </c>
     </row>
-    <row r="345" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A345" s="13" t="s">
         <v>362</v>
       </c>
@@ -18273,7 +18273,7 @@
         <v>2389.9</v>
       </c>
     </row>
-    <row r="346" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A346" s="13" t="s">
         <v>363</v>
       </c>
@@ -18320,7 +18320,7 @@
         <v>2351</v>
       </c>
     </row>
-    <row r="347" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A347" s="13" t="s">
         <v>364</v>
       </c>
@@ -18367,7 +18367,7 @@
         <v>2323.1999999999998</v>
       </c>
     </row>
-    <row r="348" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A348" s="13" t="s">
         <v>365</v>
       </c>
@@ -18414,7 +18414,7 @@
         <v>2295.4</v>
       </c>
     </row>
-    <row r="349" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A349" s="13" t="s">
         <v>366</v>
       </c>
@@ -18461,7 +18461,7 @@
         <v>2278.6999999999998</v>
       </c>
     </row>
-    <row r="350" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A350" s="13" t="s">
         <v>367</v>
       </c>
@@ -18508,7 +18508,7 @@
         <v>2239.8000000000002</v>
       </c>
     </row>
-    <row r="351" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A351" s="13" t="s">
         <v>368</v>
       </c>
@@ -18555,7 +18555,7 @@
         <v>2223.1</v>
       </c>
     </row>
-    <row r="352" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A352" s="13" t="s">
         <v>369</v>
       </c>
@@ -18602,7 +18602,7 @@
         <v>2184.1999999999998</v>
       </c>
     </row>
-    <row r="353" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A353" s="13" t="s">
         <v>370</v>
       </c>
@@ -18649,7 +18649,7 @@
         <v>2178.6</v>
       </c>
     </row>
-    <row r="354" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A354" s="13" t="s">
         <v>371</v>
       </c>
@@ -18696,7 +18696,7 @@
         <v>2128.6</v>
       </c>
     </row>
-    <row r="355" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A355" s="13" t="s">
         <v>372</v>
       </c>
@@ -18743,7 +18743,7 @@
         <v>2078.6</v>
       </c>
     </row>
-    <row r="356" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A356" s="13" t="s">
         <v>373</v>
       </c>
@@ -18790,7 +18790,7 @@
         <v>2028.6</v>
       </c>
     </row>
-    <row r="357" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A357" s="13" t="s">
         <v>374</v>
       </c>
@@ -18837,7 +18837,7 @@
         <v>1989.7</v>
       </c>
     </row>
-    <row r="358" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A358" s="13" t="s">
         <v>375</v>
       </c>
@@ -18884,7 +18884,7 @@
         <v>1950.8</v>
       </c>
     </row>
-    <row r="359" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A359" s="13" t="s">
         <v>376</v>
       </c>
@@ -18931,7 +18931,7 @@
         <v>1923</v>
       </c>
     </row>
-    <row r="360" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A360" s="13" t="s">
         <v>377</v>
       </c>
@@ -18978,7 +18978,7 @@
         <v>1884.1</v>
       </c>
     </row>
-    <row r="361" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A361" s="13" t="s">
         <v>378</v>
       </c>
@@ -19025,7 +19025,7 @@
         <v>1845.2</v>
       </c>
     </row>
-    <row r="362" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A362" s="13" t="s">
         <v>379</v>
       </c>
@@ -19072,7 +19072,7 @@
         <v>1828.5</v>
       </c>
     </row>
-    <row r="363" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A363" s="13" t="s">
         <v>380</v>
       </c>
@@ -19119,7 +19119,7 @@
         <v>1811.8</v>
       </c>
     </row>
-    <row r="364" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A364" s="13" t="s">
         <v>381</v>
       </c>
@@ -19166,7 +19166,7 @@
         <v>1800.7</v>
       </c>
     </row>
-    <row r="365" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A365" s="13" t="s">
         <v>382</v>
       </c>
@@ -19213,7 +19213,7 @@
         <v>1784</v>
       </c>
     </row>
-    <row r="366" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A366" s="13" t="s">
         <v>383</v>
       </c>
@@ -19260,7 +19260,7 @@
         <v>1789.6</v>
       </c>
     </row>
-    <row r="367" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A367" s="13" t="s">
         <v>384</v>
       </c>
@@ -19307,7 +19307,7 @@
         <v>1806.3</v>
       </c>
     </row>
-    <row r="368" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A368" s="13" t="s">
         <v>385</v>
       </c>
@@ -19354,7 +19354,7 @@
         <v>1811.9</v>
       </c>
     </row>
-    <row r="369" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A369" s="13" t="s">
         <v>386</v>
       </c>
@@ -19401,7 +19401,7 @@
         <v>1828.6</v>
       </c>
     </row>
-    <row r="370" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A370" s="13" t="s">
         <v>387</v>
       </c>
@@ -19448,7 +19448,7 @@
         <v>1811.9</v>
       </c>
     </row>
-    <row r="371" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A371" s="13" t="s">
         <v>388</v>
       </c>
@@ -19495,7 +19495,7 @@
         <v>1811.9</v>
       </c>
     </row>
-    <row r="372" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A372" s="13" t="s">
         <v>389</v>
       </c>
@@ -19542,7 +19542,7 @@
         <v>1806.3</v>
       </c>
     </row>
-    <row r="373" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A373" s="13" t="s">
         <v>390</v>
       </c>
@@ -19589,7 +19589,7 @@
         <v>1845.2</v>
       </c>
     </row>
-    <row r="374" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A374" s="13" t="s">
         <v>391</v>
       </c>
@@ -19636,7 +19636,7 @@
         <v>1867.4</v>
       </c>
     </row>
-    <row r="375" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A375" s="13" t="s">
         <v>392</v>
       </c>
@@ -19683,7 +19683,7 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="376" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A376" s="13" t="s">
         <v>393</v>
       </c>
@@ -19730,7 +19730,7 @@
         <v>1878.6</v>
       </c>
     </row>
-    <row r="377" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A377" s="13" t="s">
         <v>394</v>
       </c>
@@ -19777,7 +19777,7 @@
         <v>1906.4</v>
       </c>
     </row>
-    <row r="378" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A378" s="13" t="s">
         <v>395</v>
       </c>
@@ -19824,7 +19824,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="379" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A379" s="13" t="s">
         <v>396</v>
       </c>
@@ -19871,7 +19871,7 @@
         <v>1906.4</v>
       </c>
     </row>
-    <row r="380" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A380" s="13" t="s">
         <v>397</v>
       </c>
@@ -19918,7 +19918,7 @@
         <v>1923.1</v>
       </c>
     </row>
-    <row r="381" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A381" s="13" t="s">
         <v>398</v>
       </c>
@@ -19965,7 +19965,7 @@
         <v>1900.9</v>
       </c>
     </row>
-    <row r="382" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A382" s="13" t="s">
         <v>399</v>
       </c>
@@ -20012,7 +20012,7 @@
         <v>1884.2</v>
       </c>
     </row>
-    <row r="383" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A383" s="13" t="s">
         <v>400</v>
       </c>
@@ -20059,7 +20059,7 @@
         <v>1856.4</v>
       </c>
     </row>
-    <row r="384" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A384" s="13" t="s">
         <v>401</v>
       </c>
@@ -20106,7 +20106,7 @@
         <v>1873.1</v>
       </c>
     </row>
-    <row r="385" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A385" s="13" t="s">
         <v>402</v>
       </c>
@@ -20153,7 +20153,7 @@
         <v>1873.1</v>
       </c>
     </row>
-    <row r="386" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A386" s="13" t="s">
         <v>403</v>
       </c>
@@ -20200,7 +20200,7 @@
         <v>1900.9</v>
       </c>
     </row>
-    <row r="387" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A387" s="13" t="s">
         <v>404</v>
       </c>
@@ -20247,7 +20247,7 @@
         <v>1928.7</v>
       </c>
     </row>
-    <row r="388" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A388" s="13" t="s">
         <v>405</v>
       </c>
@@ -20294,7 +20294,7 @@
         <v>1945.4</v>
       </c>
     </row>
-    <row r="389" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A389" s="13" t="s">
         <v>406</v>
       </c>
@@ -20341,7 +20341,7 @@
         <v>1951</v>
       </c>
     </row>
-    <row r="390" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A390" s="13" t="s">
         <v>407</v>
       </c>
@@ -20388,7 +20388,7 @@
         <v>1939.9</v>
       </c>
     </row>
-    <row r="391" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A391" s="13" t="s">
         <v>408</v>
       </c>
@@ -20435,7 +20435,7 @@
         <v>1912.1</v>
       </c>
     </row>
-    <row r="392" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A392" s="13" t="s">
         <v>409</v>
       </c>
@@ -20482,7 +20482,7 @@
         <v>1917.7</v>
       </c>
     </row>
-    <row r="393" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A393" s="13" t="s">
         <v>410</v>
       </c>
@@ -20529,7 +20529,7 @@
         <v>1939.9</v>
       </c>
     </row>
-    <row r="394" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A394" s="13" t="s">
         <v>411</v>
       </c>
@@ -20576,7 +20576,7 @@
         <v>1967.7</v>
       </c>
     </row>
-    <row r="395" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A395" s="13" t="s">
         <v>412</v>
       </c>
@@ -20623,7 +20623,7 @@
         <v>1973.3</v>
       </c>
     </row>
-    <row r="396" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A396" s="13" t="s">
         <v>413</v>
       </c>
@@ -20670,7 +20670,7 @@
         <v>1967.7</v>
       </c>
     </row>
-    <row r="397" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A397" s="13" t="s">
         <v>414</v>
       </c>
@@ -20717,7 +20717,7 @@
         <v>1939.9</v>
       </c>
     </row>
-    <row r="398" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A398" s="13" t="s">
         <v>415</v>
       </c>
@@ -20764,7 +20764,7 @@
         <v>1923.2</v>
       </c>
     </row>
-    <row r="399" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A399" s="13" t="s">
         <v>416</v>
       </c>
@@ -20811,7 +20811,7 @@
         <v>1917.6</v>
       </c>
     </row>
-    <row r="400" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A400" s="13" t="s">
         <v>417</v>
       </c>
@@ -20858,7 +20858,7 @@
         <v>1939.8</v>
       </c>
     </row>
-    <row r="401" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A401" s="13" t="s">
         <v>418</v>
       </c>
@@ -20905,7 +20905,7 @@
         <v>1956.5</v>
       </c>
     </row>
-    <row r="402" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A402" s="13" t="s">
         <v>419</v>
       </c>
@@ -20952,7 +20952,7 @@
         <v>1950.9</v>
       </c>
     </row>
-    <row r="403" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A403" s="13" t="s">
         <v>420</v>
       </c>
@@ -20999,7 +20999,7 @@
         <v>1934.2</v>
       </c>
     </row>
-    <row r="404" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A404" s="13" t="s">
         <v>421</v>
       </c>
@@ -21046,7 +21046,7 @@
         <v>1928.6</v>
       </c>
     </row>
-    <row r="405" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A405" s="13" t="s">
         <v>422</v>
       </c>
@@ -21093,7 +21093,7 @@
         <v>1923</v>
       </c>
     </row>
-    <row r="406" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A406" s="13" t="s">
         <v>423</v>
       </c>
@@ -21140,7 +21140,7 @@
         <v>1917.4</v>
       </c>
     </row>
-    <row r="407" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A407" s="13" t="s">
         <v>424</v>
       </c>
@@ -21187,7 +21187,7 @@
         <v>1923</v>
       </c>
     </row>
-    <row r="408" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A408" s="13" t="s">
         <v>425</v>
       </c>
@@ -21234,7 +21234,7 @@
         <v>1928.6</v>
       </c>
     </row>
-    <row r="409" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A409" s="13" t="s">
         <v>426</v>
       </c>
@@ -21281,7 +21281,7 @@
         <v>1934.2</v>
       </c>
     </row>
-    <row r="410" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A410" s="13" t="s">
         <v>427</v>
       </c>
@@ -21328,7 +21328,7 @@
         <v>1945.3</v>
       </c>
     </row>
-    <row r="411" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A411" s="13" t="s">
         <v>428</v>
       </c>
@@ -21375,7 +21375,7 @@
         <v>1973.1</v>
       </c>
     </row>
-    <row r="412" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A412" s="13" t="s">
         <v>429</v>
       </c>
@@ -21422,7 +21422,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="413" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A413" s="13" t="s">
         <v>430</v>
       </c>
@@ -21469,7 +21469,7 @@
         <v>2039.8</v>
       </c>
     </row>
-    <row r="414" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A414" s="13" t="s">
         <v>431</v>
       </c>
@@ -21516,7 +21516,7 @@
         <v>2067.6</v>
       </c>
     </row>
-    <row r="415" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A415" s="13" t="s">
         <v>432</v>
       </c>
@@ -21563,7 +21563,7 @@
         <v>2117.6</v>
       </c>
     </row>
-    <row r="416" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A416" s="13" t="s">
         <v>433</v>
       </c>
@@ -21610,7 +21610,7 @@
         <v>2134.3000000000002</v>
       </c>
     </row>
-    <row r="417" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A417" s="13" t="s">
         <v>434</v>
       </c>
@@ -21657,7 +21657,7 @@
         <v>2145.4</v>
       </c>
     </row>
-    <row r="418" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A418" s="13" t="s">
         <v>435</v>
       </c>
@@ -21704,7 +21704,7 @@
         <v>2123.1999999999998</v>
       </c>
     </row>
-    <row r="419" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A419" s="13" t="s">
         <v>436</v>
       </c>
@@ -21751,7 +21751,7 @@
         <v>2139.9</v>
       </c>
     </row>
-    <row r="420" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A420" s="13" t="s">
         <v>437</v>
       </c>
@@ -21798,7 +21798,7 @@
         <v>2139.9</v>
       </c>
     </row>
-    <row r="421" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A421" s="13" t="s">
         <v>438</v>
       </c>
@@ -21845,7 +21845,7 @@
         <v>2173.1999999999998</v>
       </c>
     </row>
-    <row r="422" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A422" s="13" t="s">
         <v>439</v>
       </c>
@@ -21892,7 +21892,7 @@
         <v>2167.6</v>
       </c>
     </row>
-    <row r="423" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A423" s="13" t="s">
         <v>440</v>
       </c>
@@ -21939,7 +21939,7 @@
         <v>2162</v>
       </c>
     </row>
-    <row r="424" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A424" s="13" t="s">
         <v>441</v>
       </c>
@@ -21986,7 +21986,7 @@
         <v>2145.3000000000002</v>
       </c>
     </row>
-    <row r="425" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A425" s="13" t="s">
         <v>442</v>
       </c>
@@ -22033,7 +22033,7 @@
         <v>2139.6999999999998</v>
       </c>
     </row>
-    <row r="426" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A426" s="13" t="s">
         <v>443</v>
       </c>
@@ -22080,7 +22080,7 @@
         <v>2128.6</v>
       </c>
     </row>
-    <row r="427" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A427" s="13" t="s">
         <v>444</v>
       </c>
@@ -22127,7 +22127,7 @@
         <v>2145.3000000000002</v>
       </c>
     </row>
-    <row r="428" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A428" s="13" t="s">
         <v>445</v>
       </c>
@@ -22174,7 +22174,7 @@
         <v>2134.1999999999998</v>
       </c>
     </row>
-    <row r="429" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A429" s="13" t="s">
         <v>446</v>
       </c>
@@ -22221,7 +22221,7 @@
         <v>2139.8000000000002</v>
       </c>
     </row>
-    <row r="430" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A430" s="13" t="s">
         <v>447</v>
       </c>
@@ -22268,7 +22268,7 @@
         <v>2156.5</v>
       </c>
     </row>
-    <row r="431" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A431" s="13" t="s">
         <v>448</v>
       </c>
@@ -22315,7 +22315,7 @@
         <v>2173.1999999999998</v>
       </c>
     </row>
-    <row r="432" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A432" s="13" t="s">
         <v>449</v>
       </c>
@@ -22362,7 +22362,7 @@
         <v>2184.3000000000002</v>
       </c>
     </row>
-    <row r="433" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A433" s="13" t="s">
         <v>450</v>
       </c>
@@ -22409,7 +22409,7 @@
         <v>2178.6999999999998</v>
       </c>
     </row>
-    <row r="434" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A434" s="13" t="s">
         <v>451</v>
       </c>
@@ -22456,7 +22456,7 @@
         <v>2162</v>
       </c>
     </row>
-    <row r="435" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A435" s="13" t="s">
         <v>452</v>
       </c>
@@ -22503,7 +22503,7 @@
         <v>2167.6</v>
       </c>
     </row>
-    <row r="436" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A436" s="13" t="s">
         <v>453</v>
       </c>
@@ -22550,7 +22550,7 @@
         <v>2150.9</v>
       </c>
     </row>
-    <row r="437" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A437" s="13" t="s">
         <v>454</v>
       </c>
@@ -22597,7 +22597,7 @@
         <v>2167.6</v>
       </c>
     </row>
-    <row r="438" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A438" s="13" t="s">
         <v>455</v>
       </c>
@@ -22644,7 +22644,7 @@
         <v>2173.1999999999998</v>
       </c>
     </row>
-    <row r="439" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A439" s="13" t="s">
         <v>456</v>
       </c>
@@ -22691,7 +22691,7 @@
         <v>2184.3000000000002</v>
       </c>
     </row>
-    <row r="440" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A440" s="13" t="s">
         <v>457</v>
       </c>
@@ -22738,7 +22738,7 @@
         <v>2184.3000000000002</v>
       </c>
     </row>
-    <row r="441" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A441" s="13" t="s">
         <v>458</v>
       </c>
@@ -22785,7 +22785,7 @@
         <v>2189.9</v>
       </c>
     </row>
-    <row r="442" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A442" s="13" t="s">
         <v>459</v>
       </c>
@@ -22832,7 +22832,7 @@
         <v>2206.6</v>
       </c>
     </row>
-    <row r="443" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A443" s="13" t="s">
         <v>460</v>
       </c>
@@ -22879,7 +22879,7 @@
         <v>2189.9</v>
       </c>
     </row>
-    <row r="444" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A444" s="13" t="s">
         <v>461</v>
       </c>
@@ -22926,7 +22926,7 @@
         <v>2195.5</v>
       </c>
     </row>
-    <row r="445" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A445" s="13" t="s">
         <v>462</v>
       </c>
@@ -22973,7 +22973,7 @@
         <v>2212.1999999999998</v>
       </c>
     </row>
-    <row r="446" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A446" s="13" t="s">
         <v>463</v>
       </c>
@@ -23020,7 +23020,7 @@
         <v>2240</v>
       </c>
     </row>
-    <row r="447" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A447" s="13" t="s">
         <v>464</v>
       </c>
@@ -23067,7 +23067,7 @@
         <v>2262.1999999999998</v>
       </c>
     </row>
-    <row r="448" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A448" s="13" t="s">
         <v>465</v>
       </c>
@@ -23114,7 +23114,7 @@
         <v>2301.1</v>
       </c>
     </row>
-    <row r="449" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A449" s="13" t="s">
         <v>466</v>
       </c>
@@ -23161,7 +23161,7 @@
         <v>2328.9</v>
       </c>
     </row>
-    <row r="450" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A450" s="13" t="s">
         <v>467</v>
       </c>
@@ -23208,7 +23208,7 @@
         <v>2356.6999999999998</v>
       </c>
     </row>
-    <row r="451" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A451" s="13" t="s">
         <v>468</v>
       </c>
@@ -23255,7 +23255,7 @@
         <v>2384.5</v>
       </c>
     </row>
-    <row r="452" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A452" s="13" t="s">
         <v>469</v>
       </c>
@@ -23302,7 +23302,7 @@
         <v>2423.4</v>
       </c>
     </row>
-    <row r="453" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A453" s="13" t="s">
         <v>470</v>
       </c>
@@ -23349,7 +23349,7 @@
         <v>2462.3000000000002</v>
       </c>
     </row>
-    <row r="454" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A454" s="13" t="s">
         <v>471</v>
       </c>
@@ -23396,7 +23396,7 @@
         <v>2479</v>
       </c>
     </row>
-    <row r="455" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A455" s="13" t="s">
         <v>472</v>
       </c>
@@ -23443,7 +23443,7 @@
         <v>2495.6999999999998</v>
       </c>
     </row>
-    <row r="456" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A456" s="13" t="s">
         <v>473</v>
       </c>
@@ -23490,7 +23490,7 @@
         <v>2501.3000000000002</v>
       </c>
     </row>
-    <row r="457" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A457" s="13" t="s">
         <v>474</v>
       </c>
@@ -23537,7 +23537,7 @@
         <v>2506.9</v>
       </c>
     </row>
-    <row r="458" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A458" s="13" t="s">
         <v>475</v>
       </c>
@@ -23584,7 +23584,7 @@
         <v>2512.5</v>
       </c>
     </row>
-    <row r="459" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A459" s="13" t="s">
         <v>476</v>
       </c>
@@ -23631,7 +23631,7 @@
         <v>2540.3000000000002</v>
       </c>
     </row>
-    <row r="460" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A460" s="13" t="s">
         <v>477</v>
       </c>
@@ -23678,7 +23678,7 @@
         <v>2584.6999999999998</v>
       </c>
     </row>
-    <row r="461" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A461" s="13" t="s">
         <v>478</v>
       </c>
@@ -23725,7 +23725,7 @@
         <v>2634.7</v>
       </c>
     </row>
-    <row r="462" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A462" s="13" t="s">
         <v>479</v>
       </c>
@@ -23772,7 +23772,7 @@
         <v>2673.6</v>
       </c>
     </row>
-    <row r="463" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A463" s="13" t="s">
         <v>480</v>
       </c>
@@ -23819,7 +23819,7 @@
         <v>2673.6</v>
       </c>
     </row>
-    <row r="464" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A464" s="13" t="s">
         <v>481</v>
       </c>
@@ -23866,7 +23866,7 @@
         <v>2695.8</v>
       </c>
     </row>
-    <row r="465" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A465" s="13" t="s">
         <v>482</v>
       </c>
@@ -23913,7 +23913,7 @@
         <v>2706.9</v>
       </c>
     </row>
-    <row r="466" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A466" s="13" t="s">
         <v>483</v>
       </c>
@@ -23960,7 +23960,7 @@
         <v>2712.5</v>
       </c>
     </row>
-    <row r="467" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A467" s="13" t="s">
         <v>484</v>
       </c>
@@ -24007,7 +24007,7 @@
         <v>2718.1</v>
       </c>
     </row>
-    <row r="468" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A468" s="13" t="s">
         <v>485</v>
       </c>
@@ -24054,7 +24054,7 @@
         <v>2723.7</v>
       </c>
     </row>
-    <row r="469" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A469" s="13" t="s">
         <v>486</v>
       </c>
@@ -24101,7 +24101,7 @@
         <v>2707</v>
       </c>
     </row>
-    <row r="470" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A470" s="13" t="s">
         <v>487</v>
       </c>
@@ -24148,7 +24148,7 @@
         <v>2695.9</v>
       </c>
     </row>
-    <row r="471" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A471" s="13" t="s">
         <v>488</v>
       </c>
@@ -24195,7 +24195,7 @@
         <v>2701.5</v>
       </c>
     </row>
-    <row r="472" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A472" s="13" t="s">
         <v>489</v>
       </c>
@@ -24242,7 +24242,7 @@
         <v>2707.1</v>
       </c>
     </row>
-    <row r="473" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A473" s="13" t="s">
         <v>490</v>
       </c>
@@ -24289,7 +24289,7 @@
         <v>2707.1</v>
       </c>
     </row>
-    <row r="474" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A474" s="13" t="s">
         <v>491</v>
       </c>
@@ -24336,7 +24336,7 @@
         <v>2707.1</v>
       </c>
     </row>
-    <row r="475" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A475" s="13" t="s">
         <v>492</v>
       </c>
@@ -24383,7 +24383,7 @@
         <v>2718.2</v>
       </c>
     </row>
-    <row r="476" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A476" s="13" t="s">
         <v>493</v>
       </c>
@@ -24430,7 +24430,7 @@
         <v>2734.9</v>
       </c>
     </row>
-    <row r="477" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A477" s="13" t="s">
         <v>494</v>
       </c>
@@ -24477,7 +24477,7 @@
         <v>2751.6</v>
       </c>
     </row>
-    <row r="478" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A478" s="13" t="s">
         <v>495</v>
       </c>
@@ -24524,7 +24524,7 @@
         <v>2757.2</v>
       </c>
     </row>
-    <row r="479" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A479" s="13" t="s">
         <v>496</v>
       </c>
@@ -24571,7 +24571,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="480" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A480" s="13" t="s">
         <v>497</v>
       </c>
@@ -24618,7 +24618,7 @@
         <v>2801.7</v>
       </c>
     </row>
-    <row r="481" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A481" s="13" t="s">
         <v>498</v>
       </c>
@@ -24665,7 +24665,7 @@
         <v>2807.3</v>
       </c>
     </row>
-    <row r="482" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A482" s="13" t="s">
         <v>499</v>
       </c>
@@ -24712,7 +24712,7 @@
         <v>2790.6</v>
       </c>
     </row>
-    <row r="483" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A483" s="13" t="s">
         <v>500</v>
       </c>
@@ -24759,7 +24759,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="484" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A484" s="13" t="s">
         <v>501</v>
       </c>
@@ -24806,7 +24806,7 @@
         <v>2757.2</v>
       </c>
     </row>
-    <row r="485" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A485" s="13" t="s">
         <v>502</v>
       </c>
@@ -24853,7 +24853,7 @@
         <v>2723.9</v>
       </c>
     </row>
-    <row r="486" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A486" s="13" t="s">
         <v>503</v>
       </c>
@@ -24900,7 +24900,7 @@
         <v>2707.2</v>
       </c>
     </row>
-    <row r="487" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A487" s="13" t="s">
         <v>504</v>
       </c>
@@ -24947,7 +24947,7 @@
         <v>2712.8</v>
       </c>
     </row>
-    <row r="488" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A488" s="13" t="s">
         <v>505</v>
       </c>
@@ -24994,7 +24994,7 @@
         <v>2696.1</v>
       </c>
     </row>
-    <row r="489" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A489" s="13" t="s">
         <v>506</v>
       </c>
@@ -25041,7 +25041,7 @@
         <v>2657.2</v>
       </c>
     </row>
-    <row r="490" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A490" s="13" t="s">
         <v>507</v>
       </c>
@@ -25088,7 +25088,7 @@
         <v>2618.3000000000002</v>
       </c>
     </row>
-    <row r="491" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A491" s="13" t="s">
         <v>508</v>
       </c>
@@ -25135,7 +25135,7 @@
         <v>2573.9</v>
       </c>
     </row>
-    <row r="492" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A492" s="13" t="s">
         <v>509</v>
       </c>
@@ -25182,7 +25182,7 @@
         <v>2546.1</v>
       </c>
     </row>
-    <row r="493" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A493" s="13" t="s">
         <v>510</v>
       </c>
@@ -25229,7 +25229,7 @@
         <v>2540.5</v>
       </c>
     </row>
-    <row r="494" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A494" s="13" t="s">
         <v>511</v>
       </c>
@@ -25276,7 +25276,7 @@
         <v>2546.1</v>
       </c>
     </row>
-    <row r="495" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A495" s="13" t="s">
         <v>512</v>
       </c>
@@ -25323,7 +25323,7 @@
         <v>2540.5</v>
       </c>
     </row>
-    <row r="496" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A496" s="13" t="s">
         <v>513</v>
       </c>
@@ -25370,7 +25370,7 @@
         <v>2523.8000000000002</v>
       </c>
     </row>
-    <row r="497" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A497" s="13" t="s">
         <v>514</v>
       </c>
@@ -25417,7 +25417,7 @@
         <v>2518.1999999999998</v>
       </c>
     </row>
-    <row r="498" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A498" s="13" t="s">
         <v>515</v>
       </c>
@@ -25464,7 +25464,7 @@
         <v>2501.5</v>
       </c>
     </row>
-    <row r="499" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A499" s="13" t="s">
         <v>516</v>
       </c>
@@ -25511,7 +25511,7 @@
         <v>2501.5</v>
       </c>
     </row>
-    <row r="500" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A500" s="13" t="s">
         <v>517</v>
       </c>
@@ -25558,7 +25558,7 @@
         <v>2523.6999999999998</v>
       </c>
     </row>
-    <row r="501" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A501" s="13" t="s">
         <v>518</v>
       </c>
@@ -25605,7 +25605,7 @@
         <v>2573.6999999999998</v>
       </c>
     </row>
-    <row r="502" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A502" s="13" t="s">
         <v>519</v>
       </c>
@@ -25652,7 +25652,7 @@
         <v>2612.6</v>
       </c>
     </row>
-    <row r="503" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A503" s="13" t="s">
         <v>520</v>
       </c>
@@ -25699,7 +25699,7 @@
         <v>2651.5</v>
       </c>
     </row>
-    <row r="504" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A504" s="13" t="s">
         <v>521</v>
       </c>
@@ -25746,7 +25746,7 @@
         <v>2657.1</v>
       </c>
     </row>
-    <row r="505" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A505" s="13" t="s">
         <v>522</v>
       </c>
@@ -25793,7 +25793,7 @@
         <v>2668.2</v>
       </c>
     </row>
-    <row r="506" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A506" s="13" t="s">
         <v>523</v>
       </c>
@@ -25840,7 +25840,7 @@
         <v>2673.8</v>
       </c>
     </row>
-    <row r="507" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A507" s="13" t="s">
         <v>524</v>
       </c>
@@ -25887,7 +25887,7 @@
         <v>2657.1</v>
       </c>
     </row>
-    <row r="508" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A508" s="13" t="s">
         <v>525</v>
       </c>
@@ -25934,7 +25934,7 @@
         <v>2640.4</v>
       </c>
     </row>
-    <row r="509" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A509" s="13" t="s">
         <v>526</v>
       </c>
@@ -25981,7 +25981,7 @@
         <v>2634.8</v>
       </c>
     </row>
-    <row r="510" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A510" s="13" t="s">
         <v>527</v>
       </c>
@@ -26028,7 +26028,7 @@
         <v>2657</v>
       </c>
     </row>
-    <row r="511" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A511" s="13" t="s">
         <v>528</v>
       </c>
@@ -26075,7 +26075,7 @@
         <v>2673.7</v>
       </c>
     </row>
-    <row r="512" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A512" s="13" t="s">
         <v>529</v>
       </c>
@@ -26122,7 +26122,7 @@
         <v>2701.5</v>
       </c>
     </row>
-    <row r="513" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A513" s="13" t="s">
         <v>530</v>
       </c>
@@ -26169,7 +26169,7 @@
         <v>2707.1</v>
       </c>
     </row>
-    <row r="514" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A514" s="13" t="s">
         <v>531</v>
       </c>
@@ -26216,7 +26216,7 @@
         <v>2718.2</v>
       </c>
     </row>
-    <row r="515" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A515" s="13" t="s">
         <v>532</v>
       </c>
@@ -26263,7 +26263,7 @@
         <v>2723.8</v>
       </c>
     </row>
-    <row r="516" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A516" s="13" t="s">
         <v>533</v>
       </c>
@@ -26310,7 +26310,7 @@
         <v>2729.4</v>
       </c>
     </row>
-    <row r="517" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A517" s="13" t="s">
         <v>534</v>
       </c>
@@ -26357,7 +26357,7 @@
         <v>2746.1</v>
       </c>
     </row>
-    <row r="518" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A518" s="13" t="s">
         <v>535</v>
       </c>
@@ -26404,7 +26404,7 @@
         <v>2790.5</v>
       </c>
     </row>
-    <row r="519" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A519" s="13" t="s">
         <v>536</v>
       </c>
@@ -26451,7 +26451,7 @@
         <v>2796.1</v>
       </c>
     </row>
-    <row r="520" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A520" s="13" t="s">
         <v>537</v>
       </c>
@@ -26498,7 +26498,7 @@
         <v>2823.9</v>
       </c>
     </row>
-    <row r="521" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A521" s="13" t="s">
         <v>538</v>
       </c>
@@ -26545,7 +26545,7 @@
         <v>2835</v>
       </c>
     </row>
-    <row r="522" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A522" s="13" t="s">
         <v>539</v>
       </c>
@@ -26592,7 +26592,7 @@
         <v>2851.7</v>
       </c>
     </row>
-    <row r="523" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A523" s="13" t="s">
         <v>540</v>
       </c>
@@ -26639,7 +26639,7 @@
         <v>2879.5</v>
       </c>
     </row>
-    <row r="524" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A524" s="13" t="s">
         <v>541</v>
       </c>
@@ -26686,7 +26686,7 @@
         <v>2896.2</v>
       </c>
     </row>
-    <row r="525" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A525" s="13" t="s">
         <v>542</v>
       </c>
@@ -26733,7 +26733,7 @@
         <v>2912.9</v>
       </c>
     </row>
-    <row r="526" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A526" s="13" t="s">
         <v>543</v>
       </c>
@@ -26780,7 +26780,7 @@
         <v>2907.3</v>
       </c>
     </row>
-    <row r="527" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A527" s="13" t="s">
         <v>544</v>
       </c>
@@ -26827,7 +26827,7 @@
         <v>2924</v>
       </c>
     </row>
-    <row r="528" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A528" s="13" t="s">
         <v>545</v>
       </c>
@@ -26874,7 +26874,7 @@
         <v>2935.1</v>
       </c>
     </row>
-    <row r="529" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A529" s="13" t="s">
         <v>546</v>
       </c>
@@ -26921,7 +26921,7 @@
         <v>2946.2</v>
       </c>
     </row>
-    <row r="530" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A530" s="13" t="s">
         <v>547</v>
       </c>
@@ -26968,7 +26968,7 @@
         <v>2940.6</v>
       </c>
     </row>
-    <row r="531" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A531" s="13" t="s">
         <v>548</v>
       </c>
@@ -27015,7 +27015,7 @@
         <v>2962.8</v>
       </c>
     </row>
-    <row r="532" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A532" s="13" t="s">
         <v>549</v>
       </c>
@@ -27062,7 +27062,7 @@
         <v>2990.6</v>
       </c>
     </row>
-    <row r="533" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A533" s="13" t="s">
         <v>550</v>
       </c>
@@ -27109,7 +27109,7 @@
         <v>3018.4</v>
       </c>
     </row>
-    <row r="534" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A534" s="13" t="s">
         <v>551</v>
       </c>
@@ -27156,7 +27156,7 @@
         <v>3035.1</v>
       </c>
     </row>
-    <row r="535" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A535" s="13" t="s">
         <v>552</v>
       </c>
@@ -27203,7 +27203,7 @@
         <v>3018.4</v>
       </c>
     </row>
-    <row r="536" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A536" s="13" t="s">
         <v>553</v>
       </c>
@@ -27250,7 +27250,7 @@
         <v>3018.4</v>
       </c>
     </row>
-    <row r="537" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A537" s="13" t="s">
         <v>554</v>
       </c>
@@ -27297,7 +27297,7 @@
         <v>3018.4</v>
       </c>
     </row>
-    <row r="538" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A538" s="13" t="s">
         <v>555</v>
       </c>
@@ -27344,7 +27344,7 @@
         <v>3046.2</v>
       </c>
     </row>
-    <row r="539" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A539" s="13" t="s">
         <v>556</v>
       </c>
@@ -27391,7 +27391,7 @@
         <v>3046.2</v>
       </c>
     </row>
-    <row r="540" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A540" s="13" t="s">
         <v>557</v>
       </c>
@@ -27438,7 +27438,7 @@
         <v>3057.3</v>
       </c>
     </row>
-    <row r="541" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A541" s="13" t="s">
         <v>558</v>
       </c>
@@ -27485,7 +27485,7 @@
         <v>3085.1</v>
       </c>
     </row>
-    <row r="542" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A542" s="13" t="s">
         <v>559</v>
       </c>
@@ -27532,7 +27532,7 @@
         <v>3101.8</v>
       </c>
     </row>
-    <row r="543" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A543" s="13" t="s">
         <v>560</v>
       </c>
@@ -27579,7 +27579,7 @@
         <v>3096.2</v>
       </c>
     </row>
-    <row r="544" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A544" s="13" t="s">
         <v>561</v>
       </c>
@@ -27626,7 +27626,7 @@
         <v>3112.9</v>
       </c>
     </row>
-    <row r="545" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A545" s="13" t="s">
         <v>562</v>
       </c>
@@ -27673,7 +27673,7 @@
         <v>3124</v>
       </c>
     </row>
-    <row r="546" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A546" s="13" t="s">
         <v>563</v>
       </c>
@@ -27720,7 +27720,7 @@
         <v>3140.7</v>
       </c>
     </row>
-    <row r="547" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A547" s="13" t="s">
         <v>564</v>
       </c>
@@ -27767,7 +27767,7 @@
         <v>3168.5</v>
       </c>
     </row>
-    <row r="548" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A548" s="13" t="s">
         <v>565</v>
       </c>
@@ -27814,7 +27814,7 @@
         <v>3196.3</v>
       </c>
     </row>
-    <row r="549" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A549" s="13" t="s">
         <v>566</v>
       </c>
@@ -27861,7 +27861,7 @@
         <v>3213</v>
       </c>
     </row>
-    <row r="550" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A550" s="13" t="s">
         <v>567</v>
       </c>
@@ -27878,7 +27878,7 @@
         <v>116</v>
       </c>
       <c r="F550" s="4">
-        <v>112.4</v>
+        <v>112.8</v>
       </c>
       <c r="G550" s="4">
         <v>103.5</v>
@@ -27887,7 +27887,7 @@
         <v>114.4</v>
       </c>
       <c r="I550" s="4">
-        <v>110.4</v>
+        <v>110.7</v>
       </c>
       <c r="J550" s="4">
         <v>10</v>
@@ -27896,7 +27896,7 @@
         <v>38.9</v>
       </c>
       <c r="L550" s="4">
-        <v>43.8</v>
+        <v>56.3</v>
       </c>
       <c r="M550" s="4">
         <v>1227.2</v>
@@ -27905,10 +27905,10 @@
         <v>3273.9</v>
       </c>
       <c r="O550" s="4">
-        <v>3206.8</v>
-      </c>
-    </row>
-    <row r="551" spans="1:15" x14ac:dyDescent="0.2">
+        <v>3219.3</v>
+      </c>
+    </row>
+    <row r="551" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A551" s="13" t="s">
         <v>568</v>
       </c>
@@ -27925,7 +27925,7 @@
         <v>116</v>
       </c>
       <c r="F551" s="4">
-        <v>113.5</v>
+        <v>113.9</v>
       </c>
       <c r="G551" s="4">
         <v>103.8</v>
@@ -27934,7 +27934,7 @@
         <v>114.6</v>
       </c>
       <c r="I551" s="4">
-        <v>111.9</v>
+        <v>112.2</v>
       </c>
       <c r="J551" s="4">
         <v>40</v>
@@ -27943,7 +27943,7 @@
         <v>38.9</v>
       </c>
       <c r="L551" s="4">
-        <v>50</v>
+        <v>62.5</v>
       </c>
       <c r="M551" s="4">
         <v>1217.2</v>
@@ -27952,10 +27952,10 @@
         <v>3262.8</v>
       </c>
       <c r="O551" s="4">
-        <v>3206.8</v>
-      </c>
-    </row>
-    <row r="552" spans="1:15" x14ac:dyDescent="0.2">
+        <v>3231.8</v>
+      </c>
+    </row>
+    <row r="552" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A552" s="13" t="s">
         <v>569</v>
       </c>
@@ -27966,43 +27966,43 @@
         <v>6</v>
       </c>
       <c r="D552" s="4">
-        <v>106.1</v>
+        <v>105.6</v>
       </c>
       <c r="E552" s="4">
-        <v>116.8</v>
+        <v>116.7</v>
       </c>
       <c r="F552" s="4">
-        <v>112</v>
+        <v>113.3</v>
       </c>
       <c r="G552" s="4">
-        <v>105.8</v>
+        <v>105.3</v>
       </c>
       <c r="H552" s="4">
-        <v>115.5</v>
+        <v>115.4</v>
       </c>
       <c r="I552" s="4">
-        <v>110.5</v>
+        <v>111.6</v>
       </c>
       <c r="J552" s="4">
-        <v>44.4</v>
+        <v>40</v>
       </c>
       <c r="K552" s="4">
-        <v>50</v>
+        <v>55.6</v>
       </c>
       <c r="L552" s="4">
-        <v>50</v>
+        <v>62.5</v>
       </c>
       <c r="M552" s="4">
-        <v>1211.5999999999999</v>
+        <v>1207.2</v>
       </c>
       <c r="N552" s="4">
-        <v>3262.8</v>
+        <v>3268.4</v>
       </c>
       <c r="O552" s="4">
-        <v>3206.8</v>
-      </c>
-    </row>
-    <row r="561" spans="4:9" x14ac:dyDescent="0.2">
+        <v>3244.3</v>
+      </c>
+    </row>
+    <row r="561" spans="4:9" x14ac:dyDescent="0.15">
       <c r="D561" s="3"/>
       <c r="E561" s="3"/>
       <c r="F561" s="3"/>

--- a/data/長期系列_CI指数_DI指数_DI景気指標.xlsx
+++ b/data/長期系列_CI指数_DI指数_DI景気指標.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\CI\０１／CI\０１／速報\★R7(2025)★\令和7年7月分\g研究所ホームページ掲載宛送付ファイル\jp\stat\di\di\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\CI\０１／CI\０２／速報からの改訂\★R7(2025)★\令和7年7月改訂\g研究所ホームページ掲載宛送付ファイル\jp\stat\di\di\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB87A4AA-AA2E-42B0-85F5-431787411CC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{28AA724F-435D-4330-91B6-CCB8EC512961}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
   </bookViews>
@@ -27882,7 +27882,7 @@
         <v>115.8</v>
       </c>
       <c r="F550" s="4">
-        <v>112.9</v>
+        <v>112.8</v>
       </c>
       <c r="G550" s="4">
         <v>104</v>
@@ -27970,25 +27970,25 @@
         <v>6</v>
       </c>
       <c r="D552" s="4">
-        <v>105.1</v>
+        <v>105</v>
       </c>
       <c r="E552" s="4">
         <v>115.9</v>
       </c>
       <c r="F552" s="4">
-        <v>113.4</v>
+        <v>113.2</v>
       </c>
       <c r="G552" s="4">
-        <v>105.2</v>
+        <v>105.1</v>
       </c>
       <c r="H552" s="4">
         <v>114.2</v>
       </c>
       <c r="I552" s="4">
-        <v>111.5</v>
+        <v>111.3</v>
       </c>
       <c r="J552" s="4">
-        <v>36.4</v>
+        <v>31.8</v>
       </c>
       <c r="K552" s="4">
         <v>50</v>
@@ -27997,7 +27997,7 @@
         <v>66.7</v>
       </c>
       <c r="M552" s="4">
-        <v>1199.2</v>
+        <v>1194.5999999999999</v>
       </c>
       <c r="N552" s="4">
         <v>3195</v>
@@ -28017,40 +28017,40 @@
         <v>7</v>
       </c>
       <c r="D553" s="4">
-        <v>105.9</v>
+        <v>106.1</v>
       </c>
       <c r="E553" s="4">
-        <v>113.3</v>
+        <v>114.1</v>
       </c>
       <c r="F553" s="4">
-        <v>114.2</v>
+        <v>113.6</v>
       </c>
       <c r="G553" s="4">
-        <v>106.2</v>
+        <v>106.3</v>
       </c>
       <c r="H553" s="4">
-        <v>111.6</v>
+        <v>112.4</v>
       </c>
       <c r="I553" s="4">
-        <v>112.2</v>
+        <v>111.7</v>
       </c>
       <c r="J553" s="4">
-        <v>66.7</v>
+        <v>60</v>
       </c>
       <c r="K553" s="4">
-        <v>25</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="L553" s="4">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="M553" s="4">
-        <v>1215.9000000000001</v>
+        <v>1204.5999999999999</v>
       </c>
       <c r="N553" s="4">
-        <v>3170</v>
+        <v>3178.3</v>
       </c>
       <c r="O553" s="4">
-        <v>3299.3</v>
+        <v>3324.3</v>
       </c>
     </row>
     <row r="562" spans="4:9" x14ac:dyDescent="0.2">

--- a/data/長期系列_CI指数_DI指数_DI景気指標.xlsx
+++ b/data/長期系列_CI指数_DI指数_DI景気指標.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\CI\０１／CI\０２／速報からの改訂\★R7(2025)★\令和7年7月改訂\g研究所ホームページ掲載宛送付ファイル\jp\stat\di\di\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\CI\０１／CI\０１／速報\★R7(2025)★\令和7年8月分\g研究所ホームページ掲載宛送付ファイル\jp\stat\di\di\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{28AA724F-435D-4330-91B6-CCB8EC512961}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{919CEB13-E895-46B2-AB5C-60EC606588D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="13350"/>
   </bookViews>
   <sheets>
     <sheet name="指数 Indexes" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="572">
   <si>
     <t>ＤＩ指数</t>
   </si>
@@ -2307,6 +2307,10 @@
   </si>
   <si>
     <t>2025000707</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2025000808</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2808,7 +2812,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P562"/>
+  <dimension ref="A1:P563"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="6" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
@@ -2817,14 +2821,14 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="8.109375" customWidth="1"/>
-    <col min="4" max="15" width="10.6640625" customWidth="1"/>
+    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8.125" customWidth="1"/>
+    <col min="4" max="15" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="36" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="36" x14ac:dyDescent="0.15">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -2866,7 +2870,7 @@
       </c>
       <c r="P1" s="5"/>
     </row>
-    <row r="2" spans="1:16" s="1" customFormat="1" ht="72" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" s="1" customFormat="1" ht="72" x14ac:dyDescent="0.15">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -2908,7 +2912,7 @@
       </c>
       <c r="P2" s="5"/>
     </row>
-    <row r="3" spans="1:16" ht="24" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="24" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
         <v>18</v>
       </c>
@@ -2956,7 +2960,7 @@
       </c>
       <c r="P3" s="5"/>
     </row>
-    <row r="4" spans="1:16" s="1" customFormat="1" ht="32.4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" s="1" customFormat="1" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A4" s="9" t="s">
         <v>20</v>
       </c>
@@ -3004,7 +3008,7 @@
       </c>
       <c r="P4" s="5"/>
     </row>
-    <row r="5" spans="1:16" s="1" customFormat="1" ht="22.2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -3034,7 +3038,7 @@
       <c r="O5" s="11"/>
       <c r="P5" s="12"/>
     </row>
-    <row r="6" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -3064,7 +3068,7 @@
       <c r="O6" s="6"/>
       <c r="P6" s="12"/>
     </row>
-    <row r="7" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="13" t="s">
         <v>24</v>
       </c>
@@ -3099,7 +3103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" s="13" t="s">
         <v>25</v>
       </c>
@@ -3134,7 +3138,7 @@
         <v>44.4</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9" s="13" t="s">
         <v>26</v>
       </c>
@@ -3169,7 +3173,7 @@
         <v>83.3</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10" s="13" t="s">
         <v>27</v>
       </c>
@@ -3204,7 +3208,7 @@
         <v>111.1</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" s="13" t="s">
         <v>28</v>
       </c>
@@ -3239,7 +3243,7 @@
         <v>116.7</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="13" t="s">
         <v>29</v>
       </c>
@@ -3274,7 +3278,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="13" t="s">
         <v>30</v>
       </c>
@@ -3309,7 +3313,7 @@
         <v>177.8</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14" s="13" t="s">
         <v>31</v>
       </c>
@@ -3344,7 +3348,7 @@
         <v>194.5</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" s="13" t="s">
         <v>32</v>
       </c>
@@ -3379,7 +3383,7 @@
         <v>211.2</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16" s="13" t="s">
         <v>33</v>
       </c>
@@ -3414,7 +3418,7 @@
         <v>227.9</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A17" s="13" t="s">
         <v>34</v>
       </c>
@@ -3449,7 +3453,7 @@
         <v>255.7</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A18" s="13" t="s">
         <v>35</v>
       </c>
@@ -3484,7 +3488,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A19" s="13" t="s">
         <v>36</v>
       </c>
@@ -3519,7 +3523,7 @@
         <v>244.6</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A20" s="13" t="s">
         <v>37</v>
       </c>
@@ -3554,7 +3558,7 @@
         <v>244.6</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A21" s="13" t="s">
         <v>38</v>
       </c>
@@ -3589,7 +3593,7 @@
         <v>272.39999999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A22" s="13" t="s">
         <v>39</v>
       </c>
@@ -3624,7 +3628,7 @@
         <v>266.8</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A23" s="13" t="s">
         <v>40</v>
       </c>
@@ -3659,7 +3663,7 @@
         <v>272.39999999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A24" s="13" t="s">
         <v>41</v>
       </c>
@@ -3694,7 +3698,7 @@
         <v>261.3</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A25" s="13" t="s">
         <v>42</v>
       </c>
@@ -3729,7 +3733,7 @@
         <v>250.2</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A26" s="13" t="s">
         <v>43</v>
       </c>
@@ -3764,7 +3768,7 @@
         <v>233.5</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A27" s="13" t="s">
         <v>44</v>
       </c>
@@ -3799,7 +3803,7 @@
         <v>239.1</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A28" s="13" t="s">
         <v>45</v>
       </c>
@@ -3834,7 +3838,7 @@
         <v>244.7</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A29" s="13" t="s">
         <v>46</v>
       </c>
@@ -3869,7 +3873,7 @@
         <v>239.1</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A30" s="13" t="s">
         <v>47</v>
       </c>
@@ -3904,7 +3908,7 @@
         <v>222.4</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A31" s="13" t="s">
         <v>48</v>
       </c>
@@ -3939,7 +3943,7 @@
         <v>239.1</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A32" s="13" t="s">
         <v>49</v>
       </c>
@@ -3974,7 +3978,7 @@
         <v>244.7</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A33" s="13" t="s">
         <v>50</v>
       </c>
@@ -4009,7 +4013,7 @@
         <v>250.3</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A34" s="13" t="s">
         <v>51</v>
       </c>
@@ -4044,7 +4048,7 @@
         <v>244.7</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A35" s="13" t="s">
         <v>52</v>
       </c>
@@ -4079,7 +4083,7 @@
         <v>250.3</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A36" s="13" t="s">
         <v>53</v>
       </c>
@@ -4114,7 +4118,7 @@
         <v>278.10000000000002</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A37" s="13" t="s">
         <v>54</v>
       </c>
@@ -4149,7 +4153,7 @@
         <v>278.10000000000002</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A38" s="13" t="s">
         <v>55</v>
       </c>
@@ -4184,7 +4188,7 @@
         <v>272.5</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A39" s="13" t="s">
         <v>56</v>
       </c>
@@ -4219,7 +4223,7 @@
         <v>255.8</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A40" s="13" t="s">
         <v>57</v>
       </c>
@@ -4254,7 +4258,7 @@
         <v>239.1</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A41" s="13" t="s">
         <v>58</v>
       </c>
@@ -4289,7 +4293,7 @@
         <v>222.4</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A42" s="13" t="s">
         <v>59</v>
       </c>
@@ -4324,7 +4328,7 @@
         <v>194.6</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A43" s="13" t="s">
         <v>60</v>
       </c>
@@ -4359,7 +4363,7 @@
         <v>166.8</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A44" s="13" t="s">
         <v>61</v>
       </c>
@@ -4394,7 +4398,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A45" s="13" t="s">
         <v>62</v>
       </c>
@@ -4429,7 +4433,7 @@
         <v>122.3</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A46" s="13" t="s">
         <v>63</v>
       </c>
@@ -4464,7 +4468,7 @@
         <v>116.7</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A47" s="13" t="s">
         <v>64</v>
       </c>
@@ -4499,7 +4503,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A48" s="13" t="s">
         <v>65</v>
       </c>
@@ -4534,7 +4538,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A49" s="13" t="s">
         <v>66</v>
       </c>
@@ -4569,7 +4573,7 @@
         <v>105.6</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A50" s="13" t="s">
         <v>67</v>
       </c>
@@ -4604,7 +4608,7 @@
         <v>122.3</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A51" s="13" t="s">
         <v>68</v>
       </c>
@@ -4639,7 +4643,7 @@
         <v>127.9</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A52" s="13" t="s">
         <v>69</v>
       </c>
@@ -4674,7 +4678,7 @@
         <v>122.3</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A53" s="13" t="s">
         <v>70</v>
       </c>
@@ -4709,7 +4713,7 @@
         <v>127.9</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A54" s="13" t="s">
         <v>71</v>
       </c>
@@ -4744,7 +4748,7 @@
         <v>127.9</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A55" s="13" t="s">
         <v>72</v>
       </c>
@@ -4779,7 +4783,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A56" s="13" t="s">
         <v>73</v>
       </c>
@@ -4814,7 +4818,7 @@
         <v>177.9</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A57" s="13" t="s">
         <v>74</v>
       </c>
@@ -4849,7 +4853,7 @@
         <v>216.8</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A58" s="13" t="s">
         <v>75</v>
       </c>
@@ -4884,7 +4888,7 @@
         <v>255.7</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A59" s="13" t="s">
         <v>76</v>
       </c>
@@ -4919,7 +4923,7 @@
         <v>272.39999999999998</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A60" s="13" t="s">
         <v>77</v>
       </c>
@@ -4954,7 +4958,7 @@
         <v>283.5</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A61" s="13" t="s">
         <v>78</v>
       </c>
@@ -4989,7 +4993,7 @@
         <v>311.3</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A62" s="13" t="s">
         <v>79</v>
       </c>
@@ -5024,7 +5028,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A63" s="13" t="s">
         <v>80</v>
       </c>
@@ -5059,7 +5063,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A64" s="13" t="s">
         <v>81</v>
       </c>
@@ -5094,7 +5098,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A65" s="13" t="s">
         <v>82</v>
       </c>
@@ -5129,7 +5133,7 @@
         <v>455.8</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A66" s="13" t="s">
         <v>83</v>
       </c>
@@ -5164,7 +5168,7 @@
         <v>494.7</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A67" s="13" t="s">
         <v>84</v>
       </c>
@@ -5211,7 +5215,7 @@
         <v>539.1</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A68" s="13" t="s">
         <v>85</v>
       </c>
@@ -5258,7 +5262,7 @@
         <v>566.9</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A69" s="13" t="s">
         <v>86</v>
       </c>
@@ -5305,7 +5309,7 @@
         <v>594.70000000000005</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A70" s="13" t="s">
         <v>87</v>
       </c>
@@ -5352,7 +5356,7 @@
         <v>611.4</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A71" s="13" t="s">
         <v>88</v>
       </c>
@@ -5399,7 +5403,7 @@
         <v>644.70000000000005</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A72" s="13" t="s">
         <v>89</v>
       </c>
@@ -5446,7 +5450,7 @@
         <v>655.8</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A73" s="13" t="s">
         <v>90</v>
       </c>
@@ -5493,7 +5497,7 @@
         <v>666.9</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A74" s="13" t="s">
         <v>91</v>
       </c>
@@ -5540,7 +5544,7 @@
         <v>694.7</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A75" s="13" t="s">
         <v>92</v>
       </c>
@@ -5587,7 +5591,7 @@
         <v>700.3</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A76" s="13" t="s">
         <v>93</v>
       </c>
@@ -5634,7 +5638,7 @@
         <v>683.6</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A77" s="13" t="s">
         <v>94</v>
       </c>
@@ -5681,7 +5685,7 @@
         <v>666.9</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A78" s="13" t="s">
         <v>95</v>
       </c>
@@ -5728,7 +5732,7 @@
         <v>672.5</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A79" s="13" t="s">
         <v>96</v>
       </c>
@@ -5775,7 +5779,7 @@
         <v>689.2</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A80" s="13" t="s">
         <v>97</v>
       </c>
@@ -5822,7 +5826,7 @@
         <v>705.9</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A81" s="13" t="s">
         <v>98</v>
       </c>
@@ -5869,7 +5873,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A82" s="13" t="s">
         <v>99</v>
       </c>
@@ -5916,7 +5920,7 @@
         <v>711.4</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A83" s="13" t="s">
         <v>100</v>
       </c>
@@ -5963,7 +5967,7 @@
         <v>700.3</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A84" s="13" t="s">
         <v>101</v>
       </c>
@@ -6010,7 +6014,7 @@
         <v>683.6</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A85" s="13" t="s">
         <v>102</v>
       </c>
@@ -6057,7 +6061,7 @@
         <v>683.6</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A86" s="13" t="s">
         <v>103</v>
       </c>
@@ -6104,7 +6108,7 @@
         <v>672.5</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A87" s="13" t="s">
         <v>104</v>
       </c>
@@ -6151,7 +6155,7 @@
         <v>672.5</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A88" s="13" t="s">
         <v>105</v>
       </c>
@@ -6198,7 +6202,7 @@
         <v>689.2</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A89" s="13" t="s">
         <v>106</v>
       </c>
@@ -6245,7 +6249,7 @@
         <v>705.9</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A90" s="13" t="s">
         <v>107</v>
       </c>
@@ -6292,7 +6296,7 @@
         <v>689.2</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A91" s="13" t="s">
         <v>108</v>
       </c>
@@ -6339,7 +6343,7 @@
         <v>694.8</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A92" s="13" t="s">
         <v>109</v>
       </c>
@@ -6386,7 +6390,7 @@
         <v>705.9</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A93" s="13" t="s">
         <v>110</v>
       </c>
@@ -6433,7 +6437,7 @@
         <v>722.6</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A94" s="13" t="s">
         <v>111</v>
       </c>
@@ -6480,7 +6484,7 @@
         <v>750.4</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A95" s="13" t="s">
         <v>112</v>
       </c>
@@ -6527,7 +6531,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A96" s="13" t="s">
         <v>113</v>
       </c>
@@ -6574,7 +6578,7 @@
         <v>767.1</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A97" s="13" t="s">
         <v>114</v>
       </c>
@@ -6621,7 +6625,7 @@
         <v>772.7</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A98" s="13" t="s">
         <v>115</v>
       </c>
@@ -6668,7 +6672,7 @@
         <v>783.8</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A99" s="13" t="s">
         <v>116</v>
       </c>
@@ -6715,7 +6719,7 @@
         <v>811.6</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A100" s="13" t="s">
         <v>117</v>
       </c>
@@ -6762,7 +6766,7 @@
         <v>833.8</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A101" s="13" t="s">
         <v>118</v>
       </c>
@@ -6809,7 +6813,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A102" s="13" t="s">
         <v>119</v>
       </c>
@@ -6856,7 +6860,7 @@
         <v>900.4</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A103" s="13" t="s">
         <v>120</v>
       </c>
@@ -6903,7 +6907,7 @@
         <v>928.2</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A104" s="13" t="s">
         <v>121</v>
       </c>
@@ -6950,7 +6954,7 @@
         <v>944.9</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A105" s="13" t="s">
         <v>122</v>
       </c>
@@ -6997,7 +7001,7 @@
         <v>972.7</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A106" s="13" t="s">
         <v>123</v>
       </c>
@@ -7044,7 +7048,7 @@
         <v>1011.6</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A107" s="13" t="s">
         <v>124</v>
       </c>
@@ -7091,7 +7095,7 @@
         <v>1039.4000000000001</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A108" s="13" t="s">
         <v>125</v>
       </c>
@@ -7138,7 +7142,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A109" s="13" t="s">
         <v>126</v>
       </c>
@@ -7185,7 +7189,7 @@
         <v>1067.2</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A110" s="13" t="s">
         <v>127</v>
       </c>
@@ -7232,7 +7236,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A111" s="13" t="s">
         <v>128</v>
       </c>
@@ -7279,7 +7283,7 @@
         <v>1133.9000000000001</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A112" s="13" t="s">
         <v>129</v>
       </c>
@@ -7326,7 +7330,7 @@
         <v>1183.9000000000001</v>
       </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A113" s="13" t="s">
         <v>130</v>
       </c>
@@ -7373,7 +7377,7 @@
         <v>1233.9000000000001</v>
       </c>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A114" s="13" t="s">
         <v>131</v>
       </c>
@@ -7420,7 +7424,7 @@
         <v>1261.7</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A115" s="13" t="s">
         <v>132</v>
       </c>
@@ -7467,7 +7471,7 @@
         <v>1289.5</v>
       </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A116" s="13" t="s">
         <v>133</v>
       </c>
@@ -7514,7 +7518,7 @@
         <v>1317.3</v>
       </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A117" s="13" t="s">
         <v>134</v>
       </c>
@@ -7561,7 +7565,7 @@
         <v>1361.7</v>
       </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A118" s="13" t="s">
         <v>135</v>
       </c>
@@ -7608,7 +7612,7 @@
         <v>1367.3</v>
       </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A119" s="13" t="s">
         <v>136</v>
       </c>
@@ -7655,7 +7659,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A120" s="13" t="s">
         <v>137</v>
       </c>
@@ -7702,7 +7706,7 @@
         <v>1400.7</v>
       </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A121" s="13" t="s">
         <v>138</v>
       </c>
@@ -7749,7 +7753,7 @@
         <v>1445.1</v>
       </c>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A122" s="13" t="s">
         <v>139</v>
       </c>
@@ -7796,7 +7800,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A123" s="13" t="s">
         <v>140</v>
       </c>
@@ -7843,7 +7847,7 @@
         <v>1495.1</v>
       </c>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A124" s="13" t="s">
         <v>141</v>
       </c>
@@ -7890,7 +7894,7 @@
         <v>1511.8</v>
       </c>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A125" s="13" t="s">
         <v>142</v>
       </c>
@@ -7937,7 +7941,7 @@
         <v>1539.6</v>
       </c>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A126" s="13" t="s">
         <v>143</v>
       </c>
@@ -7984,7 +7988,7 @@
         <v>1572.9</v>
       </c>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A127" s="13" t="s">
         <v>144</v>
       </c>
@@ -8031,7 +8035,7 @@
         <v>1622.9</v>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A128" s="13" t="s">
         <v>145</v>
       </c>
@@ -8078,7 +8082,7 @@
         <v>1661.8</v>
       </c>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A129" s="13" t="s">
         <v>146</v>
       </c>
@@ -8125,7 +8129,7 @@
         <v>1695.1</v>
       </c>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A130" s="13" t="s">
         <v>147</v>
       </c>
@@ -8172,7 +8176,7 @@
         <v>1717.3</v>
       </c>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A131" s="13" t="s">
         <v>148</v>
       </c>
@@ -8219,7 +8223,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A132" s="13" t="s">
         <v>149</v>
       </c>
@@ -8266,7 +8270,7 @@
         <v>1750.7</v>
       </c>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A133" s="13" t="s">
         <v>150</v>
       </c>
@@ -8313,7 +8317,7 @@
         <v>1745.1</v>
       </c>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A134" s="13" t="s">
         <v>151</v>
       </c>
@@ -8360,7 +8364,7 @@
         <v>1761.8</v>
       </c>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A135" s="13" t="s">
         <v>152</v>
       </c>
@@ -8407,7 +8411,7 @@
         <v>1778.5</v>
       </c>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A136" s="13" t="s">
         <v>153</v>
       </c>
@@ -8454,7 +8458,7 @@
         <v>1789.6</v>
       </c>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A137" s="13" t="s">
         <v>154</v>
       </c>
@@ -8501,7 +8505,7 @@
         <v>1789.6</v>
       </c>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A138" s="13" t="s">
         <v>155</v>
       </c>
@@ -8548,7 +8552,7 @@
         <v>1817.4</v>
       </c>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A139" s="13" t="s">
         <v>156</v>
       </c>
@@ -8595,7 +8599,7 @@
         <v>1845.2</v>
       </c>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A140" s="13" t="s">
         <v>157</v>
       </c>
@@ -8642,7 +8646,7 @@
         <v>1856.3</v>
       </c>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A141" s="13" t="s">
         <v>158</v>
       </c>
@@ -8689,7 +8693,7 @@
         <v>1850.7</v>
       </c>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A142" s="13" t="s">
         <v>159</v>
       </c>
@@ -8736,7 +8740,7 @@
         <v>1856.3</v>
       </c>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A143" s="13" t="s">
         <v>160</v>
       </c>
@@ -8783,7 +8787,7 @@
         <v>1867.4</v>
       </c>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A144" s="13" t="s">
         <v>161</v>
       </c>
@@ -8830,7 +8834,7 @@
         <v>1900.7</v>
       </c>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A145" s="13" t="s">
         <v>162</v>
       </c>
@@ -8877,7 +8881,7 @@
         <v>1911.8</v>
       </c>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A146" s="13" t="s">
         <v>163</v>
       </c>
@@ -8924,7 +8928,7 @@
         <v>1906.2</v>
       </c>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A147" s="13" t="s">
         <v>164</v>
       </c>
@@ -8971,7 +8975,7 @@
         <v>1889.5</v>
       </c>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A148" s="13" t="s">
         <v>165</v>
       </c>
@@ -9018,7 +9022,7 @@
         <v>1906.2</v>
       </c>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A149" s="13" t="s">
         <v>166</v>
       </c>
@@ -9065,7 +9069,7 @@
         <v>1934</v>
       </c>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A150" s="13" t="s">
         <v>167</v>
       </c>
@@ -9112,7 +9116,7 @@
         <v>1939.6</v>
       </c>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A151" s="13" t="s">
         <v>168</v>
       </c>
@@ -9159,7 +9163,7 @@
         <v>1922.9</v>
       </c>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A152" s="13" t="s">
         <v>169</v>
       </c>
@@ -9206,7 +9210,7 @@
         <v>1922.9</v>
       </c>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A153" s="13" t="s">
         <v>170</v>
       </c>
@@ -9253,7 +9257,7 @@
         <v>1906.2</v>
       </c>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A154" s="13" t="s">
         <v>171</v>
       </c>
@@ -9300,7 +9304,7 @@
         <v>1889.5</v>
       </c>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A155" s="13" t="s">
         <v>172</v>
       </c>
@@ -9347,7 +9351,7 @@
         <v>1861.7</v>
       </c>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A156" s="13" t="s">
         <v>173</v>
       </c>
@@ -9394,7 +9398,7 @@
         <v>1845</v>
       </c>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A157" s="13" t="s">
         <v>174</v>
       </c>
@@ -9441,7 +9445,7 @@
         <v>1817.2</v>
       </c>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A158" s="13" t="s">
         <v>175</v>
       </c>
@@ -9488,7 +9492,7 @@
         <v>1789.4</v>
       </c>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A159" s="13" t="s">
         <v>176</v>
       </c>
@@ -9535,7 +9539,7 @@
         <v>1761.6</v>
       </c>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A160" s="13" t="s">
         <v>177</v>
       </c>
@@ -9582,7 +9586,7 @@
         <v>1722.7</v>
       </c>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A161" s="13" t="s">
         <v>178</v>
       </c>
@@ -9629,7 +9633,7 @@
         <v>1683.8</v>
       </c>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A162" s="13" t="s">
         <v>179</v>
       </c>
@@ -9676,7 +9680,7 @@
         <v>1644.9</v>
       </c>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A163" s="13" t="s">
         <v>180</v>
       </c>
@@ -9723,7 +9727,7 @@
         <v>1639.3</v>
       </c>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A164" s="13" t="s">
         <v>181</v>
       </c>
@@ -9770,7 +9774,7 @@
         <v>1622.6</v>
       </c>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A165" s="13" t="s">
         <v>182</v>
       </c>
@@ -9817,7 +9821,7 @@
         <v>1600.4</v>
       </c>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A166" s="13" t="s">
         <v>183</v>
       </c>
@@ -9864,7 +9868,7 @@
         <v>1572.6</v>
       </c>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A167" s="13" t="s">
         <v>184</v>
       </c>
@@ -9911,7 +9915,7 @@
         <v>1544.8</v>
       </c>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A168" s="13" t="s">
         <v>185</v>
       </c>
@@ -9958,7 +9962,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A169" s="13" t="s">
         <v>186</v>
       </c>
@@ -10005,7 +10009,7 @@
         <v>1483.7</v>
       </c>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A170" s="13" t="s">
         <v>187</v>
       </c>
@@ -10052,7 +10056,7 @@
         <v>1489.3</v>
       </c>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A171" s="13" t="s">
         <v>188</v>
       </c>
@@ -10099,7 +10103,7 @@
         <v>1483.7</v>
       </c>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A172" s="13" t="s">
         <v>189</v>
       </c>
@@ -10146,7 +10150,7 @@
         <v>1478.1</v>
       </c>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A173" s="13" t="s">
         <v>190</v>
       </c>
@@ -10193,7 +10197,7 @@
         <v>1461.4</v>
       </c>
     </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A174" s="13" t="s">
         <v>191</v>
       </c>
@@ -10240,7 +10244,7 @@
         <v>1450.3</v>
       </c>
     </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A175" s="13" t="s">
         <v>192</v>
       </c>
@@ -10287,7 +10291,7 @@
         <v>1455.9</v>
       </c>
     </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A176" s="13" t="s">
         <v>193</v>
       </c>
@@ -10334,7 +10338,7 @@
         <v>1433.7</v>
       </c>
     </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A177" s="13" t="s">
         <v>194</v>
       </c>
@@ -10381,7 +10385,7 @@
         <v>1422.6</v>
       </c>
     </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A178" s="13" t="s">
         <v>195</v>
       </c>
@@ -10428,7 +10432,7 @@
         <v>1400.4</v>
       </c>
     </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A179" s="13" t="s">
         <v>196</v>
       </c>
@@ -10475,7 +10479,7 @@
         <v>1394.8</v>
       </c>
     </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A180" s="13" t="s">
         <v>197</v>
       </c>
@@ -10522,7 +10526,7 @@
         <v>1378.1</v>
       </c>
     </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A181" s="13" t="s">
         <v>198</v>
       </c>
@@ -10569,7 +10573,7 @@
         <v>1378.1</v>
       </c>
     </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A182" s="13" t="s">
         <v>199</v>
       </c>
@@ -10616,7 +10620,7 @@
         <v>1394.8</v>
       </c>
     </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A183" s="13" t="s">
         <v>200</v>
       </c>
@@ -10663,7 +10667,7 @@
         <v>1405.9</v>
       </c>
     </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A184" s="13" t="s">
         <v>201</v>
       </c>
@@ -10710,7 +10714,7 @@
         <v>1417</v>
       </c>
     </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A185" s="13" t="s">
         <v>202</v>
       </c>
@@ -10757,7 +10761,7 @@
         <v>1428.1</v>
       </c>
     </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A186" s="13" t="s">
         <v>203</v>
       </c>
@@ -10804,7 +10808,7 @@
         <v>1433.7</v>
       </c>
     </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A187" s="13" t="s">
         <v>204</v>
       </c>
@@ -10851,7 +10855,7 @@
         <v>1444.8</v>
       </c>
     </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A188" s="13" t="s">
         <v>205</v>
       </c>
@@ -10898,7 +10902,7 @@
         <v>1455.9</v>
       </c>
     </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A189" s="13" t="s">
         <v>206</v>
       </c>
@@ -10945,7 +10949,7 @@
         <v>1461.5</v>
       </c>
     </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A190" s="13" t="s">
         <v>207</v>
       </c>
@@ -10992,7 +10996,7 @@
         <v>1467.1</v>
       </c>
     </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A191" s="13" t="s">
         <v>208</v>
       </c>
@@ -11039,7 +11043,7 @@
         <v>1472.7</v>
       </c>
     </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A192" s="13" t="s">
         <v>209</v>
       </c>
@@ -11086,7 +11090,7 @@
         <v>1467.1</v>
       </c>
     </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A193" s="13" t="s">
         <v>210</v>
       </c>
@@ -11133,7 +11137,7 @@
         <v>1467.1</v>
       </c>
     </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A194" s="13" t="s">
         <v>211</v>
       </c>
@@ -11180,7 +11184,7 @@
         <v>1461.5</v>
       </c>
     </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A195" s="13" t="s">
         <v>212</v>
       </c>
@@ -11227,7 +11231,7 @@
         <v>1483.7</v>
       </c>
     </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A196" s="13" t="s">
         <v>213</v>
       </c>
@@ -11274,7 +11278,7 @@
         <v>1494.8</v>
       </c>
     </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A197" s="13" t="s">
         <v>214</v>
       </c>
@@ -11321,7 +11325,7 @@
         <v>1511.5</v>
       </c>
     </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A198" s="13" t="s">
         <v>215</v>
       </c>
@@ -11368,7 +11372,7 @@
         <v>1522.6</v>
       </c>
     </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A199" s="13" t="s">
         <v>216</v>
       </c>
@@ -11415,7 +11419,7 @@
         <v>1550.4</v>
       </c>
     </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A200" s="13" t="s">
         <v>217</v>
       </c>
@@ -11462,7 +11466,7 @@
         <v>1589.3</v>
       </c>
     </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A201" s="13" t="s">
         <v>218</v>
       </c>
@@ -11509,7 +11513,7 @@
         <v>1617.1</v>
       </c>
     </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A202" s="13" t="s">
         <v>219</v>
       </c>
@@ -11556,7 +11560,7 @@
         <v>1644.9</v>
       </c>
     </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A203" s="13" t="s">
         <v>220</v>
       </c>
@@ -11603,7 +11607,7 @@
         <v>1656</v>
       </c>
     </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A204" s="13" t="s">
         <v>221</v>
       </c>
@@ -11650,7 +11654,7 @@
         <v>1661.6</v>
       </c>
     </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A205" s="13" t="s">
         <v>222</v>
       </c>
@@ -11697,7 +11701,7 @@
         <v>1672.7</v>
       </c>
     </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A206" s="13" t="s">
         <v>223</v>
       </c>
@@ -11744,7 +11748,7 @@
         <v>1700.5</v>
       </c>
     </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A207" s="13" t="s">
         <v>224</v>
       </c>
@@ -11791,7 +11795,7 @@
         <v>1711.6</v>
       </c>
     </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A208" s="13" t="s">
         <v>225</v>
       </c>
@@ -11838,7 +11842,7 @@
         <v>1733.8</v>
       </c>
     </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A209" s="13" t="s">
         <v>226</v>
       </c>
@@ -11885,7 +11889,7 @@
         <v>1772.7</v>
       </c>
     </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A210" s="13" t="s">
         <v>227</v>
       </c>
@@ -11932,7 +11936,7 @@
         <v>1800.5</v>
       </c>
     </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A211" s="13" t="s">
         <v>228</v>
       </c>
@@ -11979,7 +11983,7 @@
         <v>1828.3</v>
       </c>
     </row>
-    <row r="212" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A212" s="13" t="s">
         <v>229</v>
       </c>
@@ -12026,7 +12030,7 @@
         <v>1828.3</v>
       </c>
     </row>
-    <row r="213" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A213" s="13" t="s">
         <v>230</v>
       </c>
@@ -12073,7 +12077,7 @@
         <v>1867.2</v>
       </c>
     </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A214" s="13" t="s">
         <v>231</v>
       </c>
@@ -12120,7 +12124,7 @@
         <v>1883.9</v>
       </c>
     </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A215" s="13" t="s">
         <v>232</v>
       </c>
@@ -12167,7 +12171,7 @@
         <v>1889.5</v>
       </c>
     </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A216" s="13" t="s">
         <v>233</v>
       </c>
@@ -12214,7 +12218,7 @@
         <v>1906.2</v>
       </c>
     </row>
-    <row r="217" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A217" s="13" t="s">
         <v>234</v>
       </c>
@@ -12261,7 +12265,7 @@
         <v>1934</v>
       </c>
     </row>
-    <row r="218" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A218" s="13" t="s">
         <v>235</v>
       </c>
@@ -12308,7 +12312,7 @@
         <v>1950.7</v>
       </c>
     </row>
-    <row r="219" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A219" s="13" t="s">
         <v>236</v>
       </c>
@@ -12355,7 +12359,7 @@
         <v>1967.4</v>
       </c>
     </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A220" s="13" t="s">
         <v>237</v>
       </c>
@@ -12402,7 +12406,7 @@
         <v>1961.8</v>
       </c>
     </row>
-    <row r="221" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A221" s="13" t="s">
         <v>238</v>
       </c>
@@ -12449,7 +12453,7 @@
         <v>1967.4</v>
       </c>
     </row>
-    <row r="222" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A222" s="13" t="s">
         <v>239</v>
       </c>
@@ -12496,7 +12500,7 @@
         <v>1961.8</v>
       </c>
     </row>
-    <row r="223" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A223" s="13" t="s">
         <v>240</v>
       </c>
@@ -12543,7 +12547,7 @@
         <v>1934</v>
       </c>
     </row>
-    <row r="224" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A224" s="13" t="s">
         <v>241</v>
       </c>
@@ -12590,7 +12594,7 @@
         <v>1906.2</v>
       </c>
     </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A225" s="13" t="s">
         <v>242</v>
       </c>
@@ -12637,7 +12641,7 @@
         <v>1856.2</v>
       </c>
     </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A226" s="13" t="s">
         <v>243</v>
       </c>
@@ -12684,7 +12688,7 @@
         <v>1828.4</v>
       </c>
     </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A227" s="13" t="s">
         <v>244</v>
       </c>
@@ -12731,7 +12735,7 @@
         <v>1800.6</v>
       </c>
     </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A228" s="13" t="s">
         <v>245</v>
       </c>
@@ -12778,7 +12782,7 @@
         <v>1783.9</v>
       </c>
     </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A229" s="13" t="s">
         <v>246</v>
       </c>
@@ -12825,7 +12829,7 @@
         <v>1761.7</v>
       </c>
     </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A230" s="13" t="s">
         <v>247</v>
       </c>
@@ -12872,7 +12876,7 @@
         <v>1728.4</v>
       </c>
     </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A231" s="13" t="s">
         <v>248</v>
       </c>
@@ -12919,7 +12923,7 @@
         <v>1700.6</v>
       </c>
     </row>
-    <row r="232" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A232" s="13" t="s">
         <v>249</v>
       </c>
@@ -12966,7 +12970,7 @@
         <v>1683.9</v>
       </c>
     </row>
-    <row r="233" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A233" s="13" t="s">
         <v>250</v>
       </c>
@@ -13013,7 +13017,7 @@
         <v>1656.1</v>
       </c>
     </row>
-    <row r="234" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A234" s="13" t="s">
         <v>251</v>
       </c>
@@ -13060,7 +13064,7 @@
         <v>1639.4</v>
       </c>
     </row>
-    <row r="235" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A235" s="13" t="s">
         <v>252</v>
       </c>
@@ -13107,7 +13111,7 @@
         <v>1645</v>
       </c>
     </row>
-    <row r="236" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A236" s="13" t="s">
         <v>253</v>
       </c>
@@ -13154,7 +13158,7 @@
         <v>1628.3</v>
       </c>
     </row>
-    <row r="237" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A237" s="13" t="s">
         <v>254</v>
       </c>
@@ -13201,7 +13205,7 @@
         <v>1611.6</v>
       </c>
     </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A238" s="13" t="s">
         <v>255</v>
       </c>
@@ -13248,7 +13252,7 @@
         <v>1578.3</v>
       </c>
     </row>
-    <row r="239" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A239" s="13" t="s">
         <v>256</v>
       </c>
@@ -13295,7 +13299,7 @@
         <v>1561.6</v>
       </c>
     </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A240" s="13" t="s">
         <v>257</v>
       </c>
@@ -13342,7 +13346,7 @@
         <v>1550.5</v>
       </c>
     </row>
-    <row r="241" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A241" s="13" t="s">
         <v>258</v>
       </c>
@@ -13389,7 +13393,7 @@
         <v>1550.5</v>
       </c>
     </row>
-    <row r="242" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A242" s="13" t="s">
         <v>259</v>
       </c>
@@ -13436,7 +13440,7 @@
         <v>1550.5</v>
       </c>
     </row>
-    <row r="243" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A243" s="13" t="s">
         <v>260</v>
       </c>
@@ -13483,7 +13487,7 @@
         <v>1561.6</v>
       </c>
     </row>
-    <row r="244" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A244" s="13" t="s">
         <v>261</v>
       </c>
@@ -13530,7 +13534,7 @@
         <v>1556</v>
       </c>
     </row>
-    <row r="245" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A245" s="13" t="s">
         <v>262</v>
       </c>
@@ -13577,7 +13581,7 @@
         <v>1550.4</v>
       </c>
     </row>
-    <row r="246" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A246" s="13" t="s">
         <v>263</v>
       </c>
@@ -13624,7 +13628,7 @@
         <v>1544.8</v>
       </c>
     </row>
-    <row r="247" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A247" s="13" t="s">
         <v>264</v>
       </c>
@@ -13671,7 +13675,7 @@
         <v>1539.2</v>
       </c>
     </row>
-    <row r="248" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A248" s="13" t="s">
         <v>265</v>
       </c>
@@ -13718,7 +13722,7 @@
         <v>1550.3</v>
       </c>
     </row>
-    <row r="249" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A249" s="13" t="s">
         <v>266</v>
       </c>
@@ -13765,7 +13769,7 @@
         <v>1578.1</v>
       </c>
     </row>
-    <row r="250" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A250" s="13" t="s">
         <v>267</v>
       </c>
@@ -13812,7 +13816,7 @@
         <v>1594.8</v>
       </c>
     </row>
-    <row r="251" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A251" s="13" t="s">
         <v>268</v>
       </c>
@@ -13859,7 +13863,7 @@
         <v>1600.4</v>
       </c>
     </row>
-    <row r="252" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A252" s="13" t="s">
         <v>269</v>
       </c>
@@ -13906,7 +13910,7 @@
         <v>1578.2</v>
       </c>
     </row>
-    <row r="253" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A253" s="13" t="s">
         <v>270</v>
       </c>
@@ -13953,7 +13957,7 @@
         <v>1578.2</v>
       </c>
     </row>
-    <row r="254" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A254" s="13" t="s">
         <v>271</v>
       </c>
@@ -14000,7 +14004,7 @@
         <v>1556</v>
       </c>
     </row>
-    <row r="255" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A255" s="13" t="s">
         <v>272</v>
       </c>
@@ -14047,7 +14051,7 @@
         <v>1539.3</v>
       </c>
     </row>
-    <row r="256" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A256" s="13" t="s">
         <v>273</v>
       </c>
@@ -14094,7 +14098,7 @@
         <v>1550.4</v>
       </c>
     </row>
-    <row r="257" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A257" s="13" t="s">
         <v>274</v>
       </c>
@@ -14141,7 +14145,7 @@
         <v>1556</v>
       </c>
     </row>
-    <row r="258" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A258" s="13" t="s">
         <v>275</v>
       </c>
@@ -14188,7 +14192,7 @@
         <v>1572.7</v>
       </c>
     </row>
-    <row r="259" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A259" s="13" t="s">
         <v>276</v>
       </c>
@@ -14235,7 +14239,7 @@
         <v>1544.9</v>
       </c>
     </row>
-    <row r="260" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A260" s="13" t="s">
         <v>277</v>
       </c>
@@ -14282,7 +14286,7 @@
         <v>1550.5</v>
       </c>
     </row>
-    <row r="261" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A261" s="13" t="s">
         <v>278</v>
       </c>
@@ -14329,7 +14333,7 @@
         <v>1539.4</v>
       </c>
     </row>
-    <row r="262" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A262" s="13" t="s">
         <v>279</v>
       </c>
@@ -14376,7 +14380,7 @@
         <v>1517.2</v>
       </c>
     </row>
-    <row r="263" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A263" s="13" t="s">
         <v>280</v>
       </c>
@@ -14423,7 +14427,7 @@
         <v>1506.1</v>
       </c>
     </row>
-    <row r="264" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A264" s="13" t="s">
         <v>281</v>
       </c>
@@ -14470,7 +14474,7 @@
         <v>1489.4</v>
       </c>
     </row>
-    <row r="265" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A265" s="13" t="s">
         <v>282</v>
       </c>
@@ -14517,7 +14521,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="266" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A266" s="13" t="s">
         <v>283</v>
       </c>
@@ -14564,7 +14568,7 @@
         <v>1483.9</v>
       </c>
     </row>
-    <row r="267" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A267" s="13" t="s">
         <v>284</v>
       </c>
@@ -14611,7 +14615,7 @@
         <v>1483.9</v>
       </c>
     </row>
-    <row r="268" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A268" s="13" t="s">
         <v>285</v>
       </c>
@@ -14658,7 +14662,7 @@
         <v>1478.3</v>
       </c>
     </row>
-    <row r="269" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A269" s="13" t="s">
         <v>286</v>
       </c>
@@ -14705,7 +14709,7 @@
         <v>1467.2</v>
       </c>
     </row>
-    <row r="270" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A270" s="13" t="s">
         <v>287</v>
       </c>
@@ -14752,7 +14756,7 @@
         <v>1433.9</v>
       </c>
     </row>
-    <row r="271" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A271" s="13" t="s">
         <v>288</v>
       </c>
@@ -14799,7 +14803,7 @@
         <v>1417.2</v>
       </c>
     </row>
-    <row r="272" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A272" s="13" t="s">
         <v>289</v>
       </c>
@@ -14846,7 +14850,7 @@
         <v>1395</v>
       </c>
     </row>
-    <row r="273" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A273" s="13" t="s">
         <v>290</v>
       </c>
@@ -14893,7 +14897,7 @@
         <v>1400.6</v>
       </c>
     </row>
-    <row r="274" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A274" s="13" t="s">
         <v>291</v>
       </c>
@@ -14940,7 +14944,7 @@
         <v>1378.4</v>
       </c>
     </row>
-    <row r="275" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A275" s="13" t="s">
         <v>292</v>
       </c>
@@ -14987,7 +14991,7 @@
         <v>1367.3</v>
       </c>
     </row>
-    <row r="276" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A276" s="13" t="s">
         <v>293</v>
       </c>
@@ -15034,7 +15038,7 @@
         <v>1350.6</v>
       </c>
     </row>
-    <row r="277" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A277" s="13" t="s">
         <v>294</v>
       </c>
@@ -15081,7 +15085,7 @@
         <v>1356.2</v>
       </c>
     </row>
-    <row r="278" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A278" s="13" t="s">
         <v>295</v>
       </c>
@@ -15128,7 +15132,7 @@
         <v>1350.6</v>
       </c>
     </row>
-    <row r="279" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A279" s="13" t="s">
         <v>296</v>
       </c>
@@ -15175,7 +15179,7 @@
         <v>1350.6</v>
       </c>
     </row>
-    <row r="280" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A280" s="13" t="s">
         <v>297</v>
       </c>
@@ -15222,7 +15226,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="281" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A281" s="13" t="s">
         <v>298</v>
       </c>
@@ -15269,7 +15273,7 @@
         <v>1350.6</v>
       </c>
     </row>
-    <row r="282" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A282" s="13" t="s">
         <v>299</v>
       </c>
@@ -15316,7 +15320,7 @@
         <v>1378.4</v>
       </c>
     </row>
-    <row r="283" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A283" s="13" t="s">
         <v>300</v>
       </c>
@@ -15363,7 +15367,7 @@
         <v>1372.8</v>
       </c>
     </row>
-    <row r="284" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A284" s="13" t="s">
         <v>301</v>
       </c>
@@ -15410,7 +15414,7 @@
         <v>1383.9</v>
       </c>
     </row>
-    <row r="285" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A285" s="13" t="s">
         <v>302</v>
       </c>
@@ -15457,7 +15461,7 @@
         <v>1395</v>
       </c>
     </row>
-    <row r="286" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A286" s="13" t="s">
         <v>303</v>
       </c>
@@ -15504,7 +15508,7 @@
         <v>1411.7</v>
       </c>
     </row>
-    <row r="287" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A287" s="13" t="s">
         <v>304</v>
       </c>
@@ -15551,7 +15555,7 @@
         <v>1422.8</v>
       </c>
     </row>
-    <row r="288" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A288" s="13" t="s">
         <v>305</v>
       </c>
@@ -15598,7 +15602,7 @@
         <v>1439.5</v>
       </c>
     </row>
-    <row r="289" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A289" s="13" t="s">
         <v>306</v>
       </c>
@@ -15645,7 +15649,7 @@
         <v>1467.3</v>
       </c>
     </row>
-    <row r="290" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A290" s="13" t="s">
         <v>307</v>
       </c>
@@ -15692,7 +15696,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="291" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A291" s="13" t="s">
         <v>308</v>
       </c>
@@ -15739,7 +15743,7 @@
         <v>1511.8</v>
       </c>
     </row>
-    <row r="292" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A292" s="13" t="s">
         <v>309</v>
       </c>
@@ -15786,7 +15790,7 @@
         <v>1550.7</v>
       </c>
     </row>
-    <row r="293" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A293" s="13" t="s">
         <v>310</v>
       </c>
@@ -15833,7 +15837,7 @@
         <v>1567.4</v>
       </c>
     </row>
-    <row r="294" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A294" s="13" t="s">
         <v>311</v>
       </c>
@@ -15880,7 +15884,7 @@
         <v>1584.1</v>
       </c>
     </row>
-    <row r="295" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A295" s="13" t="s">
         <v>312</v>
       </c>
@@ -15927,7 +15931,7 @@
         <v>1606.3</v>
       </c>
     </row>
-    <row r="296" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A296" s="13" t="s">
         <v>313</v>
       </c>
@@ -15974,7 +15978,7 @@
         <v>1634.1</v>
       </c>
     </row>
-    <row r="297" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A297" s="13" t="s">
         <v>314</v>
       </c>
@@ -16021,7 +16025,7 @@
         <v>1650.8</v>
       </c>
     </row>
-    <row r="298" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A298" s="13" t="s">
         <v>315</v>
       </c>
@@ -16068,7 +16072,7 @@
         <v>1656.4</v>
       </c>
     </row>
-    <row r="299" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A299" s="13" t="s">
         <v>316</v>
       </c>
@@ -16115,7 +16119,7 @@
         <v>1684.2</v>
       </c>
     </row>
-    <row r="300" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A300" s="13" t="s">
         <v>317</v>
       </c>
@@ -16162,7 +16166,7 @@
         <v>1717.5</v>
       </c>
     </row>
-    <row r="301" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A301" s="13" t="s">
         <v>318</v>
       </c>
@@ -16209,7 +16213,7 @@
         <v>1728.6</v>
       </c>
     </row>
-    <row r="302" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A302" s="13" t="s">
         <v>319</v>
       </c>
@@ -16256,7 +16260,7 @@
         <v>1750.8</v>
       </c>
     </row>
-    <row r="303" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A303" s="13" t="s">
         <v>320</v>
       </c>
@@ -16303,7 +16307,7 @@
         <v>1795.2</v>
       </c>
     </row>
-    <row r="304" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A304" s="13" t="s">
         <v>321</v>
       </c>
@@ -16350,7 +16354,7 @@
         <v>1806.3</v>
       </c>
     </row>
-    <row r="305" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A305" s="13" t="s">
         <v>322</v>
       </c>
@@ -16397,7 +16401,7 @@
         <v>1811.9</v>
       </c>
     </row>
-    <row r="306" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A306" s="13" t="s">
         <v>323</v>
       </c>
@@ -16444,7 +16448,7 @@
         <v>1806.3</v>
       </c>
     </row>
-    <row r="307" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A307" s="13" t="s">
         <v>324</v>
       </c>
@@ -16491,7 +16495,7 @@
         <v>1817.4</v>
       </c>
     </row>
-    <row r="308" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A308" s="13" t="s">
         <v>325</v>
       </c>
@@ -16538,7 +16542,7 @@
         <v>1817.4</v>
       </c>
     </row>
-    <row r="309" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A309" s="13" t="s">
         <v>326</v>
       </c>
@@ -16585,7 +16589,7 @@
         <v>1823</v>
       </c>
     </row>
-    <row r="310" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A310" s="13" t="s">
         <v>327</v>
       </c>
@@ -16632,7 +16636,7 @@
         <v>1850.8</v>
       </c>
     </row>
-    <row r="311" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A311" s="13" t="s">
         <v>328</v>
       </c>
@@ -16679,7 +16683,7 @@
         <v>1867.5</v>
       </c>
     </row>
-    <row r="312" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A312" s="13" t="s">
         <v>329</v>
       </c>
@@ -16726,7 +16730,7 @@
         <v>1884.2</v>
       </c>
     </row>
-    <row r="313" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A313" s="13" t="s">
         <v>330</v>
       </c>
@@ -16773,7 +16777,7 @@
         <v>1873.1</v>
       </c>
     </row>
-    <row r="314" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A314" s="13" t="s">
         <v>331</v>
       </c>
@@ -16820,7 +16824,7 @@
         <v>1889.8</v>
       </c>
     </row>
-    <row r="315" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A315" s="13" t="s">
         <v>332</v>
       </c>
@@ -16867,7 +16871,7 @@
         <v>1917.6</v>
       </c>
     </row>
-    <row r="316" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A316" s="13" t="s">
         <v>333</v>
       </c>
@@ -16914,7 +16918,7 @@
         <v>1939.8</v>
       </c>
     </row>
-    <row r="317" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A317" s="13" t="s">
         <v>334</v>
       </c>
@@ -16961,7 +16965,7 @@
         <v>1945.4</v>
       </c>
     </row>
-    <row r="318" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A318" s="13" t="s">
         <v>335</v>
       </c>
@@ -17008,7 +17012,7 @@
         <v>1951</v>
       </c>
     </row>
-    <row r="319" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A319" s="13" t="s">
         <v>336</v>
       </c>
@@ -17055,7 +17059,7 @@
         <v>1962.1</v>
       </c>
     </row>
-    <row r="320" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A320" s="13" t="s">
         <v>337</v>
       </c>
@@ -17102,7 +17106,7 @@
         <v>1984.3</v>
       </c>
     </row>
-    <row r="321" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A321" s="13" t="s">
         <v>338</v>
       </c>
@@ -17149,7 +17153,7 @@
         <v>2012.1</v>
       </c>
     </row>
-    <row r="322" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A322" s="13" t="s">
         <v>339</v>
       </c>
@@ -17196,7 +17200,7 @@
         <v>2045.4</v>
       </c>
     </row>
-    <row r="323" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A323" s="13" t="s">
         <v>340</v>
       </c>
@@ -17243,7 +17247,7 @@
         <v>2067.6</v>
       </c>
     </row>
-    <row r="324" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A324" s="13" t="s">
         <v>341</v>
       </c>
@@ -17290,7 +17294,7 @@
         <v>2106.5</v>
       </c>
     </row>
-    <row r="325" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A325" s="13" t="s">
         <v>342</v>
       </c>
@@ -17337,7 +17341,7 @@
         <v>2134.3000000000002</v>
       </c>
     </row>
-    <row r="326" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A326" s="13" t="s">
         <v>343</v>
       </c>
@@ -17384,7 +17388,7 @@
         <v>2151</v>
       </c>
     </row>
-    <row r="327" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A327" s="13" t="s">
         <v>344</v>
       </c>
@@ -17431,7 +17435,7 @@
         <v>2162.1</v>
       </c>
     </row>
-    <row r="328" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A328" s="13" t="s">
         <v>345</v>
       </c>
@@ -17478,7 +17482,7 @@
         <v>2173.1999999999998</v>
       </c>
     </row>
-    <row r="329" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A329" s="13" t="s">
         <v>346</v>
       </c>
@@ -17525,7 +17529,7 @@
         <v>2189.9</v>
       </c>
     </row>
-    <row r="330" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A330" s="13" t="s">
         <v>347</v>
       </c>
@@ -17572,7 +17576,7 @@
         <v>2217.6999999999998</v>
       </c>
     </row>
-    <row r="331" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A331" s="13" t="s">
         <v>348</v>
       </c>
@@ -17619,7 +17623,7 @@
         <v>2239.9</v>
       </c>
     </row>
-    <row r="332" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A332" s="13" t="s">
         <v>349</v>
       </c>
@@ -17666,7 +17670,7 @@
         <v>2223.1999999999998</v>
       </c>
     </row>
-    <row r="333" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A333" s="13" t="s">
         <v>350</v>
       </c>
@@ -17713,7 +17717,7 @@
         <v>2228.8000000000002</v>
       </c>
     </row>
-    <row r="334" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A334" s="13" t="s">
         <v>351</v>
       </c>
@@ -17760,7 +17764,7 @@
         <v>2223.1999999999998</v>
       </c>
     </row>
-    <row r="335" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A335" s="13" t="s">
         <v>352</v>
       </c>
@@ -17807,7 +17811,7 @@
         <v>2251</v>
       </c>
     </row>
-    <row r="336" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A336" s="13" t="s">
         <v>353</v>
       </c>
@@ -17854,7 +17858,7 @@
         <v>2278.8000000000002</v>
       </c>
     </row>
-    <row r="337" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A337" s="13" t="s">
         <v>354</v>
       </c>
@@ -17901,7 +17905,7 @@
         <v>2317.6999999999998</v>
       </c>
     </row>
-    <row r="338" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A338" s="13" t="s">
         <v>355</v>
       </c>
@@ -17948,7 +17952,7 @@
         <v>2339.9</v>
       </c>
     </row>
-    <row r="339" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A339" s="13" t="s">
         <v>356</v>
       </c>
@@ -17995,7 +17999,7 @@
         <v>2351</v>
       </c>
     </row>
-    <row r="340" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A340" s="13" t="s">
         <v>357</v>
       </c>
@@ -18042,7 +18046,7 @@
         <v>2367.6999999999998</v>
       </c>
     </row>
-    <row r="341" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A341" s="13" t="s">
         <v>358</v>
       </c>
@@ -18089,7 +18093,7 @@
         <v>2384.4</v>
       </c>
     </row>
-    <row r="342" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A342" s="13" t="s">
         <v>359</v>
       </c>
@@ -18136,7 +18140,7 @@
         <v>2412.1999999999998</v>
       </c>
     </row>
-    <row r="343" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A343" s="13" t="s">
         <v>360</v>
       </c>
@@ -18183,7 +18187,7 @@
         <v>2440</v>
       </c>
     </row>
-    <row r="344" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A344" s="13" t="s">
         <v>361</v>
       </c>
@@ -18230,7 +18234,7 @@
         <v>2434.4</v>
       </c>
     </row>
-    <row r="345" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A345" s="13" t="s">
         <v>362</v>
       </c>
@@ -18277,7 +18281,7 @@
         <v>2423.3000000000002</v>
       </c>
     </row>
-    <row r="346" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A346" s="13" t="s">
         <v>363</v>
       </c>
@@ -18324,7 +18328,7 @@
         <v>2384.4</v>
       </c>
     </row>
-    <row r="347" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A347" s="13" t="s">
         <v>364</v>
       </c>
@@ -18371,7 +18375,7 @@
         <v>2356.6</v>
       </c>
     </row>
-    <row r="348" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A348" s="13" t="s">
         <v>365</v>
       </c>
@@ -18418,7 +18422,7 @@
         <v>2328.8000000000002</v>
       </c>
     </row>
-    <row r="349" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A349" s="13" t="s">
         <v>366</v>
       </c>
@@ -18465,7 +18469,7 @@
         <v>2312.1</v>
       </c>
     </row>
-    <row r="350" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A350" s="13" t="s">
         <v>367</v>
       </c>
@@ -18512,7 +18516,7 @@
         <v>2273.1999999999998</v>
       </c>
     </row>
-    <row r="351" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A351" s="13" t="s">
         <v>368</v>
       </c>
@@ -18559,7 +18563,7 @@
         <v>2256.5</v>
       </c>
     </row>
-    <row r="352" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A352" s="13" t="s">
         <v>369</v>
       </c>
@@ -18606,7 +18610,7 @@
         <v>2217.6</v>
       </c>
     </row>
-    <row r="353" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A353" s="13" t="s">
         <v>370</v>
       </c>
@@ -18653,7 +18657,7 @@
         <v>2212</v>
       </c>
     </row>
-    <row r="354" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A354" s="13" t="s">
         <v>371</v>
       </c>
@@ -18700,7 +18704,7 @@
         <v>2162</v>
       </c>
     </row>
-    <row r="355" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A355" s="13" t="s">
         <v>372</v>
       </c>
@@ -18747,7 +18751,7 @@
         <v>2112</v>
       </c>
     </row>
-    <row r="356" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A356" s="13" t="s">
         <v>373</v>
       </c>
@@ -18794,7 +18798,7 @@
         <v>2062</v>
       </c>
     </row>
-    <row r="357" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A357" s="13" t="s">
         <v>374</v>
       </c>
@@ -18841,7 +18845,7 @@
         <v>2023.1</v>
       </c>
     </row>
-    <row r="358" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A358" s="13" t="s">
         <v>375</v>
       </c>
@@ -18888,7 +18892,7 @@
         <v>1984.2</v>
       </c>
     </row>
-    <row r="359" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A359" s="13" t="s">
         <v>376</v>
       </c>
@@ -18935,7 +18939,7 @@
         <v>1956.4</v>
       </c>
     </row>
-    <row r="360" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A360" s="13" t="s">
         <v>377</v>
       </c>
@@ -18982,7 +18986,7 @@
         <v>1917.5</v>
       </c>
     </row>
-    <row r="361" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A361" s="13" t="s">
         <v>378</v>
       </c>
@@ -19029,7 +19033,7 @@
         <v>1878.6</v>
       </c>
     </row>
-    <row r="362" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A362" s="13" t="s">
         <v>379</v>
       </c>
@@ -19076,7 +19080,7 @@
         <v>1861.9</v>
       </c>
     </row>
-    <row r="363" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A363" s="13" t="s">
         <v>380</v>
       </c>
@@ -19123,7 +19127,7 @@
         <v>1845.2</v>
       </c>
     </row>
-    <row r="364" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A364" s="13" t="s">
         <v>381</v>
       </c>
@@ -19170,7 +19174,7 @@
         <v>1834.1</v>
       </c>
     </row>
-    <row r="365" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A365" s="13" t="s">
         <v>382</v>
       </c>
@@ -19217,7 +19221,7 @@
         <v>1817.4</v>
       </c>
     </row>
-    <row r="366" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A366" s="13" t="s">
         <v>383</v>
       </c>
@@ -19264,7 +19268,7 @@
         <v>1823</v>
       </c>
     </row>
-    <row r="367" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A367" s="13" t="s">
         <v>384</v>
       </c>
@@ -19311,7 +19315,7 @@
         <v>1839.7</v>
       </c>
     </row>
-    <row r="368" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A368" s="13" t="s">
         <v>385</v>
       </c>
@@ -19358,7 +19362,7 @@
         <v>1845.3</v>
       </c>
     </row>
-    <row r="369" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A369" s="13" t="s">
         <v>386</v>
       </c>
@@ -19405,7 +19409,7 @@
         <v>1862</v>
       </c>
     </row>
-    <row r="370" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A370" s="13" t="s">
         <v>387</v>
       </c>
@@ -19452,7 +19456,7 @@
         <v>1845.3</v>
       </c>
     </row>
-    <row r="371" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A371" s="13" t="s">
         <v>388</v>
       </c>
@@ -19499,7 +19503,7 @@
         <v>1845.3</v>
       </c>
     </row>
-    <row r="372" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A372" s="13" t="s">
         <v>389</v>
       </c>
@@ -19546,7 +19550,7 @@
         <v>1839.7</v>
       </c>
     </row>
-    <row r="373" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A373" s="13" t="s">
         <v>390</v>
       </c>
@@ -19593,7 +19597,7 @@
         <v>1878.6</v>
       </c>
     </row>
-    <row r="374" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A374" s="13" t="s">
         <v>391</v>
       </c>
@@ -19640,7 +19644,7 @@
         <v>1900.8</v>
       </c>
     </row>
-    <row r="375" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A375" s="13" t="s">
         <v>392</v>
       </c>
@@ -19687,7 +19691,7 @@
         <v>1906.4</v>
       </c>
     </row>
-    <row r="376" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A376" s="13" t="s">
         <v>393</v>
       </c>
@@ -19734,7 +19738,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="377" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A377" s="13" t="s">
         <v>394</v>
       </c>
@@ -19781,7 +19785,7 @@
         <v>1939.8</v>
       </c>
     </row>
-    <row r="378" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A378" s="13" t="s">
         <v>395</v>
       </c>
@@ -19828,7 +19832,7 @@
         <v>1945.4</v>
       </c>
     </row>
-    <row r="379" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A379" s="13" t="s">
         <v>396</v>
       </c>
@@ -19875,7 +19879,7 @@
         <v>1939.8</v>
       </c>
     </row>
-    <row r="380" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A380" s="13" t="s">
         <v>397</v>
       </c>
@@ -19922,7 +19926,7 @@
         <v>1956.5</v>
       </c>
     </row>
-    <row r="381" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A381" s="13" t="s">
         <v>398</v>
       </c>
@@ -19969,7 +19973,7 @@
         <v>1934.3</v>
       </c>
     </row>
-    <row r="382" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A382" s="13" t="s">
         <v>399</v>
       </c>
@@ -20016,7 +20020,7 @@
         <v>1917.6</v>
       </c>
     </row>
-    <row r="383" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A383" s="13" t="s">
         <v>400</v>
       </c>
@@ -20063,7 +20067,7 @@
         <v>1889.8</v>
       </c>
     </row>
-    <row r="384" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A384" s="13" t="s">
         <v>401</v>
       </c>
@@ -20110,7 +20114,7 @@
         <v>1906.5</v>
       </c>
     </row>
-    <row r="385" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A385" s="13" t="s">
         <v>402</v>
       </c>
@@ -20157,7 +20161,7 @@
         <v>1906.5</v>
       </c>
     </row>
-    <row r="386" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A386" s="13" t="s">
         <v>403</v>
       </c>
@@ -20204,7 +20208,7 @@
         <v>1934.3</v>
       </c>
     </row>
-    <row r="387" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A387" s="13" t="s">
         <v>404</v>
       </c>
@@ -20251,7 +20255,7 @@
         <v>1962.1</v>
       </c>
     </row>
-    <row r="388" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A388" s="13" t="s">
         <v>405</v>
       </c>
@@ -20298,7 +20302,7 @@
         <v>1978.8</v>
       </c>
     </row>
-    <row r="389" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A389" s="13" t="s">
         <v>406</v>
       </c>
@@ -20345,7 +20349,7 @@
         <v>1984.4</v>
       </c>
     </row>
-    <row r="390" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A390" s="13" t="s">
         <v>407</v>
       </c>
@@ -20392,7 +20396,7 @@
         <v>1973.3</v>
       </c>
     </row>
-    <row r="391" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A391" s="13" t="s">
         <v>408</v>
       </c>
@@ -20439,7 +20443,7 @@
         <v>1945.5</v>
       </c>
     </row>
-    <row r="392" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A392" s="13" t="s">
         <v>409</v>
       </c>
@@ -20486,7 +20490,7 @@
         <v>1951.1</v>
       </c>
     </row>
-    <row r="393" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A393" s="13" t="s">
         <v>410</v>
       </c>
@@ -20533,7 +20537,7 @@
         <v>1973.3</v>
       </c>
     </row>
-    <row r="394" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A394" s="13" t="s">
         <v>411</v>
       </c>
@@ -20580,7 +20584,7 @@
         <v>2001.1</v>
       </c>
     </row>
-    <row r="395" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A395" s="13" t="s">
         <v>412</v>
       </c>
@@ -20627,7 +20631,7 @@
         <v>2006.7</v>
       </c>
     </row>
-    <row r="396" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A396" s="13" t="s">
         <v>413</v>
       </c>
@@ -20674,7 +20678,7 @@
         <v>2001.1</v>
       </c>
     </row>
-    <row r="397" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A397" s="13" t="s">
         <v>414</v>
       </c>
@@ -20721,7 +20725,7 @@
         <v>1973.3</v>
       </c>
     </row>
-    <row r="398" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A398" s="13" t="s">
         <v>415</v>
       </c>
@@ -20768,7 +20772,7 @@
         <v>1956.6</v>
       </c>
     </row>
-    <row r="399" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A399" s="13" t="s">
         <v>416</v>
       </c>
@@ -20815,7 +20819,7 @@
         <v>1951</v>
       </c>
     </row>
-    <row r="400" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A400" s="13" t="s">
         <v>417</v>
       </c>
@@ -20862,7 +20866,7 @@
         <v>1973.2</v>
       </c>
     </row>
-    <row r="401" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A401" s="13" t="s">
         <v>418</v>
       </c>
@@ -20909,7 +20913,7 @@
         <v>1989.9</v>
       </c>
     </row>
-    <row r="402" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A402" s="13" t="s">
         <v>419</v>
       </c>
@@ -20956,7 +20960,7 @@
         <v>1984.3</v>
       </c>
     </row>
-    <row r="403" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A403" s="13" t="s">
         <v>420</v>
       </c>
@@ -21003,7 +21007,7 @@
         <v>1967.6</v>
       </c>
     </row>
-    <row r="404" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A404" s="13" t="s">
         <v>421</v>
       </c>
@@ -21050,7 +21054,7 @@
         <v>1962</v>
       </c>
     </row>
-    <row r="405" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A405" s="13" t="s">
         <v>422</v>
       </c>
@@ -21097,7 +21101,7 @@
         <v>1956.4</v>
       </c>
     </row>
-    <row r="406" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A406" s="13" t="s">
         <v>423</v>
       </c>
@@ -21144,7 +21148,7 @@
         <v>1950.8</v>
       </c>
     </row>
-    <row r="407" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A407" s="13" t="s">
         <v>424</v>
       </c>
@@ -21191,7 +21195,7 @@
         <v>1956.4</v>
       </c>
     </row>
-    <row r="408" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A408" s="13" t="s">
         <v>425</v>
       </c>
@@ -21238,7 +21242,7 @@
         <v>1962</v>
       </c>
     </row>
-    <row r="409" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A409" s="13" t="s">
         <v>426</v>
       </c>
@@ -21285,7 +21289,7 @@
         <v>1967.6</v>
       </c>
     </row>
-    <row r="410" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A410" s="13" t="s">
         <v>427</v>
       </c>
@@ -21332,7 +21336,7 @@
         <v>1978.7</v>
       </c>
     </row>
-    <row r="411" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A411" s="13" t="s">
         <v>428</v>
       </c>
@@ -21379,7 +21383,7 @@
         <v>2006.5</v>
       </c>
     </row>
-    <row r="412" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A412" s="13" t="s">
         <v>429</v>
       </c>
@@ -21426,7 +21430,7 @@
         <v>2045.4</v>
       </c>
     </row>
-    <row r="413" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A413" s="13" t="s">
         <v>430</v>
       </c>
@@ -21473,7 +21477,7 @@
         <v>2073.1999999999998</v>
       </c>
     </row>
-    <row r="414" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A414" s="13" t="s">
         <v>431</v>
       </c>
@@ -21520,7 +21524,7 @@
         <v>2101</v>
       </c>
     </row>
-    <row r="415" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A415" s="13" t="s">
         <v>432</v>
       </c>
@@ -21567,7 +21571,7 @@
         <v>2151</v>
       </c>
     </row>
-    <row r="416" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A416" s="13" t="s">
         <v>433</v>
       </c>
@@ -21614,7 +21618,7 @@
         <v>2167.6999999999998</v>
       </c>
     </row>
-    <row r="417" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A417" s="13" t="s">
         <v>434</v>
       </c>
@@ -21661,7 +21665,7 @@
         <v>2178.8000000000002</v>
       </c>
     </row>
-    <row r="418" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A418" s="13" t="s">
         <v>435</v>
       </c>
@@ -21708,7 +21712,7 @@
         <v>2167.6999999999998</v>
       </c>
     </row>
-    <row r="419" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A419" s="13" t="s">
         <v>436</v>
       </c>
@@ -21755,7 +21759,7 @@
         <v>2195.5</v>
       </c>
     </row>
-    <row r="420" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A420" s="13" t="s">
         <v>437</v>
       </c>
@@ -21802,7 +21806,7 @@
         <v>2206.6</v>
       </c>
     </row>
-    <row r="421" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A421" s="13" t="s">
         <v>438</v>
       </c>
@@ -21849,7 +21853,7 @@
         <v>2239.9</v>
       </c>
     </row>
-    <row r="422" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A422" s="13" t="s">
         <v>439</v>
       </c>
@@ -21896,7 +21900,7 @@
         <v>2234.3000000000002</v>
       </c>
     </row>
-    <row r="423" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A423" s="13" t="s">
         <v>440</v>
       </c>
@@ -21943,7 +21947,7 @@
         <v>2228.6999999999998</v>
       </c>
     </row>
-    <row r="424" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A424" s="13" t="s">
         <v>441</v>
       </c>
@@ -21990,7 +21994,7 @@
         <v>2212</v>
       </c>
     </row>
-    <row r="425" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A425" s="13" t="s">
         <v>442</v>
       </c>
@@ -22037,7 +22041,7 @@
         <v>2206.4</v>
       </c>
     </row>
-    <row r="426" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A426" s="13" t="s">
         <v>443</v>
       </c>
@@ -22084,7 +22088,7 @@
         <v>2195.3000000000002</v>
       </c>
     </row>
-    <row r="427" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A427" s="13" t="s">
         <v>444</v>
       </c>
@@ -22131,7 +22135,7 @@
         <v>2212</v>
       </c>
     </row>
-    <row r="428" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A428" s="13" t="s">
         <v>445</v>
       </c>
@@ -22178,7 +22182,7 @@
         <v>2200.9</v>
       </c>
     </row>
-    <row r="429" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A429" s="13" t="s">
         <v>446</v>
       </c>
@@ -22225,7 +22229,7 @@
         <v>2206.5</v>
       </c>
     </row>
-    <row r="430" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A430" s="13" t="s">
         <v>447</v>
       </c>
@@ -22272,7 +22276,7 @@
         <v>2212.1</v>
       </c>
     </row>
-    <row r="431" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A431" s="13" t="s">
         <v>448</v>
       </c>
@@ -22319,7 +22323,7 @@
         <v>2217.6999999999998</v>
       </c>
     </row>
-    <row r="432" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A432" s="13" t="s">
         <v>449</v>
       </c>
@@ -22366,7 +22370,7 @@
         <v>2217.6999999999998</v>
       </c>
     </row>
-    <row r="433" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A433" s="13" t="s">
         <v>450</v>
       </c>
@@ -22413,7 +22417,7 @@
         <v>2212.1</v>
       </c>
     </row>
-    <row r="434" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A434" s="13" t="s">
         <v>451</v>
       </c>
@@ -22460,7 +22464,7 @@
         <v>2195.4</v>
       </c>
     </row>
-    <row r="435" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A435" s="13" t="s">
         <v>452</v>
       </c>
@@ -22507,7 +22511,7 @@
         <v>2201</v>
       </c>
     </row>
-    <row r="436" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A436" s="13" t="s">
         <v>453</v>
       </c>
@@ -22554,7 +22558,7 @@
         <v>2184.3000000000002</v>
       </c>
     </row>
-    <row r="437" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A437" s="13" t="s">
         <v>454</v>
       </c>
@@ -22601,7 +22605,7 @@
         <v>2201</v>
       </c>
     </row>
-    <row r="438" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A438" s="13" t="s">
         <v>455</v>
       </c>
@@ -22648,7 +22652,7 @@
         <v>2206.6</v>
       </c>
     </row>
-    <row r="439" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A439" s="13" t="s">
         <v>456</v>
       </c>
@@ -22695,7 +22699,7 @@
         <v>2217.6999999999998</v>
       </c>
     </row>
-    <row r="440" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A440" s="13" t="s">
         <v>457</v>
       </c>
@@ -22742,7 +22746,7 @@
         <v>2217.6999999999998</v>
       </c>
     </row>
-    <row r="441" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A441" s="13" t="s">
         <v>458</v>
       </c>
@@ -22789,7 +22793,7 @@
         <v>2223.3000000000002</v>
       </c>
     </row>
-    <row r="442" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A442" s="13" t="s">
         <v>459</v>
       </c>
@@ -22836,7 +22840,7 @@
         <v>2240</v>
       </c>
     </row>
-    <row r="443" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A443" s="13" t="s">
         <v>460</v>
       </c>
@@ -22883,7 +22887,7 @@
         <v>2223.3000000000002</v>
       </c>
     </row>
-    <row r="444" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A444" s="13" t="s">
         <v>461</v>
       </c>
@@ -22930,7 +22934,7 @@
         <v>2228.9</v>
       </c>
     </row>
-    <row r="445" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A445" s="13" t="s">
         <v>462</v>
       </c>
@@ -22977,7 +22981,7 @@
         <v>2245.6</v>
       </c>
     </row>
-    <row r="446" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A446" s="13" t="s">
         <v>463</v>
       </c>
@@ -23024,7 +23028,7 @@
         <v>2273.4</v>
       </c>
     </row>
-    <row r="447" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A447" s="13" t="s">
         <v>464</v>
       </c>
@@ -23071,7 +23075,7 @@
         <v>2295.6</v>
       </c>
     </row>
-    <row r="448" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A448" s="13" t="s">
         <v>465</v>
       </c>
@@ -23118,7 +23122,7 @@
         <v>2334.5</v>
       </c>
     </row>
-    <row r="449" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A449" s="13" t="s">
         <v>466</v>
       </c>
@@ -23165,7 +23169,7 @@
         <v>2362.3000000000002</v>
       </c>
     </row>
-    <row r="450" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A450" s="13" t="s">
         <v>467</v>
       </c>
@@ -23212,7 +23216,7 @@
         <v>2390.1</v>
       </c>
     </row>
-    <row r="451" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A451" s="13" t="s">
         <v>468</v>
       </c>
@@ -23259,7 +23263,7 @@
         <v>2417.9</v>
       </c>
     </row>
-    <row r="452" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A452" s="13" t="s">
         <v>469</v>
       </c>
@@ -23306,7 +23310,7 @@
         <v>2456.8000000000002</v>
       </c>
     </row>
-    <row r="453" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A453" s="13" t="s">
         <v>470</v>
       </c>
@@ -23353,7 +23357,7 @@
         <v>2495.6999999999998</v>
       </c>
     </row>
-    <row r="454" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A454" s="13" t="s">
         <v>471</v>
       </c>
@@ -23400,7 +23404,7 @@
         <v>2512.4</v>
       </c>
     </row>
-    <row r="455" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A455" s="13" t="s">
         <v>472</v>
       </c>
@@ -23447,7 +23451,7 @@
         <v>2529.1</v>
       </c>
     </row>
-    <row r="456" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A456" s="13" t="s">
         <v>473</v>
       </c>
@@ -23494,7 +23498,7 @@
         <v>2534.6999999999998</v>
       </c>
     </row>
-    <row r="457" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A457" s="13" t="s">
         <v>474</v>
       </c>
@@ -23541,7 +23545,7 @@
         <v>2540.3000000000002</v>
       </c>
     </row>
-    <row r="458" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A458" s="13" t="s">
         <v>475</v>
       </c>
@@ -23588,7 +23592,7 @@
         <v>2545.9</v>
       </c>
     </row>
-    <row r="459" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A459" s="13" t="s">
         <v>476</v>
       </c>
@@ -23635,7 +23639,7 @@
         <v>2573.6999999999998</v>
       </c>
     </row>
-    <row r="460" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A460" s="13" t="s">
         <v>477</v>
       </c>
@@ -23682,7 +23686,7 @@
         <v>2618.1</v>
       </c>
     </row>
-    <row r="461" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A461" s="13" t="s">
         <v>478</v>
       </c>
@@ -23729,7 +23733,7 @@
         <v>2668.1</v>
       </c>
     </row>
-    <row r="462" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A462" s="13" t="s">
         <v>479</v>
       </c>
@@ -23776,7 +23780,7 @@
         <v>2707</v>
       </c>
     </row>
-    <row r="463" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A463" s="13" t="s">
         <v>480</v>
       </c>
@@ -23823,7 +23827,7 @@
         <v>2707</v>
       </c>
     </row>
-    <row r="464" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A464" s="13" t="s">
         <v>481</v>
       </c>
@@ -23870,7 +23874,7 @@
         <v>2729.2</v>
       </c>
     </row>
-    <row r="465" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A465" s="13" t="s">
         <v>482</v>
       </c>
@@ -23917,7 +23921,7 @@
         <v>2740.3</v>
       </c>
     </row>
-    <row r="466" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A466" s="13" t="s">
         <v>483</v>
       </c>
@@ -23964,7 +23968,7 @@
         <v>2745.9</v>
       </c>
     </row>
-    <row r="467" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A467" s="13" t="s">
         <v>484</v>
       </c>
@@ -24011,7 +24015,7 @@
         <v>2751.5</v>
       </c>
     </row>
-    <row r="468" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A468" s="13" t="s">
         <v>485</v>
       </c>
@@ -24058,7 +24062,7 @@
         <v>2757.1</v>
       </c>
     </row>
-    <row r="469" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A469" s="13" t="s">
         <v>486</v>
       </c>
@@ -24105,7 +24109,7 @@
         <v>2740.4</v>
       </c>
     </row>
-    <row r="470" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A470" s="13" t="s">
         <v>487</v>
       </c>
@@ -24152,7 +24156,7 @@
         <v>2729.3</v>
       </c>
     </row>
-    <row r="471" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A471" s="13" t="s">
         <v>488</v>
       </c>
@@ -24199,7 +24203,7 @@
         <v>2734.9</v>
       </c>
     </row>
-    <row r="472" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A472" s="13" t="s">
         <v>489</v>
       </c>
@@ -24246,7 +24250,7 @@
         <v>2740.5</v>
       </c>
     </row>
-    <row r="473" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A473" s="13" t="s">
         <v>490</v>
       </c>
@@ -24293,7 +24297,7 @@
         <v>2740.5</v>
       </c>
     </row>
-    <row r="474" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A474" s="13" t="s">
         <v>491</v>
       </c>
@@ -24340,7 +24344,7 @@
         <v>2740.5</v>
       </c>
     </row>
-    <row r="475" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A475" s="13" t="s">
         <v>492</v>
       </c>
@@ -24387,7 +24391,7 @@
         <v>2751.6</v>
       </c>
     </row>
-    <row r="476" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A476" s="13" t="s">
         <v>493</v>
       </c>
@@ -24434,7 +24438,7 @@
         <v>2768.3</v>
       </c>
     </row>
-    <row r="477" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A477" s="13" t="s">
         <v>494</v>
       </c>
@@ -24481,7 +24485,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="478" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A478" s="13" t="s">
         <v>495</v>
       </c>
@@ -24528,7 +24532,7 @@
         <v>2790.6</v>
       </c>
     </row>
-    <row r="479" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A479" s="13" t="s">
         <v>496</v>
       </c>
@@ -24575,7 +24579,7 @@
         <v>2818.4</v>
       </c>
     </row>
-    <row r="480" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A480" s="13" t="s">
         <v>497</v>
       </c>
@@ -24622,7 +24626,7 @@
         <v>2835.1</v>
       </c>
     </row>
-    <row r="481" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A481" s="13" t="s">
         <v>498</v>
       </c>
@@ -24669,7 +24673,7 @@
         <v>2851.8</v>
       </c>
     </row>
-    <row r="482" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A482" s="13" t="s">
         <v>499</v>
       </c>
@@ -24716,7 +24720,7 @@
         <v>2846.2</v>
       </c>
     </row>
-    <row r="483" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A483" s="13" t="s">
         <v>500</v>
       </c>
@@ -24763,7 +24767,7 @@
         <v>2851.8</v>
       </c>
     </row>
-    <row r="484" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A484" s="13" t="s">
         <v>501</v>
       </c>
@@ -24810,7 +24814,7 @@
         <v>2824</v>
       </c>
     </row>
-    <row r="485" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A485" s="13" t="s">
         <v>502</v>
       </c>
@@ -24857,7 +24861,7 @@
         <v>2790.7</v>
       </c>
     </row>
-    <row r="486" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A486" s="13" t="s">
         <v>503</v>
       </c>
@@ -24904,7 +24908,7 @@
         <v>2774</v>
       </c>
     </row>
-    <row r="487" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A487" s="13" t="s">
         <v>504</v>
       </c>
@@ -24951,7 +24955,7 @@
         <v>2779.6</v>
       </c>
     </row>
-    <row r="488" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A488" s="13" t="s">
         <v>505</v>
       </c>
@@ -24998,7 +25002,7 @@
         <v>2762.9</v>
       </c>
     </row>
-    <row r="489" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A489" s="13" t="s">
         <v>506</v>
       </c>
@@ -25045,7 +25049,7 @@
         <v>2724</v>
       </c>
     </row>
-    <row r="490" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A490" s="13" t="s">
         <v>507</v>
       </c>
@@ -25092,7 +25096,7 @@
         <v>2685.1</v>
       </c>
     </row>
-    <row r="491" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A491" s="13" t="s">
         <v>508</v>
       </c>
@@ -25139,7 +25143,7 @@
         <v>2640.7</v>
       </c>
     </row>
-    <row r="492" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A492" s="13" t="s">
         <v>509</v>
       </c>
@@ -25186,7 +25190,7 @@
         <v>2612.9</v>
       </c>
     </row>
-    <row r="493" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A493" s="13" t="s">
         <v>510</v>
       </c>
@@ -25233,7 +25237,7 @@
         <v>2607.3000000000002</v>
       </c>
     </row>
-    <row r="494" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A494" s="13" t="s">
         <v>511</v>
       </c>
@@ -25280,7 +25284,7 @@
         <v>2612.9</v>
       </c>
     </row>
-    <row r="495" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A495" s="13" t="s">
         <v>512</v>
       </c>
@@ -25327,7 +25331,7 @@
         <v>2607.3000000000002</v>
       </c>
     </row>
-    <row r="496" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A496" s="13" t="s">
         <v>513</v>
       </c>
@@ -25374,7 +25378,7 @@
         <v>2590.6</v>
       </c>
     </row>
-    <row r="497" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A497" s="13" t="s">
         <v>514</v>
       </c>
@@ -25421,7 +25425,7 @@
         <v>2585</v>
       </c>
     </row>
-    <row r="498" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A498" s="13" t="s">
         <v>515</v>
       </c>
@@ -25468,7 +25472,7 @@
         <v>2568.3000000000002</v>
       </c>
     </row>
-    <row r="499" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A499" s="13" t="s">
         <v>516</v>
       </c>
@@ -25515,7 +25519,7 @@
         <v>2568.3000000000002</v>
       </c>
     </row>
-    <row r="500" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A500" s="13" t="s">
         <v>517</v>
       </c>
@@ -25562,7 +25566,7 @@
         <v>2590.5</v>
       </c>
     </row>
-    <row r="501" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A501" s="13" t="s">
         <v>518</v>
       </c>
@@ -25609,7 +25613,7 @@
         <v>2640.5</v>
       </c>
     </row>
-    <row r="502" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A502" s="13" t="s">
         <v>519</v>
       </c>
@@ -25656,7 +25660,7 @@
         <v>2679.4</v>
       </c>
     </row>
-    <row r="503" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A503" s="13" t="s">
         <v>520</v>
       </c>
@@ -25703,7 +25707,7 @@
         <v>2718.3</v>
       </c>
     </row>
-    <row r="504" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A504" s="13" t="s">
         <v>521</v>
       </c>
@@ -25750,7 +25754,7 @@
         <v>2723.9</v>
       </c>
     </row>
-    <row r="505" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A505" s="13" t="s">
         <v>522</v>
       </c>
@@ -25797,7 +25801,7 @@
         <v>2735</v>
       </c>
     </row>
-    <row r="506" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A506" s="13" t="s">
         <v>523</v>
       </c>
@@ -25844,7 +25848,7 @@
         <v>2740.6</v>
       </c>
     </row>
-    <row r="507" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A507" s="13" t="s">
         <v>524</v>
       </c>
@@ -25891,7 +25895,7 @@
         <v>2723.9</v>
       </c>
     </row>
-    <row r="508" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A508" s="13" t="s">
         <v>525</v>
       </c>
@@ -25938,7 +25942,7 @@
         <v>2707.2</v>
       </c>
     </row>
-    <row r="509" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A509" s="13" t="s">
         <v>526</v>
       </c>
@@ -25985,7 +25989,7 @@
         <v>2701.6</v>
       </c>
     </row>
-    <row r="510" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A510" s="13" t="s">
         <v>527</v>
       </c>
@@ -26032,7 +26036,7 @@
         <v>2723.8</v>
       </c>
     </row>
-    <row r="511" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A511" s="13" t="s">
         <v>528</v>
       </c>
@@ -26079,7 +26083,7 @@
         <v>2740.5</v>
       </c>
     </row>
-    <row r="512" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A512" s="13" t="s">
         <v>529</v>
       </c>
@@ -26126,7 +26130,7 @@
         <v>2768.3</v>
       </c>
     </row>
-    <row r="513" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A513" s="13" t="s">
         <v>530</v>
       </c>
@@ -26173,7 +26177,7 @@
         <v>2773.9</v>
       </c>
     </row>
-    <row r="514" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A514" s="13" t="s">
         <v>531</v>
       </c>
@@ -26220,7 +26224,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="515" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A515" s="13" t="s">
         <v>532</v>
       </c>
@@ -26267,7 +26271,7 @@
         <v>2790.6</v>
       </c>
     </row>
-    <row r="516" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A516" s="13" t="s">
         <v>533</v>
       </c>
@@ -26314,7 +26318,7 @@
         <v>2796.2</v>
       </c>
     </row>
-    <row r="517" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A517" s="13" t="s">
         <v>534</v>
       </c>
@@ -26361,7 +26365,7 @@
         <v>2812.9</v>
       </c>
     </row>
-    <row r="518" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A518" s="13" t="s">
         <v>535</v>
       </c>
@@ -26408,7 +26412,7 @@
         <v>2857.3</v>
       </c>
     </row>
-    <row r="519" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A519" s="13" t="s">
         <v>536</v>
       </c>
@@ -26455,7 +26459,7 @@
         <v>2862.9</v>
       </c>
     </row>
-    <row r="520" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A520" s="13" t="s">
         <v>537</v>
       </c>
@@ -26502,7 +26506,7 @@
         <v>2890.7</v>
       </c>
     </row>
-    <row r="521" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A521" s="13" t="s">
         <v>538</v>
       </c>
@@ -26549,7 +26553,7 @@
         <v>2901.8</v>
       </c>
     </row>
-    <row r="522" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A522" s="13" t="s">
         <v>539</v>
       </c>
@@ -26596,7 +26600,7 @@
         <v>2918.5</v>
       </c>
     </row>
-    <row r="523" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A523" s="13" t="s">
         <v>540</v>
       </c>
@@ -26643,7 +26647,7 @@
         <v>2946.3</v>
       </c>
     </row>
-    <row r="524" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A524" s="13" t="s">
         <v>541</v>
       </c>
@@ -26690,7 +26694,7 @@
         <v>2963</v>
       </c>
     </row>
-    <row r="525" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A525" s="13" t="s">
         <v>542</v>
       </c>
@@ -26737,7 +26741,7 @@
         <v>2979.7</v>
       </c>
     </row>
-    <row r="526" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A526" s="13" t="s">
         <v>543</v>
       </c>
@@ -26784,7 +26788,7 @@
         <v>2974.1</v>
       </c>
     </row>
-    <row r="527" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A527" s="13" t="s">
         <v>544</v>
       </c>
@@ -26831,7 +26835,7 @@
         <v>2990.8</v>
       </c>
     </row>
-    <row r="528" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A528" s="13" t="s">
         <v>545</v>
       </c>
@@ -26878,7 +26882,7 @@
         <v>3001.9</v>
       </c>
     </row>
-    <row r="529" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A529" s="13" t="s">
         <v>546</v>
       </c>
@@ -26925,7 +26929,7 @@
         <v>3013</v>
       </c>
     </row>
-    <row r="530" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A530" s="13" t="s">
         <v>547</v>
       </c>
@@ -26972,7 +26976,7 @@
         <v>3007.4</v>
       </c>
     </row>
-    <row r="531" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A531" s="13" t="s">
         <v>548</v>
       </c>
@@ -27019,7 +27023,7 @@
         <v>3029.6</v>
       </c>
     </row>
-    <row r="532" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A532" s="13" t="s">
         <v>549</v>
       </c>
@@ -27066,7 +27070,7 @@
         <v>3057.4</v>
       </c>
     </row>
-    <row r="533" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A533" s="13" t="s">
         <v>550</v>
       </c>
@@ -27113,7 +27117,7 @@
         <v>3085.2</v>
       </c>
     </row>
-    <row r="534" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A534" s="13" t="s">
         <v>551</v>
       </c>
@@ -27160,7 +27164,7 @@
         <v>3101.9</v>
       </c>
     </row>
-    <row r="535" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A535" s="13" t="s">
         <v>552</v>
       </c>
@@ -27180,7 +27184,7 @@
         <v>106.5</v>
       </c>
       <c r="G535" s="4">
-        <v>111</v>
+        <v>110.9</v>
       </c>
       <c r="H535" s="4">
         <v>110.8</v>
@@ -27207,7 +27211,7 @@
         <v>3085.2</v>
       </c>
     </row>
-    <row r="536" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A536" s="13" t="s">
         <v>553</v>
       </c>
@@ -27254,7 +27258,7 @@
         <v>3085.2</v>
       </c>
     </row>
-    <row r="537" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A537" s="13" t="s">
         <v>554</v>
       </c>
@@ -27301,7 +27305,7 @@
         <v>3085.2</v>
       </c>
     </row>
-    <row r="538" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A538" s="13" t="s">
         <v>555</v>
       </c>
@@ -27348,7 +27352,7 @@
         <v>3113</v>
       </c>
     </row>
-    <row r="539" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A539" s="13" t="s">
         <v>556</v>
       </c>
@@ -27395,7 +27399,7 @@
         <v>3113</v>
       </c>
     </row>
-    <row r="540" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A540" s="13" t="s">
         <v>557</v>
       </c>
@@ -27442,7 +27446,7 @@
         <v>3124.1</v>
       </c>
     </row>
-    <row r="541" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A541" s="13" t="s">
         <v>558</v>
       </c>
@@ -27489,7 +27493,7 @@
         <v>3151.9</v>
       </c>
     </row>
-    <row r="542" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A542" s="13" t="s">
         <v>559</v>
       </c>
@@ -27500,7 +27504,7 @@
         <v>8</v>
       </c>
       <c r="D542" s="4">
-        <v>107.4</v>
+        <v>107.3</v>
       </c>
       <c r="E542" s="4">
         <v>114.1</v>
@@ -27536,7 +27540,7 @@
         <v>3168.6</v>
       </c>
     </row>
-    <row r="543" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A543" s="13" t="s">
         <v>560</v>
       </c>
@@ -27583,7 +27587,7 @@
         <v>3163</v>
       </c>
     </row>
-    <row r="544" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A544" s="13" t="s">
         <v>561</v>
       </c>
@@ -27630,7 +27634,7 @@
         <v>3179.7</v>
       </c>
     </row>
-    <row r="545" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A545" s="13" t="s">
         <v>562</v>
       </c>
@@ -27677,7 +27681,7 @@
         <v>3190.8</v>
       </c>
     </row>
-    <row r="546" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A546" s="13" t="s">
         <v>563</v>
       </c>
@@ -27688,7 +27692,7 @@
         <v>12</v>
       </c>
       <c r="D546" s="4">
-        <v>107.9</v>
+        <v>107.8</v>
       </c>
       <c r="E546" s="4">
         <v>116.4</v>
@@ -27724,7 +27728,7 @@
         <v>3207.5</v>
       </c>
     </row>
-    <row r="547" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A547" s="13" t="s">
         <v>564</v>
       </c>
@@ -27771,7 +27775,7 @@
         <v>3235.3</v>
       </c>
     </row>
-    <row r="548" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A548" s="13" t="s">
         <v>565</v>
       </c>
@@ -27818,7 +27822,7 @@
         <v>3263.1</v>
       </c>
     </row>
-    <row r="549" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A549" s="13" t="s">
         <v>566</v>
       </c>
@@ -27865,7 +27869,7 @@
         <v>3279.8</v>
       </c>
     </row>
-    <row r="550" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A550" s="13" t="s">
         <v>567</v>
       </c>
@@ -27912,7 +27916,7 @@
         <v>3290.9</v>
       </c>
     </row>
-    <row r="551" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A551" s="13" t="s">
         <v>568</v>
       </c>
@@ -27959,7 +27963,7 @@
         <v>3307.6</v>
       </c>
     </row>
-    <row r="552" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A552" s="13" t="s">
         <v>569</v>
       </c>
@@ -28006,7 +28010,7 @@
         <v>3324.3</v>
       </c>
     </row>
-    <row r="553" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A553" s="13" t="s">
         <v>570</v>
       </c>
@@ -28053,13 +28057,60 @@
         <v>3324.3</v>
       </c>
     </row>
-    <row r="562" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D562" s="3"/>
-      <c r="E562" s="3"/>
-      <c r="F562" s="3"/>
-      <c r="G562" s="3"/>
-      <c r="H562" s="3"/>
-      <c r="I562" s="3"/>
+    <row r="554" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A554" s="13" t="s">
+        <v>571</v>
+      </c>
+      <c r="B554" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C554" s="2">
+        <v>8</v>
+      </c>
+      <c r="D554" s="4">
+        <v>107.4</v>
+      </c>
+      <c r="E554" s="4">
+        <v>113.4</v>
+      </c>
+      <c r="F554" s="4">
+        <v>112</v>
+      </c>
+      <c r="G554" s="4">
+        <v>107.5</v>
+      </c>
+      <c r="H554" s="4">
+        <v>111.9</v>
+      </c>
+      <c r="I554" s="4">
+        <v>110</v>
+      </c>
+      <c r="J554" s="4">
+        <v>62.5</v>
+      </c>
+      <c r="K554" s="4">
+        <v>0</v>
+      </c>
+      <c r="L554" s="4">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="M554" s="4">
+        <v>1217.0999999999999</v>
+      </c>
+      <c r="N554" s="4">
+        <v>3128.3</v>
+      </c>
+      <c r="O554" s="4">
+        <v>3307.6</v>
+      </c>
+    </row>
+    <row r="563" spans="4:9" x14ac:dyDescent="0.15">
+      <c r="D563" s="3"/>
+      <c r="E563" s="3"/>
+      <c r="F563" s="3"/>
+      <c r="G563" s="3"/>
+      <c r="H563" s="3"/>
+      <c r="I563" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>

--- a/data/長期系列_CI指数_DI指数_DI景気指標.xlsx
+++ b/data/長期系列_CI指数_DI指数_DI景気指標.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\CI\０１／CI\０１／速報\★R7(2025)★\令和7年8月分\g研究所ホームページ掲載宛送付ファイル\jp\stat\di\di\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\CI\０１／CI\０２／速報からの改訂\★R7(2025)★\令和7年8月改訂\g研究所ホームページ掲載宛送付ファイル\jp\stat\di\di\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{919CEB13-E895-46B2-AB5C-60EC606588D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A09BF87-86C0-40EF-98EB-E82691B9E483}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="13350"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
   </bookViews>
   <sheets>
     <sheet name="指数 Indexes" sheetId="1" r:id="rId1"/>
@@ -2821,14 +2821,14 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="8.125" customWidth="1"/>
-    <col min="4" max="15" width="10.625" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8.109375" customWidth="1"/>
+    <col min="4" max="15" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="36" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" ht="36" x14ac:dyDescent="0.2">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -2870,7 +2870,7 @@
       </c>
       <c r="P1" s="5"/>
     </row>
-    <row r="2" spans="1:16" s="1" customFormat="1" ht="72" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" s="1" customFormat="1" ht="72" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -2912,7 +2912,7 @@
       </c>
       <c r="P2" s="5"/>
     </row>
-    <row r="3" spans="1:16" ht="24" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:16" ht="24" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>18</v>
       </c>
@@ -2960,7 +2960,7 @@
       </c>
       <c r="P3" s="5"/>
     </row>
-    <row r="4" spans="1:16" s="1" customFormat="1" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" s="1" customFormat="1" ht="32.4" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>20</v>
       </c>
@@ -3008,7 +3008,7 @@
       </c>
       <c r="P4" s="5"/>
     </row>
-    <row r="5" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" s="1" customFormat="1" ht="22.2" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -3038,7 +3038,7 @@
       <c r="O5" s="11"/>
       <c r="P5" s="12"/>
     </row>
-    <row r="6" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -3068,7 +3068,7 @@
       <c r="O6" s="6"/>
       <c r="P6" s="12"/>
     </row>
-    <row r="7" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
         <v>24</v>
       </c>
@@ -3103,7 +3103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
         <v>25</v>
       </c>
@@ -3138,7 +3138,7 @@
         <v>44.4</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
         <v>26</v>
       </c>
@@ -3173,7 +3173,7 @@
         <v>83.3</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
         <v>27</v>
       </c>
@@ -3208,7 +3208,7 @@
         <v>111.1</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
         <v>28</v>
       </c>
@@ -3243,7 +3243,7 @@
         <v>116.7</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
         <v>29</v>
       </c>
@@ -3278,7 +3278,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
         <v>30</v>
       </c>
@@ -3313,7 +3313,7 @@
         <v>177.8</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
         <v>31</v>
       </c>
@@ -3348,7 +3348,7 @@
         <v>194.5</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
         <v>32</v>
       </c>
@@ -3383,7 +3383,7 @@
         <v>211.2</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
         <v>33</v>
       </c>
@@ -3418,7 +3418,7 @@
         <v>227.9</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
         <v>34</v>
       </c>
@@ -3453,7 +3453,7 @@
         <v>255.7</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
         <v>35</v>
       </c>
@@ -3488,7 +3488,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="13" t="s">
         <v>36</v>
       </c>
@@ -3523,7 +3523,7 @@
         <v>244.6</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="13" t="s">
         <v>37</v>
       </c>
@@ -3558,7 +3558,7 @@
         <v>244.6</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="13" t="s">
         <v>38</v>
       </c>
@@ -3593,7 +3593,7 @@
         <v>272.39999999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="13" t="s">
         <v>39</v>
       </c>
@@ -3628,7 +3628,7 @@
         <v>266.8</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="13" t="s">
         <v>40</v>
       </c>
@@ -3663,7 +3663,7 @@
         <v>272.39999999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="13" t="s">
         <v>41</v>
       </c>
@@ -3698,7 +3698,7 @@
         <v>261.3</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="13" t="s">
         <v>42</v>
       </c>
@@ -3733,7 +3733,7 @@
         <v>250.2</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="13" t="s">
         <v>43</v>
       </c>
@@ -3768,7 +3768,7 @@
         <v>233.5</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="13" t="s">
         <v>44</v>
       </c>
@@ -3803,7 +3803,7 @@
         <v>239.1</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="13" t="s">
         <v>45</v>
       </c>
@@ -3838,7 +3838,7 @@
         <v>244.7</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="13" t="s">
         <v>46</v>
       </c>
@@ -3873,7 +3873,7 @@
         <v>239.1</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="13" t="s">
         <v>47</v>
       </c>
@@ -3908,7 +3908,7 @@
         <v>222.4</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="13" t="s">
         <v>48</v>
       </c>
@@ -3943,7 +3943,7 @@
         <v>239.1</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="13" t="s">
         <v>49</v>
       </c>
@@ -3978,7 +3978,7 @@
         <v>244.7</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="13" t="s">
         <v>50</v>
       </c>
@@ -4013,7 +4013,7 @@
         <v>250.3</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="13" t="s">
         <v>51</v>
       </c>
@@ -4048,7 +4048,7 @@
         <v>244.7</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="13" t="s">
         <v>52</v>
       </c>
@@ -4083,7 +4083,7 @@
         <v>250.3</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="13" t="s">
         <v>53</v>
       </c>
@@ -4118,7 +4118,7 @@
         <v>278.10000000000002</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="13" t="s">
         <v>54</v>
       </c>
@@ -4153,7 +4153,7 @@
         <v>278.10000000000002</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="13" t="s">
         <v>55</v>
       </c>
@@ -4188,7 +4188,7 @@
         <v>272.5</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="13" t="s">
         <v>56</v>
       </c>
@@ -4223,7 +4223,7 @@
         <v>255.8</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="13" t="s">
         <v>57</v>
       </c>
@@ -4258,7 +4258,7 @@
         <v>239.1</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="13" t="s">
         <v>58</v>
       </c>
@@ -4293,7 +4293,7 @@
         <v>222.4</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="13" t="s">
         <v>59</v>
       </c>
@@ -4328,7 +4328,7 @@
         <v>194.6</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="13" t="s">
         <v>60</v>
       </c>
@@ -4363,7 +4363,7 @@
         <v>166.8</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" s="13" t="s">
         <v>61</v>
       </c>
@@ -4398,7 +4398,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="13" t="s">
         <v>62</v>
       </c>
@@ -4433,7 +4433,7 @@
         <v>122.3</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="13" t="s">
         <v>63</v>
       </c>
@@ -4468,7 +4468,7 @@
         <v>116.7</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="13" t="s">
         <v>64</v>
       </c>
@@ -4503,7 +4503,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="13" t="s">
         <v>65</v>
       </c>
@@ -4538,7 +4538,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" s="13" t="s">
         <v>66</v>
       </c>
@@ -4573,7 +4573,7 @@
         <v>105.6</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" s="13" t="s">
         <v>67</v>
       </c>
@@ -4608,7 +4608,7 @@
         <v>122.3</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" s="13" t="s">
         <v>68</v>
       </c>
@@ -4643,7 +4643,7 @@
         <v>127.9</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" s="13" t="s">
         <v>69</v>
       </c>
@@ -4678,7 +4678,7 @@
         <v>122.3</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" s="13" t="s">
         <v>70</v>
       </c>
@@ -4713,7 +4713,7 @@
         <v>127.9</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" s="13" t="s">
         <v>71</v>
       </c>
@@ -4748,7 +4748,7 @@
         <v>127.9</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" s="13" t="s">
         <v>72</v>
       </c>
@@ -4783,7 +4783,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" s="13" t="s">
         <v>73</v>
       </c>
@@ -4818,7 +4818,7 @@
         <v>177.9</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57" s="13" t="s">
         <v>74</v>
       </c>
@@ -4853,7 +4853,7 @@
         <v>216.8</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58" s="13" t="s">
         <v>75</v>
       </c>
@@ -4888,7 +4888,7 @@
         <v>255.7</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59" s="13" t="s">
         <v>76</v>
       </c>
@@ -4923,7 +4923,7 @@
         <v>272.39999999999998</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60" s="13" t="s">
         <v>77</v>
       </c>
@@ -4958,7 +4958,7 @@
         <v>283.5</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61" s="13" t="s">
         <v>78</v>
       </c>
@@ -4993,7 +4993,7 @@
         <v>311.3</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62" s="13" t="s">
         <v>79</v>
       </c>
@@ -5028,7 +5028,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63" s="13" t="s">
         <v>80</v>
       </c>
@@ -5063,7 +5063,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64" s="13" t="s">
         <v>81</v>
       </c>
@@ -5098,7 +5098,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65" s="13" t="s">
         <v>82</v>
       </c>
@@ -5133,7 +5133,7 @@
         <v>455.8</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66" s="13" t="s">
         <v>83</v>
       </c>
@@ -5168,7 +5168,7 @@
         <v>494.7</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A67" s="13" t="s">
         <v>84</v>
       </c>
@@ -5215,7 +5215,7 @@
         <v>539.1</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A68" s="13" t="s">
         <v>85</v>
       </c>
@@ -5262,7 +5262,7 @@
         <v>566.9</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A69" s="13" t="s">
         <v>86</v>
       </c>
@@ -5309,7 +5309,7 @@
         <v>594.70000000000005</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A70" s="13" t="s">
         <v>87</v>
       </c>
@@ -5356,7 +5356,7 @@
         <v>611.4</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A71" s="13" t="s">
         <v>88</v>
       </c>
@@ -5403,7 +5403,7 @@
         <v>644.70000000000005</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A72" s="13" t="s">
         <v>89</v>
       </c>
@@ -5450,7 +5450,7 @@
         <v>655.8</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A73" s="13" t="s">
         <v>90</v>
       </c>
@@ -5497,7 +5497,7 @@
         <v>666.9</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A74" s="13" t="s">
         <v>91</v>
       </c>
@@ -5544,7 +5544,7 @@
         <v>694.7</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75" s="13" t="s">
         <v>92</v>
       </c>
@@ -5591,7 +5591,7 @@
         <v>700.3</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A76" s="13" t="s">
         <v>93</v>
       </c>
@@ -5638,7 +5638,7 @@
         <v>683.6</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A77" s="13" t="s">
         <v>94</v>
       </c>
@@ -5685,7 +5685,7 @@
         <v>666.9</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A78" s="13" t="s">
         <v>95</v>
       </c>
@@ -5732,7 +5732,7 @@
         <v>672.5</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79" s="13" t="s">
         <v>96</v>
       </c>
@@ -5779,7 +5779,7 @@
         <v>689.2</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A80" s="13" t="s">
         <v>97</v>
       </c>
@@ -5826,7 +5826,7 @@
         <v>705.9</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A81" s="13" t="s">
         <v>98</v>
       </c>
@@ -5873,7 +5873,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A82" s="13" t="s">
         <v>99</v>
       </c>
@@ -5920,7 +5920,7 @@
         <v>711.4</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A83" s="13" t="s">
         <v>100</v>
       </c>
@@ -5967,7 +5967,7 @@
         <v>700.3</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A84" s="13" t="s">
         <v>101</v>
       </c>
@@ -6014,7 +6014,7 @@
         <v>683.6</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A85" s="13" t="s">
         <v>102</v>
       </c>
@@ -6061,7 +6061,7 @@
         <v>683.6</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A86" s="13" t="s">
         <v>103</v>
       </c>
@@ -6108,7 +6108,7 @@
         <v>672.5</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A87" s="13" t="s">
         <v>104</v>
       </c>
@@ -6155,7 +6155,7 @@
         <v>672.5</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A88" s="13" t="s">
         <v>105</v>
       </c>
@@ -6202,7 +6202,7 @@
         <v>689.2</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A89" s="13" t="s">
         <v>106</v>
       </c>
@@ -6249,7 +6249,7 @@
         <v>705.9</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A90" s="13" t="s">
         <v>107</v>
       </c>
@@ -6296,7 +6296,7 @@
         <v>689.2</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A91" s="13" t="s">
         <v>108</v>
       </c>
@@ -6343,7 +6343,7 @@
         <v>694.8</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A92" s="13" t="s">
         <v>109</v>
       </c>
@@ -6390,7 +6390,7 @@
         <v>705.9</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A93" s="13" t="s">
         <v>110</v>
       </c>
@@ -6437,7 +6437,7 @@
         <v>722.6</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A94" s="13" t="s">
         <v>111</v>
       </c>
@@ -6484,7 +6484,7 @@
         <v>750.4</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A95" s="13" t="s">
         <v>112</v>
       </c>
@@ -6531,7 +6531,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A96" s="13" t="s">
         <v>113</v>
       </c>
@@ -6578,7 +6578,7 @@
         <v>767.1</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A97" s="13" t="s">
         <v>114</v>
       </c>
@@ -6625,7 +6625,7 @@
         <v>772.7</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A98" s="13" t="s">
         <v>115</v>
       </c>
@@ -6672,7 +6672,7 @@
         <v>783.8</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A99" s="13" t="s">
         <v>116</v>
       </c>
@@ -6719,7 +6719,7 @@
         <v>811.6</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A100" s="13" t="s">
         <v>117</v>
       </c>
@@ -6766,7 +6766,7 @@
         <v>833.8</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A101" s="13" t="s">
         <v>118</v>
       </c>
@@ -6813,7 +6813,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A102" s="13" t="s">
         <v>119</v>
       </c>
@@ -6860,7 +6860,7 @@
         <v>900.4</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A103" s="13" t="s">
         <v>120</v>
       </c>
@@ -6907,7 +6907,7 @@
         <v>928.2</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A104" s="13" t="s">
         <v>121</v>
       </c>
@@ -6954,7 +6954,7 @@
         <v>944.9</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A105" s="13" t="s">
         <v>122</v>
       </c>
@@ -7001,7 +7001,7 @@
         <v>972.7</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A106" s="13" t="s">
         <v>123</v>
       </c>
@@ -7048,7 +7048,7 @@
         <v>1011.6</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A107" s="13" t="s">
         <v>124</v>
       </c>
@@ -7095,7 +7095,7 @@
         <v>1039.4000000000001</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A108" s="13" t="s">
         <v>125</v>
       </c>
@@ -7142,7 +7142,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A109" s="13" t="s">
         <v>126</v>
       </c>
@@ -7189,7 +7189,7 @@
         <v>1067.2</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A110" s="13" t="s">
         <v>127</v>
       </c>
@@ -7236,7 +7236,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A111" s="13" t="s">
         <v>128</v>
       </c>
@@ -7283,7 +7283,7 @@
         <v>1133.9000000000001</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A112" s="13" t="s">
         <v>129</v>
       </c>
@@ -7330,7 +7330,7 @@
         <v>1183.9000000000001</v>
       </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A113" s="13" t="s">
         <v>130</v>
       </c>
@@ -7377,7 +7377,7 @@
         <v>1233.9000000000001</v>
       </c>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A114" s="13" t="s">
         <v>131</v>
       </c>
@@ -7424,7 +7424,7 @@
         <v>1261.7</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A115" s="13" t="s">
         <v>132</v>
       </c>
@@ -7471,7 +7471,7 @@
         <v>1289.5</v>
       </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A116" s="13" t="s">
         <v>133</v>
       </c>
@@ -7518,7 +7518,7 @@
         <v>1317.3</v>
       </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A117" s="13" t="s">
         <v>134</v>
       </c>
@@ -7565,7 +7565,7 @@
         <v>1361.7</v>
       </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A118" s="13" t="s">
         <v>135</v>
       </c>
@@ -7612,7 +7612,7 @@
         <v>1367.3</v>
       </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A119" s="13" t="s">
         <v>136</v>
       </c>
@@ -7659,7 +7659,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A120" s="13" t="s">
         <v>137</v>
       </c>
@@ -7706,7 +7706,7 @@
         <v>1400.7</v>
       </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A121" s="13" t="s">
         <v>138</v>
       </c>
@@ -7753,7 +7753,7 @@
         <v>1445.1</v>
       </c>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A122" s="13" t="s">
         <v>139</v>
       </c>
@@ -7800,7 +7800,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A123" s="13" t="s">
         <v>140</v>
       </c>
@@ -7847,7 +7847,7 @@
         <v>1495.1</v>
       </c>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A124" s="13" t="s">
         <v>141</v>
       </c>
@@ -7894,7 +7894,7 @@
         <v>1511.8</v>
       </c>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A125" s="13" t="s">
         <v>142</v>
       </c>
@@ -7941,7 +7941,7 @@
         <v>1539.6</v>
       </c>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A126" s="13" t="s">
         <v>143</v>
       </c>
@@ -7988,7 +7988,7 @@
         <v>1572.9</v>
       </c>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A127" s="13" t="s">
         <v>144</v>
       </c>
@@ -8035,7 +8035,7 @@
         <v>1622.9</v>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A128" s="13" t="s">
         <v>145</v>
       </c>
@@ -8082,7 +8082,7 @@
         <v>1661.8</v>
       </c>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A129" s="13" t="s">
         <v>146</v>
       </c>
@@ -8129,7 +8129,7 @@
         <v>1695.1</v>
       </c>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A130" s="13" t="s">
         <v>147</v>
       </c>
@@ -8176,7 +8176,7 @@
         <v>1717.3</v>
       </c>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A131" s="13" t="s">
         <v>148</v>
       </c>
@@ -8223,7 +8223,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A132" s="13" t="s">
         <v>149</v>
       </c>
@@ -8270,7 +8270,7 @@
         <v>1750.7</v>
       </c>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A133" s="13" t="s">
         <v>150</v>
       </c>
@@ -8317,7 +8317,7 @@
         <v>1745.1</v>
       </c>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A134" s="13" t="s">
         <v>151</v>
       </c>
@@ -8364,7 +8364,7 @@
         <v>1761.8</v>
       </c>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A135" s="13" t="s">
         <v>152</v>
       </c>
@@ -8411,7 +8411,7 @@
         <v>1778.5</v>
       </c>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A136" s="13" t="s">
         <v>153</v>
       </c>
@@ -8458,7 +8458,7 @@
         <v>1789.6</v>
       </c>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A137" s="13" t="s">
         <v>154</v>
       </c>
@@ -8505,7 +8505,7 @@
         <v>1789.6</v>
       </c>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A138" s="13" t="s">
         <v>155</v>
       </c>
@@ -8552,7 +8552,7 @@
         <v>1817.4</v>
       </c>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A139" s="13" t="s">
         <v>156</v>
       </c>
@@ -8599,7 +8599,7 @@
         <v>1845.2</v>
       </c>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A140" s="13" t="s">
         <v>157</v>
       </c>
@@ -8646,7 +8646,7 @@
         <v>1856.3</v>
       </c>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A141" s="13" t="s">
         <v>158</v>
       </c>
@@ -8693,7 +8693,7 @@
         <v>1850.7</v>
       </c>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A142" s="13" t="s">
         <v>159</v>
       </c>
@@ -8740,7 +8740,7 @@
         <v>1856.3</v>
       </c>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A143" s="13" t="s">
         <v>160</v>
       </c>
@@ -8787,7 +8787,7 @@
         <v>1867.4</v>
       </c>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A144" s="13" t="s">
         <v>161</v>
       </c>
@@ -8834,7 +8834,7 @@
         <v>1900.7</v>
       </c>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A145" s="13" t="s">
         <v>162</v>
       </c>
@@ -8881,7 +8881,7 @@
         <v>1911.8</v>
       </c>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A146" s="13" t="s">
         <v>163</v>
       </c>
@@ -8928,7 +8928,7 @@
         <v>1906.2</v>
       </c>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A147" s="13" t="s">
         <v>164</v>
       </c>
@@ -8975,7 +8975,7 @@
         <v>1889.5</v>
       </c>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A148" s="13" t="s">
         <v>165</v>
       </c>
@@ -9022,7 +9022,7 @@
         <v>1906.2</v>
       </c>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A149" s="13" t="s">
         <v>166</v>
       </c>
@@ -9069,7 +9069,7 @@
         <v>1934</v>
       </c>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A150" s="13" t="s">
         <v>167</v>
       </c>
@@ -9116,7 +9116,7 @@
         <v>1939.6</v>
       </c>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A151" s="13" t="s">
         <v>168</v>
       </c>
@@ -9163,7 +9163,7 @@
         <v>1922.9</v>
       </c>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A152" s="13" t="s">
         <v>169</v>
       </c>
@@ -9210,7 +9210,7 @@
         <v>1922.9</v>
       </c>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A153" s="13" t="s">
         <v>170</v>
       </c>
@@ -9257,7 +9257,7 @@
         <v>1906.2</v>
       </c>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A154" s="13" t="s">
         <v>171</v>
       </c>
@@ -9304,7 +9304,7 @@
         <v>1889.5</v>
       </c>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A155" s="13" t="s">
         <v>172</v>
       </c>
@@ -9351,7 +9351,7 @@
         <v>1861.7</v>
       </c>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A156" s="13" t="s">
         <v>173</v>
       </c>
@@ -9398,7 +9398,7 @@
         <v>1845</v>
       </c>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A157" s="13" t="s">
         <v>174</v>
       </c>
@@ -9445,7 +9445,7 @@
         <v>1817.2</v>
       </c>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A158" s="13" t="s">
         <v>175</v>
       </c>
@@ -9492,7 +9492,7 @@
         <v>1789.4</v>
       </c>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A159" s="13" t="s">
         <v>176</v>
       </c>
@@ -9539,7 +9539,7 @@
         <v>1761.6</v>
       </c>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A160" s="13" t="s">
         <v>177</v>
       </c>
@@ -9586,7 +9586,7 @@
         <v>1722.7</v>
       </c>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A161" s="13" t="s">
         <v>178</v>
       </c>
@@ -9633,7 +9633,7 @@
         <v>1683.8</v>
       </c>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A162" s="13" t="s">
         <v>179</v>
       </c>
@@ -9680,7 +9680,7 @@
         <v>1644.9</v>
       </c>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A163" s="13" t="s">
         <v>180</v>
       </c>
@@ -9727,7 +9727,7 @@
         <v>1639.3</v>
       </c>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A164" s="13" t="s">
         <v>181</v>
       </c>
@@ -9774,7 +9774,7 @@
         <v>1622.6</v>
       </c>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A165" s="13" t="s">
         <v>182</v>
       </c>
@@ -9821,7 +9821,7 @@
         <v>1600.4</v>
       </c>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A166" s="13" t="s">
         <v>183</v>
       </c>
@@ -9868,7 +9868,7 @@
         <v>1572.6</v>
       </c>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A167" s="13" t="s">
         <v>184</v>
       </c>
@@ -9915,7 +9915,7 @@
         <v>1544.8</v>
       </c>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A168" s="13" t="s">
         <v>185</v>
       </c>
@@ -9962,7 +9962,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A169" s="13" t="s">
         <v>186</v>
       </c>
@@ -10009,7 +10009,7 @@
         <v>1483.7</v>
       </c>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A170" s="13" t="s">
         <v>187</v>
       </c>
@@ -10056,7 +10056,7 @@
         <v>1489.3</v>
       </c>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A171" s="13" t="s">
         <v>188</v>
       </c>
@@ -10103,7 +10103,7 @@
         <v>1483.7</v>
       </c>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A172" s="13" t="s">
         <v>189</v>
       </c>
@@ -10150,7 +10150,7 @@
         <v>1478.1</v>
       </c>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A173" s="13" t="s">
         <v>190</v>
       </c>
@@ -10197,7 +10197,7 @@
         <v>1461.4</v>
       </c>
     </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A174" s="13" t="s">
         <v>191</v>
       </c>
@@ -10244,7 +10244,7 @@
         <v>1450.3</v>
       </c>
     </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A175" s="13" t="s">
         <v>192</v>
       </c>
@@ -10291,7 +10291,7 @@
         <v>1455.9</v>
       </c>
     </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A176" s="13" t="s">
         <v>193</v>
       </c>
@@ -10338,7 +10338,7 @@
         <v>1433.7</v>
       </c>
     </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A177" s="13" t="s">
         <v>194</v>
       </c>
@@ -10385,7 +10385,7 @@
         <v>1422.6</v>
       </c>
     </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A178" s="13" t="s">
         <v>195</v>
       </c>
@@ -10432,7 +10432,7 @@
         <v>1400.4</v>
       </c>
     </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A179" s="13" t="s">
         <v>196</v>
       </c>
@@ -10479,7 +10479,7 @@
         <v>1394.8</v>
       </c>
     </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A180" s="13" t="s">
         <v>197</v>
       </c>
@@ -10526,7 +10526,7 @@
         <v>1378.1</v>
       </c>
     </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A181" s="13" t="s">
         <v>198</v>
       </c>
@@ -10573,7 +10573,7 @@
         <v>1378.1</v>
       </c>
     </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A182" s="13" t="s">
         <v>199</v>
       </c>
@@ -10620,7 +10620,7 @@
         <v>1394.8</v>
       </c>
     </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A183" s="13" t="s">
         <v>200</v>
       </c>
@@ -10667,7 +10667,7 @@
         <v>1405.9</v>
       </c>
     </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A184" s="13" t="s">
         <v>201</v>
       </c>
@@ -10714,7 +10714,7 @@
         <v>1417</v>
       </c>
     </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A185" s="13" t="s">
         <v>202</v>
       </c>
@@ -10761,7 +10761,7 @@
         <v>1428.1</v>
       </c>
     </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A186" s="13" t="s">
         <v>203</v>
       </c>
@@ -10808,7 +10808,7 @@
         <v>1433.7</v>
       </c>
     </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A187" s="13" t="s">
         <v>204</v>
       </c>
@@ -10855,7 +10855,7 @@
         <v>1444.8</v>
       </c>
     </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A188" s="13" t="s">
         <v>205</v>
       </c>
@@ -10902,7 +10902,7 @@
         <v>1455.9</v>
       </c>
     </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A189" s="13" t="s">
         <v>206</v>
       </c>
@@ -10949,7 +10949,7 @@
         <v>1461.5</v>
       </c>
     </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A190" s="13" t="s">
         <v>207</v>
       </c>
@@ -10996,7 +10996,7 @@
         <v>1467.1</v>
       </c>
     </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A191" s="13" t="s">
         <v>208</v>
       </c>
@@ -11043,7 +11043,7 @@
         <v>1472.7</v>
       </c>
     </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A192" s="13" t="s">
         <v>209</v>
       </c>
@@ -11090,7 +11090,7 @@
         <v>1467.1</v>
       </c>
     </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A193" s="13" t="s">
         <v>210</v>
       </c>
@@ -11137,7 +11137,7 @@
         <v>1467.1</v>
       </c>
     </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A194" s="13" t="s">
         <v>211</v>
       </c>
@@ -11184,7 +11184,7 @@
         <v>1461.5</v>
       </c>
     </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A195" s="13" t="s">
         <v>212</v>
       </c>
@@ -11231,7 +11231,7 @@
         <v>1483.7</v>
       </c>
     </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A196" s="13" t="s">
         <v>213</v>
       </c>
@@ -11278,7 +11278,7 @@
         <v>1494.8</v>
       </c>
     </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A197" s="13" t="s">
         <v>214</v>
       </c>
@@ -11325,7 +11325,7 @@
         <v>1511.5</v>
       </c>
     </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A198" s="13" t="s">
         <v>215</v>
       </c>
@@ -11372,7 +11372,7 @@
         <v>1522.6</v>
       </c>
     </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A199" s="13" t="s">
         <v>216</v>
       </c>
@@ -11419,7 +11419,7 @@
         <v>1550.4</v>
       </c>
     </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A200" s="13" t="s">
         <v>217</v>
       </c>
@@ -11466,7 +11466,7 @@
         <v>1589.3</v>
       </c>
     </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A201" s="13" t="s">
         <v>218</v>
       </c>
@@ -11513,7 +11513,7 @@
         <v>1617.1</v>
       </c>
     </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A202" s="13" t="s">
         <v>219</v>
       </c>
@@ -11560,7 +11560,7 @@
         <v>1644.9</v>
       </c>
     </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A203" s="13" t="s">
         <v>220</v>
       </c>
@@ -11607,7 +11607,7 @@
         <v>1656</v>
       </c>
     </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A204" s="13" t="s">
         <v>221</v>
       </c>
@@ -11654,7 +11654,7 @@
         <v>1661.6</v>
       </c>
     </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A205" s="13" t="s">
         <v>222</v>
       </c>
@@ -11701,7 +11701,7 @@
         <v>1672.7</v>
       </c>
     </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A206" s="13" t="s">
         <v>223</v>
       </c>
@@ -11748,7 +11748,7 @@
         <v>1700.5</v>
       </c>
     </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A207" s="13" t="s">
         <v>224</v>
       </c>
@@ -11795,7 +11795,7 @@
         <v>1711.6</v>
       </c>
     </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A208" s="13" t="s">
         <v>225</v>
       </c>
@@ -11842,7 +11842,7 @@
         <v>1733.8</v>
       </c>
     </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A209" s="13" t="s">
         <v>226</v>
       </c>
@@ -11889,7 +11889,7 @@
         <v>1772.7</v>
       </c>
     </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A210" s="13" t="s">
         <v>227</v>
       </c>
@@ -11936,7 +11936,7 @@
         <v>1800.5</v>
       </c>
     </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A211" s="13" t="s">
         <v>228</v>
       </c>
@@ -11983,7 +11983,7 @@
         <v>1828.3</v>
       </c>
     </row>
-    <row r="212" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A212" s="13" t="s">
         <v>229</v>
       </c>
@@ -12030,7 +12030,7 @@
         <v>1828.3</v>
       </c>
     </row>
-    <row r="213" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A213" s="13" t="s">
         <v>230</v>
       </c>
@@ -12077,7 +12077,7 @@
         <v>1867.2</v>
       </c>
     </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A214" s="13" t="s">
         <v>231</v>
       </c>
@@ -12124,7 +12124,7 @@
         <v>1883.9</v>
       </c>
     </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A215" s="13" t="s">
         <v>232</v>
       </c>
@@ -12171,7 +12171,7 @@
         <v>1889.5</v>
       </c>
     </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A216" s="13" t="s">
         <v>233</v>
       </c>
@@ -12218,7 +12218,7 @@
         <v>1906.2</v>
       </c>
     </row>
-    <row r="217" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A217" s="13" t="s">
         <v>234</v>
       </c>
@@ -12265,7 +12265,7 @@
         <v>1934</v>
       </c>
     </row>
-    <row r="218" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A218" s="13" t="s">
         <v>235</v>
       </c>
@@ -12312,7 +12312,7 @@
         <v>1950.7</v>
       </c>
     </row>
-    <row r="219" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A219" s="13" t="s">
         <v>236</v>
       </c>
@@ -12359,7 +12359,7 @@
         <v>1967.4</v>
       </c>
     </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A220" s="13" t="s">
         <v>237</v>
       </c>
@@ -12406,7 +12406,7 @@
         <v>1961.8</v>
       </c>
     </row>
-    <row r="221" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A221" s="13" t="s">
         <v>238</v>
       </c>
@@ -12453,7 +12453,7 @@
         <v>1967.4</v>
       </c>
     </row>
-    <row r="222" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A222" s="13" t="s">
         <v>239</v>
       </c>
@@ -12500,7 +12500,7 @@
         <v>1961.8</v>
       </c>
     </row>
-    <row r="223" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A223" s="13" t="s">
         <v>240</v>
       </c>
@@ -12547,7 +12547,7 @@
         <v>1934</v>
       </c>
     </row>
-    <row r="224" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A224" s="13" t="s">
         <v>241</v>
       </c>
@@ -12594,7 +12594,7 @@
         <v>1906.2</v>
       </c>
     </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A225" s="13" t="s">
         <v>242</v>
       </c>
@@ -12641,7 +12641,7 @@
         <v>1856.2</v>
       </c>
     </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A226" s="13" t="s">
         <v>243</v>
       </c>
@@ -12688,7 +12688,7 @@
         <v>1828.4</v>
       </c>
     </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A227" s="13" t="s">
         <v>244</v>
       </c>
@@ -12735,7 +12735,7 @@
         <v>1800.6</v>
       </c>
     </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A228" s="13" t="s">
         <v>245</v>
       </c>
@@ -12782,7 +12782,7 @@
         <v>1783.9</v>
       </c>
     </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A229" s="13" t="s">
         <v>246</v>
       </c>
@@ -12829,7 +12829,7 @@
         <v>1761.7</v>
       </c>
     </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A230" s="13" t="s">
         <v>247</v>
       </c>
@@ -12876,7 +12876,7 @@
         <v>1728.4</v>
       </c>
     </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A231" s="13" t="s">
         <v>248</v>
       </c>
@@ -12923,7 +12923,7 @@
         <v>1700.6</v>
       </c>
     </row>
-    <row r="232" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A232" s="13" t="s">
         <v>249</v>
       </c>
@@ -12970,7 +12970,7 @@
         <v>1683.9</v>
       </c>
     </row>
-    <row r="233" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A233" s="13" t="s">
         <v>250</v>
       </c>
@@ -13017,7 +13017,7 @@
         <v>1656.1</v>
       </c>
     </row>
-    <row r="234" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A234" s="13" t="s">
         <v>251</v>
       </c>
@@ -13064,7 +13064,7 @@
         <v>1639.4</v>
       </c>
     </row>
-    <row r="235" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A235" s="13" t="s">
         <v>252</v>
       </c>
@@ -13111,7 +13111,7 @@
         <v>1645</v>
       </c>
     </row>
-    <row r="236" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A236" s="13" t="s">
         <v>253</v>
       </c>
@@ -13158,7 +13158,7 @@
         <v>1628.3</v>
       </c>
     </row>
-    <row r="237" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A237" s="13" t="s">
         <v>254</v>
       </c>
@@ -13205,7 +13205,7 @@
         <v>1611.6</v>
       </c>
     </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A238" s="13" t="s">
         <v>255</v>
       </c>
@@ -13252,7 +13252,7 @@
         <v>1578.3</v>
       </c>
     </row>
-    <row r="239" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A239" s="13" t="s">
         <v>256</v>
       </c>
@@ -13299,7 +13299,7 @@
         <v>1561.6</v>
       </c>
     </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A240" s="13" t="s">
         <v>257</v>
       </c>
@@ -13346,7 +13346,7 @@
         <v>1550.5</v>
       </c>
     </row>
-    <row r="241" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A241" s="13" t="s">
         <v>258</v>
       </c>
@@ -13393,7 +13393,7 @@
         <v>1550.5</v>
       </c>
     </row>
-    <row r="242" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A242" s="13" t="s">
         <v>259</v>
       </c>
@@ -13440,7 +13440,7 @@
         <v>1550.5</v>
       </c>
     </row>
-    <row r="243" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A243" s="13" t="s">
         <v>260</v>
       </c>
@@ -13487,7 +13487,7 @@
         <v>1561.6</v>
       </c>
     </row>
-    <row r="244" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A244" s="13" t="s">
         <v>261</v>
       </c>
@@ -13534,7 +13534,7 @@
         <v>1556</v>
       </c>
     </row>
-    <row r="245" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A245" s="13" t="s">
         <v>262</v>
       </c>
@@ -13581,7 +13581,7 @@
         <v>1550.4</v>
       </c>
     </row>
-    <row r="246" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A246" s="13" t="s">
         <v>263</v>
       </c>
@@ -13628,7 +13628,7 @@
         <v>1544.8</v>
       </c>
     </row>
-    <row r="247" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A247" s="13" t="s">
         <v>264</v>
       </c>
@@ -13675,7 +13675,7 @@
         <v>1539.2</v>
       </c>
     </row>
-    <row r="248" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A248" s="13" t="s">
         <v>265</v>
       </c>
@@ -13722,7 +13722,7 @@
         <v>1550.3</v>
       </c>
     </row>
-    <row r="249" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A249" s="13" t="s">
         <v>266</v>
       </c>
@@ -13769,7 +13769,7 @@
         <v>1578.1</v>
       </c>
     </row>
-    <row r="250" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A250" s="13" t="s">
         <v>267</v>
       </c>
@@ -13816,7 +13816,7 @@
         <v>1594.8</v>
       </c>
     </row>
-    <row r="251" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A251" s="13" t="s">
         <v>268</v>
       </c>
@@ -13863,7 +13863,7 @@
         <v>1600.4</v>
       </c>
     </row>
-    <row r="252" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A252" s="13" t="s">
         <v>269</v>
       </c>
@@ -13910,7 +13910,7 @@
         <v>1578.2</v>
       </c>
     </row>
-    <row r="253" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A253" s="13" t="s">
         <v>270</v>
       </c>
@@ -13957,7 +13957,7 @@
         <v>1578.2</v>
       </c>
     </row>
-    <row r="254" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A254" s="13" t="s">
         <v>271</v>
       </c>
@@ -14004,7 +14004,7 @@
         <v>1556</v>
       </c>
     </row>
-    <row r="255" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A255" s="13" t="s">
         <v>272</v>
       </c>
@@ -14051,7 +14051,7 @@
         <v>1539.3</v>
       </c>
     </row>
-    <row r="256" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A256" s="13" t="s">
         <v>273</v>
       </c>
@@ -14098,7 +14098,7 @@
         <v>1550.4</v>
       </c>
     </row>
-    <row r="257" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A257" s="13" t="s">
         <v>274</v>
       </c>
@@ -14145,7 +14145,7 @@
         <v>1556</v>
       </c>
     </row>
-    <row r="258" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A258" s="13" t="s">
         <v>275</v>
       </c>
@@ -14192,7 +14192,7 @@
         <v>1572.7</v>
       </c>
     </row>
-    <row r="259" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="259" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A259" s="13" t="s">
         <v>276</v>
       </c>
@@ -14239,7 +14239,7 @@
         <v>1544.9</v>
       </c>
     </row>
-    <row r="260" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A260" s="13" t="s">
         <v>277</v>
       </c>
@@ -14286,7 +14286,7 @@
         <v>1550.5</v>
       </c>
     </row>
-    <row r="261" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A261" s="13" t="s">
         <v>278</v>
       </c>
@@ -14333,7 +14333,7 @@
         <v>1539.4</v>
       </c>
     </row>
-    <row r="262" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="262" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A262" s="13" t="s">
         <v>279</v>
       </c>
@@ -14380,7 +14380,7 @@
         <v>1517.2</v>
       </c>
     </row>
-    <row r="263" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="263" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A263" s="13" t="s">
         <v>280</v>
       </c>
@@ -14427,7 +14427,7 @@
         <v>1506.1</v>
       </c>
     </row>
-    <row r="264" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="264" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A264" s="13" t="s">
         <v>281</v>
       </c>
@@ -14474,7 +14474,7 @@
         <v>1489.4</v>
       </c>
     </row>
-    <row r="265" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A265" s="13" t="s">
         <v>282</v>
       </c>
@@ -14521,7 +14521,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="266" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="266" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A266" s="13" t="s">
         <v>283</v>
       </c>
@@ -14568,7 +14568,7 @@
         <v>1483.9</v>
       </c>
     </row>
-    <row r="267" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="267" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A267" s="13" t="s">
         <v>284</v>
       </c>
@@ -14615,7 +14615,7 @@
         <v>1483.9</v>
       </c>
     </row>
-    <row r="268" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="268" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A268" s="13" t="s">
         <v>285</v>
       </c>
@@ -14662,7 +14662,7 @@
         <v>1478.3</v>
       </c>
     </row>
-    <row r="269" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="269" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A269" s="13" t="s">
         <v>286</v>
       </c>
@@ -14709,7 +14709,7 @@
         <v>1467.2</v>
       </c>
     </row>
-    <row r="270" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="270" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A270" s="13" t="s">
         <v>287</v>
       </c>
@@ -14756,7 +14756,7 @@
         <v>1433.9</v>
       </c>
     </row>
-    <row r="271" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A271" s="13" t="s">
         <v>288</v>
       </c>
@@ -14803,7 +14803,7 @@
         <v>1417.2</v>
       </c>
     </row>
-    <row r="272" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="272" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A272" s="13" t="s">
         <v>289</v>
       </c>
@@ -14850,7 +14850,7 @@
         <v>1395</v>
       </c>
     </row>
-    <row r="273" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="273" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A273" s="13" t="s">
         <v>290</v>
       </c>
@@ -14897,7 +14897,7 @@
         <v>1400.6</v>
       </c>
     </row>
-    <row r="274" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="274" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A274" s="13" t="s">
         <v>291</v>
       </c>
@@ -14944,7 +14944,7 @@
         <v>1378.4</v>
       </c>
     </row>
-    <row r="275" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="275" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A275" s="13" t="s">
         <v>292</v>
       </c>
@@ -14991,7 +14991,7 @@
         <v>1367.3</v>
       </c>
     </row>
-    <row r="276" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A276" s="13" t="s">
         <v>293</v>
       </c>
@@ -15038,7 +15038,7 @@
         <v>1350.6</v>
       </c>
     </row>
-    <row r="277" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="277" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A277" s="13" t="s">
         <v>294</v>
       </c>
@@ -15085,7 +15085,7 @@
         <v>1356.2</v>
       </c>
     </row>
-    <row r="278" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="278" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A278" s="13" t="s">
         <v>295</v>
       </c>
@@ -15132,7 +15132,7 @@
         <v>1350.6</v>
       </c>
     </row>
-    <row r="279" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="279" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A279" s="13" t="s">
         <v>296</v>
       </c>
@@ -15179,7 +15179,7 @@
         <v>1350.6</v>
       </c>
     </row>
-    <row r="280" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="280" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A280" s="13" t="s">
         <v>297</v>
       </c>
@@ -15226,7 +15226,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="281" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="281" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A281" s="13" t="s">
         <v>298</v>
       </c>
@@ -15273,7 +15273,7 @@
         <v>1350.6</v>
       </c>
     </row>
-    <row r="282" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="282" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A282" s="13" t="s">
         <v>299</v>
       </c>
@@ -15320,7 +15320,7 @@
         <v>1378.4</v>
       </c>
     </row>
-    <row r="283" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="283" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A283" s="13" t="s">
         <v>300</v>
       </c>
@@ -15367,7 +15367,7 @@
         <v>1372.8</v>
       </c>
     </row>
-    <row r="284" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="284" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A284" s="13" t="s">
         <v>301</v>
       </c>
@@ -15414,7 +15414,7 @@
         <v>1383.9</v>
       </c>
     </row>
-    <row r="285" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="285" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A285" s="13" t="s">
         <v>302</v>
       </c>
@@ -15461,7 +15461,7 @@
         <v>1395</v>
       </c>
     </row>
-    <row r="286" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="286" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A286" s="13" t="s">
         <v>303</v>
       </c>
@@ -15508,7 +15508,7 @@
         <v>1411.7</v>
       </c>
     </row>
-    <row r="287" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="287" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A287" s="13" t="s">
         <v>304</v>
       </c>
@@ -15555,7 +15555,7 @@
         <v>1422.8</v>
       </c>
     </row>
-    <row r="288" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="288" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A288" s="13" t="s">
         <v>305</v>
       </c>
@@ -15602,7 +15602,7 @@
         <v>1439.5</v>
       </c>
     </row>
-    <row r="289" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="289" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A289" s="13" t="s">
         <v>306</v>
       </c>
@@ -15649,7 +15649,7 @@
         <v>1467.3</v>
       </c>
     </row>
-    <row r="290" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="290" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A290" s="13" t="s">
         <v>307</v>
       </c>
@@ -15696,7 +15696,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="291" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="291" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A291" s="13" t="s">
         <v>308</v>
       </c>
@@ -15743,7 +15743,7 @@
         <v>1511.8</v>
       </c>
     </row>
-    <row r="292" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="292" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A292" s="13" t="s">
         <v>309</v>
       </c>
@@ -15790,7 +15790,7 @@
         <v>1550.7</v>
       </c>
     </row>
-    <row r="293" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="293" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A293" s="13" t="s">
         <v>310</v>
       </c>
@@ -15837,7 +15837,7 @@
         <v>1567.4</v>
       </c>
     </row>
-    <row r="294" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="294" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A294" s="13" t="s">
         <v>311</v>
       </c>
@@ -15884,7 +15884,7 @@
         <v>1584.1</v>
       </c>
     </row>
-    <row r="295" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="295" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A295" s="13" t="s">
         <v>312</v>
       </c>
@@ -15931,7 +15931,7 @@
         <v>1606.3</v>
       </c>
     </row>
-    <row r="296" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="296" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A296" s="13" t="s">
         <v>313</v>
       </c>
@@ -15978,7 +15978,7 @@
         <v>1634.1</v>
       </c>
     </row>
-    <row r="297" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="297" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A297" s="13" t="s">
         <v>314</v>
       </c>
@@ -16025,7 +16025,7 @@
         <v>1650.8</v>
       </c>
     </row>
-    <row r="298" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="298" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A298" s="13" t="s">
         <v>315</v>
       </c>
@@ -16072,7 +16072,7 @@
         <v>1656.4</v>
       </c>
     </row>
-    <row r="299" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="299" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A299" s="13" t="s">
         <v>316</v>
       </c>
@@ -16119,7 +16119,7 @@
         <v>1684.2</v>
       </c>
     </row>
-    <row r="300" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="300" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A300" s="13" t="s">
         <v>317</v>
       </c>
@@ -16166,7 +16166,7 @@
         <v>1717.5</v>
       </c>
     </row>
-    <row r="301" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="301" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A301" s="13" t="s">
         <v>318</v>
       </c>
@@ -16213,7 +16213,7 @@
         <v>1728.6</v>
       </c>
     </row>
-    <row r="302" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="302" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A302" s="13" t="s">
         <v>319</v>
       </c>
@@ -16260,7 +16260,7 @@
         <v>1750.8</v>
       </c>
     </row>
-    <row r="303" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="303" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A303" s="13" t="s">
         <v>320</v>
       </c>
@@ -16307,7 +16307,7 @@
         <v>1795.2</v>
       </c>
     </row>
-    <row r="304" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="304" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A304" s="13" t="s">
         <v>321</v>
       </c>
@@ -16354,7 +16354,7 @@
         <v>1806.3</v>
       </c>
     </row>
-    <row r="305" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="305" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A305" s="13" t="s">
         <v>322</v>
       </c>
@@ -16401,7 +16401,7 @@
         <v>1811.9</v>
       </c>
     </row>
-    <row r="306" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="306" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A306" s="13" t="s">
         <v>323</v>
       </c>
@@ -16448,7 +16448,7 @@
         <v>1806.3</v>
       </c>
     </row>
-    <row r="307" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="307" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A307" s="13" t="s">
         <v>324</v>
       </c>
@@ -16495,7 +16495,7 @@
         <v>1817.4</v>
       </c>
     </row>
-    <row r="308" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="308" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A308" s="13" t="s">
         <v>325</v>
       </c>
@@ -16542,7 +16542,7 @@
         <v>1817.4</v>
       </c>
     </row>
-    <row r="309" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="309" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A309" s="13" t="s">
         <v>326</v>
       </c>
@@ -16589,7 +16589,7 @@
         <v>1823</v>
       </c>
     </row>
-    <row r="310" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="310" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A310" s="13" t="s">
         <v>327</v>
       </c>
@@ -16636,7 +16636,7 @@
         <v>1850.8</v>
       </c>
     </row>
-    <row r="311" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="311" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A311" s="13" t="s">
         <v>328</v>
       </c>
@@ -16683,7 +16683,7 @@
         <v>1867.5</v>
       </c>
     </row>
-    <row r="312" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="312" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A312" s="13" t="s">
         <v>329</v>
       </c>
@@ -16730,7 +16730,7 @@
         <v>1884.2</v>
       </c>
     </row>
-    <row r="313" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="313" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A313" s="13" t="s">
         <v>330</v>
       </c>
@@ -16777,7 +16777,7 @@
         <v>1873.1</v>
       </c>
     </row>
-    <row r="314" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="314" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A314" s="13" t="s">
         <v>331</v>
       </c>
@@ -16824,7 +16824,7 @@
         <v>1889.8</v>
       </c>
     </row>
-    <row r="315" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="315" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A315" s="13" t="s">
         <v>332</v>
       </c>
@@ -16871,7 +16871,7 @@
         <v>1917.6</v>
       </c>
     </row>
-    <row r="316" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="316" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A316" s="13" t="s">
         <v>333</v>
       </c>
@@ -16918,7 +16918,7 @@
         <v>1939.8</v>
       </c>
     </row>
-    <row r="317" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="317" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A317" s="13" t="s">
         <v>334</v>
       </c>
@@ -16965,7 +16965,7 @@
         <v>1945.4</v>
       </c>
     </row>
-    <row r="318" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="318" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A318" s="13" t="s">
         <v>335</v>
       </c>
@@ -17012,7 +17012,7 @@
         <v>1951</v>
       </c>
     </row>
-    <row r="319" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="319" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A319" s="13" t="s">
         <v>336</v>
       </c>
@@ -17059,7 +17059,7 @@
         <v>1962.1</v>
       </c>
     </row>
-    <row r="320" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="320" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A320" s="13" t="s">
         <v>337</v>
       </c>
@@ -17106,7 +17106,7 @@
         <v>1984.3</v>
       </c>
     </row>
-    <row r="321" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="321" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A321" s="13" t="s">
         <v>338</v>
       </c>
@@ -17153,7 +17153,7 @@
         <v>2012.1</v>
       </c>
     </row>
-    <row r="322" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="322" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A322" s="13" t="s">
         <v>339</v>
       </c>
@@ -17200,7 +17200,7 @@
         <v>2045.4</v>
       </c>
     </row>
-    <row r="323" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="323" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A323" s="13" t="s">
         <v>340</v>
       </c>
@@ -17247,7 +17247,7 @@
         <v>2067.6</v>
       </c>
     </row>
-    <row r="324" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="324" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A324" s="13" t="s">
         <v>341</v>
       </c>
@@ -17294,7 +17294,7 @@
         <v>2106.5</v>
       </c>
     </row>
-    <row r="325" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="325" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A325" s="13" t="s">
         <v>342</v>
       </c>
@@ -17341,7 +17341,7 @@
         <v>2134.3000000000002</v>
       </c>
     </row>
-    <row r="326" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="326" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A326" s="13" t="s">
         <v>343</v>
       </c>
@@ -17388,7 +17388,7 @@
         <v>2151</v>
       </c>
     </row>
-    <row r="327" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="327" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A327" s="13" t="s">
         <v>344</v>
       </c>
@@ -17435,7 +17435,7 @@
         <v>2162.1</v>
       </c>
     </row>
-    <row r="328" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="328" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A328" s="13" t="s">
         <v>345</v>
       </c>
@@ -17482,7 +17482,7 @@
         <v>2173.1999999999998</v>
       </c>
     </row>
-    <row r="329" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="329" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A329" s="13" t="s">
         <v>346</v>
       </c>
@@ -17529,7 +17529,7 @@
         <v>2189.9</v>
       </c>
     </row>
-    <row r="330" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="330" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A330" s="13" t="s">
         <v>347</v>
       </c>
@@ -17576,7 +17576,7 @@
         <v>2217.6999999999998</v>
       </c>
     </row>
-    <row r="331" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="331" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A331" s="13" t="s">
         <v>348</v>
       </c>
@@ -17623,7 +17623,7 @@
         <v>2239.9</v>
       </c>
     </row>
-    <row r="332" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="332" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A332" s="13" t="s">
         <v>349</v>
       </c>
@@ -17670,7 +17670,7 @@
         <v>2223.1999999999998</v>
       </c>
     </row>
-    <row r="333" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="333" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A333" s="13" t="s">
         <v>350</v>
       </c>
@@ -17717,7 +17717,7 @@
         <v>2228.8000000000002</v>
       </c>
     </row>
-    <row r="334" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="334" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A334" s="13" t="s">
         <v>351</v>
       </c>
@@ -17764,7 +17764,7 @@
         <v>2223.1999999999998</v>
       </c>
     </row>
-    <row r="335" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="335" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A335" s="13" t="s">
         <v>352</v>
       </c>
@@ -17811,7 +17811,7 @@
         <v>2251</v>
       </c>
     </row>
-    <row r="336" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="336" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A336" s="13" t="s">
         <v>353</v>
       </c>
@@ -17858,7 +17858,7 @@
         <v>2278.8000000000002</v>
       </c>
     </row>
-    <row r="337" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="337" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A337" s="13" t="s">
         <v>354</v>
       </c>
@@ -17905,7 +17905,7 @@
         <v>2317.6999999999998</v>
       </c>
     </row>
-    <row r="338" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="338" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A338" s="13" t="s">
         <v>355</v>
       </c>
@@ -17952,7 +17952,7 @@
         <v>2339.9</v>
       </c>
     </row>
-    <row r="339" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="339" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A339" s="13" t="s">
         <v>356</v>
       </c>
@@ -17999,7 +17999,7 @@
         <v>2351</v>
       </c>
     </row>
-    <row r="340" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="340" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A340" s="13" t="s">
         <v>357</v>
       </c>
@@ -18046,7 +18046,7 @@
         <v>2367.6999999999998</v>
       </c>
     </row>
-    <row r="341" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="341" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A341" s="13" t="s">
         <v>358</v>
       </c>
@@ -18093,7 +18093,7 @@
         <v>2384.4</v>
       </c>
     </row>
-    <row r="342" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="342" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A342" s="13" t="s">
         <v>359</v>
       </c>
@@ -18140,7 +18140,7 @@
         <v>2412.1999999999998</v>
       </c>
     </row>
-    <row r="343" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="343" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A343" s="13" t="s">
         <v>360</v>
       </c>
@@ -18187,7 +18187,7 @@
         <v>2440</v>
       </c>
     </row>
-    <row r="344" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="344" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A344" s="13" t="s">
         <v>361</v>
       </c>
@@ -18234,7 +18234,7 @@
         <v>2434.4</v>
       </c>
     </row>
-    <row r="345" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="345" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A345" s="13" t="s">
         <v>362</v>
       </c>
@@ -18281,7 +18281,7 @@
         <v>2423.3000000000002</v>
       </c>
     </row>
-    <row r="346" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="346" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A346" s="13" t="s">
         <v>363</v>
       </c>
@@ -18328,7 +18328,7 @@
         <v>2384.4</v>
       </c>
     </row>
-    <row r="347" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="347" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A347" s="13" t="s">
         <v>364</v>
       </c>
@@ -18375,7 +18375,7 @@
         <v>2356.6</v>
       </c>
     </row>
-    <row r="348" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="348" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A348" s="13" t="s">
         <v>365</v>
       </c>
@@ -18422,7 +18422,7 @@
         <v>2328.8000000000002</v>
       </c>
     </row>
-    <row r="349" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="349" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A349" s="13" t="s">
         <v>366</v>
       </c>
@@ -18469,7 +18469,7 @@
         <v>2312.1</v>
       </c>
     </row>
-    <row r="350" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="350" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A350" s="13" t="s">
         <v>367</v>
       </c>
@@ -18516,7 +18516,7 @@
         <v>2273.1999999999998</v>
       </c>
     </row>
-    <row r="351" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="351" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A351" s="13" t="s">
         <v>368</v>
       </c>
@@ -18563,7 +18563,7 @@
         <v>2256.5</v>
       </c>
     </row>
-    <row r="352" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="352" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A352" s="13" t="s">
         <v>369</v>
       </c>
@@ -18610,7 +18610,7 @@
         <v>2217.6</v>
       </c>
     </row>
-    <row r="353" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="353" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A353" s="13" t="s">
         <v>370</v>
       </c>
@@ -18657,7 +18657,7 @@
         <v>2212</v>
       </c>
     </row>
-    <row r="354" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="354" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A354" s="13" t="s">
         <v>371</v>
       </c>
@@ -18704,7 +18704,7 @@
         <v>2162</v>
       </c>
     </row>
-    <row r="355" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="355" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A355" s="13" t="s">
         <v>372</v>
       </c>
@@ -18751,7 +18751,7 @@
         <v>2112</v>
       </c>
     </row>
-    <row r="356" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="356" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A356" s="13" t="s">
         <v>373</v>
       </c>
@@ -18798,7 +18798,7 @@
         <v>2062</v>
       </c>
     </row>
-    <row r="357" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="357" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A357" s="13" t="s">
         <v>374</v>
       </c>
@@ -18845,7 +18845,7 @@
         <v>2023.1</v>
       </c>
     </row>
-    <row r="358" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="358" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A358" s="13" t="s">
         <v>375</v>
       </c>
@@ -18892,7 +18892,7 @@
         <v>1984.2</v>
       </c>
     </row>
-    <row r="359" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="359" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A359" s="13" t="s">
         <v>376</v>
       </c>
@@ -18939,7 +18939,7 @@
         <v>1956.4</v>
       </c>
     </row>
-    <row r="360" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="360" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A360" s="13" t="s">
         <v>377</v>
       </c>
@@ -18986,7 +18986,7 @@
         <v>1917.5</v>
       </c>
     </row>
-    <row r="361" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="361" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A361" s="13" t="s">
         <v>378</v>
       </c>
@@ -19033,7 +19033,7 @@
         <v>1878.6</v>
       </c>
     </row>
-    <row r="362" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="362" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A362" s="13" t="s">
         <v>379</v>
       </c>
@@ -19080,7 +19080,7 @@
         <v>1861.9</v>
       </c>
     </row>
-    <row r="363" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="363" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A363" s="13" t="s">
         <v>380</v>
       </c>
@@ -19127,7 +19127,7 @@
         <v>1845.2</v>
       </c>
     </row>
-    <row r="364" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="364" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A364" s="13" t="s">
         <v>381</v>
       </c>
@@ -19174,7 +19174,7 @@
         <v>1834.1</v>
       </c>
     </row>
-    <row r="365" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="365" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A365" s="13" t="s">
         <v>382</v>
       </c>
@@ -19221,7 +19221,7 @@
         <v>1817.4</v>
       </c>
     </row>
-    <row r="366" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="366" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A366" s="13" t="s">
         <v>383</v>
       </c>
@@ -19268,7 +19268,7 @@
         <v>1823</v>
       </c>
     </row>
-    <row r="367" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="367" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A367" s="13" t="s">
         <v>384</v>
       </c>
@@ -19315,7 +19315,7 @@
         <v>1839.7</v>
       </c>
     </row>
-    <row r="368" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="368" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A368" s="13" t="s">
         <v>385</v>
       </c>
@@ -19362,7 +19362,7 @@
         <v>1845.3</v>
       </c>
     </row>
-    <row r="369" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="369" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A369" s="13" t="s">
         <v>386</v>
       </c>
@@ -19409,7 +19409,7 @@
         <v>1862</v>
       </c>
     </row>
-    <row r="370" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="370" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A370" s="13" t="s">
         <v>387</v>
       </c>
@@ -19456,7 +19456,7 @@
         <v>1845.3</v>
       </c>
     </row>
-    <row r="371" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="371" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A371" s="13" t="s">
         <v>388</v>
       </c>
@@ -19503,7 +19503,7 @@
         <v>1845.3</v>
       </c>
     </row>
-    <row r="372" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="372" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A372" s="13" t="s">
         <v>389</v>
       </c>
@@ -19550,7 +19550,7 @@
         <v>1839.7</v>
       </c>
     </row>
-    <row r="373" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="373" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A373" s="13" t="s">
         <v>390</v>
       </c>
@@ -19597,7 +19597,7 @@
         <v>1878.6</v>
       </c>
     </row>
-    <row r="374" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="374" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A374" s="13" t="s">
         <v>391</v>
       </c>
@@ -19644,7 +19644,7 @@
         <v>1900.8</v>
       </c>
     </row>
-    <row r="375" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="375" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A375" s="13" t="s">
         <v>392</v>
       </c>
@@ -19691,7 +19691,7 @@
         <v>1906.4</v>
       </c>
     </row>
-    <row r="376" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="376" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A376" s="13" t="s">
         <v>393</v>
       </c>
@@ -19738,7 +19738,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="377" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="377" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A377" s="13" t="s">
         <v>394</v>
       </c>
@@ -19785,7 +19785,7 @@
         <v>1939.8</v>
       </c>
     </row>
-    <row r="378" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="378" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A378" s="13" t="s">
         <v>395</v>
       </c>
@@ -19832,7 +19832,7 @@
         <v>1945.4</v>
       </c>
     </row>
-    <row r="379" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="379" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A379" s="13" t="s">
         <v>396</v>
       </c>
@@ -19879,7 +19879,7 @@
         <v>1939.8</v>
       </c>
     </row>
-    <row r="380" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="380" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A380" s="13" t="s">
         <v>397</v>
       </c>
@@ -19926,7 +19926,7 @@
         <v>1956.5</v>
       </c>
     </row>
-    <row r="381" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="381" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A381" s="13" t="s">
         <v>398</v>
       </c>
@@ -19973,7 +19973,7 @@
         <v>1934.3</v>
       </c>
     </row>
-    <row r="382" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="382" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A382" s="13" t="s">
         <v>399</v>
       </c>
@@ -20020,7 +20020,7 @@
         <v>1917.6</v>
       </c>
     </row>
-    <row r="383" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="383" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A383" s="13" t="s">
         <v>400</v>
       </c>
@@ -20067,7 +20067,7 @@
         <v>1889.8</v>
       </c>
     </row>
-    <row r="384" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="384" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A384" s="13" t="s">
         <v>401</v>
       </c>
@@ -20114,7 +20114,7 @@
         <v>1906.5</v>
       </c>
     </row>
-    <row r="385" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="385" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A385" s="13" t="s">
         <v>402</v>
       </c>
@@ -20161,7 +20161,7 @@
         <v>1906.5</v>
       </c>
     </row>
-    <row r="386" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="386" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A386" s="13" t="s">
         <v>403</v>
       </c>
@@ -20208,7 +20208,7 @@
         <v>1934.3</v>
       </c>
     </row>
-    <row r="387" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="387" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A387" s="13" t="s">
         <v>404</v>
       </c>
@@ -20255,7 +20255,7 @@
         <v>1962.1</v>
       </c>
     </row>
-    <row r="388" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="388" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A388" s="13" t="s">
         <v>405</v>
       </c>
@@ -20302,7 +20302,7 @@
         <v>1978.8</v>
       </c>
     </row>
-    <row r="389" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="389" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A389" s="13" t="s">
         <v>406</v>
       </c>
@@ -20349,7 +20349,7 @@
         <v>1984.4</v>
       </c>
     </row>
-    <row r="390" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="390" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A390" s="13" t="s">
         <v>407</v>
       </c>
@@ -20396,7 +20396,7 @@
         <v>1973.3</v>
       </c>
     </row>
-    <row r="391" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="391" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A391" s="13" t="s">
         <v>408</v>
       </c>
@@ -20443,7 +20443,7 @@
         <v>1945.5</v>
       </c>
     </row>
-    <row r="392" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="392" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A392" s="13" t="s">
         <v>409</v>
       </c>
@@ -20490,7 +20490,7 @@
         <v>1951.1</v>
       </c>
     </row>
-    <row r="393" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="393" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A393" s="13" t="s">
         <v>410</v>
       </c>
@@ -20537,7 +20537,7 @@
         <v>1973.3</v>
       </c>
     </row>
-    <row r="394" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="394" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A394" s="13" t="s">
         <v>411</v>
       </c>
@@ -20584,7 +20584,7 @@
         <v>2001.1</v>
       </c>
     </row>
-    <row r="395" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="395" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A395" s="13" t="s">
         <v>412</v>
       </c>
@@ -20631,7 +20631,7 @@
         <v>2006.7</v>
       </c>
     </row>
-    <row r="396" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="396" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A396" s="13" t="s">
         <v>413</v>
       </c>
@@ -20678,7 +20678,7 @@
         <v>2001.1</v>
       </c>
     </row>
-    <row r="397" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="397" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A397" s="13" t="s">
         <v>414</v>
       </c>
@@ -20725,7 +20725,7 @@
         <v>1973.3</v>
       </c>
     </row>
-    <row r="398" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="398" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A398" s="13" t="s">
         <v>415</v>
       </c>
@@ -20772,7 +20772,7 @@
         <v>1956.6</v>
       </c>
     </row>
-    <row r="399" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="399" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A399" s="13" t="s">
         <v>416</v>
       </c>
@@ -20819,7 +20819,7 @@
         <v>1951</v>
       </c>
     </row>
-    <row r="400" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="400" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A400" s="13" t="s">
         <v>417</v>
       </c>
@@ -20866,7 +20866,7 @@
         <v>1973.2</v>
       </c>
     </row>
-    <row r="401" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="401" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A401" s="13" t="s">
         <v>418</v>
       </c>
@@ -20913,7 +20913,7 @@
         <v>1989.9</v>
       </c>
     </row>
-    <row r="402" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="402" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A402" s="13" t="s">
         <v>419</v>
       </c>
@@ -20960,7 +20960,7 @@
         <v>1984.3</v>
       </c>
     </row>
-    <row r="403" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="403" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A403" s="13" t="s">
         <v>420</v>
       </c>
@@ -21007,7 +21007,7 @@
         <v>1967.6</v>
       </c>
     </row>
-    <row r="404" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="404" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A404" s="13" t="s">
         <v>421</v>
       </c>
@@ -21054,7 +21054,7 @@
         <v>1962</v>
       </c>
     </row>
-    <row r="405" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="405" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A405" s="13" t="s">
         <v>422</v>
       </c>
@@ -21101,7 +21101,7 @@
         <v>1956.4</v>
       </c>
     </row>
-    <row r="406" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="406" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A406" s="13" t="s">
         <v>423</v>
       </c>
@@ -21148,7 +21148,7 @@
         <v>1950.8</v>
       </c>
     </row>
-    <row r="407" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="407" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A407" s="13" t="s">
         <v>424</v>
       </c>
@@ -21195,7 +21195,7 @@
         <v>1956.4</v>
       </c>
     </row>
-    <row r="408" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="408" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A408" s="13" t="s">
         <v>425</v>
       </c>
@@ -21242,7 +21242,7 @@
         <v>1962</v>
       </c>
     </row>
-    <row r="409" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="409" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A409" s="13" t="s">
         <v>426</v>
       </c>
@@ -21289,7 +21289,7 @@
         <v>1967.6</v>
       </c>
     </row>
-    <row r="410" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="410" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A410" s="13" t="s">
         <v>427</v>
       </c>
@@ -21336,7 +21336,7 @@
         <v>1978.7</v>
       </c>
     </row>
-    <row r="411" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="411" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A411" s="13" t="s">
         <v>428</v>
       </c>
@@ -21383,7 +21383,7 @@
         <v>2006.5</v>
       </c>
     </row>
-    <row r="412" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="412" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A412" s="13" t="s">
         <v>429</v>
       </c>
@@ -21430,7 +21430,7 @@
         <v>2045.4</v>
       </c>
     </row>
-    <row r="413" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="413" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A413" s="13" t="s">
         <v>430</v>
       </c>
@@ -21477,7 +21477,7 @@
         <v>2073.1999999999998</v>
       </c>
     </row>
-    <row r="414" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="414" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A414" s="13" t="s">
         <v>431</v>
       </c>
@@ -21524,7 +21524,7 @@
         <v>2101</v>
       </c>
     </row>
-    <row r="415" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="415" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A415" s="13" t="s">
         <v>432</v>
       </c>
@@ -21571,7 +21571,7 @@
         <v>2151</v>
       </c>
     </row>
-    <row r="416" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="416" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A416" s="13" t="s">
         <v>433</v>
       </c>
@@ -21618,7 +21618,7 @@
         <v>2167.6999999999998</v>
       </c>
     </row>
-    <row r="417" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="417" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A417" s="13" t="s">
         <v>434</v>
       </c>
@@ -21665,7 +21665,7 @@
         <v>2178.8000000000002</v>
       </c>
     </row>
-    <row r="418" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="418" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A418" s="13" t="s">
         <v>435</v>
       </c>
@@ -21712,7 +21712,7 @@
         <v>2167.6999999999998</v>
       </c>
     </row>
-    <row r="419" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="419" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A419" s="13" t="s">
         <v>436</v>
       </c>
@@ -21759,7 +21759,7 @@
         <v>2195.5</v>
       </c>
     </row>
-    <row r="420" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="420" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A420" s="13" t="s">
         <v>437</v>
       </c>
@@ -21806,7 +21806,7 @@
         <v>2206.6</v>
       </c>
     </row>
-    <row r="421" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="421" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A421" s="13" t="s">
         <v>438</v>
       </c>
@@ -21853,7 +21853,7 @@
         <v>2239.9</v>
       </c>
     </row>
-    <row r="422" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="422" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A422" s="13" t="s">
         <v>439</v>
       </c>
@@ -21900,7 +21900,7 @@
         <v>2234.3000000000002</v>
       </c>
     </row>
-    <row r="423" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="423" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A423" s="13" t="s">
         <v>440</v>
       </c>
@@ -21947,7 +21947,7 @@
         <v>2228.6999999999998</v>
       </c>
     </row>
-    <row r="424" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="424" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A424" s="13" t="s">
         <v>441</v>
       </c>
@@ -21994,7 +21994,7 @@
         <v>2212</v>
       </c>
     </row>
-    <row r="425" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="425" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A425" s="13" t="s">
         <v>442</v>
       </c>
@@ -22041,7 +22041,7 @@
         <v>2206.4</v>
       </c>
     </row>
-    <row r="426" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="426" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A426" s="13" t="s">
         <v>443</v>
       </c>
@@ -22088,7 +22088,7 @@
         <v>2195.3000000000002</v>
       </c>
     </row>
-    <row r="427" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="427" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A427" s="13" t="s">
         <v>444</v>
       </c>
@@ -22135,7 +22135,7 @@
         <v>2212</v>
       </c>
     </row>
-    <row r="428" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="428" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A428" s="13" t="s">
         <v>445</v>
       </c>
@@ -22182,7 +22182,7 @@
         <v>2200.9</v>
       </c>
     </row>
-    <row r="429" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="429" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A429" s="13" t="s">
         <v>446</v>
       </c>
@@ -22229,7 +22229,7 @@
         <v>2206.5</v>
       </c>
     </row>
-    <row r="430" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="430" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A430" s="13" t="s">
         <v>447</v>
       </c>
@@ -22276,7 +22276,7 @@
         <v>2212.1</v>
       </c>
     </row>
-    <row r="431" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="431" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A431" s="13" t="s">
         <v>448</v>
       </c>
@@ -22323,7 +22323,7 @@
         <v>2217.6999999999998</v>
       </c>
     </row>
-    <row r="432" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="432" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A432" s="13" t="s">
         <v>449</v>
       </c>
@@ -22370,7 +22370,7 @@
         <v>2217.6999999999998</v>
       </c>
     </row>
-    <row r="433" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="433" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A433" s="13" t="s">
         <v>450</v>
       </c>
@@ -22417,7 +22417,7 @@
         <v>2212.1</v>
       </c>
     </row>
-    <row r="434" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="434" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A434" s="13" t="s">
         <v>451</v>
       </c>
@@ -22464,7 +22464,7 @@
         <v>2195.4</v>
       </c>
     </row>
-    <row r="435" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="435" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A435" s="13" t="s">
         <v>452</v>
       </c>
@@ -22511,7 +22511,7 @@
         <v>2201</v>
       </c>
     </row>
-    <row r="436" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="436" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A436" s="13" t="s">
         <v>453</v>
       </c>
@@ -22558,7 +22558,7 @@
         <v>2184.3000000000002</v>
       </c>
     </row>
-    <row r="437" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="437" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A437" s="13" t="s">
         <v>454</v>
       </c>
@@ -22605,7 +22605,7 @@
         <v>2201</v>
       </c>
     </row>
-    <row r="438" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="438" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A438" s="13" t="s">
         <v>455</v>
       </c>
@@ -22652,7 +22652,7 @@
         <v>2206.6</v>
       </c>
     </row>
-    <row r="439" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="439" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A439" s="13" t="s">
         <v>456</v>
       </c>
@@ -22699,7 +22699,7 @@
         <v>2217.6999999999998</v>
       </c>
     </row>
-    <row r="440" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="440" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A440" s="13" t="s">
         <v>457</v>
       </c>
@@ -22746,7 +22746,7 @@
         <v>2217.6999999999998</v>
       </c>
     </row>
-    <row r="441" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="441" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A441" s="13" t="s">
         <v>458</v>
       </c>
@@ -22793,7 +22793,7 @@
         <v>2223.3000000000002</v>
       </c>
     </row>
-    <row r="442" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="442" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A442" s="13" t="s">
         <v>459</v>
       </c>
@@ -22840,7 +22840,7 @@
         <v>2240</v>
       </c>
     </row>
-    <row r="443" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="443" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A443" s="13" t="s">
         <v>460</v>
       </c>
@@ -22887,7 +22887,7 @@
         <v>2223.3000000000002</v>
       </c>
     </row>
-    <row r="444" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="444" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A444" s="13" t="s">
         <v>461</v>
       </c>
@@ -22934,7 +22934,7 @@
         <v>2228.9</v>
       </c>
     </row>
-    <row r="445" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="445" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A445" s="13" t="s">
         <v>462</v>
       </c>
@@ -22981,7 +22981,7 @@
         <v>2245.6</v>
       </c>
     </row>
-    <row r="446" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="446" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A446" s="13" t="s">
         <v>463</v>
       </c>
@@ -23028,7 +23028,7 @@
         <v>2273.4</v>
       </c>
     </row>
-    <row r="447" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="447" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A447" s="13" t="s">
         <v>464</v>
       </c>
@@ -23075,7 +23075,7 @@
         <v>2295.6</v>
       </c>
     </row>
-    <row r="448" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="448" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A448" s="13" t="s">
         <v>465</v>
       </c>
@@ -23122,7 +23122,7 @@
         <v>2334.5</v>
       </c>
     </row>
-    <row r="449" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="449" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A449" s="13" t="s">
         <v>466</v>
       </c>
@@ -23169,7 +23169,7 @@
         <v>2362.3000000000002</v>
       </c>
     </row>
-    <row r="450" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="450" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A450" s="13" t="s">
         <v>467</v>
       </c>
@@ -23216,7 +23216,7 @@
         <v>2390.1</v>
       </c>
     </row>
-    <row r="451" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="451" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A451" s="13" t="s">
         <v>468</v>
       </c>
@@ -23263,7 +23263,7 @@
         <v>2417.9</v>
       </c>
     </row>
-    <row r="452" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="452" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A452" s="13" t="s">
         <v>469</v>
       </c>
@@ -23310,7 +23310,7 @@
         <v>2456.8000000000002</v>
       </c>
     </row>
-    <row r="453" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="453" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A453" s="13" t="s">
         <v>470</v>
       </c>
@@ -23357,7 +23357,7 @@
         <v>2495.6999999999998</v>
       </c>
     </row>
-    <row r="454" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="454" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A454" s="13" t="s">
         <v>471</v>
       </c>
@@ -23404,7 +23404,7 @@
         <v>2512.4</v>
       </c>
     </row>
-    <row r="455" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="455" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A455" s="13" t="s">
         <v>472</v>
       </c>
@@ -23451,7 +23451,7 @@
         <v>2529.1</v>
       </c>
     </row>
-    <row r="456" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="456" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A456" s="13" t="s">
         <v>473</v>
       </c>
@@ -23498,7 +23498,7 @@
         <v>2534.6999999999998</v>
       </c>
     </row>
-    <row r="457" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="457" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A457" s="13" t="s">
         <v>474</v>
       </c>
@@ -23545,7 +23545,7 @@
         <v>2540.3000000000002</v>
       </c>
     </row>
-    <row r="458" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="458" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A458" s="13" t="s">
         <v>475</v>
       </c>
@@ -23592,7 +23592,7 @@
         <v>2545.9</v>
       </c>
     </row>
-    <row r="459" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="459" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A459" s="13" t="s">
         <v>476</v>
       </c>
@@ -23639,7 +23639,7 @@
         <v>2573.6999999999998</v>
       </c>
     </row>
-    <row r="460" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="460" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A460" s="13" t="s">
         <v>477</v>
       </c>
@@ -23686,7 +23686,7 @@
         <v>2618.1</v>
       </c>
     </row>
-    <row r="461" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="461" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A461" s="13" t="s">
         <v>478</v>
       </c>
@@ -23733,7 +23733,7 @@
         <v>2668.1</v>
       </c>
     </row>
-    <row r="462" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="462" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A462" s="13" t="s">
         <v>479</v>
       </c>
@@ -23780,7 +23780,7 @@
         <v>2707</v>
       </c>
     </row>
-    <row r="463" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="463" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A463" s="13" t="s">
         <v>480</v>
       </c>
@@ -23827,7 +23827,7 @@
         <v>2707</v>
       </c>
     </row>
-    <row r="464" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="464" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A464" s="13" t="s">
         <v>481</v>
       </c>
@@ -23874,7 +23874,7 @@
         <v>2729.2</v>
       </c>
     </row>
-    <row r="465" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="465" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A465" s="13" t="s">
         <v>482</v>
       </c>
@@ -23921,7 +23921,7 @@
         <v>2740.3</v>
       </c>
     </row>
-    <row r="466" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="466" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A466" s="13" t="s">
         <v>483</v>
       </c>
@@ -23968,7 +23968,7 @@
         <v>2745.9</v>
       </c>
     </row>
-    <row r="467" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="467" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A467" s="13" t="s">
         <v>484</v>
       </c>
@@ -24015,7 +24015,7 @@
         <v>2751.5</v>
       </c>
     </row>
-    <row r="468" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="468" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A468" s="13" t="s">
         <v>485</v>
       </c>
@@ -24062,7 +24062,7 @@
         <v>2757.1</v>
       </c>
     </row>
-    <row r="469" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="469" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A469" s="13" t="s">
         <v>486</v>
       </c>
@@ -24109,7 +24109,7 @@
         <v>2740.4</v>
       </c>
     </row>
-    <row r="470" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="470" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A470" s="13" t="s">
         <v>487</v>
       </c>
@@ -24156,7 +24156,7 @@
         <v>2729.3</v>
       </c>
     </row>
-    <row r="471" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="471" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A471" s="13" t="s">
         <v>488</v>
       </c>
@@ -24203,7 +24203,7 @@
         <v>2734.9</v>
       </c>
     </row>
-    <row r="472" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="472" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A472" s="13" t="s">
         <v>489</v>
       </c>
@@ -24250,7 +24250,7 @@
         <v>2740.5</v>
       </c>
     </row>
-    <row r="473" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="473" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A473" s="13" t="s">
         <v>490</v>
       </c>
@@ -24297,7 +24297,7 @@
         <v>2740.5</v>
       </c>
     </row>
-    <row r="474" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="474" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A474" s="13" t="s">
         <v>491</v>
       </c>
@@ -24344,7 +24344,7 @@
         <v>2740.5</v>
       </c>
     </row>
-    <row r="475" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="475" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A475" s="13" t="s">
         <v>492</v>
       </c>
@@ -24391,7 +24391,7 @@
         <v>2751.6</v>
       </c>
     </row>
-    <row r="476" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="476" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A476" s="13" t="s">
         <v>493</v>
       </c>
@@ -24438,7 +24438,7 @@
         <v>2768.3</v>
       </c>
     </row>
-    <row r="477" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="477" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A477" s="13" t="s">
         <v>494</v>
       </c>
@@ -24485,7 +24485,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="478" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="478" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A478" s="13" t="s">
         <v>495</v>
       </c>
@@ -24532,7 +24532,7 @@
         <v>2790.6</v>
       </c>
     </row>
-    <row r="479" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="479" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A479" s="13" t="s">
         <v>496</v>
       </c>
@@ -24579,7 +24579,7 @@
         <v>2818.4</v>
       </c>
     </row>
-    <row r="480" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="480" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A480" s="13" t="s">
         <v>497</v>
       </c>
@@ -24626,7 +24626,7 @@
         <v>2835.1</v>
       </c>
     </row>
-    <row r="481" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="481" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A481" s="13" t="s">
         <v>498</v>
       </c>
@@ -24673,7 +24673,7 @@
         <v>2851.8</v>
       </c>
     </row>
-    <row r="482" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="482" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A482" s="13" t="s">
         <v>499</v>
       </c>
@@ -24720,7 +24720,7 @@
         <v>2846.2</v>
       </c>
     </row>
-    <row r="483" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="483" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A483" s="13" t="s">
         <v>500</v>
       </c>
@@ -24767,7 +24767,7 @@
         <v>2851.8</v>
       </c>
     </row>
-    <row r="484" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="484" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A484" s="13" t="s">
         <v>501</v>
       </c>
@@ -24814,7 +24814,7 @@
         <v>2824</v>
       </c>
     </row>
-    <row r="485" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="485" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A485" s="13" t="s">
         <v>502</v>
       </c>
@@ -24861,7 +24861,7 @@
         <v>2790.7</v>
       </c>
     </row>
-    <row r="486" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="486" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A486" s="13" t="s">
         <v>503</v>
       </c>
@@ -24908,7 +24908,7 @@
         <v>2774</v>
       </c>
     </row>
-    <row r="487" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="487" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A487" s="13" t="s">
         <v>504</v>
       </c>
@@ -24955,7 +24955,7 @@
         <v>2779.6</v>
       </c>
     </row>
-    <row r="488" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="488" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A488" s="13" t="s">
         <v>505</v>
       </c>
@@ -25002,7 +25002,7 @@
         <v>2762.9</v>
       </c>
     </row>
-    <row r="489" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="489" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A489" s="13" t="s">
         <v>506</v>
       </c>
@@ -25049,7 +25049,7 @@
         <v>2724</v>
       </c>
     </row>
-    <row r="490" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="490" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A490" s="13" t="s">
         <v>507</v>
       </c>
@@ -25096,7 +25096,7 @@
         <v>2685.1</v>
       </c>
     </row>
-    <row r="491" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="491" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A491" s="13" t="s">
         <v>508</v>
       </c>
@@ -25143,7 +25143,7 @@
         <v>2640.7</v>
       </c>
     </row>
-    <row r="492" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="492" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A492" s="13" t="s">
         <v>509</v>
       </c>
@@ -25190,7 +25190,7 @@
         <v>2612.9</v>
       </c>
     </row>
-    <row r="493" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="493" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A493" s="13" t="s">
         <v>510</v>
       </c>
@@ -25237,7 +25237,7 @@
         <v>2607.3000000000002</v>
       </c>
     </row>
-    <row r="494" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="494" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A494" s="13" t="s">
         <v>511</v>
       </c>
@@ -25284,7 +25284,7 @@
         <v>2612.9</v>
       </c>
     </row>
-    <row r="495" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="495" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A495" s="13" t="s">
         <v>512</v>
       </c>
@@ -25331,7 +25331,7 @@
         <v>2607.3000000000002</v>
       </c>
     </row>
-    <row r="496" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="496" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A496" s="13" t="s">
         <v>513</v>
       </c>
@@ -25378,7 +25378,7 @@
         <v>2590.6</v>
       </c>
     </row>
-    <row r="497" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="497" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A497" s="13" t="s">
         <v>514</v>
       </c>
@@ -25425,7 +25425,7 @@
         <v>2585</v>
       </c>
     </row>
-    <row r="498" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="498" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A498" s="13" t="s">
         <v>515</v>
       </c>
@@ -25472,7 +25472,7 @@
         <v>2568.3000000000002</v>
       </c>
     </row>
-    <row r="499" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="499" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A499" s="13" t="s">
         <v>516</v>
       </c>
@@ -25519,7 +25519,7 @@
         <v>2568.3000000000002</v>
       </c>
     </row>
-    <row r="500" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="500" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A500" s="13" t="s">
         <v>517</v>
       </c>
@@ -25566,7 +25566,7 @@
         <v>2590.5</v>
       </c>
     </row>
-    <row r="501" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="501" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A501" s="13" t="s">
         <v>518</v>
       </c>
@@ -25613,7 +25613,7 @@
         <v>2640.5</v>
       </c>
     </row>
-    <row r="502" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="502" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A502" s="13" t="s">
         <v>519</v>
       </c>
@@ -25660,7 +25660,7 @@
         <v>2679.4</v>
       </c>
     </row>
-    <row r="503" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="503" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A503" s="13" t="s">
         <v>520</v>
       </c>
@@ -25707,7 +25707,7 @@
         <v>2718.3</v>
       </c>
     </row>
-    <row r="504" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="504" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A504" s="13" t="s">
         <v>521</v>
       </c>
@@ -25754,7 +25754,7 @@
         <v>2723.9</v>
       </c>
     </row>
-    <row r="505" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="505" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A505" s="13" t="s">
         <v>522</v>
       </c>
@@ -25801,7 +25801,7 @@
         <v>2735</v>
       </c>
     </row>
-    <row r="506" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="506" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A506" s="13" t="s">
         <v>523</v>
       </c>
@@ -25848,7 +25848,7 @@
         <v>2740.6</v>
       </c>
     </row>
-    <row r="507" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="507" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A507" s="13" t="s">
         <v>524</v>
       </c>
@@ -25895,7 +25895,7 @@
         <v>2723.9</v>
       </c>
     </row>
-    <row r="508" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="508" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A508" s="13" t="s">
         <v>525</v>
       </c>
@@ -25942,7 +25942,7 @@
         <v>2707.2</v>
       </c>
     </row>
-    <row r="509" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="509" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A509" s="13" t="s">
         <v>526</v>
       </c>
@@ -25989,7 +25989,7 @@
         <v>2701.6</v>
       </c>
     </row>
-    <row r="510" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="510" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A510" s="13" t="s">
         <v>527</v>
       </c>
@@ -26036,7 +26036,7 @@
         <v>2723.8</v>
       </c>
     </row>
-    <row r="511" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="511" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A511" s="13" t="s">
         <v>528</v>
       </c>
@@ -26083,7 +26083,7 @@
         <v>2740.5</v>
       </c>
     </row>
-    <row r="512" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="512" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A512" s="13" t="s">
         <v>529</v>
       </c>
@@ -26130,7 +26130,7 @@
         <v>2768.3</v>
       </c>
     </row>
-    <row r="513" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="513" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A513" s="13" t="s">
         <v>530</v>
       </c>
@@ -26177,7 +26177,7 @@
         <v>2773.9</v>
       </c>
     </row>
-    <row r="514" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="514" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A514" s="13" t="s">
         <v>531</v>
       </c>
@@ -26224,7 +26224,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="515" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="515" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A515" s="13" t="s">
         <v>532</v>
       </c>
@@ -26271,7 +26271,7 @@
         <v>2790.6</v>
       </c>
     </row>
-    <row r="516" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="516" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A516" s="13" t="s">
         <v>533</v>
       </c>
@@ -26318,7 +26318,7 @@
         <v>2796.2</v>
       </c>
     </row>
-    <row r="517" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="517" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A517" s="13" t="s">
         <v>534</v>
       </c>
@@ -26365,7 +26365,7 @@
         <v>2812.9</v>
       </c>
     </row>
-    <row r="518" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="518" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A518" s="13" t="s">
         <v>535</v>
       </c>
@@ -26412,7 +26412,7 @@
         <v>2857.3</v>
       </c>
     </row>
-    <row r="519" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="519" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A519" s="13" t="s">
         <v>536</v>
       </c>
@@ -26459,7 +26459,7 @@
         <v>2862.9</v>
       </c>
     </row>
-    <row r="520" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="520" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A520" s="13" t="s">
         <v>537</v>
       </c>
@@ -26506,7 +26506,7 @@
         <v>2890.7</v>
       </c>
     </row>
-    <row r="521" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="521" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A521" s="13" t="s">
         <v>538</v>
       </c>
@@ -26553,7 +26553,7 @@
         <v>2901.8</v>
       </c>
     </row>
-    <row r="522" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="522" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A522" s="13" t="s">
         <v>539</v>
       </c>
@@ -26600,7 +26600,7 @@
         <v>2918.5</v>
       </c>
     </row>
-    <row r="523" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="523" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A523" s="13" t="s">
         <v>540</v>
       </c>
@@ -26647,7 +26647,7 @@
         <v>2946.3</v>
       </c>
     </row>
-    <row r="524" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="524" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A524" s="13" t="s">
         <v>541</v>
       </c>
@@ -26694,7 +26694,7 @@
         <v>2963</v>
       </c>
     </row>
-    <row r="525" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="525" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A525" s="13" t="s">
         <v>542</v>
       </c>
@@ -26741,7 +26741,7 @@
         <v>2979.7</v>
       </c>
     </row>
-    <row r="526" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="526" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A526" s="13" t="s">
         <v>543</v>
       </c>
@@ -26788,7 +26788,7 @@
         <v>2974.1</v>
       </c>
     </row>
-    <row r="527" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="527" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A527" s="13" t="s">
         <v>544</v>
       </c>
@@ -26835,7 +26835,7 @@
         <v>2990.8</v>
       </c>
     </row>
-    <row r="528" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="528" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A528" s="13" t="s">
         <v>545</v>
       </c>
@@ -26882,7 +26882,7 @@
         <v>3001.9</v>
       </c>
     </row>
-    <row r="529" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="529" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A529" s="13" t="s">
         <v>546</v>
       </c>
@@ -26929,7 +26929,7 @@
         <v>3013</v>
       </c>
     </row>
-    <row r="530" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="530" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A530" s="13" t="s">
         <v>547</v>
       </c>
@@ -26976,7 +26976,7 @@
         <v>3007.4</v>
       </c>
     </row>
-    <row r="531" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="531" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A531" s="13" t="s">
         <v>548</v>
       </c>
@@ -27023,7 +27023,7 @@
         <v>3029.6</v>
       </c>
     </row>
-    <row r="532" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="532" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A532" s="13" t="s">
         <v>549</v>
       </c>
@@ -27070,7 +27070,7 @@
         <v>3057.4</v>
       </c>
     </row>
-    <row r="533" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="533" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A533" s="13" t="s">
         <v>550</v>
       </c>
@@ -27117,7 +27117,7 @@
         <v>3085.2</v>
       </c>
     </row>
-    <row r="534" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="534" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A534" s="13" t="s">
         <v>551</v>
       </c>
@@ -27164,7 +27164,7 @@
         <v>3101.9</v>
       </c>
     </row>
-    <row r="535" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="535" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A535" s="13" t="s">
         <v>552</v>
       </c>
@@ -27211,7 +27211,7 @@
         <v>3085.2</v>
       </c>
     </row>
-    <row r="536" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="536" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A536" s="13" t="s">
         <v>553</v>
       </c>
@@ -27258,7 +27258,7 @@
         <v>3085.2</v>
       </c>
     </row>
-    <row r="537" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="537" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A537" s="13" t="s">
         <v>554</v>
       </c>
@@ -27305,7 +27305,7 @@
         <v>3085.2</v>
       </c>
     </row>
-    <row r="538" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="538" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A538" s="13" t="s">
         <v>555</v>
       </c>
@@ -27352,7 +27352,7 @@
         <v>3113</v>
       </c>
     </row>
-    <row r="539" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="539" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A539" s="13" t="s">
         <v>556</v>
       </c>
@@ -27399,7 +27399,7 @@
         <v>3113</v>
       </c>
     </row>
-    <row r="540" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="540" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A540" s="13" t="s">
         <v>557</v>
       </c>
@@ -27446,7 +27446,7 @@
         <v>3124.1</v>
       </c>
     </row>
-    <row r="541" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="541" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A541" s="13" t="s">
         <v>558</v>
       </c>
@@ -27493,7 +27493,7 @@
         <v>3151.9</v>
       </c>
     </row>
-    <row r="542" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="542" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A542" s="13" t="s">
         <v>559</v>
       </c>
@@ -27540,7 +27540,7 @@
         <v>3168.6</v>
       </c>
     </row>
-    <row r="543" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="543" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A543" s="13" t="s">
         <v>560</v>
       </c>
@@ -27587,7 +27587,7 @@
         <v>3163</v>
       </c>
     </row>
-    <row r="544" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="544" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A544" s="13" t="s">
         <v>561</v>
       </c>
@@ -27634,7 +27634,7 @@
         <v>3179.7</v>
       </c>
     </row>
-    <row r="545" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="545" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A545" s="13" t="s">
         <v>562</v>
       </c>
@@ -27681,7 +27681,7 @@
         <v>3190.8</v>
       </c>
     </row>
-    <row r="546" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="546" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A546" s="13" t="s">
         <v>563</v>
       </c>
@@ -27728,7 +27728,7 @@
         <v>3207.5</v>
       </c>
     </row>
-    <row r="547" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="547" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A547" s="13" t="s">
         <v>564</v>
       </c>
@@ -27775,7 +27775,7 @@
         <v>3235.3</v>
       </c>
     </row>
-    <row r="548" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="548" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A548" s="13" t="s">
         <v>565</v>
       </c>
@@ -27822,7 +27822,7 @@
         <v>3263.1</v>
       </c>
     </row>
-    <row r="549" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="549" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A549" s="13" t="s">
         <v>566</v>
       </c>
@@ -27869,7 +27869,7 @@
         <v>3279.8</v>
       </c>
     </row>
-    <row r="550" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="550" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A550" s="13" t="s">
         <v>567</v>
       </c>
@@ -27916,7 +27916,7 @@
         <v>3290.9</v>
       </c>
     </row>
-    <row r="551" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="551" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A551" s="13" t="s">
         <v>568</v>
       </c>
@@ -27963,7 +27963,7 @@
         <v>3307.6</v>
       </c>
     </row>
-    <row r="552" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="552" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A552" s="13" t="s">
         <v>569</v>
       </c>
@@ -27980,7 +27980,7 @@
         <v>115.9</v>
       </c>
       <c r="F552" s="4">
-        <v>113.2</v>
+        <v>113.1</v>
       </c>
       <c r="G552" s="4">
         <v>105.1</v>
@@ -27989,7 +27989,7 @@
         <v>114.2</v>
       </c>
       <c r="I552" s="4">
-        <v>111.3</v>
+        <v>111.2</v>
       </c>
       <c r="J552" s="4">
         <v>31.8</v>
@@ -28010,7 +28010,7 @@
         <v>3324.3</v>
       </c>
     </row>
-    <row r="553" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="553" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A553" s="13" t="s">
         <v>570</v>
       </c>
@@ -28057,7 +28057,7 @@
         <v>3324.3</v>
       </c>
     </row>
-    <row r="554" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="554" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A554" s="13" t="s">
         <v>571</v>
       </c>
@@ -28068,43 +28068,43 @@
         <v>8</v>
       </c>
       <c r="D554" s="4">
-        <v>107.4</v>
+        <v>107</v>
       </c>
       <c r="E554" s="4">
-        <v>113.4</v>
+        <v>112.8</v>
       </c>
       <c r="F554" s="4">
-        <v>112</v>
+        <v>112.4</v>
       </c>
       <c r="G554" s="4">
-        <v>107.5</v>
+        <v>107.2</v>
       </c>
       <c r="H554" s="4">
-        <v>111.9</v>
+        <v>111.2</v>
       </c>
       <c r="I554" s="4">
-        <v>110</v>
+        <v>110.4</v>
       </c>
       <c r="J554" s="4">
-        <v>62.5</v>
+        <v>60</v>
       </c>
       <c r="K554" s="4">
         <v>0</v>
       </c>
       <c r="L554" s="4">
-        <v>33.299999999999997</v>
+        <v>37.5</v>
       </c>
       <c r="M554" s="4">
-        <v>1217.0999999999999</v>
+        <v>1214.5999999999999</v>
       </c>
       <c r="N554" s="4">
         <v>3128.3</v>
       </c>
       <c r="O554" s="4">
-        <v>3307.6</v>
-      </c>
-    </row>
-    <row r="563" spans="4:9" x14ac:dyDescent="0.15">
+        <v>3311.8</v>
+      </c>
+    </row>
+    <row r="563" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D563" s="3"/>
       <c r="E563" s="3"/>
       <c r="F563" s="3"/>

--- a/data/長期系列_CI指数_DI指数_DI景気指標.xlsx
+++ b/data/長期系列_CI指数_DI指数_DI景気指標.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\CI\０１／CI\０２／速報からの改訂\★R7(2025)★\令和7年8月改訂\g研究所ホームページ掲載宛送付ファイル\jp\stat\di\di\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\CI\０１／CI\０１／速報\★R7(2025)★\令和7年9月分\g研究所ホームページ掲載宛送付ファイル\jp\stat\di\di\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A09BF87-86C0-40EF-98EB-E82691B9E483}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{89A87688-D12B-4CB7-89CF-0CAA95527FC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="573">
   <si>
     <t>ＤＩ指数</t>
   </si>
@@ -2311,6 +2311,10 @@
   </si>
   <si>
     <t>2025000808</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2025000909</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2812,7 +2816,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P563"/>
+  <dimension ref="A1:P564"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="6" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
@@ -28104,13 +28108,60 @@
         <v>3311.8</v>
       </c>
     </row>
-    <row r="563" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D563" s="3"/>
-      <c r="E563" s="3"/>
-      <c r="F563" s="3"/>
-      <c r="G563" s="3"/>
-      <c r="H563" s="3"/>
-      <c r="I563" s="3"/>
+    <row r="555" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A555" s="13" t="s">
+        <v>572</v>
+      </c>
+      <c r="B555" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C555" s="2">
+        <v>9</v>
+      </c>
+      <c r="D555" s="4">
+        <v>108</v>
+      </c>
+      <c r="E555" s="4">
+        <v>114.6</v>
+      </c>
+      <c r="F555" s="4">
+        <v>113.2</v>
+      </c>
+      <c r="G555" s="4">
+        <v>108.2</v>
+      </c>
+      <c r="H555" s="4">
+        <v>113</v>
+      </c>
+      <c r="I555" s="4">
+        <v>111.2</v>
+      </c>
+      <c r="J555" s="4">
+        <v>77.8</v>
+      </c>
+      <c r="K555" s="4">
+        <v>25</v>
+      </c>
+      <c r="L555" s="4">
+        <v>25</v>
+      </c>
+      <c r="M555" s="4">
+        <v>1242.4000000000001</v>
+      </c>
+      <c r="N555" s="4">
+        <v>3103.3</v>
+      </c>
+      <c r="O555" s="4">
+        <v>3286.8</v>
+      </c>
+    </row>
+    <row r="564" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D564" s="3"/>
+      <c r="E564" s="3"/>
+      <c r="F564" s="3"/>
+      <c r="G564" s="3"/>
+      <c r="H564" s="3"/>
+      <c r="I564" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>

--- a/data/長期系列_CI指数_DI指数_DI景気指標.xlsx
+++ b/data/長期系列_CI指数_DI指数_DI景気指標.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\CI\０１／CI\０１／速報\★R7(2025)★\令和7年9月分\g研究所ホームページ掲載宛送付ファイル\jp\stat\di\di\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\CI\０１／CI\０２／速報からの改訂\★R7(2025)★\令和7年9月改訂\g研究所ホームページ掲載宛送付ファイル\jp\stat\di\di\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{89A87688-D12B-4CB7-89CF-0CAA95527FC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F78BA9F6-E37D-4371-93DE-C73020A9FC4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="1515" yWindow="1515" windowWidth="21600" windowHeight="13350"/>
   </bookViews>
   <sheets>
     <sheet name="指数 Indexes" sheetId="1" r:id="rId1"/>
@@ -2825,14 +2825,14 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="8.109375" customWidth="1"/>
-    <col min="4" max="15" width="10.6640625" customWidth="1"/>
+    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8.125" customWidth="1"/>
+    <col min="4" max="15" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="36" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="36" x14ac:dyDescent="0.15">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -2874,7 +2874,7 @@
       </c>
       <c r="P1" s="5"/>
     </row>
-    <row r="2" spans="1:16" s="1" customFormat="1" ht="72" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" s="1" customFormat="1" ht="72" x14ac:dyDescent="0.15">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -2916,7 +2916,7 @@
       </c>
       <c r="P2" s="5"/>
     </row>
-    <row r="3" spans="1:16" ht="24" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="24" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
         <v>18</v>
       </c>
@@ -2964,7 +2964,7 @@
       </c>
       <c r="P3" s="5"/>
     </row>
-    <row r="4" spans="1:16" s="1" customFormat="1" ht="32.4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" s="1" customFormat="1" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A4" s="9" t="s">
         <v>20</v>
       </c>
@@ -3012,7 +3012,7 @@
       </c>
       <c r="P4" s="5"/>
     </row>
-    <row r="5" spans="1:16" s="1" customFormat="1" ht="22.2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -3042,7 +3042,7 @@
       <c r="O5" s="11"/>
       <c r="P5" s="12"/>
     </row>
-    <row r="6" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -3072,7 +3072,7 @@
       <c r="O6" s="6"/>
       <c r="P6" s="12"/>
     </row>
-    <row r="7" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="13" t="s">
         <v>24</v>
       </c>
@@ -3107,7 +3107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" s="13" t="s">
         <v>25</v>
       </c>
@@ -3142,7 +3142,7 @@
         <v>44.4</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9" s="13" t="s">
         <v>26</v>
       </c>
@@ -3177,7 +3177,7 @@
         <v>83.3</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10" s="13" t="s">
         <v>27</v>
       </c>
@@ -3212,7 +3212,7 @@
         <v>111.1</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" s="13" t="s">
         <v>28</v>
       </c>
@@ -3247,7 +3247,7 @@
         <v>116.7</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="13" t="s">
         <v>29</v>
       </c>
@@ -3282,7 +3282,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="13" t="s">
         <v>30</v>
       </c>
@@ -3317,7 +3317,7 @@
         <v>177.8</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14" s="13" t="s">
         <v>31</v>
       </c>
@@ -3352,7 +3352,7 @@
         <v>194.5</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" s="13" t="s">
         <v>32</v>
       </c>
@@ -3387,7 +3387,7 @@
         <v>211.2</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16" s="13" t="s">
         <v>33</v>
       </c>
@@ -3422,7 +3422,7 @@
         <v>227.9</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A17" s="13" t="s">
         <v>34</v>
       </c>
@@ -3457,7 +3457,7 @@
         <v>255.7</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A18" s="13" t="s">
         <v>35</v>
       </c>
@@ -3492,7 +3492,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A19" s="13" t="s">
         <v>36</v>
       </c>
@@ -3527,7 +3527,7 @@
         <v>244.6</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A20" s="13" t="s">
         <v>37</v>
       </c>
@@ -3562,7 +3562,7 @@
         <v>244.6</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A21" s="13" t="s">
         <v>38</v>
       </c>
@@ -3597,7 +3597,7 @@
         <v>272.39999999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A22" s="13" t="s">
         <v>39</v>
       </c>
@@ -3632,7 +3632,7 @@
         <v>266.8</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A23" s="13" t="s">
         <v>40</v>
       </c>
@@ -3667,7 +3667,7 @@
         <v>272.39999999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A24" s="13" t="s">
         <v>41</v>
       </c>
@@ -3702,7 +3702,7 @@
         <v>261.3</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A25" s="13" t="s">
         <v>42</v>
       </c>
@@ -3737,7 +3737,7 @@
         <v>250.2</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A26" s="13" t="s">
         <v>43</v>
       </c>
@@ -3772,7 +3772,7 @@
         <v>233.5</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A27" s="13" t="s">
         <v>44</v>
       </c>
@@ -3807,7 +3807,7 @@
         <v>239.1</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A28" s="13" t="s">
         <v>45</v>
       </c>
@@ -3842,7 +3842,7 @@
         <v>244.7</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A29" s="13" t="s">
         <v>46</v>
       </c>
@@ -3877,7 +3877,7 @@
         <v>239.1</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A30" s="13" t="s">
         <v>47</v>
       </c>
@@ -3912,7 +3912,7 @@
         <v>222.4</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A31" s="13" t="s">
         <v>48</v>
       </c>
@@ -3947,7 +3947,7 @@
         <v>239.1</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A32" s="13" t="s">
         <v>49</v>
       </c>
@@ -3982,7 +3982,7 @@
         <v>244.7</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A33" s="13" t="s">
         <v>50</v>
       </c>
@@ -4017,7 +4017,7 @@
         <v>250.3</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A34" s="13" t="s">
         <v>51</v>
       </c>
@@ -4052,7 +4052,7 @@
         <v>244.7</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A35" s="13" t="s">
         <v>52</v>
       </c>
@@ -4087,7 +4087,7 @@
         <v>250.3</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A36" s="13" t="s">
         <v>53</v>
       </c>
@@ -4122,7 +4122,7 @@
         <v>278.10000000000002</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A37" s="13" t="s">
         <v>54</v>
       </c>
@@ -4157,7 +4157,7 @@
         <v>278.10000000000002</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A38" s="13" t="s">
         <v>55</v>
       </c>
@@ -4192,7 +4192,7 @@
         <v>272.5</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A39" s="13" t="s">
         <v>56</v>
       </c>
@@ -4227,7 +4227,7 @@
         <v>255.8</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A40" s="13" t="s">
         <v>57</v>
       </c>
@@ -4262,7 +4262,7 @@
         <v>239.1</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A41" s="13" t="s">
         <v>58</v>
       </c>
@@ -4297,7 +4297,7 @@
         <v>222.4</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A42" s="13" t="s">
         <v>59</v>
       </c>
@@ -4332,7 +4332,7 @@
         <v>194.6</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A43" s="13" t="s">
         <v>60</v>
       </c>
@@ -4367,7 +4367,7 @@
         <v>166.8</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A44" s="13" t="s">
         <v>61</v>
       </c>
@@ -4402,7 +4402,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A45" s="13" t="s">
         <v>62</v>
       </c>
@@ -4437,7 +4437,7 @@
         <v>122.3</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A46" s="13" t="s">
         <v>63</v>
       </c>
@@ -4472,7 +4472,7 @@
         <v>116.7</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A47" s="13" t="s">
         <v>64</v>
       </c>
@@ -4507,7 +4507,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A48" s="13" t="s">
         <v>65</v>
       </c>
@@ -4542,7 +4542,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A49" s="13" t="s">
         <v>66</v>
       </c>
@@ -4577,7 +4577,7 @@
         <v>105.6</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A50" s="13" t="s">
         <v>67</v>
       </c>
@@ -4612,7 +4612,7 @@
         <v>122.3</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A51" s="13" t="s">
         <v>68</v>
       </c>
@@ -4647,7 +4647,7 @@
         <v>127.9</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A52" s="13" t="s">
         <v>69</v>
       </c>
@@ -4682,7 +4682,7 @@
         <v>122.3</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A53" s="13" t="s">
         <v>70</v>
       </c>
@@ -4717,7 +4717,7 @@
         <v>127.9</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A54" s="13" t="s">
         <v>71</v>
       </c>
@@ -4752,7 +4752,7 @@
         <v>127.9</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A55" s="13" t="s">
         <v>72</v>
       </c>
@@ -4787,7 +4787,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A56" s="13" t="s">
         <v>73</v>
       </c>
@@ -4822,7 +4822,7 @@
         <v>177.9</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A57" s="13" t="s">
         <v>74</v>
       </c>
@@ -4857,7 +4857,7 @@
         <v>216.8</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A58" s="13" t="s">
         <v>75</v>
       </c>
@@ -4892,7 +4892,7 @@
         <v>255.7</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A59" s="13" t="s">
         <v>76</v>
       </c>
@@ -4927,7 +4927,7 @@
         <v>272.39999999999998</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A60" s="13" t="s">
         <v>77</v>
       </c>
@@ -4962,7 +4962,7 @@
         <v>283.5</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A61" s="13" t="s">
         <v>78</v>
       </c>
@@ -4997,7 +4997,7 @@
         <v>311.3</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A62" s="13" t="s">
         <v>79</v>
       </c>
@@ -5032,7 +5032,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A63" s="13" t="s">
         <v>80</v>
       </c>
@@ -5067,7 +5067,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A64" s="13" t="s">
         <v>81</v>
       </c>
@@ -5102,7 +5102,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A65" s="13" t="s">
         <v>82</v>
       </c>
@@ -5137,7 +5137,7 @@
         <v>455.8</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A66" s="13" t="s">
         <v>83</v>
       </c>
@@ -5172,7 +5172,7 @@
         <v>494.7</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A67" s="13" t="s">
         <v>84</v>
       </c>
@@ -5219,7 +5219,7 @@
         <v>539.1</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A68" s="13" t="s">
         <v>85</v>
       </c>
@@ -5266,7 +5266,7 @@
         <v>566.9</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A69" s="13" t="s">
         <v>86</v>
       </c>
@@ -5313,7 +5313,7 @@
         <v>594.70000000000005</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A70" s="13" t="s">
         <v>87</v>
       </c>
@@ -5360,7 +5360,7 @@
         <v>611.4</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A71" s="13" t="s">
         <v>88</v>
       </c>
@@ -5407,7 +5407,7 @@
         <v>644.70000000000005</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A72" s="13" t="s">
         <v>89</v>
       </c>
@@ -5454,7 +5454,7 @@
         <v>655.8</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A73" s="13" t="s">
         <v>90</v>
       </c>
@@ -5501,7 +5501,7 @@
         <v>666.9</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A74" s="13" t="s">
         <v>91</v>
       </c>
@@ -5548,7 +5548,7 @@
         <v>694.7</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A75" s="13" t="s">
         <v>92</v>
       </c>
@@ -5595,7 +5595,7 @@
         <v>700.3</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A76" s="13" t="s">
         <v>93</v>
       </c>
@@ -5642,7 +5642,7 @@
         <v>683.6</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A77" s="13" t="s">
         <v>94</v>
       </c>
@@ -5689,7 +5689,7 @@
         <v>666.9</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A78" s="13" t="s">
         <v>95</v>
       </c>
@@ -5736,7 +5736,7 @@
         <v>672.5</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A79" s="13" t="s">
         <v>96</v>
       </c>
@@ -5783,7 +5783,7 @@
         <v>689.2</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A80" s="13" t="s">
         <v>97</v>
       </c>
@@ -5830,7 +5830,7 @@
         <v>705.9</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A81" s="13" t="s">
         <v>98</v>
       </c>
@@ -5877,7 +5877,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A82" s="13" t="s">
         <v>99</v>
       </c>
@@ -5924,7 +5924,7 @@
         <v>711.4</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A83" s="13" t="s">
         <v>100</v>
       </c>
@@ -5971,7 +5971,7 @@
         <v>700.3</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A84" s="13" t="s">
         <v>101</v>
       </c>
@@ -6018,7 +6018,7 @@
         <v>683.6</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A85" s="13" t="s">
         <v>102</v>
       </c>
@@ -6065,7 +6065,7 @@
         <v>683.6</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A86" s="13" t="s">
         <v>103</v>
       </c>
@@ -6112,7 +6112,7 @@
         <v>672.5</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A87" s="13" t="s">
         <v>104</v>
       </c>
@@ -6159,7 +6159,7 @@
         <v>672.5</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A88" s="13" t="s">
         <v>105</v>
       </c>
@@ -6206,7 +6206,7 @@
         <v>689.2</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A89" s="13" t="s">
         <v>106</v>
       </c>
@@ -6253,7 +6253,7 @@
         <v>705.9</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A90" s="13" t="s">
         <v>107</v>
       </c>
@@ -6300,7 +6300,7 @@
         <v>689.2</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A91" s="13" t="s">
         <v>108</v>
       </c>
@@ -6347,7 +6347,7 @@
         <v>694.8</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A92" s="13" t="s">
         <v>109</v>
       </c>
@@ -6394,7 +6394,7 @@
         <v>705.9</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A93" s="13" t="s">
         <v>110</v>
       </c>
@@ -6441,7 +6441,7 @@
         <v>722.6</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A94" s="13" t="s">
         <v>111</v>
       </c>
@@ -6488,7 +6488,7 @@
         <v>750.4</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A95" s="13" t="s">
         <v>112</v>
       </c>
@@ -6535,7 +6535,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A96" s="13" t="s">
         <v>113</v>
       </c>
@@ -6582,7 +6582,7 @@
         <v>767.1</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A97" s="13" t="s">
         <v>114</v>
       </c>
@@ -6629,7 +6629,7 @@
         <v>772.7</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A98" s="13" t="s">
         <v>115</v>
       </c>
@@ -6676,7 +6676,7 @@
         <v>783.8</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A99" s="13" t="s">
         <v>116</v>
       </c>
@@ -6723,7 +6723,7 @@
         <v>811.6</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A100" s="13" t="s">
         <v>117</v>
       </c>
@@ -6770,7 +6770,7 @@
         <v>833.8</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A101" s="13" t="s">
         <v>118</v>
       </c>
@@ -6817,7 +6817,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A102" s="13" t="s">
         <v>119</v>
       </c>
@@ -6864,7 +6864,7 @@
         <v>900.4</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A103" s="13" t="s">
         <v>120</v>
       </c>
@@ -6911,7 +6911,7 @@
         <v>928.2</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A104" s="13" t="s">
         <v>121</v>
       </c>
@@ -6958,7 +6958,7 @@
         <v>944.9</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A105" s="13" t="s">
         <v>122</v>
       </c>
@@ -7005,7 +7005,7 @@
         <v>972.7</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A106" s="13" t="s">
         <v>123</v>
       </c>
@@ -7052,7 +7052,7 @@
         <v>1011.6</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A107" s="13" t="s">
         <v>124</v>
       </c>
@@ -7099,7 +7099,7 @@
         <v>1039.4000000000001</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A108" s="13" t="s">
         <v>125</v>
       </c>
@@ -7146,7 +7146,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A109" s="13" t="s">
         <v>126</v>
       </c>
@@ -7193,7 +7193,7 @@
         <v>1067.2</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A110" s="13" t="s">
         <v>127</v>
       </c>
@@ -7240,7 +7240,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A111" s="13" t="s">
         <v>128</v>
       </c>
@@ -7287,7 +7287,7 @@
         <v>1133.9000000000001</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A112" s="13" t="s">
         <v>129</v>
       </c>
@@ -7334,7 +7334,7 @@
         <v>1183.9000000000001</v>
       </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A113" s="13" t="s">
         <v>130</v>
       </c>
@@ -7381,7 +7381,7 @@
         <v>1233.9000000000001</v>
       </c>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A114" s="13" t="s">
         <v>131</v>
       </c>
@@ -7428,7 +7428,7 @@
         <v>1261.7</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A115" s="13" t="s">
         <v>132</v>
       </c>
@@ -7475,7 +7475,7 @@
         <v>1289.5</v>
       </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A116" s="13" t="s">
         <v>133</v>
       </c>
@@ -7522,7 +7522,7 @@
         <v>1317.3</v>
       </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A117" s="13" t="s">
         <v>134</v>
       </c>
@@ -7569,7 +7569,7 @@
         <v>1361.7</v>
       </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A118" s="13" t="s">
         <v>135</v>
       </c>
@@ -7616,7 +7616,7 @@
         <v>1367.3</v>
       </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A119" s="13" t="s">
         <v>136</v>
       </c>
@@ -7663,7 +7663,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A120" s="13" t="s">
         <v>137</v>
       </c>
@@ -7710,7 +7710,7 @@
         <v>1400.7</v>
       </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A121" s="13" t="s">
         <v>138</v>
       </c>
@@ -7757,7 +7757,7 @@
         <v>1445.1</v>
       </c>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A122" s="13" t="s">
         <v>139</v>
       </c>
@@ -7804,7 +7804,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A123" s="13" t="s">
         <v>140</v>
       </c>
@@ -7851,7 +7851,7 @@
         <v>1495.1</v>
       </c>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A124" s="13" t="s">
         <v>141</v>
       </c>
@@ -7898,7 +7898,7 @@
         <v>1511.8</v>
       </c>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A125" s="13" t="s">
         <v>142</v>
       </c>
@@ -7945,7 +7945,7 @@
         <v>1539.6</v>
       </c>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A126" s="13" t="s">
         <v>143</v>
       </c>
@@ -7992,7 +7992,7 @@
         <v>1572.9</v>
       </c>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A127" s="13" t="s">
         <v>144</v>
       </c>
@@ -8039,7 +8039,7 @@
         <v>1622.9</v>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A128" s="13" t="s">
         <v>145</v>
       </c>
@@ -8086,7 +8086,7 @@
         <v>1661.8</v>
       </c>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A129" s="13" t="s">
         <v>146</v>
       </c>
@@ -8133,7 +8133,7 @@
         <v>1695.1</v>
       </c>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A130" s="13" t="s">
         <v>147</v>
       </c>
@@ -8180,7 +8180,7 @@
         <v>1717.3</v>
       </c>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A131" s="13" t="s">
         <v>148</v>
       </c>
@@ -8227,7 +8227,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A132" s="13" t="s">
         <v>149</v>
       </c>
@@ -8274,7 +8274,7 @@
         <v>1750.7</v>
       </c>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A133" s="13" t="s">
         <v>150</v>
       </c>
@@ -8321,7 +8321,7 @@
         <v>1745.1</v>
       </c>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A134" s="13" t="s">
         <v>151</v>
       </c>
@@ -8368,7 +8368,7 @@
         <v>1761.8</v>
       </c>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A135" s="13" t="s">
         <v>152</v>
       </c>
@@ -8415,7 +8415,7 @@
         <v>1778.5</v>
       </c>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A136" s="13" t="s">
         <v>153</v>
       </c>
@@ -8462,7 +8462,7 @@
         <v>1789.6</v>
       </c>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A137" s="13" t="s">
         <v>154</v>
       </c>
@@ -8509,7 +8509,7 @@
         <v>1789.6</v>
       </c>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A138" s="13" t="s">
         <v>155</v>
       </c>
@@ -8556,7 +8556,7 @@
         <v>1817.4</v>
       </c>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A139" s="13" t="s">
         <v>156</v>
       </c>
@@ -8603,7 +8603,7 @@
         <v>1845.2</v>
       </c>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A140" s="13" t="s">
         <v>157</v>
       </c>
@@ -8650,7 +8650,7 @@
         <v>1856.3</v>
       </c>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A141" s="13" t="s">
         <v>158</v>
       </c>
@@ -8697,7 +8697,7 @@
         <v>1850.7</v>
       </c>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A142" s="13" t="s">
         <v>159</v>
       </c>
@@ -8744,7 +8744,7 @@
         <v>1856.3</v>
       </c>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A143" s="13" t="s">
         <v>160</v>
       </c>
@@ -8791,7 +8791,7 @@
         <v>1867.4</v>
       </c>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A144" s="13" t="s">
         <v>161</v>
       </c>
@@ -8838,7 +8838,7 @@
         <v>1900.7</v>
       </c>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A145" s="13" t="s">
         <v>162</v>
       </c>
@@ -8885,7 +8885,7 @@
         <v>1911.8</v>
       </c>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A146" s="13" t="s">
         <v>163</v>
       </c>
@@ -8932,7 +8932,7 @@
         <v>1906.2</v>
       </c>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A147" s="13" t="s">
         <v>164</v>
       </c>
@@ -8979,7 +8979,7 @@
         <v>1889.5</v>
       </c>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A148" s="13" t="s">
         <v>165</v>
       </c>
@@ -9026,7 +9026,7 @@
         <v>1906.2</v>
       </c>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A149" s="13" t="s">
         <v>166</v>
       </c>
@@ -9073,7 +9073,7 @@
         <v>1934</v>
       </c>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A150" s="13" t="s">
         <v>167</v>
       </c>
@@ -9120,7 +9120,7 @@
         <v>1939.6</v>
       </c>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A151" s="13" t="s">
         <v>168</v>
       </c>
@@ -9167,7 +9167,7 @@
         <v>1922.9</v>
       </c>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A152" s="13" t="s">
         <v>169</v>
       </c>
@@ -9214,7 +9214,7 @@
         <v>1922.9</v>
       </c>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A153" s="13" t="s">
         <v>170</v>
       </c>
@@ -9261,7 +9261,7 @@
         <v>1906.2</v>
       </c>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A154" s="13" t="s">
         <v>171</v>
       </c>
@@ -9308,7 +9308,7 @@
         <v>1889.5</v>
       </c>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A155" s="13" t="s">
         <v>172</v>
       </c>
@@ -9355,7 +9355,7 @@
         <v>1861.7</v>
       </c>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A156" s="13" t="s">
         <v>173</v>
       </c>
@@ -9402,7 +9402,7 @@
         <v>1845</v>
       </c>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A157" s="13" t="s">
         <v>174</v>
       </c>
@@ -9449,7 +9449,7 @@
         <v>1817.2</v>
       </c>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A158" s="13" t="s">
         <v>175</v>
       </c>
@@ -9496,7 +9496,7 @@
         <v>1789.4</v>
       </c>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A159" s="13" t="s">
         <v>176</v>
       </c>
@@ -9543,7 +9543,7 @@
         <v>1761.6</v>
       </c>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A160" s="13" t="s">
         <v>177</v>
       </c>
@@ -9590,7 +9590,7 @@
         <v>1722.7</v>
       </c>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A161" s="13" t="s">
         <v>178</v>
       </c>
@@ -9637,7 +9637,7 @@
         <v>1683.8</v>
       </c>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A162" s="13" t="s">
         <v>179</v>
       </c>
@@ -9684,7 +9684,7 @@
         <v>1644.9</v>
       </c>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A163" s="13" t="s">
         <v>180</v>
       </c>
@@ -9731,7 +9731,7 @@
         <v>1639.3</v>
       </c>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A164" s="13" t="s">
         <v>181</v>
       </c>
@@ -9778,7 +9778,7 @@
         <v>1622.6</v>
       </c>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A165" s="13" t="s">
         <v>182</v>
       </c>
@@ -9825,7 +9825,7 @@
         <v>1600.4</v>
       </c>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A166" s="13" t="s">
         <v>183</v>
       </c>
@@ -9872,7 +9872,7 @@
         <v>1572.6</v>
       </c>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A167" s="13" t="s">
         <v>184</v>
       </c>
@@ -9919,7 +9919,7 @@
         <v>1544.8</v>
       </c>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A168" s="13" t="s">
         <v>185</v>
       </c>
@@ -9966,7 +9966,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A169" s="13" t="s">
         <v>186</v>
       </c>
@@ -10013,7 +10013,7 @@
         <v>1483.7</v>
       </c>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A170" s="13" t="s">
         <v>187</v>
       </c>
@@ -10060,7 +10060,7 @@
         <v>1489.3</v>
       </c>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A171" s="13" t="s">
         <v>188</v>
       </c>
@@ -10107,7 +10107,7 @@
         <v>1483.7</v>
       </c>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A172" s="13" t="s">
         <v>189</v>
       </c>
@@ -10154,7 +10154,7 @@
         <v>1478.1</v>
       </c>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A173" s="13" t="s">
         <v>190</v>
       </c>
@@ -10201,7 +10201,7 @@
         <v>1461.4</v>
       </c>
     </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A174" s="13" t="s">
         <v>191</v>
       </c>
@@ -10248,7 +10248,7 @@
         <v>1450.3</v>
       </c>
     </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A175" s="13" t="s">
         <v>192</v>
       </c>
@@ -10295,7 +10295,7 @@
         <v>1455.9</v>
       </c>
     </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A176" s="13" t="s">
         <v>193</v>
       </c>
@@ -10342,7 +10342,7 @@
         <v>1433.7</v>
       </c>
     </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A177" s="13" t="s">
         <v>194</v>
       </c>
@@ -10389,7 +10389,7 @@
         <v>1422.6</v>
       </c>
     </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A178" s="13" t="s">
         <v>195</v>
       </c>
@@ -10436,7 +10436,7 @@
         <v>1400.4</v>
       </c>
     </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A179" s="13" t="s">
         <v>196</v>
       </c>
@@ -10483,7 +10483,7 @@
         <v>1394.8</v>
       </c>
     </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A180" s="13" t="s">
         <v>197</v>
       </c>
@@ -10530,7 +10530,7 @@
         <v>1378.1</v>
       </c>
     </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A181" s="13" t="s">
         <v>198</v>
       </c>
@@ -10577,7 +10577,7 @@
         <v>1378.1</v>
       </c>
     </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A182" s="13" t="s">
         <v>199</v>
       </c>
@@ -10624,7 +10624,7 @@
         <v>1394.8</v>
       </c>
     </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A183" s="13" t="s">
         <v>200</v>
       </c>
@@ -10671,7 +10671,7 @@
         <v>1405.9</v>
       </c>
     </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A184" s="13" t="s">
         <v>201</v>
       </c>
@@ -10718,7 +10718,7 @@
         <v>1417</v>
       </c>
     </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A185" s="13" t="s">
         <v>202</v>
       </c>
@@ -10765,7 +10765,7 @@
         <v>1428.1</v>
       </c>
     </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A186" s="13" t="s">
         <v>203</v>
       </c>
@@ -10812,7 +10812,7 @@
         <v>1433.7</v>
       </c>
     </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A187" s="13" t="s">
         <v>204</v>
       </c>
@@ -10859,7 +10859,7 @@
         <v>1444.8</v>
       </c>
     </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A188" s="13" t="s">
         <v>205</v>
       </c>
@@ -10906,7 +10906,7 @@
         <v>1455.9</v>
       </c>
     </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A189" s="13" t="s">
         <v>206</v>
       </c>
@@ -10953,7 +10953,7 @@
         <v>1461.5</v>
       </c>
     </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A190" s="13" t="s">
         <v>207</v>
       </c>
@@ -11000,7 +11000,7 @@
         <v>1467.1</v>
       </c>
     </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A191" s="13" t="s">
         <v>208</v>
       </c>
@@ -11047,7 +11047,7 @@
         <v>1472.7</v>
       </c>
     </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A192" s="13" t="s">
         <v>209</v>
       </c>
@@ -11094,7 +11094,7 @@
         <v>1467.1</v>
       </c>
     </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A193" s="13" t="s">
         <v>210</v>
       </c>
@@ -11141,7 +11141,7 @@
         <v>1467.1</v>
       </c>
     </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A194" s="13" t="s">
         <v>211</v>
       </c>
@@ -11188,7 +11188,7 @@
         <v>1461.5</v>
       </c>
     </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A195" s="13" t="s">
         <v>212</v>
       </c>
@@ -11235,7 +11235,7 @@
         <v>1483.7</v>
       </c>
     </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A196" s="13" t="s">
         <v>213</v>
       </c>
@@ -11282,7 +11282,7 @@
         <v>1494.8</v>
       </c>
     </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A197" s="13" t="s">
         <v>214</v>
       </c>
@@ -11329,7 +11329,7 @@
         <v>1511.5</v>
       </c>
     </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A198" s="13" t="s">
         <v>215</v>
       </c>
@@ -11376,7 +11376,7 @@
         <v>1522.6</v>
       </c>
     </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A199" s="13" t="s">
         <v>216</v>
       </c>
@@ -11423,7 +11423,7 @@
         <v>1550.4</v>
       </c>
     </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A200" s="13" t="s">
         <v>217</v>
       </c>
@@ -11470,7 +11470,7 @@
         <v>1589.3</v>
       </c>
     </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A201" s="13" t="s">
         <v>218</v>
       </c>
@@ -11517,7 +11517,7 @@
         <v>1617.1</v>
       </c>
     </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A202" s="13" t="s">
         <v>219</v>
       </c>
@@ -11564,7 +11564,7 @@
         <v>1644.9</v>
       </c>
     </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A203" s="13" t="s">
         <v>220</v>
       </c>
@@ -11611,7 +11611,7 @@
         <v>1656</v>
       </c>
     </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A204" s="13" t="s">
         <v>221</v>
       </c>
@@ -11658,7 +11658,7 @@
         <v>1661.6</v>
       </c>
     </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A205" s="13" t="s">
         <v>222</v>
       </c>
@@ -11705,7 +11705,7 @@
         <v>1672.7</v>
       </c>
     </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A206" s="13" t="s">
         <v>223</v>
       </c>
@@ -11752,7 +11752,7 @@
         <v>1700.5</v>
       </c>
     </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A207" s="13" t="s">
         <v>224</v>
       </c>
@@ -11799,7 +11799,7 @@
         <v>1711.6</v>
       </c>
     </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A208" s="13" t="s">
         <v>225</v>
       </c>
@@ -11846,7 +11846,7 @@
         <v>1733.8</v>
       </c>
     </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A209" s="13" t="s">
         <v>226</v>
       </c>
@@ -11893,7 +11893,7 @@
         <v>1772.7</v>
       </c>
     </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A210" s="13" t="s">
         <v>227</v>
       </c>
@@ -11940,7 +11940,7 @@
         <v>1800.5</v>
       </c>
     </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A211" s="13" t="s">
         <v>228</v>
       </c>
@@ -11987,7 +11987,7 @@
         <v>1828.3</v>
       </c>
     </row>
-    <row r="212" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A212" s="13" t="s">
         <v>229</v>
       </c>
@@ -12034,7 +12034,7 @@
         <v>1828.3</v>
       </c>
     </row>
-    <row r="213" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A213" s="13" t="s">
         <v>230</v>
       </c>
@@ -12081,7 +12081,7 @@
         <v>1867.2</v>
       </c>
     </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A214" s="13" t="s">
         <v>231</v>
       </c>
@@ -12128,7 +12128,7 @@
         <v>1883.9</v>
       </c>
     </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A215" s="13" t="s">
         <v>232</v>
       </c>
@@ -12175,7 +12175,7 @@
         <v>1889.5</v>
       </c>
     </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A216" s="13" t="s">
         <v>233</v>
       </c>
@@ -12222,7 +12222,7 @@
         <v>1906.2</v>
       </c>
     </row>
-    <row r="217" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A217" s="13" t="s">
         <v>234</v>
       </c>
@@ -12269,7 +12269,7 @@
         <v>1934</v>
       </c>
     </row>
-    <row r="218" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A218" s="13" t="s">
         <v>235</v>
       </c>
@@ -12316,7 +12316,7 @@
         <v>1950.7</v>
       </c>
     </row>
-    <row r="219" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A219" s="13" t="s">
         <v>236</v>
       </c>
@@ -12363,7 +12363,7 @@
         <v>1967.4</v>
       </c>
     </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A220" s="13" t="s">
         <v>237</v>
       </c>
@@ -12410,7 +12410,7 @@
         <v>1961.8</v>
       </c>
     </row>
-    <row r="221" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A221" s="13" t="s">
         <v>238</v>
       </c>
@@ -12457,7 +12457,7 @@
         <v>1967.4</v>
       </c>
     </row>
-    <row r="222" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A222" s="13" t="s">
         <v>239</v>
       </c>
@@ -12504,7 +12504,7 @@
         <v>1961.8</v>
       </c>
     </row>
-    <row r="223" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A223" s="13" t="s">
         <v>240</v>
       </c>
@@ -12551,7 +12551,7 @@
         <v>1934</v>
       </c>
     </row>
-    <row r="224" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A224" s="13" t="s">
         <v>241</v>
       </c>
@@ -12598,7 +12598,7 @@
         <v>1906.2</v>
       </c>
     </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A225" s="13" t="s">
         <v>242</v>
       </c>
@@ -12645,7 +12645,7 @@
         <v>1856.2</v>
       </c>
     </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A226" s="13" t="s">
         <v>243</v>
       </c>
@@ -12692,7 +12692,7 @@
         <v>1828.4</v>
       </c>
     </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A227" s="13" t="s">
         <v>244</v>
       </c>
@@ -12739,7 +12739,7 @@
         <v>1800.6</v>
       </c>
     </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A228" s="13" t="s">
         <v>245</v>
       </c>
@@ -12786,7 +12786,7 @@
         <v>1783.9</v>
       </c>
     </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A229" s="13" t="s">
         <v>246</v>
       </c>
@@ -12833,7 +12833,7 @@
         <v>1761.7</v>
       </c>
     </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A230" s="13" t="s">
         <v>247</v>
       </c>
@@ -12880,7 +12880,7 @@
         <v>1728.4</v>
       </c>
     </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A231" s="13" t="s">
         <v>248</v>
       </c>
@@ -12927,7 +12927,7 @@
         <v>1700.6</v>
       </c>
     </row>
-    <row r="232" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A232" s="13" t="s">
         <v>249</v>
       </c>
@@ -12974,7 +12974,7 @@
         <v>1683.9</v>
       </c>
     </row>
-    <row r="233" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A233" s="13" t="s">
         <v>250</v>
       </c>
@@ -13021,7 +13021,7 @@
         <v>1656.1</v>
       </c>
     </row>
-    <row r="234" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A234" s="13" t="s">
         <v>251</v>
       </c>
@@ -13068,7 +13068,7 @@
         <v>1639.4</v>
       </c>
     </row>
-    <row r="235" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A235" s="13" t="s">
         <v>252</v>
       </c>
@@ -13115,7 +13115,7 @@
         <v>1645</v>
       </c>
     </row>
-    <row r="236" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A236" s="13" t="s">
         <v>253</v>
       </c>
@@ -13162,7 +13162,7 @@
         <v>1628.3</v>
       </c>
     </row>
-    <row r="237" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A237" s="13" t="s">
         <v>254</v>
       </c>
@@ -13209,7 +13209,7 @@
         <v>1611.6</v>
       </c>
     </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A238" s="13" t="s">
         <v>255</v>
       </c>
@@ -13256,7 +13256,7 @@
         <v>1578.3</v>
       </c>
     </row>
-    <row r="239" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A239" s="13" t="s">
         <v>256</v>
       </c>
@@ -13303,7 +13303,7 @@
         <v>1561.6</v>
       </c>
     </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A240" s="13" t="s">
         <v>257</v>
       </c>
@@ -13350,7 +13350,7 @@
         <v>1550.5</v>
       </c>
     </row>
-    <row r="241" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A241" s="13" t="s">
         <v>258</v>
       </c>
@@ -13397,7 +13397,7 @@
         <v>1550.5</v>
       </c>
     </row>
-    <row r="242" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A242" s="13" t="s">
         <v>259</v>
       </c>
@@ -13444,7 +13444,7 @@
         <v>1550.5</v>
       </c>
     </row>
-    <row r="243" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A243" s="13" t="s">
         <v>260</v>
       </c>
@@ -13491,7 +13491,7 @@
         <v>1561.6</v>
       </c>
     </row>
-    <row r="244" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A244" s="13" t="s">
         <v>261</v>
       </c>
@@ -13538,7 +13538,7 @@
         <v>1556</v>
       </c>
     </row>
-    <row r="245" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A245" s="13" t="s">
         <v>262</v>
       </c>
@@ -13585,7 +13585,7 @@
         <v>1550.4</v>
       </c>
     </row>
-    <row r="246" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A246" s="13" t="s">
         <v>263</v>
       </c>
@@ -13632,7 +13632,7 @@
         <v>1544.8</v>
       </c>
     </row>
-    <row r="247" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A247" s="13" t="s">
         <v>264</v>
       </c>
@@ -13679,7 +13679,7 @@
         <v>1539.2</v>
       </c>
     </row>
-    <row r="248" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A248" s="13" t="s">
         <v>265</v>
       </c>
@@ -13726,7 +13726,7 @@
         <v>1550.3</v>
       </c>
     </row>
-    <row r="249" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A249" s="13" t="s">
         <v>266</v>
       </c>
@@ -13773,7 +13773,7 @@
         <v>1578.1</v>
       </c>
     </row>
-    <row r="250" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A250" s="13" t="s">
         <v>267</v>
       </c>
@@ -13820,7 +13820,7 @@
         <v>1594.8</v>
       </c>
     </row>
-    <row r="251" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A251" s="13" t="s">
         <v>268</v>
       </c>
@@ -13867,7 +13867,7 @@
         <v>1600.4</v>
       </c>
     </row>
-    <row r="252" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A252" s="13" t="s">
         <v>269</v>
       </c>
@@ -13914,7 +13914,7 @@
         <v>1578.2</v>
       </c>
     </row>
-    <row r="253" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A253" s="13" t="s">
         <v>270</v>
       </c>
@@ -13961,7 +13961,7 @@
         <v>1578.2</v>
       </c>
     </row>
-    <row r="254" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A254" s="13" t="s">
         <v>271</v>
       </c>
@@ -14008,7 +14008,7 @@
         <v>1556</v>
       </c>
     </row>
-    <row r="255" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A255" s="13" t="s">
         <v>272</v>
       </c>
@@ -14055,7 +14055,7 @@
         <v>1539.3</v>
       </c>
     </row>
-    <row r="256" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A256" s="13" t="s">
         <v>273</v>
       </c>
@@ -14102,7 +14102,7 @@
         <v>1550.4</v>
       </c>
     </row>
-    <row r="257" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A257" s="13" t="s">
         <v>274</v>
       </c>
@@ -14149,7 +14149,7 @@
         <v>1556</v>
       </c>
     </row>
-    <row r="258" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A258" s="13" t="s">
         <v>275</v>
       </c>
@@ -14196,7 +14196,7 @@
         <v>1572.7</v>
       </c>
     </row>
-    <row r="259" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A259" s="13" t="s">
         <v>276</v>
       </c>
@@ -14243,7 +14243,7 @@
         <v>1544.9</v>
       </c>
     </row>
-    <row r="260" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A260" s="13" t="s">
         <v>277</v>
       </c>
@@ -14290,7 +14290,7 @@
         <v>1550.5</v>
       </c>
     </row>
-    <row r="261" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A261" s="13" t="s">
         <v>278</v>
       </c>
@@ -14337,7 +14337,7 @@
         <v>1539.4</v>
       </c>
     </row>
-    <row r="262" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A262" s="13" t="s">
         <v>279</v>
       </c>
@@ -14384,7 +14384,7 @@
         <v>1517.2</v>
       </c>
     </row>
-    <row r="263" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A263" s="13" t="s">
         <v>280</v>
       </c>
@@ -14431,7 +14431,7 @@
         <v>1506.1</v>
       </c>
     </row>
-    <row r="264" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A264" s="13" t="s">
         <v>281</v>
       </c>
@@ -14478,7 +14478,7 @@
         <v>1489.4</v>
       </c>
     </row>
-    <row r="265" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A265" s="13" t="s">
         <v>282</v>
       </c>
@@ -14525,7 +14525,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="266" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A266" s="13" t="s">
         <v>283</v>
       </c>
@@ -14572,7 +14572,7 @@
         <v>1483.9</v>
       </c>
     </row>
-    <row r="267" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A267" s="13" t="s">
         <v>284</v>
       </c>
@@ -14619,7 +14619,7 @@
         <v>1483.9</v>
       </c>
     </row>
-    <row r="268" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A268" s="13" t="s">
         <v>285</v>
       </c>
@@ -14666,7 +14666,7 @@
         <v>1478.3</v>
       </c>
     </row>
-    <row r="269" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A269" s="13" t="s">
         <v>286</v>
       </c>
@@ -14713,7 +14713,7 @@
         <v>1467.2</v>
       </c>
     </row>
-    <row r="270" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A270" s="13" t="s">
         <v>287</v>
       </c>
@@ -14760,7 +14760,7 @@
         <v>1433.9</v>
       </c>
     </row>
-    <row r="271" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A271" s="13" t="s">
         <v>288</v>
       </c>
@@ -14807,7 +14807,7 @@
         <v>1417.2</v>
       </c>
     </row>
-    <row r="272" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A272" s="13" t="s">
         <v>289</v>
       </c>
@@ -14854,7 +14854,7 @@
         <v>1395</v>
       </c>
     </row>
-    <row r="273" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A273" s="13" t="s">
         <v>290</v>
       </c>
@@ -14901,7 +14901,7 @@
         <v>1400.6</v>
       </c>
     </row>
-    <row r="274" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A274" s="13" t="s">
         <v>291</v>
       </c>
@@ -14948,7 +14948,7 @@
         <v>1378.4</v>
       </c>
     </row>
-    <row r="275" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A275" s="13" t="s">
         <v>292</v>
       </c>
@@ -14995,7 +14995,7 @@
         <v>1367.3</v>
       </c>
     </row>
-    <row r="276" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A276" s="13" t="s">
         <v>293</v>
       </c>
@@ -15042,7 +15042,7 @@
         <v>1350.6</v>
       </c>
     </row>
-    <row r="277" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A277" s="13" t="s">
         <v>294</v>
       </c>
@@ -15089,7 +15089,7 @@
         <v>1356.2</v>
       </c>
     </row>
-    <row r="278" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A278" s="13" t="s">
         <v>295</v>
       </c>
@@ -15136,7 +15136,7 @@
         <v>1350.6</v>
       </c>
     </row>
-    <row r="279" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A279" s="13" t="s">
         <v>296</v>
       </c>
@@ -15183,7 +15183,7 @@
         <v>1350.6</v>
       </c>
     </row>
-    <row r="280" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A280" s="13" t="s">
         <v>297</v>
       </c>
@@ -15230,7 +15230,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="281" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A281" s="13" t="s">
         <v>298</v>
       </c>
@@ -15277,7 +15277,7 @@
         <v>1350.6</v>
       </c>
     </row>
-    <row r="282" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A282" s="13" t="s">
         <v>299</v>
       </c>
@@ -15324,7 +15324,7 @@
         <v>1378.4</v>
       </c>
     </row>
-    <row r="283" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A283" s="13" t="s">
         <v>300</v>
       </c>
@@ -15371,7 +15371,7 @@
         <v>1372.8</v>
       </c>
     </row>
-    <row r="284" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A284" s="13" t="s">
         <v>301</v>
       </c>
@@ -15418,7 +15418,7 @@
         <v>1383.9</v>
       </c>
     </row>
-    <row r="285" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A285" s="13" t="s">
         <v>302</v>
       </c>
@@ -15465,7 +15465,7 @@
         <v>1395</v>
       </c>
     </row>
-    <row r="286" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A286" s="13" t="s">
         <v>303</v>
       </c>
@@ -15512,7 +15512,7 @@
         <v>1411.7</v>
       </c>
     </row>
-    <row r="287" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A287" s="13" t="s">
         <v>304</v>
       </c>
@@ -15559,7 +15559,7 @@
         <v>1422.8</v>
       </c>
     </row>
-    <row r="288" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A288" s="13" t="s">
         <v>305</v>
       </c>
@@ -15606,7 +15606,7 @@
         <v>1439.5</v>
       </c>
     </row>
-    <row r="289" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A289" s="13" t="s">
         <v>306</v>
       </c>
@@ -15653,7 +15653,7 @@
         <v>1467.3</v>
       </c>
     </row>
-    <row r="290" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A290" s="13" t="s">
         <v>307</v>
       </c>
@@ -15700,7 +15700,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="291" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A291" s="13" t="s">
         <v>308</v>
       </c>
@@ -15747,7 +15747,7 @@
         <v>1511.8</v>
       </c>
     </row>
-    <row r="292" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A292" s="13" t="s">
         <v>309</v>
       </c>
@@ -15794,7 +15794,7 @@
         <v>1550.7</v>
       </c>
     </row>
-    <row r="293" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A293" s="13" t="s">
         <v>310</v>
       </c>
@@ -15841,7 +15841,7 @@
         <v>1567.4</v>
       </c>
     </row>
-    <row r="294" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A294" s="13" t="s">
         <v>311</v>
       </c>
@@ -15888,7 +15888,7 @@
         <v>1584.1</v>
       </c>
     </row>
-    <row r="295" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A295" s="13" t="s">
         <v>312</v>
       </c>
@@ -15935,7 +15935,7 @@
         <v>1606.3</v>
       </c>
     </row>
-    <row r="296" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A296" s="13" t="s">
         <v>313</v>
       </c>
@@ -15982,7 +15982,7 @@
         <v>1634.1</v>
       </c>
     </row>
-    <row r="297" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A297" s="13" t="s">
         <v>314</v>
       </c>
@@ -16029,7 +16029,7 @@
         <v>1650.8</v>
       </c>
     </row>
-    <row r="298" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A298" s="13" t="s">
         <v>315</v>
       </c>
@@ -16076,7 +16076,7 @@
         <v>1656.4</v>
       </c>
     </row>
-    <row r="299" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A299" s="13" t="s">
         <v>316</v>
       </c>
@@ -16123,7 +16123,7 @@
         <v>1684.2</v>
       </c>
     </row>
-    <row r="300" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A300" s="13" t="s">
         <v>317</v>
       </c>
@@ -16170,7 +16170,7 @@
         <v>1717.5</v>
       </c>
     </row>
-    <row r="301" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A301" s="13" t="s">
         <v>318</v>
       </c>
@@ -16217,7 +16217,7 @@
         <v>1728.6</v>
       </c>
     </row>
-    <row r="302" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A302" s="13" t="s">
         <v>319</v>
       </c>
@@ -16264,7 +16264,7 @@
         <v>1750.8</v>
       </c>
     </row>
-    <row r="303" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A303" s="13" t="s">
         <v>320</v>
       </c>
@@ -16311,7 +16311,7 @@
         <v>1795.2</v>
       </c>
     </row>
-    <row r="304" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A304" s="13" t="s">
         <v>321</v>
       </c>
@@ -16358,7 +16358,7 @@
         <v>1806.3</v>
       </c>
     </row>
-    <row r="305" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A305" s="13" t="s">
         <v>322</v>
       </c>
@@ -16405,7 +16405,7 @@
         <v>1811.9</v>
       </c>
     </row>
-    <row r="306" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A306" s="13" t="s">
         <v>323</v>
       </c>
@@ -16452,7 +16452,7 @@
         <v>1806.3</v>
       </c>
     </row>
-    <row r="307" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A307" s="13" t="s">
         <v>324</v>
       </c>
@@ -16499,7 +16499,7 @@
         <v>1817.4</v>
       </c>
     </row>
-    <row r="308" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A308" s="13" t="s">
         <v>325</v>
       </c>
@@ -16546,7 +16546,7 @@
         <v>1817.4</v>
       </c>
     </row>
-    <row r="309" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A309" s="13" t="s">
         <v>326</v>
       </c>
@@ -16593,7 +16593,7 @@
         <v>1823</v>
       </c>
     </row>
-    <row r="310" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A310" s="13" t="s">
         <v>327</v>
       </c>
@@ -16640,7 +16640,7 @@
         <v>1850.8</v>
       </c>
     </row>
-    <row r="311" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A311" s="13" t="s">
         <v>328</v>
       </c>
@@ -16687,7 +16687,7 @@
         <v>1867.5</v>
       </c>
     </row>
-    <row r="312" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A312" s="13" t="s">
         <v>329</v>
       </c>
@@ -16734,7 +16734,7 @@
         <v>1884.2</v>
       </c>
     </row>
-    <row r="313" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A313" s="13" t="s">
         <v>330</v>
       </c>
@@ -16781,7 +16781,7 @@
         <v>1873.1</v>
       </c>
     </row>
-    <row r="314" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A314" s="13" t="s">
         <v>331</v>
       </c>
@@ -16828,7 +16828,7 @@
         <v>1889.8</v>
       </c>
     </row>
-    <row r="315" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A315" s="13" t="s">
         <v>332</v>
       </c>
@@ -16875,7 +16875,7 @@
         <v>1917.6</v>
       </c>
     </row>
-    <row r="316" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A316" s="13" t="s">
         <v>333</v>
       </c>
@@ -16922,7 +16922,7 @@
         <v>1939.8</v>
       </c>
     </row>
-    <row r="317" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A317" s="13" t="s">
         <v>334</v>
       </c>
@@ -16969,7 +16969,7 @@
         <v>1945.4</v>
       </c>
     </row>
-    <row r="318" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A318" s="13" t="s">
         <v>335</v>
       </c>
@@ -17016,7 +17016,7 @@
         <v>1951</v>
       </c>
     </row>
-    <row r="319" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A319" s="13" t="s">
         <v>336</v>
       </c>
@@ -17063,7 +17063,7 @@
         <v>1962.1</v>
       </c>
     </row>
-    <row r="320" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A320" s="13" t="s">
         <v>337</v>
       </c>
@@ -17110,7 +17110,7 @@
         <v>1984.3</v>
       </c>
     </row>
-    <row r="321" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A321" s="13" t="s">
         <v>338</v>
       </c>
@@ -17157,7 +17157,7 @@
         <v>2012.1</v>
       </c>
     </row>
-    <row r="322" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A322" s="13" t="s">
         <v>339</v>
       </c>
@@ -17204,7 +17204,7 @@
         <v>2045.4</v>
       </c>
     </row>
-    <row r="323" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A323" s="13" t="s">
         <v>340</v>
       </c>
@@ -17251,7 +17251,7 @@
         <v>2067.6</v>
       </c>
     </row>
-    <row r="324" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A324" s="13" t="s">
         <v>341</v>
       </c>
@@ -17298,7 +17298,7 @@
         <v>2106.5</v>
       </c>
     </row>
-    <row r="325" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A325" s="13" t="s">
         <v>342</v>
       </c>
@@ -17345,7 +17345,7 @@
         <v>2134.3000000000002</v>
       </c>
     </row>
-    <row r="326" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A326" s="13" t="s">
         <v>343</v>
       </c>
@@ -17392,7 +17392,7 @@
         <v>2151</v>
       </c>
     </row>
-    <row r="327" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A327" s="13" t="s">
         <v>344</v>
       </c>
@@ -17439,7 +17439,7 @@
         <v>2162.1</v>
       </c>
     </row>
-    <row r="328" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A328" s="13" t="s">
         <v>345</v>
       </c>
@@ -17486,7 +17486,7 @@
         <v>2173.1999999999998</v>
       </c>
     </row>
-    <row r="329" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A329" s="13" t="s">
         <v>346</v>
       </c>
@@ -17533,7 +17533,7 @@
         <v>2189.9</v>
       </c>
     </row>
-    <row r="330" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A330" s="13" t="s">
         <v>347</v>
       </c>
@@ -17580,7 +17580,7 @@
         <v>2217.6999999999998</v>
       </c>
     </row>
-    <row r="331" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A331" s="13" t="s">
         <v>348</v>
       </c>
@@ -17627,7 +17627,7 @@
         <v>2239.9</v>
       </c>
     </row>
-    <row r="332" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A332" s="13" t="s">
         <v>349</v>
       </c>
@@ -17674,7 +17674,7 @@
         <v>2223.1999999999998</v>
       </c>
     </row>
-    <row r="333" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A333" s="13" t="s">
         <v>350</v>
       </c>
@@ -17721,7 +17721,7 @@
         <v>2228.8000000000002</v>
       </c>
     </row>
-    <row r="334" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A334" s="13" t="s">
         <v>351</v>
       </c>
@@ -17768,7 +17768,7 @@
         <v>2223.1999999999998</v>
       </c>
     </row>
-    <row r="335" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A335" s="13" t="s">
         <v>352</v>
       </c>
@@ -17815,7 +17815,7 @@
         <v>2251</v>
       </c>
     </row>
-    <row r="336" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A336" s="13" t="s">
         <v>353</v>
       </c>
@@ -17862,7 +17862,7 @@
         <v>2278.8000000000002</v>
       </c>
     </row>
-    <row r="337" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A337" s="13" t="s">
         <v>354</v>
       </c>
@@ -17909,7 +17909,7 @@
         <v>2317.6999999999998</v>
       </c>
     </row>
-    <row r="338" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A338" s="13" t="s">
         <v>355</v>
       </c>
@@ -17956,7 +17956,7 @@
         <v>2339.9</v>
       </c>
     </row>
-    <row r="339" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A339" s="13" t="s">
         <v>356</v>
       </c>
@@ -18003,7 +18003,7 @@
         <v>2351</v>
       </c>
     </row>
-    <row r="340" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A340" s="13" t="s">
         <v>357</v>
       </c>
@@ -18050,7 +18050,7 @@
         <v>2367.6999999999998</v>
       </c>
     </row>
-    <row r="341" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A341" s="13" t="s">
         <v>358</v>
       </c>
@@ -18097,7 +18097,7 @@
         <v>2384.4</v>
       </c>
     </row>
-    <row r="342" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A342" s="13" t="s">
         <v>359</v>
       </c>
@@ -18144,7 +18144,7 @@
         <v>2412.1999999999998</v>
       </c>
     </row>
-    <row r="343" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A343" s="13" t="s">
         <v>360</v>
       </c>
@@ -18191,7 +18191,7 @@
         <v>2440</v>
       </c>
     </row>
-    <row r="344" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A344" s="13" t="s">
         <v>361</v>
       </c>
@@ -18238,7 +18238,7 @@
         <v>2434.4</v>
       </c>
     </row>
-    <row r="345" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A345" s="13" t="s">
         <v>362</v>
       </c>
@@ -18285,7 +18285,7 @@
         <v>2423.3000000000002</v>
       </c>
     </row>
-    <row r="346" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A346" s="13" t="s">
         <v>363</v>
       </c>
@@ -18332,7 +18332,7 @@
         <v>2384.4</v>
       </c>
     </row>
-    <row r="347" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A347" s="13" t="s">
         <v>364</v>
       </c>
@@ -18379,7 +18379,7 @@
         <v>2356.6</v>
       </c>
     </row>
-    <row r="348" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A348" s="13" t="s">
         <v>365</v>
       </c>
@@ -18426,7 +18426,7 @@
         <v>2328.8000000000002</v>
       </c>
     </row>
-    <row r="349" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A349" s="13" t="s">
         <v>366</v>
       </c>
@@ -18473,7 +18473,7 @@
         <v>2312.1</v>
       </c>
     </row>
-    <row r="350" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A350" s="13" t="s">
         <v>367</v>
       </c>
@@ -18520,7 +18520,7 @@
         <v>2273.1999999999998</v>
       </c>
     </row>
-    <row r="351" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A351" s="13" t="s">
         <v>368</v>
       </c>
@@ -18567,7 +18567,7 @@
         <v>2256.5</v>
       </c>
     </row>
-    <row r="352" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A352" s="13" t="s">
         <v>369</v>
       </c>
@@ -18614,7 +18614,7 @@
         <v>2217.6</v>
       </c>
     </row>
-    <row r="353" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A353" s="13" t="s">
         <v>370</v>
       </c>
@@ -18661,7 +18661,7 @@
         <v>2212</v>
       </c>
     </row>
-    <row r="354" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A354" s="13" t="s">
         <v>371</v>
       </c>
@@ -18708,7 +18708,7 @@
         <v>2162</v>
       </c>
     </row>
-    <row r="355" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A355" s="13" t="s">
         <v>372</v>
       </c>
@@ -18755,7 +18755,7 @@
         <v>2112</v>
       </c>
     </row>
-    <row r="356" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A356" s="13" t="s">
         <v>373</v>
       </c>
@@ -18802,7 +18802,7 @@
         <v>2062</v>
       </c>
     </row>
-    <row r="357" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A357" s="13" t="s">
         <v>374</v>
       </c>
@@ -18849,7 +18849,7 @@
         <v>2023.1</v>
       </c>
     </row>
-    <row r="358" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A358" s="13" t="s">
         <v>375</v>
       </c>
@@ -18896,7 +18896,7 @@
         <v>1984.2</v>
       </c>
     </row>
-    <row r="359" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A359" s="13" t="s">
         <v>376</v>
       </c>
@@ -18943,7 +18943,7 @@
         <v>1956.4</v>
       </c>
     </row>
-    <row r="360" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A360" s="13" t="s">
         <v>377</v>
       </c>
@@ -18990,7 +18990,7 @@
         <v>1917.5</v>
       </c>
     </row>
-    <row r="361" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A361" s="13" t="s">
         <v>378</v>
       </c>
@@ -19037,7 +19037,7 @@
         <v>1878.6</v>
       </c>
     </row>
-    <row r="362" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A362" s="13" t="s">
         <v>379</v>
       </c>
@@ -19084,7 +19084,7 @@
         <v>1861.9</v>
       </c>
     </row>
-    <row r="363" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A363" s="13" t="s">
         <v>380</v>
       </c>
@@ -19131,7 +19131,7 @@
         <v>1845.2</v>
       </c>
     </row>
-    <row r="364" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A364" s="13" t="s">
         <v>381</v>
       </c>
@@ -19178,7 +19178,7 @@
         <v>1834.1</v>
       </c>
     </row>
-    <row r="365" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A365" s="13" t="s">
         <v>382</v>
       </c>
@@ -19225,7 +19225,7 @@
         <v>1817.4</v>
       </c>
     </row>
-    <row r="366" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A366" s="13" t="s">
         <v>383</v>
       </c>
@@ -19272,7 +19272,7 @@
         <v>1823</v>
       </c>
     </row>
-    <row r="367" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A367" s="13" t="s">
         <v>384</v>
       </c>
@@ -19319,7 +19319,7 @@
         <v>1839.7</v>
       </c>
     </row>
-    <row r="368" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A368" s="13" t="s">
         <v>385</v>
       </c>
@@ -19366,7 +19366,7 @@
         <v>1845.3</v>
       </c>
     </row>
-    <row r="369" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A369" s="13" t="s">
         <v>386</v>
       </c>
@@ -19413,7 +19413,7 @@
         <v>1862</v>
       </c>
     </row>
-    <row r="370" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A370" s="13" t="s">
         <v>387</v>
       </c>
@@ -19460,7 +19460,7 @@
         <v>1845.3</v>
       </c>
     </row>
-    <row r="371" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A371" s="13" t="s">
         <v>388</v>
       </c>
@@ -19507,7 +19507,7 @@
         <v>1845.3</v>
       </c>
     </row>
-    <row r="372" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A372" s="13" t="s">
         <v>389</v>
       </c>
@@ -19554,7 +19554,7 @@
         <v>1839.7</v>
       </c>
     </row>
-    <row r="373" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A373" s="13" t="s">
         <v>390</v>
       </c>
@@ -19601,7 +19601,7 @@
         <v>1878.6</v>
       </c>
     </row>
-    <row r="374" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A374" s="13" t="s">
         <v>391</v>
       </c>
@@ -19648,7 +19648,7 @@
         <v>1900.8</v>
       </c>
     </row>
-    <row r="375" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A375" s="13" t="s">
         <v>392</v>
       </c>
@@ -19695,7 +19695,7 @@
         <v>1906.4</v>
       </c>
     </row>
-    <row r="376" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A376" s="13" t="s">
         <v>393</v>
       </c>
@@ -19742,7 +19742,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="377" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A377" s="13" t="s">
         <v>394</v>
       </c>
@@ -19789,7 +19789,7 @@
         <v>1939.8</v>
       </c>
     </row>
-    <row r="378" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A378" s="13" t="s">
         <v>395</v>
       </c>
@@ -19836,7 +19836,7 @@
         <v>1945.4</v>
       </c>
     </row>
-    <row r="379" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A379" s="13" t="s">
         <v>396</v>
       </c>
@@ -19883,7 +19883,7 @@
         <v>1939.8</v>
       </c>
     </row>
-    <row r="380" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A380" s="13" t="s">
         <v>397</v>
       </c>
@@ -19930,7 +19930,7 @@
         <v>1956.5</v>
       </c>
     </row>
-    <row r="381" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A381" s="13" t="s">
         <v>398</v>
       </c>
@@ -19977,7 +19977,7 @@
         <v>1934.3</v>
       </c>
     </row>
-    <row r="382" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A382" s="13" t="s">
         <v>399</v>
       </c>
@@ -20024,7 +20024,7 @@
         <v>1917.6</v>
       </c>
     </row>
-    <row r="383" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A383" s="13" t="s">
         <v>400</v>
       </c>
@@ -20071,7 +20071,7 @@
         <v>1889.8</v>
       </c>
     </row>
-    <row r="384" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A384" s="13" t="s">
         <v>401</v>
       </c>
@@ -20118,7 +20118,7 @@
         <v>1906.5</v>
       </c>
     </row>
-    <row r="385" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A385" s="13" t="s">
         <v>402</v>
       </c>
@@ -20165,7 +20165,7 @@
         <v>1906.5</v>
       </c>
     </row>
-    <row r="386" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A386" s="13" t="s">
         <v>403</v>
       </c>
@@ -20212,7 +20212,7 @@
         <v>1934.3</v>
       </c>
     </row>
-    <row r="387" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A387" s="13" t="s">
         <v>404</v>
       </c>
@@ -20259,7 +20259,7 @@
         <v>1962.1</v>
       </c>
     </row>
-    <row r="388" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A388" s="13" t="s">
         <v>405</v>
       </c>
@@ -20306,7 +20306,7 @@
         <v>1978.8</v>
       </c>
     </row>
-    <row r="389" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A389" s="13" t="s">
         <v>406</v>
       </c>
@@ -20353,7 +20353,7 @@
         <v>1984.4</v>
       </c>
     </row>
-    <row r="390" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A390" s="13" t="s">
         <v>407</v>
       </c>
@@ -20400,7 +20400,7 @@
         <v>1973.3</v>
       </c>
     </row>
-    <row r="391" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A391" s="13" t="s">
         <v>408</v>
       </c>
@@ -20447,7 +20447,7 @@
         <v>1945.5</v>
       </c>
     </row>
-    <row r="392" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A392" s="13" t="s">
         <v>409</v>
       </c>
@@ -20494,7 +20494,7 @@
         <v>1951.1</v>
       </c>
     </row>
-    <row r="393" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A393" s="13" t="s">
         <v>410</v>
       </c>
@@ -20541,7 +20541,7 @@
         <v>1973.3</v>
       </c>
     </row>
-    <row r="394" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A394" s="13" t="s">
         <v>411</v>
       </c>
@@ -20588,7 +20588,7 @@
         <v>2001.1</v>
       </c>
     </row>
-    <row r="395" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A395" s="13" t="s">
         <v>412</v>
       </c>
@@ -20635,7 +20635,7 @@
         <v>2006.7</v>
       </c>
     </row>
-    <row r="396" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A396" s="13" t="s">
         <v>413</v>
       </c>
@@ -20682,7 +20682,7 @@
         <v>2001.1</v>
       </c>
     </row>
-    <row r="397" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A397" s="13" t="s">
         <v>414</v>
       </c>
@@ -20729,7 +20729,7 @@
         <v>1973.3</v>
       </c>
     </row>
-    <row r="398" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A398" s="13" t="s">
         <v>415</v>
       </c>
@@ -20776,7 +20776,7 @@
         <v>1956.6</v>
       </c>
     </row>
-    <row r="399" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A399" s="13" t="s">
         <v>416</v>
       </c>
@@ -20823,7 +20823,7 @@
         <v>1951</v>
       </c>
     </row>
-    <row r="400" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A400" s="13" t="s">
         <v>417</v>
       </c>
@@ -20870,7 +20870,7 @@
         <v>1973.2</v>
       </c>
     </row>
-    <row r="401" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A401" s="13" t="s">
         <v>418</v>
       </c>
@@ -20917,7 +20917,7 @@
         <v>1989.9</v>
       </c>
     </row>
-    <row r="402" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A402" s="13" t="s">
         <v>419</v>
       </c>
@@ -20964,7 +20964,7 @@
         <v>1984.3</v>
       </c>
     </row>
-    <row r="403" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A403" s="13" t="s">
         <v>420</v>
       </c>
@@ -21011,7 +21011,7 @@
         <v>1967.6</v>
       </c>
     </row>
-    <row r="404" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A404" s="13" t="s">
         <v>421</v>
       </c>
@@ -21058,7 +21058,7 @@
         <v>1962</v>
       </c>
     </row>
-    <row r="405" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A405" s="13" t="s">
         <v>422</v>
       </c>
@@ -21105,7 +21105,7 @@
         <v>1956.4</v>
       </c>
     </row>
-    <row r="406" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A406" s="13" t="s">
         <v>423</v>
       </c>
@@ -21152,7 +21152,7 @@
         <v>1950.8</v>
       </c>
     </row>
-    <row r="407" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A407" s="13" t="s">
         <v>424</v>
       </c>
@@ -21199,7 +21199,7 @@
         <v>1956.4</v>
       </c>
     </row>
-    <row r="408" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A408" s="13" t="s">
         <v>425</v>
       </c>
@@ -21246,7 +21246,7 @@
         <v>1962</v>
       </c>
     </row>
-    <row r="409" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A409" s="13" t="s">
         <v>426</v>
       </c>
@@ -21293,7 +21293,7 @@
         <v>1967.6</v>
       </c>
     </row>
-    <row r="410" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A410" s="13" t="s">
         <v>427</v>
       </c>
@@ -21340,7 +21340,7 @@
         <v>1978.7</v>
       </c>
     </row>
-    <row r="411" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A411" s="13" t="s">
         <v>428</v>
       </c>
@@ -21387,7 +21387,7 @@
         <v>2006.5</v>
       </c>
     </row>
-    <row r="412" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A412" s="13" t="s">
         <v>429</v>
       </c>
@@ -21434,7 +21434,7 @@
         <v>2045.4</v>
       </c>
     </row>
-    <row r="413" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A413" s="13" t="s">
         <v>430</v>
       </c>
@@ -21481,7 +21481,7 @@
         <v>2073.1999999999998</v>
       </c>
     </row>
-    <row r="414" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A414" s="13" t="s">
         <v>431</v>
       </c>
@@ -21528,7 +21528,7 @@
         <v>2101</v>
       </c>
     </row>
-    <row r="415" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A415" s="13" t="s">
         <v>432</v>
       </c>
@@ -21575,7 +21575,7 @@
         <v>2151</v>
       </c>
     </row>
-    <row r="416" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A416" s="13" t="s">
         <v>433</v>
       </c>
@@ -21622,7 +21622,7 @@
         <v>2167.6999999999998</v>
       </c>
     </row>
-    <row r="417" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A417" s="13" t="s">
         <v>434</v>
       </c>
@@ -21669,7 +21669,7 @@
         <v>2178.8000000000002</v>
       </c>
     </row>
-    <row r="418" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A418" s="13" t="s">
         <v>435</v>
       </c>
@@ -21716,7 +21716,7 @@
         <v>2167.6999999999998</v>
       </c>
     </row>
-    <row r="419" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A419" s="13" t="s">
         <v>436</v>
       </c>
@@ -21763,7 +21763,7 @@
         <v>2195.5</v>
       </c>
     </row>
-    <row r="420" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A420" s="13" t="s">
         <v>437</v>
       </c>
@@ -21810,7 +21810,7 @@
         <v>2206.6</v>
       </c>
     </row>
-    <row r="421" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A421" s="13" t="s">
         <v>438</v>
       </c>
@@ -21857,7 +21857,7 @@
         <v>2239.9</v>
       </c>
     </row>
-    <row r="422" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A422" s="13" t="s">
         <v>439</v>
       </c>
@@ -21904,7 +21904,7 @@
         <v>2234.3000000000002</v>
       </c>
     </row>
-    <row r="423" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A423" s="13" t="s">
         <v>440</v>
       </c>
@@ -21951,7 +21951,7 @@
         <v>2228.6999999999998</v>
       </c>
     </row>
-    <row r="424" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A424" s="13" t="s">
         <v>441</v>
       </c>
@@ -21998,7 +21998,7 @@
         <v>2212</v>
       </c>
     </row>
-    <row r="425" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A425" s="13" t="s">
         <v>442</v>
       </c>
@@ -22045,7 +22045,7 @@
         <v>2206.4</v>
       </c>
     </row>
-    <row r="426" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A426" s="13" t="s">
         <v>443</v>
       </c>
@@ -22092,7 +22092,7 @@
         <v>2195.3000000000002</v>
       </c>
     </row>
-    <row r="427" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A427" s="13" t="s">
         <v>444</v>
       </c>
@@ -22139,7 +22139,7 @@
         <v>2212</v>
       </c>
     </row>
-    <row r="428" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A428" s="13" t="s">
         <v>445</v>
       </c>
@@ -22186,7 +22186,7 @@
         <v>2200.9</v>
       </c>
     </row>
-    <row r="429" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A429" s="13" t="s">
         <v>446</v>
       </c>
@@ -22233,7 +22233,7 @@
         <v>2206.5</v>
       </c>
     </row>
-    <row r="430" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A430" s="13" t="s">
         <v>447</v>
       </c>
@@ -22280,7 +22280,7 @@
         <v>2212.1</v>
       </c>
     </row>
-    <row r="431" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A431" s="13" t="s">
         <v>448</v>
       </c>
@@ -22327,7 +22327,7 @@
         <v>2217.6999999999998</v>
       </c>
     </row>
-    <row r="432" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A432" s="13" t="s">
         <v>449</v>
       </c>
@@ -22374,7 +22374,7 @@
         <v>2217.6999999999998</v>
       </c>
     </row>
-    <row r="433" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A433" s="13" t="s">
         <v>450</v>
       </c>
@@ -22421,7 +22421,7 @@
         <v>2212.1</v>
       </c>
     </row>
-    <row r="434" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A434" s="13" t="s">
         <v>451</v>
       </c>
@@ -22468,7 +22468,7 @@
         <v>2195.4</v>
       </c>
     </row>
-    <row r="435" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A435" s="13" t="s">
         <v>452</v>
       </c>
@@ -22515,7 +22515,7 @@
         <v>2201</v>
       </c>
     </row>
-    <row r="436" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A436" s="13" t="s">
         <v>453</v>
       </c>
@@ -22562,7 +22562,7 @@
         <v>2184.3000000000002</v>
       </c>
     </row>
-    <row r="437" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A437" s="13" t="s">
         <v>454</v>
       </c>
@@ -22609,7 +22609,7 @@
         <v>2201</v>
       </c>
     </row>
-    <row r="438" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A438" s="13" t="s">
         <v>455</v>
       </c>
@@ -22656,7 +22656,7 @@
         <v>2206.6</v>
       </c>
     </row>
-    <row r="439" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A439" s="13" t="s">
         <v>456</v>
       </c>
@@ -22703,7 +22703,7 @@
         <v>2217.6999999999998</v>
       </c>
     </row>
-    <row r="440" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A440" s="13" t="s">
         <v>457</v>
       </c>
@@ -22750,7 +22750,7 @@
         <v>2217.6999999999998</v>
       </c>
     </row>
-    <row r="441" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A441" s="13" t="s">
         <v>458</v>
       </c>
@@ -22797,7 +22797,7 @@
         <v>2223.3000000000002</v>
       </c>
     </row>
-    <row r="442" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A442" s="13" t="s">
         <v>459</v>
       </c>
@@ -22844,7 +22844,7 @@
         <v>2240</v>
       </c>
     </row>
-    <row r="443" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A443" s="13" t="s">
         <v>460</v>
       </c>
@@ -22891,7 +22891,7 @@
         <v>2223.3000000000002</v>
       </c>
     </row>
-    <row r="444" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A444" s="13" t="s">
         <v>461</v>
       </c>
@@ -22938,7 +22938,7 @@
         <v>2228.9</v>
       </c>
     </row>
-    <row r="445" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A445" s="13" t="s">
         <v>462</v>
       </c>
@@ -22985,7 +22985,7 @@
         <v>2245.6</v>
       </c>
     </row>
-    <row r="446" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A446" s="13" t="s">
         <v>463</v>
       </c>
@@ -23032,7 +23032,7 @@
         <v>2273.4</v>
       </c>
     </row>
-    <row r="447" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A447" s="13" t="s">
         <v>464</v>
       </c>
@@ -23079,7 +23079,7 @@
         <v>2295.6</v>
       </c>
     </row>
-    <row r="448" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A448" s="13" t="s">
         <v>465</v>
       </c>
@@ -23126,7 +23126,7 @@
         <v>2334.5</v>
       </c>
     </row>
-    <row r="449" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A449" s="13" t="s">
         <v>466</v>
       </c>
@@ -23173,7 +23173,7 @@
         <v>2362.3000000000002</v>
       </c>
     </row>
-    <row r="450" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A450" s="13" t="s">
         <v>467</v>
       </c>
@@ -23220,7 +23220,7 @@
         <v>2390.1</v>
       </c>
     </row>
-    <row r="451" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A451" s="13" t="s">
         <v>468</v>
       </c>
@@ -23267,7 +23267,7 @@
         <v>2417.9</v>
       </c>
     </row>
-    <row r="452" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A452" s="13" t="s">
         <v>469</v>
       </c>
@@ -23314,7 +23314,7 @@
         <v>2456.8000000000002</v>
       </c>
     </row>
-    <row r="453" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A453" s="13" t="s">
         <v>470</v>
       </c>
@@ -23361,7 +23361,7 @@
         <v>2495.6999999999998</v>
       </c>
     </row>
-    <row r="454" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A454" s="13" t="s">
         <v>471</v>
       </c>
@@ -23408,7 +23408,7 @@
         <v>2512.4</v>
       </c>
     </row>
-    <row r="455" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A455" s="13" t="s">
         <v>472</v>
       </c>
@@ -23455,7 +23455,7 @@
         <v>2529.1</v>
       </c>
     </row>
-    <row r="456" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A456" s="13" t="s">
         <v>473</v>
       </c>
@@ -23502,7 +23502,7 @@
         <v>2534.6999999999998</v>
       </c>
     </row>
-    <row r="457" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A457" s="13" t="s">
         <v>474</v>
       </c>
@@ -23549,7 +23549,7 @@
         <v>2540.3000000000002</v>
       </c>
     </row>
-    <row r="458" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A458" s="13" t="s">
         <v>475</v>
       </c>
@@ -23596,7 +23596,7 @@
         <v>2545.9</v>
       </c>
     </row>
-    <row r="459" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A459" s="13" t="s">
         <v>476</v>
       </c>
@@ -23643,7 +23643,7 @@
         <v>2573.6999999999998</v>
       </c>
     </row>
-    <row r="460" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A460" s="13" t="s">
         <v>477</v>
       </c>
@@ -23690,7 +23690,7 @@
         <v>2618.1</v>
       </c>
     </row>
-    <row r="461" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A461" s="13" t="s">
         <v>478</v>
       </c>
@@ -23737,7 +23737,7 @@
         <v>2668.1</v>
       </c>
     </row>
-    <row r="462" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A462" s="13" t="s">
         <v>479</v>
       </c>
@@ -23784,7 +23784,7 @@
         <v>2707</v>
       </c>
     </row>
-    <row r="463" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A463" s="13" t="s">
         <v>480</v>
       </c>
@@ -23831,7 +23831,7 @@
         <v>2707</v>
       </c>
     </row>
-    <row r="464" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A464" s="13" t="s">
         <v>481</v>
       </c>
@@ -23878,7 +23878,7 @@
         <v>2729.2</v>
       </c>
     </row>
-    <row r="465" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A465" s="13" t="s">
         <v>482</v>
       </c>
@@ -23925,7 +23925,7 @@
         <v>2740.3</v>
       </c>
     </row>
-    <row r="466" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A466" s="13" t="s">
         <v>483</v>
       </c>
@@ -23972,7 +23972,7 @@
         <v>2745.9</v>
       </c>
     </row>
-    <row r="467" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A467" s="13" t="s">
         <v>484</v>
       </c>
@@ -24019,7 +24019,7 @@
         <v>2751.5</v>
       </c>
     </row>
-    <row r="468" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A468" s="13" t="s">
         <v>485</v>
       </c>
@@ -24066,7 +24066,7 @@
         <v>2757.1</v>
       </c>
     </row>
-    <row r="469" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A469" s="13" t="s">
         <v>486</v>
       </c>
@@ -24113,7 +24113,7 @@
         <v>2740.4</v>
       </c>
     </row>
-    <row r="470" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A470" s="13" t="s">
         <v>487</v>
       </c>
@@ -24160,7 +24160,7 @@
         <v>2729.3</v>
       </c>
     </row>
-    <row r="471" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A471" s="13" t="s">
         <v>488</v>
       </c>
@@ -24207,7 +24207,7 @@
         <v>2734.9</v>
       </c>
     </row>
-    <row r="472" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A472" s="13" t="s">
         <v>489</v>
       </c>
@@ -24254,7 +24254,7 @@
         <v>2740.5</v>
       </c>
     </row>
-    <row r="473" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A473" s="13" t="s">
         <v>490</v>
       </c>
@@ -24301,7 +24301,7 @@
         <v>2740.5</v>
       </c>
     </row>
-    <row r="474" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A474" s="13" t="s">
         <v>491</v>
       </c>
@@ -24348,7 +24348,7 @@
         <v>2740.5</v>
       </c>
     </row>
-    <row r="475" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A475" s="13" t="s">
         <v>492</v>
       </c>
@@ -24395,7 +24395,7 @@
         <v>2751.6</v>
       </c>
     </row>
-    <row r="476" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A476" s="13" t="s">
         <v>493</v>
       </c>
@@ -24442,7 +24442,7 @@
         <v>2768.3</v>
       </c>
     </row>
-    <row r="477" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A477" s="13" t="s">
         <v>494</v>
       </c>
@@ -24489,7 +24489,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="478" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A478" s="13" t="s">
         <v>495</v>
       </c>
@@ -24536,7 +24536,7 @@
         <v>2790.6</v>
       </c>
     </row>
-    <row r="479" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A479" s="13" t="s">
         <v>496</v>
       </c>
@@ -24583,7 +24583,7 @@
         <v>2818.4</v>
       </c>
     </row>
-    <row r="480" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A480" s="13" t="s">
         <v>497</v>
       </c>
@@ -24630,7 +24630,7 @@
         <v>2835.1</v>
       </c>
     </row>
-    <row r="481" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A481" s="13" t="s">
         <v>498</v>
       </c>
@@ -24677,7 +24677,7 @@
         <v>2851.8</v>
       </c>
     </row>
-    <row r="482" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A482" s="13" t="s">
         <v>499</v>
       </c>
@@ -24724,7 +24724,7 @@
         <v>2846.2</v>
       </c>
     </row>
-    <row r="483" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A483" s="13" t="s">
         <v>500</v>
       </c>
@@ -24771,7 +24771,7 @@
         <v>2851.8</v>
       </c>
     </row>
-    <row r="484" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A484" s="13" t="s">
         <v>501</v>
       </c>
@@ -24818,7 +24818,7 @@
         <v>2824</v>
       </c>
     </row>
-    <row r="485" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A485" s="13" t="s">
         <v>502</v>
       </c>
@@ -24865,7 +24865,7 @@
         <v>2790.7</v>
       </c>
     </row>
-    <row r="486" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A486" s="13" t="s">
         <v>503</v>
       </c>
@@ -24912,7 +24912,7 @@
         <v>2774</v>
       </c>
     </row>
-    <row r="487" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A487" s="13" t="s">
         <v>504</v>
       </c>
@@ -24959,7 +24959,7 @@
         <v>2779.6</v>
       </c>
     </row>
-    <row r="488" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A488" s="13" t="s">
         <v>505</v>
       </c>
@@ -25006,7 +25006,7 @@
         <v>2762.9</v>
       </c>
     </row>
-    <row r="489" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A489" s="13" t="s">
         <v>506</v>
       </c>
@@ -25053,7 +25053,7 @@
         <v>2724</v>
       </c>
     </row>
-    <row r="490" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A490" s="13" t="s">
         <v>507</v>
       </c>
@@ -25100,7 +25100,7 @@
         <v>2685.1</v>
       </c>
     </row>
-    <row r="491" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A491" s="13" t="s">
         <v>508</v>
       </c>
@@ -25147,7 +25147,7 @@
         <v>2640.7</v>
       </c>
     </row>
-    <row r="492" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A492" s="13" t="s">
         <v>509</v>
       </c>
@@ -25194,7 +25194,7 @@
         <v>2612.9</v>
       </c>
     </row>
-    <row r="493" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A493" s="13" t="s">
         <v>510</v>
       </c>
@@ -25241,7 +25241,7 @@
         <v>2607.3000000000002</v>
       </c>
     </row>
-    <row r="494" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A494" s="13" t="s">
         <v>511</v>
       </c>
@@ -25288,7 +25288,7 @@
         <v>2612.9</v>
       </c>
     </row>
-    <row r="495" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A495" s="13" t="s">
         <v>512</v>
       </c>
@@ -25335,7 +25335,7 @@
         <v>2607.3000000000002</v>
       </c>
     </row>
-    <row r="496" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A496" s="13" t="s">
         <v>513</v>
       </c>
@@ -25382,7 +25382,7 @@
         <v>2590.6</v>
       </c>
     </row>
-    <row r="497" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A497" s="13" t="s">
         <v>514</v>
       </c>
@@ -25429,7 +25429,7 @@
         <v>2585</v>
       </c>
     </row>
-    <row r="498" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A498" s="13" t="s">
         <v>515</v>
       </c>
@@ -25476,7 +25476,7 @@
         <v>2568.3000000000002</v>
       </c>
     </row>
-    <row r="499" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A499" s="13" t="s">
         <v>516</v>
       </c>
@@ -25523,7 +25523,7 @@
         <v>2568.3000000000002</v>
       </c>
     </row>
-    <row r="500" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A500" s="13" t="s">
         <v>517</v>
       </c>
@@ -25570,7 +25570,7 @@
         <v>2590.5</v>
       </c>
     </row>
-    <row r="501" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A501" s="13" t="s">
         <v>518</v>
       </c>
@@ -25617,7 +25617,7 @@
         <v>2640.5</v>
       </c>
     </row>
-    <row r="502" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A502" s="13" t="s">
         <v>519</v>
       </c>
@@ -25664,7 +25664,7 @@
         <v>2679.4</v>
       </c>
     </row>
-    <row r="503" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A503" s="13" t="s">
         <v>520</v>
       </c>
@@ -25711,7 +25711,7 @@
         <v>2718.3</v>
       </c>
     </row>
-    <row r="504" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A504" s="13" t="s">
         <v>521</v>
       </c>
@@ -25758,7 +25758,7 @@
         <v>2723.9</v>
       </c>
     </row>
-    <row r="505" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A505" s="13" t="s">
         <v>522</v>
       </c>
@@ -25805,7 +25805,7 @@
         <v>2735</v>
       </c>
     </row>
-    <row r="506" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A506" s="13" t="s">
         <v>523</v>
       </c>
@@ -25852,7 +25852,7 @@
         <v>2740.6</v>
       </c>
     </row>
-    <row r="507" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A507" s="13" t="s">
         <v>524</v>
       </c>
@@ -25899,7 +25899,7 @@
         <v>2723.9</v>
       </c>
     </row>
-    <row r="508" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A508" s="13" t="s">
         <v>525</v>
       </c>
@@ -25946,7 +25946,7 @@
         <v>2707.2</v>
       </c>
     </row>
-    <row r="509" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A509" s="13" t="s">
         <v>526</v>
       </c>
@@ -25993,7 +25993,7 @@
         <v>2701.6</v>
       </c>
     </row>
-    <row r="510" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A510" s="13" t="s">
         <v>527</v>
       </c>
@@ -26040,7 +26040,7 @@
         <v>2723.8</v>
       </c>
     </row>
-    <row r="511" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A511" s="13" t="s">
         <v>528</v>
       </c>
@@ -26087,7 +26087,7 @@
         <v>2740.5</v>
       </c>
     </row>
-    <row r="512" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A512" s="13" t="s">
         <v>529</v>
       </c>
@@ -26134,7 +26134,7 @@
         <v>2768.3</v>
       </c>
     </row>
-    <row r="513" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A513" s="13" t="s">
         <v>530</v>
       </c>
@@ -26181,7 +26181,7 @@
         <v>2773.9</v>
       </c>
     </row>
-    <row r="514" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A514" s="13" t="s">
         <v>531</v>
       </c>
@@ -26228,7 +26228,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="515" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A515" s="13" t="s">
         <v>532</v>
       </c>
@@ -26275,7 +26275,7 @@
         <v>2790.6</v>
       </c>
     </row>
-    <row r="516" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A516" s="13" t="s">
         <v>533</v>
       </c>
@@ -26322,7 +26322,7 @@
         <v>2796.2</v>
       </c>
     </row>
-    <row r="517" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A517" s="13" t="s">
         <v>534</v>
       </c>
@@ -26369,7 +26369,7 @@
         <v>2812.9</v>
       </c>
     </row>
-    <row r="518" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A518" s="13" t="s">
         <v>535</v>
       </c>
@@ -26416,7 +26416,7 @@
         <v>2857.3</v>
       </c>
     </row>
-    <row r="519" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A519" s="13" t="s">
         <v>536</v>
       </c>
@@ -26463,7 +26463,7 @@
         <v>2862.9</v>
       </c>
     </row>
-    <row r="520" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A520" s="13" t="s">
         <v>537</v>
       </c>
@@ -26510,7 +26510,7 @@
         <v>2890.7</v>
       </c>
     </row>
-    <row r="521" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A521" s="13" t="s">
         <v>538</v>
       </c>
@@ -26557,7 +26557,7 @@
         <v>2901.8</v>
       </c>
     </row>
-    <row r="522" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A522" s="13" t="s">
         <v>539</v>
       </c>
@@ -26604,7 +26604,7 @@
         <v>2918.5</v>
       </c>
     </row>
-    <row r="523" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A523" s="13" t="s">
         <v>540</v>
       </c>
@@ -26651,7 +26651,7 @@
         <v>2946.3</v>
       </c>
     </row>
-    <row r="524" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A524" s="13" t="s">
         <v>541</v>
       </c>
@@ -26698,7 +26698,7 @@
         <v>2963</v>
       </c>
     </row>
-    <row r="525" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A525" s="13" t="s">
         <v>542</v>
       </c>
@@ -26745,7 +26745,7 @@
         <v>2979.7</v>
       </c>
     </row>
-    <row r="526" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A526" s="13" t="s">
         <v>543</v>
       </c>
@@ -26792,7 +26792,7 @@
         <v>2974.1</v>
       </c>
     </row>
-    <row r="527" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A527" s="13" t="s">
         <v>544</v>
       </c>
@@ -26839,7 +26839,7 @@
         <v>2990.8</v>
       </c>
     </row>
-    <row r="528" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A528" s="13" t="s">
         <v>545</v>
       </c>
@@ -26886,7 +26886,7 @@
         <v>3001.9</v>
       </c>
     </row>
-    <row r="529" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A529" s="13" t="s">
         <v>546</v>
       </c>
@@ -26933,7 +26933,7 @@
         <v>3013</v>
       </c>
     </row>
-    <row r="530" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A530" s="13" t="s">
         <v>547</v>
       </c>
@@ -26980,7 +26980,7 @@
         <v>3007.4</v>
       </c>
     </row>
-    <row r="531" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A531" s="13" t="s">
         <v>548</v>
       </c>
@@ -27027,7 +27027,7 @@
         <v>3029.6</v>
       </c>
     </row>
-    <row r="532" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A532" s="13" t="s">
         <v>549</v>
       </c>
@@ -27074,7 +27074,7 @@
         <v>3057.4</v>
       </c>
     </row>
-    <row r="533" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A533" s="13" t="s">
         <v>550</v>
       </c>
@@ -27121,7 +27121,7 @@
         <v>3085.2</v>
       </c>
     </row>
-    <row r="534" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A534" s="13" t="s">
         <v>551</v>
       </c>
@@ -27168,7 +27168,7 @@
         <v>3101.9</v>
       </c>
     </row>
-    <row r="535" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A535" s="13" t="s">
         <v>552</v>
       </c>
@@ -27215,7 +27215,7 @@
         <v>3085.2</v>
       </c>
     </row>
-    <row r="536" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A536" s="13" t="s">
         <v>553</v>
       </c>
@@ -27262,7 +27262,7 @@
         <v>3085.2</v>
       </c>
     </row>
-    <row r="537" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A537" s="13" t="s">
         <v>554</v>
       </c>
@@ -27309,7 +27309,7 @@
         <v>3085.2</v>
       </c>
     </row>
-    <row r="538" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A538" s="13" t="s">
         <v>555</v>
       </c>
@@ -27326,7 +27326,7 @@
         <v>114.6</v>
       </c>
       <c r="F538" s="4">
-        <v>107.3</v>
+        <v>107.2</v>
       </c>
       <c r="G538" s="4">
         <v>111.3</v>
@@ -27356,7 +27356,7 @@
         <v>3113</v>
       </c>
     </row>
-    <row r="539" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A539" s="13" t="s">
         <v>556</v>
       </c>
@@ -27373,7 +27373,7 @@
         <v>115.7</v>
       </c>
       <c r="F539" s="4">
-        <v>108.8</v>
+        <v>108.7</v>
       </c>
       <c r="G539" s="4">
         <v>111.4</v>
@@ -27382,7 +27382,7 @@
         <v>113.4</v>
       </c>
       <c r="I539" s="4">
-        <v>107.7</v>
+        <v>107.6</v>
       </c>
       <c r="J539" s="4">
         <v>45.5</v>
@@ -27403,7 +27403,7 @@
         <v>3113</v>
       </c>
     </row>
-    <row r="540" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A540" s="13" t="s">
         <v>557</v>
       </c>
@@ -27450,7 +27450,7 @@
         <v>3124.1</v>
       </c>
     </row>
-    <row r="541" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A541" s="13" t="s">
         <v>558</v>
       </c>
@@ -27497,7 +27497,7 @@
         <v>3151.9</v>
       </c>
     </row>
-    <row r="542" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A542" s="13" t="s">
         <v>559</v>
       </c>
@@ -27514,7 +27514,7 @@
         <v>114.1</v>
       </c>
       <c r="F542" s="4">
-        <v>109.1</v>
+        <v>109</v>
       </c>
       <c r="G542" s="4">
         <v>108</v>
@@ -27523,7 +27523,7 @@
         <v>111.8</v>
       </c>
       <c r="I542" s="4">
-        <v>107.7</v>
+        <v>107.6</v>
       </c>
       <c r="J542" s="4">
         <v>18.2</v>
@@ -27544,7 +27544,7 @@
         <v>3168.6</v>
       </c>
     </row>
-    <row r="543" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A543" s="13" t="s">
         <v>560</v>
       </c>
@@ -27591,7 +27591,7 @@
         <v>3163</v>
       </c>
     </row>
-    <row r="544" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A544" s="13" t="s">
         <v>561</v>
       </c>
@@ -27638,7 +27638,7 @@
         <v>3179.7</v>
       </c>
     </row>
-    <row r="545" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A545" s="13" t="s">
         <v>562</v>
       </c>
@@ -27685,7 +27685,7 @@
         <v>3190.8</v>
       </c>
     </row>
-    <row r="546" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A546" s="13" t="s">
         <v>563</v>
       </c>
@@ -27711,7 +27711,7 @@
         <v>114.3</v>
       </c>
       <c r="I546" s="4">
-        <v>108.1</v>
+        <v>108</v>
       </c>
       <c r="J546" s="4">
         <v>50</v>
@@ -27732,7 +27732,7 @@
         <v>3207.5</v>
       </c>
     </row>
-    <row r="547" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A547" s="13" t="s">
         <v>564</v>
       </c>
@@ -27779,7 +27779,7 @@
         <v>3235.3</v>
       </c>
     </row>
-    <row r="548" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A548" s="13" t="s">
         <v>565</v>
       </c>
@@ -27805,7 +27805,7 @@
         <v>115.1</v>
       </c>
       <c r="I548" s="4">
-        <v>109.2</v>
+        <v>109.1</v>
       </c>
       <c r="J548" s="4">
         <v>50</v>
@@ -27826,7 +27826,7 @@
         <v>3263.1</v>
       </c>
     </row>
-    <row r="549" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A549" s="13" t="s">
         <v>566</v>
       </c>
@@ -27873,7 +27873,7 @@
         <v>3279.8</v>
       </c>
     </row>
-    <row r="550" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A550" s="13" t="s">
         <v>567</v>
       </c>
@@ -27920,7 +27920,7 @@
         <v>3290.9</v>
       </c>
     </row>
-    <row r="551" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A551" s="13" t="s">
         <v>568</v>
       </c>
@@ -27967,7 +27967,7 @@
         <v>3307.6</v>
       </c>
     </row>
-    <row r="552" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A552" s="13" t="s">
         <v>569</v>
       </c>
@@ -28014,7 +28014,7 @@
         <v>3324.3</v>
       </c>
     </row>
-    <row r="553" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A553" s="13" t="s">
         <v>570</v>
       </c>
@@ -28061,7 +28061,7 @@
         <v>3324.3</v>
       </c>
     </row>
-    <row r="554" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A554" s="13" t="s">
         <v>571</v>
       </c>
@@ -28078,7 +28078,7 @@
         <v>112.8</v>
       </c>
       <c r="F554" s="4">
-        <v>112.4</v>
+        <v>112.2</v>
       </c>
       <c r="G554" s="4">
         <v>107.2</v>
@@ -28087,7 +28087,7 @@
         <v>111.2</v>
       </c>
       <c r="I554" s="4">
-        <v>110.4</v>
+        <v>110.2</v>
       </c>
       <c r="J554" s="4">
         <v>60</v>
@@ -28096,7 +28096,7 @@
         <v>0</v>
       </c>
       <c r="L554" s="4">
-        <v>37.5</v>
+        <v>25</v>
       </c>
       <c r="M554" s="4">
         <v>1214.5999999999999</v>
@@ -28105,10 +28105,10 @@
         <v>3128.3</v>
       </c>
       <c r="O554" s="4">
-        <v>3311.8</v>
-      </c>
-    </row>
-    <row r="555" spans="1:15" x14ac:dyDescent="0.2">
+        <v>3299.3</v>
+      </c>
+    </row>
+    <row r="555" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A555" s="13" t="s">
         <v>572</v>
       </c>
@@ -28119,43 +28119,43 @@
         <v>9</v>
       </c>
       <c r="D555" s="4">
-        <v>108</v>
+        <v>108.6</v>
       </c>
       <c r="E555" s="4">
         <v>114.6</v>
       </c>
       <c r="F555" s="4">
-        <v>113.2</v>
+        <v>112.4</v>
       </c>
       <c r="G555" s="4">
-        <v>108.2</v>
+        <v>108.7</v>
       </c>
       <c r="H555" s="4">
         <v>113</v>
       </c>
       <c r="I555" s="4">
-        <v>111.2</v>
+        <v>110.4</v>
       </c>
       <c r="J555" s="4">
-        <v>77.8</v>
+        <v>80</v>
       </c>
       <c r="K555" s="4">
-        <v>25</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="L555" s="4">
-        <v>25</v>
+        <v>37.5</v>
       </c>
       <c r="M555" s="4">
-        <v>1242.4000000000001</v>
+        <v>1244.5999999999999</v>
       </c>
       <c r="N555" s="4">
-        <v>3103.3</v>
+        <v>3111.6</v>
       </c>
       <c r="O555" s="4">
         <v>3286.8</v>
       </c>
     </row>
-    <row r="564" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="564" spans="4:9" x14ac:dyDescent="0.15">
       <c r="D564" s="3"/>
       <c r="E564" s="3"/>
       <c r="F564" s="3"/>

--- a/data/長期系列_CI指数_DI指数_DI景気指標.xlsx
+++ b/data/長期系列_CI指数_DI指数_DI景気指標.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\CI\０１／CI\０１／速報\★R7(2025)★\令和7年10月分\g研究所ホームページ掲載宛送付ファイル\jp\stat\di\di\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\CI\０１／CI\０２／速報からの改訂\★R7(2025)★\令和7年10月改訂\g研究所ホームページ掲載宛送付ファイル\jp\stat\di\di\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9AAED845-7478-42C1-A648-FE366EEBCB87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{91D86F4C-B40C-45B0-A9AF-48EEA40268E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
   </bookViews>
@@ -26,6 +26,9 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -5193,7 +5196,7 @@
         <v>90.8</v>
       </c>
       <c r="F67" s="4">
-        <v>85</v>
+        <v>84.9</v>
       </c>
       <c r="G67" s="4">
         <v>88.4</v>
@@ -5249,7 +5252,7 @@
         <v>93</v>
       </c>
       <c r="I68" s="4">
-        <v>84.9</v>
+        <v>84.8</v>
       </c>
       <c r="J68" s="4">
         <v>45.5</v>
@@ -5334,7 +5337,7 @@
         <v>91.4</v>
       </c>
       <c r="F70" s="4">
-        <v>86</v>
+        <v>85.9</v>
       </c>
       <c r="G70" s="4">
         <v>89.3</v>
@@ -5343,7 +5346,7 @@
         <v>94</v>
       </c>
       <c r="I70" s="4">
-        <v>86.2</v>
+        <v>86.1</v>
       </c>
       <c r="J70" s="4">
         <v>63.6</v>
@@ -5381,7 +5384,7 @@
         <v>91.3</v>
       </c>
       <c r="F71" s="4">
-        <v>86</v>
+        <v>85.9</v>
       </c>
       <c r="G71" s="4">
         <v>89.3</v>
@@ -5428,7 +5431,7 @@
         <v>90.6</v>
       </c>
       <c r="F72" s="4">
-        <v>86.4</v>
+        <v>86.3</v>
       </c>
       <c r="G72" s="4">
         <v>88.6</v>
@@ -5475,7 +5478,7 @@
         <v>91.6</v>
       </c>
       <c r="F73" s="4">
-        <v>87.5</v>
+        <v>87.4</v>
       </c>
       <c r="G73" s="4">
         <v>88.5</v>
@@ -5484,7 +5487,7 @@
         <v>94.3</v>
       </c>
       <c r="I73" s="4">
-        <v>87.6</v>
+        <v>87.5</v>
       </c>
       <c r="J73" s="4">
         <v>45.5</v>
@@ -5578,7 +5581,7 @@
         <v>93.7</v>
       </c>
       <c r="I75" s="4">
-        <v>87.3</v>
+        <v>87.2</v>
       </c>
       <c r="J75" s="4">
         <v>36.4</v>
@@ -5898,7 +5901,7 @@
         <v>90.1</v>
       </c>
       <c r="F82" s="4">
-        <v>85.6</v>
+        <v>85.5</v>
       </c>
       <c r="G82" s="4">
         <v>85.9</v>
@@ -5907,7 +5910,7 @@
         <v>92.8</v>
       </c>
       <c r="I82" s="4">
-        <v>86.4</v>
+        <v>86.3</v>
       </c>
       <c r="J82" s="4">
         <v>36.4</v>
@@ -6086,7 +6089,7 @@
         <v>88.5</v>
       </c>
       <c r="F86" s="4">
-        <v>85.5</v>
+        <v>85.4</v>
       </c>
       <c r="G86" s="4">
         <v>85</v>
@@ -6095,7 +6098,7 @@
         <v>91.1</v>
       </c>
       <c r="I86" s="4">
-        <v>86.2</v>
+        <v>86.1</v>
       </c>
       <c r="J86" s="4">
         <v>50</v>
@@ -6133,7 +6136,7 @@
         <v>90.1</v>
       </c>
       <c r="F87" s="4">
-        <v>85.8</v>
+        <v>85.7</v>
       </c>
       <c r="G87" s="4">
         <v>84.6</v>
@@ -6142,7 +6145,7 @@
         <v>92.7</v>
       </c>
       <c r="I87" s="4">
-        <v>87</v>
+        <v>86.9</v>
       </c>
       <c r="J87" s="4">
         <v>72.7</v>
@@ -6180,7 +6183,7 @@
         <v>89.5</v>
       </c>
       <c r="F88" s="4">
-        <v>85.8</v>
+        <v>85.7</v>
       </c>
       <c r="G88" s="4">
         <v>84</v>
@@ -6236,7 +6239,7 @@
         <v>91.3</v>
       </c>
       <c r="I89" s="4">
-        <v>86.2</v>
+        <v>86.1</v>
       </c>
       <c r="J89" s="4">
         <v>36.4</v>
@@ -6283,7 +6286,7 @@
         <v>92.3</v>
       </c>
       <c r="I90" s="4">
-        <v>86.3</v>
+        <v>86.2</v>
       </c>
       <c r="J90" s="4">
         <v>72.7</v>
@@ -6556,7 +6559,7 @@
         <v>93.3</v>
       </c>
       <c r="F96" s="4">
-        <v>86.2</v>
+        <v>86.1</v>
       </c>
       <c r="G96" s="4">
         <v>94.5</v>
@@ -6697,7 +6700,7 @@
         <v>96.3</v>
       </c>
       <c r="F99" s="4">
-        <v>88.4</v>
+        <v>88.3</v>
       </c>
       <c r="G99" s="4">
         <v>98.2</v>
@@ -6706,7 +6709,7 @@
         <v>99.2</v>
       </c>
       <c r="I99" s="4">
-        <v>89.6</v>
+        <v>89.5</v>
       </c>
       <c r="J99" s="4">
         <v>81.8</v>
@@ -6791,7 +6794,7 @@
         <v>98.5</v>
       </c>
       <c r="F101" s="4">
-        <v>89.3</v>
+        <v>89.2</v>
       </c>
       <c r="G101" s="4">
         <v>101.3</v>
@@ -6885,7 +6888,7 @@
         <v>100.3</v>
       </c>
       <c r="F103" s="4">
-        <v>90.7</v>
+        <v>90.6</v>
       </c>
       <c r="G103" s="4">
         <v>102.6</v>
@@ -6941,7 +6944,7 @@
         <v>105.6</v>
       </c>
       <c r="I104" s="4">
-        <v>93</v>
+        <v>92.9</v>
       </c>
       <c r="J104" s="4">
         <v>77.3</v>
@@ -6979,7 +6982,7 @@
         <v>101.3</v>
       </c>
       <c r="F105" s="4">
-        <v>92.6</v>
+        <v>92.5</v>
       </c>
       <c r="G105" s="4">
         <v>102.8</v>
@@ -7026,7 +7029,7 @@
         <v>103.4</v>
       </c>
       <c r="F106" s="4">
-        <v>93</v>
+        <v>92.9</v>
       </c>
       <c r="G106" s="4">
         <v>103.1</v>
@@ -7035,7 +7038,7 @@
         <v>106.4</v>
       </c>
       <c r="I106" s="4">
-        <v>94.7</v>
+        <v>94.6</v>
       </c>
       <c r="J106" s="4">
         <v>36.4</v>
@@ -7073,7 +7076,7 @@
         <v>102.8</v>
       </c>
       <c r="F107" s="4">
-        <v>93.8</v>
+        <v>93.7</v>
       </c>
       <c r="G107" s="4">
         <v>103.5</v>
@@ -7120,7 +7123,7 @@
         <v>103.7</v>
       </c>
       <c r="F108" s="4">
-        <v>94.2</v>
+        <v>94.1</v>
       </c>
       <c r="G108" s="4">
         <v>103.7</v>
@@ -7129,7 +7132,7 @@
         <v>106.8</v>
       </c>
       <c r="I108" s="4">
-        <v>95.9</v>
+        <v>95.8</v>
       </c>
       <c r="J108" s="4">
         <v>54.5</v>
@@ -7261,7 +7264,7 @@
         <v>105.7</v>
       </c>
       <c r="F111" s="4">
-        <v>96.9</v>
+        <v>96.8</v>
       </c>
       <c r="G111" s="4">
         <v>103.3</v>
@@ -7308,7 +7311,7 @@
         <v>105.9</v>
       </c>
       <c r="F112" s="4">
-        <v>97.9</v>
+        <v>97.8</v>
       </c>
       <c r="G112" s="4">
         <v>104.5</v>
@@ -7364,7 +7367,7 @@
         <v>110.8</v>
       </c>
       <c r="I113" s="4">
-        <v>99.7</v>
+        <v>99.6</v>
       </c>
       <c r="J113" s="4">
         <v>63.6</v>
@@ -7402,7 +7405,7 @@
         <v>107.8</v>
       </c>
       <c r="F114" s="4">
-        <v>98.9</v>
+        <v>98.8</v>
       </c>
       <c r="G114" s="4">
         <v>106.7</v>
@@ -7411,7 +7414,7 @@
         <v>111</v>
       </c>
       <c r="I114" s="4">
-        <v>101</v>
+        <v>100.9</v>
       </c>
       <c r="J114" s="4">
         <v>81.8</v>
@@ -7543,7 +7546,7 @@
         <v>112.2</v>
       </c>
       <c r="F117" s="4">
-        <v>101.3</v>
+        <v>101.2</v>
       </c>
       <c r="G117" s="4">
         <v>106</v>
@@ -7637,7 +7640,7 @@
         <v>109.5</v>
       </c>
       <c r="F119" s="4">
-        <v>102.7</v>
+        <v>102.6</v>
       </c>
       <c r="G119" s="4">
         <v>105.3</v>
@@ -7731,7 +7734,7 @@
         <v>109.6</v>
       </c>
       <c r="F121" s="4">
-        <v>104.2</v>
+        <v>104.1</v>
       </c>
       <c r="G121" s="4">
         <v>105.5</v>
@@ -7881,7 +7884,7 @@
         <v>114.5</v>
       </c>
       <c r="I124" s="4">
-        <v>106.9</v>
+        <v>106.8</v>
       </c>
       <c r="J124" s="4">
         <v>45.5</v>
@@ -7919,7 +7922,7 @@
         <v>111.9</v>
       </c>
       <c r="F125" s="4">
-        <v>106</v>
+        <v>105.9</v>
       </c>
       <c r="G125" s="4">
         <v>106.4</v>
@@ -8210,7 +8213,7 @@
         <v>119</v>
       </c>
       <c r="I131" s="4">
-        <v>109.3</v>
+        <v>109.2</v>
       </c>
       <c r="J131" s="4">
         <v>63.6</v>
@@ -8248,7 +8251,7 @@
         <v>115.7</v>
       </c>
       <c r="F132" s="4">
-        <v>107.3</v>
+        <v>107.2</v>
       </c>
       <c r="G132" s="4">
         <v>108</v>
@@ -8680,7 +8683,7 @@
         <v>118.6</v>
       </c>
       <c r="I141" s="4">
-        <v>111.5</v>
+        <v>111.6</v>
       </c>
       <c r="J141" s="4">
         <v>18.2</v>
@@ -9047,7 +9050,7 @@
         <v>111.4</v>
       </c>
       <c r="F149" s="4">
-        <v>109</v>
+        <v>108.9</v>
       </c>
       <c r="G149" s="4">
         <v>92.7</v>
@@ -9094,7 +9097,7 @@
         <v>109.4</v>
       </c>
       <c r="F150" s="4">
-        <v>108.1</v>
+        <v>108</v>
       </c>
       <c r="G150" s="4">
         <v>91.5</v>
@@ -9235,7 +9238,7 @@
         <v>105.7</v>
       </c>
       <c r="F153" s="4">
-        <v>106.1</v>
+        <v>106</v>
       </c>
       <c r="G153" s="4">
         <v>90</v>
@@ -9376,7 +9379,7 @@
         <v>102.5</v>
       </c>
       <c r="F156" s="4">
-        <v>104.5</v>
+        <v>104.4</v>
       </c>
       <c r="G156" s="4">
         <v>87.7</v>
@@ -9470,7 +9473,7 @@
         <v>99.3</v>
       </c>
       <c r="F158" s="4">
-        <v>103.2</v>
+        <v>103.1</v>
       </c>
       <c r="G158" s="4">
         <v>86.9</v>
@@ -9705,7 +9708,7 @@
         <v>96.7</v>
       </c>
       <c r="F163" s="4">
-        <v>99.7</v>
+        <v>99.6</v>
       </c>
       <c r="G163" s="4">
         <v>86.7</v>
@@ -9761,7 +9764,7 @@
         <v>100.8</v>
       </c>
       <c r="I164" s="4">
-        <v>101</v>
+        <v>100.9</v>
       </c>
       <c r="J164" s="4">
         <v>54.5</v>
@@ -9846,7 +9849,7 @@
         <v>96</v>
       </c>
       <c r="F166" s="4">
-        <v>97.3</v>
+        <v>97.2</v>
       </c>
       <c r="G166" s="4">
         <v>88.6</v>
@@ -10034,7 +10037,7 @@
         <v>93.3</v>
       </c>
       <c r="F170" s="4">
-        <v>94.8</v>
+        <v>94.7</v>
       </c>
       <c r="G170" s="4">
         <v>90.3</v>
@@ -10043,7 +10046,7 @@
         <v>97.3</v>
       </c>
       <c r="I170" s="4">
-        <v>96.4</v>
+        <v>96.3</v>
       </c>
       <c r="J170" s="4">
         <v>36.4</v>
@@ -10090,7 +10093,7 @@
         <v>97.3</v>
       </c>
       <c r="I171" s="4">
-        <v>95.4</v>
+        <v>95.3</v>
       </c>
       <c r="J171" s="4">
         <v>63.6</v>
@@ -10137,7 +10140,7 @@
         <v>95.8</v>
       </c>
       <c r="I172" s="4">
-        <v>95.1</v>
+        <v>95</v>
       </c>
       <c r="J172" s="4">
         <v>45.5</v>
@@ -10410,7 +10413,7 @@
         <v>93.2</v>
       </c>
       <c r="F178" s="4">
-        <v>91.1</v>
+        <v>91</v>
       </c>
       <c r="G178" s="4">
         <v>94.2</v>
@@ -10419,7 +10422,7 @@
         <v>97</v>
       </c>
       <c r="I178" s="4">
-        <v>92.6</v>
+        <v>92.5</v>
       </c>
       <c r="J178" s="4">
         <v>81.8</v>
@@ -10560,7 +10563,7 @@
         <v>99</v>
       </c>
       <c r="I181" s="4">
-        <v>91.8</v>
+        <v>91.7</v>
       </c>
       <c r="J181" s="4">
         <v>77.3</v>
@@ -10607,7 +10610,7 @@
         <v>99.9</v>
       </c>
       <c r="I182" s="4">
-        <v>92.1</v>
+        <v>92</v>
       </c>
       <c r="J182" s="4">
         <v>81.8</v>
@@ -10654,7 +10657,7 @@
         <v>99.5</v>
       </c>
       <c r="I183" s="4">
-        <v>92.4</v>
+        <v>92.3</v>
       </c>
       <c r="J183" s="4">
         <v>63.6</v>
@@ -10692,7 +10695,7 @@
         <v>96.2</v>
       </c>
       <c r="F184" s="4">
-        <v>90.7</v>
+        <v>90.6</v>
       </c>
       <c r="G184" s="4">
         <v>98.7</v>
@@ -10739,7 +10742,7 @@
         <v>97.2</v>
       </c>
       <c r="F185" s="4">
-        <v>90.6</v>
+        <v>90.5</v>
       </c>
       <c r="G185" s="4">
         <v>100.2</v>
@@ -10786,7 +10789,7 @@
         <v>97.5</v>
       </c>
       <c r="F186" s="4">
-        <v>91.1</v>
+        <v>91</v>
       </c>
       <c r="G186" s="4">
         <v>101.1</v>
@@ -10842,7 +10845,7 @@
         <v>99.5</v>
       </c>
       <c r="I187" s="4">
-        <v>92.1</v>
+        <v>92</v>
       </c>
       <c r="J187" s="4">
         <v>45.5</v>
@@ -10889,7 +10892,7 @@
         <v>101.7</v>
       </c>
       <c r="I188" s="4">
-        <v>92.8</v>
+        <v>92.7</v>
       </c>
       <c r="J188" s="4">
         <v>54.5</v>
@@ -11030,7 +11033,7 @@
         <v>101.9</v>
       </c>
       <c r="I191" s="4">
-        <v>92.7</v>
+        <v>92.6</v>
       </c>
       <c r="J191" s="4">
         <v>18.2</v>
@@ -11077,7 +11080,7 @@
         <v>102.2</v>
       </c>
       <c r="I192" s="4">
-        <v>92.7</v>
+        <v>92.6</v>
       </c>
       <c r="J192" s="4">
         <v>18.2</v>
@@ -11162,7 +11165,7 @@
         <v>97.8</v>
       </c>
       <c r="F194" s="4">
-        <v>91.3</v>
+        <v>91.2</v>
       </c>
       <c r="G194" s="4">
         <v>99.8</v>
@@ -11303,7 +11306,7 @@
         <v>98.6</v>
       </c>
       <c r="F197" s="4">
-        <v>92.2</v>
+        <v>92.1</v>
       </c>
       <c r="G197" s="4">
         <v>104</v>
@@ -11406,7 +11409,7 @@
         <v>103.1</v>
       </c>
       <c r="I199" s="4">
-        <v>94.3</v>
+        <v>94.2</v>
       </c>
       <c r="J199" s="4">
         <v>72.7</v>
@@ -11453,7 +11456,7 @@
         <v>104.4</v>
       </c>
       <c r="I200" s="4">
-        <v>95.5</v>
+        <v>95.4</v>
       </c>
       <c r="J200" s="4">
         <v>81.8</v>
@@ -11491,7 +11494,7 @@
         <v>99.8</v>
       </c>
       <c r="F201" s="4">
-        <v>94.1</v>
+        <v>94</v>
       </c>
       <c r="G201" s="4">
         <v>105.9</v>
@@ -11500,7 +11503,7 @@
         <v>104.1</v>
       </c>
       <c r="I201" s="4">
-        <v>95.6</v>
+        <v>95.5</v>
       </c>
       <c r="J201" s="4">
         <v>54.5</v>
@@ -11547,7 +11550,7 @@
         <v>105.2</v>
       </c>
       <c r="I202" s="4">
-        <v>95.8</v>
+        <v>95.7</v>
       </c>
       <c r="J202" s="4">
         <v>54.5</v>
@@ -11585,7 +11588,7 @@
         <v>101.9</v>
       </c>
       <c r="F203" s="4">
-        <v>94.7</v>
+        <v>94.6</v>
       </c>
       <c r="G203" s="4">
         <v>108.1</v>
@@ -11594,7 +11597,7 @@
         <v>106.3</v>
       </c>
       <c r="I203" s="4">
-        <v>96.3</v>
+        <v>96.2</v>
       </c>
       <c r="J203" s="4">
         <v>72.7</v>
@@ -11641,7 +11644,7 @@
         <v>106.1</v>
       </c>
       <c r="I204" s="4">
-        <v>96</v>
+        <v>95.9</v>
       </c>
       <c r="J204" s="4">
         <v>54.5</v>
@@ -11726,7 +11729,7 @@
         <v>102.5</v>
       </c>
       <c r="F206" s="4">
-        <v>95.8</v>
+        <v>95.7</v>
       </c>
       <c r="G206" s="4">
         <v>109.5</v>
@@ -11735,7 +11738,7 @@
         <v>107</v>
       </c>
       <c r="I206" s="4">
-        <v>97.3</v>
+        <v>97.2</v>
       </c>
       <c r="J206" s="4">
         <v>81.8</v>
@@ -11782,7 +11785,7 @@
         <v>107.5</v>
       </c>
       <c r="I207" s="4">
-        <v>97</v>
+        <v>96.9</v>
       </c>
       <c r="J207" s="4">
         <v>72.7</v>
@@ -11876,7 +11879,7 @@
         <v>110.2</v>
       </c>
       <c r="I209" s="4">
-        <v>99</v>
+        <v>98.9</v>
       </c>
       <c r="J209" s="4">
         <v>72.7</v>
@@ -11914,7 +11917,7 @@
         <v>105.7</v>
       </c>
       <c r="F210" s="4">
-        <v>97</v>
+        <v>96.9</v>
       </c>
       <c r="G210" s="4">
         <v>110.3</v>
@@ -11923,7 +11926,7 @@
         <v>110.2</v>
       </c>
       <c r="I210" s="4">
-        <v>98.4</v>
+        <v>98.3</v>
       </c>
       <c r="J210" s="4">
         <v>63.6</v>
@@ -11961,7 +11964,7 @@
         <v>107.2</v>
       </c>
       <c r="F211" s="4">
-        <v>97.9</v>
+        <v>97.8</v>
       </c>
       <c r="G211" s="4">
         <v>110.5</v>
@@ -11970,7 +11973,7 @@
         <v>111.8</v>
       </c>
       <c r="I211" s="4">
-        <v>99.3</v>
+        <v>99.2</v>
       </c>
       <c r="J211" s="4">
         <v>54.5</v>
@@ -12017,7 +12020,7 @@
         <v>112.4</v>
       </c>
       <c r="I212" s="4">
-        <v>99.7</v>
+        <v>99.6</v>
       </c>
       <c r="J212" s="4">
         <v>63.6</v>
@@ -12111,7 +12114,7 @@
         <v>111.1</v>
       </c>
       <c r="I214" s="4">
-        <v>101.8</v>
+        <v>101.7</v>
       </c>
       <c r="J214" s="4">
         <v>36.4</v>
@@ -12205,7 +12208,7 @@
         <v>112.9</v>
       </c>
       <c r="I216" s="4">
-        <v>103.4</v>
+        <v>103.3</v>
       </c>
       <c r="J216" s="4">
         <v>45.5</v>
@@ -12384,7 +12387,7 @@
         <v>106.4</v>
       </c>
       <c r="F220" s="4">
-        <v>102</v>
+        <v>101.9</v>
       </c>
       <c r="G220" s="4">
         <v>104.9</v>
@@ -12440,7 +12443,7 @@
         <v>108.8</v>
       </c>
       <c r="I221" s="4">
-        <v>103.6</v>
+        <v>103.5</v>
       </c>
       <c r="J221" s="4">
         <v>4.5</v>
@@ -12807,7 +12810,7 @@
         <v>98.3</v>
       </c>
       <c r="F229" s="4">
-        <v>95.9</v>
+        <v>96</v>
       </c>
       <c r="G229" s="4">
         <v>95.8</v>
@@ -13277,7 +13280,7 @@
         <v>98.6</v>
       </c>
       <c r="F239" s="4">
-        <v>91.6</v>
+        <v>91.7</v>
       </c>
       <c r="G239" s="4">
         <v>98.9</v>
@@ -13333,7 +13336,7 @@
         <v>103.1</v>
       </c>
       <c r="I240" s="4">
-        <v>92.2</v>
+        <v>92.3</v>
       </c>
       <c r="J240" s="4">
         <v>72.7</v>
@@ -13371,7 +13374,7 @@
         <v>99.5</v>
       </c>
       <c r="F241" s="4">
-        <v>91.3</v>
+        <v>91.4</v>
       </c>
       <c r="G241" s="4">
         <v>101.8</v>
@@ -13803,7 +13806,7 @@
         <v>111.2</v>
       </c>
       <c r="I250" s="4">
-        <v>94.5</v>
+        <v>94.4</v>
       </c>
       <c r="J250" s="4">
         <v>72.7</v>
@@ -13888,7 +13891,7 @@
         <v>107.7</v>
       </c>
       <c r="F252" s="4">
-        <v>93.1</v>
+        <v>93</v>
       </c>
       <c r="G252" s="4">
         <v>108.4</v>
@@ -14217,7 +14220,7 @@
         <v>108</v>
       </c>
       <c r="F259" s="4">
-        <v>94.3</v>
+        <v>94.2</v>
       </c>
       <c r="G259" s="4">
         <v>107.1</v>
@@ -14264,7 +14267,7 @@
         <v>107.9</v>
       </c>
       <c r="F260" s="4">
-        <v>94.9</v>
+        <v>94.8</v>
       </c>
       <c r="G260" s="4">
         <v>106.6</v>
@@ -14273,7 +14276,7 @@
         <v>112.8</v>
       </c>
       <c r="I260" s="4">
-        <v>96.4</v>
+        <v>96.3</v>
       </c>
       <c r="J260" s="4">
         <v>18.2</v>
@@ -14311,7 +14314,7 @@
         <v>106.4</v>
       </c>
       <c r="F261" s="4">
-        <v>94.3</v>
+        <v>94.2</v>
       </c>
       <c r="G261" s="4">
         <v>105.1</v>
@@ -14320,7 +14323,7 @@
         <v>111.3</v>
       </c>
       <c r="I261" s="4">
-        <v>95.8</v>
+        <v>95.7</v>
       </c>
       <c r="J261" s="4">
         <v>9.1</v>
@@ -14358,7 +14361,7 @@
         <v>105.4</v>
       </c>
       <c r="F262" s="4">
-        <v>94.1</v>
+        <v>94</v>
       </c>
       <c r="G262" s="4">
         <v>103.8</v>
@@ -14405,7 +14408,7 @@
         <v>104</v>
       </c>
       <c r="F263" s="4">
-        <v>94.2</v>
+        <v>94.1</v>
       </c>
       <c r="G263" s="4">
         <v>104.1</v>
@@ -14461,7 +14464,7 @@
         <v>108.4</v>
       </c>
       <c r="I264" s="4">
-        <v>95.4</v>
+        <v>95.3</v>
       </c>
       <c r="J264" s="4">
         <v>27.3</v>
@@ -14593,7 +14596,7 @@
         <v>99</v>
       </c>
       <c r="F267" s="4">
-        <v>93.3</v>
+        <v>93.2</v>
       </c>
       <c r="G267" s="4">
         <v>97.7</v>
@@ -14602,7 +14605,7 @@
         <v>103.5</v>
       </c>
       <c r="I267" s="4">
-        <v>95</v>
+        <v>94.9</v>
       </c>
       <c r="J267" s="4">
         <v>22.7</v>
@@ -14640,7 +14643,7 @@
         <v>98.4</v>
       </c>
       <c r="F268" s="4">
-        <v>93.3</v>
+        <v>93.2</v>
       </c>
       <c r="G268" s="4">
         <v>96.6</v>
@@ -14649,7 +14652,7 @@
         <v>103</v>
       </c>
       <c r="I268" s="4">
-        <v>95</v>
+        <v>94.9</v>
       </c>
       <c r="J268" s="4">
         <v>13.6</v>
@@ -14696,7 +14699,7 @@
         <v>101.9</v>
       </c>
       <c r="I269" s="4">
-        <v>94.3</v>
+        <v>94.2</v>
       </c>
       <c r="J269" s="4">
         <v>18.2</v>
@@ -14790,7 +14793,7 @@
         <v>101.7</v>
       </c>
       <c r="I271" s="4">
-        <v>93.7</v>
+        <v>93.6</v>
       </c>
       <c r="J271" s="4">
         <v>81.8</v>
@@ -14828,7 +14831,7 @@
         <v>98.3</v>
       </c>
       <c r="F272" s="4">
-        <v>91.5</v>
+        <v>91.4</v>
       </c>
       <c r="G272" s="4">
         <v>99.7</v>
@@ -14837,7 +14840,7 @@
         <v>102.8</v>
       </c>
       <c r="I272" s="4">
-        <v>93.2</v>
+        <v>93.1</v>
       </c>
       <c r="J272" s="4">
         <v>59.1</v>
@@ -14875,7 +14878,7 @@
         <v>99</v>
       </c>
       <c r="F273" s="4">
-        <v>91.2</v>
+        <v>91.1</v>
       </c>
       <c r="G273" s="4">
         <v>102.5</v>
@@ -14931,7 +14934,7 @@
         <v>103.9</v>
       </c>
       <c r="I274" s="4">
-        <v>92.9</v>
+        <v>92.8</v>
       </c>
       <c r="J274" s="4">
         <v>86.4</v>
@@ -14978,7 +14981,7 @@
         <v>106.7</v>
       </c>
       <c r="I275" s="4">
-        <v>92.3</v>
+        <v>92.2</v>
       </c>
       <c r="J275" s="4">
         <v>86.4</v>
@@ -15016,7 +15019,7 @@
         <v>101.6</v>
       </c>
       <c r="F276" s="4">
-        <v>90.5</v>
+        <v>90.4</v>
       </c>
       <c r="G276" s="4">
         <v>106</v>
@@ -15025,7 +15028,7 @@
         <v>106.1</v>
       </c>
       <c r="I276" s="4">
-        <v>92.3</v>
+        <v>92.2</v>
       </c>
       <c r="J276" s="4">
         <v>63.6</v>
@@ -15072,7 +15075,7 @@
         <v>106.6</v>
       </c>
       <c r="I277" s="4">
-        <v>92.7</v>
+        <v>92.6</v>
       </c>
       <c r="J277" s="4">
         <v>63.6</v>
@@ -15119,7 +15122,7 @@
         <v>107.8</v>
       </c>
       <c r="I278" s="4">
-        <v>92.4</v>
+        <v>92.3</v>
       </c>
       <c r="J278" s="4">
         <v>45.5</v>
@@ -15157,7 +15160,7 @@
         <v>103.7</v>
       </c>
       <c r="F279" s="4">
-        <v>91.4</v>
+        <v>91.3</v>
       </c>
       <c r="G279" s="4">
         <v>105.6</v>
@@ -15166,7 +15169,7 @@
         <v>108.3</v>
       </c>
       <c r="I279" s="4">
-        <v>93.3</v>
+        <v>93.2</v>
       </c>
       <c r="J279" s="4">
         <v>45.5</v>
@@ -15204,7 +15207,7 @@
         <v>103.6</v>
       </c>
       <c r="F280" s="4">
-        <v>91.6</v>
+        <v>91.5</v>
       </c>
       <c r="G280" s="4">
         <v>106.4</v>
@@ -15260,7 +15263,7 @@
         <v>109</v>
       </c>
       <c r="I281" s="4">
-        <v>93.8</v>
+        <v>93.7</v>
       </c>
       <c r="J281" s="4">
         <v>54.5</v>
@@ -15307,7 +15310,7 @@
         <v>108.1</v>
       </c>
       <c r="I282" s="4">
-        <v>94.5</v>
+        <v>94.4</v>
       </c>
       <c r="J282" s="4">
         <v>72.7</v>
@@ -15354,7 +15357,7 @@
         <v>108.7</v>
       </c>
       <c r="I283" s="4">
-        <v>94.7</v>
+        <v>94.6</v>
       </c>
       <c r="J283" s="4">
         <v>45.5</v>
@@ -15392,7 +15395,7 @@
         <v>105.1</v>
       </c>
       <c r="F284" s="4">
-        <v>93.1</v>
+        <v>93</v>
       </c>
       <c r="G284" s="4">
         <v>106.4</v>
@@ -15486,7 +15489,7 @@
         <v>104.3</v>
       </c>
       <c r="F286" s="4">
-        <v>93.5</v>
+        <v>93.4</v>
       </c>
       <c r="G286" s="4">
         <v>106.2</v>
@@ -15495,7 +15498,7 @@
         <v>108.9</v>
       </c>
       <c r="I286" s="4">
-        <v>95.5</v>
+        <v>95.4</v>
       </c>
       <c r="J286" s="4">
         <v>54.5</v>
@@ -15674,7 +15677,7 @@
         <v>105.9</v>
       </c>
       <c r="F290" s="4">
-        <v>96.5</v>
+        <v>96.4</v>
       </c>
       <c r="G290" s="4">
         <v>109</v>
@@ -15730,7 +15733,7 @@
         <v>112.5</v>
       </c>
       <c r="I291" s="4">
-        <v>98.6</v>
+        <v>98.5</v>
       </c>
       <c r="J291" s="4">
         <v>77.3</v>
@@ -15768,7 +15771,7 @@
         <v>110</v>
       </c>
       <c r="F292" s="4">
-        <v>97.6</v>
+        <v>97.5</v>
       </c>
       <c r="G292" s="4">
         <v>113.4</v>
@@ -15824,7 +15827,7 @@
         <v>114.3</v>
       </c>
       <c r="I293" s="4">
-        <v>99.9</v>
+        <v>99.8</v>
       </c>
       <c r="J293" s="4">
         <v>72.7</v>
@@ -15909,7 +15912,7 @@
         <v>112.9</v>
       </c>
       <c r="F295" s="4">
-        <v>100</v>
+        <v>99.9</v>
       </c>
       <c r="G295" s="4">
         <v>114.9</v>
@@ -15918,7 +15921,7 @@
         <v>118</v>
       </c>
       <c r="I295" s="4">
-        <v>102.1</v>
+        <v>102</v>
       </c>
       <c r="J295" s="4">
         <v>72.7</v>
@@ -16012,7 +16015,7 @@
         <v>117.8</v>
       </c>
       <c r="I297" s="4">
-        <v>102.3</v>
+        <v>102.2</v>
       </c>
       <c r="J297" s="4">
         <v>72.7</v>
@@ -16238,7 +16241,7 @@
         <v>114.9</v>
       </c>
       <c r="F302" s="4">
-        <v>102.9</v>
+        <v>102.8</v>
       </c>
       <c r="G302" s="4">
         <v>119.6</v>
@@ -16717,7 +16720,7 @@
         <v>121.6</v>
       </c>
       <c r="I312" s="4">
-        <v>107.6</v>
+        <v>107.5</v>
       </c>
       <c r="J312" s="4">
         <v>54.5</v>
@@ -16764,7 +16767,7 @@
         <v>120.9</v>
       </c>
       <c r="I313" s="4">
-        <v>106.8</v>
+        <v>106.7</v>
       </c>
       <c r="J313" s="4">
         <v>45.5</v>
@@ -16905,7 +16908,7 @@
         <v>122.5</v>
       </c>
       <c r="I316" s="4">
-        <v>107.6</v>
+        <v>107.5</v>
       </c>
       <c r="J316" s="4">
         <v>63.6</v>
@@ -17093,7 +17096,7 @@
         <v>125.3</v>
       </c>
       <c r="I320" s="4">
-        <v>109.4</v>
+        <v>109.5</v>
       </c>
       <c r="J320" s="4">
         <v>72.7</v>
@@ -17131,7 +17134,7 @@
         <v>120.3</v>
       </c>
       <c r="F321" s="4">
-        <v>107.2</v>
+        <v>107.3</v>
       </c>
       <c r="G321" s="4">
         <v>124.2</v>
@@ -17319,7 +17322,7 @@
         <v>121.7</v>
       </c>
       <c r="F325" s="4">
-        <v>109.8</v>
+        <v>109.9</v>
       </c>
       <c r="G325" s="4">
         <v>123.5</v>
@@ -17648,7 +17651,7 @@
         <v>122.3</v>
       </c>
       <c r="F332" s="4">
-        <v>111.2</v>
+        <v>111.3</v>
       </c>
       <c r="G332" s="4">
         <v>125.9</v>
@@ -17704,7 +17707,7 @@
         <v>127</v>
       </c>
       <c r="I333" s="4">
-        <v>113.7</v>
+        <v>113.8</v>
       </c>
       <c r="J333" s="4">
         <v>45.5</v>
@@ -17742,7 +17745,7 @@
         <v>122.7</v>
       </c>
       <c r="F334" s="4">
-        <v>112.3</v>
+        <v>112.4</v>
       </c>
       <c r="G334" s="4">
         <v>125.5</v>
@@ -17789,7 +17792,7 @@
         <v>123.3</v>
       </c>
       <c r="F335" s="4">
-        <v>112.3</v>
+        <v>112.4</v>
       </c>
       <c r="G335" s="4">
         <v>124.9</v>
@@ -17798,7 +17801,7 @@
         <v>128.6</v>
       </c>
       <c r="I335" s="4">
-        <v>114.5</v>
+        <v>114.6</v>
       </c>
       <c r="J335" s="4">
         <v>27.3</v>
@@ -17836,7 +17839,7 @@
         <v>123</v>
       </c>
       <c r="F336" s="4">
-        <v>112.6</v>
+        <v>112.7</v>
       </c>
       <c r="G336" s="4">
         <v>124.7</v>
@@ -17883,7 +17886,7 @@
         <v>122</v>
       </c>
       <c r="F337" s="4">
-        <v>113.2</v>
+        <v>113.3</v>
       </c>
       <c r="G337" s="4">
         <v>123</v>
@@ -17977,7 +17980,7 @@
         <v>121.9</v>
       </c>
       <c r="F339" s="4">
-        <v>113.4</v>
+        <v>113.5</v>
       </c>
       <c r="G339" s="4">
         <v>119.1</v>
@@ -17986,7 +17989,7 @@
         <v>127.6</v>
       </c>
       <c r="I339" s="4">
-        <v>115.6</v>
+        <v>115.7</v>
       </c>
       <c r="J339" s="4">
         <v>18.2</v>
@@ -18024,7 +18027,7 @@
         <v>122.8</v>
       </c>
       <c r="F340" s="4">
-        <v>113.8</v>
+        <v>113.9</v>
       </c>
       <c r="G340" s="4">
         <v>121.3</v>
@@ -18033,7 +18036,7 @@
         <v>128.5</v>
       </c>
       <c r="I340" s="4">
-        <v>116</v>
+        <v>116.1</v>
       </c>
       <c r="J340" s="4">
         <v>27.3</v>
@@ -18080,7 +18083,7 @@
         <v>127.3</v>
       </c>
       <c r="I341" s="4">
-        <v>117.4</v>
+        <v>117.5</v>
       </c>
       <c r="J341" s="4">
         <v>45.5</v>
@@ -18165,7 +18168,7 @@
         <v>121.2</v>
       </c>
       <c r="F343" s="4">
-        <v>114.3</v>
+        <v>114.4</v>
       </c>
       <c r="G343" s="4">
         <v>118.9</v>
@@ -18212,7 +18215,7 @@
         <v>121.4</v>
       </c>
       <c r="F344" s="4">
-        <v>114.7</v>
+        <v>114.8</v>
       </c>
       <c r="G344" s="4">
         <v>119.5</v>
@@ -18306,7 +18309,7 @@
         <v>119.8</v>
       </c>
       <c r="F346" s="4">
-        <v>112.8</v>
+        <v>112.9</v>
       </c>
       <c r="G346" s="4">
         <v>117.1</v>
@@ -18353,7 +18356,7 @@
         <v>120.1</v>
       </c>
       <c r="F347" s="4">
-        <v>112.5</v>
+        <v>112.6</v>
       </c>
       <c r="G347" s="4">
         <v>116.8</v>
@@ -18447,7 +18450,7 @@
         <v>117.1</v>
       </c>
       <c r="F349" s="4">
-        <v>111.9</v>
+        <v>112</v>
       </c>
       <c r="G349" s="4">
         <v>114.6</v>
@@ -18494,7 +18497,7 @@
         <v>113.4</v>
       </c>
       <c r="F350" s="4">
-        <v>110.6</v>
+        <v>110.7</v>
       </c>
       <c r="G350" s="4">
         <v>112.2</v>
@@ -18541,7 +18544,7 @@
         <v>112.4</v>
       </c>
       <c r="F351" s="4">
-        <v>110.2</v>
+        <v>110.3</v>
       </c>
       <c r="G351" s="4">
         <v>110.8</v>
@@ -18588,7 +18591,7 @@
         <v>108.8</v>
       </c>
       <c r="F352" s="4">
-        <v>109.5</v>
+        <v>109.6</v>
       </c>
       <c r="G352" s="4">
         <v>103.3</v>
@@ -18776,7 +18779,7 @@
         <v>83.5</v>
       </c>
       <c r="F356" s="4">
-        <v>97.6</v>
+        <v>97.5</v>
       </c>
       <c r="G356" s="4">
         <v>79.599999999999994</v>
@@ -18823,7 +18826,7 @@
         <v>83.1</v>
       </c>
       <c r="F357" s="4">
-        <v>95.9</v>
+        <v>95.8</v>
       </c>
       <c r="G357" s="4">
         <v>81.599999999999994</v>
@@ -18917,7 +18920,7 @@
         <v>86.3</v>
       </c>
       <c r="F359" s="4">
-        <v>91.7</v>
+        <v>91.6</v>
       </c>
       <c r="G359" s="4">
         <v>88</v>
@@ -18926,7 +18929,7 @@
         <v>86.6</v>
       </c>
       <c r="I359" s="4">
-        <v>92.5</v>
+        <v>92.4</v>
       </c>
       <c r="J359" s="4">
         <v>81.8</v>
@@ -18964,7 +18967,7 @@
         <v>87.9</v>
       </c>
       <c r="F360" s="4">
-        <v>90.7</v>
+        <v>90.6</v>
       </c>
       <c r="G360" s="4">
         <v>91.9</v>
@@ -18973,7 +18976,7 @@
         <v>89.5</v>
       </c>
       <c r="I360" s="4">
-        <v>91.8</v>
+        <v>91.7</v>
       </c>
       <c r="J360" s="4">
         <v>81.8</v>
@@ -19020,7 +19023,7 @@
         <v>91</v>
       </c>
       <c r="I361" s="4">
-        <v>90.4</v>
+        <v>90.3</v>
       </c>
       <c r="J361" s="4">
         <v>68.2</v>
@@ -19105,7 +19108,7 @@
         <v>93.2</v>
       </c>
       <c r="F363" s="4">
-        <v>89.6</v>
+        <v>89.5</v>
       </c>
       <c r="G363" s="4">
         <v>98.3</v>
@@ -19114,7 +19117,7 @@
         <v>96.2</v>
       </c>
       <c r="I363" s="4">
-        <v>90.7</v>
+        <v>90.6</v>
       </c>
       <c r="J363" s="4">
         <v>81.8</v>
@@ -19152,7 +19155,7 @@
         <v>95.3</v>
       </c>
       <c r="F364" s="4">
-        <v>89.1</v>
+        <v>89</v>
       </c>
       <c r="G364" s="4">
         <v>100.9</v>
@@ -19255,7 +19258,7 @@
         <v>101.7</v>
       </c>
       <c r="I366" s="4">
-        <v>90.7</v>
+        <v>90.6</v>
       </c>
       <c r="J366" s="4">
         <v>72.7</v>
@@ -19349,7 +19352,7 @@
         <v>105.6</v>
       </c>
       <c r="I368" s="4">
-        <v>91.5</v>
+        <v>91.4</v>
       </c>
       <c r="J368" s="4">
         <v>72.7</v>
@@ -19396,7 +19399,7 @@
         <v>107.1</v>
       </c>
       <c r="I369" s="4">
-        <v>91.9</v>
+        <v>91.8</v>
       </c>
       <c r="J369" s="4">
         <v>90.9</v>
@@ -19481,7 +19484,7 @@
         <v>104.6</v>
       </c>
       <c r="F371" s="4">
-        <v>91.7</v>
+        <v>91.6</v>
       </c>
       <c r="G371" s="4">
         <v>107.8</v>
@@ -19490,7 +19493,7 @@
         <v>108.2</v>
       </c>
       <c r="I371" s="4">
-        <v>92.6</v>
+        <v>92.5</v>
       </c>
       <c r="J371" s="4">
         <v>90.9</v>
@@ -19584,7 +19587,7 @@
         <v>109.6</v>
       </c>
       <c r="I373" s="4">
-        <v>94</v>
+        <v>93.9</v>
       </c>
       <c r="J373" s="4">
         <v>54.5</v>
@@ -19622,7 +19625,7 @@
         <v>106.1</v>
       </c>
       <c r="F374" s="4">
-        <v>92.7</v>
+        <v>92.6</v>
       </c>
       <c r="G374" s="4">
         <v>109</v>
@@ -19669,7 +19672,7 @@
         <v>106.9</v>
       </c>
       <c r="F375" s="4">
-        <v>93</v>
+        <v>92.9</v>
       </c>
       <c r="G375" s="4">
         <v>108.3</v>
@@ -19678,7 +19681,7 @@
         <v>110.6</v>
       </c>
       <c r="I375" s="4">
-        <v>93.9</v>
+        <v>93.8</v>
       </c>
       <c r="J375" s="4">
         <v>54.5</v>
@@ -19716,7 +19719,7 @@
         <v>106.4</v>
       </c>
       <c r="F376" s="4">
-        <v>93.8</v>
+        <v>93.7</v>
       </c>
       <c r="G376" s="4">
         <v>108.1</v>
@@ -19763,7 +19766,7 @@
         <v>108.4</v>
       </c>
       <c r="F377" s="4">
-        <v>93.7</v>
+        <v>93.6</v>
       </c>
       <c r="G377" s="4">
         <v>109.2</v>
@@ -19810,7 +19813,7 @@
         <v>108.7</v>
       </c>
       <c r="F378" s="4">
-        <v>94</v>
+        <v>93.9</v>
       </c>
       <c r="G378" s="4">
         <v>109.9</v>
@@ -19819,7 +19822,7 @@
         <v>112.4</v>
       </c>
       <c r="I378" s="4">
-        <v>94.9</v>
+        <v>94.8</v>
       </c>
       <c r="J378" s="4">
         <v>63.6</v>
@@ -19857,7 +19860,7 @@
         <v>108.5</v>
       </c>
       <c r="F379" s="4">
-        <v>94.2</v>
+        <v>94.1</v>
       </c>
       <c r="G379" s="4">
         <v>110.8</v>
@@ -19904,7 +19907,7 @@
         <v>110</v>
       </c>
       <c r="F380" s="4">
-        <v>94.9</v>
+        <v>94.8</v>
       </c>
       <c r="G380" s="4">
         <v>111.7</v>
@@ -19951,7 +19954,7 @@
         <v>102.1</v>
       </c>
       <c r="F381" s="4">
-        <v>92.7</v>
+        <v>92.6</v>
       </c>
       <c r="G381" s="4">
         <v>109.1</v>
@@ -19960,7 +19963,7 @@
         <v>103.2</v>
       </c>
       <c r="I381" s="4">
-        <v>92.7</v>
+        <v>92.6</v>
       </c>
       <c r="J381" s="4">
         <v>45.5</v>
@@ -19998,7 +20001,7 @@
         <v>100.9</v>
       </c>
       <c r="F382" s="4">
-        <v>93.7</v>
+        <v>93.6</v>
       </c>
       <c r="G382" s="4">
         <v>103.2</v>
@@ -20045,7 +20048,7 @@
         <v>103.5</v>
       </c>
       <c r="F383" s="4">
-        <v>94.4</v>
+        <v>94.3</v>
       </c>
       <c r="G383" s="4">
         <v>103.3</v>
@@ -20054,7 +20057,7 @@
         <v>104.2</v>
       </c>
       <c r="I383" s="4">
-        <v>94.6</v>
+        <v>94.5</v>
       </c>
       <c r="J383" s="4">
         <v>36.4</v>
@@ -20101,7 +20104,7 @@
         <v>107.7</v>
       </c>
       <c r="I384" s="4">
-        <v>94.7</v>
+        <v>94.6</v>
       </c>
       <c r="J384" s="4">
         <v>45.5</v>
@@ -20139,7 +20142,7 @@
         <v>106.9</v>
       </c>
       <c r="F385" s="4">
-        <v>94.9</v>
+        <v>94.8</v>
       </c>
       <c r="G385" s="4">
         <v>109.5</v>
@@ -20148,7 +20151,7 @@
         <v>108.8</v>
       </c>
       <c r="I385" s="4">
-        <v>95.1</v>
+        <v>95</v>
       </c>
       <c r="J385" s="4">
         <v>72.7</v>
@@ -20195,7 +20198,7 @@
         <v>110</v>
       </c>
       <c r="I386" s="4">
-        <v>96</v>
+        <v>95.9</v>
       </c>
       <c r="J386" s="4">
         <v>77.3</v>
@@ -20233,7 +20236,7 @@
         <v>108.8</v>
       </c>
       <c r="F387" s="4">
-        <v>96.7</v>
+        <v>96.6</v>
       </c>
       <c r="G387" s="4">
         <v>107.6</v>
@@ -20242,7 +20245,7 @@
         <v>110.5</v>
       </c>
       <c r="I387" s="4">
-        <v>96.9</v>
+        <v>96.8</v>
       </c>
       <c r="J387" s="4">
         <v>36.4</v>
@@ -20280,7 +20283,7 @@
         <v>110.4</v>
       </c>
       <c r="F388" s="4">
-        <v>96.3</v>
+        <v>96.2</v>
       </c>
       <c r="G388" s="4">
         <v>108</v>
@@ -20289,7 +20292,7 @@
         <v>112.1</v>
       </c>
       <c r="I388" s="4">
-        <v>96.8</v>
+        <v>96.7</v>
       </c>
       <c r="J388" s="4">
         <v>45.5</v>
@@ -20327,7 +20330,7 @@
         <v>108.9</v>
       </c>
       <c r="F389" s="4">
-        <v>96.5</v>
+        <v>96.4</v>
       </c>
       <c r="G389" s="4">
         <v>107.8</v>
@@ -20374,7 +20377,7 @@
         <v>111</v>
       </c>
       <c r="F390" s="4">
-        <v>97.2</v>
+        <v>97.1</v>
       </c>
       <c r="G390" s="4">
         <v>108.4</v>
@@ -20383,7 +20386,7 @@
         <v>112.9</v>
       </c>
       <c r="I390" s="4">
-        <v>97.9</v>
+        <v>97.8</v>
       </c>
       <c r="J390" s="4">
         <v>63.6</v>
@@ -20421,7 +20424,7 @@
         <v>111.1</v>
       </c>
       <c r="F391" s="4">
-        <v>96.6</v>
+        <v>96.5</v>
       </c>
       <c r="G391" s="4">
         <v>109.3</v>
@@ -20468,7 +20471,7 @@
         <v>112</v>
       </c>
       <c r="F392" s="4">
-        <v>97.8</v>
+        <v>97.7</v>
       </c>
       <c r="G392" s="4">
         <v>110.8</v>
@@ -20562,7 +20565,7 @@
         <v>111.8</v>
       </c>
       <c r="F394" s="4">
-        <v>98.7</v>
+        <v>98.6</v>
       </c>
       <c r="G394" s="4">
         <v>110.2</v>
@@ -20609,7 +20612,7 @@
         <v>111.6</v>
       </c>
       <c r="F395" s="4">
-        <v>98.3</v>
+        <v>98.2</v>
       </c>
       <c r="G395" s="4">
         <v>109.4</v>
@@ -20618,7 +20621,7 @@
         <v>113.5</v>
       </c>
       <c r="I395" s="4">
-        <v>98.8</v>
+        <v>98.7</v>
       </c>
       <c r="J395" s="4">
         <v>54.5</v>
@@ -20656,7 +20659,7 @@
         <v>109.3</v>
       </c>
       <c r="F396" s="4">
-        <v>98.2</v>
+        <v>98.1</v>
       </c>
       <c r="G396" s="4">
         <v>108</v>
@@ -20665,7 +20668,7 @@
         <v>111.2</v>
       </c>
       <c r="I396" s="4">
-        <v>98.7</v>
+        <v>98.6</v>
       </c>
       <c r="J396" s="4">
         <v>22.7</v>
@@ -20703,7 +20706,7 @@
         <v>108.7</v>
       </c>
       <c r="F397" s="4">
-        <v>97.4</v>
+        <v>97.3</v>
       </c>
       <c r="G397" s="4">
         <v>107.4</v>
@@ -20712,7 +20715,7 @@
         <v>110.6</v>
       </c>
       <c r="I397" s="4">
-        <v>97.8</v>
+        <v>97.7</v>
       </c>
       <c r="J397" s="4">
         <v>40.9</v>
@@ -20750,7 +20753,7 @@
         <v>108.5</v>
       </c>
       <c r="F398" s="4">
-        <v>97.4</v>
+        <v>97.3</v>
       </c>
       <c r="G398" s="4">
         <v>107.3</v>
@@ -20891,7 +20894,7 @@
         <v>106.4</v>
       </c>
       <c r="F401" s="4">
-        <v>97.3</v>
+        <v>97.2</v>
       </c>
       <c r="G401" s="4">
         <v>106.2</v>
@@ -20900,7 +20903,7 @@
         <v>108.2</v>
       </c>
       <c r="I401" s="4">
-        <v>97.5</v>
+        <v>97.4</v>
       </c>
       <c r="J401" s="4">
         <v>27.3</v>
@@ -20947,7 +20950,7 @@
         <v>109.6</v>
       </c>
       <c r="I402" s="4">
-        <v>97.4</v>
+        <v>97.3</v>
       </c>
       <c r="J402" s="4">
         <v>81.8</v>
@@ -20985,7 +20988,7 @@
         <v>108</v>
       </c>
       <c r="F403" s="4">
-        <v>96.7</v>
+        <v>96.6</v>
       </c>
       <c r="G403" s="4">
         <v>110.1</v>
@@ -21032,7 +21035,7 @@
         <v>109</v>
       </c>
       <c r="F404" s="4">
-        <v>96.3</v>
+        <v>96.2</v>
       </c>
       <c r="G404" s="4">
         <v>113.6</v>
@@ -21041,7 +21044,7 @@
         <v>110.7</v>
       </c>
       <c r="I404" s="4">
-        <v>96.3</v>
+        <v>96.2</v>
       </c>
       <c r="J404" s="4">
         <v>81.8</v>
@@ -21079,7 +21082,7 @@
         <v>110.7</v>
       </c>
       <c r="F405" s="4">
-        <v>96.4</v>
+        <v>96.3</v>
       </c>
       <c r="G405" s="4">
         <v>115.5</v>
@@ -21088,7 +21091,7 @@
         <v>112.5</v>
       </c>
       <c r="I405" s="4">
-        <v>96.4</v>
+        <v>96.3</v>
       </c>
       <c r="J405" s="4">
         <v>100</v>
@@ -21126,7 +21129,7 @@
         <v>111.3</v>
       </c>
       <c r="F406" s="4">
-        <v>96.3</v>
+        <v>96.2</v>
       </c>
       <c r="G406" s="4">
         <v>117.1</v>
@@ -21173,7 +21176,7 @@
         <v>112.8</v>
       </c>
       <c r="F407" s="4">
-        <v>97.1</v>
+        <v>97</v>
       </c>
       <c r="G407" s="4">
         <v>119.1</v>
@@ -21182,7 +21185,7 @@
         <v>114.5</v>
       </c>
       <c r="I407" s="4">
-        <v>97</v>
+        <v>96.9</v>
       </c>
       <c r="J407" s="4">
         <v>100</v>
@@ -21220,7 +21223,7 @@
         <v>112.5</v>
       </c>
       <c r="F408" s="4">
-        <v>97.6</v>
+        <v>97.5</v>
       </c>
       <c r="G408" s="4">
         <v>117.7</v>
@@ -21314,7 +21317,7 @@
         <v>114.6</v>
       </c>
       <c r="F410" s="4">
-        <v>98.7</v>
+        <v>98.6</v>
       </c>
       <c r="G410" s="4">
         <v>119.1</v>
@@ -21323,7 +21326,7 @@
         <v>116.4</v>
       </c>
       <c r="I410" s="4">
-        <v>98.4</v>
+        <v>98.3</v>
       </c>
       <c r="J410" s="4">
         <v>72.7</v>
@@ -21361,7 +21364,7 @@
         <v>115.3</v>
       </c>
       <c r="F411" s="4">
-        <v>99.2</v>
+        <v>99.1</v>
       </c>
       <c r="G411" s="4">
         <v>121.1</v>
@@ -21370,7 +21373,7 @@
         <v>117.1</v>
       </c>
       <c r="I411" s="4">
-        <v>98.8</v>
+        <v>98.7</v>
       </c>
       <c r="J411" s="4">
         <v>95.5</v>
@@ -21408,7 +21411,7 @@
         <v>116</v>
       </c>
       <c r="F412" s="4">
-        <v>99.6</v>
+        <v>99.5</v>
       </c>
       <c r="G412" s="4">
         <v>120.5</v>
@@ -21455,7 +21458,7 @@
         <v>117.1</v>
       </c>
       <c r="F413" s="4">
-        <v>100.5</v>
+        <v>100.4</v>
       </c>
       <c r="G413" s="4">
         <v>122.3</v>
@@ -21464,7 +21467,7 @@
         <v>119</v>
       </c>
       <c r="I413" s="4">
-        <v>100.1</v>
+        <v>100</v>
       </c>
       <c r="J413" s="4">
         <v>100</v>
@@ -21549,7 +21552,7 @@
         <v>118.6</v>
       </c>
       <c r="F415" s="4">
-        <v>102.6</v>
+        <v>102.5</v>
       </c>
       <c r="G415" s="4">
         <v>121.9</v>
@@ -21558,7 +21561,7 @@
         <v>120.5</v>
       </c>
       <c r="I415" s="4">
-        <v>102.3</v>
+        <v>102.2</v>
       </c>
       <c r="J415" s="4">
         <v>72.7</v>
@@ -21596,7 +21599,7 @@
         <v>118.4</v>
       </c>
       <c r="F416" s="4">
-        <v>102.8</v>
+        <v>102.7</v>
       </c>
       <c r="G416" s="4">
         <v>118.5</v>
@@ -21643,7 +21646,7 @@
         <v>120.4</v>
       </c>
       <c r="F417" s="4">
-        <v>103.4</v>
+        <v>103.3</v>
       </c>
       <c r="G417" s="4">
         <v>118.2</v>
@@ -21652,7 +21655,7 @@
         <v>122.6</v>
       </c>
       <c r="I417" s="4">
-        <v>103.2</v>
+        <v>103.1</v>
       </c>
       <c r="J417" s="4">
         <v>36.4</v>
@@ -21690,7 +21693,7 @@
         <v>116.3</v>
       </c>
       <c r="F418" s="4">
-        <v>103.5</v>
+        <v>103.4</v>
       </c>
       <c r="G418" s="4">
         <v>114.9</v>
@@ -21737,7 +21740,7 @@
         <v>116.8</v>
       </c>
       <c r="F419" s="4">
-        <v>105.6</v>
+        <v>105.5</v>
       </c>
       <c r="G419" s="4">
         <v>114.3</v>
@@ -21784,7 +21787,7 @@
         <v>115.6</v>
       </c>
       <c r="F420" s="4">
-        <v>105.6</v>
+        <v>105.5</v>
       </c>
       <c r="G420" s="4">
         <v>114.2</v>
@@ -21793,7 +21796,7 @@
         <v>117.4</v>
       </c>
       <c r="I420" s="4">
-        <v>106.8</v>
+        <v>106.7</v>
       </c>
       <c r="J420" s="4">
         <v>27.3</v>
@@ -21831,7 +21834,7 @@
         <v>116.2</v>
       </c>
       <c r="F421" s="4">
-        <v>105.8</v>
+        <v>105.7</v>
       </c>
       <c r="G421" s="4">
         <v>115.8</v>
@@ -21887,7 +21890,7 @@
         <v>117.1</v>
       </c>
       <c r="I422" s="4">
-        <v>106.5</v>
+        <v>106.4</v>
       </c>
       <c r="J422" s="4">
         <v>72.7</v>
@@ -21925,7 +21928,7 @@
         <v>116.9</v>
       </c>
       <c r="F423" s="4">
-        <v>105.5</v>
+        <v>105.4</v>
       </c>
       <c r="G423" s="4">
         <v>116.1</v>
@@ -21934,7 +21937,7 @@
         <v>118.7</v>
       </c>
       <c r="I423" s="4">
-        <v>106.7</v>
+        <v>106.6</v>
       </c>
       <c r="J423" s="4">
         <v>59.1</v>
@@ -21981,7 +21984,7 @@
         <v>118.4</v>
       </c>
       <c r="I424" s="4">
-        <v>106.5</v>
+        <v>106.4</v>
       </c>
       <c r="J424" s="4">
         <v>36.4</v>
@@ -22028,7 +22031,7 @@
         <v>117.8</v>
       </c>
       <c r="I425" s="4">
-        <v>106.4</v>
+        <v>106.3</v>
       </c>
       <c r="J425" s="4">
         <v>63.6</v>
@@ -22066,7 +22069,7 @@
         <v>116.2</v>
       </c>
       <c r="F426" s="4">
-        <v>105</v>
+        <v>104.9</v>
       </c>
       <c r="G426" s="4">
         <v>115.4</v>
@@ -22075,7 +22078,7 @@
         <v>118</v>
       </c>
       <c r="I426" s="4">
-        <v>106</v>
+        <v>105.9</v>
       </c>
       <c r="J426" s="4">
         <v>54.5</v>
@@ -22160,7 +22163,7 @@
         <v>116.7</v>
       </c>
       <c r="F428" s="4">
-        <v>105.3</v>
+        <v>105.2</v>
       </c>
       <c r="G428" s="4">
         <v>115.1</v>
@@ -22169,7 +22172,7 @@
         <v>117.6</v>
       </c>
       <c r="I428" s="4">
-        <v>106.2</v>
+        <v>106.1</v>
       </c>
       <c r="J428" s="4">
         <v>54.5</v>
@@ -22254,7 +22257,7 @@
         <v>117.2</v>
       </c>
       <c r="F430" s="4">
-        <v>105.3</v>
+        <v>105.2</v>
       </c>
       <c r="G430" s="4">
         <v>116.5</v>
@@ -22301,7 +22304,7 @@
         <v>116.4</v>
       </c>
       <c r="F431" s="4">
-        <v>105</v>
+        <v>104.9</v>
       </c>
       <c r="G431" s="4">
         <v>117.7</v>
@@ -22310,7 +22313,7 @@
         <v>118.2</v>
       </c>
       <c r="I431" s="4">
-        <v>104.2</v>
+        <v>104.1</v>
       </c>
       <c r="J431" s="4">
         <v>81.8</v>
@@ -22348,7 +22351,7 @@
         <v>117.2</v>
       </c>
       <c r="F432" s="4">
-        <v>104.5</v>
+        <v>104.4</v>
       </c>
       <c r="G432" s="4">
         <v>117.2</v>
@@ -22395,7 +22398,7 @@
         <v>117</v>
       </c>
       <c r="F433" s="4">
-        <v>104.9</v>
+        <v>104.8</v>
       </c>
       <c r="G433" s="4">
         <v>115.7</v>
@@ -22442,7 +22445,7 @@
         <v>116.1</v>
       </c>
       <c r="F434" s="4">
-        <v>104.6</v>
+        <v>104.5</v>
       </c>
       <c r="G434" s="4">
         <v>114.9</v>
@@ -22498,7 +22501,7 @@
         <v>118.8</v>
       </c>
       <c r="I435" s="4">
-        <v>104.2</v>
+        <v>104.1</v>
       </c>
       <c r="J435" s="4">
         <v>31.8</v>
@@ -22536,7 +22539,7 @@
         <v>116.7</v>
       </c>
       <c r="F436" s="4">
-        <v>105.2</v>
+        <v>105.1</v>
       </c>
       <c r="G436" s="4">
         <v>114.1</v>
@@ -22545,7 +22548,7 @@
         <v>118.5</v>
       </c>
       <c r="I436" s="4">
-        <v>104.2</v>
+        <v>104.1</v>
       </c>
       <c r="J436" s="4">
         <v>54.5</v>
@@ -22583,7 +22586,7 @@
         <v>116</v>
       </c>
       <c r="F437" s="4">
-        <v>105.3</v>
+        <v>105.2</v>
       </c>
       <c r="G437" s="4">
         <v>113</v>
@@ -22592,7 +22595,7 @@
         <v>117.8</v>
       </c>
       <c r="I437" s="4">
-        <v>104.2</v>
+        <v>104.1</v>
       </c>
       <c r="J437" s="4">
         <v>36.4</v>
@@ -22630,7 +22633,7 @@
         <v>115.1</v>
       </c>
       <c r="F438" s="4">
-        <v>105.1</v>
+        <v>105</v>
       </c>
       <c r="G438" s="4">
         <v>111.4</v>
@@ -22639,7 +22642,7 @@
         <v>116.8</v>
       </c>
       <c r="I438" s="4">
-        <v>105.1</v>
+        <v>105</v>
       </c>
       <c r="J438" s="4">
         <v>36.4</v>
@@ -22677,7 +22680,7 @@
         <v>116.5</v>
       </c>
       <c r="F439" s="4">
-        <v>104.8</v>
+        <v>104.7</v>
       </c>
       <c r="G439" s="4">
         <v>111.9</v>
@@ -22686,7 +22689,7 @@
         <v>118.3</v>
       </c>
       <c r="I439" s="4">
-        <v>103.8</v>
+        <v>103.7</v>
       </c>
       <c r="J439" s="4">
         <v>45.5</v>
@@ -22724,7 +22727,7 @@
         <v>115.4</v>
       </c>
       <c r="F440" s="4">
-        <v>104.9</v>
+        <v>104.8</v>
       </c>
       <c r="G440" s="4">
         <v>109.7</v>
@@ -22733,7 +22736,7 @@
         <v>117.2</v>
       </c>
       <c r="I440" s="4">
-        <v>103.9</v>
+        <v>103.8</v>
       </c>
       <c r="J440" s="4">
         <v>27.3</v>
@@ -22771,7 +22774,7 @@
         <v>115.7</v>
       </c>
       <c r="F441" s="4">
-        <v>104.6</v>
+        <v>104.5</v>
       </c>
       <c r="G441" s="4">
         <v>109.9</v>
@@ -22780,7 +22783,7 @@
         <v>117.5</v>
       </c>
       <c r="I441" s="4">
-        <v>103.5</v>
+        <v>103.4</v>
       </c>
       <c r="J441" s="4">
         <v>45.5</v>
@@ -22818,7 +22821,7 @@
         <v>115.4</v>
       </c>
       <c r="F442" s="4">
-        <v>104.5</v>
+        <v>104.4</v>
       </c>
       <c r="G442" s="4">
         <v>110</v>
@@ -22827,7 +22830,7 @@
         <v>117.2</v>
       </c>
       <c r="I442" s="4">
-        <v>103.5</v>
+        <v>103.4</v>
       </c>
       <c r="J442" s="4">
         <v>54.5</v>
@@ -22865,7 +22868,7 @@
         <v>115.1</v>
       </c>
       <c r="F443" s="4">
-        <v>103.7</v>
+        <v>103.6</v>
       </c>
       <c r="G443" s="4">
         <v>110.1</v>
@@ -22874,7 +22877,7 @@
         <v>116.9</v>
       </c>
       <c r="I443" s="4">
-        <v>102.7</v>
+        <v>102.6</v>
       </c>
       <c r="J443" s="4">
         <v>72.7</v>
@@ -22912,7 +22915,7 @@
         <v>115.4</v>
       </c>
       <c r="F444" s="4">
-        <v>104.5</v>
+        <v>104.4</v>
       </c>
       <c r="G444" s="4">
         <v>110.3</v>
@@ -22921,7 +22924,7 @@
         <v>117.2</v>
       </c>
       <c r="I444" s="4">
-        <v>103.5</v>
+        <v>103.4</v>
       </c>
       <c r="J444" s="4">
         <v>63.6</v>
@@ -22959,7 +22962,7 @@
         <v>115.9</v>
       </c>
       <c r="F445" s="4">
-        <v>104.5</v>
+        <v>104.4</v>
       </c>
       <c r="G445" s="4">
         <v>110.5</v>
@@ -22968,7 +22971,7 @@
         <v>117.7</v>
       </c>
       <c r="I445" s="4">
-        <v>103.4</v>
+        <v>103.3</v>
       </c>
       <c r="J445" s="4">
         <v>59.1</v>
@@ -23006,7 +23009,7 @@
         <v>116.2</v>
       </c>
       <c r="F446" s="4">
-        <v>104.6</v>
+        <v>104.5</v>
       </c>
       <c r="G446" s="4">
         <v>110.5</v>
@@ -23015,7 +23018,7 @@
         <v>118</v>
       </c>
       <c r="I446" s="4">
-        <v>103.6</v>
+        <v>103.5</v>
       </c>
       <c r="J446" s="4">
         <v>36.4</v>
@@ -23053,7 +23056,7 @@
         <v>116.7</v>
       </c>
       <c r="F447" s="4">
-        <v>105.1</v>
+        <v>105</v>
       </c>
       <c r="G447" s="4">
         <v>110.6</v>
@@ -23062,7 +23065,7 @@
         <v>118.5</v>
       </c>
       <c r="I447" s="4">
-        <v>104</v>
+        <v>103.9</v>
       </c>
       <c r="J447" s="4">
         <v>63.6</v>
@@ -23100,7 +23103,7 @@
         <v>117.4</v>
       </c>
       <c r="F448" s="4">
-        <v>105.2</v>
+        <v>105.1</v>
       </c>
       <c r="G448" s="4">
         <v>111.8</v>
@@ -23109,7 +23112,7 @@
         <v>119.2</v>
       </c>
       <c r="I448" s="4">
-        <v>104.1</v>
+        <v>104</v>
       </c>
       <c r="J448" s="4">
         <v>81.8</v>
@@ -23147,7 +23150,7 @@
         <v>119.1</v>
       </c>
       <c r="F449" s="4">
-        <v>105.5</v>
+        <v>105.4</v>
       </c>
       <c r="G449" s="4">
         <v>113.2</v>
@@ -23156,7 +23159,7 @@
         <v>121</v>
       </c>
       <c r="I449" s="4">
-        <v>104.4</v>
+        <v>104.3</v>
       </c>
       <c r="J449" s="4">
         <v>72.7</v>
@@ -23194,7 +23197,7 @@
         <v>119.2</v>
       </c>
       <c r="F450" s="4">
-        <v>106</v>
+        <v>105.9</v>
       </c>
       <c r="G450" s="4">
         <v>115.2</v>
@@ -23203,7 +23206,7 @@
         <v>121</v>
       </c>
       <c r="I450" s="4">
-        <v>105</v>
+        <v>104.9</v>
       </c>
       <c r="J450" s="4">
         <v>81.8</v>
@@ -23241,7 +23244,7 @@
         <v>118.7</v>
       </c>
       <c r="F451" s="4">
-        <v>106.4</v>
+        <v>106.3</v>
       </c>
       <c r="G451" s="4">
         <v>115.8</v>
@@ -23250,7 +23253,7 @@
         <v>120.6</v>
       </c>
       <c r="I451" s="4">
-        <v>105.3</v>
+        <v>105.2</v>
       </c>
       <c r="J451" s="4">
         <v>90.9</v>
@@ -23288,7 +23291,7 @@
         <v>119.4</v>
       </c>
       <c r="F452" s="4">
-        <v>107</v>
+        <v>106.9</v>
       </c>
       <c r="G452" s="4">
         <v>115.5</v>
@@ -23297,7 +23300,7 @@
         <v>121.2</v>
       </c>
       <c r="I452" s="4">
-        <v>105.9</v>
+        <v>105.8</v>
       </c>
       <c r="J452" s="4">
         <v>72.7</v>
@@ -23335,7 +23338,7 @@
         <v>119.5</v>
       </c>
       <c r="F453" s="4">
-        <v>107.7</v>
+        <v>107.6</v>
       </c>
       <c r="G453" s="4">
         <v>116.1</v>
@@ -23344,7 +23347,7 @@
         <v>121.4</v>
       </c>
       <c r="I453" s="4">
-        <v>106.6</v>
+        <v>106.5</v>
       </c>
       <c r="J453" s="4">
         <v>63.6</v>
@@ -23382,7 +23385,7 @@
         <v>120.7</v>
       </c>
       <c r="F454" s="4">
-        <v>108.1</v>
+        <v>108</v>
       </c>
       <c r="G454" s="4">
         <v>115.7</v>
@@ -23391,7 +23394,7 @@
         <v>122.5</v>
       </c>
       <c r="I454" s="4">
-        <v>107.1</v>
+        <v>107</v>
       </c>
       <c r="J454" s="4">
         <v>50</v>
@@ -23429,7 +23432,7 @@
         <v>120.6</v>
       </c>
       <c r="F455" s="4">
-        <v>108</v>
+        <v>107.9</v>
       </c>
       <c r="G455" s="4">
         <v>115.4</v>
@@ -23476,7 +23479,7 @@
         <v>121.1</v>
       </c>
       <c r="F456" s="4">
-        <v>108.1</v>
+        <v>108</v>
       </c>
       <c r="G456" s="4">
         <v>116.2</v>
@@ -23485,7 +23488,7 @@
         <v>123</v>
       </c>
       <c r="I456" s="4">
-        <v>107.1</v>
+        <v>107</v>
       </c>
       <c r="J456" s="4">
         <v>54.5</v>
@@ -23523,7 +23526,7 @@
         <v>120.4</v>
       </c>
       <c r="F457" s="4">
-        <v>107.8</v>
+        <v>107.7</v>
       </c>
       <c r="G457" s="4">
         <v>116.2</v>
@@ -23532,7 +23535,7 @@
         <v>122.2</v>
       </c>
       <c r="I457" s="4">
-        <v>106.9</v>
+        <v>106.8</v>
       </c>
       <c r="J457" s="4">
         <v>54.5</v>
@@ -23570,7 +23573,7 @@
         <v>122</v>
       </c>
       <c r="F458" s="4">
-        <v>108.5</v>
+        <v>108.4</v>
       </c>
       <c r="G458" s="4">
         <v>117.3</v>
@@ -23579,7 +23582,7 @@
         <v>123.8</v>
       </c>
       <c r="I458" s="4">
-        <v>107.5</v>
+        <v>107.4</v>
       </c>
       <c r="J458" s="4">
         <v>86.4</v>
@@ -23617,7 +23620,7 @@
         <v>121</v>
       </c>
       <c r="F459" s="4">
-        <v>109</v>
+        <v>108.9</v>
       </c>
       <c r="G459" s="4">
         <v>116.9</v>
@@ -23626,7 +23629,7 @@
         <v>122.8</v>
       </c>
       <c r="I459" s="4">
-        <v>108</v>
+        <v>107.9</v>
       </c>
       <c r="J459" s="4">
         <v>63.6</v>
@@ -23664,7 +23667,7 @@
         <v>121.2</v>
       </c>
       <c r="F460" s="4">
-        <v>110</v>
+        <v>109.9</v>
       </c>
       <c r="G460" s="4">
         <v>116.7</v>
@@ -23673,7 +23676,7 @@
         <v>123.1</v>
       </c>
       <c r="I460" s="4">
-        <v>109</v>
+        <v>108.9</v>
       </c>
       <c r="J460" s="4">
         <v>63.6</v>
@@ -23711,7 +23714,7 @@
         <v>122.8</v>
       </c>
       <c r="F461" s="4">
-        <v>110.2</v>
+        <v>110.1</v>
       </c>
       <c r="G461" s="4">
         <v>118.2</v>
@@ -23720,7 +23723,7 @@
         <v>124.6</v>
       </c>
       <c r="I461" s="4">
-        <v>109.2</v>
+        <v>109.1</v>
       </c>
       <c r="J461" s="4">
         <v>68.2</v>
@@ -23805,7 +23808,7 @@
         <v>122.3</v>
       </c>
       <c r="F463" s="4">
-        <v>110.1</v>
+        <v>110</v>
       </c>
       <c r="G463" s="4">
         <v>116.6</v>
@@ -23852,7 +23855,7 @@
         <v>122</v>
       </c>
       <c r="F464" s="4">
-        <v>110.6</v>
+        <v>110.5</v>
       </c>
       <c r="G464" s="4">
         <v>116.7</v>
@@ -23861,7 +23864,7 @@
         <v>124</v>
       </c>
       <c r="I464" s="4">
-        <v>109.4</v>
+        <v>109.3</v>
       </c>
       <c r="J464" s="4">
         <v>36.4</v>
@@ -23899,7 +23902,7 @@
         <v>122.4</v>
       </c>
       <c r="F465" s="4">
-        <v>110.5</v>
+        <v>110.4</v>
       </c>
       <c r="G465" s="4">
         <v>115.7</v>
@@ -23908,7 +23911,7 @@
         <v>124.4</v>
       </c>
       <c r="I465" s="4">
-        <v>109.3</v>
+        <v>109.2</v>
       </c>
       <c r="J465" s="4">
         <v>18.2</v>
@@ -24181,7 +24184,7 @@
         <v>119.8</v>
       </c>
       <c r="F471" s="4">
-        <v>109.9</v>
+        <v>109.8</v>
       </c>
       <c r="G471" s="4">
         <v>114.4</v>
@@ -24416,7 +24419,7 @@
         <v>119.5</v>
       </c>
       <c r="F476" s="4">
-        <v>110.3</v>
+        <v>110.4</v>
       </c>
       <c r="G476" s="4">
         <v>112.6</v>
@@ -24510,7 +24513,7 @@
         <v>118.7</v>
       </c>
       <c r="F478" s="4">
-        <v>110.1</v>
+        <v>110.2</v>
       </c>
       <c r="G478" s="4">
         <v>111.2</v>
@@ -24886,7 +24889,7 @@
         <v>111.5</v>
       </c>
       <c r="F486" s="4">
-        <v>108.2</v>
+        <v>108.3</v>
       </c>
       <c r="G486" s="4">
         <v>107.3</v>
@@ -24933,7 +24936,7 @@
         <v>110.4</v>
       </c>
       <c r="F487" s="4">
-        <v>107.5</v>
+        <v>107.6</v>
       </c>
       <c r="G487" s="4">
         <v>104.9</v>
@@ -24942,7 +24945,7 @@
         <v>112.5</v>
       </c>
       <c r="I487" s="4">
-        <v>106.6</v>
+        <v>106.7</v>
       </c>
       <c r="J487" s="4">
         <v>36.4</v>
@@ -24989,7 +24992,7 @@
         <v>110.9</v>
       </c>
       <c r="I488" s="4">
-        <v>106.2</v>
+        <v>106.3</v>
       </c>
       <c r="J488" s="4">
         <v>54.5</v>
@@ -25036,7 +25039,7 @@
         <v>108.1</v>
       </c>
       <c r="I489" s="4">
-        <v>105.3</v>
+        <v>105.4</v>
       </c>
       <c r="J489" s="4">
         <v>18.2</v>
@@ -25130,7 +25133,7 @@
         <v>87.2</v>
       </c>
       <c r="I491" s="4">
-        <v>97.2</v>
+        <v>97.1</v>
       </c>
       <c r="J491" s="4">
         <v>9.1</v>
@@ -25168,7 +25171,7 @@
         <v>89.9</v>
       </c>
       <c r="F492" s="4">
-        <v>97.8</v>
+        <v>97.7</v>
       </c>
       <c r="G492" s="4">
         <v>92.3</v>
@@ -25506,7 +25509,7 @@
         <v>107.2</v>
       </c>
       <c r="I499" s="4">
-        <v>97.4</v>
+        <v>97.5</v>
       </c>
       <c r="J499" s="4">
         <v>90.9</v>
@@ -25591,7 +25594,7 @@
         <v>108.9</v>
       </c>
       <c r="F501" s="4">
-        <v>99.3</v>
+        <v>99.4</v>
       </c>
       <c r="G501" s="4">
         <v>115.4</v>
@@ -25694,7 +25697,7 @@
         <v>109.9</v>
       </c>
       <c r="I503" s="4">
-        <v>99.8</v>
+        <v>99.9</v>
       </c>
       <c r="J503" s="4">
         <v>72.7</v>
@@ -25741,7 +25744,7 @@
         <v>110.3</v>
       </c>
       <c r="I504" s="4">
-        <v>100.1</v>
+        <v>100.2</v>
       </c>
       <c r="J504" s="4">
         <v>72.7</v>
@@ -26155,7 +26158,7 @@
         <v>112.1</v>
       </c>
       <c r="F513" s="4">
-        <v>100.5</v>
+        <v>100.6</v>
       </c>
       <c r="G513" s="4">
         <v>112.9</v>
@@ -26249,7 +26252,7 @@
         <v>111.6</v>
       </c>
       <c r="F515" s="4">
-        <v>101</v>
+        <v>101.1</v>
       </c>
       <c r="G515" s="4">
         <v>112.4</v>
@@ -26258,7 +26261,7 @@
         <v>109.7</v>
       </c>
       <c r="I515" s="4">
-        <v>100.8</v>
+        <v>100.9</v>
       </c>
       <c r="J515" s="4">
         <v>36.4</v>
@@ -26296,7 +26299,7 @@
         <v>113.3</v>
       </c>
       <c r="F516" s="4">
-        <v>102.3</v>
+        <v>102.4</v>
       </c>
       <c r="G516" s="4">
         <v>112.4</v>
@@ -26305,7 +26308,7 @@
         <v>112</v>
       </c>
       <c r="I516" s="4">
-        <v>102</v>
+        <v>102.1</v>
       </c>
       <c r="J516" s="4">
         <v>45.5</v>
@@ -26343,7 +26346,7 @@
         <v>113.8</v>
       </c>
       <c r="F517" s="4">
-        <v>102.4</v>
+        <v>102.5</v>
       </c>
       <c r="G517" s="4">
         <v>111.6</v>
@@ -26352,7 +26355,7 @@
         <v>112.5</v>
       </c>
       <c r="I517" s="4">
-        <v>102.1</v>
+        <v>102.2</v>
       </c>
       <c r="J517" s="4">
         <v>31.8</v>
@@ -26390,7 +26393,7 @@
         <v>115</v>
       </c>
       <c r="F518" s="4">
-        <v>103.6</v>
+        <v>103.7</v>
       </c>
       <c r="G518" s="4">
         <v>113.2</v>
@@ -26437,7 +26440,7 @@
         <v>114.5</v>
       </c>
       <c r="F519" s="4">
-        <v>104</v>
+        <v>104.1</v>
       </c>
       <c r="G519" s="4">
         <v>110.8</v>
@@ -26531,7 +26534,7 @@
         <v>113.9</v>
       </c>
       <c r="F521" s="4">
-        <v>104.6</v>
+        <v>104.7</v>
       </c>
       <c r="G521" s="4">
         <v>110.4</v>
@@ -26578,7 +26581,7 @@
         <v>113.3</v>
       </c>
       <c r="F522" s="4">
-        <v>104.3</v>
+        <v>104.4</v>
       </c>
       <c r="G522" s="4">
         <v>109.4</v>
@@ -26587,7 +26590,7 @@
         <v>112.1</v>
       </c>
       <c r="I522" s="4">
-        <v>103.9</v>
+        <v>104</v>
       </c>
       <c r="J522" s="4">
         <v>45.5</v>
@@ -26625,7 +26628,7 @@
         <v>112.9</v>
       </c>
       <c r="F523" s="4">
-        <v>105.8</v>
+        <v>105.9</v>
       </c>
       <c r="G523" s="4">
         <v>108.6</v>
@@ -26634,7 +26637,7 @@
         <v>111.2</v>
       </c>
       <c r="I523" s="4">
-        <v>105.6</v>
+        <v>105.7</v>
       </c>
       <c r="J523" s="4">
         <v>45.5</v>
@@ -26672,7 +26675,7 @@
         <v>114.6</v>
       </c>
       <c r="F524" s="4">
-        <v>105.6</v>
+        <v>105.7</v>
       </c>
       <c r="G524" s="4">
         <v>109.1</v>
@@ -26681,7 +26684,7 @@
         <v>112.9</v>
       </c>
       <c r="I524" s="4">
-        <v>104.7</v>
+        <v>104.8</v>
       </c>
       <c r="J524" s="4">
         <v>54.5</v>
@@ -26719,7 +26722,7 @@
         <v>114.7</v>
       </c>
       <c r="F525" s="4">
-        <v>105.7</v>
+        <v>105.8</v>
       </c>
       <c r="G525" s="4">
         <v>109.2</v>
@@ -26728,7 +26731,7 @@
         <v>113</v>
       </c>
       <c r="I525" s="4">
-        <v>104.7</v>
+        <v>104.8</v>
       </c>
       <c r="J525" s="4">
         <v>54.5</v>
@@ -26766,7 +26769,7 @@
         <v>114.7</v>
       </c>
       <c r="F526" s="4">
-        <v>106</v>
+        <v>106.1</v>
       </c>
       <c r="G526" s="4">
         <v>109</v>
@@ -26822,7 +26825,7 @@
         <v>113.7</v>
       </c>
       <c r="I527" s="4">
-        <v>105.5</v>
+        <v>105.6</v>
       </c>
       <c r="J527" s="4">
         <v>40.9</v>
@@ -26869,7 +26872,7 @@
         <v>113.6</v>
       </c>
       <c r="I528" s="4">
-        <v>105.6</v>
+        <v>105.7</v>
       </c>
       <c r="J528" s="4">
         <v>72.7</v>
@@ -27057,7 +27060,7 @@
         <v>113.9</v>
       </c>
       <c r="I532" s="4">
-        <v>106.1</v>
+        <v>106</v>
       </c>
       <c r="J532" s="4">
         <v>27.3</v>
@@ -27151,7 +27154,7 @@
         <v>114.3</v>
       </c>
       <c r="I534" s="4">
-        <v>106.7</v>
+        <v>106.6</v>
       </c>
       <c r="J534" s="4">
         <v>45.5</v>
@@ -27198,7 +27201,7 @@
         <v>111</v>
       </c>
       <c r="I535" s="4">
-        <v>105</v>
+        <v>104.9</v>
       </c>
       <c r="J535" s="4">
         <v>54.5</v>
@@ -27471,7 +27474,7 @@
         <v>115.6</v>
       </c>
       <c r="F541" s="4">
-        <v>108.7</v>
+        <v>108.8</v>
       </c>
       <c r="G541" s="4">
         <v>109.8</v>
@@ -27715,7 +27718,7 @@
         <v>114.4</v>
       </c>
       <c r="I546" s="4">
-        <v>108</v>
+        <v>108.1</v>
       </c>
       <c r="J546" s="4">
         <v>45.5</v>
@@ -27753,7 +27756,7 @@
         <v>116.3</v>
       </c>
       <c r="F547" s="4">
-        <v>111.5</v>
+        <v>111.6</v>
       </c>
       <c r="G547" s="4">
         <v>109.1</v>
@@ -28035,7 +28038,7 @@
         <v>114.3</v>
       </c>
       <c r="F553" s="4">
-        <v>113.6</v>
+        <v>113.5</v>
       </c>
       <c r="G553" s="4">
         <v>106.1</v>
@@ -28091,7 +28094,7 @@
         <v>111.7</v>
       </c>
       <c r="I554" s="4">
-        <v>110.2</v>
+        <v>110.1</v>
       </c>
       <c r="J554" s="4">
         <v>54.5</v>
@@ -28170,40 +28173,40 @@
         <v>10</v>
       </c>
       <c r="D556" s="4">
+        <v>109.8</v>
+      </c>
+      <c r="E556" s="4">
+        <v>115.9</v>
+      </c>
+      <c r="F556" s="4">
+        <v>112.2</v>
+      </c>
+      <c r="G556" s="4">
+        <v>109.7</v>
+      </c>
+      <c r="H556" s="4">
+        <v>114.3</v>
+      </c>
+      <c r="I556" s="4">
         <v>110</v>
       </c>
-      <c r="E556" s="4">
-        <v>115.4</v>
-      </c>
-      <c r="F556" s="4">
-        <v>112.6</v>
-      </c>
-      <c r="G556" s="4">
-        <v>110</v>
-      </c>
-      <c r="H556" s="4">
-        <v>113.8</v>
-      </c>
-      <c r="I556" s="4">
-        <v>110.4</v>
-      </c>
       <c r="J556" s="4">
-        <v>88.9</v>
+        <v>90</v>
       </c>
       <c r="K556" s="4">
-        <v>75</v>
+        <v>66.7</v>
       </c>
       <c r="L556" s="4">
-        <v>25</v>
+        <v>37.5</v>
       </c>
       <c r="M556" s="4">
-        <v>1256</v>
+        <v>1257.0999999999999</v>
       </c>
       <c r="N556" s="4">
-        <v>3220</v>
+        <v>3211.7</v>
       </c>
       <c r="O556" s="4">
-        <v>3215.8</v>
+        <v>3228.3</v>
       </c>
     </row>
     <row r="565" spans="4:9" x14ac:dyDescent="0.2">

--- a/data/長期系列_CI指数_DI指数_DI景気指標.xlsx
+++ b/data/長期系列_CI指数_DI指数_DI景気指標.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\CI\０１／CI\０２／速報からの改訂\★R7(2025)★\令和7年10月改訂\g研究所ホームページ掲載宛送付ファイル\jp\stat\di\di\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\CI\０１／CI\０１／速報\★R7(2025)★\令和7年11月分\g研究所ホームページ掲載宛送付ファイル\jp\stat\di\di\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{91D86F4C-B40C-45B0-A9AF-48EEA40268E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E84DD32-7EB5-4ACE-92DB-1408ACE180FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="13350"/>
   </bookViews>
   <sheets>
     <sheet name="指数 Indexes" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="575">
   <si>
     <t>ＤＩ指数</t>
   </si>
@@ -2322,6 +2322,10 @@
   </si>
   <si>
     <t>2025001010</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2025001111</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2823,7 +2827,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P565"/>
+  <dimension ref="A1:P566"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="6" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
@@ -2832,14 +2836,14 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="8.109375" customWidth="1"/>
-    <col min="4" max="15" width="10.6640625" customWidth="1"/>
+    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8.125" customWidth="1"/>
+    <col min="4" max="15" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="36" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="36" x14ac:dyDescent="0.15">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -2881,7 +2885,7 @@
       </c>
       <c r="P1" s="5"/>
     </row>
-    <row r="2" spans="1:16" s="1" customFormat="1" ht="72" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" s="1" customFormat="1" ht="72" x14ac:dyDescent="0.15">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -2923,7 +2927,7 @@
       </c>
       <c r="P2" s="5"/>
     </row>
-    <row r="3" spans="1:16" ht="24" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="24" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
         <v>18</v>
       </c>
@@ -2971,7 +2975,7 @@
       </c>
       <c r="P3" s="5"/>
     </row>
-    <row r="4" spans="1:16" s="1" customFormat="1" ht="32.4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" s="1" customFormat="1" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A4" s="9" t="s">
         <v>20</v>
       </c>
@@ -3019,7 +3023,7 @@
       </c>
       <c r="P4" s="5"/>
     </row>
-    <row r="5" spans="1:16" s="1" customFormat="1" ht="22.2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -3049,7 +3053,7 @@
       <c r="O5" s="11"/>
       <c r="P5" s="12"/>
     </row>
-    <row r="6" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -3079,7 +3083,7 @@
       <c r="O6" s="6"/>
       <c r="P6" s="12"/>
     </row>
-    <row r="7" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="13" t="s">
         <v>24</v>
       </c>
@@ -3114,7 +3118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" s="13" t="s">
         <v>25</v>
       </c>
@@ -3149,7 +3153,7 @@
         <v>44.4</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9" s="13" t="s">
         <v>26</v>
       </c>
@@ -3184,7 +3188,7 @@
         <v>83.3</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10" s="13" t="s">
         <v>27</v>
       </c>
@@ -3219,7 +3223,7 @@
         <v>111.1</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" s="13" t="s">
         <v>28</v>
       </c>
@@ -3254,7 +3258,7 @@
         <v>116.7</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="13" t="s">
         <v>29</v>
       </c>
@@ -3289,7 +3293,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="13" t="s">
         <v>30</v>
       </c>
@@ -3324,7 +3328,7 @@
         <v>177.8</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14" s="13" t="s">
         <v>31</v>
       </c>
@@ -3359,7 +3363,7 @@
         <v>194.5</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" s="13" t="s">
         <v>32</v>
       </c>
@@ -3394,7 +3398,7 @@
         <v>211.2</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16" s="13" t="s">
         <v>33</v>
       </c>
@@ -3429,7 +3433,7 @@
         <v>227.9</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A17" s="13" t="s">
         <v>34</v>
       </c>
@@ -3464,7 +3468,7 @@
         <v>255.7</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A18" s="13" t="s">
         <v>35</v>
       </c>
@@ -3499,7 +3503,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A19" s="13" t="s">
         <v>36</v>
       </c>
@@ -3534,7 +3538,7 @@
         <v>244.6</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A20" s="13" t="s">
         <v>37</v>
       </c>
@@ -3569,7 +3573,7 @@
         <v>244.6</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A21" s="13" t="s">
         <v>38</v>
       </c>
@@ -3604,7 +3608,7 @@
         <v>272.39999999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A22" s="13" t="s">
         <v>39</v>
       </c>
@@ -3639,7 +3643,7 @@
         <v>266.8</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A23" s="13" t="s">
         <v>40</v>
       </c>
@@ -3674,7 +3678,7 @@
         <v>272.39999999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A24" s="13" t="s">
         <v>41</v>
       </c>
@@ -3709,7 +3713,7 @@
         <v>261.3</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A25" s="13" t="s">
         <v>42</v>
       </c>
@@ -3744,7 +3748,7 @@
         <v>250.2</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A26" s="13" t="s">
         <v>43</v>
       </c>
@@ -3779,7 +3783,7 @@
         <v>233.5</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A27" s="13" t="s">
         <v>44</v>
       </c>
@@ -3814,7 +3818,7 @@
         <v>239.1</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A28" s="13" t="s">
         <v>45</v>
       </c>
@@ -3849,7 +3853,7 @@
         <v>244.7</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A29" s="13" t="s">
         <v>46</v>
       </c>
@@ -3884,7 +3888,7 @@
         <v>239.1</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A30" s="13" t="s">
         <v>47</v>
       </c>
@@ -3919,7 +3923,7 @@
         <v>222.4</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A31" s="13" t="s">
         <v>48</v>
       </c>
@@ -3954,7 +3958,7 @@
         <v>239.1</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A32" s="13" t="s">
         <v>49</v>
       </c>
@@ -3989,7 +3993,7 @@
         <v>244.7</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A33" s="13" t="s">
         <v>50</v>
       </c>
@@ -4024,7 +4028,7 @@
         <v>250.3</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A34" s="13" t="s">
         <v>51</v>
       </c>
@@ -4059,7 +4063,7 @@
         <v>244.7</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A35" s="13" t="s">
         <v>52</v>
       </c>
@@ -4094,7 +4098,7 @@
         <v>250.3</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A36" s="13" t="s">
         <v>53</v>
       </c>
@@ -4129,7 +4133,7 @@
         <v>278.10000000000002</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A37" s="13" t="s">
         <v>54</v>
       </c>
@@ -4164,7 +4168,7 @@
         <v>278.10000000000002</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A38" s="13" t="s">
         <v>55</v>
       </c>
@@ -4199,7 +4203,7 @@
         <v>272.5</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A39" s="13" t="s">
         <v>56</v>
       </c>
@@ -4234,7 +4238,7 @@
         <v>255.8</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A40" s="13" t="s">
         <v>57</v>
       </c>
@@ -4269,7 +4273,7 @@
         <v>239.1</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A41" s="13" t="s">
         <v>58</v>
       </c>
@@ -4304,7 +4308,7 @@
         <v>222.4</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A42" s="13" t="s">
         <v>59</v>
       </c>
@@ -4339,7 +4343,7 @@
         <v>194.6</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A43" s="13" t="s">
         <v>60</v>
       </c>
@@ -4374,7 +4378,7 @@
         <v>166.8</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A44" s="13" t="s">
         <v>61</v>
       </c>
@@ -4409,7 +4413,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A45" s="13" t="s">
         <v>62</v>
       </c>
@@ -4444,7 +4448,7 @@
         <v>122.3</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A46" s="13" t="s">
         <v>63</v>
       </c>
@@ -4479,7 +4483,7 @@
         <v>116.7</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A47" s="13" t="s">
         <v>64</v>
       </c>
@@ -4514,7 +4518,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A48" s="13" t="s">
         <v>65</v>
       </c>
@@ -4549,7 +4553,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A49" s="13" t="s">
         <v>66</v>
       </c>
@@ -4584,7 +4588,7 @@
         <v>105.6</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A50" s="13" t="s">
         <v>67</v>
       </c>
@@ -4619,7 +4623,7 @@
         <v>122.3</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A51" s="13" t="s">
         <v>68</v>
       </c>
@@ -4654,7 +4658,7 @@
         <v>127.9</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A52" s="13" t="s">
         <v>69</v>
       </c>
@@ -4689,7 +4693,7 @@
         <v>122.3</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A53" s="13" t="s">
         <v>70</v>
       </c>
@@ -4724,7 +4728,7 @@
         <v>127.9</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A54" s="13" t="s">
         <v>71</v>
       </c>
@@ -4759,7 +4763,7 @@
         <v>127.9</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A55" s="13" t="s">
         <v>72</v>
       </c>
@@ -4794,7 +4798,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A56" s="13" t="s">
         <v>73</v>
       </c>
@@ -4829,7 +4833,7 @@
         <v>177.9</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A57" s="13" t="s">
         <v>74</v>
       </c>
@@ -4864,7 +4868,7 @@
         <v>216.8</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A58" s="13" t="s">
         <v>75</v>
       </c>
@@ -4899,7 +4903,7 @@
         <v>255.7</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A59" s="13" t="s">
         <v>76</v>
       </c>
@@ -4934,7 +4938,7 @@
         <v>272.39999999999998</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A60" s="13" t="s">
         <v>77</v>
       </c>
@@ -4969,7 +4973,7 @@
         <v>283.5</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A61" s="13" t="s">
         <v>78</v>
       </c>
@@ -5004,7 +5008,7 @@
         <v>311.3</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A62" s="13" t="s">
         <v>79</v>
       </c>
@@ -5039,7 +5043,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A63" s="13" t="s">
         <v>80</v>
       </c>
@@ -5074,7 +5078,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A64" s="13" t="s">
         <v>81</v>
       </c>
@@ -5109,7 +5113,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A65" s="13" t="s">
         <v>82</v>
       </c>
@@ -5144,7 +5148,7 @@
         <v>455.8</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A66" s="13" t="s">
         <v>83</v>
       </c>
@@ -5179,7 +5183,7 @@
         <v>494.7</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A67" s="13" t="s">
         <v>84</v>
       </c>
@@ -5226,7 +5230,7 @@
         <v>539.1</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A68" s="13" t="s">
         <v>85</v>
       </c>
@@ -5273,7 +5277,7 @@
         <v>566.9</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A69" s="13" t="s">
         <v>86</v>
       </c>
@@ -5320,7 +5324,7 @@
         <v>594.70000000000005</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A70" s="13" t="s">
         <v>87</v>
       </c>
@@ -5367,7 +5371,7 @@
         <v>611.4</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A71" s="13" t="s">
         <v>88</v>
       </c>
@@ -5414,7 +5418,7 @@
         <v>644.70000000000005</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A72" s="13" t="s">
         <v>89</v>
       </c>
@@ -5461,7 +5465,7 @@
         <v>655.8</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A73" s="13" t="s">
         <v>90</v>
       </c>
@@ -5508,7 +5512,7 @@
         <v>666.9</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A74" s="13" t="s">
         <v>91</v>
       </c>
@@ -5555,7 +5559,7 @@
         <v>694.7</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A75" s="13" t="s">
         <v>92</v>
       </c>
@@ -5602,7 +5606,7 @@
         <v>700.3</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A76" s="13" t="s">
         <v>93</v>
       </c>
@@ -5649,7 +5653,7 @@
         <v>683.6</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A77" s="13" t="s">
         <v>94</v>
       </c>
@@ -5696,7 +5700,7 @@
         <v>666.9</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A78" s="13" t="s">
         <v>95</v>
       </c>
@@ -5743,7 +5747,7 @@
         <v>672.5</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A79" s="13" t="s">
         <v>96</v>
       </c>
@@ -5790,7 +5794,7 @@
         <v>689.2</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A80" s="13" t="s">
         <v>97</v>
       </c>
@@ -5837,7 +5841,7 @@
         <v>705.9</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A81" s="13" t="s">
         <v>98</v>
       </c>
@@ -5884,7 +5888,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A82" s="13" t="s">
         <v>99</v>
       </c>
@@ -5931,7 +5935,7 @@
         <v>711.4</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A83" s="13" t="s">
         <v>100</v>
       </c>
@@ -5978,7 +5982,7 @@
         <v>700.3</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A84" s="13" t="s">
         <v>101</v>
       </c>
@@ -6025,7 +6029,7 @@
         <v>683.6</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A85" s="13" t="s">
         <v>102</v>
       </c>
@@ -6072,7 +6076,7 @@
         <v>683.6</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A86" s="13" t="s">
         <v>103</v>
       </c>
@@ -6119,7 +6123,7 @@
         <v>672.5</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A87" s="13" t="s">
         <v>104</v>
       </c>
@@ -6166,7 +6170,7 @@
         <v>672.5</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A88" s="13" t="s">
         <v>105</v>
       </c>
@@ -6213,7 +6217,7 @@
         <v>689.2</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A89" s="13" t="s">
         <v>106</v>
       </c>
@@ -6260,7 +6264,7 @@
         <v>705.9</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A90" s="13" t="s">
         <v>107</v>
       </c>
@@ -6307,7 +6311,7 @@
         <v>689.2</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A91" s="13" t="s">
         <v>108</v>
       </c>
@@ -6354,7 +6358,7 @@
         <v>694.8</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A92" s="13" t="s">
         <v>109</v>
       </c>
@@ -6401,7 +6405,7 @@
         <v>705.9</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A93" s="13" t="s">
         <v>110</v>
       </c>
@@ -6448,7 +6452,7 @@
         <v>722.6</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A94" s="13" t="s">
         <v>111</v>
       </c>
@@ -6495,7 +6499,7 @@
         <v>750.4</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A95" s="13" t="s">
         <v>112</v>
       </c>
@@ -6542,7 +6546,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A96" s="13" t="s">
         <v>113</v>
       </c>
@@ -6589,7 +6593,7 @@
         <v>767.1</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A97" s="13" t="s">
         <v>114</v>
       </c>
@@ -6636,7 +6640,7 @@
         <v>772.7</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A98" s="13" t="s">
         <v>115</v>
       </c>
@@ -6683,7 +6687,7 @@
         <v>783.8</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A99" s="13" t="s">
         <v>116</v>
       </c>
@@ -6730,7 +6734,7 @@
         <v>811.6</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A100" s="13" t="s">
         <v>117</v>
       </c>
@@ -6777,7 +6781,7 @@
         <v>833.8</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A101" s="13" t="s">
         <v>118</v>
       </c>
@@ -6824,7 +6828,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A102" s="13" t="s">
         <v>119</v>
       </c>
@@ -6871,7 +6875,7 @@
         <v>900.4</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A103" s="13" t="s">
         <v>120</v>
       </c>
@@ -6918,7 +6922,7 @@
         <v>928.2</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A104" s="13" t="s">
         <v>121</v>
       </c>
@@ -6965,7 +6969,7 @@
         <v>944.9</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A105" s="13" t="s">
         <v>122</v>
       </c>
@@ -7012,7 +7016,7 @@
         <v>972.7</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A106" s="13" t="s">
         <v>123</v>
       </c>
@@ -7059,7 +7063,7 @@
         <v>1011.6</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A107" s="13" t="s">
         <v>124</v>
       </c>
@@ -7106,7 +7110,7 @@
         <v>1039.4000000000001</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A108" s="13" t="s">
         <v>125</v>
       </c>
@@ -7153,7 +7157,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A109" s="13" t="s">
         <v>126</v>
       </c>
@@ -7200,7 +7204,7 @@
         <v>1067.2</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A110" s="13" t="s">
         <v>127</v>
       </c>
@@ -7247,7 +7251,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A111" s="13" t="s">
         <v>128</v>
       </c>
@@ -7294,7 +7298,7 @@
         <v>1133.9000000000001</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A112" s="13" t="s">
         <v>129</v>
       </c>
@@ -7341,7 +7345,7 @@
         <v>1183.9000000000001</v>
       </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A113" s="13" t="s">
         <v>130</v>
       </c>
@@ -7388,7 +7392,7 @@
         <v>1233.9000000000001</v>
       </c>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A114" s="13" t="s">
         <v>131</v>
       </c>
@@ -7435,7 +7439,7 @@
         <v>1261.7</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A115" s="13" t="s">
         <v>132</v>
       </c>
@@ -7482,7 +7486,7 @@
         <v>1289.5</v>
       </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A116" s="13" t="s">
         <v>133</v>
       </c>
@@ -7529,7 +7533,7 @@
         <v>1317.3</v>
       </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A117" s="13" t="s">
         <v>134</v>
       </c>
@@ -7576,7 +7580,7 @@
         <v>1361.7</v>
       </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A118" s="13" t="s">
         <v>135</v>
       </c>
@@ -7623,7 +7627,7 @@
         <v>1367.3</v>
       </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A119" s="13" t="s">
         <v>136</v>
       </c>
@@ -7670,7 +7674,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A120" s="13" t="s">
         <v>137</v>
       </c>
@@ -7717,7 +7721,7 @@
         <v>1400.7</v>
       </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A121" s="13" t="s">
         <v>138</v>
       </c>
@@ -7764,7 +7768,7 @@
         <v>1445.1</v>
       </c>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A122" s="13" t="s">
         <v>139</v>
       </c>
@@ -7811,7 +7815,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A123" s="13" t="s">
         <v>140</v>
       </c>
@@ -7858,7 +7862,7 @@
         <v>1495.1</v>
       </c>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A124" s="13" t="s">
         <v>141</v>
       </c>
@@ -7905,7 +7909,7 @@
         <v>1511.8</v>
       </c>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A125" s="13" t="s">
         <v>142</v>
       </c>
@@ -7952,7 +7956,7 @@
         <v>1539.6</v>
       </c>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A126" s="13" t="s">
         <v>143</v>
       </c>
@@ -7999,7 +8003,7 @@
         <v>1572.9</v>
       </c>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A127" s="13" t="s">
         <v>144</v>
       </c>
@@ -8046,7 +8050,7 @@
         <v>1622.9</v>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A128" s="13" t="s">
         <v>145</v>
       </c>
@@ -8093,7 +8097,7 @@
         <v>1661.8</v>
       </c>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A129" s="13" t="s">
         <v>146</v>
       </c>
@@ -8140,7 +8144,7 @@
         <v>1695.1</v>
       </c>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A130" s="13" t="s">
         <v>147</v>
       </c>
@@ -8187,7 +8191,7 @@
         <v>1717.3</v>
       </c>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A131" s="13" t="s">
         <v>148</v>
       </c>
@@ -8234,7 +8238,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A132" s="13" t="s">
         <v>149</v>
       </c>
@@ -8281,7 +8285,7 @@
         <v>1750.7</v>
       </c>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A133" s="13" t="s">
         <v>150</v>
       </c>
@@ -8328,7 +8332,7 @@
         <v>1745.1</v>
       </c>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A134" s="13" t="s">
         <v>151</v>
       </c>
@@ -8375,7 +8379,7 @@
         <v>1761.8</v>
       </c>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A135" s="13" t="s">
         <v>152</v>
       </c>
@@ -8422,7 +8426,7 @@
         <v>1778.5</v>
       </c>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A136" s="13" t="s">
         <v>153</v>
       </c>
@@ -8469,7 +8473,7 @@
         <v>1789.6</v>
       </c>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A137" s="13" t="s">
         <v>154</v>
       </c>
@@ -8516,7 +8520,7 @@
         <v>1789.6</v>
       </c>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A138" s="13" t="s">
         <v>155</v>
       </c>
@@ -8563,7 +8567,7 @@
         <v>1817.4</v>
       </c>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A139" s="13" t="s">
         <v>156</v>
       </c>
@@ -8610,7 +8614,7 @@
         <v>1845.2</v>
       </c>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A140" s="13" t="s">
         <v>157</v>
       </c>
@@ -8657,7 +8661,7 @@
         <v>1856.3</v>
       </c>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A141" s="13" t="s">
         <v>158</v>
       </c>
@@ -8704,7 +8708,7 @@
         <v>1850.7</v>
       </c>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A142" s="13" t="s">
         <v>159</v>
       </c>
@@ -8751,7 +8755,7 @@
         <v>1856.3</v>
       </c>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A143" s="13" t="s">
         <v>160</v>
       </c>
@@ -8798,7 +8802,7 @@
         <v>1867.4</v>
       </c>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A144" s="13" t="s">
         <v>161</v>
       </c>
@@ -8845,7 +8849,7 @@
         <v>1900.7</v>
       </c>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A145" s="13" t="s">
         <v>162</v>
       </c>
@@ -8892,7 +8896,7 @@
         <v>1911.8</v>
       </c>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A146" s="13" t="s">
         <v>163</v>
       </c>
@@ -8939,7 +8943,7 @@
         <v>1906.2</v>
       </c>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A147" s="13" t="s">
         <v>164</v>
       </c>
@@ -8986,7 +8990,7 @@
         <v>1889.5</v>
       </c>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A148" s="13" t="s">
         <v>165</v>
       </c>
@@ -9033,7 +9037,7 @@
         <v>1906.2</v>
       </c>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A149" s="13" t="s">
         <v>166</v>
       </c>
@@ -9080,7 +9084,7 @@
         <v>1934</v>
       </c>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A150" s="13" t="s">
         <v>167</v>
       </c>
@@ -9127,7 +9131,7 @@
         <v>1939.6</v>
       </c>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A151" s="13" t="s">
         <v>168</v>
       </c>
@@ -9174,7 +9178,7 @@
         <v>1922.9</v>
       </c>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A152" s="13" t="s">
         <v>169</v>
       </c>
@@ -9221,7 +9225,7 @@
         <v>1922.9</v>
       </c>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A153" s="13" t="s">
         <v>170</v>
       </c>
@@ -9268,7 +9272,7 @@
         <v>1906.2</v>
       </c>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A154" s="13" t="s">
         <v>171</v>
       </c>
@@ -9315,7 +9319,7 @@
         <v>1889.5</v>
       </c>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A155" s="13" t="s">
         <v>172</v>
       </c>
@@ -9362,7 +9366,7 @@
         <v>1861.7</v>
       </c>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A156" s="13" t="s">
         <v>173</v>
       </c>
@@ -9409,7 +9413,7 @@
         <v>1845</v>
       </c>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A157" s="13" t="s">
         <v>174</v>
       </c>
@@ -9456,7 +9460,7 @@
         <v>1817.2</v>
       </c>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A158" s="13" t="s">
         <v>175</v>
       </c>
@@ -9503,7 +9507,7 @@
         <v>1789.4</v>
       </c>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A159" s="13" t="s">
         <v>176</v>
       </c>
@@ -9550,7 +9554,7 @@
         <v>1761.6</v>
       </c>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A160" s="13" t="s">
         <v>177</v>
       </c>
@@ -9597,7 +9601,7 @@
         <v>1722.7</v>
       </c>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A161" s="13" t="s">
         <v>178</v>
       </c>
@@ -9644,7 +9648,7 @@
         <v>1683.8</v>
       </c>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A162" s="13" t="s">
         <v>179</v>
       </c>
@@ -9691,7 +9695,7 @@
         <v>1644.9</v>
       </c>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A163" s="13" t="s">
         <v>180</v>
       </c>
@@ -9738,7 +9742,7 @@
         <v>1639.3</v>
       </c>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A164" s="13" t="s">
         <v>181</v>
       </c>
@@ -9785,7 +9789,7 @@
         <v>1622.6</v>
       </c>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A165" s="13" t="s">
         <v>182</v>
       </c>
@@ -9832,7 +9836,7 @@
         <v>1600.4</v>
       </c>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A166" s="13" t="s">
         <v>183</v>
       </c>
@@ -9879,7 +9883,7 @@
         <v>1572.6</v>
       </c>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A167" s="13" t="s">
         <v>184</v>
       </c>
@@ -9926,7 +9930,7 @@
         <v>1544.8</v>
       </c>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A168" s="13" t="s">
         <v>185</v>
       </c>
@@ -9973,7 +9977,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A169" s="13" t="s">
         <v>186</v>
       </c>
@@ -10020,7 +10024,7 @@
         <v>1483.7</v>
       </c>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A170" s="13" t="s">
         <v>187</v>
       </c>
@@ -10067,7 +10071,7 @@
         <v>1489.3</v>
       </c>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A171" s="13" t="s">
         <v>188</v>
       </c>
@@ -10114,7 +10118,7 @@
         <v>1483.7</v>
       </c>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A172" s="13" t="s">
         <v>189</v>
       </c>
@@ -10161,7 +10165,7 @@
         <v>1478.1</v>
       </c>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A173" s="13" t="s">
         <v>190</v>
       </c>
@@ -10208,7 +10212,7 @@
         <v>1461.4</v>
       </c>
     </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A174" s="13" t="s">
         <v>191</v>
       </c>
@@ -10255,7 +10259,7 @@
         <v>1450.3</v>
       </c>
     </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A175" s="13" t="s">
         <v>192</v>
       </c>
@@ -10302,7 +10306,7 @@
         <v>1455.9</v>
       </c>
     </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A176" s="13" t="s">
         <v>193</v>
       </c>
@@ -10349,7 +10353,7 @@
         <v>1433.7</v>
       </c>
     </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A177" s="13" t="s">
         <v>194</v>
       </c>
@@ -10396,7 +10400,7 @@
         <v>1422.6</v>
       </c>
     </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A178" s="13" t="s">
         <v>195</v>
       </c>
@@ -10443,7 +10447,7 @@
         <v>1400.4</v>
       </c>
     </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A179" s="13" t="s">
         <v>196</v>
       </c>
@@ -10490,7 +10494,7 @@
         <v>1394.8</v>
       </c>
     </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A180" s="13" t="s">
         <v>197</v>
       </c>
@@ -10537,7 +10541,7 @@
         <v>1378.1</v>
       </c>
     </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A181" s="13" t="s">
         <v>198</v>
       </c>
@@ -10584,7 +10588,7 @@
         <v>1378.1</v>
       </c>
     </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A182" s="13" t="s">
         <v>199</v>
       </c>
@@ -10631,7 +10635,7 @@
         <v>1394.8</v>
       </c>
     </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A183" s="13" t="s">
         <v>200</v>
       </c>
@@ -10678,7 +10682,7 @@
         <v>1405.9</v>
       </c>
     </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A184" s="13" t="s">
         <v>201</v>
       </c>
@@ -10725,7 +10729,7 @@
         <v>1417</v>
       </c>
     </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A185" s="13" t="s">
         <v>202</v>
       </c>
@@ -10772,7 +10776,7 @@
         <v>1428.1</v>
       </c>
     </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A186" s="13" t="s">
         <v>203</v>
       </c>
@@ -10819,7 +10823,7 @@
         <v>1433.7</v>
       </c>
     </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A187" s="13" t="s">
         <v>204</v>
       </c>
@@ -10866,7 +10870,7 @@
         <v>1444.8</v>
       </c>
     </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A188" s="13" t="s">
         <v>205</v>
       </c>
@@ -10913,7 +10917,7 @@
         <v>1455.9</v>
       </c>
     </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A189" s="13" t="s">
         <v>206</v>
       </c>
@@ -10960,7 +10964,7 @@
         <v>1461.5</v>
       </c>
     </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A190" s="13" t="s">
         <v>207</v>
       </c>
@@ -11007,7 +11011,7 @@
         <v>1467.1</v>
       </c>
     </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A191" s="13" t="s">
         <v>208</v>
       </c>
@@ -11054,7 +11058,7 @@
         <v>1472.7</v>
       </c>
     </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A192" s="13" t="s">
         <v>209</v>
       </c>
@@ -11101,7 +11105,7 @@
         <v>1467.1</v>
       </c>
     </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A193" s="13" t="s">
         <v>210</v>
       </c>
@@ -11148,7 +11152,7 @@
         <v>1467.1</v>
       </c>
     </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A194" s="13" t="s">
         <v>211</v>
       </c>
@@ -11195,7 +11199,7 @@
         <v>1461.5</v>
       </c>
     </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A195" s="13" t="s">
         <v>212</v>
       </c>
@@ -11242,7 +11246,7 @@
         <v>1483.7</v>
       </c>
     </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A196" s="13" t="s">
         <v>213</v>
       </c>
@@ -11289,7 +11293,7 @@
         <v>1494.8</v>
       </c>
     </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A197" s="13" t="s">
         <v>214</v>
       </c>
@@ -11336,7 +11340,7 @@
         <v>1511.5</v>
       </c>
     </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A198" s="13" t="s">
         <v>215</v>
       </c>
@@ -11383,7 +11387,7 @@
         <v>1522.6</v>
       </c>
     </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A199" s="13" t="s">
         <v>216</v>
       </c>
@@ -11430,7 +11434,7 @@
         <v>1550.4</v>
       </c>
     </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A200" s="13" t="s">
         <v>217</v>
       </c>
@@ -11477,7 +11481,7 @@
         <v>1589.3</v>
       </c>
     </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A201" s="13" t="s">
         <v>218</v>
       </c>
@@ -11524,7 +11528,7 @@
         <v>1617.1</v>
       </c>
     </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A202" s="13" t="s">
         <v>219</v>
       </c>
@@ -11571,7 +11575,7 @@
         <v>1644.9</v>
       </c>
     </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A203" s="13" t="s">
         <v>220</v>
       </c>
@@ -11618,7 +11622,7 @@
         <v>1656</v>
       </c>
     </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A204" s="13" t="s">
         <v>221</v>
       </c>
@@ -11665,7 +11669,7 @@
         <v>1661.6</v>
       </c>
     </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A205" s="13" t="s">
         <v>222</v>
       </c>
@@ -11712,7 +11716,7 @@
         <v>1672.7</v>
       </c>
     </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A206" s="13" t="s">
         <v>223</v>
       </c>
@@ -11759,7 +11763,7 @@
         <v>1700.5</v>
       </c>
     </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A207" s="13" t="s">
         <v>224</v>
       </c>
@@ -11806,7 +11810,7 @@
         <v>1711.6</v>
       </c>
     </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A208" s="13" t="s">
         <v>225</v>
       </c>
@@ -11853,7 +11857,7 @@
         <v>1733.8</v>
       </c>
     </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A209" s="13" t="s">
         <v>226</v>
       </c>
@@ -11900,7 +11904,7 @@
         <v>1772.7</v>
       </c>
     </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A210" s="13" t="s">
         <v>227</v>
       </c>
@@ -11947,7 +11951,7 @@
         <v>1800.5</v>
       </c>
     </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A211" s="13" t="s">
         <v>228</v>
       </c>
@@ -11994,7 +11998,7 @@
         <v>1828.3</v>
       </c>
     </row>
-    <row r="212" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A212" s="13" t="s">
         <v>229</v>
       </c>
@@ -12041,7 +12045,7 @@
         <v>1828.3</v>
       </c>
     </row>
-    <row r="213" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A213" s="13" t="s">
         <v>230</v>
       </c>
@@ -12088,7 +12092,7 @@
         <v>1867.2</v>
       </c>
     </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A214" s="13" t="s">
         <v>231</v>
       </c>
@@ -12135,7 +12139,7 @@
         <v>1883.9</v>
       </c>
     </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A215" s="13" t="s">
         <v>232</v>
       </c>
@@ -12182,7 +12186,7 @@
         <v>1889.5</v>
       </c>
     </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A216" s="13" t="s">
         <v>233</v>
       </c>
@@ -12229,7 +12233,7 @@
         <v>1906.2</v>
       </c>
     </row>
-    <row r="217" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A217" s="13" t="s">
         <v>234</v>
       </c>
@@ -12276,7 +12280,7 @@
         <v>1934</v>
       </c>
     </row>
-    <row r="218" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A218" s="13" t="s">
         <v>235</v>
       </c>
@@ -12323,7 +12327,7 @@
         <v>1950.7</v>
       </c>
     </row>
-    <row r="219" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A219" s="13" t="s">
         <v>236</v>
       </c>
@@ -12370,7 +12374,7 @@
         <v>1967.4</v>
       </c>
     </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A220" s="13" t="s">
         <v>237</v>
       </c>
@@ -12417,7 +12421,7 @@
         <v>1961.8</v>
       </c>
     </row>
-    <row r="221" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A221" s="13" t="s">
         <v>238</v>
       </c>
@@ -12464,7 +12468,7 @@
         <v>1967.4</v>
       </c>
     </row>
-    <row r="222" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A222" s="13" t="s">
         <v>239</v>
       </c>
@@ -12511,7 +12515,7 @@
         <v>1961.8</v>
       </c>
     </row>
-    <row r="223" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A223" s="13" t="s">
         <v>240</v>
       </c>
@@ -12558,7 +12562,7 @@
         <v>1934</v>
       </c>
     </row>
-    <row r="224" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A224" s="13" t="s">
         <v>241</v>
       </c>
@@ -12605,7 +12609,7 @@
         <v>1906.2</v>
       </c>
     </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A225" s="13" t="s">
         <v>242</v>
       </c>
@@ -12652,7 +12656,7 @@
         <v>1856.2</v>
       </c>
     </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A226" s="13" t="s">
         <v>243</v>
       </c>
@@ -12699,7 +12703,7 @@
         <v>1828.4</v>
       </c>
     </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A227" s="13" t="s">
         <v>244</v>
       </c>
@@ -12746,7 +12750,7 @@
         <v>1800.6</v>
       </c>
     </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A228" s="13" t="s">
         <v>245</v>
       </c>
@@ -12793,7 +12797,7 @@
         <v>1783.9</v>
       </c>
     </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A229" s="13" t="s">
         <v>246</v>
       </c>
@@ -12840,7 +12844,7 @@
         <v>1761.7</v>
       </c>
     </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A230" s="13" t="s">
         <v>247</v>
       </c>
@@ -12887,7 +12891,7 @@
         <v>1728.4</v>
       </c>
     </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A231" s="13" t="s">
         <v>248</v>
       </c>
@@ -12934,7 +12938,7 @@
         <v>1700.6</v>
       </c>
     </row>
-    <row r="232" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A232" s="13" t="s">
         <v>249</v>
       </c>
@@ -12981,7 +12985,7 @@
         <v>1683.9</v>
       </c>
     </row>
-    <row r="233" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A233" s="13" t="s">
         <v>250</v>
       </c>
@@ -13028,7 +13032,7 @@
         <v>1656.1</v>
       </c>
     </row>
-    <row r="234" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A234" s="13" t="s">
         <v>251</v>
       </c>
@@ -13075,7 +13079,7 @@
         <v>1639.4</v>
       </c>
     </row>
-    <row r="235" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A235" s="13" t="s">
         <v>252</v>
       </c>
@@ -13122,7 +13126,7 @@
         <v>1645</v>
       </c>
     </row>
-    <row r="236" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A236" s="13" t="s">
         <v>253</v>
       </c>
@@ -13169,7 +13173,7 @@
         <v>1628.3</v>
       </c>
     </row>
-    <row r="237" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A237" s="13" t="s">
         <v>254</v>
       </c>
@@ -13216,7 +13220,7 @@
         <v>1611.6</v>
       </c>
     </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A238" s="13" t="s">
         <v>255</v>
       </c>
@@ -13263,7 +13267,7 @@
         <v>1578.3</v>
       </c>
     </row>
-    <row r="239" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A239" s="13" t="s">
         <v>256</v>
       </c>
@@ -13310,7 +13314,7 @@
         <v>1561.6</v>
       </c>
     </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A240" s="13" t="s">
         <v>257</v>
       </c>
@@ -13357,7 +13361,7 @@
         <v>1550.5</v>
       </c>
     </row>
-    <row r="241" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A241" s="13" t="s">
         <v>258</v>
       </c>
@@ -13404,7 +13408,7 @@
         <v>1550.5</v>
       </c>
     </row>
-    <row r="242" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A242" s="13" t="s">
         <v>259</v>
       </c>
@@ -13451,7 +13455,7 @@
         <v>1550.5</v>
       </c>
     </row>
-    <row r="243" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A243" s="13" t="s">
         <v>260</v>
       </c>
@@ -13498,7 +13502,7 @@
         <v>1561.6</v>
       </c>
     </row>
-    <row r="244" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A244" s="13" t="s">
         <v>261</v>
       </c>
@@ -13545,7 +13549,7 @@
         <v>1556</v>
       </c>
     </row>
-    <row r="245" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A245" s="13" t="s">
         <v>262</v>
       </c>
@@ -13592,7 +13596,7 @@
         <v>1550.4</v>
       </c>
     </row>
-    <row r="246" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A246" s="13" t="s">
         <v>263</v>
       </c>
@@ -13639,7 +13643,7 @@
         <v>1544.8</v>
       </c>
     </row>
-    <row r="247" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A247" s="13" t="s">
         <v>264</v>
       </c>
@@ -13686,7 +13690,7 @@
         <v>1539.2</v>
       </c>
     </row>
-    <row r="248" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A248" s="13" t="s">
         <v>265</v>
       </c>
@@ -13733,7 +13737,7 @@
         <v>1550.3</v>
       </c>
     </row>
-    <row r="249" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A249" s="13" t="s">
         <v>266</v>
       </c>
@@ -13780,7 +13784,7 @@
         <v>1578.1</v>
       </c>
     </row>
-    <row r="250" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A250" s="13" t="s">
         <v>267</v>
       </c>
@@ -13827,7 +13831,7 @@
         <v>1594.8</v>
       </c>
     </row>
-    <row r="251" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A251" s="13" t="s">
         <v>268</v>
       </c>
@@ -13874,7 +13878,7 @@
         <v>1600.4</v>
       </c>
     </row>
-    <row r="252" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A252" s="13" t="s">
         <v>269</v>
       </c>
@@ -13921,7 +13925,7 @@
         <v>1578.2</v>
       </c>
     </row>
-    <row r="253" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A253" s="13" t="s">
         <v>270</v>
       </c>
@@ -13968,7 +13972,7 @@
         <v>1578.2</v>
       </c>
     </row>
-    <row r="254" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A254" s="13" t="s">
         <v>271</v>
       </c>
@@ -14015,7 +14019,7 @@
         <v>1556</v>
       </c>
     </row>
-    <row r="255" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A255" s="13" t="s">
         <v>272</v>
       </c>
@@ -14062,7 +14066,7 @@
         <v>1539.3</v>
       </c>
     </row>
-    <row r="256" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A256" s="13" t="s">
         <v>273</v>
       </c>
@@ -14109,7 +14113,7 @@
         <v>1550.4</v>
       </c>
     </row>
-    <row r="257" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A257" s="13" t="s">
         <v>274</v>
       </c>
@@ -14156,7 +14160,7 @@
         <v>1556</v>
       </c>
     </row>
-    <row r="258" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A258" s="13" t="s">
         <v>275</v>
       </c>
@@ -14203,7 +14207,7 @@
         <v>1572.7</v>
       </c>
     </row>
-    <row r="259" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A259" s="13" t="s">
         <v>276</v>
       </c>
@@ -14250,7 +14254,7 @@
         <v>1544.9</v>
       </c>
     </row>
-    <row r="260" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A260" s="13" t="s">
         <v>277</v>
       </c>
@@ -14297,7 +14301,7 @@
         <v>1550.5</v>
       </c>
     </row>
-    <row r="261" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A261" s="13" t="s">
         <v>278</v>
       </c>
@@ -14344,7 +14348,7 @@
         <v>1539.4</v>
       </c>
     </row>
-    <row r="262" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A262" s="13" t="s">
         <v>279</v>
       </c>
@@ -14391,7 +14395,7 @@
         <v>1517.2</v>
       </c>
     </row>
-    <row r="263" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A263" s="13" t="s">
         <v>280</v>
       </c>
@@ -14438,7 +14442,7 @@
         <v>1506.1</v>
       </c>
     </row>
-    <row r="264" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A264" s="13" t="s">
         <v>281</v>
       </c>
@@ -14485,7 +14489,7 @@
         <v>1489.4</v>
       </c>
     </row>
-    <row r="265" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A265" s="13" t="s">
         <v>282</v>
       </c>
@@ -14532,7 +14536,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="266" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A266" s="13" t="s">
         <v>283</v>
       </c>
@@ -14579,7 +14583,7 @@
         <v>1483.9</v>
       </c>
     </row>
-    <row r="267" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A267" s="13" t="s">
         <v>284</v>
       </c>
@@ -14626,7 +14630,7 @@
         <v>1483.9</v>
       </c>
     </row>
-    <row r="268" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A268" s="13" t="s">
         <v>285</v>
       </c>
@@ -14673,7 +14677,7 @@
         <v>1478.3</v>
       </c>
     </row>
-    <row r="269" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A269" s="13" t="s">
         <v>286</v>
       </c>
@@ -14720,7 +14724,7 @@
         <v>1467.2</v>
       </c>
     </row>
-    <row r="270" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A270" s="13" t="s">
         <v>287</v>
       </c>
@@ -14767,7 +14771,7 @@
         <v>1433.9</v>
       </c>
     </row>
-    <row r="271" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A271" s="13" t="s">
         <v>288</v>
       </c>
@@ -14814,7 +14818,7 @@
         <v>1417.2</v>
       </c>
     </row>
-    <row r="272" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A272" s="13" t="s">
         <v>289</v>
       </c>
@@ -14861,7 +14865,7 @@
         <v>1395</v>
       </c>
     </row>
-    <row r="273" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A273" s="13" t="s">
         <v>290</v>
       </c>
@@ -14908,7 +14912,7 @@
         <v>1400.6</v>
       </c>
     </row>
-    <row r="274" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A274" s="13" t="s">
         <v>291</v>
       </c>
@@ -14955,7 +14959,7 @@
         <v>1378.4</v>
       </c>
     </row>
-    <row r="275" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A275" s="13" t="s">
         <v>292</v>
       </c>
@@ -15002,7 +15006,7 @@
         <v>1367.3</v>
       </c>
     </row>
-    <row r="276" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A276" s="13" t="s">
         <v>293</v>
       </c>
@@ -15049,7 +15053,7 @@
         <v>1350.6</v>
       </c>
     </row>
-    <row r="277" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A277" s="13" t="s">
         <v>294</v>
       </c>
@@ -15096,7 +15100,7 @@
         <v>1356.2</v>
       </c>
     </row>
-    <row r="278" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A278" s="13" t="s">
         <v>295</v>
       </c>
@@ -15143,7 +15147,7 @@
         <v>1350.6</v>
       </c>
     </row>
-    <row r="279" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A279" s="13" t="s">
         <v>296</v>
       </c>
@@ -15190,7 +15194,7 @@
         <v>1350.6</v>
       </c>
     </row>
-    <row r="280" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A280" s="13" t="s">
         <v>297</v>
       </c>
@@ -15237,7 +15241,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="281" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A281" s="13" t="s">
         <v>298</v>
       </c>
@@ -15284,7 +15288,7 @@
         <v>1350.6</v>
       </c>
     </row>
-    <row r="282" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A282" s="13" t="s">
         <v>299</v>
       </c>
@@ -15331,7 +15335,7 @@
         <v>1378.4</v>
       </c>
     </row>
-    <row r="283" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A283" s="13" t="s">
         <v>300</v>
       </c>
@@ -15378,7 +15382,7 @@
         <v>1372.8</v>
       </c>
     </row>
-    <row r="284" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A284" s="13" t="s">
         <v>301</v>
       </c>
@@ -15425,7 +15429,7 @@
         <v>1383.9</v>
       </c>
     </row>
-    <row r="285" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A285" s="13" t="s">
         <v>302</v>
       </c>
@@ -15472,7 +15476,7 @@
         <v>1395</v>
       </c>
     </row>
-    <row r="286" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A286" s="13" t="s">
         <v>303</v>
       </c>
@@ -15519,7 +15523,7 @@
         <v>1411.7</v>
       </c>
     </row>
-    <row r="287" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A287" s="13" t="s">
         <v>304</v>
       </c>
@@ -15566,7 +15570,7 @@
         <v>1422.8</v>
       </c>
     </row>
-    <row r="288" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A288" s="13" t="s">
         <v>305</v>
       </c>
@@ -15613,7 +15617,7 @@
         <v>1439.5</v>
       </c>
     </row>
-    <row r="289" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A289" s="13" t="s">
         <v>306</v>
       </c>
@@ -15660,7 +15664,7 @@
         <v>1467.3</v>
       </c>
     </row>
-    <row r="290" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A290" s="13" t="s">
         <v>307</v>
       </c>
@@ -15707,7 +15711,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="291" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A291" s="13" t="s">
         <v>308</v>
       </c>
@@ -15754,7 +15758,7 @@
         <v>1511.8</v>
       </c>
     </row>
-    <row r="292" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A292" s="13" t="s">
         <v>309</v>
       </c>
@@ -15801,7 +15805,7 @@
         <v>1550.7</v>
       </c>
     </row>
-    <row r="293" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A293" s="13" t="s">
         <v>310</v>
       </c>
@@ -15848,7 +15852,7 @@
         <v>1567.4</v>
       </c>
     </row>
-    <row r="294" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A294" s="13" t="s">
         <v>311</v>
       </c>
@@ -15895,7 +15899,7 @@
         <v>1584.1</v>
       </c>
     </row>
-    <row r="295" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A295" s="13" t="s">
         <v>312</v>
       </c>
@@ -15942,7 +15946,7 @@
         <v>1606.3</v>
       </c>
     </row>
-    <row r="296" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A296" s="13" t="s">
         <v>313</v>
       </c>
@@ -15989,7 +15993,7 @@
         <v>1634.1</v>
       </c>
     </row>
-    <row r="297" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A297" s="13" t="s">
         <v>314</v>
       </c>
@@ -16036,7 +16040,7 @@
         <v>1650.8</v>
       </c>
     </row>
-    <row r="298" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A298" s="13" t="s">
         <v>315</v>
       </c>
@@ -16083,7 +16087,7 @@
         <v>1656.4</v>
       </c>
     </row>
-    <row r="299" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A299" s="13" t="s">
         <v>316</v>
       </c>
@@ -16130,7 +16134,7 @@
         <v>1684.2</v>
       </c>
     </row>
-    <row r="300" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A300" s="13" t="s">
         <v>317</v>
       </c>
@@ -16177,7 +16181,7 @@
         <v>1717.5</v>
       </c>
     </row>
-    <row r="301" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A301" s="13" t="s">
         <v>318</v>
       </c>
@@ -16224,7 +16228,7 @@
         <v>1728.6</v>
       </c>
     </row>
-    <row r="302" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A302" s="13" t="s">
         <v>319</v>
       </c>
@@ -16271,7 +16275,7 @@
         <v>1750.8</v>
       </c>
     </row>
-    <row r="303" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A303" s="13" t="s">
         <v>320</v>
       </c>
@@ -16318,7 +16322,7 @@
         <v>1795.2</v>
       </c>
     </row>
-    <row r="304" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A304" s="13" t="s">
         <v>321</v>
       </c>
@@ -16365,7 +16369,7 @@
         <v>1806.3</v>
       </c>
     </row>
-    <row r="305" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A305" s="13" t="s">
         <v>322</v>
       </c>
@@ -16412,7 +16416,7 @@
         <v>1811.9</v>
       </c>
     </row>
-    <row r="306" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A306" s="13" t="s">
         <v>323</v>
       </c>
@@ -16459,7 +16463,7 @@
         <v>1806.3</v>
       </c>
     </row>
-    <row r="307" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A307" s="13" t="s">
         <v>324</v>
       </c>
@@ -16506,7 +16510,7 @@
         <v>1817.4</v>
       </c>
     </row>
-    <row r="308" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A308" s="13" t="s">
         <v>325</v>
       </c>
@@ -16553,7 +16557,7 @@
         <v>1817.4</v>
       </c>
     </row>
-    <row r="309" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A309" s="13" t="s">
         <v>326</v>
       </c>
@@ -16600,7 +16604,7 @@
         <v>1823</v>
       </c>
     </row>
-    <row r="310" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A310" s="13" t="s">
         <v>327</v>
       </c>
@@ -16647,7 +16651,7 @@
         <v>1850.8</v>
       </c>
     </row>
-    <row r="311" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A311" s="13" t="s">
         <v>328</v>
       </c>
@@ -16694,7 +16698,7 @@
         <v>1867.5</v>
       </c>
     </row>
-    <row r="312" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A312" s="13" t="s">
         <v>329</v>
       </c>
@@ -16741,7 +16745,7 @@
         <v>1884.2</v>
       </c>
     </row>
-    <row r="313" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A313" s="13" t="s">
         <v>330</v>
       </c>
@@ -16788,7 +16792,7 @@
         <v>1873.1</v>
       </c>
     </row>
-    <row r="314" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A314" s="13" t="s">
         <v>331</v>
       </c>
@@ -16835,7 +16839,7 @@
         <v>1889.8</v>
       </c>
     </row>
-    <row r="315" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A315" s="13" t="s">
         <v>332</v>
       </c>
@@ -16882,7 +16886,7 @@
         <v>1917.6</v>
       </c>
     </row>
-    <row r="316" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A316" s="13" t="s">
         <v>333</v>
       </c>
@@ -16929,7 +16933,7 @@
         <v>1939.8</v>
       </c>
     </row>
-    <row r="317" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A317" s="13" t="s">
         <v>334</v>
       </c>
@@ -16976,7 +16980,7 @@
         <v>1945.4</v>
       </c>
     </row>
-    <row r="318" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A318" s="13" t="s">
         <v>335</v>
       </c>
@@ -17023,7 +17027,7 @@
         <v>1951</v>
       </c>
     </row>
-    <row r="319" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A319" s="13" t="s">
         <v>336</v>
       </c>
@@ -17070,7 +17074,7 @@
         <v>1962.1</v>
       </c>
     </row>
-    <row r="320" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A320" s="13" t="s">
         <v>337</v>
       </c>
@@ -17117,7 +17121,7 @@
         <v>1984.3</v>
       </c>
     </row>
-    <row r="321" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A321" s="13" t="s">
         <v>338</v>
       </c>
@@ -17164,7 +17168,7 @@
         <v>2012.1</v>
       </c>
     </row>
-    <row r="322" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A322" s="13" t="s">
         <v>339</v>
       </c>
@@ -17211,7 +17215,7 @@
         <v>2045.4</v>
       </c>
     </row>
-    <row r="323" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A323" s="13" t="s">
         <v>340</v>
       </c>
@@ -17258,7 +17262,7 @@
         <v>2067.6</v>
       </c>
     </row>
-    <row r="324" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A324" s="13" t="s">
         <v>341</v>
       </c>
@@ -17305,7 +17309,7 @@
         <v>2106.5</v>
       </c>
     </row>
-    <row r="325" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A325" s="13" t="s">
         <v>342</v>
       </c>
@@ -17352,7 +17356,7 @@
         <v>2134.3000000000002</v>
       </c>
     </row>
-    <row r="326" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A326" s="13" t="s">
         <v>343</v>
       </c>
@@ -17399,7 +17403,7 @@
         <v>2151</v>
       </c>
     </row>
-    <row r="327" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A327" s="13" t="s">
         <v>344</v>
       </c>
@@ -17446,7 +17450,7 @@
         <v>2162.1</v>
       </c>
     </row>
-    <row r="328" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A328" s="13" t="s">
         <v>345</v>
       </c>
@@ -17493,7 +17497,7 @@
         <v>2173.1999999999998</v>
       </c>
     </row>
-    <row r="329" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A329" s="13" t="s">
         <v>346</v>
       </c>
@@ -17540,7 +17544,7 @@
         <v>2189.9</v>
       </c>
     </row>
-    <row r="330" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A330" s="13" t="s">
         <v>347</v>
       </c>
@@ -17587,7 +17591,7 @@
         <v>2217.6999999999998</v>
       </c>
     </row>
-    <row r="331" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A331" s="13" t="s">
         <v>348</v>
       </c>
@@ -17634,7 +17638,7 @@
         <v>2239.9</v>
       </c>
     </row>
-    <row r="332" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A332" s="13" t="s">
         <v>349</v>
       </c>
@@ -17681,7 +17685,7 @@
         <v>2223.1999999999998</v>
       </c>
     </row>
-    <row r="333" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A333" s="13" t="s">
         <v>350</v>
       </c>
@@ -17728,7 +17732,7 @@
         <v>2228.8000000000002</v>
       </c>
     </row>
-    <row r="334" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A334" s="13" t="s">
         <v>351</v>
       </c>
@@ -17775,7 +17779,7 @@
         <v>2223.1999999999998</v>
       </c>
     </row>
-    <row r="335" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A335" s="13" t="s">
         <v>352</v>
       </c>
@@ -17822,7 +17826,7 @@
         <v>2251</v>
       </c>
     </row>
-    <row r="336" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A336" s="13" t="s">
         <v>353</v>
       </c>
@@ -17869,7 +17873,7 @@
         <v>2278.8000000000002</v>
       </c>
     </row>
-    <row r="337" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A337" s="13" t="s">
         <v>354</v>
       </c>
@@ -17916,7 +17920,7 @@
         <v>2317.6999999999998</v>
       </c>
     </row>
-    <row r="338" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A338" s="13" t="s">
         <v>355</v>
       </c>
@@ -17963,7 +17967,7 @@
         <v>2339.9</v>
       </c>
     </row>
-    <row r="339" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A339" s="13" t="s">
         <v>356</v>
       </c>
@@ -18010,7 +18014,7 @@
         <v>2351</v>
       </c>
     </row>
-    <row r="340" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A340" s="13" t="s">
         <v>357</v>
       </c>
@@ -18057,7 +18061,7 @@
         <v>2367.6999999999998</v>
       </c>
     </row>
-    <row r="341" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A341" s="13" t="s">
         <v>358</v>
       </c>
@@ -18104,7 +18108,7 @@
         <v>2384.4</v>
       </c>
     </row>
-    <row r="342" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A342" s="13" t="s">
         <v>359</v>
       </c>
@@ -18151,7 +18155,7 @@
         <v>2412.1999999999998</v>
       </c>
     </row>
-    <row r="343" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A343" s="13" t="s">
         <v>360</v>
       </c>
@@ -18198,7 +18202,7 @@
         <v>2440</v>
       </c>
     </row>
-    <row r="344" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A344" s="13" t="s">
         <v>361</v>
       </c>
@@ -18245,7 +18249,7 @@
         <v>2434.4</v>
       </c>
     </row>
-    <row r="345" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A345" s="13" t="s">
         <v>362</v>
       </c>
@@ -18292,7 +18296,7 @@
         <v>2423.3000000000002</v>
       </c>
     </row>
-    <row r="346" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A346" s="13" t="s">
         <v>363</v>
       </c>
@@ -18339,7 +18343,7 @@
         <v>2384.4</v>
       </c>
     </row>
-    <row r="347" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A347" s="13" t="s">
         <v>364</v>
       </c>
@@ -18386,7 +18390,7 @@
         <v>2356.6</v>
       </c>
     </row>
-    <row r="348" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A348" s="13" t="s">
         <v>365</v>
       </c>
@@ -18433,7 +18437,7 @@
         <v>2328.8000000000002</v>
       </c>
     </row>
-    <row r="349" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A349" s="13" t="s">
         <v>366</v>
       </c>
@@ -18480,7 +18484,7 @@
         <v>2312.1</v>
       </c>
     </row>
-    <row r="350" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A350" s="13" t="s">
         <v>367</v>
       </c>
@@ -18527,7 +18531,7 @@
         <v>2273.1999999999998</v>
       </c>
     </row>
-    <row r="351" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A351" s="13" t="s">
         <v>368</v>
       </c>
@@ -18574,7 +18578,7 @@
         <v>2256.5</v>
       </c>
     </row>
-    <row r="352" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A352" s="13" t="s">
         <v>369</v>
       </c>
@@ -18621,7 +18625,7 @@
         <v>2217.6</v>
       </c>
     </row>
-    <row r="353" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A353" s="13" t="s">
         <v>370</v>
       </c>
@@ -18668,7 +18672,7 @@
         <v>2212</v>
       </c>
     </row>
-    <row r="354" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A354" s="13" t="s">
         <v>371</v>
       </c>
@@ -18715,7 +18719,7 @@
         <v>2162</v>
       </c>
     </row>
-    <row r="355" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A355" s="13" t="s">
         <v>372</v>
       </c>
@@ -18762,7 +18766,7 @@
         <v>2112</v>
       </c>
     </row>
-    <row r="356" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A356" s="13" t="s">
         <v>373</v>
       </c>
@@ -18809,7 +18813,7 @@
         <v>2062</v>
       </c>
     </row>
-    <row r="357" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A357" s="13" t="s">
         <v>374</v>
       </c>
@@ -18856,7 +18860,7 @@
         <v>2023.1</v>
       </c>
     </row>
-    <row r="358" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A358" s="13" t="s">
         <v>375</v>
       </c>
@@ -18903,7 +18907,7 @@
         <v>1984.2</v>
       </c>
     </row>
-    <row r="359" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A359" s="13" t="s">
         <v>376</v>
       </c>
@@ -18950,7 +18954,7 @@
         <v>1956.4</v>
       </c>
     </row>
-    <row r="360" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A360" s="13" t="s">
         <v>377</v>
       </c>
@@ -18997,7 +19001,7 @@
         <v>1917.5</v>
       </c>
     </row>
-    <row r="361" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A361" s="13" t="s">
         <v>378</v>
       </c>
@@ -19044,7 +19048,7 @@
         <v>1878.6</v>
       </c>
     </row>
-    <row r="362" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A362" s="13" t="s">
         <v>379</v>
       </c>
@@ -19091,7 +19095,7 @@
         <v>1861.9</v>
       </c>
     </row>
-    <row r="363" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A363" s="13" t="s">
         <v>380</v>
       </c>
@@ -19138,7 +19142,7 @@
         <v>1845.2</v>
       </c>
     </row>
-    <row r="364" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A364" s="13" t="s">
         <v>381</v>
       </c>
@@ -19185,7 +19189,7 @@
         <v>1834.1</v>
       </c>
     </row>
-    <row r="365" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A365" s="13" t="s">
         <v>382</v>
       </c>
@@ -19232,7 +19236,7 @@
         <v>1817.4</v>
       </c>
     </row>
-    <row r="366" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A366" s="13" t="s">
         <v>383</v>
       </c>
@@ -19279,7 +19283,7 @@
         <v>1823</v>
       </c>
     </row>
-    <row r="367" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A367" s="13" t="s">
         <v>384</v>
       </c>
@@ -19326,7 +19330,7 @@
         <v>1839.7</v>
       </c>
     </row>
-    <row r="368" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A368" s="13" t="s">
         <v>385</v>
       </c>
@@ -19373,7 +19377,7 @@
         <v>1845.3</v>
       </c>
     </row>
-    <row r="369" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A369" s="13" t="s">
         <v>386</v>
       </c>
@@ -19420,7 +19424,7 @@
         <v>1862</v>
       </c>
     </row>
-    <row r="370" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A370" s="13" t="s">
         <v>387</v>
       </c>
@@ -19467,7 +19471,7 @@
         <v>1845.3</v>
       </c>
     </row>
-    <row r="371" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A371" s="13" t="s">
         <v>388</v>
       </c>
@@ -19514,7 +19518,7 @@
         <v>1845.3</v>
       </c>
     </row>
-    <row r="372" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A372" s="13" t="s">
         <v>389</v>
       </c>
@@ -19561,7 +19565,7 @@
         <v>1839.7</v>
       </c>
     </row>
-    <row r="373" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A373" s="13" t="s">
         <v>390</v>
       </c>
@@ -19608,7 +19612,7 @@
         <v>1878.6</v>
       </c>
     </row>
-    <row r="374" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A374" s="13" t="s">
         <v>391</v>
       </c>
@@ -19655,7 +19659,7 @@
         <v>1900.8</v>
       </c>
     </row>
-    <row r="375" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A375" s="13" t="s">
         <v>392</v>
       </c>
@@ -19702,7 +19706,7 @@
         <v>1906.4</v>
       </c>
     </row>
-    <row r="376" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A376" s="13" t="s">
         <v>393</v>
       </c>
@@ -19749,7 +19753,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="377" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A377" s="13" t="s">
         <v>394</v>
       </c>
@@ -19796,7 +19800,7 @@
         <v>1939.8</v>
       </c>
     </row>
-    <row r="378" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A378" s="13" t="s">
         <v>395</v>
       </c>
@@ -19843,7 +19847,7 @@
         <v>1945.4</v>
       </c>
     </row>
-    <row r="379" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A379" s="13" t="s">
         <v>396</v>
       </c>
@@ -19890,7 +19894,7 @@
         <v>1939.8</v>
       </c>
     </row>
-    <row r="380" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A380" s="13" t="s">
         <v>397</v>
       </c>
@@ -19937,7 +19941,7 @@
         <v>1956.5</v>
       </c>
     </row>
-    <row r="381" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A381" s="13" t="s">
         <v>398</v>
       </c>
@@ -19984,7 +19988,7 @@
         <v>1934.3</v>
       </c>
     </row>
-    <row r="382" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A382" s="13" t="s">
         <v>399</v>
       </c>
@@ -20031,7 +20035,7 @@
         <v>1917.6</v>
       </c>
     </row>
-    <row r="383" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A383" s="13" t="s">
         <v>400</v>
       </c>
@@ -20078,7 +20082,7 @@
         <v>1889.8</v>
       </c>
     </row>
-    <row r="384" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A384" s="13" t="s">
         <v>401</v>
       </c>
@@ -20125,7 +20129,7 @@
         <v>1906.5</v>
       </c>
     </row>
-    <row r="385" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A385" s="13" t="s">
         <v>402</v>
       </c>
@@ -20172,7 +20176,7 @@
         <v>1906.5</v>
       </c>
     </row>
-    <row r="386" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A386" s="13" t="s">
         <v>403</v>
       </c>
@@ -20219,7 +20223,7 @@
         <v>1934.3</v>
       </c>
     </row>
-    <row r="387" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A387" s="13" t="s">
         <v>404</v>
       </c>
@@ -20266,7 +20270,7 @@
         <v>1962.1</v>
       </c>
     </row>
-    <row r="388" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A388" s="13" t="s">
         <v>405</v>
       </c>
@@ -20313,7 +20317,7 @@
         <v>1978.8</v>
       </c>
     </row>
-    <row r="389" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A389" s="13" t="s">
         <v>406</v>
       </c>
@@ -20360,7 +20364,7 @@
         <v>1984.4</v>
       </c>
     </row>
-    <row r="390" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A390" s="13" t="s">
         <v>407</v>
       </c>
@@ -20407,7 +20411,7 @@
         <v>1973.3</v>
       </c>
     </row>
-    <row r="391" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A391" s="13" t="s">
         <v>408</v>
       </c>
@@ -20454,7 +20458,7 @@
         <v>1945.5</v>
       </c>
     </row>
-    <row r="392" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A392" s="13" t="s">
         <v>409</v>
       </c>
@@ -20501,7 +20505,7 @@
         <v>1951.1</v>
       </c>
     </row>
-    <row r="393" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A393" s="13" t="s">
         <v>410</v>
       </c>
@@ -20548,7 +20552,7 @@
         <v>1973.3</v>
       </c>
     </row>
-    <row r="394" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A394" s="13" t="s">
         <v>411</v>
       </c>
@@ -20595,7 +20599,7 @@
         <v>2001.1</v>
       </c>
     </row>
-    <row r="395" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A395" s="13" t="s">
         <v>412</v>
       </c>
@@ -20642,7 +20646,7 @@
         <v>2006.7</v>
       </c>
     </row>
-    <row r="396" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A396" s="13" t="s">
         <v>413</v>
       </c>
@@ -20689,7 +20693,7 @@
         <v>2001.1</v>
       </c>
     </row>
-    <row r="397" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A397" s="13" t="s">
         <v>414</v>
       </c>
@@ -20736,7 +20740,7 @@
         <v>1973.3</v>
       </c>
     </row>
-    <row r="398" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A398" s="13" t="s">
         <v>415</v>
       </c>
@@ -20783,7 +20787,7 @@
         <v>1956.6</v>
       </c>
     </row>
-    <row r="399" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A399" s="13" t="s">
         <v>416</v>
       </c>
@@ -20830,7 +20834,7 @@
         <v>1951</v>
       </c>
     </row>
-    <row r="400" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A400" s="13" t="s">
         <v>417</v>
       </c>
@@ -20877,7 +20881,7 @@
         <v>1973.2</v>
       </c>
     </row>
-    <row r="401" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A401" s="13" t="s">
         <v>418</v>
       </c>
@@ -20924,7 +20928,7 @@
         <v>1989.9</v>
       </c>
     </row>
-    <row r="402" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A402" s="13" t="s">
         <v>419</v>
       </c>
@@ -20971,7 +20975,7 @@
         <v>1984.3</v>
       </c>
     </row>
-    <row r="403" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A403" s="13" t="s">
         <v>420</v>
       </c>
@@ -21018,7 +21022,7 @@
         <v>1967.6</v>
       </c>
     </row>
-    <row r="404" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A404" s="13" t="s">
         <v>421</v>
       </c>
@@ -21065,7 +21069,7 @@
         <v>1962</v>
       </c>
     </row>
-    <row r="405" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A405" s="13" t="s">
         <v>422</v>
       </c>
@@ -21112,7 +21116,7 @@
         <v>1956.4</v>
       </c>
     </row>
-    <row r="406" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A406" s="13" t="s">
         <v>423</v>
       </c>
@@ -21159,7 +21163,7 @@
         <v>1950.8</v>
       </c>
     </row>
-    <row r="407" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A407" s="13" t="s">
         <v>424</v>
       </c>
@@ -21206,7 +21210,7 @@
         <v>1956.4</v>
       </c>
     </row>
-    <row r="408" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A408" s="13" t="s">
         <v>425</v>
       </c>
@@ -21253,7 +21257,7 @@
         <v>1962</v>
       </c>
     </row>
-    <row r="409" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A409" s="13" t="s">
         <v>426</v>
       </c>
@@ -21300,7 +21304,7 @@
         <v>1967.6</v>
       </c>
     </row>
-    <row r="410" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A410" s="13" t="s">
         <v>427</v>
       </c>
@@ -21347,7 +21351,7 @@
         <v>1978.7</v>
       </c>
     </row>
-    <row r="411" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A411" s="13" t="s">
         <v>428</v>
       </c>
@@ -21394,7 +21398,7 @@
         <v>2006.5</v>
       </c>
     </row>
-    <row r="412" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A412" s="13" t="s">
         <v>429</v>
       </c>
@@ -21441,7 +21445,7 @@
         <v>2045.4</v>
       </c>
     </row>
-    <row r="413" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A413" s="13" t="s">
         <v>430</v>
       </c>
@@ -21488,7 +21492,7 @@
         <v>2073.1999999999998</v>
       </c>
     </row>
-    <row r="414" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A414" s="13" t="s">
         <v>431</v>
       </c>
@@ -21535,7 +21539,7 @@
         <v>2101</v>
       </c>
     </row>
-    <row r="415" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A415" s="13" t="s">
         <v>432</v>
       </c>
@@ -21582,7 +21586,7 @@
         <v>2151</v>
       </c>
     </row>
-    <row r="416" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A416" s="13" t="s">
         <v>433</v>
       </c>
@@ -21629,7 +21633,7 @@
         <v>2167.6999999999998</v>
       </c>
     </row>
-    <row r="417" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A417" s="13" t="s">
         <v>434</v>
       </c>
@@ -21676,7 +21680,7 @@
         <v>2178.8000000000002</v>
       </c>
     </row>
-    <row r="418" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A418" s="13" t="s">
         <v>435</v>
       </c>
@@ -21723,7 +21727,7 @@
         <v>2167.6999999999998</v>
       </c>
     </row>
-    <row r="419" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A419" s="13" t="s">
         <v>436</v>
       </c>
@@ -21770,7 +21774,7 @@
         <v>2195.5</v>
       </c>
     </row>
-    <row r="420" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A420" s="13" t="s">
         <v>437</v>
       </c>
@@ -21817,7 +21821,7 @@
         <v>2206.6</v>
       </c>
     </row>
-    <row r="421" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A421" s="13" t="s">
         <v>438</v>
       </c>
@@ -21864,7 +21868,7 @@
         <v>2239.9</v>
       </c>
     </row>
-    <row r="422" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A422" s="13" t="s">
         <v>439</v>
       </c>
@@ -21911,7 +21915,7 @@
         <v>2234.3000000000002</v>
       </c>
     </row>
-    <row r="423" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A423" s="13" t="s">
         <v>440</v>
       </c>
@@ -21958,7 +21962,7 @@
         <v>2228.6999999999998</v>
       </c>
     </row>
-    <row r="424" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A424" s="13" t="s">
         <v>441</v>
       </c>
@@ -22005,7 +22009,7 @@
         <v>2212</v>
       </c>
     </row>
-    <row r="425" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A425" s="13" t="s">
         <v>442</v>
       </c>
@@ -22052,7 +22056,7 @@
         <v>2206.4</v>
       </c>
     </row>
-    <row r="426" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A426" s="13" t="s">
         <v>443</v>
       </c>
@@ -22099,7 +22103,7 @@
         <v>2195.3000000000002</v>
       </c>
     </row>
-    <row r="427" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A427" s="13" t="s">
         <v>444</v>
       </c>
@@ -22146,7 +22150,7 @@
         <v>2212</v>
       </c>
     </row>
-    <row r="428" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A428" s="13" t="s">
         <v>445</v>
       </c>
@@ -22193,7 +22197,7 @@
         <v>2200.9</v>
       </c>
     </row>
-    <row r="429" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A429" s="13" t="s">
         <v>446</v>
       </c>
@@ -22240,7 +22244,7 @@
         <v>2206.5</v>
       </c>
     </row>
-    <row r="430" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A430" s="13" t="s">
         <v>447</v>
       </c>
@@ -22287,7 +22291,7 @@
         <v>2212.1</v>
       </c>
     </row>
-    <row r="431" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A431" s="13" t="s">
         <v>448</v>
       </c>
@@ -22334,7 +22338,7 @@
         <v>2217.6999999999998</v>
       </c>
     </row>
-    <row r="432" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A432" s="13" t="s">
         <v>449</v>
       </c>
@@ -22381,7 +22385,7 @@
         <v>2217.6999999999998</v>
       </c>
     </row>
-    <row r="433" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A433" s="13" t="s">
         <v>450</v>
       </c>
@@ -22428,7 +22432,7 @@
         <v>2212.1</v>
       </c>
     </row>
-    <row r="434" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A434" s="13" t="s">
         <v>451</v>
       </c>
@@ -22475,7 +22479,7 @@
         <v>2195.4</v>
       </c>
     </row>
-    <row r="435" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A435" s="13" t="s">
         <v>452</v>
       </c>
@@ -22522,7 +22526,7 @@
         <v>2201</v>
       </c>
     </row>
-    <row r="436" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A436" s="13" t="s">
         <v>453</v>
       </c>
@@ -22569,7 +22573,7 @@
         <v>2184.3000000000002</v>
       </c>
     </row>
-    <row r="437" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A437" s="13" t="s">
         <v>454</v>
       </c>
@@ -22616,7 +22620,7 @@
         <v>2201</v>
       </c>
     </row>
-    <row r="438" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A438" s="13" t="s">
         <v>455</v>
       </c>
@@ -22663,7 +22667,7 @@
         <v>2206.6</v>
       </c>
     </row>
-    <row r="439" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A439" s="13" t="s">
         <v>456</v>
       </c>
@@ -22710,7 +22714,7 @@
         <v>2217.6999999999998</v>
       </c>
     </row>
-    <row r="440" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A440" s="13" t="s">
         <v>457</v>
       </c>
@@ -22757,7 +22761,7 @@
         <v>2217.6999999999998</v>
       </c>
     </row>
-    <row r="441" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A441" s="13" t="s">
         <v>458</v>
       </c>
@@ -22804,7 +22808,7 @@
         <v>2223.3000000000002</v>
       </c>
     </row>
-    <row r="442" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A442" s="13" t="s">
         <v>459</v>
       </c>
@@ -22851,7 +22855,7 @@
         <v>2228.9</v>
       </c>
     </row>
-    <row r="443" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A443" s="13" t="s">
         <v>460</v>
       </c>
@@ -22898,7 +22902,7 @@
         <v>2201.1</v>
       </c>
     </row>
-    <row r="444" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A444" s="13" t="s">
         <v>461</v>
       </c>
@@ -22945,7 +22949,7 @@
         <v>2195.5</v>
       </c>
     </row>
-    <row r="445" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A445" s="13" t="s">
         <v>462</v>
       </c>
@@ -22992,7 +22996,7 @@
         <v>2212.1999999999998</v>
       </c>
     </row>
-    <row r="446" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A446" s="13" t="s">
         <v>463</v>
       </c>
@@ -23039,7 +23043,7 @@
         <v>2240</v>
       </c>
     </row>
-    <row r="447" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A447" s="13" t="s">
         <v>464</v>
       </c>
@@ -23086,7 +23090,7 @@
         <v>2262.1999999999998</v>
       </c>
     </row>
-    <row r="448" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A448" s="13" t="s">
         <v>465</v>
       </c>
@@ -23133,7 +23137,7 @@
         <v>2301.1</v>
       </c>
     </row>
-    <row r="449" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A449" s="13" t="s">
         <v>466</v>
       </c>
@@ -23180,7 +23184,7 @@
         <v>2328.9</v>
       </c>
     </row>
-    <row r="450" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A450" s="13" t="s">
         <v>467</v>
       </c>
@@ -23227,7 +23231,7 @@
         <v>2356.6999999999998</v>
       </c>
     </row>
-    <row r="451" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A451" s="13" t="s">
         <v>468</v>
       </c>
@@ -23274,7 +23278,7 @@
         <v>2384.5</v>
       </c>
     </row>
-    <row r="452" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A452" s="13" t="s">
         <v>469</v>
       </c>
@@ -23321,7 +23325,7 @@
         <v>2423.4</v>
       </c>
     </row>
-    <row r="453" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A453" s="13" t="s">
         <v>470</v>
       </c>
@@ -23368,7 +23372,7 @@
         <v>2462.3000000000002</v>
       </c>
     </row>
-    <row r="454" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A454" s="13" t="s">
         <v>471</v>
       </c>
@@ -23415,7 +23419,7 @@
         <v>2479</v>
       </c>
     </row>
-    <row r="455" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A455" s="13" t="s">
         <v>472</v>
       </c>
@@ -23462,7 +23466,7 @@
         <v>2495.6999999999998</v>
       </c>
     </row>
-    <row r="456" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A456" s="13" t="s">
         <v>473</v>
       </c>
@@ -23509,7 +23513,7 @@
         <v>2501.3000000000002</v>
       </c>
     </row>
-    <row r="457" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A457" s="13" t="s">
         <v>474</v>
       </c>
@@ -23556,7 +23560,7 @@
         <v>2506.9</v>
       </c>
     </row>
-    <row r="458" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A458" s="13" t="s">
         <v>475</v>
       </c>
@@ -23603,7 +23607,7 @@
         <v>2512.5</v>
       </c>
     </row>
-    <row r="459" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A459" s="13" t="s">
         <v>476</v>
       </c>
@@ -23650,7 +23654,7 @@
         <v>2540.3000000000002</v>
       </c>
     </row>
-    <row r="460" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A460" s="13" t="s">
         <v>477</v>
       </c>
@@ -23697,7 +23701,7 @@
         <v>2584.6999999999998</v>
       </c>
     </row>
-    <row r="461" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A461" s="13" t="s">
         <v>478</v>
       </c>
@@ -23744,7 +23748,7 @@
         <v>2634.7</v>
       </c>
     </row>
-    <row r="462" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A462" s="13" t="s">
         <v>479</v>
       </c>
@@ -23791,7 +23795,7 @@
         <v>2673.6</v>
       </c>
     </row>
-    <row r="463" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A463" s="13" t="s">
         <v>480</v>
       </c>
@@ -23838,7 +23842,7 @@
         <v>2673.6</v>
       </c>
     </row>
-    <row r="464" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A464" s="13" t="s">
         <v>481</v>
       </c>
@@ -23885,7 +23889,7 @@
         <v>2695.8</v>
       </c>
     </row>
-    <row r="465" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A465" s="13" t="s">
         <v>482</v>
       </c>
@@ -23932,7 +23936,7 @@
         <v>2706.9</v>
       </c>
     </row>
-    <row r="466" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A466" s="13" t="s">
         <v>483</v>
       </c>
@@ -23979,7 +23983,7 @@
         <v>2712.5</v>
       </c>
     </row>
-    <row r="467" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A467" s="13" t="s">
         <v>484</v>
       </c>
@@ -24026,7 +24030,7 @@
         <v>2718.1</v>
       </c>
     </row>
-    <row r="468" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A468" s="13" t="s">
         <v>485</v>
       </c>
@@ -24073,7 +24077,7 @@
         <v>2723.7</v>
       </c>
     </row>
-    <row r="469" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A469" s="13" t="s">
         <v>486</v>
       </c>
@@ -24120,7 +24124,7 @@
         <v>2707</v>
       </c>
     </row>
-    <row r="470" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A470" s="13" t="s">
         <v>487</v>
       </c>
@@ -24167,7 +24171,7 @@
         <v>2695.9</v>
       </c>
     </row>
-    <row r="471" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A471" s="13" t="s">
         <v>488</v>
       </c>
@@ -24214,7 +24218,7 @@
         <v>2701.5</v>
       </c>
     </row>
-    <row r="472" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A472" s="13" t="s">
         <v>489</v>
       </c>
@@ -24261,7 +24265,7 @@
         <v>2707.1</v>
       </c>
     </row>
-    <row r="473" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A473" s="13" t="s">
         <v>490</v>
       </c>
@@ -24308,7 +24312,7 @@
         <v>2707.1</v>
       </c>
     </row>
-    <row r="474" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A474" s="13" t="s">
         <v>491</v>
       </c>
@@ -24355,7 +24359,7 @@
         <v>2707.1</v>
       </c>
     </row>
-    <row r="475" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A475" s="13" t="s">
         <v>492</v>
       </c>
@@ -24402,7 +24406,7 @@
         <v>2718.2</v>
       </c>
     </row>
-    <row r="476" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A476" s="13" t="s">
         <v>493</v>
       </c>
@@ -24449,7 +24453,7 @@
         <v>2734.9</v>
       </c>
     </row>
-    <row r="477" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A477" s="13" t="s">
         <v>494</v>
       </c>
@@ -24496,7 +24500,7 @@
         <v>2751.6</v>
       </c>
     </row>
-    <row r="478" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A478" s="13" t="s">
         <v>495</v>
       </c>
@@ -24543,7 +24547,7 @@
         <v>2757.2</v>
       </c>
     </row>
-    <row r="479" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A479" s="13" t="s">
         <v>496</v>
       </c>
@@ -24590,7 +24594,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="480" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A480" s="13" t="s">
         <v>497</v>
       </c>
@@ -24637,7 +24641,7 @@
         <v>2801.7</v>
       </c>
     </row>
-    <row r="481" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A481" s="13" t="s">
         <v>498</v>
       </c>
@@ -24684,7 +24688,7 @@
         <v>2818.4</v>
       </c>
     </row>
-    <row r="482" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A482" s="13" t="s">
         <v>499</v>
       </c>
@@ -24731,7 +24735,7 @@
         <v>2812.8</v>
       </c>
     </row>
-    <row r="483" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A483" s="13" t="s">
         <v>500</v>
       </c>
@@ -24778,7 +24782,7 @@
         <v>2818.4</v>
       </c>
     </row>
-    <row r="484" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A484" s="13" t="s">
         <v>501</v>
       </c>
@@ -24825,7 +24829,7 @@
         <v>2790.6</v>
       </c>
     </row>
-    <row r="485" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A485" s="13" t="s">
         <v>502</v>
       </c>
@@ -24872,7 +24876,7 @@
         <v>2757.3</v>
       </c>
     </row>
-    <row r="486" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A486" s="13" t="s">
         <v>503</v>
       </c>
@@ -24919,7 +24923,7 @@
         <v>2740.6</v>
       </c>
     </row>
-    <row r="487" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A487" s="13" t="s">
         <v>504</v>
       </c>
@@ -24966,7 +24970,7 @@
         <v>2746.2</v>
       </c>
     </row>
-    <row r="488" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A488" s="13" t="s">
         <v>505</v>
       </c>
@@ -25013,7 +25017,7 @@
         <v>2729.5</v>
       </c>
     </row>
-    <row r="489" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A489" s="13" t="s">
         <v>506</v>
       </c>
@@ -25060,7 +25064,7 @@
         <v>2690.6</v>
       </c>
     </row>
-    <row r="490" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A490" s="13" t="s">
         <v>507</v>
       </c>
@@ -25107,7 +25111,7 @@
         <v>2651.7</v>
       </c>
     </row>
-    <row r="491" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A491" s="13" t="s">
         <v>508</v>
       </c>
@@ -25154,7 +25158,7 @@
         <v>2607.3000000000002</v>
       </c>
     </row>
-    <row r="492" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A492" s="13" t="s">
         <v>509</v>
       </c>
@@ -25201,7 +25205,7 @@
         <v>2579.5</v>
       </c>
     </row>
-    <row r="493" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A493" s="13" t="s">
         <v>510</v>
       </c>
@@ -25248,7 +25252,7 @@
         <v>2573.9</v>
       </c>
     </row>
-    <row r="494" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A494" s="13" t="s">
         <v>511</v>
       </c>
@@ -25295,7 +25299,7 @@
         <v>2579.5</v>
       </c>
     </row>
-    <row r="495" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A495" s="13" t="s">
         <v>512</v>
       </c>
@@ -25342,7 +25346,7 @@
         <v>2573.9</v>
       </c>
     </row>
-    <row r="496" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A496" s="13" t="s">
         <v>513</v>
       </c>
@@ -25389,7 +25393,7 @@
         <v>2557.1999999999998</v>
       </c>
     </row>
-    <row r="497" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A497" s="13" t="s">
         <v>514</v>
       </c>
@@ -25436,7 +25440,7 @@
         <v>2551.6</v>
       </c>
     </row>
-    <row r="498" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A498" s="13" t="s">
         <v>515</v>
       </c>
@@ -25483,7 +25487,7 @@
         <v>2534.9</v>
       </c>
     </row>
-    <row r="499" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A499" s="13" t="s">
         <v>516</v>
       </c>
@@ -25530,7 +25534,7 @@
         <v>2534.9</v>
       </c>
     </row>
-    <row r="500" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A500" s="13" t="s">
         <v>517</v>
       </c>
@@ -25577,7 +25581,7 @@
         <v>2557.1</v>
       </c>
     </row>
-    <row r="501" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A501" s="13" t="s">
         <v>518</v>
       </c>
@@ -25624,7 +25628,7 @@
         <v>2607.1</v>
       </c>
     </row>
-    <row r="502" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A502" s="13" t="s">
         <v>519</v>
       </c>
@@ -25671,7 +25675,7 @@
         <v>2646</v>
       </c>
     </row>
-    <row r="503" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A503" s="13" t="s">
         <v>520</v>
       </c>
@@ -25718,7 +25722,7 @@
         <v>2684.9</v>
       </c>
     </row>
-    <row r="504" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A504" s="13" t="s">
         <v>521</v>
       </c>
@@ -25765,7 +25769,7 @@
         <v>2690.5</v>
       </c>
     </row>
-    <row r="505" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A505" s="13" t="s">
         <v>522</v>
       </c>
@@ -25812,7 +25816,7 @@
         <v>2701.6</v>
       </c>
     </row>
-    <row r="506" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A506" s="13" t="s">
         <v>523</v>
       </c>
@@ -25859,7 +25863,7 @@
         <v>2707.2</v>
       </c>
     </row>
-    <row r="507" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A507" s="13" t="s">
         <v>524</v>
       </c>
@@ -25906,7 +25910,7 @@
         <v>2690.5</v>
       </c>
     </row>
-    <row r="508" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A508" s="13" t="s">
         <v>525</v>
       </c>
@@ -25953,7 +25957,7 @@
         <v>2673.8</v>
       </c>
     </row>
-    <row r="509" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A509" s="13" t="s">
         <v>526</v>
       </c>
@@ -26000,7 +26004,7 @@
         <v>2668.2</v>
       </c>
     </row>
-    <row r="510" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A510" s="13" t="s">
         <v>527</v>
       </c>
@@ -26047,7 +26051,7 @@
         <v>2690.4</v>
       </c>
     </row>
-    <row r="511" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A511" s="13" t="s">
         <v>528</v>
       </c>
@@ -26094,7 +26098,7 @@
         <v>2707.1</v>
       </c>
     </row>
-    <row r="512" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A512" s="13" t="s">
         <v>529</v>
       </c>
@@ -26141,7 +26145,7 @@
         <v>2734.9</v>
       </c>
     </row>
-    <row r="513" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A513" s="13" t="s">
         <v>530</v>
       </c>
@@ -26188,7 +26192,7 @@
         <v>2740.5</v>
       </c>
     </row>
-    <row r="514" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A514" s="13" t="s">
         <v>531</v>
       </c>
@@ -26235,7 +26239,7 @@
         <v>2751.6</v>
       </c>
     </row>
-    <row r="515" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A515" s="13" t="s">
         <v>532</v>
       </c>
@@ -26282,7 +26286,7 @@
         <v>2757.2</v>
       </c>
     </row>
-    <row r="516" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A516" s="13" t="s">
         <v>533</v>
       </c>
@@ -26329,7 +26333,7 @@
         <v>2762.8</v>
       </c>
     </row>
-    <row r="517" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A517" s="13" t="s">
         <v>534</v>
       </c>
@@ -26376,7 +26380,7 @@
         <v>2779.5</v>
       </c>
     </row>
-    <row r="518" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A518" s="13" t="s">
         <v>535</v>
       </c>
@@ -26423,7 +26427,7 @@
         <v>2823.9</v>
       </c>
     </row>
-    <row r="519" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A519" s="13" t="s">
         <v>536</v>
       </c>
@@ -26470,7 +26474,7 @@
         <v>2829.5</v>
       </c>
     </row>
-    <row r="520" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A520" s="13" t="s">
         <v>537</v>
       </c>
@@ -26517,7 +26521,7 @@
         <v>2857.3</v>
       </c>
     </row>
-    <row r="521" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A521" s="13" t="s">
         <v>538</v>
       </c>
@@ -26564,7 +26568,7 @@
         <v>2868.4</v>
       </c>
     </row>
-    <row r="522" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A522" s="13" t="s">
         <v>539</v>
       </c>
@@ -26611,7 +26615,7 @@
         <v>2885.1</v>
       </c>
     </row>
-    <row r="523" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A523" s="13" t="s">
         <v>540</v>
       </c>
@@ -26658,7 +26662,7 @@
         <v>2912.9</v>
       </c>
     </row>
-    <row r="524" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A524" s="13" t="s">
         <v>541</v>
       </c>
@@ -26705,7 +26709,7 @@
         <v>2929.6</v>
       </c>
     </row>
-    <row r="525" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A525" s="13" t="s">
         <v>542</v>
       </c>
@@ -26752,7 +26756,7 @@
         <v>2946.3</v>
       </c>
     </row>
-    <row r="526" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A526" s="13" t="s">
         <v>543</v>
       </c>
@@ -26799,7 +26803,7 @@
         <v>2940.7</v>
       </c>
     </row>
-    <row r="527" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A527" s="13" t="s">
         <v>544</v>
       </c>
@@ -26846,7 +26850,7 @@
         <v>2957.4</v>
       </c>
     </row>
-    <row r="528" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A528" s="13" t="s">
         <v>545</v>
       </c>
@@ -26893,7 +26897,7 @@
         <v>2968.5</v>
       </c>
     </row>
-    <row r="529" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A529" s="13" t="s">
         <v>546</v>
       </c>
@@ -26940,7 +26944,7 @@
         <v>2979.6</v>
       </c>
     </row>
-    <row r="530" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A530" s="13" t="s">
         <v>547</v>
       </c>
@@ -26987,7 +26991,7 @@
         <v>2974</v>
       </c>
     </row>
-    <row r="531" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A531" s="13" t="s">
         <v>548</v>
       </c>
@@ -27034,7 +27038,7 @@
         <v>2996.2</v>
       </c>
     </row>
-    <row r="532" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A532" s="13" t="s">
         <v>549</v>
       </c>
@@ -27081,7 +27085,7 @@
         <v>3024</v>
       </c>
     </row>
-    <row r="533" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A533" s="13" t="s">
         <v>550</v>
       </c>
@@ -27128,7 +27132,7 @@
         <v>3051.8</v>
       </c>
     </row>
-    <row r="534" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A534" s="13" t="s">
         <v>551</v>
       </c>
@@ -27175,7 +27179,7 @@
         <v>3068.5</v>
       </c>
     </row>
-    <row r="535" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A535" s="13" t="s">
         <v>552</v>
       </c>
@@ -27222,7 +27226,7 @@
         <v>3051.8</v>
       </c>
     </row>
-    <row r="536" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A536" s="13" t="s">
         <v>553</v>
       </c>
@@ -27269,7 +27273,7 @@
         <v>3051.8</v>
       </c>
     </row>
-    <row r="537" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A537" s="13" t="s">
         <v>554</v>
       </c>
@@ -27316,7 +27320,7 @@
         <v>3051.8</v>
       </c>
     </row>
-    <row r="538" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A538" s="13" t="s">
         <v>555</v>
       </c>
@@ -27363,7 +27367,7 @@
         <v>3079.6</v>
       </c>
     </row>
-    <row r="539" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A539" s="13" t="s">
         <v>556</v>
       </c>
@@ -27410,7 +27414,7 @@
         <v>3079.6</v>
       </c>
     </row>
-    <row r="540" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A540" s="13" t="s">
         <v>557</v>
       </c>
@@ -27457,7 +27461,7 @@
         <v>3090.7</v>
       </c>
     </row>
-    <row r="541" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A541" s="13" t="s">
         <v>558</v>
       </c>
@@ -27504,7 +27508,7 @@
         <v>3118.5</v>
       </c>
     </row>
-    <row r="542" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A542" s="13" t="s">
         <v>559</v>
       </c>
@@ -27551,7 +27555,7 @@
         <v>3135.2</v>
       </c>
     </row>
-    <row r="543" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A543" s="13" t="s">
         <v>560</v>
       </c>
@@ -27598,7 +27602,7 @@
         <v>3129.6</v>
       </c>
     </row>
-    <row r="544" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A544" s="13" t="s">
         <v>561</v>
       </c>
@@ -27645,7 +27649,7 @@
         <v>3146.3</v>
       </c>
     </row>
-    <row r="545" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A545" s="13" t="s">
         <v>562</v>
       </c>
@@ -27692,7 +27696,7 @@
         <v>3157.4</v>
       </c>
     </row>
-    <row r="546" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A546" s="13" t="s">
         <v>563</v>
       </c>
@@ -27739,7 +27743,7 @@
         <v>3174.1</v>
       </c>
     </row>
-    <row r="547" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A547" s="13" t="s">
         <v>564</v>
       </c>
@@ -27786,7 +27790,7 @@
         <v>3201.9</v>
       </c>
     </row>
-    <row r="548" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A548" s="13" t="s">
         <v>565</v>
       </c>
@@ -27833,7 +27837,7 @@
         <v>3229.7</v>
       </c>
     </row>
-    <row r="549" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A549" s="13" t="s">
         <v>566</v>
       </c>
@@ -27880,7 +27884,7 @@
         <v>3246.4</v>
       </c>
     </row>
-    <row r="550" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A550" s="13" t="s">
         <v>567</v>
       </c>
@@ -27927,7 +27931,7 @@
         <v>3257.5</v>
       </c>
     </row>
-    <row r="551" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A551" s="13" t="s">
         <v>568</v>
       </c>
@@ -27974,7 +27978,7 @@
         <v>3274.2</v>
       </c>
     </row>
-    <row r="552" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A552" s="13" t="s">
         <v>569</v>
       </c>
@@ -28021,7 +28025,7 @@
         <v>3290.9</v>
       </c>
     </row>
-    <row r="553" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A553" s="13" t="s">
         <v>570</v>
       </c>
@@ -28068,7 +28072,7 @@
         <v>3285.3</v>
       </c>
     </row>
-    <row r="554" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A554" s="13" t="s">
         <v>571</v>
       </c>
@@ -28115,7 +28119,7 @@
         <v>3257.5</v>
       </c>
     </row>
-    <row r="555" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A555" s="13" t="s">
         <v>572</v>
       </c>
@@ -28162,7 +28166,7 @@
         <v>3240.8</v>
       </c>
     </row>
-    <row r="556" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A556" s="13" t="s">
         <v>573</v>
       </c>
@@ -28209,13 +28213,60 @@
         <v>3228.3</v>
       </c>
     </row>
-    <row r="565" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D565" s="3"/>
-      <c r="E565" s="3"/>
-      <c r="F565" s="3"/>
-      <c r="G565" s="3"/>
-      <c r="H565" s="3"/>
-      <c r="I565" s="3"/>
+    <row r="557" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A557" s="13" t="s">
+        <v>574</v>
+      </c>
+      <c r="B557" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C557" s="2">
+        <v>11</v>
+      </c>
+      <c r="D557" s="4">
+        <v>110.5</v>
+      </c>
+      <c r="E557" s="4">
+        <v>115.2</v>
+      </c>
+      <c r="F557" s="4">
+        <v>111.5</v>
+      </c>
+      <c r="G557" s="4">
+        <v>110.4</v>
+      </c>
+      <c r="H557" s="4">
+        <v>113.7</v>
+      </c>
+      <c r="I557" s="4">
+        <v>108.9</v>
+      </c>
+      <c r="J557" s="4">
+        <v>88.9</v>
+      </c>
+      <c r="K557" s="4">
+        <v>75</v>
+      </c>
+      <c r="L557" s="4">
+        <v>62.5</v>
+      </c>
+      <c r="M557" s="4">
+        <v>1296</v>
+      </c>
+      <c r="N557" s="4">
+        <v>3236.7</v>
+      </c>
+      <c r="O557" s="4">
+        <v>3240.8</v>
+      </c>
+    </row>
+    <row r="566" spans="4:9" x14ac:dyDescent="0.15">
+      <c r="D566" s="3"/>
+      <c r="E566" s="3"/>
+      <c r="F566" s="3"/>
+      <c r="G566" s="3"/>
+      <c r="H566" s="3"/>
+      <c r="I566" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>

--- a/data/長期系列_CI指数_DI指数_DI景気指標.xlsx
+++ b/data/長期系列_CI指数_DI指数_DI景気指標.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\CI\０１／CI\０１／速報\★R7(2025)★\令和7年11月分\g研究所ホームページ掲載宛送付ファイル\jp\stat\di\di\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\CI\０１／CI\０２／速報からの改訂\★R7(2025)★\令和7年11月改訂\g研究所ホームページ掲載宛送付ファイル\jp\stat\di\di\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E84DD32-7EB5-4ACE-92DB-1408ACE180FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA255B0F-BB83-4183-8DF4-0BBD64613636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="13350"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
   </bookViews>
   <sheets>
     <sheet name="指数 Indexes" sheetId="1" r:id="rId1"/>
@@ -2836,14 +2836,14 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="8.125" customWidth="1"/>
-    <col min="4" max="15" width="10.625" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8.109375" customWidth="1"/>
+    <col min="4" max="15" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="36" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" ht="36" x14ac:dyDescent="0.2">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -2885,7 +2885,7 @@
       </c>
       <c r="P1" s="5"/>
     </row>
-    <row r="2" spans="1:16" s="1" customFormat="1" ht="72" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" s="1" customFormat="1" ht="72" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -2927,7 +2927,7 @@
       </c>
       <c r="P2" s="5"/>
     </row>
-    <row r="3" spans="1:16" ht="24" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:16" ht="24" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>18</v>
       </c>
@@ -2975,7 +2975,7 @@
       </c>
       <c r="P3" s="5"/>
     </row>
-    <row r="4" spans="1:16" s="1" customFormat="1" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" s="1" customFormat="1" ht="32.4" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>20</v>
       </c>
@@ -3023,7 +3023,7 @@
       </c>
       <c r="P4" s="5"/>
     </row>
-    <row r="5" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" s="1" customFormat="1" ht="22.2" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -3053,7 +3053,7 @@
       <c r="O5" s="11"/>
       <c r="P5" s="12"/>
     </row>
-    <row r="6" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -3083,7 +3083,7 @@
       <c r="O6" s="6"/>
       <c r="P6" s="12"/>
     </row>
-    <row r="7" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
         <v>24</v>
       </c>
@@ -3118,7 +3118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
         <v>25</v>
       </c>
@@ -3153,7 +3153,7 @@
         <v>44.4</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
         <v>26</v>
       </c>
@@ -3188,7 +3188,7 @@
         <v>83.3</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
         <v>27</v>
       </c>
@@ -3223,7 +3223,7 @@
         <v>111.1</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
         <v>28</v>
       </c>
@@ -3258,7 +3258,7 @@
         <v>116.7</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
         <v>29</v>
       </c>
@@ -3293,7 +3293,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
         <v>30</v>
       </c>
@@ -3328,7 +3328,7 @@
         <v>177.8</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
         <v>31</v>
       </c>
@@ -3363,7 +3363,7 @@
         <v>194.5</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
         <v>32</v>
       </c>
@@ -3398,7 +3398,7 @@
         <v>211.2</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
         <v>33</v>
       </c>
@@ -3433,7 +3433,7 @@
         <v>227.9</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
         <v>34</v>
       </c>
@@ -3468,7 +3468,7 @@
         <v>255.7</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
         <v>35</v>
       </c>
@@ -3503,7 +3503,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="13" t="s">
         <v>36</v>
       </c>
@@ -3538,7 +3538,7 @@
         <v>244.6</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="13" t="s">
         <v>37</v>
       </c>
@@ -3573,7 +3573,7 @@
         <v>244.6</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="13" t="s">
         <v>38</v>
       </c>
@@ -3608,7 +3608,7 @@
         <v>272.39999999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="13" t="s">
         <v>39</v>
       </c>
@@ -3643,7 +3643,7 @@
         <v>266.8</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="13" t="s">
         <v>40</v>
       </c>
@@ -3678,7 +3678,7 @@
         <v>272.39999999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="13" t="s">
         <v>41</v>
       </c>
@@ -3713,7 +3713,7 @@
         <v>261.3</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="13" t="s">
         <v>42</v>
       </c>
@@ -3748,7 +3748,7 @@
         <v>250.2</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="13" t="s">
         <v>43</v>
       </c>
@@ -3783,7 +3783,7 @@
         <v>233.5</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="13" t="s">
         <v>44</v>
       </c>
@@ -3818,7 +3818,7 @@
         <v>239.1</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="13" t="s">
         <v>45</v>
       </c>
@@ -3853,7 +3853,7 @@
         <v>244.7</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="13" t="s">
         <v>46</v>
       </c>
@@ -3888,7 +3888,7 @@
         <v>239.1</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="13" t="s">
         <v>47</v>
       </c>
@@ -3923,7 +3923,7 @@
         <v>222.4</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="13" t="s">
         <v>48</v>
       </c>
@@ -3958,7 +3958,7 @@
         <v>239.1</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="13" t="s">
         <v>49</v>
       </c>
@@ -3993,7 +3993,7 @@
         <v>244.7</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="13" t="s">
         <v>50</v>
       </c>
@@ -4028,7 +4028,7 @@
         <v>250.3</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="13" t="s">
         <v>51</v>
       </c>
@@ -4063,7 +4063,7 @@
         <v>244.7</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="13" t="s">
         <v>52</v>
       </c>
@@ -4098,7 +4098,7 @@
         <v>250.3</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="13" t="s">
         <v>53</v>
       </c>
@@ -4133,7 +4133,7 @@
         <v>278.10000000000002</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="13" t="s">
         <v>54</v>
       </c>
@@ -4168,7 +4168,7 @@
         <v>278.10000000000002</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="13" t="s">
         <v>55</v>
       </c>
@@ -4203,7 +4203,7 @@
         <v>272.5</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="13" t="s">
         <v>56</v>
       </c>
@@ -4238,7 +4238,7 @@
         <v>255.8</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="13" t="s">
         <v>57</v>
       </c>
@@ -4273,7 +4273,7 @@
         <v>239.1</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="13" t="s">
         <v>58</v>
       </c>
@@ -4308,7 +4308,7 @@
         <v>222.4</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="13" t="s">
         <v>59</v>
       </c>
@@ -4343,7 +4343,7 @@
         <v>194.6</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="13" t="s">
         <v>60</v>
       </c>
@@ -4378,7 +4378,7 @@
         <v>166.8</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" s="13" t="s">
         <v>61</v>
       </c>
@@ -4413,7 +4413,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="13" t="s">
         <v>62</v>
       </c>
@@ -4448,7 +4448,7 @@
         <v>122.3</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="13" t="s">
         <v>63</v>
       </c>
@@ -4483,7 +4483,7 @@
         <v>116.7</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="13" t="s">
         <v>64</v>
       </c>
@@ -4518,7 +4518,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="13" t="s">
         <v>65</v>
       </c>
@@ -4553,7 +4553,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" s="13" t="s">
         <v>66</v>
       </c>
@@ -4588,7 +4588,7 @@
         <v>105.6</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" s="13" t="s">
         <v>67</v>
       </c>
@@ -4623,7 +4623,7 @@
         <v>122.3</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" s="13" t="s">
         <v>68</v>
       </c>
@@ -4658,7 +4658,7 @@
         <v>127.9</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" s="13" t="s">
         <v>69</v>
       </c>
@@ -4693,7 +4693,7 @@
         <v>122.3</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" s="13" t="s">
         <v>70</v>
       </c>
@@ -4728,7 +4728,7 @@
         <v>127.9</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" s="13" t="s">
         <v>71</v>
       </c>
@@ -4763,7 +4763,7 @@
         <v>127.9</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" s="13" t="s">
         <v>72</v>
       </c>
@@ -4798,7 +4798,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" s="13" t="s">
         <v>73</v>
       </c>
@@ -4833,7 +4833,7 @@
         <v>177.9</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57" s="13" t="s">
         <v>74</v>
       </c>
@@ -4868,7 +4868,7 @@
         <v>216.8</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58" s="13" t="s">
         <v>75</v>
       </c>
@@ -4903,7 +4903,7 @@
         <v>255.7</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59" s="13" t="s">
         <v>76</v>
       </c>
@@ -4938,7 +4938,7 @@
         <v>272.39999999999998</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60" s="13" t="s">
         <v>77</v>
       </c>
@@ -4973,7 +4973,7 @@
         <v>283.5</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61" s="13" t="s">
         <v>78</v>
       </c>
@@ -5008,7 +5008,7 @@
         <v>311.3</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62" s="13" t="s">
         <v>79</v>
       </c>
@@ -5043,7 +5043,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63" s="13" t="s">
         <v>80</v>
       </c>
@@ -5078,7 +5078,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64" s="13" t="s">
         <v>81</v>
       </c>
@@ -5113,7 +5113,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65" s="13" t="s">
         <v>82</v>
       </c>
@@ -5148,7 +5148,7 @@
         <v>455.8</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66" s="13" t="s">
         <v>83</v>
       </c>
@@ -5183,7 +5183,7 @@
         <v>494.7</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A67" s="13" t="s">
         <v>84</v>
       </c>
@@ -5230,7 +5230,7 @@
         <v>539.1</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A68" s="13" t="s">
         <v>85</v>
       </c>
@@ -5277,7 +5277,7 @@
         <v>566.9</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A69" s="13" t="s">
         <v>86</v>
       </c>
@@ -5324,7 +5324,7 @@
         <v>594.70000000000005</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A70" s="13" t="s">
         <v>87</v>
       </c>
@@ -5371,7 +5371,7 @@
         <v>611.4</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A71" s="13" t="s">
         <v>88</v>
       </c>
@@ -5418,7 +5418,7 @@
         <v>644.70000000000005</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A72" s="13" t="s">
         <v>89</v>
       </c>
@@ -5465,7 +5465,7 @@
         <v>655.8</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A73" s="13" t="s">
         <v>90</v>
       </c>
@@ -5512,7 +5512,7 @@
         <v>666.9</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A74" s="13" t="s">
         <v>91</v>
       </c>
@@ -5559,7 +5559,7 @@
         <v>694.7</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75" s="13" t="s">
         <v>92</v>
       </c>
@@ -5606,7 +5606,7 @@
         <v>700.3</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A76" s="13" t="s">
         <v>93</v>
       </c>
@@ -5653,7 +5653,7 @@
         <v>683.6</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A77" s="13" t="s">
         <v>94</v>
       </c>
@@ -5700,7 +5700,7 @@
         <v>666.9</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A78" s="13" t="s">
         <v>95</v>
       </c>
@@ -5747,7 +5747,7 @@
         <v>672.5</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79" s="13" t="s">
         <v>96</v>
       </c>
@@ -5794,7 +5794,7 @@
         <v>689.2</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A80" s="13" t="s">
         <v>97</v>
       </c>
@@ -5841,7 +5841,7 @@
         <v>705.9</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A81" s="13" t="s">
         <v>98</v>
       </c>
@@ -5888,7 +5888,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A82" s="13" t="s">
         <v>99</v>
       </c>
@@ -5935,7 +5935,7 @@
         <v>711.4</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A83" s="13" t="s">
         <v>100</v>
       </c>
@@ -5982,7 +5982,7 @@
         <v>700.3</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A84" s="13" t="s">
         <v>101</v>
       </c>
@@ -6029,7 +6029,7 @@
         <v>683.6</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A85" s="13" t="s">
         <v>102</v>
       </c>
@@ -6076,7 +6076,7 @@
         <v>683.6</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A86" s="13" t="s">
         <v>103</v>
       </c>
@@ -6123,7 +6123,7 @@
         <v>672.5</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A87" s="13" t="s">
         <v>104</v>
       </c>
@@ -6170,7 +6170,7 @@
         <v>672.5</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A88" s="13" t="s">
         <v>105</v>
       </c>
@@ -6217,7 +6217,7 @@
         <v>689.2</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A89" s="13" t="s">
         <v>106</v>
       </c>
@@ -6264,7 +6264,7 @@
         <v>705.9</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A90" s="13" t="s">
         <v>107</v>
       </c>
@@ -6311,7 +6311,7 @@
         <v>689.2</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A91" s="13" t="s">
         <v>108</v>
       </c>
@@ -6358,7 +6358,7 @@
         <v>694.8</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A92" s="13" t="s">
         <v>109</v>
       </c>
@@ -6405,7 +6405,7 @@
         <v>705.9</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A93" s="13" t="s">
         <v>110</v>
       </c>
@@ -6452,7 +6452,7 @@
         <v>722.6</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A94" s="13" t="s">
         <v>111</v>
       </c>
@@ -6499,7 +6499,7 @@
         <v>750.4</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A95" s="13" t="s">
         <v>112</v>
       </c>
@@ -6546,7 +6546,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A96" s="13" t="s">
         <v>113</v>
       </c>
@@ -6593,7 +6593,7 @@
         <v>767.1</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A97" s="13" t="s">
         <v>114</v>
       </c>
@@ -6640,7 +6640,7 @@
         <v>772.7</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A98" s="13" t="s">
         <v>115</v>
       </c>
@@ -6687,7 +6687,7 @@
         <v>783.8</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A99" s="13" t="s">
         <v>116</v>
       </c>
@@ -6734,7 +6734,7 @@
         <v>811.6</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A100" s="13" t="s">
         <v>117</v>
       </c>
@@ -6781,7 +6781,7 @@
         <v>833.8</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A101" s="13" t="s">
         <v>118</v>
       </c>
@@ -6828,7 +6828,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A102" s="13" t="s">
         <v>119</v>
       </c>
@@ -6875,7 +6875,7 @@
         <v>900.4</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A103" s="13" t="s">
         <v>120</v>
       </c>
@@ -6922,7 +6922,7 @@
         <v>928.2</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A104" s="13" t="s">
         <v>121</v>
       </c>
@@ -6969,7 +6969,7 @@
         <v>944.9</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A105" s="13" t="s">
         <v>122</v>
       </c>
@@ -7016,7 +7016,7 @@
         <v>972.7</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A106" s="13" t="s">
         <v>123</v>
       </c>
@@ -7063,7 +7063,7 @@
         <v>1011.6</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A107" s="13" t="s">
         <v>124</v>
       </c>
@@ -7110,7 +7110,7 @@
         <v>1039.4000000000001</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A108" s="13" t="s">
         <v>125</v>
       </c>
@@ -7157,7 +7157,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A109" s="13" t="s">
         <v>126</v>
       </c>
@@ -7204,7 +7204,7 @@
         <v>1067.2</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A110" s="13" t="s">
         <v>127</v>
       </c>
@@ -7251,7 +7251,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A111" s="13" t="s">
         <v>128</v>
       </c>
@@ -7298,7 +7298,7 @@
         <v>1133.9000000000001</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A112" s="13" t="s">
         <v>129</v>
       </c>
@@ -7345,7 +7345,7 @@
         <v>1183.9000000000001</v>
       </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A113" s="13" t="s">
         <v>130</v>
       </c>
@@ -7392,7 +7392,7 @@
         <v>1233.9000000000001</v>
       </c>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A114" s="13" t="s">
         <v>131</v>
       </c>
@@ -7439,7 +7439,7 @@
         <v>1261.7</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A115" s="13" t="s">
         <v>132</v>
       </c>
@@ -7486,7 +7486,7 @@
         <v>1289.5</v>
       </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A116" s="13" t="s">
         <v>133</v>
       </c>
@@ -7533,7 +7533,7 @@
         <v>1317.3</v>
       </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A117" s="13" t="s">
         <v>134</v>
       </c>
@@ -7580,7 +7580,7 @@
         <v>1361.7</v>
       </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A118" s="13" t="s">
         <v>135</v>
       </c>
@@ -7627,7 +7627,7 @@
         <v>1367.3</v>
       </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A119" s="13" t="s">
         <v>136</v>
       </c>
@@ -7674,7 +7674,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A120" s="13" t="s">
         <v>137</v>
       </c>
@@ -7721,7 +7721,7 @@
         <v>1400.7</v>
       </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A121" s="13" t="s">
         <v>138</v>
       </c>
@@ -7768,7 +7768,7 @@
         <v>1445.1</v>
       </c>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A122" s="13" t="s">
         <v>139</v>
       </c>
@@ -7815,7 +7815,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A123" s="13" t="s">
         <v>140</v>
       </c>
@@ -7862,7 +7862,7 @@
         <v>1495.1</v>
       </c>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A124" s="13" t="s">
         <v>141</v>
       </c>
@@ -7909,7 +7909,7 @@
         <v>1511.8</v>
       </c>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A125" s="13" t="s">
         <v>142</v>
       </c>
@@ -7956,7 +7956,7 @@
         <v>1539.6</v>
       </c>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A126" s="13" t="s">
         <v>143</v>
       </c>
@@ -8003,7 +8003,7 @@
         <v>1572.9</v>
       </c>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A127" s="13" t="s">
         <v>144</v>
       </c>
@@ -8050,7 +8050,7 @@
         <v>1622.9</v>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A128" s="13" t="s">
         <v>145</v>
       </c>
@@ -8097,7 +8097,7 @@
         <v>1661.8</v>
       </c>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A129" s="13" t="s">
         <v>146</v>
       </c>
@@ -8144,7 +8144,7 @@
         <v>1695.1</v>
       </c>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A130" s="13" t="s">
         <v>147</v>
       </c>
@@ -8191,7 +8191,7 @@
         <v>1717.3</v>
       </c>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A131" s="13" t="s">
         <v>148</v>
       </c>
@@ -8238,7 +8238,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A132" s="13" t="s">
         <v>149</v>
       </c>
@@ -8285,7 +8285,7 @@
         <v>1750.7</v>
       </c>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A133" s="13" t="s">
         <v>150</v>
       </c>
@@ -8332,7 +8332,7 @@
         <v>1745.1</v>
       </c>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A134" s="13" t="s">
         <v>151</v>
       </c>
@@ -8379,7 +8379,7 @@
         <v>1761.8</v>
       </c>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A135" s="13" t="s">
         <v>152</v>
       </c>
@@ -8426,7 +8426,7 @@
         <v>1778.5</v>
       </c>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A136" s="13" t="s">
         <v>153</v>
       </c>
@@ -8473,7 +8473,7 @@
         <v>1789.6</v>
       </c>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A137" s="13" t="s">
         <v>154</v>
       </c>
@@ -8520,7 +8520,7 @@
         <v>1789.6</v>
       </c>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A138" s="13" t="s">
         <v>155</v>
       </c>
@@ -8567,7 +8567,7 @@
         <v>1817.4</v>
       </c>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A139" s="13" t="s">
         <v>156</v>
       </c>
@@ -8614,7 +8614,7 @@
         <v>1845.2</v>
       </c>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A140" s="13" t="s">
         <v>157</v>
       </c>
@@ -8661,7 +8661,7 @@
         <v>1856.3</v>
       </c>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A141" s="13" t="s">
         <v>158</v>
       </c>
@@ -8708,7 +8708,7 @@
         <v>1850.7</v>
       </c>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A142" s="13" t="s">
         <v>159</v>
       </c>
@@ -8755,7 +8755,7 @@
         <v>1856.3</v>
       </c>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A143" s="13" t="s">
         <v>160</v>
       </c>
@@ -8802,7 +8802,7 @@
         <v>1867.4</v>
       </c>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A144" s="13" t="s">
         <v>161</v>
       </c>
@@ -8849,7 +8849,7 @@
         <v>1900.7</v>
       </c>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A145" s="13" t="s">
         <v>162</v>
       </c>
@@ -8896,7 +8896,7 @@
         <v>1911.8</v>
       </c>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A146" s="13" t="s">
         <v>163</v>
       </c>
@@ -8943,7 +8943,7 @@
         <v>1906.2</v>
       </c>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A147" s="13" t="s">
         <v>164</v>
       </c>
@@ -8990,7 +8990,7 @@
         <v>1889.5</v>
       </c>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A148" s="13" t="s">
         <v>165</v>
       </c>
@@ -9037,7 +9037,7 @@
         <v>1906.2</v>
       </c>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A149" s="13" t="s">
         <v>166</v>
       </c>
@@ -9084,7 +9084,7 @@
         <v>1934</v>
       </c>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A150" s="13" t="s">
         <v>167</v>
       </c>
@@ -9131,7 +9131,7 @@
         <v>1939.6</v>
       </c>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A151" s="13" t="s">
         <v>168</v>
       </c>
@@ -9178,7 +9178,7 @@
         <v>1922.9</v>
       </c>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A152" s="13" t="s">
         <v>169</v>
       </c>
@@ -9225,7 +9225,7 @@
         <v>1922.9</v>
       </c>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A153" s="13" t="s">
         <v>170</v>
       </c>
@@ -9272,7 +9272,7 @@
         <v>1906.2</v>
       </c>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A154" s="13" t="s">
         <v>171</v>
       </c>
@@ -9319,7 +9319,7 @@
         <v>1889.5</v>
       </c>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A155" s="13" t="s">
         <v>172</v>
       </c>
@@ -9366,7 +9366,7 @@
         <v>1861.7</v>
       </c>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A156" s="13" t="s">
         <v>173</v>
       </c>
@@ -9413,7 +9413,7 @@
         <v>1845</v>
       </c>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A157" s="13" t="s">
         <v>174</v>
       </c>
@@ -9460,7 +9460,7 @@
         <v>1817.2</v>
       </c>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A158" s="13" t="s">
         <v>175</v>
       </c>
@@ -9507,7 +9507,7 @@
         <v>1789.4</v>
       </c>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A159" s="13" t="s">
         <v>176</v>
       </c>
@@ -9554,7 +9554,7 @@
         <v>1761.6</v>
       </c>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A160" s="13" t="s">
         <v>177</v>
       </c>
@@ -9601,7 +9601,7 @@
         <v>1722.7</v>
       </c>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A161" s="13" t="s">
         <v>178</v>
       </c>
@@ -9648,7 +9648,7 @@
         <v>1683.8</v>
       </c>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A162" s="13" t="s">
         <v>179</v>
       </c>
@@ -9695,7 +9695,7 @@
         <v>1644.9</v>
       </c>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A163" s="13" t="s">
         <v>180</v>
       </c>
@@ -9742,7 +9742,7 @@
         <v>1639.3</v>
       </c>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A164" s="13" t="s">
         <v>181</v>
       </c>
@@ -9789,7 +9789,7 @@
         <v>1622.6</v>
       </c>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A165" s="13" t="s">
         <v>182</v>
       </c>
@@ -9836,7 +9836,7 @@
         <v>1600.4</v>
       </c>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A166" s="13" t="s">
         <v>183</v>
       </c>
@@ -9883,7 +9883,7 @@
         <v>1572.6</v>
       </c>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A167" s="13" t="s">
         <v>184</v>
       </c>
@@ -9930,7 +9930,7 @@
         <v>1544.8</v>
       </c>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A168" s="13" t="s">
         <v>185</v>
       </c>
@@ -9977,7 +9977,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A169" s="13" t="s">
         <v>186</v>
       </c>
@@ -10024,7 +10024,7 @@
         <v>1483.7</v>
       </c>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A170" s="13" t="s">
         <v>187</v>
       </c>
@@ -10071,7 +10071,7 @@
         <v>1489.3</v>
       </c>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A171" s="13" t="s">
         <v>188</v>
       </c>
@@ -10118,7 +10118,7 @@
         <v>1483.7</v>
       </c>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A172" s="13" t="s">
         <v>189</v>
       </c>
@@ -10165,7 +10165,7 @@
         <v>1478.1</v>
       </c>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A173" s="13" t="s">
         <v>190</v>
       </c>
@@ -10212,7 +10212,7 @@
         <v>1461.4</v>
       </c>
     </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A174" s="13" t="s">
         <v>191</v>
       </c>
@@ -10259,7 +10259,7 @@
         <v>1450.3</v>
       </c>
     </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A175" s="13" t="s">
         <v>192</v>
       </c>
@@ -10306,7 +10306,7 @@
         <v>1455.9</v>
       </c>
     </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A176" s="13" t="s">
         <v>193</v>
       </c>
@@ -10353,7 +10353,7 @@
         <v>1433.7</v>
       </c>
     </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A177" s="13" t="s">
         <v>194</v>
       </c>
@@ -10400,7 +10400,7 @@
         <v>1422.6</v>
       </c>
     </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A178" s="13" t="s">
         <v>195</v>
       </c>
@@ -10447,7 +10447,7 @@
         <v>1400.4</v>
       </c>
     </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A179" s="13" t="s">
         <v>196</v>
       </c>
@@ -10494,7 +10494,7 @@
         <v>1394.8</v>
       </c>
     </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A180" s="13" t="s">
         <v>197</v>
       </c>
@@ -10541,7 +10541,7 @@
         <v>1378.1</v>
       </c>
     </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A181" s="13" t="s">
         <v>198</v>
       </c>
@@ -10588,7 +10588,7 @@
         <v>1378.1</v>
       </c>
     </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A182" s="13" t="s">
         <v>199</v>
       </c>
@@ -10635,7 +10635,7 @@
         <v>1394.8</v>
       </c>
     </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A183" s="13" t="s">
         <v>200</v>
       </c>
@@ -10682,7 +10682,7 @@
         <v>1405.9</v>
       </c>
     </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A184" s="13" t="s">
         <v>201</v>
       </c>
@@ -10729,7 +10729,7 @@
         <v>1417</v>
       </c>
     </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A185" s="13" t="s">
         <v>202</v>
       </c>
@@ -10776,7 +10776,7 @@
         <v>1428.1</v>
       </c>
     </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A186" s="13" t="s">
         <v>203</v>
       </c>
@@ -10823,7 +10823,7 @@
         <v>1433.7</v>
       </c>
     </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A187" s="13" t="s">
         <v>204</v>
       </c>
@@ -10870,7 +10870,7 @@
         <v>1444.8</v>
       </c>
     </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A188" s="13" t="s">
         <v>205</v>
       </c>
@@ -10917,7 +10917,7 @@
         <v>1455.9</v>
       </c>
     </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A189" s="13" t="s">
         <v>206</v>
       </c>
@@ -10964,7 +10964,7 @@
         <v>1461.5</v>
       </c>
     </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A190" s="13" t="s">
         <v>207</v>
       </c>
@@ -11011,7 +11011,7 @@
         <v>1467.1</v>
       </c>
     </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A191" s="13" t="s">
         <v>208</v>
       </c>
@@ -11058,7 +11058,7 @@
         <v>1472.7</v>
       </c>
     </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A192" s="13" t="s">
         <v>209</v>
       </c>
@@ -11105,7 +11105,7 @@
         <v>1467.1</v>
       </c>
     </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A193" s="13" t="s">
         <v>210</v>
       </c>
@@ -11152,7 +11152,7 @@
         <v>1467.1</v>
       </c>
     </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A194" s="13" t="s">
         <v>211</v>
       </c>
@@ -11199,7 +11199,7 @@
         <v>1461.5</v>
       </c>
     </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A195" s="13" t="s">
         <v>212</v>
       </c>
@@ -11246,7 +11246,7 @@
         <v>1483.7</v>
       </c>
     </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A196" s="13" t="s">
         <v>213</v>
       </c>
@@ -11293,7 +11293,7 @@
         <v>1494.8</v>
       </c>
     </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A197" s="13" t="s">
         <v>214</v>
       </c>
@@ -11340,7 +11340,7 @@
         <v>1511.5</v>
       </c>
     </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A198" s="13" t="s">
         <v>215</v>
       </c>
@@ -11387,7 +11387,7 @@
         <v>1522.6</v>
       </c>
     </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A199" s="13" t="s">
         <v>216</v>
       </c>
@@ -11434,7 +11434,7 @@
         <v>1550.4</v>
       </c>
     </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A200" s="13" t="s">
         <v>217</v>
       </c>
@@ -11481,7 +11481,7 @@
         <v>1589.3</v>
       </c>
     </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A201" s="13" t="s">
         <v>218</v>
       </c>
@@ -11528,7 +11528,7 @@
         <v>1617.1</v>
       </c>
     </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A202" s="13" t="s">
         <v>219</v>
       </c>
@@ -11575,7 +11575,7 @@
         <v>1644.9</v>
       </c>
     </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A203" s="13" t="s">
         <v>220</v>
       </c>
@@ -11622,7 +11622,7 @@
         <v>1656</v>
       </c>
     </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A204" s="13" t="s">
         <v>221</v>
       </c>
@@ -11669,7 +11669,7 @@
         <v>1661.6</v>
       </c>
     </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A205" s="13" t="s">
         <v>222</v>
       </c>
@@ -11716,7 +11716,7 @@
         <v>1672.7</v>
       </c>
     </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A206" s="13" t="s">
         <v>223</v>
       </c>
@@ -11763,7 +11763,7 @@
         <v>1700.5</v>
       </c>
     </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A207" s="13" t="s">
         <v>224</v>
       </c>
@@ -11810,7 +11810,7 @@
         <v>1711.6</v>
       </c>
     </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A208" s="13" t="s">
         <v>225</v>
       </c>
@@ -11857,7 +11857,7 @@
         <v>1733.8</v>
       </c>
     </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A209" s="13" t="s">
         <v>226</v>
       </c>
@@ -11904,7 +11904,7 @@
         <v>1772.7</v>
       </c>
     </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A210" s="13" t="s">
         <v>227</v>
       </c>
@@ -11951,7 +11951,7 @@
         <v>1800.5</v>
       </c>
     </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A211" s="13" t="s">
         <v>228</v>
       </c>
@@ -11998,7 +11998,7 @@
         <v>1828.3</v>
       </c>
     </row>
-    <row r="212" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A212" s="13" t="s">
         <v>229</v>
       </c>
@@ -12045,7 +12045,7 @@
         <v>1828.3</v>
       </c>
     </row>
-    <row r="213" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A213" s="13" t="s">
         <v>230</v>
       </c>
@@ -12092,7 +12092,7 @@
         <v>1867.2</v>
       </c>
     </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A214" s="13" t="s">
         <v>231</v>
       </c>
@@ -12139,7 +12139,7 @@
         <v>1883.9</v>
       </c>
     </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A215" s="13" t="s">
         <v>232</v>
       </c>
@@ -12186,7 +12186,7 @@
         <v>1889.5</v>
       </c>
     </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A216" s="13" t="s">
         <v>233</v>
       </c>
@@ -12233,7 +12233,7 @@
         <v>1906.2</v>
       </c>
     </row>
-    <row r="217" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A217" s="13" t="s">
         <v>234</v>
       </c>
@@ -12280,7 +12280,7 @@
         <v>1934</v>
       </c>
     </row>
-    <row r="218" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A218" s="13" t="s">
         <v>235</v>
       </c>
@@ -12327,7 +12327,7 @@
         <v>1950.7</v>
       </c>
     </row>
-    <row r="219" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A219" s="13" t="s">
         <v>236</v>
       </c>
@@ -12374,7 +12374,7 @@
         <v>1967.4</v>
       </c>
     </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A220" s="13" t="s">
         <v>237</v>
       </c>
@@ -12421,7 +12421,7 @@
         <v>1961.8</v>
       </c>
     </row>
-    <row r="221" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A221" s="13" t="s">
         <v>238</v>
       </c>
@@ -12468,7 +12468,7 @@
         <v>1967.4</v>
       </c>
     </row>
-    <row r="222" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A222" s="13" t="s">
         <v>239</v>
       </c>
@@ -12515,7 +12515,7 @@
         <v>1961.8</v>
       </c>
     </row>
-    <row r="223" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A223" s="13" t="s">
         <v>240</v>
       </c>
@@ -12562,7 +12562,7 @@
         <v>1934</v>
       </c>
     </row>
-    <row r="224" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A224" s="13" t="s">
         <v>241</v>
       </c>
@@ -12609,7 +12609,7 @@
         <v>1906.2</v>
       </c>
     </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A225" s="13" t="s">
         <v>242</v>
       </c>
@@ -12656,7 +12656,7 @@
         <v>1856.2</v>
       </c>
     </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A226" s="13" t="s">
         <v>243</v>
       </c>
@@ -12703,7 +12703,7 @@
         <v>1828.4</v>
       </c>
     </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A227" s="13" t="s">
         <v>244</v>
       </c>
@@ -12750,7 +12750,7 @@
         <v>1800.6</v>
       </c>
     </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A228" s="13" t="s">
         <v>245</v>
       </c>
@@ -12797,7 +12797,7 @@
         <v>1783.9</v>
       </c>
     </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A229" s="13" t="s">
         <v>246</v>
       </c>
@@ -12844,7 +12844,7 @@
         <v>1761.7</v>
       </c>
     </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A230" s="13" t="s">
         <v>247</v>
       </c>
@@ -12891,7 +12891,7 @@
         <v>1728.4</v>
       </c>
     </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A231" s="13" t="s">
         <v>248</v>
       </c>
@@ -12938,7 +12938,7 @@
         <v>1700.6</v>
       </c>
     </row>
-    <row r="232" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A232" s="13" t="s">
         <v>249</v>
       </c>
@@ -12985,7 +12985,7 @@
         <v>1683.9</v>
       </c>
     </row>
-    <row r="233" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A233" s="13" t="s">
         <v>250</v>
       </c>
@@ -13032,7 +13032,7 @@
         <v>1656.1</v>
       </c>
     </row>
-    <row r="234" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A234" s="13" t="s">
         <v>251</v>
       </c>
@@ -13079,7 +13079,7 @@
         <v>1639.4</v>
       </c>
     </row>
-    <row r="235" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A235" s="13" t="s">
         <v>252</v>
       </c>
@@ -13126,7 +13126,7 @@
         <v>1645</v>
       </c>
     </row>
-    <row r="236" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A236" s="13" t="s">
         <v>253</v>
       </c>
@@ -13173,7 +13173,7 @@
         <v>1628.3</v>
       </c>
     </row>
-    <row r="237" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A237" s="13" t="s">
         <v>254</v>
       </c>
@@ -13220,7 +13220,7 @@
         <v>1611.6</v>
       </c>
     </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A238" s="13" t="s">
         <v>255</v>
       </c>
@@ -13267,7 +13267,7 @@
         <v>1578.3</v>
       </c>
     </row>
-    <row r="239" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A239" s="13" t="s">
         <v>256</v>
       </c>
@@ -13314,7 +13314,7 @@
         <v>1561.6</v>
       </c>
     </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A240" s="13" t="s">
         <v>257</v>
       </c>
@@ -13361,7 +13361,7 @@
         <v>1550.5</v>
       </c>
     </row>
-    <row r="241" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A241" s="13" t="s">
         <v>258</v>
       </c>
@@ -13408,7 +13408,7 @@
         <v>1550.5</v>
       </c>
     </row>
-    <row r="242" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A242" s="13" t="s">
         <v>259</v>
       </c>
@@ -13455,7 +13455,7 @@
         <v>1550.5</v>
       </c>
     </row>
-    <row r="243" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A243" s="13" t="s">
         <v>260</v>
       </c>
@@ -13502,7 +13502,7 @@
         <v>1561.6</v>
       </c>
     </row>
-    <row r="244" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A244" s="13" t="s">
         <v>261</v>
       </c>
@@ -13549,7 +13549,7 @@
         <v>1556</v>
       </c>
     </row>
-    <row r="245" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A245" s="13" t="s">
         <v>262</v>
       </c>
@@ -13596,7 +13596,7 @@
         <v>1550.4</v>
       </c>
     </row>
-    <row r="246" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A246" s="13" t="s">
         <v>263</v>
       </c>
@@ -13643,7 +13643,7 @@
         <v>1544.8</v>
       </c>
     </row>
-    <row r="247" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A247" s="13" t="s">
         <v>264</v>
       </c>
@@ -13690,7 +13690,7 @@
         <v>1539.2</v>
       </c>
     </row>
-    <row r="248" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A248" s="13" t="s">
         <v>265</v>
       </c>
@@ -13737,7 +13737,7 @@
         <v>1550.3</v>
       </c>
     </row>
-    <row r="249" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A249" s="13" t="s">
         <v>266</v>
       </c>
@@ -13784,7 +13784,7 @@
         <v>1578.1</v>
       </c>
     </row>
-    <row r="250" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A250" s="13" t="s">
         <v>267</v>
       </c>
@@ -13831,7 +13831,7 @@
         <v>1594.8</v>
       </c>
     </row>
-    <row r="251" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A251" s="13" t="s">
         <v>268</v>
       </c>
@@ -13878,7 +13878,7 @@
         <v>1600.4</v>
       </c>
     </row>
-    <row r="252" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A252" s="13" t="s">
         <v>269</v>
       </c>
@@ -13925,7 +13925,7 @@
         <v>1578.2</v>
       </c>
     </row>
-    <row r="253" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A253" s="13" t="s">
         <v>270</v>
       </c>
@@ -13972,7 +13972,7 @@
         <v>1578.2</v>
       </c>
     </row>
-    <row r="254" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A254" s="13" t="s">
         <v>271</v>
       </c>
@@ -14019,7 +14019,7 @@
         <v>1556</v>
       </c>
     </row>
-    <row r="255" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A255" s="13" t="s">
         <v>272</v>
       </c>
@@ -14066,7 +14066,7 @@
         <v>1539.3</v>
       </c>
     </row>
-    <row r="256" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A256" s="13" t="s">
         <v>273</v>
       </c>
@@ -14113,7 +14113,7 @@
         <v>1550.4</v>
       </c>
     </row>
-    <row r="257" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A257" s="13" t="s">
         <v>274</v>
       </c>
@@ -14160,7 +14160,7 @@
         <v>1556</v>
       </c>
     </row>
-    <row r="258" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A258" s="13" t="s">
         <v>275</v>
       </c>
@@ -14207,7 +14207,7 @@
         <v>1572.7</v>
       </c>
     </row>
-    <row r="259" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="259" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A259" s="13" t="s">
         <v>276</v>
       </c>
@@ -14254,7 +14254,7 @@
         <v>1544.9</v>
       </c>
     </row>
-    <row r="260" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A260" s="13" t="s">
         <v>277</v>
       </c>
@@ -14301,7 +14301,7 @@
         <v>1550.5</v>
       </c>
     </row>
-    <row r="261" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A261" s="13" t="s">
         <v>278</v>
       </c>
@@ -14348,7 +14348,7 @@
         <v>1539.4</v>
       </c>
     </row>
-    <row r="262" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="262" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A262" s="13" t="s">
         <v>279</v>
       </c>
@@ -14395,7 +14395,7 @@
         <v>1517.2</v>
       </c>
     </row>
-    <row r="263" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="263" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A263" s="13" t="s">
         <v>280</v>
       </c>
@@ -14442,7 +14442,7 @@
         <v>1506.1</v>
       </c>
     </row>
-    <row r="264" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="264" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A264" s="13" t="s">
         <v>281</v>
       </c>
@@ -14489,7 +14489,7 @@
         <v>1489.4</v>
       </c>
     </row>
-    <row r="265" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A265" s="13" t="s">
         <v>282</v>
       </c>
@@ -14536,7 +14536,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="266" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="266" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A266" s="13" t="s">
         <v>283</v>
       </c>
@@ -14583,7 +14583,7 @@
         <v>1483.9</v>
       </c>
     </row>
-    <row r="267" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="267" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A267" s="13" t="s">
         <v>284</v>
       </c>
@@ -14630,7 +14630,7 @@
         <v>1483.9</v>
       </c>
     </row>
-    <row r="268" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="268" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A268" s="13" t="s">
         <v>285</v>
       </c>
@@ -14677,7 +14677,7 @@
         <v>1478.3</v>
       </c>
     </row>
-    <row r="269" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="269" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A269" s="13" t="s">
         <v>286</v>
       </c>
@@ -14724,7 +14724,7 @@
         <v>1467.2</v>
       </c>
     </row>
-    <row r="270" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="270" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A270" s="13" t="s">
         <v>287</v>
       </c>
@@ -14771,7 +14771,7 @@
         <v>1433.9</v>
       </c>
     </row>
-    <row r="271" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A271" s="13" t="s">
         <v>288</v>
       </c>
@@ -14818,7 +14818,7 @@
         <v>1417.2</v>
       </c>
     </row>
-    <row r="272" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="272" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A272" s="13" t="s">
         <v>289</v>
       </c>
@@ -14865,7 +14865,7 @@
         <v>1395</v>
       </c>
     </row>
-    <row r="273" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="273" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A273" s="13" t="s">
         <v>290</v>
       </c>
@@ -14912,7 +14912,7 @@
         <v>1400.6</v>
       </c>
     </row>
-    <row r="274" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="274" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A274" s="13" t="s">
         <v>291</v>
       </c>
@@ -14959,7 +14959,7 @@
         <v>1378.4</v>
       </c>
     </row>
-    <row r="275" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="275" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A275" s="13" t="s">
         <v>292</v>
       </c>
@@ -15006,7 +15006,7 @@
         <v>1367.3</v>
       </c>
     </row>
-    <row r="276" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A276" s="13" t="s">
         <v>293</v>
       </c>
@@ -15053,7 +15053,7 @@
         <v>1350.6</v>
       </c>
     </row>
-    <row r="277" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="277" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A277" s="13" t="s">
         <v>294</v>
       </c>
@@ -15100,7 +15100,7 @@
         <v>1356.2</v>
       </c>
     </row>
-    <row r="278" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="278" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A278" s="13" t="s">
         <v>295</v>
       </c>
@@ -15147,7 +15147,7 @@
         <v>1350.6</v>
       </c>
     </row>
-    <row r="279" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="279" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A279" s="13" t="s">
         <v>296</v>
       </c>
@@ -15194,7 +15194,7 @@
         <v>1350.6</v>
       </c>
     </row>
-    <row r="280" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="280" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A280" s="13" t="s">
         <v>297</v>
       </c>
@@ -15241,7 +15241,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="281" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="281" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A281" s="13" t="s">
         <v>298</v>
       </c>
@@ -15288,7 +15288,7 @@
         <v>1350.6</v>
       </c>
     </row>
-    <row r="282" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="282" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A282" s="13" t="s">
         <v>299</v>
       </c>
@@ -15335,7 +15335,7 @@
         <v>1378.4</v>
       </c>
     </row>
-    <row r="283" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="283" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A283" s="13" t="s">
         <v>300</v>
       </c>
@@ -15382,7 +15382,7 @@
         <v>1372.8</v>
       </c>
     </row>
-    <row r="284" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="284" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A284" s="13" t="s">
         <v>301</v>
       </c>
@@ -15429,7 +15429,7 @@
         <v>1383.9</v>
       </c>
     </row>
-    <row r="285" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="285" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A285" s="13" t="s">
         <v>302</v>
       </c>
@@ -15476,7 +15476,7 @@
         <v>1395</v>
       </c>
     </row>
-    <row r="286" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="286" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A286" s="13" t="s">
         <v>303</v>
       </c>
@@ -15523,7 +15523,7 @@
         <v>1411.7</v>
       </c>
     </row>
-    <row r="287" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="287" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A287" s="13" t="s">
         <v>304</v>
       </c>
@@ -15570,7 +15570,7 @@
         <v>1422.8</v>
       </c>
     </row>
-    <row r="288" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="288" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A288" s="13" t="s">
         <v>305</v>
       </c>
@@ -15617,7 +15617,7 @@
         <v>1439.5</v>
       </c>
     </row>
-    <row r="289" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="289" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A289" s="13" t="s">
         <v>306</v>
       </c>
@@ -15664,7 +15664,7 @@
         <v>1467.3</v>
       </c>
     </row>
-    <row r="290" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="290" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A290" s="13" t="s">
         <v>307</v>
       </c>
@@ -15711,7 +15711,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="291" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="291" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A291" s="13" t="s">
         <v>308</v>
       </c>
@@ -15758,7 +15758,7 @@
         <v>1511.8</v>
       </c>
     </row>
-    <row r="292" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="292" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A292" s="13" t="s">
         <v>309</v>
       </c>
@@ -15805,7 +15805,7 @@
         <v>1550.7</v>
       </c>
     </row>
-    <row r="293" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="293" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A293" s="13" t="s">
         <v>310</v>
       </c>
@@ -15852,7 +15852,7 @@
         <v>1567.4</v>
       </c>
     </row>
-    <row r="294" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="294" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A294" s="13" t="s">
         <v>311</v>
       </c>
@@ -15899,7 +15899,7 @@
         <v>1584.1</v>
       </c>
     </row>
-    <row r="295" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="295" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A295" s="13" t="s">
         <v>312</v>
       </c>
@@ -15946,7 +15946,7 @@
         <v>1606.3</v>
       </c>
     </row>
-    <row r="296" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="296" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A296" s="13" t="s">
         <v>313</v>
       </c>
@@ -15993,7 +15993,7 @@
         <v>1634.1</v>
       </c>
     </row>
-    <row r="297" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="297" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A297" s="13" t="s">
         <v>314</v>
       </c>
@@ -16040,7 +16040,7 @@
         <v>1650.8</v>
       </c>
     </row>
-    <row r="298" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="298" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A298" s="13" t="s">
         <v>315</v>
       </c>
@@ -16087,7 +16087,7 @@
         <v>1656.4</v>
       </c>
     </row>
-    <row r="299" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="299" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A299" s="13" t="s">
         <v>316</v>
       </c>
@@ -16134,7 +16134,7 @@
         <v>1684.2</v>
       </c>
     </row>
-    <row r="300" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="300" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A300" s="13" t="s">
         <v>317</v>
       </c>
@@ -16181,7 +16181,7 @@
         <v>1717.5</v>
       </c>
     </row>
-    <row r="301" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="301" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A301" s="13" t="s">
         <v>318</v>
       </c>
@@ -16228,7 +16228,7 @@
         <v>1728.6</v>
       </c>
     </row>
-    <row r="302" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="302" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A302" s="13" t="s">
         <v>319</v>
       </c>
@@ -16275,7 +16275,7 @@
         <v>1750.8</v>
       </c>
     </row>
-    <row r="303" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="303" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A303" s="13" t="s">
         <v>320</v>
       </c>
@@ -16322,7 +16322,7 @@
         <v>1795.2</v>
       </c>
     </row>
-    <row r="304" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="304" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A304" s="13" t="s">
         <v>321</v>
       </c>
@@ -16369,7 +16369,7 @@
         <v>1806.3</v>
       </c>
     </row>
-    <row r="305" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="305" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A305" s="13" t="s">
         <v>322</v>
       </c>
@@ -16416,7 +16416,7 @@
         <v>1811.9</v>
       </c>
     </row>
-    <row r="306" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="306" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A306" s="13" t="s">
         <v>323</v>
       </c>
@@ -16463,7 +16463,7 @@
         <v>1806.3</v>
       </c>
     </row>
-    <row r="307" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="307" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A307" s="13" t="s">
         <v>324</v>
       </c>
@@ -16510,7 +16510,7 @@
         <v>1817.4</v>
       </c>
     </row>
-    <row r="308" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="308" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A308" s="13" t="s">
         <v>325</v>
       </c>
@@ -16557,7 +16557,7 @@
         <v>1817.4</v>
       </c>
     </row>
-    <row r="309" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="309" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A309" s="13" t="s">
         <v>326</v>
       </c>
@@ -16604,7 +16604,7 @@
         <v>1823</v>
       </c>
     </row>
-    <row r="310" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="310" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A310" s="13" t="s">
         <v>327</v>
       </c>
@@ -16651,7 +16651,7 @@
         <v>1850.8</v>
       </c>
     </row>
-    <row r="311" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="311" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A311" s="13" t="s">
         <v>328</v>
       </c>
@@ -16698,7 +16698,7 @@
         <v>1867.5</v>
       </c>
     </row>
-    <row r="312" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="312" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A312" s="13" t="s">
         <v>329</v>
       </c>
@@ -16745,7 +16745,7 @@
         <v>1884.2</v>
       </c>
     </row>
-    <row r="313" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="313" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A313" s="13" t="s">
         <v>330</v>
       </c>
@@ -16792,7 +16792,7 @@
         <v>1873.1</v>
       </c>
     </row>
-    <row r="314" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="314" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A314" s="13" t="s">
         <v>331</v>
       </c>
@@ -16839,7 +16839,7 @@
         <v>1889.8</v>
       </c>
     </row>
-    <row r="315" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="315" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A315" s="13" t="s">
         <v>332</v>
       </c>
@@ -16886,7 +16886,7 @@
         <v>1917.6</v>
       </c>
     </row>
-    <row r="316" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="316" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A316" s="13" t="s">
         <v>333</v>
       </c>
@@ -16933,7 +16933,7 @@
         <v>1939.8</v>
       </c>
     </row>
-    <row r="317" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="317" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A317" s="13" t="s">
         <v>334</v>
       </c>
@@ -16980,7 +16980,7 @@
         <v>1945.4</v>
       </c>
     </row>
-    <row r="318" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="318" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A318" s="13" t="s">
         <v>335</v>
       </c>
@@ -17027,7 +17027,7 @@
         <v>1951</v>
       </c>
     </row>
-    <row r="319" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="319" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A319" s="13" t="s">
         <v>336</v>
       </c>
@@ -17074,7 +17074,7 @@
         <v>1962.1</v>
       </c>
     </row>
-    <row r="320" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="320" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A320" s="13" t="s">
         <v>337</v>
       </c>
@@ -17121,7 +17121,7 @@
         <v>1984.3</v>
       </c>
     </row>
-    <row r="321" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="321" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A321" s="13" t="s">
         <v>338</v>
       </c>
@@ -17168,7 +17168,7 @@
         <v>2012.1</v>
       </c>
     </row>
-    <row r="322" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="322" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A322" s="13" t="s">
         <v>339</v>
       </c>
@@ -17215,7 +17215,7 @@
         <v>2045.4</v>
       </c>
     </row>
-    <row r="323" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="323" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A323" s="13" t="s">
         <v>340</v>
       </c>
@@ -17262,7 +17262,7 @@
         <v>2067.6</v>
       </c>
     </row>
-    <row r="324" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="324" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A324" s="13" t="s">
         <v>341</v>
       </c>
@@ -17309,7 +17309,7 @@
         <v>2106.5</v>
       </c>
     </row>
-    <row r="325" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="325" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A325" s="13" t="s">
         <v>342</v>
       </c>
@@ -17356,7 +17356,7 @@
         <v>2134.3000000000002</v>
       </c>
     </row>
-    <row r="326" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="326" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A326" s="13" t="s">
         <v>343</v>
       </c>
@@ -17403,7 +17403,7 @@
         <v>2151</v>
       </c>
     </row>
-    <row r="327" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="327" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A327" s="13" t="s">
         <v>344</v>
       </c>
@@ -17450,7 +17450,7 @@
         <v>2162.1</v>
       </c>
     </row>
-    <row r="328" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="328" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A328" s="13" t="s">
         <v>345</v>
       </c>
@@ -17497,7 +17497,7 @@
         <v>2173.1999999999998</v>
       </c>
     </row>
-    <row r="329" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="329" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A329" s="13" t="s">
         <v>346</v>
       </c>
@@ -17544,7 +17544,7 @@
         <v>2189.9</v>
       </c>
     </row>
-    <row r="330" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="330" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A330" s="13" t="s">
         <v>347</v>
       </c>
@@ -17591,7 +17591,7 @@
         <v>2217.6999999999998</v>
       </c>
     </row>
-    <row r="331" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="331" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A331" s="13" t="s">
         <v>348</v>
       </c>
@@ -17638,7 +17638,7 @@
         <v>2239.9</v>
       </c>
     </row>
-    <row r="332" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="332" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A332" s="13" t="s">
         <v>349</v>
       </c>
@@ -17685,7 +17685,7 @@
         <v>2223.1999999999998</v>
       </c>
     </row>
-    <row r="333" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="333" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A333" s="13" t="s">
         <v>350</v>
       </c>
@@ -17732,7 +17732,7 @@
         <v>2228.8000000000002</v>
       </c>
     </row>
-    <row r="334" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="334" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A334" s="13" t="s">
         <v>351</v>
       </c>
@@ -17779,7 +17779,7 @@
         <v>2223.1999999999998</v>
       </c>
     </row>
-    <row r="335" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="335" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A335" s="13" t="s">
         <v>352</v>
       </c>
@@ -17826,7 +17826,7 @@
         <v>2251</v>
       </c>
     </row>
-    <row r="336" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="336" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A336" s="13" t="s">
         <v>353</v>
       </c>
@@ -17873,7 +17873,7 @@
         <v>2278.8000000000002</v>
       </c>
     </row>
-    <row r="337" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="337" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A337" s="13" t="s">
         <v>354</v>
       </c>
@@ -17920,7 +17920,7 @@
         <v>2317.6999999999998</v>
       </c>
     </row>
-    <row r="338" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="338" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A338" s="13" t="s">
         <v>355</v>
       </c>
@@ -17967,7 +17967,7 @@
         <v>2339.9</v>
       </c>
     </row>
-    <row r="339" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="339" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A339" s="13" t="s">
         <v>356</v>
       </c>
@@ -18014,7 +18014,7 @@
         <v>2351</v>
       </c>
     </row>
-    <row r="340" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="340" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A340" s="13" t="s">
         <v>357</v>
       </c>
@@ -18061,7 +18061,7 @@
         <v>2367.6999999999998</v>
       </c>
     </row>
-    <row r="341" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="341" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A341" s="13" t="s">
         <v>358</v>
       </c>
@@ -18108,7 +18108,7 @@
         <v>2384.4</v>
       </c>
     </row>
-    <row r="342" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="342" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A342" s="13" t="s">
         <v>359</v>
       </c>
@@ -18155,7 +18155,7 @@
         <v>2412.1999999999998</v>
       </c>
     </row>
-    <row r="343" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="343" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A343" s="13" t="s">
         <v>360</v>
       </c>
@@ -18202,7 +18202,7 @@
         <v>2440</v>
       </c>
     </row>
-    <row r="344" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="344" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A344" s="13" t="s">
         <v>361</v>
       </c>
@@ -18249,7 +18249,7 @@
         <v>2434.4</v>
       </c>
     </row>
-    <row r="345" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="345" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A345" s="13" t="s">
         <v>362</v>
       </c>
@@ -18296,7 +18296,7 @@
         <v>2423.3000000000002</v>
       </c>
     </row>
-    <row r="346" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="346" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A346" s="13" t="s">
         <v>363</v>
       </c>
@@ -18343,7 +18343,7 @@
         <v>2384.4</v>
       </c>
     </row>
-    <row r="347" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="347" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A347" s="13" t="s">
         <v>364</v>
       </c>
@@ -18390,7 +18390,7 @@
         <v>2356.6</v>
       </c>
     </row>
-    <row r="348" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="348" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A348" s="13" t="s">
         <v>365</v>
       </c>
@@ -18437,7 +18437,7 @@
         <v>2328.8000000000002</v>
       </c>
     </row>
-    <row r="349" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="349" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A349" s="13" t="s">
         <v>366</v>
       </c>
@@ -18484,7 +18484,7 @@
         <v>2312.1</v>
       </c>
     </row>
-    <row r="350" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="350" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A350" s="13" t="s">
         <v>367</v>
       </c>
@@ -18531,7 +18531,7 @@
         <v>2273.1999999999998</v>
       </c>
     </row>
-    <row r="351" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="351" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A351" s="13" t="s">
         <v>368</v>
       </c>
@@ -18578,7 +18578,7 @@
         <v>2256.5</v>
       </c>
     </row>
-    <row r="352" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="352" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A352" s="13" t="s">
         <v>369</v>
       </c>
@@ -18625,7 +18625,7 @@
         <v>2217.6</v>
       </c>
     </row>
-    <row r="353" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="353" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A353" s="13" t="s">
         <v>370</v>
       </c>
@@ -18672,7 +18672,7 @@
         <v>2212</v>
       </c>
     </row>
-    <row r="354" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="354" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A354" s="13" t="s">
         <v>371</v>
       </c>
@@ -18719,7 +18719,7 @@
         <v>2162</v>
       </c>
     </row>
-    <row r="355" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="355" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A355" s="13" t="s">
         <v>372</v>
       </c>
@@ -18766,7 +18766,7 @@
         <v>2112</v>
       </c>
     </row>
-    <row r="356" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="356" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A356" s="13" t="s">
         <v>373</v>
       </c>
@@ -18813,7 +18813,7 @@
         <v>2062</v>
       </c>
     </row>
-    <row r="357" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="357" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A357" s="13" t="s">
         <v>374</v>
       </c>
@@ -18860,7 +18860,7 @@
         <v>2023.1</v>
       </c>
     </row>
-    <row r="358" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="358" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A358" s="13" t="s">
         <v>375</v>
       </c>
@@ -18907,7 +18907,7 @@
         <v>1984.2</v>
       </c>
     </row>
-    <row r="359" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="359" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A359" s="13" t="s">
         <v>376</v>
       </c>
@@ -18954,7 +18954,7 @@
         <v>1956.4</v>
       </c>
     </row>
-    <row r="360" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="360" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A360" s="13" t="s">
         <v>377</v>
       </c>
@@ -19001,7 +19001,7 @@
         <v>1917.5</v>
       </c>
     </row>
-    <row r="361" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="361" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A361" s="13" t="s">
         <v>378</v>
       </c>
@@ -19048,7 +19048,7 @@
         <v>1878.6</v>
       </c>
     </row>
-    <row r="362" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="362" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A362" s="13" t="s">
         <v>379</v>
       </c>
@@ -19095,7 +19095,7 @@
         <v>1861.9</v>
       </c>
     </row>
-    <row r="363" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="363" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A363" s="13" t="s">
         <v>380</v>
       </c>
@@ -19142,7 +19142,7 @@
         <v>1845.2</v>
       </c>
     </row>
-    <row r="364" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="364" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A364" s="13" t="s">
         <v>381</v>
       </c>
@@ -19189,7 +19189,7 @@
         <v>1834.1</v>
       </c>
     </row>
-    <row r="365" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="365" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A365" s="13" t="s">
         <v>382</v>
       </c>
@@ -19236,7 +19236,7 @@
         <v>1817.4</v>
       </c>
     </row>
-    <row r="366" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="366" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A366" s="13" t="s">
         <v>383</v>
       </c>
@@ -19283,7 +19283,7 @@
         <v>1823</v>
       </c>
     </row>
-    <row r="367" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="367" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A367" s="13" t="s">
         <v>384</v>
       </c>
@@ -19330,7 +19330,7 @@
         <v>1839.7</v>
       </c>
     </row>
-    <row r="368" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="368" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A368" s="13" t="s">
         <v>385</v>
       </c>
@@ -19377,7 +19377,7 @@
         <v>1845.3</v>
       </c>
     </row>
-    <row r="369" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="369" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A369" s="13" t="s">
         <v>386</v>
       </c>
@@ -19424,7 +19424,7 @@
         <v>1862</v>
       </c>
     </row>
-    <row r="370" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="370" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A370" s="13" t="s">
         <v>387</v>
       </c>
@@ -19471,7 +19471,7 @@
         <v>1845.3</v>
       </c>
     </row>
-    <row r="371" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="371" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A371" s="13" t="s">
         <v>388</v>
       </c>
@@ -19518,7 +19518,7 @@
         <v>1845.3</v>
       </c>
     </row>
-    <row r="372" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="372" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A372" s="13" t="s">
         <v>389</v>
       </c>
@@ -19565,7 +19565,7 @@
         <v>1839.7</v>
       </c>
     </row>
-    <row r="373" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="373" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A373" s="13" t="s">
         <v>390</v>
       </c>
@@ -19612,7 +19612,7 @@
         <v>1878.6</v>
       </c>
     </row>
-    <row r="374" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="374" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A374" s="13" t="s">
         <v>391</v>
       </c>
@@ -19659,7 +19659,7 @@
         <v>1900.8</v>
       </c>
     </row>
-    <row r="375" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="375" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A375" s="13" t="s">
         <v>392</v>
       </c>
@@ -19706,7 +19706,7 @@
         <v>1906.4</v>
       </c>
     </row>
-    <row r="376" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="376" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A376" s="13" t="s">
         <v>393</v>
       </c>
@@ -19753,7 +19753,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="377" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="377" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A377" s="13" t="s">
         <v>394</v>
       </c>
@@ -19800,7 +19800,7 @@
         <v>1939.8</v>
       </c>
     </row>
-    <row r="378" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="378" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A378" s="13" t="s">
         <v>395</v>
       </c>
@@ -19847,7 +19847,7 @@
         <v>1945.4</v>
       </c>
     </row>
-    <row r="379" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="379" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A379" s="13" t="s">
         <v>396</v>
       </c>
@@ -19894,7 +19894,7 @@
         <v>1939.8</v>
       </c>
     </row>
-    <row r="380" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="380" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A380" s="13" t="s">
         <v>397</v>
       </c>
@@ -19941,7 +19941,7 @@
         <v>1956.5</v>
       </c>
     </row>
-    <row r="381" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="381" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A381" s="13" t="s">
         <v>398</v>
       </c>
@@ -19988,7 +19988,7 @@
         <v>1934.3</v>
       </c>
     </row>
-    <row r="382" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="382" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A382" s="13" t="s">
         <v>399</v>
       </c>
@@ -20035,7 +20035,7 @@
         <v>1917.6</v>
       </c>
     </row>
-    <row r="383" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="383" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A383" s="13" t="s">
         <v>400</v>
       </c>
@@ -20082,7 +20082,7 @@
         <v>1889.8</v>
       </c>
     </row>
-    <row r="384" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="384" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A384" s="13" t="s">
         <v>401</v>
       </c>
@@ -20129,7 +20129,7 @@
         <v>1906.5</v>
       </c>
     </row>
-    <row r="385" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="385" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A385" s="13" t="s">
         <v>402</v>
       </c>
@@ -20176,7 +20176,7 @@
         <v>1906.5</v>
       </c>
     </row>
-    <row r="386" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="386" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A386" s="13" t="s">
         <v>403</v>
       </c>
@@ -20223,7 +20223,7 @@
         <v>1934.3</v>
       </c>
     </row>
-    <row r="387" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="387" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A387" s="13" t="s">
         <v>404</v>
       </c>
@@ -20270,7 +20270,7 @@
         <v>1962.1</v>
       </c>
     </row>
-    <row r="388" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="388" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A388" s="13" t="s">
         <v>405</v>
       </c>
@@ -20317,7 +20317,7 @@
         <v>1978.8</v>
       </c>
     </row>
-    <row r="389" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="389" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A389" s="13" t="s">
         <v>406</v>
       </c>
@@ -20364,7 +20364,7 @@
         <v>1984.4</v>
       </c>
     </row>
-    <row r="390" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="390" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A390" s="13" t="s">
         <v>407</v>
       </c>
@@ -20411,7 +20411,7 @@
         <v>1973.3</v>
       </c>
     </row>
-    <row r="391" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="391" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A391" s="13" t="s">
         <v>408</v>
       </c>
@@ -20458,7 +20458,7 @@
         <v>1945.5</v>
       </c>
     </row>
-    <row r="392" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="392" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A392" s="13" t="s">
         <v>409</v>
       </c>
@@ -20505,7 +20505,7 @@
         <v>1951.1</v>
       </c>
     </row>
-    <row r="393" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="393" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A393" s="13" t="s">
         <v>410</v>
       </c>
@@ -20552,7 +20552,7 @@
         <v>1973.3</v>
       </c>
     </row>
-    <row r="394" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="394" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A394" s="13" t="s">
         <v>411</v>
       </c>
@@ -20599,7 +20599,7 @@
         <v>2001.1</v>
       </c>
     </row>
-    <row r="395" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="395" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A395" s="13" t="s">
         <v>412</v>
       </c>
@@ -20646,7 +20646,7 @@
         <v>2006.7</v>
       </c>
     </row>
-    <row r="396" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="396" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A396" s="13" t="s">
         <v>413</v>
       </c>
@@ -20693,7 +20693,7 @@
         <v>2001.1</v>
       </c>
     </row>
-    <row r="397" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="397" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A397" s="13" t="s">
         <v>414</v>
       </c>
@@ -20740,7 +20740,7 @@
         <v>1973.3</v>
       </c>
     </row>
-    <row r="398" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="398" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A398" s="13" t="s">
         <v>415</v>
       </c>
@@ -20787,7 +20787,7 @@
         <v>1956.6</v>
       </c>
     </row>
-    <row r="399" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="399" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A399" s="13" t="s">
         <v>416</v>
       </c>
@@ -20834,7 +20834,7 @@
         <v>1951</v>
       </c>
     </row>
-    <row r="400" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="400" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A400" s="13" t="s">
         <v>417</v>
       </c>
@@ -20881,7 +20881,7 @@
         <v>1973.2</v>
       </c>
     </row>
-    <row r="401" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="401" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A401" s="13" t="s">
         <v>418</v>
       </c>
@@ -20928,7 +20928,7 @@
         <v>1989.9</v>
       </c>
     </row>
-    <row r="402" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="402" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A402" s="13" t="s">
         <v>419</v>
       </c>
@@ -20975,7 +20975,7 @@
         <v>1984.3</v>
       </c>
     </row>
-    <row r="403" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="403" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A403" s="13" t="s">
         <v>420</v>
       </c>
@@ -21022,7 +21022,7 @@
         <v>1967.6</v>
       </c>
     </row>
-    <row r="404" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="404" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A404" s="13" t="s">
         <v>421</v>
       </c>
@@ -21069,7 +21069,7 @@
         <v>1962</v>
       </c>
     </row>
-    <row r="405" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="405" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A405" s="13" t="s">
         <v>422</v>
       </c>
@@ -21116,7 +21116,7 @@
         <v>1956.4</v>
       </c>
     </row>
-    <row r="406" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="406" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A406" s="13" t="s">
         <v>423</v>
       </c>
@@ -21163,7 +21163,7 @@
         <v>1950.8</v>
       </c>
     </row>
-    <row r="407" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="407" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A407" s="13" t="s">
         <v>424</v>
       </c>
@@ -21210,7 +21210,7 @@
         <v>1956.4</v>
       </c>
     </row>
-    <row r="408" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="408" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A408" s="13" t="s">
         <v>425</v>
       </c>
@@ -21257,7 +21257,7 @@
         <v>1962</v>
       </c>
     </row>
-    <row r="409" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="409" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A409" s="13" t="s">
         <v>426</v>
       </c>
@@ -21304,7 +21304,7 @@
         <v>1967.6</v>
       </c>
     </row>
-    <row r="410" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="410" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A410" s="13" t="s">
         <v>427</v>
       </c>
@@ -21351,7 +21351,7 @@
         <v>1978.7</v>
       </c>
     </row>
-    <row r="411" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="411" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A411" s="13" t="s">
         <v>428</v>
       </c>
@@ -21398,7 +21398,7 @@
         <v>2006.5</v>
       </c>
     </row>
-    <row r="412" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="412" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A412" s="13" t="s">
         <v>429</v>
       </c>
@@ -21445,7 +21445,7 @@
         <v>2045.4</v>
       </c>
     </row>
-    <row r="413" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="413" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A413" s="13" t="s">
         <v>430</v>
       </c>
@@ -21492,7 +21492,7 @@
         <v>2073.1999999999998</v>
       </c>
     </row>
-    <row r="414" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="414" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A414" s="13" t="s">
         <v>431</v>
       </c>
@@ -21539,7 +21539,7 @@
         <v>2101</v>
       </c>
     </row>
-    <row r="415" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="415" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A415" s="13" t="s">
         <v>432</v>
       </c>
@@ -21586,7 +21586,7 @@
         <v>2151</v>
       </c>
     </row>
-    <row r="416" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="416" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A416" s="13" t="s">
         <v>433</v>
       </c>
@@ -21633,7 +21633,7 @@
         <v>2167.6999999999998</v>
       </c>
     </row>
-    <row r="417" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="417" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A417" s="13" t="s">
         <v>434</v>
       </c>
@@ -21680,7 +21680,7 @@
         <v>2178.8000000000002</v>
       </c>
     </row>
-    <row r="418" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="418" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A418" s="13" t="s">
         <v>435</v>
       </c>
@@ -21727,7 +21727,7 @@
         <v>2167.6999999999998</v>
       </c>
     </row>
-    <row r="419" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="419" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A419" s="13" t="s">
         <v>436</v>
       </c>
@@ -21774,7 +21774,7 @@
         <v>2195.5</v>
       </c>
     </row>
-    <row r="420" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="420" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A420" s="13" t="s">
         <v>437</v>
       </c>
@@ -21821,7 +21821,7 @@
         <v>2206.6</v>
       </c>
     </row>
-    <row r="421" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="421" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A421" s="13" t="s">
         <v>438</v>
       </c>
@@ -21868,7 +21868,7 @@
         <v>2239.9</v>
       </c>
     </row>
-    <row r="422" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="422" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A422" s="13" t="s">
         <v>439</v>
       </c>
@@ -21915,7 +21915,7 @@
         <v>2234.3000000000002</v>
       </c>
     </row>
-    <row r="423" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="423" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A423" s="13" t="s">
         <v>440</v>
       </c>
@@ -21962,7 +21962,7 @@
         <v>2228.6999999999998</v>
       </c>
     </row>
-    <row r="424" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="424" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A424" s="13" t="s">
         <v>441</v>
       </c>
@@ -22009,7 +22009,7 @@
         <v>2212</v>
       </c>
     </row>
-    <row r="425" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="425" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A425" s="13" t="s">
         <v>442</v>
       </c>
@@ -22056,7 +22056,7 @@
         <v>2206.4</v>
       </c>
     </row>
-    <row r="426" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="426" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A426" s="13" t="s">
         <v>443</v>
       </c>
@@ -22103,7 +22103,7 @@
         <v>2195.3000000000002</v>
       </c>
     </row>
-    <row r="427" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="427" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A427" s="13" t="s">
         <v>444</v>
       </c>
@@ -22150,7 +22150,7 @@
         <v>2212</v>
       </c>
     </row>
-    <row r="428" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="428" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A428" s="13" t="s">
         <v>445</v>
       </c>
@@ -22197,7 +22197,7 @@
         <v>2200.9</v>
       </c>
     </row>
-    <row r="429" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="429" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A429" s="13" t="s">
         <v>446</v>
       </c>
@@ -22244,7 +22244,7 @@
         <v>2206.5</v>
       </c>
     </row>
-    <row r="430" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="430" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A430" s="13" t="s">
         <v>447</v>
       </c>
@@ -22291,7 +22291,7 @@
         <v>2212.1</v>
       </c>
     </row>
-    <row r="431" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="431" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A431" s="13" t="s">
         <v>448</v>
       </c>
@@ -22338,7 +22338,7 @@
         <v>2217.6999999999998</v>
       </c>
     </row>
-    <row r="432" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="432" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A432" s="13" t="s">
         <v>449</v>
       </c>
@@ -22385,7 +22385,7 @@
         <v>2217.6999999999998</v>
       </c>
     </row>
-    <row r="433" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="433" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A433" s="13" t="s">
         <v>450</v>
       </c>
@@ -22432,7 +22432,7 @@
         <v>2212.1</v>
       </c>
     </row>
-    <row r="434" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="434" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A434" s="13" t="s">
         <v>451</v>
       </c>
@@ -22479,7 +22479,7 @@
         <v>2195.4</v>
       </c>
     </row>
-    <row r="435" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="435" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A435" s="13" t="s">
         <v>452</v>
       </c>
@@ -22526,7 +22526,7 @@
         <v>2201</v>
       </c>
     </row>
-    <row r="436" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="436" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A436" s="13" t="s">
         <v>453</v>
       </c>
@@ -22573,7 +22573,7 @@
         <v>2184.3000000000002</v>
       </c>
     </row>
-    <row r="437" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="437" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A437" s="13" t="s">
         <v>454</v>
       </c>
@@ -22620,7 +22620,7 @@
         <v>2201</v>
       </c>
     </row>
-    <row r="438" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="438" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A438" s="13" t="s">
         <v>455</v>
       </c>
@@ -22667,7 +22667,7 @@
         <v>2206.6</v>
       </c>
     </row>
-    <row r="439" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="439" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A439" s="13" t="s">
         <v>456</v>
       </c>
@@ -22714,7 +22714,7 @@
         <v>2217.6999999999998</v>
       </c>
     </row>
-    <row r="440" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="440" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A440" s="13" t="s">
         <v>457</v>
       </c>
@@ -22761,7 +22761,7 @@
         <v>2217.6999999999998</v>
       </c>
     </row>
-    <row r="441" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="441" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A441" s="13" t="s">
         <v>458</v>
       </c>
@@ -22808,7 +22808,7 @@
         <v>2223.3000000000002</v>
       </c>
     </row>
-    <row r="442" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="442" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A442" s="13" t="s">
         <v>459</v>
       </c>
@@ -22855,7 +22855,7 @@
         <v>2228.9</v>
       </c>
     </row>
-    <row r="443" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="443" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A443" s="13" t="s">
         <v>460</v>
       </c>
@@ -22902,7 +22902,7 @@
         <v>2201.1</v>
       </c>
     </row>
-    <row r="444" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="444" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A444" s="13" t="s">
         <v>461</v>
       </c>
@@ -22949,7 +22949,7 @@
         <v>2195.5</v>
       </c>
     </row>
-    <row r="445" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="445" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A445" s="13" t="s">
         <v>462</v>
       </c>
@@ -22996,7 +22996,7 @@
         <v>2212.1999999999998</v>
       </c>
     </row>
-    <row r="446" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="446" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A446" s="13" t="s">
         <v>463</v>
       </c>
@@ -23043,7 +23043,7 @@
         <v>2240</v>
       </c>
     </row>
-    <row r="447" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="447" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A447" s="13" t="s">
         <v>464</v>
       </c>
@@ -23090,7 +23090,7 @@
         <v>2262.1999999999998</v>
       </c>
     </row>
-    <row r="448" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="448" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A448" s="13" t="s">
         <v>465</v>
       </c>
@@ -23137,7 +23137,7 @@
         <v>2301.1</v>
       </c>
     </row>
-    <row r="449" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="449" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A449" s="13" t="s">
         <v>466</v>
       </c>
@@ -23184,7 +23184,7 @@
         <v>2328.9</v>
       </c>
     </row>
-    <row r="450" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="450" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A450" s="13" t="s">
         <v>467</v>
       </c>
@@ -23231,7 +23231,7 @@
         <v>2356.6999999999998</v>
       </c>
     </row>
-    <row r="451" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="451" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A451" s="13" t="s">
         <v>468</v>
       </c>
@@ -23278,7 +23278,7 @@
         <v>2384.5</v>
       </c>
     </row>
-    <row r="452" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="452" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A452" s="13" t="s">
         <v>469</v>
       </c>
@@ -23325,7 +23325,7 @@
         <v>2423.4</v>
       </c>
     </row>
-    <row r="453" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="453" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A453" s="13" t="s">
         <v>470</v>
       </c>
@@ -23372,7 +23372,7 @@
         <v>2462.3000000000002</v>
       </c>
     </row>
-    <row r="454" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="454" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A454" s="13" t="s">
         <v>471</v>
       </c>
@@ -23419,7 +23419,7 @@
         <v>2479</v>
       </c>
     </row>
-    <row r="455" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="455" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A455" s="13" t="s">
         <v>472</v>
       </c>
@@ -23466,7 +23466,7 @@
         <v>2495.6999999999998</v>
       </c>
     </row>
-    <row r="456" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="456" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A456" s="13" t="s">
         <v>473</v>
       </c>
@@ -23513,7 +23513,7 @@
         <v>2501.3000000000002</v>
       </c>
     </row>
-    <row r="457" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="457" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A457" s="13" t="s">
         <v>474</v>
       </c>
@@ -23560,7 +23560,7 @@
         <v>2506.9</v>
       </c>
     </row>
-    <row r="458" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="458" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A458" s="13" t="s">
         <v>475</v>
       </c>
@@ -23607,7 +23607,7 @@
         <v>2512.5</v>
       </c>
     </row>
-    <row r="459" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="459" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A459" s="13" t="s">
         <v>476</v>
       </c>
@@ -23654,7 +23654,7 @@
         <v>2540.3000000000002</v>
       </c>
     </row>
-    <row r="460" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="460" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A460" s="13" t="s">
         <v>477</v>
       </c>
@@ -23701,7 +23701,7 @@
         <v>2584.6999999999998</v>
       </c>
     </row>
-    <row r="461" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="461" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A461" s="13" t="s">
         <v>478</v>
       </c>
@@ -23748,7 +23748,7 @@
         <v>2634.7</v>
       </c>
     </row>
-    <row r="462" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="462" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A462" s="13" t="s">
         <v>479</v>
       </c>
@@ -23795,7 +23795,7 @@
         <v>2673.6</v>
       </c>
     </row>
-    <row r="463" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="463" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A463" s="13" t="s">
         <v>480</v>
       </c>
@@ -23842,7 +23842,7 @@
         <v>2673.6</v>
       </c>
     </row>
-    <row r="464" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="464" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A464" s="13" t="s">
         <v>481</v>
       </c>
@@ -23889,7 +23889,7 @@
         <v>2695.8</v>
       </c>
     </row>
-    <row r="465" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="465" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A465" s="13" t="s">
         <v>482</v>
       </c>
@@ -23936,7 +23936,7 @@
         <v>2706.9</v>
       </c>
     </row>
-    <row r="466" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="466" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A466" s="13" t="s">
         <v>483</v>
       </c>
@@ -23983,7 +23983,7 @@
         <v>2712.5</v>
       </c>
     </row>
-    <row r="467" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="467" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A467" s="13" t="s">
         <v>484</v>
       </c>
@@ -24030,7 +24030,7 @@
         <v>2718.1</v>
       </c>
     </row>
-    <row r="468" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="468" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A468" s="13" t="s">
         <v>485</v>
       </c>
@@ -24077,7 +24077,7 @@
         <v>2723.7</v>
       </c>
     </row>
-    <row r="469" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="469" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A469" s="13" t="s">
         <v>486</v>
       </c>
@@ -24124,7 +24124,7 @@
         <v>2707</v>
       </c>
     </row>
-    <row r="470" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="470" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A470" s="13" t="s">
         <v>487</v>
       </c>
@@ -24171,7 +24171,7 @@
         <v>2695.9</v>
       </c>
     </row>
-    <row r="471" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="471" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A471" s="13" t="s">
         <v>488</v>
       </c>
@@ -24218,7 +24218,7 @@
         <v>2701.5</v>
       </c>
     </row>
-    <row r="472" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="472" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A472" s="13" t="s">
         <v>489</v>
       </c>
@@ -24265,7 +24265,7 @@
         <v>2707.1</v>
       </c>
     </row>
-    <row r="473" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="473" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A473" s="13" t="s">
         <v>490</v>
       </c>
@@ -24312,7 +24312,7 @@
         <v>2707.1</v>
       </c>
     </row>
-    <row r="474" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="474" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A474" s="13" t="s">
         <v>491</v>
       </c>
@@ -24359,7 +24359,7 @@
         <v>2707.1</v>
       </c>
     </row>
-    <row r="475" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="475" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A475" s="13" t="s">
         <v>492</v>
       </c>
@@ -24406,7 +24406,7 @@
         <v>2718.2</v>
       </c>
     </row>
-    <row r="476" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="476" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A476" s="13" t="s">
         <v>493</v>
       </c>
@@ -24453,7 +24453,7 @@
         <v>2734.9</v>
       </c>
     </row>
-    <row r="477" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="477" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A477" s="13" t="s">
         <v>494</v>
       </c>
@@ -24500,7 +24500,7 @@
         <v>2751.6</v>
       </c>
     </row>
-    <row r="478" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="478" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A478" s="13" t="s">
         <v>495</v>
       </c>
@@ -24547,7 +24547,7 @@
         <v>2757.2</v>
       </c>
     </row>
-    <row r="479" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="479" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A479" s="13" t="s">
         <v>496</v>
       </c>
@@ -24594,7 +24594,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="480" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="480" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A480" s="13" t="s">
         <v>497</v>
       </c>
@@ -24641,7 +24641,7 @@
         <v>2801.7</v>
       </c>
     </row>
-    <row r="481" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="481" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A481" s="13" t="s">
         <v>498</v>
       </c>
@@ -24688,7 +24688,7 @@
         <v>2818.4</v>
       </c>
     </row>
-    <row r="482" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="482" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A482" s="13" t="s">
         <v>499</v>
       </c>
@@ -24735,7 +24735,7 @@
         <v>2812.8</v>
       </c>
     </row>
-    <row r="483" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="483" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A483" s="13" t="s">
         <v>500</v>
       </c>
@@ -24782,7 +24782,7 @@
         <v>2818.4</v>
       </c>
     </row>
-    <row r="484" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="484" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A484" s="13" t="s">
         <v>501</v>
       </c>
@@ -24829,7 +24829,7 @@
         <v>2790.6</v>
       </c>
     </row>
-    <row r="485" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="485" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A485" s="13" t="s">
         <v>502</v>
       </c>
@@ -24876,7 +24876,7 @@
         <v>2757.3</v>
       </c>
     </row>
-    <row r="486" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="486" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A486" s="13" t="s">
         <v>503</v>
       </c>
@@ -24923,7 +24923,7 @@
         <v>2740.6</v>
       </c>
     </row>
-    <row r="487" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="487" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A487" s="13" t="s">
         <v>504</v>
       </c>
@@ -24970,7 +24970,7 @@
         <v>2746.2</v>
       </c>
     </row>
-    <row r="488" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="488" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A488" s="13" t="s">
         <v>505</v>
       </c>
@@ -25017,7 +25017,7 @@
         <v>2729.5</v>
       </c>
     </row>
-    <row r="489" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="489" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A489" s="13" t="s">
         <v>506</v>
       </c>
@@ -25064,7 +25064,7 @@
         <v>2690.6</v>
       </c>
     </row>
-    <row r="490" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="490" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A490" s="13" t="s">
         <v>507</v>
       </c>
@@ -25111,7 +25111,7 @@
         <v>2651.7</v>
       </c>
     </row>
-    <row r="491" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="491" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A491" s="13" t="s">
         <v>508</v>
       </c>
@@ -25158,7 +25158,7 @@
         <v>2607.3000000000002</v>
       </c>
     </row>
-    <row r="492" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="492" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A492" s="13" t="s">
         <v>509</v>
       </c>
@@ -25205,7 +25205,7 @@
         <v>2579.5</v>
       </c>
     </row>
-    <row r="493" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="493" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A493" s="13" t="s">
         <v>510</v>
       </c>
@@ -25252,7 +25252,7 @@
         <v>2573.9</v>
       </c>
     </row>
-    <row r="494" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="494" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A494" s="13" t="s">
         <v>511</v>
       </c>
@@ -25299,7 +25299,7 @@
         <v>2579.5</v>
       </c>
     </row>
-    <row r="495" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="495" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A495" s="13" t="s">
         <v>512</v>
       </c>
@@ -25346,7 +25346,7 @@
         <v>2573.9</v>
       </c>
     </row>
-    <row r="496" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="496" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A496" s="13" t="s">
         <v>513</v>
       </c>
@@ -25393,7 +25393,7 @@
         <v>2557.1999999999998</v>
       </c>
     </row>
-    <row r="497" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="497" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A497" s="13" t="s">
         <v>514</v>
       </c>
@@ -25440,7 +25440,7 @@
         <v>2551.6</v>
       </c>
     </row>
-    <row r="498" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="498" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A498" s="13" t="s">
         <v>515</v>
       </c>
@@ -25487,7 +25487,7 @@
         <v>2534.9</v>
       </c>
     </row>
-    <row r="499" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="499" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A499" s="13" t="s">
         <v>516</v>
       </c>
@@ -25534,7 +25534,7 @@
         <v>2534.9</v>
       </c>
     </row>
-    <row r="500" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="500" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A500" s="13" t="s">
         <v>517</v>
       </c>
@@ -25581,7 +25581,7 @@
         <v>2557.1</v>
       </c>
     </row>
-    <row r="501" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="501" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A501" s="13" t="s">
         <v>518</v>
       </c>
@@ -25628,7 +25628,7 @@
         <v>2607.1</v>
       </c>
     </row>
-    <row r="502" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="502" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A502" s="13" t="s">
         <v>519</v>
       </c>
@@ -25675,7 +25675,7 @@
         <v>2646</v>
       </c>
     </row>
-    <row r="503" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="503" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A503" s="13" t="s">
         <v>520</v>
       </c>
@@ -25722,7 +25722,7 @@
         <v>2684.9</v>
       </c>
     </row>
-    <row r="504" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="504" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A504" s="13" t="s">
         <v>521</v>
       </c>
@@ -25769,7 +25769,7 @@
         <v>2690.5</v>
       </c>
     </row>
-    <row r="505" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="505" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A505" s="13" t="s">
         <v>522</v>
       </c>
@@ -25816,7 +25816,7 @@
         <v>2701.6</v>
       </c>
     </row>
-    <row r="506" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="506" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A506" s="13" t="s">
         <v>523</v>
       </c>
@@ -25863,7 +25863,7 @@
         <v>2707.2</v>
       </c>
     </row>
-    <row r="507" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="507" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A507" s="13" t="s">
         <v>524</v>
       </c>
@@ -25910,7 +25910,7 @@
         <v>2690.5</v>
       </c>
     </row>
-    <row r="508" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="508" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A508" s="13" t="s">
         <v>525</v>
       </c>
@@ -25957,7 +25957,7 @@
         <v>2673.8</v>
       </c>
     </row>
-    <row r="509" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="509" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A509" s="13" t="s">
         <v>526</v>
       </c>
@@ -26004,7 +26004,7 @@
         <v>2668.2</v>
       </c>
     </row>
-    <row r="510" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="510" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A510" s="13" t="s">
         <v>527</v>
       </c>
@@ -26051,7 +26051,7 @@
         <v>2690.4</v>
       </c>
     </row>
-    <row r="511" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="511" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A511" s="13" t="s">
         <v>528</v>
       </c>
@@ -26098,7 +26098,7 @@
         <v>2707.1</v>
       </c>
     </row>
-    <row r="512" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="512" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A512" s="13" t="s">
         <v>529</v>
       </c>
@@ -26145,7 +26145,7 @@
         <v>2734.9</v>
       </c>
     </row>
-    <row r="513" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="513" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A513" s="13" t="s">
         <v>530</v>
       </c>
@@ -26192,7 +26192,7 @@
         <v>2740.5</v>
       </c>
     </row>
-    <row r="514" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="514" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A514" s="13" t="s">
         <v>531</v>
       </c>
@@ -26239,7 +26239,7 @@
         <v>2751.6</v>
       </c>
     </row>
-    <row r="515" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="515" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A515" s="13" t="s">
         <v>532</v>
       </c>
@@ -26286,7 +26286,7 @@
         <v>2757.2</v>
       </c>
     </row>
-    <row r="516" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="516" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A516" s="13" t="s">
         <v>533</v>
       </c>
@@ -26333,7 +26333,7 @@
         <v>2762.8</v>
       </c>
     </row>
-    <row r="517" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="517" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A517" s="13" t="s">
         <v>534</v>
       </c>
@@ -26380,7 +26380,7 @@
         <v>2779.5</v>
       </c>
     </row>
-    <row r="518" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="518" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A518" s="13" t="s">
         <v>535</v>
       </c>
@@ -26427,7 +26427,7 @@
         <v>2823.9</v>
       </c>
     </row>
-    <row r="519" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="519" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A519" s="13" t="s">
         <v>536</v>
       </c>
@@ -26474,7 +26474,7 @@
         <v>2829.5</v>
       </c>
     </row>
-    <row r="520" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="520" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A520" s="13" t="s">
         <v>537</v>
       </c>
@@ -26521,7 +26521,7 @@
         <v>2857.3</v>
       </c>
     </row>
-    <row r="521" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="521" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A521" s="13" t="s">
         <v>538</v>
       </c>
@@ -26568,7 +26568,7 @@
         <v>2868.4</v>
       </c>
     </row>
-    <row r="522" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="522" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A522" s="13" t="s">
         <v>539</v>
       </c>
@@ -26615,7 +26615,7 @@
         <v>2885.1</v>
       </c>
     </row>
-    <row r="523" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="523" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A523" s="13" t="s">
         <v>540</v>
       </c>
@@ -26662,7 +26662,7 @@
         <v>2912.9</v>
       </c>
     </row>
-    <row r="524" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="524" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A524" s="13" t="s">
         <v>541</v>
       </c>
@@ -26709,7 +26709,7 @@
         <v>2929.6</v>
       </c>
     </row>
-    <row r="525" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="525" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A525" s="13" t="s">
         <v>542</v>
       </c>
@@ -26756,7 +26756,7 @@
         <v>2946.3</v>
       </c>
     </row>
-    <row r="526" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="526" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A526" s="13" t="s">
         <v>543</v>
       </c>
@@ -26803,7 +26803,7 @@
         <v>2940.7</v>
       </c>
     </row>
-    <row r="527" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="527" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A527" s="13" t="s">
         <v>544</v>
       </c>
@@ -26850,7 +26850,7 @@
         <v>2957.4</v>
       </c>
     </row>
-    <row r="528" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="528" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A528" s="13" t="s">
         <v>545</v>
       </c>
@@ -26897,7 +26897,7 @@
         <v>2968.5</v>
       </c>
     </row>
-    <row r="529" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="529" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A529" s="13" t="s">
         <v>546</v>
       </c>
@@ -26944,7 +26944,7 @@
         <v>2979.6</v>
       </c>
     </row>
-    <row r="530" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="530" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A530" s="13" t="s">
         <v>547</v>
       </c>
@@ -26991,7 +26991,7 @@
         <v>2974</v>
       </c>
     </row>
-    <row r="531" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="531" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A531" s="13" t="s">
         <v>548</v>
       </c>
@@ -27038,7 +27038,7 @@
         <v>2996.2</v>
       </c>
     </row>
-    <row r="532" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="532" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A532" s="13" t="s">
         <v>549</v>
       </c>
@@ -27085,7 +27085,7 @@
         <v>3024</v>
       </c>
     </row>
-    <row r="533" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="533" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A533" s="13" t="s">
         <v>550</v>
       </c>
@@ -27132,7 +27132,7 @@
         <v>3051.8</v>
       </c>
     </row>
-    <row r="534" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="534" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A534" s="13" t="s">
         <v>551</v>
       </c>
@@ -27179,7 +27179,7 @@
         <v>3068.5</v>
       </c>
     </row>
-    <row r="535" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="535" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A535" s="13" t="s">
         <v>552</v>
       </c>
@@ -27226,7 +27226,7 @@
         <v>3051.8</v>
       </c>
     </row>
-    <row r="536" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="536" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A536" s="13" t="s">
         <v>553</v>
       </c>
@@ -27273,7 +27273,7 @@
         <v>3051.8</v>
       </c>
     </row>
-    <row r="537" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="537" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A537" s="13" t="s">
         <v>554</v>
       </c>
@@ -27320,7 +27320,7 @@
         <v>3051.8</v>
       </c>
     </row>
-    <row r="538" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="538" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A538" s="13" t="s">
         <v>555</v>
       </c>
@@ -27367,7 +27367,7 @@
         <v>3079.6</v>
       </c>
     </row>
-    <row r="539" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="539" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A539" s="13" t="s">
         <v>556</v>
       </c>
@@ -27414,7 +27414,7 @@
         <v>3079.6</v>
       </c>
     </row>
-    <row r="540" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="540" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A540" s="13" t="s">
         <v>557</v>
       </c>
@@ -27461,7 +27461,7 @@
         <v>3090.7</v>
       </c>
     </row>
-    <row r="541" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="541" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A541" s="13" t="s">
         <v>558</v>
       </c>
@@ -27508,7 +27508,7 @@
         <v>3118.5</v>
       </c>
     </row>
-    <row r="542" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="542" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A542" s="13" t="s">
         <v>559</v>
       </c>
@@ -27555,7 +27555,7 @@
         <v>3135.2</v>
       </c>
     </row>
-    <row r="543" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="543" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A543" s="13" t="s">
         <v>560</v>
       </c>
@@ -27602,7 +27602,7 @@
         <v>3129.6</v>
       </c>
     </row>
-    <row r="544" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="544" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A544" s="13" t="s">
         <v>561</v>
       </c>
@@ -27649,7 +27649,7 @@
         <v>3146.3</v>
       </c>
     </row>
-    <row r="545" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="545" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A545" s="13" t="s">
         <v>562</v>
       </c>
@@ -27696,7 +27696,7 @@
         <v>3157.4</v>
       </c>
     </row>
-    <row r="546" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="546" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A546" s="13" t="s">
         <v>563</v>
       </c>
@@ -27743,7 +27743,7 @@
         <v>3174.1</v>
       </c>
     </row>
-    <row r="547" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="547" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A547" s="13" t="s">
         <v>564</v>
       </c>
@@ -27790,7 +27790,7 @@
         <v>3201.9</v>
       </c>
     </row>
-    <row r="548" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="548" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A548" s="13" t="s">
         <v>565</v>
       </c>
@@ -27837,7 +27837,7 @@
         <v>3229.7</v>
       </c>
     </row>
-    <row r="549" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="549" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A549" s="13" t="s">
         <v>566</v>
       </c>
@@ -27884,7 +27884,7 @@
         <v>3246.4</v>
       </c>
     </row>
-    <row r="550" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="550" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A550" s="13" t="s">
         <v>567</v>
       </c>
@@ -27931,7 +27931,7 @@
         <v>3257.5</v>
       </c>
     </row>
-    <row r="551" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="551" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A551" s="13" t="s">
         <v>568</v>
       </c>
@@ -27978,7 +27978,7 @@
         <v>3274.2</v>
       </c>
     </row>
-    <row r="552" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="552" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A552" s="13" t="s">
         <v>569</v>
       </c>
@@ -28025,7 +28025,7 @@
         <v>3290.9</v>
       </c>
     </row>
-    <row r="553" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="553" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A553" s="13" t="s">
         <v>570</v>
       </c>
@@ -28072,7 +28072,7 @@
         <v>3285.3</v>
       </c>
     </row>
-    <row r="554" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="554" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A554" s="13" t="s">
         <v>571</v>
       </c>
@@ -28119,7 +28119,7 @@
         <v>3257.5</v>
       </c>
     </row>
-    <row r="555" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="555" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A555" s="13" t="s">
         <v>572</v>
       </c>
@@ -28166,7 +28166,7 @@
         <v>3240.8</v>
       </c>
     </row>
-    <row r="556" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="556" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A556" s="13" t="s">
         <v>573</v>
       </c>
@@ -28213,7 +28213,7 @@
         <v>3228.3</v>
       </c>
     </row>
-    <row r="557" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="557" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A557" s="13" t="s">
         <v>574</v>
       </c>
@@ -28224,43 +28224,43 @@
         <v>11</v>
       </c>
       <c r="D557" s="4">
-        <v>110.5</v>
+        <v>109.9</v>
       </c>
       <c r="E557" s="4">
-        <v>115.2</v>
+        <v>114.9</v>
       </c>
       <c r="F557" s="4">
-        <v>111.5</v>
+        <v>112.9</v>
       </c>
       <c r="G557" s="4">
-        <v>110.4</v>
+        <v>109.8</v>
       </c>
       <c r="H557" s="4">
-        <v>113.7</v>
+        <v>113.4</v>
       </c>
       <c r="I557" s="4">
-        <v>108.9</v>
+        <v>110.3</v>
       </c>
       <c r="J557" s="4">
-        <v>88.9</v>
+        <v>80</v>
       </c>
       <c r="K557" s="4">
+        <v>77.8</v>
+      </c>
+      <c r="L557" s="4">
         <v>75</v>
       </c>
-      <c r="L557" s="4">
-        <v>62.5</v>
-      </c>
       <c r="M557" s="4">
-        <v>1296</v>
+        <v>1287.0999999999999</v>
       </c>
       <c r="N557" s="4">
-        <v>3236.7</v>
+        <v>3239.5</v>
       </c>
       <c r="O557" s="4">
-        <v>3240.8</v>
-      </c>
-    </row>
-    <row r="566" spans="4:9" x14ac:dyDescent="0.15">
+        <v>3253.3</v>
+      </c>
+    </row>
+    <row r="566" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D566" s="3"/>
       <c r="E566" s="3"/>
       <c r="F566" s="3"/>
